--- a/1-Data-Codes/2-Final_Data/L_1999.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_1999.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1099.16908138447</v>
+        <v>1112.9487859948</v>
       </c>
       <c r="C2">
-        <v>40.1728469758259</v>
+        <v>40.0506883466527</v>
       </c>
       <c r="D2">
-        <v>91.1403467581265</v>
+        <v>90.5999600229997</v>
       </c>
       <c r="E2">
-        <v>72.55539374263221</v>
+        <v>72.1330833829502</v>
       </c>
       <c r="F2">
-        <v>16.9775615624851</v>
+        <v>16.9727879688538</v>
       </c>
       <c r="G2">
-        <v>22.4141573423099</v>
+        <v>23.801424157728</v>
       </c>
       <c r="H2">
-        <v>25.166767489299</v>
+        <v>25.0838058557617</v>
       </c>
       <c r="I2">
-        <v>12.0635116213655</v>
+        <v>12.0281229022627</v>
       </c>
       <c r="J2">
-        <v>73.3041003474936</v>
+        <v>71.5741351951762</v>
       </c>
       <c r="K2">
-        <v>22.623407140116</v>
+        <v>21.7395393675864</v>
       </c>
       <c r="L2">
-        <v>35.2287261791939</v>
+        <v>35.137253475402</v>
       </c>
       <c r="M2">
-        <v>48.208208799303</v>
+        <v>47.2394656681501</v>
       </c>
       <c r="N2">
-        <v>34.9043464980403</v>
+        <v>33.0629867424689</v>
       </c>
       <c r="O2">
-        <v>1512.41700113348</v>
+        <v>1501.84191714261</v>
       </c>
       <c r="P2">
-        <v>46.2649296286377</v>
+        <v>46.3750850889979</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>124.96977397064</v>
+        <v>120.343581387037</v>
       </c>
       <c r="C3">
-        <v>3.00187670941154</v>
+        <v>5.14390005716967</v>
       </c>
       <c r="D3">
-        <v>0.262034185574122</v>
+        <v>0.381468587973935</v>
       </c>
       <c r="E3">
-        <v>2.148039691946</v>
+        <v>2.29597710600614</v>
       </c>
       <c r="F3">
-        <v>8.83764638439138</v>
+        <v>8.89236998280361</v>
       </c>
       <c r="G3">
-        <v>0.465929245827407</v>
+        <v>0.51265552517792</v>
       </c>
       <c r="H3">
-        <v>0.0687098880347627</v>
+        <v>0.144607060547843</v>
       </c>
       <c r="I3">
-        <v>0.399494220408185</v>
+        <v>0.436317948025495</v>
       </c>
       <c r="J3">
-        <v>0.610471389659268</v>
+        <v>0.784822241523192</v>
       </c>
       <c r="K3">
-        <v>0.347512064167779</v>
+        <v>0.511127776814998</v>
       </c>
       <c r="L3">
-        <v>0.416592749173261</v>
+        <v>0.615066986932485</v>
       </c>
       <c r="M3">
-        <v>0.555149526562199</v>
+        <v>1.0682085805137</v>
       </c>
       <c r="N3">
-        <v>0.882847430149636</v>
+        <v>0.99365498265075</v>
       </c>
       <c r="O3">
-        <v>247.798038652517</v>
+        <v>251.235082904019</v>
       </c>
       <c r="P3">
-        <v>12.9176307847993</v>
+        <v>12.7341019367134</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1188.30669963866</v>
+        <v>1192.40043214292</v>
       </c>
       <c r="C4">
-        <v>15.942972506308</v>
+        <v>15.4405849270092</v>
       </c>
       <c r="D4">
-        <v>6.64940006700583</v>
+        <v>6.94639417183469</v>
       </c>
       <c r="E4">
-        <v>24.843186581207</v>
+        <v>25.0885878703186</v>
       </c>
       <c r="F4">
-        <v>22.6576558915937</v>
+        <v>20.8915979336005</v>
       </c>
       <c r="G4">
-        <v>12.0171771610523</v>
+        <v>12.2529911642337</v>
       </c>
       <c r="H4">
-        <v>6.41030343991082</v>
+        <v>7.20650051764628</v>
       </c>
       <c r="I4">
-        <v>9.56610951234379</v>
+        <v>9.312025096817891</v>
       </c>
       <c r="J4">
-        <v>26.4644593952633</v>
+        <v>27.0727454492042</v>
       </c>
       <c r="K4">
-        <v>11.1018049295901</v>
+        <v>11.3596750446653</v>
       </c>
       <c r="L4">
-        <v>79.9030720005529</v>
+        <v>78.4056666559989</v>
       </c>
       <c r="M4">
-        <v>59.884917161199</v>
+        <v>59.4645188917773</v>
       </c>
       <c r="N4">
-        <v>28.0504142758328</v>
+        <v>29.9357396198044</v>
       </c>
       <c r="O4">
-        <v>1988.23804569006</v>
+        <v>1995.54664951989</v>
       </c>
       <c r="P4">
-        <v>46.9504389847676</v>
+        <v>47.6925063488089</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>611.7756304317491</v>
+        <v>615.704073071225</v>
       </c>
       <c r="C5">
-        <v>61.0213378954766</v>
+        <v>60.8399574398958</v>
       </c>
       <c r="D5">
-        <v>15.9021274431147</v>
+        <v>15.8102515108298</v>
       </c>
       <c r="E5">
-        <v>44.2623472963747</v>
+        <v>47.062541220207</v>
       </c>
       <c r="F5">
-        <v>6.29435483802975</v>
+        <v>6.42242170819393</v>
       </c>
       <c r="G5">
-        <v>10.55803551896</v>
+        <v>11.1731547662426</v>
       </c>
       <c r="H5">
-        <v>15.9814114661357</v>
+        <v>15.8585265455079</v>
       </c>
       <c r="I5">
-        <v>7.38618609856684</v>
+        <v>7.33142948076227</v>
       </c>
       <c r="J5">
-        <v>35.1984172960488</v>
+        <v>35.5726781049766</v>
       </c>
       <c r="K5">
-        <v>24.5539737667944</v>
+        <v>23.4585088899722</v>
       </c>
       <c r="L5">
-        <v>24.2417391503933</v>
+        <v>23.987650541535</v>
       </c>
       <c r="M5">
-        <v>25.1830977192275</v>
+        <v>25.7729541105706</v>
       </c>
       <c r="N5">
-        <v>25.1937095676221</v>
+        <v>27.7276808703989</v>
       </c>
       <c r="O5">
-        <v>895.832173302</v>
+        <v>890.951963524626</v>
       </c>
       <c r="P5">
-        <v>62.747241116814</v>
+        <v>61.8141750440667</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>8116.27979333461</v>
+        <v>8083.25162476023</v>
       </c>
       <c r="C6">
-        <v>242.395192693017</v>
+        <v>238.070011761629</v>
       </c>
       <c r="D6">
-        <v>244.096476416861</v>
+        <v>244.57505092288</v>
       </c>
       <c r="E6">
-        <v>179.024083337742</v>
+        <v>180.530139660877</v>
       </c>
       <c r="F6">
-        <v>58.133656169568</v>
+        <v>59.3496090188646</v>
       </c>
       <c r="G6">
-        <v>98.2077364696917</v>
+        <v>100.439502799911</v>
       </c>
       <c r="H6">
-        <v>68.8359887448607</v>
+        <v>69.2792842454049</v>
       </c>
       <c r="I6">
-        <v>51.4475094103273</v>
+        <v>51.1283754115772</v>
       </c>
       <c r="J6">
-        <v>196.519797444954</v>
+        <v>196.87328217417</v>
       </c>
       <c r="K6">
-        <v>118.790367532621</v>
+        <v>122.535095190888</v>
       </c>
       <c r="L6">
-        <v>622.704974543438</v>
+        <v>626.692731019574</v>
       </c>
       <c r="M6">
-        <v>286.701010307218</v>
+        <v>280.900303435907</v>
       </c>
       <c r="N6">
-        <v>285.910084920185</v>
+        <v>285.062601852866</v>
       </c>
       <c r="O6">
-        <v>12493.8871937113</v>
+        <v>12514.1222213666</v>
       </c>
       <c r="P6">
-        <v>403.422610458869</v>
+        <v>397.848206667311</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>756.758178581766</v>
+        <v>759.671018743874</v>
       </c>
       <c r="C7">
-        <v>28.2950662280186</v>
+        <v>26.8579393579093</v>
       </c>
       <c r="D7">
-        <v>4.55981042199312</v>
+        <v>5.25609568584974</v>
       </c>
       <c r="E7">
-        <v>25.9079323065964</v>
+        <v>25.0361196301453</v>
       </c>
       <c r="F7">
-        <v>21.8209451458957</v>
+        <v>21.9114376848176</v>
       </c>
       <c r="G7">
-        <v>10.2697926644306</v>
+        <v>10.4088374751967</v>
       </c>
       <c r="H7">
-        <v>9.49101323393668</v>
+        <v>7.63461844400358</v>
       </c>
       <c r="I7">
-        <v>11.920449021052</v>
+        <v>11.8280501872511</v>
       </c>
       <c r="J7">
-        <v>21.1601973237243</v>
+        <v>21.1585359612014</v>
       </c>
       <c r="K7">
-        <v>20.402031984622</v>
+        <v>19.7532660132267</v>
       </c>
       <c r="L7">
-        <v>68.79502687749709</v>
+        <v>68.0491631284857</v>
       </c>
       <c r="M7">
-        <v>19.0894807496434</v>
+        <v>19.6599016107637</v>
       </c>
       <c r="N7">
-        <v>32.855178024041</v>
+        <v>34.0771261468019</v>
       </c>
       <c r="O7">
-        <v>1921.92967674224</v>
+        <v>1939.38908746736</v>
       </c>
       <c r="P7">
-        <v>54.0061804877901</v>
+        <v>52.0640018902695</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>731.800719889914</v>
+        <v>730.3706467717529</v>
       </c>
       <c r="C8">
-        <v>10.1523950630188</v>
+        <v>12.3626612204688</v>
       </c>
       <c r="D8">
-        <v>9.060590530008479</v>
+        <v>9.231447169566289</v>
       </c>
       <c r="E8">
-        <v>24.7267245669467</v>
+        <v>24.7913046826087</v>
       </c>
       <c r="F8">
-        <v>1.96291757567881</v>
+        <v>2.01842431706147</v>
       </c>
       <c r="G8">
-        <v>27.501933831495</v>
+        <v>27.2390285739205</v>
       </c>
       <c r="H8">
-        <v>9.20842911496516</v>
+        <v>9.279163391913199</v>
       </c>
       <c r="I8">
-        <v>3.74939036476369</v>
+        <v>3.78939687797038</v>
       </c>
       <c r="J8">
-        <v>43.5597586157965</v>
+        <v>45.0350367752009</v>
       </c>
       <c r="K8">
-        <v>28.8604746303085</v>
+        <v>28.760205922182</v>
       </c>
       <c r="L8">
-        <v>39.8186314575698</v>
+        <v>40.9349348204433</v>
       </c>
       <c r="M8">
-        <v>54.89929344631</v>
+        <v>54.1164805333195</v>
       </c>
       <c r="N8">
-        <v>35.9617663974475</v>
+        <v>36.1515058038512</v>
       </c>
       <c r="O8">
-        <v>1396.9245959977</v>
+        <v>1379.5743450078</v>
       </c>
       <c r="P8">
-        <v>6.94565585816829</v>
+        <v>7.17290330858887</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>160.637325397317</v>
+        <v>158.542706334314</v>
       </c>
       <c r="C9">
-        <v>8.54391561433339</v>
+        <v>9.215723436815591</v>
       </c>
       <c r="D9">
-        <v>1.57831486909377</v>
+        <v>1.939817556147</v>
       </c>
       <c r="E9">
-        <v>5.33748392566925</v>
+        <v>5.3328927691367</v>
       </c>
       <c r="F9">
-        <v>1.91989278530104</v>
+        <v>1.90483810690816</v>
       </c>
       <c r="G9">
-        <v>19.9390983721718</v>
+        <v>20.2113763650655</v>
       </c>
       <c r="H9">
-        <v>3.2411373974014</v>
+        <v>3.19600886778626</v>
       </c>
       <c r="I9">
-        <v>0.860458343717557</v>
+        <v>0.884767284917085</v>
       </c>
       <c r="J9">
-        <v>3.78715521140249</v>
+        <v>3.8420549623839</v>
       </c>
       <c r="K9">
-        <v>3.97432264650653</v>
+        <v>3.73414114227083</v>
       </c>
       <c r="L9">
-        <v>2.50112981364729</v>
+        <v>2.64925796125993</v>
       </c>
       <c r="M9">
-        <v>10.1037979961668</v>
+        <v>10.4339094019672</v>
       </c>
       <c r="N9">
-        <v>5.49283564295331</v>
+        <v>4.32415894203899</v>
       </c>
       <c r="O9">
-        <v>318.882391235441</v>
+        <v>319.739932282686</v>
       </c>
       <c r="P9">
-        <v>4.83151241059707</v>
+        <v>4.80915813422844</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4080.40027989223</v>
+        <v>4095.93869798811</v>
       </c>
       <c r="C10">
-        <v>71.82775547412341</v>
+        <v>71.3847986997211</v>
       </c>
       <c r="D10">
-        <v>40.6509359702696</v>
+        <v>43.5439323102754</v>
       </c>
       <c r="E10">
-        <v>76.68635751379981</v>
+        <v>75.7240053041601</v>
       </c>
       <c r="F10">
-        <v>12.2864376874068</v>
+        <v>12.820005293461</v>
       </c>
       <c r="G10">
-        <v>39.5250273460168</v>
+        <v>40.0766700245091</v>
       </c>
       <c r="H10">
-        <v>25.0452110516008</v>
+        <v>26.9577104635466</v>
       </c>
       <c r="I10">
-        <v>32.3038365763145</v>
+        <v>31.1710761030285</v>
       </c>
       <c r="J10">
-        <v>62.6202247227189</v>
+        <v>63.2542496970627</v>
       </c>
       <c r="K10">
-        <v>35.7130618514933</v>
+        <v>35.582369649928</v>
       </c>
       <c r="L10">
-        <v>112.742697536379</v>
+        <v>113.150068334636</v>
       </c>
       <c r="M10">
-        <v>98.0770872179438</v>
+        <v>94.2582533750541</v>
       </c>
       <c r="N10">
-        <v>105.640428875241</v>
+        <v>107.094459369788</v>
       </c>
       <c r="O10">
-        <v>6625.17956041307</v>
+        <v>6589.01929399608</v>
       </c>
       <c r="P10">
-        <v>114.953115526892</v>
+        <v>116.65892038326</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1720.41972767547</v>
+        <v>1713.32879476694</v>
       </c>
       <c r="C11">
-        <v>83.3412356542641</v>
+        <v>79.5354944109374</v>
       </c>
       <c r="D11">
-        <v>175.148163646915</v>
+        <v>170.943446883681</v>
       </c>
       <c r="E11">
-        <v>105.432589305353</v>
+        <v>103.709444440774</v>
       </c>
       <c r="F11">
-        <v>11.5618025602888</v>
+        <v>12.7724449818761</v>
       </c>
       <c r="G11">
-        <v>33.5257795324236</v>
+        <v>33.5989476104017</v>
       </c>
       <c r="H11">
-        <v>31.787746098984</v>
+        <v>32.875128743397</v>
       </c>
       <c r="I11">
-        <v>17.5752110133901</v>
+        <v>17.5635524739017</v>
       </c>
       <c r="J11">
-        <v>60.6493580182125</v>
+        <v>61.802135350352</v>
       </c>
       <c r="K11">
-        <v>45.7881106904683</v>
+        <v>44.9814959615766</v>
       </c>
       <c r="L11">
-        <v>80.92399295556641</v>
+        <v>79.1313011341025</v>
       </c>
       <c r="M11">
-        <v>67.5275613660788</v>
+        <v>66.8886996310097</v>
       </c>
       <c r="N11">
-        <v>68.74080280316851</v>
+        <v>67.28750483690099</v>
       </c>
       <c r="O11">
-        <v>3126.19224885156</v>
+        <v>3119.19919215386</v>
       </c>
       <c r="P11">
-        <v>71.73066586420219</v>
+        <v>71.8043788888705</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>286.629770885963</v>
+        <v>289.129570427258</v>
       </c>
       <c r="C12">
-        <v>8.18194837002468</v>
+        <v>8.297839383331811</v>
       </c>
       <c r="D12">
-        <v>3.01443032802045</v>
+        <v>3.14366692972634</v>
       </c>
       <c r="E12">
-        <v>2.46352843692948</v>
+        <v>2.71502268433953</v>
       </c>
       <c r="F12">
-        <v>0.741661636218199</v>
+        <v>0.96434046514755</v>
       </c>
       <c r="G12">
-        <v>0.466121823645173</v>
+        <v>0.6087630564302871</v>
       </c>
       <c r="H12">
-        <v>0.179810480618948</v>
+        <v>0.198102447333545</v>
       </c>
       <c r="I12">
-        <v>1.13887051653367</v>
+        <v>1.19883809476734</v>
       </c>
       <c r="J12">
-        <v>0.527390582356185</v>
+        <v>0.809285477661608</v>
       </c>
       <c r="K12">
-        <v>0.444922541451777</v>
+        <v>0.609149046491244</v>
       </c>
       <c r="L12">
-        <v>0.7088121039206931</v>
+        <v>1.2412232965583</v>
       </c>
       <c r="M12">
-        <v>4.39881716549095</v>
+        <v>4.65038341531188</v>
       </c>
       <c r="N12">
-        <v>3.31127371598177</v>
+        <v>3.59283133442773</v>
       </c>
       <c r="O12">
-        <v>513.810117136277</v>
+        <v>511.941666039823</v>
       </c>
       <c r="P12">
-        <v>24.4517509343046</v>
+        <v>24.5196484060678</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>252.282235531186</v>
+        <v>255.858593322136</v>
       </c>
       <c r="C13">
-        <v>23.0605782356478</v>
+        <v>22.8678959504942</v>
       </c>
       <c r="D13">
-        <v>1.62962803203227</v>
+        <v>2.25458457683366</v>
       </c>
       <c r="E13">
-        <v>17.949814241164</v>
+        <v>17.8950135915266</v>
       </c>
       <c r="F13">
-        <v>5.77967873324219</v>
+        <v>5.10533688896639</v>
       </c>
       <c r="G13">
-        <v>4.80500292499876</v>
+        <v>4.79000150576549</v>
       </c>
       <c r="H13">
-        <v>1.93163414322784</v>
+        <v>1.95634837888979</v>
       </c>
       <c r="I13">
-        <v>1.90657387374557</v>
+        <v>1.93857033780915</v>
       </c>
       <c r="J13">
-        <v>7.84354012239055</v>
+        <v>7.29881347143537</v>
       </c>
       <c r="K13">
-        <v>4.03394482110957</v>
+        <v>3.26468930179806</v>
       </c>
       <c r="L13">
-        <v>21.5032964946333</v>
+        <v>21.3771604892321</v>
       </c>
       <c r="M13">
-        <v>2.94620054813698</v>
+        <v>3.65149028503319</v>
       </c>
       <c r="N13">
-        <v>6.02262568387292</v>
+        <v>6.13263449480062</v>
       </c>
       <c r="O13">
-        <v>483.49502369811</v>
+        <v>483.094902681507</v>
       </c>
       <c r="P13">
-        <v>52.8226953824259</v>
+        <v>54.2456532795786</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2688.0488133918</v>
+        <v>2689.18931615023</v>
       </c>
       <c r="C14">
-        <v>123.064197892876</v>
+        <v>124.518375334279</v>
       </c>
       <c r="D14">
-        <v>19.1617803329731</v>
+        <v>19.6611832836156</v>
       </c>
       <c r="E14">
-        <v>124.33645285155</v>
+        <v>125.697547649988</v>
       </c>
       <c r="F14">
-        <v>31.2970335748544</v>
+        <v>31.8091661222812</v>
       </c>
       <c r="G14">
-        <v>83.6889170449633</v>
+        <v>83.76234504332329</v>
       </c>
       <c r="H14">
-        <v>68.2211927445928</v>
+        <v>67.17797229801261</v>
       </c>
       <c r="I14">
-        <v>32.0900725564049</v>
+        <v>32.2626390473445</v>
       </c>
       <c r="J14">
-        <v>189.046847463351</v>
+        <v>189.043463032498</v>
       </c>
       <c r="K14">
-        <v>166.008974311042</v>
+        <v>165.091011554095</v>
       </c>
       <c r="L14">
-        <v>159.824003432436</v>
+        <v>155.557555887851</v>
       </c>
       <c r="M14">
-        <v>110.081882777192</v>
+        <v>113.200764863029</v>
       </c>
       <c r="N14">
-        <v>89.1324766619491</v>
+        <v>88.8663735642579</v>
       </c>
       <c r="O14">
-        <v>4807.07800546843</v>
+        <v>4789.69165702664</v>
       </c>
       <c r="P14">
-        <v>82.306161943847</v>
+        <v>85.0216394962234</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1238.56140113461</v>
+        <v>1228.8668075222</v>
       </c>
       <c r="C15">
-        <v>41.5529701159047</v>
+        <v>42.6957031218594</v>
       </c>
       <c r="D15">
-        <v>13.1854558457235</v>
+        <v>14.2018344391475</v>
       </c>
       <c r="E15">
-        <v>67.6565537105862</v>
+        <v>66.5123509969075</v>
       </c>
       <c r="F15">
-        <v>15.5825245554284</v>
+        <v>15.7675820363804</v>
       </c>
       <c r="G15">
-        <v>46.3496778901457</v>
+        <v>42.5858092875407</v>
       </c>
       <c r="H15">
-        <v>57.6348916012196</v>
+        <v>57.1136675512628</v>
       </c>
       <c r="I15">
-        <v>29.2008536568728</v>
+        <v>29.1108058003947</v>
       </c>
       <c r="J15">
-        <v>174.809539565178</v>
+        <v>172.183381724067</v>
       </c>
       <c r="K15">
-        <v>75.9278537122083</v>
+        <v>76.4879506608704</v>
       </c>
       <c r="L15">
-        <v>79.8195354408484</v>
+        <v>80.7588830271407</v>
       </c>
       <c r="M15">
-        <v>199.098312922583</v>
+        <v>204.697318488271</v>
       </c>
       <c r="N15">
-        <v>79.7371616132495</v>
+        <v>80.5536838157976</v>
       </c>
       <c r="O15">
-        <v>2140.94481213725</v>
+        <v>2140.74651346057</v>
       </c>
       <c r="P15">
-        <v>44.1422741239942</v>
+        <v>42.9408023408648</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>529.424268434767</v>
+        <v>536.389578743905</v>
       </c>
       <c r="C16">
-        <v>57.9989695347754</v>
+        <v>61.5185252498632</v>
       </c>
       <c r="D16">
-        <v>7.88270836527018</v>
+        <v>7.9537837989945</v>
       </c>
       <c r="E16">
-        <v>21.1988862978833</v>
+        <v>23.1238996835638</v>
       </c>
       <c r="F16">
-        <v>2.71557083769427</v>
+        <v>3.4878041532725</v>
       </c>
       <c r="G16">
-        <v>11.4520709675449</v>
+        <v>11.4240245075327</v>
       </c>
       <c r="H16">
-        <v>19.0515707008547</v>
+        <v>18.939221662095</v>
       </c>
       <c r="I16">
-        <v>11.7314056056287</v>
+        <v>11.6972183969045</v>
       </c>
       <c r="J16">
-        <v>48.4434395409716</v>
+        <v>48.7175251561837</v>
       </c>
       <c r="K16">
-        <v>48.5142540526005</v>
+        <v>48.8480248533927</v>
       </c>
       <c r="L16">
-        <v>38.0107165999067</v>
+        <v>39.1710307899279</v>
       </c>
       <c r="M16">
-        <v>27.9082838831341</v>
+        <v>27.9463850251316</v>
       </c>
       <c r="N16">
-        <v>21.7066221992098</v>
+        <v>21.8188403768194</v>
       </c>
       <c r="O16">
-        <v>1116.87158728473</v>
+        <v>1119.75475020314</v>
       </c>
       <c r="P16">
-        <v>83.07215745416531</v>
+        <v>82.4636783994943</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>502.120895525652</v>
+        <v>512.079134012857</v>
       </c>
       <c r="C17">
-        <v>37.3562161819475</v>
+        <v>37.3745594110462</v>
       </c>
       <c r="D17">
-        <v>4.65094626811807</v>
+        <v>4.86303549395736</v>
       </c>
       <c r="E17">
-        <v>19.8735572199809</v>
+        <v>21.1416971474984</v>
       </c>
       <c r="F17">
-        <v>15.7458142323744</v>
+        <v>15.7976689341186</v>
       </c>
       <c r="G17">
-        <v>9.64980303575274</v>
+        <v>9.787763287601919</v>
       </c>
       <c r="H17">
-        <v>17.5991024938608</v>
+        <v>17.5864416338843</v>
       </c>
       <c r="I17">
-        <v>6.4765546222699</v>
+        <v>6.54188772476809</v>
       </c>
       <c r="J17">
-        <v>20.9678435903344</v>
+        <v>20.2821653817632</v>
       </c>
       <c r="K17">
-        <v>21.2744091228921</v>
+        <v>20.3719558218267</v>
       </c>
       <c r="L17">
-        <v>11.5111318759694</v>
+        <v>12.5081909430334</v>
       </c>
       <c r="M17">
-        <v>69.19667459719901</v>
+        <v>69.80594873649341</v>
       </c>
       <c r="N17">
-        <v>16.2749232533516</v>
+        <v>15.4449284614519</v>
       </c>
       <c r="O17">
-        <v>1034.42999633802</v>
+        <v>1046.23200379032</v>
       </c>
       <c r="P17">
-        <v>72.59138508668801</v>
+        <v>72.2213422334822</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1019.54997756774</v>
+        <v>1023.54125507103</v>
       </c>
       <c r="C18">
-        <v>36.0147205286058</v>
+        <v>36.0190242452805</v>
       </c>
       <c r="D18">
-        <v>27.0118366027138</v>
+        <v>27.0404541915191</v>
       </c>
       <c r="E18">
-        <v>47.5339308609588</v>
+        <v>46.1173733980631</v>
       </c>
       <c r="F18">
-        <v>30.8568568993238</v>
+        <v>31.3914468386172</v>
       </c>
       <c r="G18">
-        <v>22.8174686859648</v>
+        <v>22.915843432875</v>
       </c>
       <c r="H18">
-        <v>22.1701197013404</v>
+        <v>21.3967734359112</v>
       </c>
       <c r="I18">
-        <v>10.4859530934524</v>
+        <v>10.5481576338033</v>
       </c>
       <c r="J18">
-        <v>43.6973615178684</v>
+        <v>43.9858656752708</v>
       </c>
       <c r="K18">
-        <v>41.9066891717906</v>
+        <v>42.0063962656498</v>
       </c>
       <c r="L18">
-        <v>38.9130903662615</v>
+        <v>39.3428376578236</v>
       </c>
       <c r="M18">
-        <v>70.01447116912451</v>
+        <v>68.6863638133765</v>
       </c>
       <c r="N18">
-        <v>25.9669609099821</v>
+        <v>26.8475838271913</v>
       </c>
       <c r="O18">
-        <v>1408.89574691872</v>
+        <v>1406.86166294035</v>
       </c>
       <c r="P18">
-        <v>48.28717480286</v>
+        <v>48.3119063367055</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1158.27069752903</v>
+        <v>1146.07281222937</v>
       </c>
       <c r="C19">
-        <v>24.4781672114809</v>
+        <v>23.3698341016008</v>
       </c>
       <c r="D19">
-        <v>16.398391999341</v>
+        <v>16.5769171463819</v>
       </c>
       <c r="E19">
-        <v>41.4507205471453</v>
+        <v>42.726041726102</v>
       </c>
       <c r="F19">
-        <v>90.8337991416571</v>
+        <v>87.7510658112236</v>
       </c>
       <c r="G19">
-        <v>42.7338918619578</v>
+        <v>42.2949894515176</v>
       </c>
       <c r="H19">
-        <v>7.52678335209366</v>
+        <v>6.46832938191189</v>
       </c>
       <c r="I19">
-        <v>5.37000298008273</v>
+        <v>5.44713113920624</v>
       </c>
       <c r="J19">
-        <v>24.622487774984</v>
+        <v>24.7813043092388</v>
       </c>
       <c r="K19">
-        <v>9.81571450710296</v>
+        <v>10.0033047938383</v>
       </c>
       <c r="L19">
-        <v>9.027343994977979</v>
+        <v>7.63347141972318</v>
       </c>
       <c r="M19">
-        <v>28.8969428122708</v>
+        <v>31.3535814175775</v>
       </c>
       <c r="N19">
-        <v>14.2653873659231</v>
+        <v>13.3393705503322</v>
       </c>
       <c r="O19">
-        <v>1584.02980046258</v>
+        <v>1579.75942433341</v>
       </c>
       <c r="P19">
-        <v>40.8415756004829</v>
+        <v>41.7546144574978</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>258.82571324998</v>
+        <v>262.434464854986</v>
       </c>
       <c r="C20">
-        <v>9.42383352710911</v>
+        <v>9.38215949894942</v>
       </c>
       <c r="D20">
-        <v>17.6521131508197</v>
+        <v>16.7163941427101</v>
       </c>
       <c r="E20">
-        <v>34.9555603424612</v>
+        <v>34.314364509674</v>
       </c>
       <c r="F20">
-        <v>0.755008424527601</v>
+        <v>0.7842554365605871</v>
       </c>
       <c r="G20">
-        <v>1.63390249160677</v>
+        <v>1.69908404387333</v>
       </c>
       <c r="H20">
-        <v>2.03392876968546</v>
+        <v>2.08027797904425</v>
       </c>
       <c r="I20">
-        <v>1.97420676376472</v>
+        <v>2.00497871519238</v>
       </c>
       <c r="J20">
-        <v>5.20356226427902</v>
+        <v>5.33523032972696</v>
       </c>
       <c r="K20">
-        <v>4.7017306044567</v>
+        <v>4.76080709991144</v>
       </c>
       <c r="L20">
-        <v>8.162606092704539</v>
+        <v>8.87824289235312</v>
       </c>
       <c r="M20">
-        <v>15.9719627271269</v>
+        <v>16.5786723132595</v>
       </c>
       <c r="N20">
-        <v>6.19393317653273</v>
+        <v>6.24557608494902</v>
       </c>
       <c r="O20">
-        <v>524.713920397582</v>
+        <v>521.286764689691</v>
       </c>
       <c r="P20">
-        <v>27.9504036634564</v>
+        <v>27.644857408125</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1120.08187795085</v>
+        <v>1117.94639211742</v>
       </c>
       <c r="C21">
-        <v>34.5507073389938</v>
+        <v>33.9400738802131</v>
       </c>
       <c r="D21">
-        <v>13.2657941753776</v>
+        <v>13.7881761535358</v>
       </c>
       <c r="E21">
-        <v>38.2677129906107</v>
+        <v>38.4553209081831</v>
       </c>
       <c r="F21">
-        <v>4.14703377829177</v>
+        <v>4.39028202687612</v>
       </c>
       <c r="G21">
-        <v>18.0605317576503</v>
+        <v>20.5258276084714</v>
       </c>
       <c r="H21">
-        <v>10.2709895196877</v>
+        <v>10.4895030326045</v>
       </c>
       <c r="I21">
-        <v>7.43828486028488</v>
+        <v>8.78831325942838</v>
       </c>
       <c r="J21">
-        <v>34.8211424049022</v>
+        <v>32.1453101974061</v>
       </c>
       <c r="K21">
-        <v>10.790688886889</v>
+        <v>11.0717132696725</v>
       </c>
       <c r="L21">
-        <v>38.8463316444947</v>
+        <v>39.0583821304377</v>
       </c>
       <c r="M21">
-        <v>34.7647316088845</v>
+        <v>35.4528420615469</v>
       </c>
       <c r="N21">
-        <v>17.8772547980186</v>
+        <v>18.317466174318</v>
       </c>
       <c r="O21">
-        <v>2317.55797262348</v>
+        <v>2315.88706492817</v>
       </c>
       <c r="P21">
-        <v>21.8050618433222</v>
+        <v>22.3026899283956</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1288.67441001993</v>
+        <v>1310.18544513488</v>
       </c>
       <c r="C22">
-        <v>22.6180046408311</v>
+        <v>22.9831610184624</v>
       </c>
       <c r="D22">
-        <v>38.080447519544</v>
+        <v>38.3998916957207</v>
       </c>
       <c r="E22">
-        <v>52.2663098523515</v>
+        <v>53.5262526702842</v>
       </c>
       <c r="F22">
-        <v>4.15902723394686</v>
+        <v>4.34959065409642</v>
       </c>
       <c r="G22">
-        <v>30.6783263338101</v>
+        <v>30.7613888411169</v>
       </c>
       <c r="H22">
-        <v>28.5753838474598</v>
+        <v>26.1005461471124</v>
       </c>
       <c r="I22">
-        <v>8.82503275749424</v>
+        <v>8.953086499159991</v>
       </c>
       <c r="J22">
-        <v>57.6766770704152</v>
+        <v>56.9586914054069</v>
       </c>
       <c r="K22">
-        <v>36.1143878514536</v>
+        <v>36.3427429963213</v>
       </c>
       <c r="L22">
-        <v>150.384317647031</v>
+        <v>148.276866977795</v>
       </c>
       <c r="M22">
-        <v>20.9204487963935</v>
+        <v>19.2253629638851</v>
       </c>
       <c r="N22">
-        <v>69.7048952333375</v>
+        <v>70.5473743745717</v>
       </c>
       <c r="O22">
-        <v>2695.30406612296</v>
+        <v>2716.27487830356</v>
       </c>
       <c r="P22">
-        <v>16.3373526608997</v>
+        <v>17.2156710629629</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2171.5721160486</v>
+        <v>2161.7670482444</v>
       </c>
       <c r="C23">
-        <v>52.6633998036798</v>
+        <v>54.8864075579188</v>
       </c>
       <c r="D23">
-        <v>14.8036185565264</v>
+        <v>15.3338142530393</v>
       </c>
       <c r="E23">
-        <v>77.76384709093411</v>
+        <v>77.48042155769539</v>
       </c>
       <c r="F23">
-        <v>14.0040528899425</v>
+        <v>14.22056390005</v>
       </c>
       <c r="G23">
-        <v>53.2498766094497</v>
+        <v>53.2274502753297</v>
       </c>
       <c r="H23">
-        <v>71.8566290592035</v>
+        <v>73.79618163896281</v>
       </c>
       <c r="I23">
-        <v>19.7959041872101</v>
+        <v>20.827660898874</v>
       </c>
       <c r="J23">
-        <v>176.644584757711</v>
+        <v>174.00943113501</v>
       </c>
       <c r="K23">
-        <v>125.439137754202</v>
+        <v>124.904273661736</v>
       </c>
       <c r="L23">
-        <v>49.3809355373722</v>
+        <v>48.7004781084721</v>
       </c>
       <c r="M23">
-        <v>559.072188725894</v>
+        <v>555.813624037811</v>
       </c>
       <c r="N23">
-        <v>92.2482471322359</v>
+        <v>89.7389723813813</v>
       </c>
       <c r="O23">
-        <v>3452.85636576181</v>
+        <v>3477.33740275458</v>
       </c>
       <c r="P23">
-        <v>68.4425928267473</v>
+        <v>68.6481361439639</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>808.129439686338</v>
+        <v>808.59348201743</v>
       </c>
       <c r="C24">
-        <v>76.27844513398109</v>
+        <v>73.76458903337711</v>
       </c>
       <c r="D24">
-        <v>13.3875090863149</v>
+        <v>13.4815499467901</v>
       </c>
       <c r="E24">
-        <v>73.84920544546181</v>
+        <v>72.5453209419795</v>
       </c>
       <c r="F24">
-        <v>14.0319449438631</v>
+        <v>14.0578754567411</v>
       </c>
       <c r="G24">
-        <v>18.2199653800579</v>
+        <v>19.1288524253906</v>
       </c>
       <c r="H24">
-        <v>24.0656237273748</v>
+        <v>24.0432191670497</v>
       </c>
       <c r="I24">
-        <v>17.43381949999</v>
+        <v>17.3581209706268</v>
       </c>
       <c r="J24">
-        <v>61.083576841269</v>
+        <v>62.077236285459</v>
       </c>
       <c r="K24">
-        <v>60.9066928658404</v>
+        <v>61.6165477000419</v>
       </c>
       <c r="L24">
-        <v>76.0758001768239</v>
+        <v>75.5427903766843</v>
       </c>
       <c r="M24">
-        <v>34.6214533834031</v>
+        <v>34.9336932247214</v>
       </c>
       <c r="N24">
-        <v>61.3079815674244</v>
+        <v>61.4568387989393</v>
       </c>
       <c r="O24">
-        <v>1996.78665883584</v>
+        <v>1998.28125293202</v>
       </c>
       <c r="P24">
-        <v>119.859446066321</v>
+        <v>120.185395259403</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>709.772496118571</v>
+        <v>705.875050538188</v>
       </c>
       <c r="C25">
-        <v>36.4438504884807</v>
+        <v>36.168340263411</v>
       </c>
       <c r="D25">
-        <v>23.0484725778651</v>
+        <v>22.8454241542686</v>
       </c>
       <c r="E25">
-        <v>38.6072689565771</v>
+        <v>35.5994198324631</v>
       </c>
       <c r="F25">
-        <v>15.8768085251814</v>
+        <v>16.8224635454079</v>
       </c>
       <c r="G25">
-        <v>10.7293582771027</v>
+        <v>10.8141207604904</v>
       </c>
       <c r="H25">
-        <v>15.7082648873809</v>
+        <v>15.5997199916993</v>
       </c>
       <c r="I25">
-        <v>5.57008790163557</v>
+        <v>5.5658320033224</v>
       </c>
       <c r="J25">
-        <v>20.3781765758196</v>
+        <v>21.0829177927931</v>
       </c>
       <c r="K25">
-        <v>16.7640519256176</v>
+        <v>16.7184492587531</v>
       </c>
       <c r="L25">
-        <v>25.6082866139347</v>
+        <v>26.4697866451098</v>
       </c>
       <c r="M25">
-        <v>30.4047140460673</v>
+        <v>29.1502030667501</v>
       </c>
       <c r="N25">
-        <v>53.5511659275551</v>
+        <v>51.4529152355497</v>
       </c>
       <c r="O25">
-        <v>910.427613482913</v>
+        <v>903.760435805109</v>
       </c>
       <c r="P25">
-        <v>45.7919414656018</v>
+        <v>45.4288455137953</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1150.50937528493</v>
+        <v>1142.92779544492</v>
       </c>
       <c r="C26">
-        <v>61.5126464730579</v>
+        <v>62.1235637453728</v>
       </c>
       <c r="D26">
-        <v>24.0032219827821</v>
+        <v>23.8584854426529</v>
       </c>
       <c r="E26">
-        <v>53.6764091358759</v>
+        <v>53.4800573652403</v>
       </c>
       <c r="F26">
-        <v>8.69894390566321</v>
+        <v>10.2944585265117</v>
       </c>
       <c r="G26">
-        <v>33.5261382743698</v>
+        <v>33.4853559446453</v>
       </c>
       <c r="H26">
-        <v>26.5705910684632</v>
+        <v>26.4562050493128</v>
       </c>
       <c r="I26">
-        <v>13.8357458382936</v>
+        <v>13.9364434706074</v>
       </c>
       <c r="J26">
-        <v>69.4713304303943</v>
+        <v>68.4767497948789</v>
       </c>
       <c r="K26">
-        <v>44.5834469721775</v>
+        <v>44.4401453748264</v>
       </c>
       <c r="L26">
-        <v>52.6571361625162</v>
+        <v>49.7032653018692</v>
       </c>
       <c r="M26">
-        <v>87.8985846929389</v>
+        <v>83.60948300216811</v>
       </c>
       <c r="N26">
-        <v>45.2943962046109</v>
+        <v>45.970003399911</v>
       </c>
       <c r="O26">
-        <v>2210.66702796689</v>
+        <v>2207.02111865236</v>
       </c>
       <c r="P26">
-        <v>77.30324470807059</v>
+        <v>77.1097229156569</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>184.993429639536</v>
+        <v>185.312474119326</v>
       </c>
       <c r="C27">
-        <v>3.81805681431409</v>
+        <v>3.95170321659588</v>
       </c>
       <c r="D27">
-        <v>1.56702477296442</v>
+        <v>1.60349928440971</v>
       </c>
       <c r="E27">
-        <v>10.2382776684709</v>
+        <v>10.2852722174042</v>
       </c>
       <c r="F27">
-        <v>7.35611758557823</v>
+        <v>7.31805816135799</v>
       </c>
       <c r="G27">
-        <v>1.23744099855333</v>
+        <v>1.31051399126156</v>
       </c>
       <c r="H27">
-        <v>0.332019673058229</v>
+        <v>0.393111123588507</v>
       </c>
       <c r="I27">
-        <v>1.5472049848458</v>
+        <v>1.56891124207438</v>
       </c>
       <c r="J27">
-        <v>4.25444094991065</v>
+        <v>5.01535560361972</v>
       </c>
       <c r="K27">
-        <v>1.75601917929583</v>
+        <v>1.85783215479118</v>
       </c>
       <c r="L27">
-        <v>1.53905628987313</v>
+        <v>1.79216461073852</v>
       </c>
       <c r="M27">
-        <v>2.31911591883028</v>
+        <v>1.14394748407631</v>
       </c>
       <c r="N27">
-        <v>4.60932122105487</v>
+        <v>5.30661082989993</v>
       </c>
       <c r="O27">
-        <v>365.217083812637</v>
+        <v>368.658961785897</v>
       </c>
       <c r="P27">
-        <v>47.7357196615603</v>
+        <v>47.2015002443057</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>290.850058788711</v>
+        <v>289.146906081033</v>
       </c>
       <c r="C28">
-        <v>33.3010247892843</v>
+        <v>34.0380144863489</v>
       </c>
       <c r="D28">
-        <v>2.78417488364075</v>
+        <v>2.83728702079322</v>
       </c>
       <c r="E28">
-        <v>9.574374349291199</v>
+        <v>9.682007347788121</v>
       </c>
       <c r="F28">
-        <v>1.94332224157144</v>
+        <v>2.05691899088645</v>
       </c>
       <c r="G28">
-        <v>4.31457656788549</v>
+        <v>4.90589152342272</v>
       </c>
       <c r="H28">
-        <v>6.48158518267972</v>
+        <v>6.46710042699615</v>
       </c>
       <c r="I28">
-        <v>4.46557723642844</v>
+        <v>4.46054335850943</v>
       </c>
       <c r="J28">
-        <v>14.8267144247575</v>
+        <v>14.8427809229483</v>
       </c>
       <c r="K28">
-        <v>22.1285983406269</v>
+        <v>20.1786439754436</v>
       </c>
       <c r="L28">
-        <v>15.6520231495596</v>
+        <v>15.0930985620307</v>
       </c>
       <c r="M28">
-        <v>9.44803294248724</v>
+        <v>9.619070839926041</v>
       </c>
       <c r="N28">
-        <v>12.7722825838263</v>
+        <v>13.4016074174002</v>
       </c>
       <c r="O28">
-        <v>674.025504527005</v>
+        <v>675.274452242011</v>
       </c>
       <c r="P28">
-        <v>93.9540000543832</v>
+        <v>93.6690072403478</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>421.220841280556</v>
+        <v>438.059785449319</v>
       </c>
       <c r="C29">
-        <v>6.68307352165252</v>
+        <v>6.4138719405617</v>
       </c>
       <c r="D29">
-        <v>1.08322427163617</v>
+        <v>1.9650206306904</v>
       </c>
       <c r="E29">
-        <v>5.90278068510834</v>
+        <v>6.12091020092994</v>
       </c>
       <c r="F29">
-        <v>17.9731465587215</v>
+        <v>16.9881095513722</v>
       </c>
       <c r="G29">
-        <v>1.67853482561569</v>
+        <v>1.80100326525046</v>
       </c>
       <c r="H29">
-        <v>2.60130958764182</v>
+        <v>2.62022911418755</v>
       </c>
       <c r="I29">
-        <v>3.70662631885906</v>
+        <v>3.63754665118921</v>
       </c>
       <c r="J29">
-        <v>7.47293629680217</v>
+        <v>7.59270716547895</v>
       </c>
       <c r="K29">
-        <v>3.39732915736063</v>
+        <v>3.53212791721715</v>
       </c>
       <c r="L29">
-        <v>7.02340016785652</v>
+        <v>7.63911320423197</v>
       </c>
       <c r="M29">
-        <v>4.29771387806792</v>
+        <v>3.91981069579909</v>
       </c>
       <c r="N29">
-        <v>10.4490704270301</v>
+        <v>11.2966768301101</v>
       </c>
       <c r="O29">
-        <v>860.95281271584</v>
+        <v>871.879915942327</v>
       </c>
       <c r="P29">
-        <v>5.5125218066739</v>
+        <v>6.02686407684512</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>221.220634716886</v>
+        <v>223.407557955057</v>
       </c>
       <c r="C30">
-        <v>5.08767142895909</v>
+        <v>4.1089194791616</v>
       </c>
       <c r="D30">
-        <v>7.07910176352817</v>
+        <v>7.10863407806638</v>
       </c>
       <c r="E30">
-        <v>15.530863832303</v>
+        <v>15.4432762784821</v>
       </c>
       <c r="F30">
-        <v>0.841167848793801</v>
+        <v>0.882963137558309</v>
       </c>
       <c r="G30">
-        <v>4.47997163166617</v>
+        <v>4.50897449967684</v>
       </c>
       <c r="H30">
-        <v>5.20626311731116</v>
+        <v>5.15419830917959</v>
       </c>
       <c r="I30">
-        <v>2.35292795662507</v>
+        <v>2.35790481626028</v>
       </c>
       <c r="J30">
-        <v>22.4710729567592</v>
+        <v>22.1749766656246</v>
       </c>
       <c r="K30">
-        <v>14.1438864030434</v>
+        <v>14.0293759418204</v>
       </c>
       <c r="L30">
-        <v>38.4643654831638</v>
+        <v>38.0210854154232</v>
       </c>
       <c r="M30">
-        <v>10.0591417206483</v>
+        <v>9.630846799025971</v>
       </c>
       <c r="N30">
-        <v>17.6172361842516</v>
+        <v>15.2605671485934</v>
       </c>
       <c r="O30">
-        <v>515.798415445611</v>
+        <v>510.868261501085</v>
       </c>
       <c r="P30">
-        <v>7.9605298210803</v>
+        <v>8.037111239388061</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1919.04150893727</v>
+        <v>1911.90123978195</v>
       </c>
       <c r="C31">
-        <v>51.7876569589187</v>
+        <v>51.9622116124564</v>
       </c>
       <c r="D31">
-        <v>49.4145253312929</v>
+        <v>49.6006576320843</v>
       </c>
       <c r="E31">
-        <v>58.1305987358007</v>
+        <v>58.4348287073702</v>
       </c>
       <c r="F31">
-        <v>9.617836273599639</v>
+        <v>9.78781848883882</v>
       </c>
       <c r="G31">
-        <v>141.263814394877</v>
+        <v>138.959318306942</v>
       </c>
       <c r="H31">
-        <v>27.5803292433136</v>
+        <v>27.6839213958936</v>
       </c>
       <c r="I31">
-        <v>19.4571200782253</v>
+        <v>20.4532327330419</v>
       </c>
       <c r="J31">
-        <v>50.2765408610245</v>
+        <v>50.8371181878957</v>
       </c>
       <c r="K31">
-        <v>32.767291243013</v>
+        <v>31.8231929394864</v>
       </c>
       <c r="L31">
-        <v>77.8797399754035</v>
+        <v>78.3967241096266</v>
       </c>
       <c r="M31">
-        <v>28.4471890486681</v>
+        <v>30.273513942637</v>
       </c>
       <c r="N31">
-        <v>59.7654651969645</v>
+        <v>62.7201048592516</v>
       </c>
       <c r="O31">
-        <v>3497.74628429014</v>
+        <v>3497.61520027153</v>
       </c>
       <c r="P31">
-        <v>17.3104193813268</v>
+        <v>18.1247646271039</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>435.765605716085</v>
+        <v>439.20874049118</v>
       </c>
       <c r="C32">
-        <v>5.66051003304673</v>
+        <v>5.92815926395222</v>
       </c>
       <c r="D32">
-        <v>2.36591166596035</v>
+        <v>2.22688913127667</v>
       </c>
       <c r="E32">
-        <v>5.48883190032064</v>
+        <v>5.76929938141559</v>
       </c>
       <c r="F32">
-        <v>21.3600180370701</v>
+        <v>21.0843246491506</v>
       </c>
       <c r="G32">
-        <v>2.31279418824391</v>
+        <v>2.49134068759544</v>
       </c>
       <c r="H32">
-        <v>0.563899940611497</v>
+        <v>0.706348994133564</v>
       </c>
       <c r="I32">
-        <v>2.29273908387315</v>
+        <v>2.35171866370338</v>
       </c>
       <c r="J32">
-        <v>4.06500292894175</v>
+        <v>4.36141960980235</v>
       </c>
       <c r="K32">
-        <v>2.1236162188442</v>
+        <v>2.32364103046803</v>
       </c>
       <c r="L32">
-        <v>18.8738852557672</v>
+        <v>17.699386290483</v>
       </c>
       <c r="M32">
-        <v>8.55726144573093</v>
+        <v>7.07549358393113</v>
       </c>
       <c r="N32">
-        <v>11.1950334988002</v>
+        <v>11.2949138652382</v>
       </c>
       <c r="O32">
-        <v>723.5082771374171</v>
+        <v>712.612005700915</v>
       </c>
       <c r="P32">
-        <v>26.0747455835578</v>
+        <v>28.0385044117255</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4826.56226716592</v>
+        <v>4788.43133704431</v>
       </c>
       <c r="C33">
-        <v>88.44994025793611</v>
+        <v>89.3652036227862</v>
       </c>
       <c r="D33">
-        <v>161.846748040403</v>
+        <v>161.378761948088</v>
       </c>
       <c r="E33">
-        <v>120.66449423524</v>
+        <v>119.747769690837</v>
       </c>
       <c r="F33">
-        <v>12.6962174149186</v>
+        <v>13.2621586942255</v>
       </c>
       <c r="G33">
-        <v>91.42979207555651</v>
+        <v>91.39508264971261</v>
       </c>
       <c r="H33">
-        <v>39.8016830157068</v>
+        <v>40.3846114149377</v>
       </c>
       <c r="I33">
-        <v>35.1168851893638</v>
+        <v>36.848367101133</v>
       </c>
       <c r="J33">
-        <v>122.618621870502</v>
+        <v>124.315569328068</v>
       </c>
       <c r="K33">
-        <v>130.925175147971</v>
+        <v>131.199840840987</v>
       </c>
       <c r="L33">
-        <v>152.807178852825</v>
+        <v>151.537863069125</v>
       </c>
       <c r="M33">
-        <v>82.2421624325584</v>
+        <v>81.0342059723383</v>
       </c>
       <c r="N33">
-        <v>135.157056473671</v>
+        <v>134.083323894265</v>
       </c>
       <c r="O33">
-        <v>7546.2955921346</v>
+        <v>7541.63938771788</v>
       </c>
       <c r="P33">
-        <v>96.8696640769859</v>
+        <v>93.1965806174226</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1744.78878872713</v>
+        <v>1723.56621195638</v>
       </c>
       <c r="C34">
-        <v>88.74743405334981</v>
+        <v>86.57012119099559</v>
       </c>
       <c r="D34">
-        <v>233.423401569592</v>
+        <v>230.500007619449</v>
       </c>
       <c r="E34">
-        <v>84.49129618604729</v>
+        <v>83.9761865562085</v>
       </c>
       <c r="F34">
-        <v>7.07983034234123</v>
+        <v>7.37193492599872</v>
       </c>
       <c r="G34">
-        <v>63.99162015024</v>
+        <v>63.1452961570943</v>
       </c>
       <c r="H34">
-        <v>44.2617823448134</v>
+        <v>42.7701497282818</v>
       </c>
       <c r="I34">
-        <v>26.7948639239176</v>
+        <v>24.3501541817837</v>
       </c>
       <c r="J34">
-        <v>63.6863324806978</v>
+        <v>64.38246910899591</v>
       </c>
       <c r="K34">
-        <v>53.3265854229685</v>
+        <v>52.8543221483907</v>
       </c>
       <c r="L34">
-        <v>114.278638143564</v>
+        <v>110.980636936148</v>
       </c>
       <c r="M34">
-        <v>55.7816132891039</v>
+        <v>57.0720332135147</v>
       </c>
       <c r="N34">
-        <v>128.054649352209</v>
+        <v>127.141024692486</v>
       </c>
       <c r="O34">
-        <v>2909.8686333107</v>
+        <v>2900.01552263092</v>
       </c>
       <c r="P34">
-        <v>74.7542860112017</v>
+        <v>74.3881611726333</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>117.089842708825</v>
+        <v>117.976874263543</v>
       </c>
       <c r="C35">
-        <v>7.85716689908544</v>
+        <v>6.83153750425482</v>
       </c>
       <c r="D35">
-        <v>0.938016734755075</v>
+        <v>0.979108703776822</v>
       </c>
       <c r="E35">
-        <v>2.09095548060949</v>
+        <v>2.18910017120538</v>
       </c>
       <c r="F35">
-        <v>6.96444980681099</v>
+        <v>5.84446336455385</v>
       </c>
       <c r="G35">
-        <v>1.55730549808424</v>
+        <v>0.602241964064049</v>
       </c>
       <c r="H35">
-        <v>0.335101805856467</v>
+        <v>0.381243479439019</v>
       </c>
       <c r="I35">
-        <v>1.25548923810057</v>
+        <v>1.28336360063505</v>
       </c>
       <c r="J35">
-        <v>2.26314795855475</v>
+        <v>2.36550551883785</v>
       </c>
       <c r="K35">
-        <v>7.20963544282492</v>
+        <v>7.22085082413362</v>
       </c>
       <c r="L35">
-        <v>2.06984130433053</v>
+        <v>2.20144226532161</v>
       </c>
       <c r="M35">
-        <v>1.82734369492786</v>
+        <v>2.03708263449944</v>
       </c>
       <c r="N35">
-        <v>2.13723865231336</v>
+        <v>2.22725564969728</v>
       </c>
       <c r="O35">
-        <v>256.959331297141</v>
+        <v>257.202429689647</v>
       </c>
       <c r="P35">
-        <v>44.4434021057814</v>
+        <v>42.9921029298655</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2481.83487728231</v>
+        <v>2487.88811764704</v>
       </c>
       <c r="C36">
-        <v>68.6559268182002</v>
+        <v>70.1483314709015</v>
       </c>
       <c r="D36">
-        <v>17.5837215070269</v>
+        <v>18.3415889131783</v>
       </c>
       <c r="E36">
-        <v>117.293450698363</v>
+        <v>116.259739821314</v>
       </c>
       <c r="F36">
-        <v>26.2419811459734</v>
+        <v>25.6885516120931</v>
       </c>
       <c r="G36">
-        <v>83.94278468537679</v>
+        <v>83.9524328687956</v>
       </c>
       <c r="H36">
-        <v>120.88643946171</v>
+        <v>120.315213764854</v>
       </c>
       <c r="I36">
-        <v>61.927333919224</v>
+        <v>61.7339512433293</v>
       </c>
       <c r="J36">
-        <v>279.103340652808</v>
+        <v>278.0576609668</v>
       </c>
       <c r="K36">
-        <v>150.984728127827</v>
+        <v>150.625836471472</v>
       </c>
       <c r="L36">
-        <v>107.861303949138</v>
+        <v>108.371813030716</v>
       </c>
       <c r="M36">
-        <v>262.40296803426</v>
+        <v>259.776407094169</v>
       </c>
       <c r="N36">
-        <v>100.224229728703</v>
+        <v>98.346484790501</v>
       </c>
       <c r="O36">
-        <v>4122.29786610134</v>
+        <v>4139.03497095673</v>
       </c>
       <c r="P36">
-        <v>65.1893592950527</v>
+        <v>65.7065764594131</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>822.6069008248491</v>
+        <v>811.196954382019</v>
       </c>
       <c r="C37">
-        <v>28.7955729802806</v>
+        <v>28.8854878445721</v>
       </c>
       <c r="D37">
-        <v>10.115239063444</v>
+        <v>10.2321127627365</v>
       </c>
       <c r="E37">
-        <v>20.6773117530788</v>
+        <v>20.9611786955995</v>
       </c>
       <c r="F37">
-        <v>52.2969777078967</v>
+        <v>52.7655197851904</v>
       </c>
       <c r="G37">
-        <v>5.56642928085524</v>
+        <v>5.83531425827799</v>
       </c>
       <c r="H37">
-        <v>22.5070448368592</v>
+        <v>22.288256792606</v>
       </c>
       <c r="I37">
-        <v>13.3753063585493</v>
+        <v>13.2607710034821</v>
       </c>
       <c r="J37">
-        <v>41.6867103940785</v>
+        <v>39.0923113215912</v>
       </c>
       <c r="K37">
-        <v>31.2625363593265</v>
+        <v>30.9773609823207</v>
       </c>
       <c r="L37">
-        <v>23.7807694241465</v>
+        <v>24.1024439199465</v>
       </c>
       <c r="M37">
-        <v>33.3451707995488</v>
+        <v>33.4012939195305</v>
       </c>
       <c r="N37">
-        <v>18.9546352938178</v>
+        <v>18.5030856005206</v>
       </c>
       <c r="O37">
-        <v>1233.22803781235</v>
+        <v>1241.69750825588</v>
       </c>
       <c r="P37">
-        <v>59.1288484104012</v>
+        <v>61.0358673565999</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>718.702347399032</v>
+        <v>723.106930659368</v>
       </c>
       <c r="C38">
-        <v>32.0747751535411</v>
+        <v>31.9452046892628</v>
       </c>
       <c r="D38">
-        <v>11.1958778240397</v>
+        <v>9.92566871979176</v>
       </c>
       <c r="E38">
-        <v>73.1510509972193</v>
+        <v>71.55336826019651</v>
       </c>
       <c r="F38">
-        <v>1.74275017859133</v>
+        <v>2.04993651119084</v>
       </c>
       <c r="G38">
-        <v>6.86557094884412</v>
+        <v>6.95328840472359</v>
       </c>
       <c r="H38">
-        <v>6.12336627182915</v>
+        <v>5.44280879037398</v>
       </c>
       <c r="I38">
-        <v>6.95177186112532</v>
+        <v>6.93477290377505</v>
       </c>
       <c r="J38">
-        <v>28.4760242968913</v>
+        <v>27.9851169122789</v>
       </c>
       <c r="K38">
-        <v>13.8101009466643</v>
+        <v>15.3454615805322</v>
       </c>
       <c r="L38">
-        <v>55.2047238891372</v>
+        <v>58.556437837372</v>
       </c>
       <c r="M38">
-        <v>25.1332619439168</v>
+        <v>24.4601274288135</v>
       </c>
       <c r="N38">
-        <v>25.9042175592082</v>
+        <v>25.1363950122513</v>
       </c>
       <c r="O38">
-        <v>1355.7252897161</v>
+        <v>1348.5574480735</v>
       </c>
       <c r="P38">
-        <v>83.2239070598918</v>
+        <v>84.2119127642635</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2899.04601801651</v>
+        <v>2909.16466990621</v>
       </c>
       <c r="C39">
-        <v>104.739258688324</v>
+        <v>107.032008483151</v>
       </c>
       <c r="D39">
-        <v>75.0673057495722</v>
+        <v>76.2328763933987</v>
       </c>
       <c r="E39">
-        <v>136.302964351414</v>
+        <v>137.233587805951</v>
       </c>
       <c r="F39">
-        <v>41.3485331520501</v>
+        <v>41.2631733626625</v>
       </c>
       <c r="G39">
-        <v>107.63647441715</v>
+        <v>107.109418587679</v>
       </c>
       <c r="H39">
-        <v>58.7866744934935</v>
+        <v>62.1734777638787</v>
       </c>
       <c r="I39">
-        <v>62.9202152178761</v>
+        <v>62.6906155223762</v>
       </c>
       <c r="J39">
-        <v>229.210004042084</v>
+        <v>229.66941263671</v>
       </c>
       <c r="K39">
-        <v>103.376540034697</v>
+        <v>104.316708789986</v>
       </c>
       <c r="L39">
-        <v>125.235002027783</v>
+        <v>124.299458285226</v>
       </c>
       <c r="M39">
-        <v>73.04506953953739</v>
+        <v>74.020045652646</v>
       </c>
       <c r="N39">
-        <v>99.05633627565671</v>
+        <v>99.0835410849932</v>
       </c>
       <c r="O39">
-        <v>4564.29600042523</v>
+        <v>4567.25181541473</v>
       </c>
       <c r="P39">
-        <v>99.5208741418123</v>
+        <v>98.2937963148466</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>222.261099960285</v>
+        <v>218.674786166243</v>
       </c>
       <c r="C40">
-        <v>4.76989353776237</v>
+        <v>4.80881074829855</v>
       </c>
       <c r="D40">
-        <v>12.9531183013643</v>
+        <v>12.8669829944616</v>
       </c>
       <c r="E40">
-        <v>6.07798328596967</v>
+        <v>6.38500870419182</v>
       </c>
       <c r="F40">
-        <v>0.478557681727054</v>
+        <v>0.401078618767239</v>
       </c>
       <c r="G40">
-        <v>4.72843605643222</v>
+        <v>3.9593220363749</v>
       </c>
       <c r="H40">
-        <v>5.50252914006124</v>
+        <v>5.49593561121738</v>
       </c>
       <c r="I40">
-        <v>1.3774665777315</v>
+        <v>1.38185751889677</v>
       </c>
       <c r="J40">
-        <v>13.5494863627048</v>
+        <v>13.8977260571856</v>
       </c>
       <c r="K40">
-        <v>6.27558517450811</v>
+        <v>6.26657668103741</v>
       </c>
       <c r="L40">
-        <v>16.408912261054</v>
+        <v>16.2849927219582</v>
       </c>
       <c r="M40">
-        <v>6.42208653802938</v>
+        <v>7.55343210796736</v>
       </c>
       <c r="N40">
-        <v>26.0894013970431</v>
+        <v>25.699809422621</v>
       </c>
       <c r="O40">
-        <v>415.500607166885</v>
+        <v>414.148348586613</v>
       </c>
       <c r="P40">
-        <v>4.39999601717265</v>
+        <v>4.44039009154691</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>858.320889540254</v>
+        <v>873.720260150268</v>
       </c>
       <c r="C41">
-        <v>19.9169468757201</v>
+        <v>19.9068907060511</v>
       </c>
       <c r="D41">
-        <v>131.148506306437</v>
+        <v>132.494268960014</v>
       </c>
       <c r="E41">
-        <v>52.6100135228643</v>
+        <v>52.1184790145875</v>
       </c>
       <c r="F41">
-        <v>3.25400199093924</v>
+        <v>3.39559637474786</v>
       </c>
       <c r="G41">
-        <v>25.5378485376544</v>
+        <v>24.1250224046366</v>
       </c>
       <c r="H41">
-        <v>31.8928335467271</v>
+        <v>31.5201211006036</v>
       </c>
       <c r="I41">
-        <v>14.3893650032245</v>
+        <v>14.2959740192276</v>
       </c>
       <c r="J41">
-        <v>47.1540936853776</v>
+        <v>48.8752266993112</v>
       </c>
       <c r="K41">
-        <v>38.4643222652258</v>
+        <v>38.1096028074481</v>
       </c>
       <c r="L41">
-        <v>31.8113078644042</v>
+        <v>30.9758152002531</v>
       </c>
       <c r="M41">
-        <v>37.6227327414607</v>
+        <v>38.9895826873833</v>
       </c>
       <c r="N41">
-        <v>17.5113278690875</v>
+        <v>21.1143899520931</v>
       </c>
       <c r="O41">
-        <v>1434.32514951001</v>
+        <v>1425.75059897278</v>
       </c>
       <c r="P41">
-        <v>28.6367544373283</v>
+        <v>30.5058068612431</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>127.159164486403</v>
+        <v>126.223082355514</v>
       </c>
       <c r="C42">
-        <v>11.9348377495656</v>
+        <v>11.0179600908102</v>
       </c>
       <c r="D42">
-        <v>2.49116063025221</v>
+        <v>2.53504412321027</v>
       </c>
       <c r="E42">
-        <v>5.24655035823107</v>
+        <v>5.37957889505711</v>
       </c>
       <c r="F42">
-        <v>2.56398101373332</v>
+        <v>2.62156530351174</v>
       </c>
       <c r="G42">
-        <v>1.51288804053614</v>
+        <v>1.56287362594096</v>
       </c>
       <c r="H42">
-        <v>1.15786010179439</v>
+        <v>1.21416985738925</v>
       </c>
       <c r="I42">
-        <v>1.19221570883075</v>
+        <v>1.22633061733472</v>
       </c>
       <c r="J42">
-        <v>5.44235095407493</v>
+        <v>5.57465235440064</v>
       </c>
       <c r="K42">
-        <v>5.8531317270832</v>
+        <v>5.93425241154645</v>
       </c>
       <c r="L42">
-        <v>7.15248767014422</v>
+        <v>7.48272739162009</v>
       </c>
       <c r="M42">
-        <v>4.22523844582962</v>
+        <v>4.3777411334819</v>
       </c>
       <c r="N42">
-        <v>7.48661766211056</v>
+        <v>7.52787791940206</v>
       </c>
       <c r="O42">
-        <v>296.733940265707</v>
+        <v>295.524106925606</v>
       </c>
       <c r="P42">
-        <v>47.8485308627444</v>
+        <v>47.7355378475156</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1273.62723571532</v>
+        <v>1279.54131630306</v>
       </c>
       <c r="C43">
-        <v>46.1537107322544</v>
+        <v>44.7602805111534</v>
       </c>
       <c r="D43">
-        <v>66.2469918825602</v>
+        <v>64.357407039837</v>
       </c>
       <c r="E43">
-        <v>76.9748427245602</v>
+        <v>78.06531406470811</v>
       </c>
       <c r="F43">
-        <v>7.73061031935661</v>
+        <v>8.043620883345531</v>
       </c>
       <c r="G43">
-        <v>32.5385610444066</v>
+        <v>32.3283894031962</v>
       </c>
       <c r="H43">
-        <v>36.5303130322452</v>
+        <v>36.236591672646</v>
       </c>
       <c r="I43">
-        <v>21.223465448281</v>
+        <v>21.1032168141399</v>
       </c>
       <c r="J43">
-        <v>69.4405019013207</v>
+        <v>71.55515326766231</v>
       </c>
       <c r="K43">
-        <v>54.1560457943124</v>
+        <v>54.8360654691728</v>
       </c>
       <c r="L43">
-        <v>66.002478207244</v>
+        <v>63.9175873434771</v>
       </c>
       <c r="M43">
-        <v>101.704473866423</v>
+        <v>103.119308480968</v>
       </c>
       <c r="N43">
-        <v>78.1109986697459</v>
+        <v>77.4515256841168</v>
       </c>
       <c r="O43">
-        <v>2088.19447047727</v>
+        <v>2070.36384457346</v>
       </c>
       <c r="P43">
-        <v>48.8800916280224</v>
+        <v>49.3060689406786</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4705.92163169399</v>
+        <v>4719.28536622495</v>
       </c>
       <c r="C44">
-        <v>128.727365317031</v>
+        <v>130.582972855186</v>
       </c>
       <c r="D44">
-        <v>71.83002529819341</v>
+        <v>72.66272099602401</v>
       </c>
       <c r="E44">
-        <v>113.068915264079</v>
+        <v>115.381085167674</v>
       </c>
       <c r="F44">
-        <v>228.997243901294</v>
+        <v>226.223292600492</v>
       </c>
       <c r="G44">
-        <v>131.643694035677</v>
+        <v>132.82494024812</v>
       </c>
       <c r="H44">
-        <v>61.8637550674448</v>
+        <v>63.0976713227901</v>
       </c>
       <c r="I44">
-        <v>47.5360979582621</v>
+        <v>47.4318116017257</v>
       </c>
       <c r="J44">
-        <v>147.757153287206</v>
+        <v>148.173063496642</v>
       </c>
       <c r="K44">
-        <v>115.198637364491</v>
+        <v>116.349694608566</v>
       </c>
       <c r="L44">
-        <v>233.204736388191</v>
+        <v>239.886420600004</v>
       </c>
       <c r="M44">
-        <v>126.973594093703</v>
+        <v>131.176666319116</v>
       </c>
       <c r="N44">
-        <v>101.870723027925</v>
+        <v>103.567568143575</v>
       </c>
       <c r="O44">
-        <v>7696.12862762933</v>
+        <v>7720.43550984747</v>
       </c>
       <c r="P44">
-        <v>224.699042503329</v>
+        <v>224.916226308835</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>411.109856502087</v>
+        <v>412.098711323408</v>
       </c>
       <c r="C45">
-        <v>18.8706693819527</v>
+        <v>17.9018059012794</v>
       </c>
       <c r="D45">
-        <v>4.38161610065896</v>
+        <v>4.49958353105138</v>
       </c>
       <c r="E45">
-        <v>17.7642328215463</v>
+        <v>16.6924247329925</v>
       </c>
       <c r="F45">
-        <v>19.3213793372084</v>
+        <v>19.2497065686604</v>
       </c>
       <c r="G45">
-        <v>8.75547183601029</v>
+        <v>8.80793445179398</v>
       </c>
       <c r="H45">
-        <v>2.53055363624336</v>
+        <v>2.64715900100148</v>
       </c>
       <c r="I45">
-        <v>5.96720327013141</v>
+        <v>5.97625642571862</v>
       </c>
       <c r="J45">
-        <v>22.0438975684129</v>
+        <v>22.9313882214091</v>
       </c>
       <c r="K45">
-        <v>7.75373389383133</v>
+        <v>7.03993361696544</v>
       </c>
       <c r="L45">
-        <v>21.0803437849707</v>
+        <v>21.9766780488451</v>
       </c>
       <c r="M45">
-        <v>25.940558001864</v>
+        <v>27.6331054224497</v>
       </c>
       <c r="N45">
-        <v>32.4085383138375</v>
+        <v>31.359367635977</v>
       </c>
       <c r="O45">
-        <v>866.947242496057</v>
+        <v>868.44436310917</v>
       </c>
       <c r="P45">
-        <v>23.6951695267988</v>
+        <v>23.6524831788739</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>105.66371508602</v>
+        <v>111.243966801224</v>
       </c>
       <c r="C46">
-        <v>4.56354241984081</v>
+        <v>4.5468970718552</v>
       </c>
       <c r="D46">
-        <v>2.43899353494706</v>
+        <v>2.46932785471308</v>
       </c>
       <c r="E46">
-        <v>8.79047948404066</v>
+        <v>8.688750088129771</v>
       </c>
       <c r="F46">
-        <v>0.815371156014583</v>
+        <v>0.811551868825373</v>
       </c>
       <c r="G46">
-        <v>1.57388645808643</v>
+        <v>1.58314289172104</v>
       </c>
       <c r="H46">
-        <v>1.55104475028135</v>
+        <v>1.44552353625601</v>
       </c>
       <c r="I46">
-        <v>4.3495776046674</v>
+        <v>2.92205121311922</v>
       </c>
       <c r="J46">
-        <v>5.54109954512943</v>
+        <v>5.51963991849168</v>
       </c>
       <c r="K46">
-        <v>4.36405575933373</v>
+        <v>4.29828928686746</v>
       </c>
       <c r="L46">
-        <v>10.9747272825912</v>
+        <v>11.174839489061</v>
       </c>
       <c r="M46">
-        <v>3.86149208156746</v>
+        <v>3.8647415903878</v>
       </c>
       <c r="N46">
-        <v>7.50217873667379</v>
+        <v>7.45542795356477</v>
       </c>
       <c r="O46">
-        <v>247.43306466984</v>
+        <v>252.956732731332</v>
       </c>
       <c r="P46">
-        <v>13.0265666722416</v>
+        <v>12.9057996436281</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1466.32369624926</v>
+        <v>1472.21954101372</v>
       </c>
       <c r="C47">
-        <v>65.0662839270407</v>
+        <v>66.8468068616536</v>
       </c>
       <c r="D47">
-        <v>59.33122927908</v>
+        <v>59.6058897056419</v>
       </c>
       <c r="E47">
-        <v>75.3030673458139</v>
+        <v>75.9116868843537</v>
       </c>
       <c r="F47">
-        <v>16.9307935928929</v>
+        <v>16.7781600900001</v>
       </c>
       <c r="G47">
-        <v>32.316401165066</v>
+        <v>32.7823568469219</v>
       </c>
       <c r="H47">
-        <v>21.4644012880137</v>
+        <v>20.4670217327208</v>
       </c>
       <c r="I47">
-        <v>19.0194078593079</v>
+        <v>19.0806450318505</v>
       </c>
       <c r="J47">
-        <v>42.2410803247492</v>
+        <v>42.8933595410083</v>
       </c>
       <c r="K47">
-        <v>27.9072918088415</v>
+        <v>28.2823118300509</v>
       </c>
       <c r="L47">
-        <v>43.8221320675994</v>
+        <v>47.481391106769</v>
       </c>
       <c r="M47">
-        <v>72.3253338708283</v>
+        <v>73.4653396693696</v>
       </c>
       <c r="N47">
-        <v>50.8851378063364</v>
+        <v>49.9724937929241</v>
       </c>
       <c r="O47">
-        <v>2876.09236222449</v>
+        <v>2890.71797101827</v>
       </c>
       <c r="P47">
-        <v>45.0941843834936</v>
+        <v>46.764948786725</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1251.02659627386</v>
+        <v>1256.70661095177</v>
       </c>
       <c r="C48">
-        <v>31.7131514941446</v>
+        <v>32.917147398127</v>
       </c>
       <c r="D48">
-        <v>15.1805659674721</v>
+        <v>13.338028802592</v>
       </c>
       <c r="E48">
-        <v>70.854173726507</v>
+        <v>70.5742930800981</v>
       </c>
       <c r="F48">
-        <v>7.66207631840748</v>
+        <v>8.38623640225614</v>
       </c>
       <c r="G48">
-        <v>14.3867679510164</v>
+        <v>13.6518211171381</v>
       </c>
       <c r="H48">
-        <v>11.4588819359694</v>
+        <v>11.5059842451258</v>
       </c>
       <c r="I48">
-        <v>10.9740621234968</v>
+        <v>11.8158709870842</v>
       </c>
       <c r="J48">
-        <v>44.8576083346177</v>
+        <v>43.9109939869896</v>
       </c>
       <c r="K48">
-        <v>20.01746907123</v>
+        <v>20.120628643202</v>
       </c>
       <c r="L48">
-        <v>50.3584457497559</v>
+        <v>47.3500438129888</v>
       </c>
       <c r="M48">
-        <v>130.166250792973</v>
+        <v>127.775477406245</v>
       </c>
       <c r="N48">
-        <v>37.369634197949</v>
+        <v>37.4300486795275</v>
       </c>
       <c r="O48">
-        <v>2341.49080868037</v>
+        <v>2337.01031621334</v>
       </c>
       <c r="P48">
-        <v>118.658289288874</v>
+        <v>118.306591377036</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>573.120879177832</v>
+        <v>561.819015308848</v>
       </c>
       <c r="C49">
-        <v>7.42027050083033</v>
+        <v>7.51543679865252</v>
       </c>
       <c r="D49">
-        <v>4.12531968179286</v>
+        <v>4.28464264470096</v>
       </c>
       <c r="E49">
-        <v>18.8201977275201</v>
+        <v>17.9129658636915</v>
       </c>
       <c r="F49">
-        <v>30.7479789890637</v>
+        <v>30.4314810971548</v>
       </c>
       <c r="G49">
-        <v>17.3965557402949</v>
+        <v>17.3244465815211</v>
       </c>
       <c r="H49">
-        <v>5.79251319612557</v>
+        <v>6.68679273355534</v>
       </c>
       <c r="I49">
-        <v>8.200547524624531</v>
+        <v>8.189018158883041</v>
       </c>
       <c r="J49">
-        <v>20.507657573574</v>
+        <v>20.6724052424878</v>
       </c>
       <c r="K49">
-        <v>7.4947723547231</v>
+        <v>7.6222694659124</v>
       </c>
       <c r="L49">
-        <v>3.08728095845046</v>
+        <v>3.34328889016227</v>
       </c>
       <c r="M49">
-        <v>9.127912823040941</v>
+        <v>9.4038575541146</v>
       </c>
       <c r="N49">
-        <v>6.07987865852969</v>
+        <v>6.20646562582729</v>
       </c>
       <c r="O49">
-        <v>645.058733038425</v>
+        <v>632.660050347117</v>
       </c>
       <c r="P49">
-        <v>11.4017823192914</v>
+        <v>9.740894187723161</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>973.221766798447</v>
+        <v>972.508015985097</v>
       </c>
       <c r="C50">
-        <v>83.05602141943</v>
+        <v>80.8440680649931</v>
       </c>
       <c r="D50">
-        <v>17.2605971592949</v>
+        <v>16.34683635511</v>
       </c>
       <c r="E50">
-        <v>140.570037286184</v>
+        <v>140.570152807719</v>
       </c>
       <c r="F50">
-        <v>4.64356988988486</v>
+        <v>4.81196354856688</v>
       </c>
       <c r="G50">
-        <v>20.5661874967009</v>
+        <v>20.2848630178304</v>
       </c>
       <c r="H50">
-        <v>39.5645905053727</v>
+        <v>39.2692688960921</v>
       </c>
       <c r="I50">
-        <v>17.4953990414302</v>
+        <v>17.4264299864834</v>
       </c>
       <c r="J50">
-        <v>121.243725561498</v>
+        <v>120.262079801142</v>
       </c>
       <c r="K50">
-        <v>116.808264225989</v>
+        <v>116.396073591565</v>
       </c>
       <c r="L50">
-        <v>67.5856923065941</v>
+        <v>68.20679800754969</v>
       </c>
       <c r="M50">
-        <v>56.7904533446116</v>
+        <v>58.0694994808728</v>
       </c>
       <c r="N50">
-        <v>57.8393467091599</v>
+        <v>57.5728211473578</v>
       </c>
       <c r="O50">
-        <v>1931.55530803436</v>
+        <v>1941.81154403594</v>
       </c>
       <c r="P50">
-        <v>136.1600130387</v>
+        <v>136.532487198442</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>98.3906648846876</v>
+        <v>97.2658359917246</v>
       </c>
       <c r="C51">
-        <v>1.67531096876112</v>
+        <v>1.77765974569164</v>
       </c>
       <c r="D51">
-        <v>0.893802952217041</v>
+        <v>0.907595758954474</v>
       </c>
       <c r="E51">
-        <v>2.68686053036112</v>
+        <v>2.7080360310847</v>
       </c>
       <c r="F51">
-        <v>23.5904956505545</v>
+        <v>23.3504700467971</v>
       </c>
       <c r="G51">
-        <v>2.30756152346841</v>
+        <v>2.26118545506982</v>
       </c>
       <c r="H51">
-        <v>0.148136613953836</v>
+        <v>0.176429719094579</v>
       </c>
       <c r="I51">
-        <v>0.844305811342155</v>
+        <v>0.844587039777036</v>
       </c>
       <c r="J51">
-        <v>1.42841142277023</v>
+        <v>1.61425728731254</v>
       </c>
       <c r="K51">
-        <v>0.764469921820802</v>
+        <v>0.895330795981519</v>
       </c>
       <c r="L51">
-        <v>0.46856573851023</v>
+        <v>0.664490703898574</v>
       </c>
       <c r="M51">
-        <v>0.562251033450854</v>
+        <v>0.666451085345745</v>
       </c>
       <c r="N51">
-        <v>1.10925921269135</v>
+        <v>1.18533491204916</v>
       </c>
       <c r="O51">
-        <v>204.330837571209</v>
+        <v>195.626021340062</v>
       </c>
       <c r="P51">
-        <v>15.9546564587891</v>
+        <v>16.1905294808825</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_1999.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_1999.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1112.9487859948</v>
+        <v>439.550696856062</v>
       </c>
       <c r="C2">
-        <v>40.0506883466527</v>
+        <v>39.7529242166197</v>
       </c>
       <c r="D2">
-        <v>90.5999600229997</v>
+        <v>84.8999997965967</v>
       </c>
       <c r="E2">
-        <v>72.1330833829502</v>
+        <v>94.0368544866281</v>
       </c>
       <c r="F2">
-        <v>16.9727879688538</v>
+        <v>21.7674805433987</v>
       </c>
       <c r="G2">
-        <v>23.801424157728</v>
+        <v>29.658882741226</v>
       </c>
       <c r="H2">
-        <v>25.0838058557617</v>
+        <v>45.9569381321516</v>
       </c>
       <c r="I2">
-        <v>12.0281229022627</v>
+        <v>23.3280728772823</v>
       </c>
       <c r="J2">
-        <v>71.5741351951762</v>
+        <v>86.4032077397664</v>
       </c>
       <c r="K2">
-        <v>21.7395393675864</v>
+        <v>27.6952963002944</v>
       </c>
       <c r="L2">
-        <v>35.137253475402</v>
+        <v>43.8114174382046</v>
       </c>
       <c r="M2">
-        <v>47.2394656681501</v>
+        <v>58.0984702616072</v>
       </c>
       <c r="N2">
-        <v>33.0629867424689</v>
+        <v>34.8916988176533</v>
       </c>
       <c r="O2">
-        <v>1501.84191714261</v>
+        <v>2066.12271699213</v>
       </c>
       <c r="P2">
-        <v>46.3750850889979</v>
+        <v>54.6143841127811</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>120.343581387037</v>
+        <v>69.65697161690581</v>
       </c>
       <c r="C3">
-        <v>5.14390005716967</v>
+        <v>3.39571106666952</v>
       </c>
       <c r="D3">
-        <v>0.381468587973935</v>
+        <v>0.541737783327743</v>
       </c>
       <c r="E3">
-        <v>2.29597710600614</v>
+        <v>1.71652080238352</v>
       </c>
       <c r="F3">
-        <v>8.89236998280361</v>
+        <v>11.4122033589613</v>
       </c>
       <c r="G3">
-        <v>0.51265552517792</v>
+        <v>1.10287443024848</v>
       </c>
       <c r="H3">
-        <v>0.144607060547843</v>
+        <v>0.181335601128473</v>
       </c>
       <c r="I3">
-        <v>0.436317948025495</v>
+        <v>0.769887366969499</v>
       </c>
       <c r="J3">
-        <v>0.784822241523192</v>
+        <v>0.681741302097272</v>
       </c>
       <c r="K3">
-        <v>0.511127776814998</v>
+        <v>0.734002106925687</v>
       </c>
       <c r="L3">
-        <v>0.615066986932485</v>
+        <v>0.433275711645637</v>
       </c>
       <c r="M3">
-        <v>1.0682085805137</v>
+        <v>1.47338848059433</v>
       </c>
       <c r="N3">
-        <v>0.99365498265075</v>
+        <v>1.26319133714609</v>
       </c>
       <c r="O3">
-        <v>251.235082904019</v>
+        <v>300.805821189843</v>
       </c>
       <c r="P3">
-        <v>12.7341019367134</v>
+        <v>11.9254641820751</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1192.40043214292</v>
+        <v>546.60678190415</v>
       </c>
       <c r="C4">
-        <v>15.4405849270092</v>
+        <v>19.3098849973202</v>
       </c>
       <c r="D4">
-        <v>6.94639417183469</v>
+        <v>10.9270770888138</v>
       </c>
       <c r="E4">
-        <v>25.0885878703186</v>
+        <v>15.5077547726791</v>
       </c>
       <c r="F4">
-        <v>20.8915979336005</v>
+        <v>11.3091855355207</v>
       </c>
       <c r="G4">
-        <v>12.2529911642337</v>
+        <v>16.034696086762</v>
       </c>
       <c r="H4">
-        <v>7.20650051764628</v>
+        <v>5.82756436221507</v>
       </c>
       <c r="I4">
-        <v>9.312025096817891</v>
+        <v>10.3603163240503</v>
       </c>
       <c r="J4">
-        <v>27.0727454492042</v>
+        <v>31.6959353331239</v>
       </c>
       <c r="K4">
-        <v>11.3596750446653</v>
+        <v>13.571279095973</v>
       </c>
       <c r="L4">
-        <v>78.4056666559989</v>
+        <v>110.462047543517</v>
       </c>
       <c r="M4">
-        <v>59.4645188917773</v>
+        <v>73.52224782555661</v>
       </c>
       <c r="N4">
-        <v>29.9357396198044</v>
+        <v>43.521448146487</v>
       </c>
       <c r="O4">
-        <v>1995.54664951989</v>
+        <v>2587.16805612819</v>
       </c>
       <c r="P4">
-        <v>47.6925063488089</v>
+        <v>43.1923090713892</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>615.704073071225</v>
+        <v>231.829702239487</v>
       </c>
       <c r="C5">
-        <v>60.8399574398958</v>
+        <v>71.2057456456042</v>
       </c>
       <c r="D5">
-        <v>15.8102515108298</v>
+        <v>24.3143263492269</v>
       </c>
       <c r="E5">
-        <v>47.062541220207</v>
+        <v>38.8955822903471</v>
       </c>
       <c r="F5">
-        <v>6.42242170819393</v>
+        <v>2.95800707361404</v>
       </c>
       <c r="G5">
-        <v>11.1731547662426</v>
+        <v>14.1658525869183</v>
       </c>
       <c r="H5">
-        <v>15.8585265455079</v>
+        <v>16.3156004106482</v>
       </c>
       <c r="I5">
-        <v>7.33142948076227</v>
+        <v>12.1551558521036</v>
       </c>
       <c r="J5">
-        <v>35.5726781049766</v>
+        <v>47.2443090595813</v>
       </c>
       <c r="K5">
-        <v>23.4585088899722</v>
+        <v>34.1906421599367</v>
       </c>
       <c r="L5">
-        <v>23.987650541535</v>
+        <v>33.9288628284224</v>
       </c>
       <c r="M5">
-        <v>25.7729541105706</v>
+        <v>20.3590650458094</v>
       </c>
       <c r="N5">
-        <v>27.7276808703989</v>
+        <v>24.0718722954273</v>
       </c>
       <c r="O5">
-        <v>890.951963524626</v>
+        <v>1245.17137678331</v>
       </c>
       <c r="P5">
-        <v>61.8141750440667</v>
+        <v>52.6818506391926</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>8083.25162476023</v>
+        <v>4036.05100295307</v>
       </c>
       <c r="C6">
-        <v>238.070011761629</v>
+        <v>214.276351998491</v>
       </c>
       <c r="D6">
-        <v>244.57505092288</v>
+        <v>349.466290377014</v>
       </c>
       <c r="E6">
-        <v>180.530139660877</v>
+        <v>129.880217804304</v>
       </c>
       <c r="F6">
-        <v>59.3496090188646</v>
+        <v>65.3789871280527</v>
       </c>
       <c r="G6">
-        <v>100.439502799911</v>
+        <v>143.463282891283</v>
       </c>
       <c r="H6">
-        <v>69.2792842454049</v>
+        <v>89.8389429822402</v>
       </c>
       <c r="I6">
-        <v>51.1283754115772</v>
+        <v>68.5067220474682</v>
       </c>
       <c r="J6">
-        <v>196.87328217417</v>
+        <v>236.678367200047</v>
       </c>
       <c r="K6">
-        <v>122.535095190888</v>
+        <v>193.276342135957</v>
       </c>
       <c r="L6">
-        <v>626.692731019574</v>
+        <v>632.349724631384</v>
       </c>
       <c r="M6">
-        <v>280.900303435907</v>
+        <v>421.544834760045</v>
       </c>
       <c r="N6">
-        <v>285.062601852866</v>
+        <v>412.812732884522</v>
       </c>
       <c r="O6">
-        <v>12514.1222213666</v>
+        <v>16144.4949271346</v>
       </c>
       <c r="P6">
-        <v>397.848206667311</v>
+        <v>312.639230323526</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>759.671018743874</v>
+        <v>332.770676761967</v>
       </c>
       <c r="C7">
-        <v>26.8579393579093</v>
+        <v>38.6048109193713</v>
       </c>
       <c r="D7">
-        <v>5.25609568584974</v>
+        <v>6.82644438552753</v>
       </c>
       <c r="E7">
-        <v>25.0361196301453</v>
+        <v>16.0054559815791</v>
       </c>
       <c r="F7">
-        <v>21.9114376848176</v>
+        <v>20.4532213193549</v>
       </c>
       <c r="G7">
-        <v>10.4088374751967</v>
+        <v>12.0875714890038</v>
       </c>
       <c r="H7">
-        <v>7.63461844400358</v>
+        <v>12.3226054797119</v>
       </c>
       <c r="I7">
-        <v>11.8280501872511</v>
+        <v>12.2413407528131</v>
       </c>
       <c r="J7">
-        <v>21.1585359612014</v>
+        <v>25.8684623080091</v>
       </c>
       <c r="K7">
-        <v>19.7532660132267</v>
+        <v>29.1199720258262</v>
       </c>
       <c r="L7">
-        <v>68.0491631284857</v>
+        <v>78.0661646119613</v>
       </c>
       <c r="M7">
-        <v>19.6599016107637</v>
+        <v>27.6642113087002</v>
       </c>
       <c r="N7">
-        <v>34.0771261468019</v>
+        <v>44.8246257764524</v>
       </c>
       <c r="O7">
-        <v>1939.38908746736</v>
+        <v>2337.18669675397</v>
       </c>
       <c r="P7">
-        <v>52.0640018902695</v>
+        <v>28.7128305672375</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>730.3706467717529</v>
+        <v>274.854204271769</v>
       </c>
       <c r="C8">
-        <v>12.3626612204688</v>
+        <v>18.6264708049117</v>
       </c>
       <c r="D8">
-        <v>9.231447169566289</v>
+        <v>10.4160944648717</v>
       </c>
       <c r="E8">
-        <v>24.7913046826087</v>
+        <v>14.9442512189751</v>
       </c>
       <c r="F8">
-        <v>2.01842431706147</v>
+        <v>3.23237031727372</v>
       </c>
       <c r="G8">
-        <v>27.2390285739205</v>
+        <v>38.2958187205528</v>
       </c>
       <c r="H8">
-        <v>9.279163391913199</v>
+        <v>16.3774217554725</v>
       </c>
       <c r="I8">
-        <v>3.78939687797038</v>
+        <v>2.26793438422228</v>
       </c>
       <c r="J8">
-        <v>45.0350367752009</v>
+        <v>50.9255523911951</v>
       </c>
       <c r="K8">
-        <v>28.760205922182</v>
+        <v>52.465601490369</v>
       </c>
       <c r="L8">
-        <v>40.9349348204433</v>
+        <v>50.2782604631957</v>
       </c>
       <c r="M8">
-        <v>54.1164805333195</v>
+        <v>77.4699572645827</v>
       </c>
       <c r="N8">
-        <v>36.1515058038512</v>
+        <v>51.6665717010271</v>
       </c>
       <c r="O8">
-        <v>1379.5743450078</v>
+        <v>1741.7362359451</v>
       </c>
       <c r="P8">
-        <v>7.17290330858887</v>
+        <v>7.27073998313657</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>158.542706334314</v>
+        <v>60.6282374930436</v>
       </c>
       <c r="C9">
-        <v>9.215723436815591</v>
+        <v>8.83843926403892</v>
       </c>
       <c r="D9">
-        <v>1.939817556147</v>
+        <v>1.97337715132316</v>
       </c>
       <c r="E9">
-        <v>5.3328927691367</v>
+        <v>4.83210945298075</v>
       </c>
       <c r="F9">
-        <v>1.90483810690816</v>
+        <v>2.80525716695778</v>
       </c>
       <c r="G9">
-        <v>20.2113763650655</v>
+        <v>28.2870704385185</v>
       </c>
       <c r="H9">
-        <v>3.19600886778626</v>
+        <v>4.27599205658637</v>
       </c>
       <c r="I9">
-        <v>0.884767284917085</v>
+        <v>0.8546372696672711</v>
       </c>
       <c r="J9">
-        <v>3.8420549623839</v>
+        <v>3.72811569900723</v>
       </c>
       <c r="K9">
-        <v>3.73414114227083</v>
+        <v>4.629674593173</v>
       </c>
       <c r="L9">
-        <v>2.64925796125993</v>
+        <v>3.8025153933286</v>
       </c>
       <c r="M9">
-        <v>10.4339094019672</v>
+        <v>10.310252597922</v>
       </c>
       <c r="N9">
-        <v>4.32415894203899</v>
+        <v>5.85046986008488</v>
       </c>
       <c r="O9">
-        <v>319.739932282686</v>
+        <v>403.374186767496</v>
       </c>
       <c r="P9">
-        <v>4.80915813422844</v>
+        <v>6.5703979642099</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4095.93869798811</v>
+        <v>1576.08273957645</v>
       </c>
       <c r="C10">
-        <v>71.3847986997211</v>
+        <v>73.9502583092906</v>
       </c>
       <c r="D10">
-        <v>43.5439323102754</v>
+        <v>56.5361409667909</v>
       </c>
       <c r="E10">
-        <v>75.7240053041601</v>
+        <v>56.1026227594654</v>
       </c>
       <c r="F10">
-        <v>12.820005293461</v>
+        <v>11.9221908643199</v>
       </c>
       <c r="G10">
-        <v>40.0766700245091</v>
+        <v>54.1539870084222</v>
       </c>
       <c r="H10">
-        <v>26.9577104635466</v>
+        <v>30.6403967730364</v>
       </c>
       <c r="I10">
-        <v>31.1710761030285</v>
+        <v>50.7338530772043</v>
       </c>
       <c r="J10">
-        <v>63.2542496970627</v>
+        <v>62.7878533710905</v>
       </c>
       <c r="K10">
-        <v>35.582369649928</v>
+        <v>68.2572082126463</v>
       </c>
       <c r="L10">
-        <v>113.150068334636</v>
+        <v>168.38002885741</v>
       </c>
       <c r="M10">
-        <v>94.2582533750541</v>
+        <v>121.284195335544</v>
       </c>
       <c r="N10">
-        <v>107.094459369788</v>
+        <v>133.143464746784</v>
       </c>
       <c r="O10">
-        <v>6589.01929399608</v>
+        <v>8945.906007069731</v>
       </c>
       <c r="P10">
-        <v>116.65892038326</v>
+        <v>106.753522546073</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1713.32879476694</v>
+        <v>708.13115433275</v>
       </c>
       <c r="C11">
-        <v>79.5354944109374</v>
+        <v>83.6741122646164</v>
       </c>
       <c r="D11">
-        <v>170.943446883681</v>
+        <v>208.977490788622</v>
       </c>
       <c r="E11">
-        <v>103.709444440774</v>
+        <v>119.195972348976</v>
       </c>
       <c r="F11">
-        <v>12.7724449818761</v>
+        <v>10.9824894900382</v>
       </c>
       <c r="G11">
-        <v>33.5989476104017</v>
+        <v>44.7898062882644</v>
       </c>
       <c r="H11">
-        <v>32.875128743397</v>
+        <v>25.5556769674866</v>
       </c>
       <c r="I11">
-        <v>17.5635524739017</v>
+        <v>22.015754322755</v>
       </c>
       <c r="J11">
-        <v>61.802135350352</v>
+        <v>65.2493750898434</v>
       </c>
       <c r="K11">
-        <v>44.9814959615766</v>
+        <v>62.7569786164996</v>
       </c>
       <c r="L11">
-        <v>79.1313011341025</v>
+        <v>90.0178906967333</v>
       </c>
       <c r="M11">
-        <v>66.8886996310097</v>
+        <v>67.1721962897232</v>
       </c>
       <c r="N11">
-        <v>67.28750483690099</v>
+        <v>73.8952243525826</v>
       </c>
       <c r="O11">
-        <v>3119.19919215386</v>
+        <v>4051.5414457753</v>
       </c>
       <c r="P11">
-        <v>71.8043788888705</v>
+        <v>41.4663479362527</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>289.129570427258</v>
+        <v>127.009025175124</v>
       </c>
       <c r="C12">
-        <v>8.297839383331811</v>
+        <v>13.336306195092</v>
       </c>
       <c r="D12">
-        <v>3.14366692972634</v>
+        <v>4.50975125666041</v>
       </c>
       <c r="E12">
-        <v>2.71502268433953</v>
+        <v>0.912496905824525</v>
       </c>
       <c r="F12">
-        <v>0.96434046514755</v>
+        <v>1.40590970992187</v>
       </c>
       <c r="G12">
-        <v>0.6087630564302871</v>
+        <v>1.11909329667189</v>
       </c>
       <c r="H12">
-        <v>0.198102447333545</v>
+        <v>0.362454891053192</v>
       </c>
       <c r="I12">
-        <v>1.19883809476734</v>
+        <v>1.89204970974556</v>
       </c>
       <c r="J12">
-        <v>0.809285477661608</v>
+        <v>1.24950610805329</v>
       </c>
       <c r="K12">
-        <v>0.609149046491244</v>
+        <v>0.7585913835760501</v>
       </c>
       <c r="L12">
-        <v>1.2412232965583</v>
+        <v>1.12966573211168</v>
       </c>
       <c r="M12">
-        <v>4.65038341531188</v>
+        <v>5.7774828799816</v>
       </c>
       <c r="N12">
-        <v>3.59283133442773</v>
+        <v>4.24282093776494</v>
       </c>
       <c r="O12">
-        <v>511.941666039823</v>
+        <v>668.490717898108</v>
       </c>
       <c r="P12">
-        <v>24.5196484060678</v>
+        <v>21.4244220964293</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>255.858593322136</v>
+        <v>118.089406312842</v>
       </c>
       <c r="C13">
-        <v>22.8678959504942</v>
+        <v>30.5723109939428</v>
       </c>
       <c r="D13">
-        <v>2.25458457683366</v>
+        <v>2.38554816513682</v>
       </c>
       <c r="E13">
-        <v>17.8950135915266</v>
+        <v>17.7189526779882</v>
       </c>
       <c r="F13">
-        <v>5.10533688896639</v>
+        <v>5.80512995732899</v>
       </c>
       <c r="G13">
-        <v>4.79000150576549</v>
+        <v>6.20279901246013</v>
       </c>
       <c r="H13">
-        <v>1.95634837888979</v>
+        <v>2.55113254377667</v>
       </c>
       <c r="I13">
-        <v>1.93857033780915</v>
+        <v>2.41468925130346</v>
       </c>
       <c r="J13">
-        <v>7.29881347143537</v>
+        <v>6.67822955528653</v>
       </c>
       <c r="K13">
-        <v>3.26468930179806</v>
+        <v>5.58441360042247</v>
       </c>
       <c r="L13">
-        <v>21.3771604892321</v>
+        <v>31.1371331165029</v>
       </c>
       <c r="M13">
-        <v>3.65149028503319</v>
+        <v>5.25872045174611</v>
       </c>
       <c r="N13">
-        <v>6.13263449480062</v>
+        <v>7.71968367662897</v>
       </c>
       <c r="O13">
-        <v>483.094902681507</v>
+        <v>594.930081512261</v>
       </c>
       <c r="P13">
-        <v>54.2456532795786</v>
+        <v>54.6834317792086</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2689.18931615023</v>
+        <v>1184.38855699652</v>
       </c>
       <c r="C14">
-        <v>124.518375334279</v>
+        <v>141.299330743881</v>
       </c>
       <c r="D14">
-        <v>19.6611832836156</v>
+        <v>22.8090871574875</v>
       </c>
       <c r="E14">
-        <v>125.697547649988</v>
+        <v>70.6848088917596</v>
       </c>
       <c r="F14">
-        <v>31.8091661222812</v>
+        <v>18.8985447874614</v>
       </c>
       <c r="G14">
-        <v>83.76234504332329</v>
+        <v>128.710424037931</v>
       </c>
       <c r="H14">
-        <v>67.17797229801261</v>
+        <v>68.90221590694939</v>
       </c>
       <c r="I14">
-        <v>32.2626390473445</v>
+        <v>41.7128371863914</v>
       </c>
       <c r="J14">
-        <v>189.043463032498</v>
+        <v>167.388120645409</v>
       </c>
       <c r="K14">
-        <v>165.091011554095</v>
+        <v>231.146061678002</v>
       </c>
       <c r="L14">
-        <v>155.557555887851</v>
+        <v>200.619709602356</v>
       </c>
       <c r="M14">
-        <v>113.200764863029</v>
+        <v>111.397942203179</v>
       </c>
       <c r="N14">
-        <v>88.8663735642579</v>
+        <v>114.86539657266</v>
       </c>
       <c r="O14">
-        <v>4789.69165702664</v>
+        <v>6214.21184077542</v>
       </c>
       <c r="P14">
-        <v>85.0216394962234</v>
+        <v>43.5161279784771</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1228.8668075222</v>
+        <v>519.046360541961</v>
       </c>
       <c r="C15">
-        <v>42.6957031218594</v>
+        <v>38.5252444281453</v>
       </c>
       <c r="D15">
-        <v>14.2018344391475</v>
+        <v>18.1219452306009</v>
       </c>
       <c r="E15">
-        <v>66.5123509969075</v>
+        <v>66.7987632830754</v>
       </c>
       <c r="F15">
-        <v>15.7675820363804</v>
+        <v>16.2594827229902</v>
       </c>
       <c r="G15">
-        <v>42.5858092875407</v>
+        <v>53.2889249165507</v>
       </c>
       <c r="H15">
-        <v>57.1136675512628</v>
+        <v>58.2238356213839</v>
       </c>
       <c r="I15">
-        <v>29.1108058003947</v>
+        <v>54.3001509043537</v>
       </c>
       <c r="J15">
-        <v>172.183381724067</v>
+        <v>227.33668904646</v>
       </c>
       <c r="K15">
-        <v>76.4879506608704</v>
+        <v>124.824085196695</v>
       </c>
       <c r="L15">
-        <v>80.7588830271407</v>
+        <v>80.30130472557789</v>
       </c>
       <c r="M15">
-        <v>204.697318488271</v>
+        <v>181.608102230727</v>
       </c>
       <c r="N15">
-        <v>80.5536838157976</v>
+        <v>114.218753019483</v>
       </c>
       <c r="O15">
-        <v>2140.74651346057</v>
+        <v>2691.01103279885</v>
       </c>
       <c r="P15">
-        <v>42.9408023408648</v>
+        <v>51.3584092268481</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>536.389578743905</v>
+        <v>169.967067819565</v>
       </c>
       <c r="C16">
-        <v>61.5185252498632</v>
+        <v>71.4678710509581</v>
       </c>
       <c r="D16">
-        <v>7.9537837989945</v>
+        <v>17.7512310938474</v>
       </c>
       <c r="E16">
-        <v>23.1238996835638</v>
+        <v>17.8540908052749</v>
       </c>
       <c r="F16">
-        <v>3.4878041532725</v>
+        <v>5.27377579626386</v>
       </c>
       <c r="G16">
-        <v>11.4240245075327</v>
+        <v>17.4603716109142</v>
       </c>
       <c r="H16">
-        <v>18.939221662095</v>
+        <v>16.630160027489</v>
       </c>
       <c r="I16">
-        <v>11.6972183969045</v>
+        <v>12.1876207302271</v>
       </c>
       <c r="J16">
-        <v>48.7175251561837</v>
+        <v>49.7304425923856</v>
       </c>
       <c r="K16">
-        <v>48.8480248533927</v>
+        <v>60.7302965398834</v>
       </c>
       <c r="L16">
-        <v>39.1710307899279</v>
+        <v>35.7518590162278</v>
       </c>
       <c r="M16">
-        <v>27.9463850251316</v>
+        <v>16.3378346086902</v>
       </c>
       <c r="N16">
-        <v>21.8188403768194</v>
+        <v>32.6576910041027</v>
       </c>
       <c r="O16">
-        <v>1119.75475020314</v>
+        <v>1436.84025638715</v>
       </c>
       <c r="P16">
-        <v>82.4636783994943</v>
+        <v>102.613716727444</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>512.079134012857</v>
+        <v>201.578260669119</v>
       </c>
       <c r="C17">
-        <v>37.3745594110462</v>
+        <v>30.4257967860101</v>
       </c>
       <c r="D17">
-        <v>4.86303549395736</v>
+        <v>8.88915379381797</v>
       </c>
       <c r="E17">
-        <v>21.1416971474984</v>
+        <v>10.7632546282208</v>
       </c>
       <c r="F17">
-        <v>15.7976689341186</v>
+        <v>14.4102294588512</v>
       </c>
       <c r="G17">
-        <v>9.787763287601919</v>
+        <v>13.8046067803039</v>
       </c>
       <c r="H17">
-        <v>17.5864416338843</v>
+        <v>9.58874774158811</v>
       </c>
       <c r="I17">
-        <v>6.54188772476809</v>
+        <v>8.79300215525185</v>
       </c>
       <c r="J17">
-        <v>20.2821653817632</v>
+        <v>22.3404640501746</v>
       </c>
       <c r="K17">
-        <v>20.3719558218267</v>
+        <v>27.8014733865941</v>
       </c>
       <c r="L17">
-        <v>12.5081909430334</v>
+        <v>15.6842786906978</v>
       </c>
       <c r="M17">
-        <v>69.80594873649341</v>
+        <v>87.1416751066531</v>
       </c>
       <c r="N17">
-        <v>15.4449284614519</v>
+        <v>18.1110430821918</v>
       </c>
       <c r="O17">
-        <v>1046.23200379032</v>
+        <v>1349.4036165051</v>
       </c>
       <c r="P17">
-        <v>72.2213422334822</v>
+        <v>63.3031201795329</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1023.54125507103</v>
+        <v>435.646838059019</v>
       </c>
       <c r="C18">
-        <v>36.0190242452805</v>
+        <v>39.3298357835196</v>
       </c>
       <c r="D18">
-        <v>27.0404541915191</v>
+        <v>22.3553191624801</v>
       </c>
       <c r="E18">
-        <v>46.1173733980631</v>
+        <v>35.6180301422424</v>
       </c>
       <c r="F18">
-        <v>31.3914468386172</v>
+        <v>47.525305752052</v>
       </c>
       <c r="G18">
-        <v>22.915843432875</v>
+        <v>39.8632885354194</v>
       </c>
       <c r="H18">
-        <v>21.3967734359112</v>
+        <v>25.4359355764698</v>
       </c>
       <c r="I18">
-        <v>10.5481576338033</v>
+        <v>11.5202302228586</v>
       </c>
       <c r="J18">
-        <v>43.9858656752708</v>
+        <v>38.9250600127937</v>
       </c>
       <c r="K18">
-        <v>42.0063962656498</v>
+        <v>46.1214699680331</v>
       </c>
       <c r="L18">
-        <v>39.3428376578236</v>
+        <v>54.5536151352576</v>
       </c>
       <c r="M18">
-        <v>68.6863638133765</v>
+        <v>70.9274658979156</v>
       </c>
       <c r="N18">
-        <v>26.8475838271913</v>
+        <v>26.4607954274973</v>
       </c>
       <c r="O18">
-        <v>1406.86166294035</v>
+        <v>1945.89441494702</v>
       </c>
       <c r="P18">
-        <v>48.3119063367055</v>
+        <v>54.8353297612951</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1146.07281222937</v>
+        <v>539.4223487442609</v>
       </c>
       <c r="C19">
-        <v>23.3698341016008</v>
+        <v>34.1012732028344</v>
       </c>
       <c r="D19">
-        <v>16.5769171463819</v>
+        <v>20.3005885278443</v>
       </c>
       <c r="E19">
-        <v>42.726041726102</v>
+        <v>28.5280095994035</v>
       </c>
       <c r="F19">
-        <v>87.7510658112236</v>
+        <v>112.307589703786</v>
       </c>
       <c r="G19">
-        <v>42.2949894515176</v>
+        <v>51.0786732575551</v>
       </c>
       <c r="H19">
-        <v>6.46832938191189</v>
+        <v>7.45181776898328</v>
       </c>
       <c r="I19">
-        <v>5.44713113920624</v>
+        <v>9.76712368284066</v>
       </c>
       <c r="J19">
-        <v>24.7813043092388</v>
+        <v>15.5857250408936</v>
       </c>
       <c r="K19">
-        <v>10.0033047938383</v>
+        <v>16.7931005023012</v>
       </c>
       <c r="L19">
-        <v>7.63347141972318</v>
+        <v>9.997713719547111</v>
       </c>
       <c r="M19">
-        <v>31.3535814175775</v>
+        <v>31.6255245498183</v>
       </c>
       <c r="N19">
-        <v>13.3393705503322</v>
+        <v>12.0263277531223</v>
       </c>
       <c r="O19">
-        <v>1579.75942433341</v>
+        <v>2145.99753356136</v>
       </c>
       <c r="P19">
-        <v>41.7546144574978</v>
+        <v>44.3488322747907</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>262.434464854986</v>
+        <v>97.8357889749484</v>
       </c>
       <c r="C20">
-        <v>9.38215949894942</v>
+        <v>10.626967743248</v>
       </c>
       <c r="D20">
-        <v>16.7163941427101</v>
+        <v>21.0891784986153</v>
       </c>
       <c r="E20">
-        <v>34.314364509674</v>
+        <v>37.2719957726578</v>
       </c>
       <c r="F20">
-        <v>0.7842554365605871</v>
+        <v>0.7947958831681921</v>
       </c>
       <c r="G20">
-        <v>1.69908404387333</v>
+        <v>1.66464688838034</v>
       </c>
       <c r="H20">
-        <v>2.08027797904425</v>
+        <v>4.79530955230874</v>
       </c>
       <c r="I20">
-        <v>2.00497871519238</v>
+        <v>1.01452264581123</v>
       </c>
       <c r="J20">
-        <v>5.33523032972696</v>
+        <v>4.02058923255072</v>
       </c>
       <c r="K20">
-        <v>4.76080709991144</v>
+        <v>5.89677058797119</v>
       </c>
       <c r="L20">
-        <v>8.87824289235312</v>
+        <v>11.0926367592814</v>
       </c>
       <c r="M20">
-        <v>16.5786723132595</v>
+        <v>25.6504321085559</v>
       </c>
       <c r="N20">
-        <v>6.24557608494902</v>
+        <v>5.92089638114851</v>
       </c>
       <c r="O20">
-        <v>521.286764689691</v>
+        <v>667.67231666675</v>
       </c>
       <c r="P20">
-        <v>27.644857408125</v>
+        <v>24.7992771138158</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1117.94639211742</v>
+        <v>480.907060604583</v>
       </c>
       <c r="C21">
-        <v>33.9400738802131</v>
+        <v>35.6617413444163</v>
       </c>
       <c r="D21">
-        <v>13.7881761535358</v>
+        <v>12.2457446887887</v>
       </c>
       <c r="E21">
-        <v>38.4553209081831</v>
+        <v>21.2233525152203</v>
       </c>
       <c r="F21">
-        <v>4.39028202687612</v>
+        <v>3.84602112847336</v>
       </c>
       <c r="G21">
-        <v>20.5258276084714</v>
+        <v>25.5213286321971</v>
       </c>
       <c r="H21">
-        <v>10.4895030326045</v>
+        <v>12.3611467585171</v>
       </c>
       <c r="I21">
-        <v>8.78831325942838</v>
+        <v>10.5390633980862</v>
       </c>
       <c r="J21">
-        <v>32.1453101974061</v>
+        <v>24.0563775828897</v>
       </c>
       <c r="K21">
-        <v>11.0717132696725</v>
+        <v>21.3844708354736</v>
       </c>
       <c r="L21">
-        <v>39.0583821304377</v>
+        <v>34.4648870534185</v>
       </c>
       <c r="M21">
-        <v>35.4528420615469</v>
+        <v>43.6802496304524</v>
       </c>
       <c r="N21">
-        <v>18.317466174318</v>
+        <v>21.5213707646989</v>
       </c>
       <c r="O21">
-        <v>2315.88706492817</v>
+        <v>2946.19996745527</v>
       </c>
       <c r="P21">
-        <v>22.3026899283956</v>
+        <v>28.9465597148108</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1310.18544513488</v>
+        <v>492.594081325675</v>
       </c>
       <c r="C22">
-        <v>22.9831610184624</v>
+        <v>24.924086929453</v>
       </c>
       <c r="D22">
-        <v>38.3998916957207</v>
+        <v>41.8819446235472</v>
       </c>
       <c r="E22">
-        <v>53.5262526702842</v>
+        <v>33.8727549510657</v>
       </c>
       <c r="F22">
-        <v>4.34959065409642</v>
+        <v>3.88743262099113</v>
       </c>
       <c r="G22">
-        <v>30.7613888411169</v>
+        <v>40.6497699444217</v>
       </c>
       <c r="H22">
-        <v>26.1005461471124</v>
+        <v>38.5324168941712</v>
       </c>
       <c r="I22">
-        <v>8.953086499159991</v>
+        <v>10.7847510037518</v>
       </c>
       <c r="J22">
-        <v>56.9586914054069</v>
+        <v>65.4229697055268</v>
       </c>
       <c r="K22">
-        <v>36.3427429963213</v>
+        <v>60.9712370206511</v>
       </c>
       <c r="L22">
-        <v>148.276866977795</v>
+        <v>150.664935623388</v>
       </c>
       <c r="M22">
-        <v>19.2253629638851</v>
+        <v>27.0270896928369</v>
       </c>
       <c r="N22">
-        <v>70.5473743745717</v>
+        <v>114.168100655328</v>
       </c>
       <c r="O22">
-        <v>2716.27487830356</v>
+        <v>3430.1040199199</v>
       </c>
       <c r="P22">
-        <v>17.2156710629629</v>
+        <v>24.6153338856538</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2161.7670482444</v>
+        <v>905.128123656388</v>
       </c>
       <c r="C23">
-        <v>54.8864075579188</v>
+        <v>60.2445797255618</v>
       </c>
       <c r="D23">
-        <v>15.3338142530393</v>
+        <v>19.7064441167877</v>
       </c>
       <c r="E23">
-        <v>77.48042155769539</v>
+        <v>44.8163846471369</v>
       </c>
       <c r="F23">
-        <v>14.22056390005</v>
+        <v>4.24603548190353</v>
       </c>
       <c r="G23">
-        <v>53.2274502753297</v>
+        <v>78.1437816215099</v>
       </c>
       <c r="H23">
-        <v>73.79618163896281</v>
+        <v>81.5978633243644</v>
       </c>
       <c r="I23">
-        <v>20.827660898874</v>
+        <v>26.7113001991899</v>
       </c>
       <c r="J23">
-        <v>174.00943113501</v>
+        <v>188.730223876498</v>
       </c>
       <c r="K23">
-        <v>124.904273661736</v>
+        <v>179.57465553681</v>
       </c>
       <c r="L23">
-        <v>48.7004781084721</v>
+        <v>62.9360314812464</v>
       </c>
       <c r="M23">
-        <v>555.813624037811</v>
+        <v>701.936293827358</v>
       </c>
       <c r="N23">
-        <v>89.7389723813813</v>
+        <v>122.013324248371</v>
       </c>
       <c r="O23">
-        <v>3477.33740275458</v>
+        <v>4486.91689685019</v>
       </c>
       <c r="P23">
-        <v>68.6481361439639</v>
+        <v>47.9899071967306</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>808.59348201743</v>
+        <v>319.794876179674</v>
       </c>
       <c r="C24">
-        <v>73.76458903337711</v>
+        <v>49.9454846420063</v>
       </c>
       <c r="D24">
-        <v>13.4815499467901</v>
+        <v>14.9779855422997</v>
       </c>
       <c r="E24">
-        <v>72.5453209419795</v>
+        <v>46.6692168361617</v>
       </c>
       <c r="F24">
-        <v>14.0578754567411</v>
+        <v>17.5338813434414</v>
       </c>
       <c r="G24">
-        <v>19.1288524253906</v>
+        <v>30.289887711489</v>
       </c>
       <c r="H24">
-        <v>24.0432191670497</v>
+        <v>25.4512417303042</v>
       </c>
       <c r="I24">
-        <v>17.3581209706268</v>
+        <v>16.992011823301</v>
       </c>
       <c r="J24">
-        <v>62.077236285459</v>
+        <v>43.8327137943043</v>
       </c>
       <c r="K24">
-        <v>61.6165477000419</v>
+        <v>107.742976675127</v>
       </c>
       <c r="L24">
-        <v>75.5427903766843</v>
+        <v>74.8692072104558</v>
       </c>
       <c r="M24">
-        <v>34.9336932247214</v>
+        <v>21.987764955433</v>
       </c>
       <c r="N24">
-        <v>61.4568387989393</v>
+        <v>97.1402913298796</v>
       </c>
       <c r="O24">
-        <v>1998.28125293202</v>
+        <v>2489.6375148546</v>
       </c>
       <c r="P24">
-        <v>120.185395259403</v>
+        <v>100.201673579626</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>705.875050538188</v>
+        <v>282.986320368274</v>
       </c>
       <c r="C25">
-        <v>36.168340263411</v>
+        <v>55.0752827150305</v>
       </c>
       <c r="D25">
-        <v>22.8454241542686</v>
+        <v>22.54459547836</v>
       </c>
       <c r="E25">
-        <v>35.5994198324631</v>
+        <v>47.5622925555812</v>
       </c>
       <c r="F25">
-        <v>16.8224635454079</v>
+        <v>32.958103775388</v>
       </c>
       <c r="G25">
-        <v>10.8141207604904</v>
+        <v>12.0566724024917</v>
       </c>
       <c r="H25">
-        <v>15.5997199916993</v>
+        <v>19.8409559784456</v>
       </c>
       <c r="I25">
-        <v>5.5658320033224</v>
+        <v>6.01539930308926</v>
       </c>
       <c r="J25">
-        <v>21.0829177927931</v>
+        <v>23.4433215582591</v>
       </c>
       <c r="K25">
-        <v>16.7184492587531</v>
+        <v>27.158187353942</v>
       </c>
       <c r="L25">
-        <v>26.4697866451098</v>
+        <v>34.6903744141583</v>
       </c>
       <c r="M25">
-        <v>29.1502030667501</v>
+        <v>41.4543915068314</v>
       </c>
       <c r="N25">
-        <v>51.4529152355497</v>
+        <v>36.7034944885874</v>
       </c>
       <c r="O25">
-        <v>903.760435805109</v>
+        <v>1248.1722226997</v>
       </c>
       <c r="P25">
-        <v>45.4288455137953</v>
+        <v>52.6923046191807</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1142.92779544492</v>
+        <v>430.379413397833</v>
       </c>
       <c r="C26">
-        <v>62.1235637453728</v>
+        <v>73.2255539246631</v>
       </c>
       <c r="D26">
-        <v>23.8584854426529</v>
+        <v>18.7984783576418</v>
       </c>
       <c r="E26">
-        <v>53.4800573652403</v>
+        <v>43.4619626894183</v>
       </c>
       <c r="F26">
-        <v>10.2944585265117</v>
+        <v>8.32607087807941</v>
       </c>
       <c r="G26">
-        <v>33.4853559446453</v>
+        <v>52.9466671304979</v>
       </c>
       <c r="H26">
-        <v>26.4562050493128</v>
+        <v>23.4566381543458</v>
       </c>
       <c r="I26">
-        <v>13.9364434706074</v>
+        <v>18.5864811084889</v>
       </c>
       <c r="J26">
-        <v>68.4767497948789</v>
+        <v>67.71842419826611</v>
       </c>
       <c r="K26">
-        <v>44.4401453748264</v>
+        <v>66.1747741508479</v>
       </c>
       <c r="L26">
-        <v>49.7032653018692</v>
+        <v>39.3516754547724</v>
       </c>
       <c r="M26">
-        <v>83.60948300216811</v>
+        <v>83.16675573902541</v>
       </c>
       <c r="N26">
-        <v>45.970003399911</v>
+        <v>46.2036257893663</v>
       </c>
       <c r="O26">
-        <v>2207.02111865236</v>
+        <v>2914.93363481855</v>
       </c>
       <c r="P26">
-        <v>77.1097229156569</v>
+        <v>56.1626872595482</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>185.312474119326</v>
+        <v>78.0077773430523</v>
       </c>
       <c r="C27">
-        <v>3.95170321659588</v>
+        <v>4.49837680444406</v>
       </c>
       <c r="D27">
-        <v>1.60349928440971</v>
+        <v>1.23970433257735</v>
       </c>
       <c r="E27">
-        <v>10.2852722174042</v>
+        <v>13.6811211215299</v>
       </c>
       <c r="F27">
-        <v>7.31805816135799</v>
+        <v>7.6188550376746</v>
       </c>
       <c r="G27">
-        <v>1.31051399126156</v>
+        <v>0.797715708176084</v>
       </c>
       <c r="H27">
-        <v>0.393111123588507</v>
+        <v>0.416171820842229</v>
       </c>
       <c r="I27">
-        <v>1.56891124207438</v>
+        <v>2.60128319708854</v>
       </c>
       <c r="J27">
-        <v>5.01535560361972</v>
+        <v>5.50977665643178</v>
       </c>
       <c r="K27">
-        <v>1.85783215479118</v>
+        <v>2.28214608109716</v>
       </c>
       <c r="L27">
-        <v>1.79216461073852</v>
+        <v>2.81508029739535</v>
       </c>
       <c r="M27">
-        <v>1.14394748407631</v>
+        <v>1.71938942020242</v>
       </c>
       <c r="N27">
-        <v>5.30661082989993</v>
+        <v>7.04018464371605</v>
       </c>
       <c r="O27">
-        <v>368.658961785897</v>
+        <v>467.048871924523</v>
       </c>
       <c r="P27">
-        <v>47.2015002443057</v>
+        <v>47.443440921418</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>289.146906081033</v>
+        <v>101.875042676824</v>
       </c>
       <c r="C28">
-        <v>34.0380144863489</v>
+        <v>30.2407678543083</v>
       </c>
       <c r="D28">
-        <v>2.83728702079322</v>
+        <v>3.27896792061558</v>
       </c>
       <c r="E28">
-        <v>9.682007347788121</v>
+        <v>6.19739152829163</v>
       </c>
       <c r="F28">
-        <v>2.05691899088645</v>
+        <v>2.86557811450783</v>
       </c>
       <c r="G28">
-        <v>4.90589152342272</v>
+        <v>8.224379344218249</v>
       </c>
       <c r="H28">
-        <v>6.46710042699615</v>
+        <v>9.394126654468961</v>
       </c>
       <c r="I28">
-        <v>4.46054335850943</v>
+        <v>4.6550168306468</v>
       </c>
       <c r="J28">
-        <v>14.8427809229483</v>
+        <v>17.064081921672</v>
       </c>
       <c r="K28">
-        <v>20.1786439754436</v>
+        <v>18.2890687209292</v>
       </c>
       <c r="L28">
-        <v>15.0930985620307</v>
+        <v>14.89969937538</v>
       </c>
       <c r="M28">
-        <v>9.619070839926041</v>
+        <v>7.65193797006868</v>
       </c>
       <c r="N28">
-        <v>13.4016074174002</v>
+        <v>13.3308052229051</v>
       </c>
       <c r="O28">
-        <v>675.274452242011</v>
+        <v>865.694263589965</v>
       </c>
       <c r="P28">
-        <v>93.6690072403478</v>
+        <v>92.01219233149649</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>438.059785449319</v>
+        <v>191.147606849061</v>
       </c>
       <c r="C29">
-        <v>6.4138719405617</v>
+        <v>6.18094376164016</v>
       </c>
       <c r="D29">
-        <v>1.9650206306904</v>
+        <v>4.13356944484771</v>
       </c>
       <c r="E29">
-        <v>6.12091020092994</v>
+        <v>2.64669537096863</v>
       </c>
       <c r="F29">
-        <v>16.9881095513722</v>
+        <v>17.8929082133307</v>
       </c>
       <c r="G29">
-        <v>1.80100326525046</v>
+        <v>3.03472918280656</v>
       </c>
       <c r="H29">
-        <v>2.62022911418755</v>
+        <v>2.89557985299833</v>
       </c>
       <c r="I29">
-        <v>3.63754665118921</v>
+        <v>6.29220390425349</v>
       </c>
       <c r="J29">
-        <v>7.59270716547895</v>
+        <v>5.96316613989324</v>
       </c>
       <c r="K29">
-        <v>3.53212791721715</v>
+        <v>4.40574438690928</v>
       </c>
       <c r="L29">
-        <v>7.63911320423197</v>
+        <v>5.51922629954214</v>
       </c>
       <c r="M29">
-        <v>3.91981069579909</v>
+        <v>2.66690702825569</v>
       </c>
       <c r="N29">
-        <v>11.2966768301101</v>
+        <v>11.9760859456032</v>
       </c>
       <c r="O29">
-        <v>871.879915942327</v>
+        <v>1120.43268292901</v>
       </c>
       <c r="P29">
-        <v>6.02686407684512</v>
+        <v>4.30561737742219</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>223.407557955057</v>
+        <v>88.5390526786106</v>
       </c>
       <c r="C30">
-        <v>4.1089194791616</v>
+        <v>5.45136077007131</v>
       </c>
       <c r="D30">
-        <v>7.10863407806638</v>
+        <v>8.743373024842629</v>
       </c>
       <c r="E30">
-        <v>15.4432762784821</v>
+        <v>9.80565813515347</v>
       </c>
       <c r="F30">
-        <v>0.882963137558309</v>
+        <v>0.610996748530634</v>
       </c>
       <c r="G30">
-        <v>4.50897449967684</v>
+        <v>4.3519745347601</v>
       </c>
       <c r="H30">
-        <v>5.15419830917959</v>
+        <v>7.35747001816129</v>
       </c>
       <c r="I30">
-        <v>2.35790481626028</v>
+        <v>2.97817968427913</v>
       </c>
       <c r="J30">
-        <v>22.1749766656246</v>
+        <v>18.5042074846419</v>
       </c>
       <c r="K30">
-        <v>14.0293759418204</v>
+        <v>22.9847898801443</v>
       </c>
       <c r="L30">
-        <v>38.0210854154232</v>
+        <v>46.0192385356361</v>
       </c>
       <c r="M30">
-        <v>9.630846799025971</v>
+        <v>12.2812528411706</v>
       </c>
       <c r="N30">
-        <v>15.2605671485934</v>
+        <v>17.559747117094</v>
       </c>
       <c r="O30">
-        <v>510.868261501085</v>
+        <v>627.385350849105</v>
       </c>
       <c r="P30">
-        <v>8.037111239388061</v>
+        <v>8.422000962201899</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1911.90123978195</v>
+        <v>864.94524029515</v>
       </c>
       <c r="C31">
-        <v>51.9622116124564</v>
+        <v>56.7824594812724</v>
       </c>
       <c r="D31">
-        <v>49.6006576320843</v>
+        <v>65.82834665443789</v>
       </c>
       <c r="E31">
-        <v>58.4348287073702</v>
+        <v>28.4696384013829</v>
       </c>
       <c r="F31">
-        <v>9.78781848883882</v>
+        <v>10.7839301533217</v>
       </c>
       <c r="G31">
-        <v>138.959318306942</v>
+        <v>173.390074523962</v>
       </c>
       <c r="H31">
-        <v>27.6839213958936</v>
+        <v>32.9006155892251</v>
       </c>
       <c r="I31">
-        <v>20.4532327330419</v>
+        <v>34.2197861177012</v>
       </c>
       <c r="J31">
-        <v>50.8371181878957</v>
+        <v>50.8008324376285</v>
       </c>
       <c r="K31">
-        <v>31.8231929394864</v>
+        <v>53.6526404593018</v>
       </c>
       <c r="L31">
-        <v>78.3967241096266</v>
+        <v>73.2497157029884</v>
       </c>
       <c r="M31">
-        <v>30.273513942637</v>
+        <v>33.4973498695757</v>
       </c>
       <c r="N31">
-        <v>62.7201048592516</v>
+        <v>81.9489099802355</v>
       </c>
       <c r="O31">
-        <v>3497.61520027153</v>
+        <v>4467.8552867431</v>
       </c>
       <c r="P31">
-        <v>18.1247646271039</v>
+        <v>10.2490159970328</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>439.20874049118</v>
+        <v>205.859594684385</v>
       </c>
       <c r="C32">
-        <v>5.92815926395222</v>
+        <v>5.4713063028722</v>
       </c>
       <c r="D32">
-        <v>2.22688913127667</v>
+        <v>3.39457784777976</v>
       </c>
       <c r="E32">
-        <v>5.76929938141559</v>
+        <v>3.6538256043023</v>
       </c>
       <c r="F32">
-        <v>21.0843246491506</v>
+        <v>38.2333432451389</v>
       </c>
       <c r="G32">
-        <v>2.49134068759544</v>
+        <v>2.48223777111956</v>
       </c>
       <c r="H32">
-        <v>0.706348994133564</v>
+        <v>3.02480655692366</v>
       </c>
       <c r="I32">
-        <v>2.35171866370338</v>
+        <v>3.48192206279384</v>
       </c>
       <c r="J32">
-        <v>4.36141960980235</v>
+        <v>3.81703139851371</v>
       </c>
       <c r="K32">
-        <v>2.32364103046803</v>
+        <v>6.84314417450601</v>
       </c>
       <c r="L32">
-        <v>17.699386290483</v>
+        <v>18.1206773037223</v>
       </c>
       <c r="M32">
-        <v>7.07549358393113</v>
+        <v>4.87024372827404</v>
       </c>
       <c r="N32">
-        <v>11.2949138652382</v>
+        <v>15.1586860111801</v>
       </c>
       <c r="O32">
-        <v>712.612005700915</v>
+        <v>919.520417781468</v>
       </c>
       <c r="P32">
-        <v>28.0385044117255</v>
+        <v>29.2403090044655</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4788.43133704431</v>
+        <v>2262.33517541645</v>
       </c>
       <c r="C33">
-        <v>89.3652036227862</v>
+        <v>99.64987600214801</v>
       </c>
       <c r="D33">
-        <v>161.378761948088</v>
+        <v>183.394226831733</v>
       </c>
       <c r="E33">
-        <v>119.747769690837</v>
+        <v>47.8791375988364</v>
       </c>
       <c r="F33">
-        <v>13.2621586942255</v>
+        <v>13.876083491248</v>
       </c>
       <c r="G33">
-        <v>91.39508264971261</v>
+        <v>88.4391264637128</v>
       </c>
       <c r="H33">
-        <v>40.3846114149377</v>
+        <v>49.3994612159389</v>
       </c>
       <c r="I33">
-        <v>36.848367101133</v>
+        <v>43.5837723129861</v>
       </c>
       <c r="J33">
-        <v>124.315569328068</v>
+        <v>125.724449740857</v>
       </c>
       <c r="K33">
-        <v>131.199840840987</v>
+        <v>140.828339437228</v>
       </c>
       <c r="L33">
-        <v>151.537863069125</v>
+        <v>180.575679756131</v>
       </c>
       <c r="M33">
-        <v>81.0342059723383</v>
+        <v>102.31493916492</v>
       </c>
       <c r="N33">
-        <v>134.083323894265</v>
+        <v>242.96520812713</v>
       </c>
       <c r="O33">
-        <v>7541.63938771788</v>
+        <v>9944.04738221325</v>
       </c>
       <c r="P33">
-        <v>93.1965806174226</v>
+        <v>72.8071798845742</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1723.56621195638</v>
+        <v>673.315060611047</v>
       </c>
       <c r="C34">
-        <v>86.57012119099559</v>
+        <v>107.096203527564</v>
       </c>
       <c r="D34">
-        <v>230.500007619449</v>
+        <v>274.221867553923</v>
       </c>
       <c r="E34">
-        <v>83.9761865562085</v>
+        <v>68.698774409401</v>
       </c>
       <c r="F34">
-        <v>7.37193492599872</v>
+        <v>6.94596676937622</v>
       </c>
       <c r="G34">
-        <v>63.1452961570943</v>
+        <v>84.8775261280839</v>
       </c>
       <c r="H34">
-        <v>42.7701497282818</v>
+        <v>60.2549508081519</v>
       </c>
       <c r="I34">
-        <v>24.3501541817837</v>
+        <v>27.3855942107298</v>
       </c>
       <c r="J34">
-        <v>64.38246910899591</v>
+        <v>72.772283293437</v>
       </c>
       <c r="K34">
-        <v>52.8543221483907</v>
+        <v>100.515426921609</v>
       </c>
       <c r="L34">
-        <v>110.980636936148</v>
+        <v>157.618427667054</v>
       </c>
       <c r="M34">
-        <v>57.0720332135147</v>
+        <v>61.3525503035589</v>
       </c>
       <c r="N34">
-        <v>127.141024692486</v>
+        <v>154.515466144703</v>
       </c>
       <c r="O34">
-        <v>2900.01552263092</v>
+        <v>3714.89094211629</v>
       </c>
       <c r="P34">
-        <v>74.3881611726333</v>
+        <v>84.6231709951894</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>117.976874263543</v>
+        <v>39.1300326560588</v>
       </c>
       <c r="C35">
-        <v>6.83153750425482</v>
+        <v>5.63514842331697</v>
       </c>
       <c r="D35">
-        <v>0.979108703776822</v>
+        <v>0.871888145707472</v>
       </c>
       <c r="E35">
-        <v>2.18910017120538</v>
+        <v>3.54380547569342</v>
       </c>
       <c r="F35">
-        <v>5.84446336455385</v>
+        <v>5.81799578319735</v>
       </c>
       <c r="G35">
-        <v>0.602241964064049</v>
+        <v>0.338641573848681</v>
       </c>
       <c r="H35">
-        <v>0.381243479439019</v>
+        <v>0.714924304735109</v>
       </c>
       <c r="I35">
-        <v>1.28336360063505</v>
+        <v>1.6019780493122</v>
       </c>
       <c r="J35">
-        <v>2.36550551883785</v>
+        <v>2.10425734486149</v>
       </c>
       <c r="K35">
-        <v>7.22085082413362</v>
+        <v>7.79336398901595</v>
       </c>
       <c r="L35">
-        <v>2.20144226532161</v>
+        <v>3.57096062059269</v>
       </c>
       <c r="M35">
-        <v>2.03708263449944</v>
+        <v>2.24412395861162</v>
       </c>
       <c r="N35">
-        <v>2.22725564969728</v>
+        <v>2.55252508757015</v>
       </c>
       <c r="O35">
-        <v>257.202429689647</v>
+        <v>332.015122549449</v>
       </c>
       <c r="P35">
-        <v>42.9921029298655</v>
+        <v>44.3998242219168</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2487.88811764704</v>
+        <v>1043.55232426328</v>
       </c>
       <c r="C36">
-        <v>70.1483314709015</v>
+        <v>73.83266919458271</v>
       </c>
       <c r="D36">
-        <v>18.3415889131783</v>
+        <v>20.8809327709613</v>
       </c>
       <c r="E36">
-        <v>116.259739821314</v>
+        <v>66.00993108802071</v>
       </c>
       <c r="F36">
-        <v>25.6885516120931</v>
+        <v>45.6005239576015</v>
       </c>
       <c r="G36">
-        <v>83.9524328687956</v>
+        <v>130.192272528687</v>
       </c>
       <c r="H36">
-        <v>120.315213764854</v>
+        <v>134.719683773098</v>
       </c>
       <c r="I36">
-        <v>61.7339512433293</v>
+        <v>55.6547244168473</v>
       </c>
       <c r="J36">
-        <v>278.0576609668</v>
+        <v>266.267352257864</v>
       </c>
       <c r="K36">
-        <v>150.625836471472</v>
+        <v>220.819318981034</v>
       </c>
       <c r="L36">
-        <v>108.371813030716</v>
+        <v>127.632292334456</v>
       </c>
       <c r="M36">
-        <v>259.776407094169</v>
+        <v>263.252241618276</v>
       </c>
       <c r="N36">
-        <v>98.346484790501</v>
+        <v>111.401223953514</v>
       </c>
       <c r="O36">
-        <v>4139.03497095673</v>
+        <v>5467.24012257937</v>
       </c>
       <c r="P36">
-        <v>65.7065764594131</v>
+        <v>57.1920530141142</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>811.196954382019</v>
+        <v>338.259894594115</v>
       </c>
       <c r="C37">
-        <v>28.8854878445721</v>
+        <v>27.7881745614097</v>
       </c>
       <c r="D37">
-        <v>10.2321127627365</v>
+        <v>14.5365151103413</v>
       </c>
       <c r="E37">
-        <v>20.9611786955995</v>
+        <v>22.0339664540475</v>
       </c>
       <c r="F37">
-        <v>52.7655197851904</v>
+        <v>52.4040337053188</v>
       </c>
       <c r="G37">
-        <v>5.83531425827799</v>
+        <v>10.0685306852724</v>
       </c>
       <c r="H37">
-        <v>22.288256792606</v>
+        <v>29.5419473250205</v>
       </c>
       <c r="I37">
-        <v>13.2607710034821</v>
+        <v>20.8439253597144</v>
       </c>
       <c r="J37">
-        <v>39.0923113215912</v>
+        <v>42.860681801478</v>
       </c>
       <c r="K37">
-        <v>30.9773609823207</v>
+        <v>51.0079603333051</v>
       </c>
       <c r="L37">
-        <v>24.1024439199465</v>
+        <v>32.7909279945705</v>
       </c>
       <c r="M37">
-        <v>33.4012939195305</v>
+        <v>35.2340213177564</v>
       </c>
       <c r="N37">
-        <v>18.5030856005206</v>
+        <v>20.9386745042299</v>
       </c>
       <c r="O37">
-        <v>1241.69750825588</v>
+        <v>1645.471370688</v>
       </c>
       <c r="P37">
-        <v>61.0358673565999</v>
+        <v>70.4548268769182</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>723.106930659368</v>
+        <v>356.944552424953</v>
       </c>
       <c r="C38">
-        <v>31.9452046892628</v>
+        <v>34.4655759185308</v>
       </c>
       <c r="D38">
-        <v>9.92566871979176</v>
+        <v>16.3445235512585</v>
       </c>
       <c r="E38">
-        <v>71.55336826019651</v>
+        <v>58.6273558123822</v>
       </c>
       <c r="F38">
-        <v>2.04993651119084</v>
+        <v>3.74907084342327</v>
       </c>
       <c r="G38">
-        <v>6.95328840472359</v>
+        <v>10.1673841244682</v>
       </c>
       <c r="H38">
-        <v>5.44280879037398</v>
+        <v>8.13587659519682</v>
       </c>
       <c r="I38">
-        <v>6.93477290377505</v>
+        <v>6.32033808642046</v>
       </c>
       <c r="J38">
-        <v>27.9851169122789</v>
+        <v>38.2060228662198</v>
       </c>
       <c r="K38">
-        <v>15.3454615805322</v>
+        <v>22.4106034926355</v>
       </c>
       <c r="L38">
-        <v>58.556437837372</v>
+        <v>75.39226143735949</v>
       </c>
       <c r="M38">
-        <v>24.4601274288135</v>
+        <v>30.7005873233136</v>
       </c>
       <c r="N38">
-        <v>25.1363950122513</v>
+        <v>31.4400254763595</v>
       </c>
       <c r="O38">
-        <v>1348.5574480735</v>
+        <v>1669.14984809148</v>
       </c>
       <c r="P38">
-        <v>84.2119127642635</v>
+        <v>80.1107850363677</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2909.16466990621</v>
+        <v>1225.16804362219</v>
       </c>
       <c r="C39">
-        <v>107.032008483151</v>
+        <v>153.319024982589</v>
       </c>
       <c r="D39">
-        <v>76.2328763933987</v>
+        <v>80.9737449645975</v>
       </c>
       <c r="E39">
-        <v>137.233587805951</v>
+        <v>96.7639011298661</v>
       </c>
       <c r="F39">
-        <v>41.2631733626625</v>
+        <v>32.7406926830881</v>
       </c>
       <c r="G39">
-        <v>107.109418587679</v>
+        <v>147.177821686882</v>
       </c>
       <c r="H39">
-        <v>62.1734777638787</v>
+        <v>58.7460722983748</v>
       </c>
       <c r="I39">
-        <v>62.6906155223762</v>
+        <v>64.0028168592365</v>
       </c>
       <c r="J39">
-        <v>229.66941263671</v>
+        <v>203.521242181429</v>
       </c>
       <c r="K39">
-        <v>104.316708789986</v>
+        <v>165.23225266622</v>
       </c>
       <c r="L39">
-        <v>124.299458285226</v>
+        <v>161.883429284069</v>
       </c>
       <c r="M39">
-        <v>74.020045652646</v>
+        <v>86.6031834058975</v>
       </c>
       <c r="N39">
-        <v>99.0835410849932</v>
+        <v>132.819353824866</v>
       </c>
       <c r="O39">
-        <v>4567.25181541473</v>
+        <v>6117.35403555371</v>
       </c>
       <c r="P39">
-        <v>98.2937963148466</v>
+        <v>73.52898567162551</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>218.674786166243</v>
+        <v>84.232031280334</v>
       </c>
       <c r="C40">
-        <v>4.80881074829855</v>
+        <v>4.02898763603224</v>
       </c>
       <c r="D40">
-        <v>12.8669829944616</v>
+        <v>13.0057528604635</v>
       </c>
       <c r="E40">
-        <v>6.38500870419182</v>
+        <v>2.16808492179988</v>
       </c>
       <c r="F40">
-        <v>0.401078618767239</v>
+        <v>0.718415195904144</v>
       </c>
       <c r="G40">
-        <v>3.9593220363749</v>
+        <v>6.37112089446287</v>
       </c>
       <c r="H40">
-        <v>5.49593561121738</v>
+        <v>11.3898709383029</v>
       </c>
       <c r="I40">
-        <v>1.38185751889677</v>
+        <v>1.7400439329765</v>
       </c>
       <c r="J40">
-        <v>13.8977260571856</v>
+        <v>14.341707090816</v>
       </c>
       <c r="K40">
-        <v>6.26657668103741</v>
+        <v>12.3350766628848</v>
       </c>
       <c r="L40">
-        <v>16.2849927219582</v>
+        <v>15.0303557149119</v>
       </c>
       <c r="M40">
-        <v>7.55343210796736</v>
+        <v>8.951637432608241</v>
       </c>
       <c r="N40">
-        <v>25.699809422621</v>
+        <v>35.162880461467</v>
       </c>
       <c r="O40">
-        <v>414.148348586613</v>
+        <v>530.251192160404</v>
       </c>
       <c r="P40">
-        <v>4.44039009154691</v>
+        <v>2.53790088401293</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>873.720260150268</v>
+        <v>338.250031888481</v>
       </c>
       <c r="C41">
-        <v>19.9068907060511</v>
+        <v>15.0680351125245</v>
       </c>
       <c r="D41">
-        <v>132.494268960014</v>
+        <v>134.469955302226</v>
       </c>
       <c r="E41">
-        <v>52.1184790145875</v>
+        <v>55.9173615078051</v>
       </c>
       <c r="F41">
-        <v>3.39559637474786</v>
+        <v>4.6240761113406</v>
       </c>
       <c r="G41">
-        <v>24.1250224046366</v>
+        <v>53.3138285312459</v>
       </c>
       <c r="H41">
-        <v>31.5201211006036</v>
+        <v>48.7526456613782</v>
       </c>
       <c r="I41">
-        <v>14.2959740192276</v>
+        <v>15.1770076233872</v>
       </c>
       <c r="J41">
-        <v>48.8752266993112</v>
+        <v>61.5854693464107</v>
       </c>
       <c r="K41">
-        <v>38.1096028074481</v>
+        <v>70.2831635634215</v>
       </c>
       <c r="L41">
-        <v>30.9758152002531</v>
+        <v>37.0866494393686</v>
       </c>
       <c r="M41">
-        <v>38.9895826873833</v>
+        <v>45.1141089296711</v>
       </c>
       <c r="N41">
-        <v>21.1143899520931</v>
+        <v>28.8571738545155</v>
       </c>
       <c r="O41">
-        <v>1425.75059897278</v>
+        <v>1846.17911218342</v>
       </c>
       <c r="P41">
-        <v>30.5058068612431</v>
+        <v>31.2190064758728</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>126.223082355514</v>
+        <v>40.3130374728521</v>
       </c>
       <c r="C42">
-        <v>11.0179600908102</v>
+        <v>9.281676011718901</v>
       </c>
       <c r="D42">
-        <v>2.53504412321027</v>
+        <v>2.35724393251822</v>
       </c>
       <c r="E42">
-        <v>5.37957889505711</v>
+        <v>5.19048804543805</v>
       </c>
       <c r="F42">
-        <v>2.62156530351174</v>
+        <v>2.25939846097811</v>
       </c>
       <c r="G42">
-        <v>1.56287362594096</v>
+        <v>1.63309051256581</v>
       </c>
       <c r="H42">
-        <v>1.21416985738925</v>
+        <v>1.59728878008293</v>
       </c>
       <c r="I42">
-        <v>1.22633061733472</v>
+        <v>1.01003116995612</v>
       </c>
       <c r="J42">
-        <v>5.57465235440064</v>
+        <v>5.06419275769273</v>
       </c>
       <c r="K42">
-        <v>5.93425241154645</v>
+        <v>8.99163281219978</v>
       </c>
       <c r="L42">
-        <v>7.48272739162009</v>
+        <v>10.0125285482025</v>
       </c>
       <c r="M42">
-        <v>4.3777411334819</v>
+        <v>4.34179838648161</v>
       </c>
       <c r="N42">
-        <v>7.52787791940206</v>
+        <v>8.969495746132891</v>
       </c>
       <c r="O42">
-        <v>295.524106925606</v>
+        <v>381.714991902052</v>
       </c>
       <c r="P42">
-        <v>47.7355378475156</v>
+        <v>43.2005959338816</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1279.54131630306</v>
+        <v>553.500031215416</v>
       </c>
       <c r="C43">
-        <v>44.7602805111534</v>
+        <v>38.1474466147739</v>
       </c>
       <c r="D43">
-        <v>64.357407039837</v>
+        <v>71.87037077029621</v>
       </c>
       <c r="E43">
-        <v>78.06531406470811</v>
+        <v>50.9665838297546</v>
       </c>
       <c r="F43">
-        <v>8.043620883345531</v>
+        <v>15.1430410167783</v>
       </c>
       <c r="G43">
-        <v>32.3283894031962</v>
+        <v>34.8045263342259</v>
       </c>
       <c r="H43">
-        <v>36.236591672646</v>
+        <v>32.4316949174173</v>
       </c>
       <c r="I43">
-        <v>21.1032168141399</v>
+        <v>31.4288727498414</v>
       </c>
       <c r="J43">
-        <v>71.55515326766231</v>
+        <v>64.15983915745559</v>
       </c>
       <c r="K43">
-        <v>54.8360654691728</v>
+        <v>82.0853559102613</v>
       </c>
       <c r="L43">
-        <v>63.9175873434771</v>
+        <v>62.871574138165</v>
       </c>
       <c r="M43">
-        <v>103.119308480968</v>
+        <v>97.8479118820389</v>
       </c>
       <c r="N43">
-        <v>77.4515256841168</v>
+        <v>106.532898847447</v>
       </c>
       <c r="O43">
-        <v>2070.36384457346</v>
+        <v>2743.2390260605</v>
       </c>
       <c r="P43">
-        <v>49.3060689406786</v>
+        <v>69.956485868475</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4719.28536622495</v>
+        <v>2219.51276478052</v>
       </c>
       <c r="C44">
-        <v>130.582972855186</v>
+        <v>199.771788763191</v>
       </c>
       <c r="D44">
-        <v>72.66272099602401</v>
+        <v>89.2724704407422</v>
       </c>
       <c r="E44">
-        <v>115.381085167674</v>
+        <v>88.38916830686431</v>
       </c>
       <c r="F44">
-        <v>226.223292600492</v>
+        <v>278.341650640914</v>
       </c>
       <c r="G44">
-        <v>132.82494024812</v>
+        <v>182.261395559693</v>
       </c>
       <c r="H44">
-        <v>63.0976713227901</v>
+        <v>62.6850034195397</v>
       </c>
       <c r="I44">
-        <v>47.4318116017257</v>
+        <v>60.9337043109464</v>
       </c>
       <c r="J44">
-        <v>148.173063496642</v>
+        <v>166.270504191387</v>
       </c>
       <c r="K44">
-        <v>116.349694608566</v>
+        <v>179.26922845253</v>
       </c>
       <c r="L44">
-        <v>239.886420600004</v>
+        <v>298.455418596874</v>
       </c>
       <c r="M44">
-        <v>131.176666319116</v>
+        <v>143.569787443786</v>
       </c>
       <c r="N44">
-        <v>103.567568143575</v>
+        <v>110.647766935427</v>
       </c>
       <c r="O44">
-        <v>7720.43550984747</v>
+        <v>9816.44758559368</v>
       </c>
       <c r="P44">
-        <v>224.916226308835</v>
+        <v>296.166700247956</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>412.098711323408</v>
+        <v>215.3807657862</v>
       </c>
       <c r="C45">
-        <v>17.9018059012794</v>
+        <v>17.4104033908149</v>
       </c>
       <c r="D45">
-        <v>4.49958353105138</v>
+        <v>6.77713516114162</v>
       </c>
       <c r="E45">
-        <v>16.6924247329925</v>
+        <v>7.65971237680022</v>
       </c>
       <c r="F45">
-        <v>19.2497065686604</v>
+        <v>26.2961612165626</v>
       </c>
       <c r="G45">
-        <v>8.80793445179398</v>
+        <v>10.2329467338816</v>
       </c>
       <c r="H45">
-        <v>2.64715900100148</v>
+        <v>5.0217380964775</v>
       </c>
       <c r="I45">
-        <v>5.97625642571862</v>
+        <v>6.858066176365</v>
       </c>
       <c r="J45">
-        <v>22.9313882214091</v>
+        <v>24.0289252475108</v>
       </c>
       <c r="K45">
-        <v>7.03993361696544</v>
+        <v>12.7521531756873</v>
       </c>
       <c r="L45">
-        <v>21.9766780488451</v>
+        <v>25.3224812530205</v>
       </c>
       <c r="M45">
-        <v>27.6331054224497</v>
+        <v>28.0154548032963</v>
       </c>
       <c r="N45">
-        <v>31.359367635977</v>
+        <v>33.1044309665211</v>
       </c>
       <c r="O45">
-        <v>868.44436310917</v>
+        <v>1052.86942928247</v>
       </c>
       <c r="P45">
-        <v>23.6524831788739</v>
+        <v>19.1810663640853</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>111.243966801224</v>
+        <v>41.5177806379953</v>
       </c>
       <c r="C46">
-        <v>4.5468970718552</v>
+        <v>5.22036818122693</v>
       </c>
       <c r="D46">
-        <v>2.46932785471308</v>
+        <v>2.45746111451603</v>
       </c>
       <c r="E46">
-        <v>8.688750088129771</v>
+        <v>6.88122070670275</v>
       </c>
       <c r="F46">
-        <v>0.811551868825373</v>
+        <v>1.8139395020682</v>
       </c>
       <c r="G46">
-        <v>1.58314289172104</v>
+        <v>1.94093328678454</v>
       </c>
       <c r="H46">
-        <v>1.44552353625601</v>
+        <v>2.71173331178981</v>
       </c>
       <c r="I46">
-        <v>2.92205121311922</v>
+        <v>2.80170569300623</v>
       </c>
       <c r="J46">
-        <v>5.51963991849168</v>
+        <v>5.04192334423595</v>
       </c>
       <c r="K46">
-        <v>4.29828928686746</v>
+        <v>5.63896196231884</v>
       </c>
       <c r="L46">
-        <v>11.174839489061</v>
+        <v>15.2183442155689</v>
       </c>
       <c r="M46">
-        <v>3.8647415903878</v>
+        <v>4.76519833010433</v>
       </c>
       <c r="N46">
-        <v>7.45542795356477</v>
+        <v>9.32990494061818</v>
       </c>
       <c r="O46">
-        <v>252.956732731332</v>
+        <v>317.149984108607</v>
       </c>
       <c r="P46">
-        <v>12.9057996436281</v>
+        <v>9.397222603633571</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1472.21954101372</v>
+        <v>628.545776518394</v>
       </c>
       <c r="C47">
-        <v>66.8468068616536</v>
+        <v>78.95649829244159</v>
       </c>
       <c r="D47">
-        <v>59.6058897056419</v>
+        <v>48.4788229874024</v>
       </c>
       <c r="E47">
-        <v>75.9116868843537</v>
+        <v>50.0896695357006</v>
       </c>
       <c r="F47">
-        <v>16.7781600900001</v>
+        <v>11.5451406519851</v>
       </c>
       <c r="G47">
-        <v>32.7823568469219</v>
+        <v>41.7698453144015</v>
       </c>
       <c r="H47">
-        <v>20.4670217327208</v>
+        <v>21.8262140671538</v>
       </c>
       <c r="I47">
-        <v>19.0806450318505</v>
+        <v>19.9844081509485</v>
       </c>
       <c r="J47">
-        <v>42.8933595410083</v>
+        <v>64.60492750169389</v>
       </c>
       <c r="K47">
-        <v>28.2823118300509</v>
+        <v>38.2395873633083</v>
       </c>
       <c r="L47">
-        <v>47.481391106769</v>
+        <v>65.8300275512495</v>
       </c>
       <c r="M47">
-        <v>73.4653396693696</v>
+        <v>88.73005037646711</v>
       </c>
       <c r="N47">
-        <v>49.9724937929241</v>
+        <v>46.1412507769817</v>
       </c>
       <c r="O47">
-        <v>2890.71797101827</v>
+        <v>3692.70954255294</v>
       </c>
       <c r="P47">
-        <v>46.764948786725</v>
+        <v>45.8181363219341</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1256.70661095177</v>
+        <v>597.443681112598</v>
       </c>
       <c r="C48">
-        <v>32.917147398127</v>
+        <v>20.988490940896</v>
       </c>
       <c r="D48">
-        <v>13.338028802592</v>
+        <v>19.806194599355</v>
       </c>
       <c r="E48">
-        <v>70.5742930800981</v>
+        <v>79.783578524234</v>
       </c>
       <c r="F48">
-        <v>8.38623640225614</v>
+        <v>19.5333853391229</v>
       </c>
       <c r="G48">
-        <v>13.6518211171381</v>
+        <v>18.1303682543484</v>
       </c>
       <c r="H48">
-        <v>11.5059842451258</v>
+        <v>8.77123407598044</v>
       </c>
       <c r="I48">
-        <v>11.8158709870842</v>
+        <v>22.3129849369228</v>
       </c>
       <c r="J48">
-        <v>43.9109939869896</v>
+        <v>35.323799705967</v>
       </c>
       <c r="K48">
-        <v>20.120628643202</v>
+        <v>30.5556333605732</v>
       </c>
       <c r="L48">
-        <v>47.3500438129888</v>
+        <v>52.9974315034312</v>
       </c>
       <c r="M48">
-        <v>127.775477406245</v>
+        <v>170.261018679365</v>
       </c>
       <c r="N48">
-        <v>37.4300486795275</v>
+        <v>29.4459275058283</v>
       </c>
       <c r="O48">
-        <v>2337.01031621334</v>
+        <v>2935.12194152302</v>
       </c>
       <c r="P48">
-        <v>118.306591377036</v>
+        <v>110.324324435799</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>561.819015308848</v>
+        <v>270.950198914901</v>
       </c>
       <c r="C49">
-        <v>7.51543679865252</v>
+        <v>6.65164206041345</v>
       </c>
       <c r="D49">
-        <v>4.28464264470096</v>
+        <v>8.68794725294522</v>
       </c>
       <c r="E49">
-        <v>17.9129658636915</v>
+        <v>18.4826598345902</v>
       </c>
       <c r="F49">
-        <v>30.4314810971548</v>
+        <v>48.3868980912953</v>
       </c>
       <c r="G49">
-        <v>17.3244465815211</v>
+        <v>25.8114766758742</v>
       </c>
       <c r="H49">
-        <v>6.68679273355534</v>
+        <v>4.51402606570359</v>
       </c>
       <c r="I49">
-        <v>8.189018158883041</v>
+        <v>13.0285371833878</v>
       </c>
       <c r="J49">
-        <v>20.6724052424878</v>
+        <v>28.5358125075324</v>
       </c>
       <c r="K49">
-        <v>7.6222694659124</v>
+        <v>13.3217726213712</v>
       </c>
       <c r="L49">
-        <v>3.34328889016227</v>
+        <v>4.2267094719003</v>
       </c>
       <c r="M49">
-        <v>9.4038575541146</v>
+        <v>8.063129461700839</v>
       </c>
       <c r="N49">
-        <v>6.20646562582729</v>
+        <v>4.91158255592386</v>
       </c>
       <c r="O49">
-        <v>632.660050347117</v>
+        <v>879.313259363626</v>
       </c>
       <c r="P49">
-        <v>9.740894187723161</v>
+        <v>8.92737843918589</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>972.508015985097</v>
+        <v>339.72357363116</v>
       </c>
       <c r="C50">
-        <v>80.8440680649931</v>
+        <v>93.2399018057627</v>
       </c>
       <c r="D50">
-        <v>16.34683635511</v>
+        <v>14.8658552207124</v>
       </c>
       <c r="E50">
-        <v>140.570152807719</v>
+        <v>117.9016429343</v>
       </c>
       <c r="F50">
-        <v>4.81196354856688</v>
+        <v>4.61464002591025</v>
       </c>
       <c r="G50">
-        <v>20.2848630178304</v>
+        <v>38.3789793007334</v>
       </c>
       <c r="H50">
-        <v>39.2692688960921</v>
+        <v>36.3598959632509</v>
       </c>
       <c r="I50">
-        <v>17.4264299864834</v>
+        <v>21.3689740151756</v>
       </c>
       <c r="J50">
-        <v>120.262079801142</v>
+        <v>112.574628734401</v>
       </c>
       <c r="K50">
-        <v>116.396073591565</v>
+        <v>145.545032007166</v>
       </c>
       <c r="L50">
-        <v>68.20679800754969</v>
+        <v>102.291059895463</v>
       </c>
       <c r="M50">
-        <v>58.0694994808728</v>
+        <v>35.6716868768322</v>
       </c>
       <c r="N50">
-        <v>57.5728211473578</v>
+        <v>89.62774238207661</v>
       </c>
       <c r="O50">
-        <v>1941.81154403594</v>
+        <v>2554.63190422886</v>
       </c>
       <c r="P50">
-        <v>136.532487198442</v>
+        <v>84.1173381948114</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>97.2658359917246</v>
+        <v>43.3610690504556</v>
       </c>
       <c r="C51">
-        <v>1.77765974569164</v>
+        <v>2.03350211629632</v>
       </c>
       <c r="D51">
-        <v>0.907595758954474</v>
+        <v>0.54106170247832</v>
       </c>
       <c r="E51">
-        <v>2.7080360310847</v>
+        <v>1.58965431271618</v>
       </c>
       <c r="F51">
-        <v>23.3504700467971</v>
+        <v>28.8713873540288</v>
       </c>
       <c r="G51">
-        <v>2.26118545506982</v>
+        <v>1.04870545828516</v>
       </c>
       <c r="H51">
-        <v>0.176429719094579</v>
+        <v>0.30862086907146</v>
       </c>
       <c r="I51">
-        <v>0.844587039777036</v>
+        <v>1.13301752638202</v>
       </c>
       <c r="J51">
-        <v>1.61425728731254</v>
+        <v>2.05935122080031</v>
       </c>
       <c r="K51">
-        <v>0.895330795981519</v>
+        <v>1.53080594306682</v>
       </c>
       <c r="L51">
-        <v>0.664490703898574</v>
+        <v>0.810647488319701</v>
       </c>
       <c r="M51">
-        <v>0.666451085345745</v>
+        <v>0.6910328228757761</v>
       </c>
       <c r="N51">
-        <v>1.18533491204916</v>
+        <v>1.51940857205975</v>
       </c>
       <c r="O51">
-        <v>195.626021340062</v>
+        <v>242.196997889045</v>
       </c>
       <c r="P51">
-        <v>16.1905294808825</v>
+        <v>18.4389374984634</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_1999.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_1999.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>439.550696856062</v>
+        <v>880.626869372828</v>
       </c>
       <c r="C2">
-        <v>39.7529242166197</v>
+        <v>32.9909579140803</v>
       </c>
       <c r="D2">
-        <v>84.8999997965967</v>
+        <v>70.8827548295604</v>
       </c>
       <c r="E2">
-        <v>94.0368544866281</v>
+        <v>78.45011750803489</v>
       </c>
       <c r="F2">
-        <v>21.7674805433987</v>
+        <v>18.0610184063369</v>
       </c>
       <c r="G2">
-        <v>29.658882741226</v>
+        <v>25.0685985958796</v>
       </c>
       <c r="H2">
-        <v>45.9569381321516</v>
+        <v>38.1171766202186</v>
       </c>
       <c r="I2">
-        <v>23.3280728772823</v>
+        <v>19.3528069798599</v>
       </c>
       <c r="J2">
-        <v>86.4032077397664</v>
+        <v>72.1265509522174</v>
       </c>
       <c r="K2">
-        <v>27.6952963002944</v>
+        <v>23.4458519567515</v>
       </c>
       <c r="L2">
-        <v>43.8114174382046</v>
+        <v>36.3640469687735</v>
       </c>
       <c r="M2">
-        <v>58.0984702616072</v>
+        <v>49.1197621695025</v>
       </c>
       <c r="N2">
-        <v>34.8916988176533</v>
+        <v>29.416542064031</v>
       </c>
       <c r="O2">
-        <v>2066.12271699213</v>
+        <v>1729.41044535951</v>
       </c>
       <c r="P2">
-        <v>54.6143841127811</v>
+        <v>47.1555427693103</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>69.65697161690581</v>
+        <v>99.87958678024791</v>
       </c>
       <c r="C3">
-        <v>3.39571106666952</v>
+        <v>3.1310697155839</v>
       </c>
       <c r="D3">
-        <v>0.541737783327743</v>
+        <v>0.481454533742216</v>
       </c>
       <c r="E3">
-        <v>1.71652080238352</v>
+        <v>1.54140807849281</v>
       </c>
       <c r="F3">
-        <v>11.4122033589613</v>
+        <v>10.2812471614954</v>
       </c>
       <c r="G3">
-        <v>1.10287443024848</v>
+        <v>0.989668329299163</v>
       </c>
       <c r="H3">
-        <v>0.181335601128473</v>
+        <v>0.237845091980672</v>
       </c>
       <c r="I3">
-        <v>0.769887366969499</v>
+        <v>0.691656023427396</v>
       </c>
       <c r="J3">
-        <v>0.681741302097272</v>
+        <v>0.608622775176926</v>
       </c>
       <c r="K3">
-        <v>0.734002106925687</v>
+        <v>0.6558604586874081</v>
       </c>
       <c r="L3">
-        <v>0.433275711645637</v>
+        <v>0.38345854974616</v>
       </c>
       <c r="M3">
-        <v>1.47338848059433</v>
+        <v>1.39754100682496</v>
       </c>
       <c r="N3">
-        <v>1.26319133714609</v>
+        <v>1.13378547992054</v>
       </c>
       <c r="O3">
-        <v>300.805821189843</v>
+        <v>273.702657320687</v>
       </c>
       <c r="P3">
-        <v>11.9254641820751</v>
+        <v>10.9782647915221</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>546.60678190415</v>
+        <v>910.368958813005</v>
       </c>
       <c r="C4">
-        <v>19.3098849973202</v>
+        <v>16.768934296197</v>
       </c>
       <c r="D4">
-        <v>10.9270770888138</v>
+        <v>9.491005270082811</v>
       </c>
       <c r="E4">
-        <v>15.5077547726791</v>
+        <v>13.4598550333781</v>
       </c>
       <c r="F4">
-        <v>11.3091855355207</v>
+        <v>9.819518341323819</v>
       </c>
       <c r="G4">
-        <v>16.034696086762</v>
+        <v>14.4227631604536</v>
       </c>
       <c r="H4">
-        <v>5.82756436221507</v>
+        <v>5.56493731579996</v>
       </c>
       <c r="I4">
-        <v>10.3603163240503</v>
+        <v>8.98995925864066</v>
       </c>
       <c r="J4">
-        <v>31.6959353331239</v>
+        <v>28.0111262689024</v>
       </c>
       <c r="K4">
-        <v>13.571279095973</v>
+        <v>11.7945400585141</v>
       </c>
       <c r="L4">
-        <v>110.462047543517</v>
+        <v>96.31585328265901</v>
       </c>
       <c r="M4">
-        <v>73.52224782555661</v>
+        <v>63.7780385587697</v>
       </c>
       <c r="N4">
-        <v>43.521448146487</v>
+        <v>38.2667782115534</v>
       </c>
       <c r="O4">
-        <v>2587.16805612819</v>
+        <v>2273.94114297833</v>
       </c>
       <c r="P4">
-        <v>43.1923090713892</v>
+        <v>38.0231732392639</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>231.829702239487</v>
+        <v>519.660985662407</v>
       </c>
       <c r="C5">
-        <v>71.2057456456042</v>
+        <v>57.9454516682765</v>
       </c>
       <c r="D5">
-        <v>24.3143263492269</v>
+        <v>19.7978917932569</v>
       </c>
       <c r="E5">
-        <v>38.8955822903471</v>
+        <v>31.6548562224411</v>
       </c>
       <c r="F5">
-        <v>2.95800707361404</v>
+        <v>2.4270840885265</v>
       </c>
       <c r="G5">
-        <v>14.1658525869183</v>
+        <v>11.5423881087472</v>
       </c>
       <c r="H5">
-        <v>16.3156004106482</v>
+        <v>13.2824799246698</v>
       </c>
       <c r="I5">
-        <v>12.1551558521036</v>
+        <v>9.897171797936309</v>
       </c>
       <c r="J5">
-        <v>47.2443090595813</v>
+        <v>38.456006681837</v>
       </c>
       <c r="K5">
-        <v>34.1906421599367</v>
+        <v>28.1456104440175</v>
       </c>
       <c r="L5">
-        <v>33.9288628284224</v>
+        <v>27.9389976906553</v>
       </c>
       <c r="M5">
-        <v>20.3590650458094</v>
+        <v>16.5911908315753</v>
       </c>
       <c r="N5">
-        <v>24.0718722954273</v>
+        <v>19.9125323455726</v>
       </c>
       <c r="O5">
-        <v>1245.17137678331</v>
+        <v>1027.50192034216</v>
       </c>
       <c r="P5">
-        <v>52.6818506391926</v>
+        <v>44.7333825895591</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>4036.05100295307</v>
+        <v>5996.69404674058</v>
       </c>
       <c r="C6">
-        <v>214.276351998491</v>
+        <v>192.70692038665</v>
       </c>
       <c r="D6">
-        <v>349.466290377014</v>
+        <v>313.74734107682</v>
       </c>
       <c r="E6">
-        <v>129.880217804304</v>
+        <v>116.296902150511</v>
       </c>
       <c r="F6">
-        <v>65.3789871280527</v>
+        <v>59.4553704754713</v>
       </c>
       <c r="G6">
-        <v>143.463282891283</v>
+        <v>128.407269089246</v>
       </c>
       <c r="H6">
-        <v>89.8389429822402</v>
+        <v>80.02307233803489</v>
       </c>
       <c r="I6">
-        <v>68.5067220474682</v>
+        <v>61.6287385347997</v>
       </c>
       <c r="J6">
-        <v>236.678367200047</v>
+        <v>211.447505772444</v>
       </c>
       <c r="K6">
-        <v>193.276342135957</v>
+        <v>175.205600103884</v>
       </c>
       <c r="L6">
-        <v>632.349724631384</v>
+        <v>565.772430070455</v>
       </c>
       <c r="M6">
-        <v>421.544834760045</v>
+        <v>377.959606451273</v>
       </c>
       <c r="N6">
-        <v>412.812732884522</v>
+        <v>370.188362569557</v>
       </c>
       <c r="O6">
-        <v>16144.4949271346</v>
+        <v>14519.4691901651</v>
       </c>
       <c r="P6">
-        <v>312.639230323526</v>
+        <v>281.655597878665</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>332.770676761967</v>
+        <v>595.546369672757</v>
       </c>
       <c r="C7">
-        <v>38.6048109193713</v>
+        <v>34.933619092928</v>
       </c>
       <c r="D7">
-        <v>6.82644438552753</v>
+        <v>6.09708359714507</v>
       </c>
       <c r="E7">
-        <v>16.0054559815791</v>
+        <v>14.2989887756996</v>
       </c>
       <c r="F7">
-        <v>20.4532213193549</v>
+        <v>18.2776185660558</v>
       </c>
       <c r="G7">
-        <v>12.0875714890038</v>
+        <v>10.8031727648949</v>
       </c>
       <c r="H7">
-        <v>12.3226054797119</v>
+        <v>11.0136620590001</v>
       </c>
       <c r="I7">
-        <v>12.2413407528131</v>
+        <v>10.9418232246552</v>
       </c>
       <c r="J7">
-        <v>25.8684623080091</v>
+        <v>23.120520984079</v>
       </c>
       <c r="K7">
-        <v>29.1199720258262</v>
+        <v>26.4542131806825</v>
       </c>
       <c r="L7">
-        <v>78.0661646119613</v>
+        <v>70.63250611858121</v>
       </c>
       <c r="M7">
-        <v>27.6642113087002</v>
+        <v>24.721089358147</v>
       </c>
       <c r="N7">
-        <v>44.8246257764524</v>
+        <v>40.069820607378</v>
       </c>
       <c r="O7">
-        <v>2337.18669675397</v>
+        <v>2109.72088513858</v>
       </c>
       <c r="P7">
-        <v>28.7128305672375</v>
+        <v>26.1237166209137</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>274.854204271769</v>
+        <v>480.541030086974</v>
       </c>
       <c r="C8">
-        <v>18.6264708049117</v>
+        <v>17.1396514165494</v>
       </c>
       <c r="D8">
-        <v>10.4160944648717</v>
+        <v>9.316977391856771</v>
       </c>
       <c r="E8">
-        <v>14.9442512189751</v>
+        <v>13.3764806062381</v>
       </c>
       <c r="F8">
-        <v>3.23237031727372</v>
+        <v>2.8933745692754</v>
       </c>
       <c r="G8">
-        <v>38.2958187205528</v>
+        <v>34.288450969646</v>
       </c>
       <c r="H8">
-        <v>16.3774217554725</v>
+        <v>14.6607347854669</v>
       </c>
       <c r="I8">
-        <v>2.26793438422228</v>
+        <v>2.02864669497607</v>
       </c>
       <c r="J8">
-        <v>50.9255523911951</v>
+        <v>46.9909980511296</v>
       </c>
       <c r="K8">
-        <v>52.465601490369</v>
+        <v>46.9748460106991</v>
       </c>
       <c r="L8">
-        <v>50.2782604631957</v>
+        <v>45.0097607812675</v>
       </c>
       <c r="M8">
-        <v>77.4699572645827</v>
+        <v>70.75720444612981</v>
       </c>
       <c r="N8">
-        <v>51.6665717010271</v>
+        <v>46.2549817345791</v>
       </c>
       <c r="O8">
-        <v>1741.7362359451</v>
+        <v>1574.08598332351</v>
       </c>
       <c r="P8">
-        <v>7.27073998313657</v>
+        <v>6.50836525532381</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>60.6282374930436</v>
+        <v>120.323835799842</v>
       </c>
       <c r="C9">
-        <v>8.83843926403892</v>
+        <v>7.77883512021922</v>
       </c>
       <c r="D9">
-        <v>1.97337715132316</v>
+        <v>1.71285511502378</v>
       </c>
       <c r="E9">
-        <v>4.83210945298075</v>
+        <v>4.19053516875917</v>
       </c>
       <c r="F9">
-        <v>2.80525716695778</v>
+        <v>2.43298438201349</v>
       </c>
       <c r="G9">
-        <v>28.2870704385185</v>
+        <v>24.6381490739067</v>
       </c>
       <c r="H9">
-        <v>4.27599205658637</v>
+        <v>3.82179671062446</v>
       </c>
       <c r="I9">
-        <v>0.8546372696672711</v>
+        <v>0.742122702190297</v>
       </c>
       <c r="J9">
-        <v>3.72811569900723</v>
+        <v>3.34837820807518</v>
       </c>
       <c r="K9">
-        <v>4.629674593173</v>
+        <v>4.01551225726424</v>
       </c>
       <c r="L9">
-        <v>3.8025153933286</v>
+        <v>3.29912678050639</v>
       </c>
       <c r="M9">
-        <v>10.310252597922</v>
+        <v>9.053620318312159</v>
       </c>
       <c r="N9">
-        <v>5.85046986008488</v>
+        <v>5.07379343271493</v>
       </c>
       <c r="O9">
-        <v>403.374186767496</v>
+        <v>354.289117816761</v>
       </c>
       <c r="P9">
-        <v>6.5703979642099</v>
+        <v>6.04007008582979</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>1576.08273957645</v>
+        <v>2922.3197780863</v>
       </c>
       <c r="C10">
-        <v>73.9502583092906</v>
+        <v>63.7647807652841</v>
       </c>
       <c r="D10">
-        <v>56.5361409667909</v>
+        <v>49.4087402680209</v>
       </c>
       <c r="E10">
-        <v>56.1026227594654</v>
+        <v>49.0266326424347</v>
       </c>
       <c r="F10">
-        <v>11.9221908643199</v>
+        <v>10.2120844845851</v>
       </c>
       <c r="G10">
-        <v>54.1539870084222</v>
+        <v>46.3140031821666</v>
       </c>
       <c r="H10">
-        <v>30.6403967730364</v>
+        <v>26.7295613696293</v>
       </c>
       <c r="I10">
-        <v>50.7338530772043</v>
+        <v>43.3536493701569</v>
       </c>
       <c r="J10">
-        <v>62.7878533710905</v>
+        <v>54.240070660702</v>
       </c>
       <c r="K10">
-        <v>68.2572082126463</v>
+        <v>58.9052741638122</v>
       </c>
       <c r="L10">
-        <v>168.38002885741</v>
+        <v>144.4464558569</v>
       </c>
       <c r="M10">
-        <v>121.284195335544</v>
+        <v>104.759874144099</v>
       </c>
       <c r="N10">
-        <v>133.143464746784</v>
+        <v>114.869550370995</v>
       </c>
       <c r="O10">
-        <v>8945.906007069731</v>
+        <v>7734.83247631022</v>
       </c>
       <c r="P10">
-        <v>106.753522546073</v>
+        <v>93.4515373249847</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>708.13115433275</v>
+        <v>1325.24094592297</v>
       </c>
       <c r="C11">
-        <v>83.6741122646164</v>
+        <v>73.882054419531</v>
       </c>
       <c r="D11">
-        <v>208.977490788622</v>
+        <v>181.774724156334</v>
       </c>
       <c r="E11">
-        <v>119.195972348976</v>
+        <v>103.970154958801</v>
       </c>
       <c r="F11">
-        <v>10.9824894900382</v>
+        <v>9.51769287565074</v>
       </c>
       <c r="G11">
-        <v>44.7898062882644</v>
+        <v>39.4989903842233</v>
       </c>
       <c r="H11">
-        <v>25.5556769674866</v>
+        <v>22.1371808142329</v>
       </c>
       <c r="I11">
-        <v>22.015754322755</v>
+        <v>19.0776520893582</v>
       </c>
       <c r="J11">
-        <v>65.2493750898434</v>
+        <v>56.5430065568769</v>
       </c>
       <c r="K11">
-        <v>62.7569786164996</v>
+        <v>54.3841164828221</v>
       </c>
       <c r="L11">
-        <v>90.0178906967333</v>
+        <v>78.013596009998</v>
       </c>
       <c r="M11">
-        <v>67.1721962897232</v>
+        <v>58.2163600024796</v>
       </c>
       <c r="N11">
-        <v>73.8952243525826</v>
+        <v>64.7277122831393</v>
       </c>
       <c r="O11">
-        <v>4051.5414457753</v>
+        <v>3550.40769025899</v>
       </c>
       <c r="P11">
-        <v>41.4663479362527</v>
+        <v>38.0300389316832</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>127.009025175124</v>
+        <v>196.659707752949</v>
       </c>
       <c r="C12">
-        <v>13.336306195092</v>
+        <v>11.9745800454517</v>
       </c>
       <c r="D12">
-        <v>4.50975125666041</v>
+        <v>4.04648422342273</v>
       </c>
       <c r="E12">
-        <v>0.912496905824525</v>
+        <v>0.816252806555824</v>
       </c>
       <c r="F12">
-        <v>1.40590970992187</v>
+        <v>1.26040316531491</v>
       </c>
       <c r="G12">
-        <v>1.11909329667189</v>
+        <v>1.00202072317796</v>
       </c>
       <c r="H12">
-        <v>0.362454891053192</v>
+        <v>0.324106183104064</v>
       </c>
       <c r="I12">
-        <v>1.89204970974556</v>
+        <v>1.69778358735847</v>
       </c>
       <c r="J12">
-        <v>1.24950610805329</v>
+        <v>1.11854014011125</v>
       </c>
       <c r="K12">
-        <v>0.7585913835760501</v>
+        <v>0.679380169298104</v>
       </c>
       <c r="L12">
-        <v>1.12966573211168</v>
+        <v>1.00890013650881</v>
       </c>
       <c r="M12">
-        <v>5.7774828799816</v>
+        <v>5.18582426524184</v>
       </c>
       <c r="N12">
-        <v>4.24282093776494</v>
+        <v>3.80715123922989</v>
       </c>
       <c r="O12">
-        <v>668.490717898108</v>
+        <v>603.607857297338</v>
       </c>
       <c r="P12">
-        <v>21.4244220964293</v>
+        <v>20.4313030617076</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>118.089406312842</v>
+        <v>198.121546975493</v>
       </c>
       <c r="C13">
-        <v>30.5723109939428</v>
+        <v>27.3351568897384</v>
       </c>
       <c r="D13">
-        <v>2.38554816513682</v>
+        <v>2.12136120194854</v>
       </c>
       <c r="E13">
-        <v>17.7189526779882</v>
+        <v>15.8958667734533</v>
       </c>
       <c r="F13">
-        <v>5.80512995732899</v>
+        <v>5.16640168467483</v>
       </c>
       <c r="G13">
-        <v>6.20279901246013</v>
+        <v>5.51940527616049</v>
       </c>
       <c r="H13">
-        <v>2.55113254377667</v>
+        <v>2.26927567228706</v>
       </c>
       <c r="I13">
-        <v>2.41468925130346</v>
+        <v>2.14810757581839</v>
       </c>
       <c r="J13">
-        <v>6.67822955528653</v>
+        <v>5.94235979288646</v>
       </c>
       <c r="K13">
-        <v>5.58441360042247</v>
+        <v>4.96982278396638</v>
       </c>
       <c r="L13">
-        <v>31.1371331165029</v>
+        <v>28.0932669217353</v>
       </c>
       <c r="M13">
-        <v>5.25872045174611</v>
+        <v>4.67993563878822</v>
       </c>
       <c r="N13">
-        <v>7.71968367662897</v>
+        <v>6.87021538399899</v>
       </c>
       <c r="O13">
-        <v>594.930081512261</v>
+        <v>533.4171594384191</v>
       </c>
       <c r="P13">
-        <v>54.6834317792086</v>
+        <v>49.1817806350607</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>1184.38855699652</v>
+        <v>1927.56779707315</v>
       </c>
       <c r="C14">
-        <v>141.299330743881</v>
+        <v>126.784990628812</v>
       </c>
       <c r="D14">
-        <v>22.8090871574875</v>
+        <v>20.3755751182095</v>
       </c>
       <c r="E14">
-        <v>70.6848088917596</v>
+        <v>63.1830810756283</v>
       </c>
       <c r="F14">
-        <v>18.8985447874614</v>
+        <v>17.3357605370785</v>
       </c>
       <c r="G14">
-        <v>128.710424037931</v>
+        <v>115.974981500317</v>
       </c>
       <c r="H14">
-        <v>68.90221590694939</v>
+        <v>62.046876173648</v>
       </c>
       <c r="I14">
-        <v>41.7128371863914</v>
+        <v>37.292601766527</v>
       </c>
       <c r="J14">
-        <v>167.388120645409</v>
+        <v>150.999347704135</v>
       </c>
       <c r="K14">
-        <v>231.146061678002</v>
+        <v>208.468365585892</v>
       </c>
       <c r="L14">
-        <v>200.619709602356</v>
+        <v>179.815018050927</v>
       </c>
       <c r="M14">
-        <v>111.397942203179</v>
+        <v>99.5792257257807</v>
       </c>
       <c r="N14">
-        <v>114.86539657266</v>
+        <v>102.684668399769</v>
       </c>
       <c r="O14">
-        <v>6214.21184077542</v>
+        <v>5609.05174601724</v>
       </c>
       <c r="P14">
-        <v>43.5161279784771</v>
+        <v>39.390970477924</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>519.046360541961</v>
+        <v>947.433184502429</v>
       </c>
       <c r="C15">
-        <v>38.5252444281453</v>
+        <v>34.4086180631402</v>
       </c>
       <c r="D15">
-        <v>18.1219452306009</v>
+        <v>15.8690461158909</v>
       </c>
       <c r="E15">
-        <v>66.7987632830754</v>
+        <v>58.5162172267104</v>
       </c>
       <c r="F15">
-        <v>16.2594827229902</v>
+        <v>14.2453903641304</v>
       </c>
       <c r="G15">
-        <v>53.2889249165507</v>
+        <v>47.3415112955349</v>
       </c>
       <c r="H15">
-        <v>58.2238356213839</v>
+        <v>51.661034487475</v>
       </c>
       <c r="I15">
-        <v>54.3001509043537</v>
+        <v>47.5687882969829</v>
       </c>
       <c r="J15">
-        <v>227.33668904646</v>
+        <v>200.476069137659</v>
       </c>
       <c r="K15">
-        <v>124.824085196695</v>
+        <v>111.326648381254</v>
       </c>
       <c r="L15">
-        <v>80.30130472557789</v>
+        <v>71.66427387001799</v>
       </c>
       <c r="M15">
-        <v>181.608102230727</v>
+        <v>162.379906831843</v>
       </c>
       <c r="N15">
-        <v>114.218753019483</v>
+        <v>100.720191404153</v>
       </c>
       <c r="O15">
-        <v>2691.01103279885</v>
+        <v>2383.96939774711</v>
       </c>
       <c r="P15">
-        <v>51.3584092268481</v>
+        <v>47.6428069096457</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>169.967067819565</v>
+        <v>334.014791003096</v>
       </c>
       <c r="C16">
-        <v>71.4678710509581</v>
+        <v>65.3586681723006</v>
       </c>
       <c r="D16">
-        <v>17.7512310938474</v>
+        <v>16.0645463924195</v>
       </c>
       <c r="E16">
-        <v>17.8540908052749</v>
+        <v>16.1575315359967</v>
       </c>
       <c r="F16">
-        <v>5.27377579626386</v>
+        <v>4.77262665244336</v>
       </c>
       <c r="G16">
-        <v>17.4603716109142</v>
+        <v>15.8039386015776</v>
       </c>
       <c r="H16">
-        <v>16.630160027489</v>
+        <v>15.053460585439</v>
       </c>
       <c r="I16">
-        <v>12.1876207302271</v>
+        <v>11.0320240129759</v>
       </c>
       <c r="J16">
-        <v>49.7304425923856</v>
+        <v>45.0169460897291</v>
       </c>
       <c r="K16">
-        <v>60.7302965398834</v>
+        <v>55.6367233620095</v>
       </c>
       <c r="L16">
-        <v>35.7518590162278</v>
+        <v>32.6855241761649</v>
       </c>
       <c r="M16">
-        <v>16.3378346086902</v>
+        <v>14.7788097336027</v>
       </c>
       <c r="N16">
-        <v>32.6576910041027</v>
+        <v>29.558460996696</v>
       </c>
       <c r="O16">
-        <v>1436.84025638715</v>
+        <v>1312.10370414818</v>
       </c>
       <c r="P16">
-        <v>102.613716727444</v>
+        <v>95.2165300168148</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>201.578260669119</v>
+        <v>354.118436693893</v>
       </c>
       <c r="C17">
-        <v>30.4257967860101</v>
+        <v>27.4930425509592</v>
       </c>
       <c r="D17">
-        <v>8.88915379381797</v>
+        <v>8.027592137719891</v>
       </c>
       <c r="E17">
-        <v>10.7632546282208</v>
+        <v>9.715500851299209</v>
       </c>
       <c r="F17">
-        <v>14.4102294588512</v>
+        <v>13.0143011403895</v>
       </c>
       <c r="G17">
-        <v>13.8046067803039</v>
+        <v>12.4711187378769</v>
       </c>
       <c r="H17">
-        <v>9.58874774158811</v>
+        <v>8.657249488025229</v>
       </c>
       <c r="I17">
-        <v>8.79300215525185</v>
+        <v>7.94405551882832</v>
       </c>
       <c r="J17">
-        <v>22.3404640501746</v>
+        <v>20.4849316858812</v>
       </c>
       <c r="K17">
-        <v>27.8014733865941</v>
+        <v>25.1178273075355</v>
       </c>
       <c r="L17">
-        <v>15.6842786906978</v>
+        <v>14.156652696269</v>
       </c>
       <c r="M17">
-        <v>87.1416751066531</v>
+        <v>79.08275177754589</v>
       </c>
       <c r="N17">
-        <v>18.1110430821918</v>
+        <v>16.3583470321655</v>
       </c>
       <c r="O17">
-        <v>1349.4036165051</v>
+        <v>1226.63042760495</v>
       </c>
       <c r="P17">
-        <v>63.3031201795329</v>
+        <v>58.7664870858442</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>435.646838059019</v>
+        <v>839.14776350022</v>
       </c>
       <c r="C18">
-        <v>39.3298357835196</v>
+        <v>32.5520903361579</v>
       </c>
       <c r="D18">
-        <v>22.3553191624801</v>
+        <v>18.5103252527292</v>
       </c>
       <c r="E18">
-        <v>35.6180301422424</v>
+        <v>30.351636034262</v>
       </c>
       <c r="F18">
-        <v>47.525305752052</v>
+        <v>40.6263072121668</v>
       </c>
       <c r="G18">
-        <v>39.8632885354194</v>
+        <v>32.9905227833032</v>
       </c>
       <c r="H18">
-        <v>25.4359355764698</v>
+        <v>21.0551609636316</v>
       </c>
       <c r="I18">
-        <v>11.5202302228586</v>
+        <v>9.541441526527009</v>
       </c>
       <c r="J18">
-        <v>38.9250600127937</v>
+        <v>32.246398546898</v>
       </c>
       <c r="K18">
-        <v>46.1214699680331</v>
+        <v>38.1872555986806</v>
       </c>
       <c r="L18">
-        <v>54.5536151352576</v>
+        <v>46.4703593380309</v>
       </c>
       <c r="M18">
-        <v>70.9274658979156</v>
+        <v>58.7227117583695</v>
       </c>
       <c r="N18">
-        <v>26.4607954274973</v>
+        <v>22.3615843147832</v>
       </c>
       <c r="O18">
-        <v>1945.89441494702</v>
+        <v>1623.34265454442</v>
       </c>
       <c r="P18">
-        <v>54.8353297612951</v>
+        <v>48.9067233638985</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>539.4223487442609</v>
+        <v>914.082123620849</v>
       </c>
       <c r="C19">
-        <v>34.1012732028344</v>
+        <v>29.2245753872958</v>
       </c>
       <c r="D19">
-        <v>20.3005885278443</v>
+        <v>17.1051421055931</v>
       </c>
       <c r="E19">
-        <v>28.5280095994035</v>
+        <v>24.023479670697</v>
       </c>
       <c r="F19">
-        <v>112.307589703786</v>
+        <v>96.0301099301853</v>
       </c>
       <c r="G19">
-        <v>51.0786732575551</v>
+        <v>43.0037095628364</v>
       </c>
       <c r="H19">
-        <v>7.45181776898328</v>
+        <v>6.28146006319015</v>
       </c>
       <c r="I19">
-        <v>9.76712368284066</v>
+        <v>8.228509623541029</v>
       </c>
       <c r="J19">
-        <v>15.5857250408936</v>
+        <v>13.6429414149605</v>
       </c>
       <c r="K19">
-        <v>16.7931005023012</v>
+        <v>14.1589314015608</v>
       </c>
       <c r="L19">
-        <v>9.997713719547111</v>
+        <v>8.955013198010111</v>
       </c>
       <c r="M19">
-        <v>31.6255245498183</v>
+        <v>27.1378029127332</v>
       </c>
       <c r="N19">
-        <v>12.0263277531223</v>
+        <v>10.1461408753343</v>
       </c>
       <c r="O19">
-        <v>2145.99753356136</v>
+        <v>1827.93361602091</v>
       </c>
       <c r="P19">
-        <v>44.3488322747907</v>
+        <v>39.3786296577106</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>97.8357889749484</v>
+        <v>201.378971010919</v>
       </c>
       <c r="C20">
-        <v>10.626967743248</v>
+        <v>9.365039611076149</v>
       </c>
       <c r="D20">
-        <v>21.0891784986153</v>
+        <v>18.4177024306412</v>
       </c>
       <c r="E20">
-        <v>37.2719957726578</v>
+        <v>32.4280578632098</v>
       </c>
       <c r="F20">
-        <v>0.7947958831681921</v>
+        <v>0.689078879378622</v>
       </c>
       <c r="G20">
-        <v>1.66464688838034</v>
+        <v>1.44366432813385</v>
       </c>
       <c r="H20">
-        <v>4.79530955230874</v>
+        <v>4.31386041274117</v>
       </c>
       <c r="I20">
-        <v>1.01452264581123</v>
+        <v>0.879587283620681</v>
       </c>
       <c r="J20">
-        <v>4.02058923255072</v>
+        <v>3.48698269628341</v>
       </c>
       <c r="K20">
-        <v>5.89677058797119</v>
+        <v>5.27104975375041</v>
       </c>
       <c r="L20">
-        <v>11.0926367592814</v>
+        <v>9.61149560809611</v>
       </c>
       <c r="M20">
-        <v>25.6504321085559</v>
+        <v>22.2088643137272</v>
       </c>
       <c r="N20">
-        <v>5.92089638114851</v>
+        <v>5.29291015138251</v>
       </c>
       <c r="O20">
-        <v>667.67231666675</v>
+        <v>582.918692080631</v>
       </c>
       <c r="P20">
-        <v>24.7992771138158</v>
+        <v>22.4401685282581</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>480.907060604583</v>
+        <v>839.039684615126</v>
       </c>
       <c r="C21">
-        <v>35.6617413444163</v>
+        <v>32.0951581235593</v>
       </c>
       <c r="D21">
-        <v>12.2457446887887</v>
+        <v>10.7517649835086</v>
       </c>
       <c r="E21">
-        <v>21.2233525152203</v>
+        <v>19.3885786529658</v>
       </c>
       <c r="F21">
-        <v>3.84602112847336</v>
+        <v>3.37496289729722</v>
       </c>
       <c r="G21">
-        <v>25.5213286321971</v>
+        <v>22.4313915003937</v>
       </c>
       <c r="H21">
-        <v>12.3611467585171</v>
+        <v>10.8611507230871</v>
       </c>
       <c r="I21">
-        <v>10.5390633980862</v>
+        <v>9.26195844816591</v>
       </c>
       <c r="J21">
-        <v>24.0563775828897</v>
+        <v>21.1408438026066</v>
       </c>
       <c r="K21">
-        <v>21.3844708354736</v>
+        <v>18.7921080515391</v>
       </c>
       <c r="L21">
-        <v>34.4648870534185</v>
+        <v>30.291323394083</v>
       </c>
       <c r="M21">
-        <v>43.6802496304524</v>
+        <v>38.3927753795673</v>
       </c>
       <c r="N21">
-        <v>21.5213707646989</v>
+        <v>18.9154100606515</v>
       </c>
       <c r="O21">
-        <v>2946.19996745527</v>
+        <v>2622.35987584634</v>
       </c>
       <c r="P21">
-        <v>28.9465597148108</v>
+        <v>25.4623555759288</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>492.594081325675</v>
+        <v>948.118627037897</v>
       </c>
       <c r="C22">
-        <v>24.924086929453</v>
+        <v>21.939177866103</v>
       </c>
       <c r="D22">
-        <v>41.8819446235472</v>
+        <v>37.2519051181855</v>
       </c>
       <c r="E22">
-        <v>33.8727549510657</v>
+        <v>30.207788158726</v>
       </c>
       <c r="F22">
-        <v>3.88743262099113</v>
+        <v>3.42214774517</v>
       </c>
       <c r="G22">
-        <v>40.6497699444217</v>
+        <v>35.7757424184891</v>
       </c>
       <c r="H22">
-        <v>38.5324168941712</v>
+        <v>33.9109595802639</v>
       </c>
       <c r="I22">
-        <v>10.7847510037518</v>
+        <v>9.889006029960409</v>
       </c>
       <c r="J22">
-        <v>65.4229697055268</v>
+        <v>58.3793766255936</v>
       </c>
       <c r="K22">
-        <v>60.9712370206511</v>
+        <v>53.6604932339116</v>
       </c>
       <c r="L22">
-        <v>150.664935623388</v>
+        <v>133.393081444068</v>
       </c>
       <c r="M22">
-        <v>27.0270896928369</v>
+        <v>23.7895461993814</v>
       </c>
       <c r="N22">
-        <v>114.168100655328</v>
+        <v>100.476721970467</v>
       </c>
       <c r="O22">
-        <v>3430.1040199199</v>
+        <v>3048.2067669042</v>
       </c>
       <c r="P22">
-        <v>24.6153338856538</v>
+        <v>21.6795842878557</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>905.128123656388</v>
+        <v>1622.72451377556</v>
       </c>
       <c r="C23">
-        <v>60.2445797255618</v>
+        <v>52.569487289442</v>
       </c>
       <c r="D23">
-        <v>19.7064441167877</v>
+        <v>17.1916509474503</v>
       </c>
       <c r="E23">
-        <v>44.8163846471369</v>
+        <v>39.1011918870334</v>
       </c>
       <c r="F23">
-        <v>4.24603548190353</v>
+        <v>4.12544239150013</v>
       </c>
       <c r="G23">
-        <v>78.1437816215099</v>
+        <v>68.1829529701774</v>
       </c>
       <c r="H23">
-        <v>81.5978633243644</v>
+        <v>71.1903106234081</v>
       </c>
       <c r="I23">
-        <v>26.7113001991899</v>
+        <v>23.3059147059899</v>
       </c>
       <c r="J23">
-        <v>188.730223876498</v>
+        <v>167.153667737721</v>
       </c>
       <c r="K23">
-        <v>179.57465553681</v>
+        <v>157.509112593937</v>
       </c>
       <c r="L23">
-        <v>62.9360314812464</v>
+        <v>55.7499113106022</v>
       </c>
       <c r="M23">
-        <v>701.936293827358</v>
+        <v>616.954736008991</v>
       </c>
       <c r="N23">
-        <v>122.013324248371</v>
+        <v>106.870679718288</v>
       </c>
       <c r="O23">
-        <v>4486.91689685019</v>
+        <v>3964.49721238944</v>
       </c>
       <c r="P23">
-        <v>47.9899071967306</v>
+        <v>43.5650617302365</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>319.794876179674</v>
+        <v>566.460542245841</v>
       </c>
       <c r="C24">
-        <v>49.9454846420063</v>
+        <v>45.7309228151562</v>
       </c>
       <c r="D24">
-        <v>14.9779855422997</v>
+        <v>13.7094547959318</v>
       </c>
       <c r="E24">
-        <v>46.6692168361617</v>
+        <v>42.7285289236648</v>
       </c>
       <c r="F24">
-        <v>17.5338813434414</v>
+        <v>16.0536317488587</v>
       </c>
       <c r="G24">
-        <v>30.289887711489</v>
+        <v>27.7314396215158</v>
       </c>
       <c r="H24">
-        <v>25.4512417303042</v>
+        <v>23.7819399801807</v>
       </c>
       <c r="I24">
-        <v>16.992011823301</v>
+        <v>15.5573406721035</v>
       </c>
       <c r="J24">
-        <v>43.8327137943043</v>
+        <v>40.1267388495266</v>
       </c>
       <c r="K24">
-        <v>107.742976675127</v>
+        <v>98.6633781603317</v>
       </c>
       <c r="L24">
-        <v>74.8692072104558</v>
+        <v>68.5445160233035</v>
       </c>
       <c r="M24">
-        <v>21.987764955433</v>
+        <v>20.108825168259</v>
       </c>
       <c r="N24">
-        <v>97.1402913298796</v>
+        <v>88.94693247575481</v>
       </c>
       <c r="O24">
-        <v>2489.6375148546</v>
+        <v>2296.19188245015</v>
       </c>
       <c r="P24">
-        <v>100.201673579626</v>
+        <v>92.7306544809347</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>282.986320368274</v>
+        <v>539.385026097631</v>
       </c>
       <c r="C25">
-        <v>55.0752827150305</v>
+        <v>46.518841542389</v>
       </c>
       <c r="D25">
-        <v>22.54459547836</v>
+        <v>19.4577660142224</v>
       </c>
       <c r="E25">
-        <v>47.5622925555812</v>
+        <v>39.9189883291451</v>
       </c>
       <c r="F25">
-        <v>32.958103775388</v>
+        <v>27.4283450604598</v>
       </c>
       <c r="G25">
-        <v>12.0566724024917</v>
+        <v>10.3878071526179</v>
       </c>
       <c r="H25">
-        <v>19.8409559784456</v>
+        <v>16.5092530489047</v>
       </c>
       <c r="I25">
-        <v>6.01539930308926</v>
+        <v>5.35568890154511</v>
       </c>
       <c r="J25">
-        <v>23.4433215582591</v>
+        <v>19.8640422235227</v>
       </c>
       <c r="K25">
-        <v>27.158187353942</v>
+        <v>22.6051898374343</v>
       </c>
       <c r="L25">
-        <v>34.6903744141583</v>
+        <v>29.5678561473986</v>
       </c>
       <c r="M25">
-        <v>41.4543915068314</v>
+        <v>34.5020664362315</v>
       </c>
       <c r="N25">
-        <v>36.7034944885874</v>
+        <v>30.5434465793455</v>
       </c>
       <c r="O25">
-        <v>1248.1722226997</v>
+        <v>1055.01721036501</v>
       </c>
       <c r="P25">
-        <v>52.6923046191807</v>
+        <v>46.2923913502756</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>430.379413397833</v>
+        <v>808.305760752846</v>
       </c>
       <c r="C26">
-        <v>73.2255539246631</v>
+        <v>65.6489635658512</v>
       </c>
       <c r="D26">
-        <v>18.7984783576418</v>
+        <v>16.6689414873</v>
       </c>
       <c r="E26">
-        <v>43.4619626894183</v>
+        <v>38.5434779604663</v>
       </c>
       <c r="F26">
-        <v>8.32607087807941</v>
+        <v>7.38526672977478</v>
       </c>
       <c r="G26">
-        <v>52.9466671304979</v>
+        <v>46.9619887546387</v>
       </c>
       <c r="H26">
-        <v>23.4566381543458</v>
+        <v>20.8029442195974</v>
       </c>
       <c r="I26">
-        <v>18.5864811084889</v>
+        <v>16.4844045802342</v>
       </c>
       <c r="J26">
-        <v>67.71842419826611</v>
+        <v>60.0636141435348</v>
       </c>
       <c r="K26">
-        <v>66.1747741508479</v>
+        <v>59.4012337450077</v>
       </c>
       <c r="L26">
-        <v>39.3516754547724</v>
+        <v>34.9002288991616</v>
       </c>
       <c r="M26">
-        <v>83.16675573902541</v>
+        <v>75.8773583158338</v>
       </c>
       <c r="N26">
-        <v>46.2036257893663</v>
+        <v>40.977920812906</v>
       </c>
       <c r="O26">
-        <v>2914.93363481855</v>
+        <v>2600.31751223387</v>
       </c>
       <c r="P26">
-        <v>56.1626872595482</v>
+        <v>50.5532270552522</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>78.0077773430523</v>
+        <v>140.573751363302</v>
       </c>
       <c r="C27">
-        <v>4.49837680444406</v>
+        <v>3.96124892551835</v>
       </c>
       <c r="D27">
-        <v>1.23970433257735</v>
+        <v>1.09112742918001</v>
       </c>
       <c r="E27">
-        <v>13.6811211215299</v>
+        <v>12.0415246270566</v>
       </c>
       <c r="F27">
-        <v>7.6188550376746</v>
+        <v>6.70618606602504</v>
       </c>
       <c r="G27">
-        <v>0.797715708176084</v>
+        <v>0.702513597448498</v>
       </c>
       <c r="H27">
-        <v>0.416171820842229</v>
+        <v>0.366534921712657</v>
       </c>
       <c r="I27">
-        <v>2.60128319708854</v>
+        <v>2.28920924558393</v>
       </c>
       <c r="J27">
-        <v>5.50977665643178</v>
+        <v>4.94638886359155</v>
       </c>
       <c r="K27">
-        <v>2.28214608109716</v>
+        <v>2.01042806832806</v>
       </c>
       <c r="L27">
-        <v>2.81508029739535</v>
+        <v>2.48192501502413</v>
       </c>
       <c r="M27">
-        <v>1.71938942020242</v>
+        <v>1.51664672801614</v>
       </c>
       <c r="N27">
-        <v>7.04018464371605</v>
+        <v>6.19796791347159</v>
       </c>
       <c r="O27">
-        <v>467.048871924523</v>
+        <v>415.685674299533</v>
       </c>
       <c r="P27">
-        <v>47.443440921418</v>
+        <v>42.1487680913994</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>101.875042676824</v>
+        <v>189.496183339868</v>
       </c>
       <c r="C28">
-        <v>30.2407678543083</v>
+        <v>28.0044262889178</v>
       </c>
       <c r="D28">
-        <v>3.27896792061558</v>
+        <v>2.99106869478376</v>
       </c>
       <c r="E28">
-        <v>6.19739152829163</v>
+        <v>5.65711782095564</v>
       </c>
       <c r="F28">
-        <v>2.86557811450783</v>
+        <v>2.61335902780851</v>
       </c>
       <c r="G28">
-        <v>8.224379344218249</v>
+        <v>7.5107813907564</v>
       </c>
       <c r="H28">
-        <v>9.394126654468961</v>
+        <v>8.581816203238869</v>
       </c>
       <c r="I28">
-        <v>4.6550168306468</v>
+        <v>4.43833831919274</v>
       </c>
       <c r="J28">
-        <v>17.064081921672</v>
+        <v>15.5840992373442</v>
       </c>
       <c r="K28">
-        <v>18.2890687209292</v>
+        <v>16.7069225200633</v>
       </c>
       <c r="L28">
-        <v>14.89969937538</v>
+        <v>13.7912766564364</v>
       </c>
       <c r="M28">
-        <v>7.65193797006868</v>
+        <v>6.98234176006313</v>
       </c>
       <c r="N28">
-        <v>13.3308052229051</v>
+        <v>12.172800429456</v>
       </c>
       <c r="O28">
-        <v>865.694263589965</v>
+        <v>795.746234688734</v>
       </c>
       <c r="P28">
-        <v>92.01219233149649</v>
+        <v>85.39655381116459</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>191.147606849061</v>
+        <v>322.452310021209</v>
       </c>
       <c r="C29">
-        <v>6.18094376164016</v>
+        <v>5.45250198631043</v>
       </c>
       <c r="D29">
-        <v>4.13356944484771</v>
+        <v>3.64742965904264</v>
       </c>
       <c r="E29">
-        <v>2.64669537096863</v>
+        <v>2.33507973463641</v>
       </c>
       <c r="F29">
-        <v>17.8929082133307</v>
+        <v>15.9938694462648</v>
       </c>
       <c r="G29">
-        <v>3.03472918280656</v>
+        <v>2.6773584003731</v>
       </c>
       <c r="H29">
-        <v>2.89557985299833</v>
+        <v>2.55391189689644</v>
       </c>
       <c r="I29">
-        <v>6.29220390425349</v>
+        <v>5.54833434169032</v>
       </c>
       <c r="J29">
-        <v>5.96316613989324</v>
+        <v>5.26161220750469</v>
       </c>
       <c r="K29">
-        <v>4.40574438690928</v>
+        <v>3.88885634670775</v>
       </c>
       <c r="L29">
-        <v>5.51922629954214</v>
+        <v>4.87254420530103</v>
       </c>
       <c r="M29">
-        <v>2.66690702825569</v>
+        <v>2.35725257758319</v>
       </c>
       <c r="N29">
-        <v>11.9760859456032</v>
+        <v>10.7795449654614</v>
       </c>
       <c r="O29">
-        <v>1120.43268292901</v>
+        <v>997.859455673869</v>
       </c>
       <c r="P29">
-        <v>4.30561737742219</v>
+        <v>3.81360584686136</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>88.5390526786106</v>
+        <v>163.635815401152</v>
       </c>
       <c r="C30">
-        <v>5.45136077007131</v>
+        <v>5.05843142382786</v>
       </c>
       <c r="D30">
-        <v>8.743373024842629</v>
+        <v>7.85311698486403</v>
       </c>
       <c r="E30">
-        <v>9.80565813515347</v>
+        <v>8.808196704673479</v>
       </c>
       <c r="F30">
-        <v>0.610996748530634</v>
+        <v>0.547602580794708</v>
       </c>
       <c r="G30">
-        <v>4.3519745347601</v>
+        <v>4.06966767228786</v>
       </c>
       <c r="H30">
-        <v>7.35747001816129</v>
+        <v>6.61025852295855</v>
       </c>
       <c r="I30">
-        <v>2.97817968427913</v>
+        <v>2.67554260452983</v>
       </c>
       <c r="J30">
-        <v>18.5042074846419</v>
+        <v>16.9502330637648</v>
       </c>
       <c r="K30">
-        <v>22.9847898801443</v>
+        <v>20.6531490947031</v>
       </c>
       <c r="L30">
-        <v>46.0192385356361</v>
+        <v>41.5119707616311</v>
       </c>
       <c r="M30">
-        <v>12.2812528411706</v>
+        <v>11.0298411502183</v>
       </c>
       <c r="N30">
-        <v>17.559747117094</v>
+        <v>16.0981560180182</v>
       </c>
       <c r="O30">
-        <v>627.385350849105</v>
+        <v>567.924599331462</v>
       </c>
       <c r="P30">
-        <v>8.422000962201899</v>
+        <v>7.56807202568803</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>864.94524029515</v>
+        <v>1416.52253834526</v>
       </c>
       <c r="C31">
-        <v>56.7824594812724</v>
+        <v>50.6903825221046</v>
       </c>
       <c r="D31">
-        <v>65.82834665443789</v>
+        <v>59.1109237094523</v>
       </c>
       <c r="E31">
-        <v>28.4696384013829</v>
+        <v>25.6200413960435</v>
       </c>
       <c r="F31">
-        <v>10.7839301533217</v>
+        <v>9.547250059534409</v>
       </c>
       <c r="G31">
-        <v>173.390074523962</v>
+        <v>155.192484499096</v>
       </c>
       <c r="H31">
-        <v>32.9006155892251</v>
+        <v>29.5443233434808</v>
       </c>
       <c r="I31">
-        <v>34.2197861177012</v>
+        <v>31.1350409176447</v>
       </c>
       <c r="J31">
-        <v>50.8008324376285</v>
+        <v>44.9713719617553</v>
       </c>
       <c r="K31">
-        <v>53.6526404593018</v>
+        <v>47.4927040865106</v>
       </c>
       <c r="L31">
-        <v>73.2497157029884</v>
+        <v>65.25649948325059</v>
       </c>
       <c r="M31">
-        <v>33.4973498695757</v>
+        <v>30.0658377555024</v>
       </c>
       <c r="N31">
-        <v>81.9489099802355</v>
+        <v>72.5412472771939</v>
       </c>
       <c r="O31">
-        <v>4467.8552867431</v>
+        <v>3991.80434796961</v>
       </c>
       <c r="P31">
-        <v>10.2490159970328</v>
+        <v>9.07885158490814</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>205.859594684385</v>
+        <v>347.501403045607</v>
       </c>
       <c r="C32">
-        <v>5.4713063028722</v>
+        <v>4.6860197772975</v>
       </c>
       <c r="D32">
-        <v>3.39457784777976</v>
+        <v>3.30558955324121</v>
       </c>
       <c r="E32">
-        <v>3.6538256043023</v>
+        <v>3.12704404051275</v>
       </c>
       <c r="F32">
-        <v>38.2333432451389</v>
+        <v>32.8076865520459</v>
       </c>
       <c r="G32">
-        <v>2.48223777111956</v>
+        <v>2.13027889786302</v>
       </c>
       <c r="H32">
-        <v>3.02480655692366</v>
+        <v>2.58681103341938</v>
       </c>
       <c r="I32">
-        <v>3.48192206279384</v>
+        <v>2.97474291288707</v>
       </c>
       <c r="J32">
-        <v>3.81703139851371</v>
+        <v>3.27304325223402</v>
       </c>
       <c r="K32">
-        <v>6.84314417450601</v>
+        <v>5.8535414452795</v>
       </c>
       <c r="L32">
-        <v>18.1206773037223</v>
+        <v>15.4804687208459</v>
       </c>
       <c r="M32">
-        <v>4.87024372827404</v>
+        <v>4.17314556931131</v>
       </c>
       <c r="N32">
-        <v>15.1586860111801</v>
+        <v>12.9425327634238</v>
       </c>
       <c r="O32">
-        <v>919.520417781468</v>
+        <v>795.356952009175</v>
       </c>
       <c r="P32">
-        <v>29.2403090044655</v>
+        <v>26.972864503352</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>2262.33517541645</v>
+        <v>3716.97622638988</v>
       </c>
       <c r="C33">
-        <v>99.64987600214801</v>
+        <v>86.88151336220589</v>
       </c>
       <c r="D33">
-        <v>183.394226831733</v>
+        <v>159.991669558534</v>
       </c>
       <c r="E33">
-        <v>47.8791375988364</v>
+        <v>41.2998941733168</v>
       </c>
       <c r="F33">
-        <v>13.876083491248</v>
+        <v>11.97613631183</v>
       </c>
       <c r="G33">
-        <v>88.4391264637128</v>
+        <v>77.6973147575719</v>
       </c>
       <c r="H33">
-        <v>49.3994612159389</v>
+        <v>44.0090200003215</v>
       </c>
       <c r="I33">
-        <v>43.5837723129861</v>
+        <v>39.463450934628</v>
       </c>
       <c r="J33">
-        <v>125.724449740857</v>
+        <v>110.301896976244</v>
       </c>
       <c r="K33">
-        <v>140.828339437228</v>
+        <v>121.903605414272</v>
       </c>
       <c r="L33">
-        <v>180.575679756131</v>
+        <v>157.124847957109</v>
       </c>
       <c r="M33">
-        <v>102.31493916492</v>
+        <v>88.2586994545437</v>
       </c>
       <c r="N33">
-        <v>242.96520812713</v>
+        <v>210.886080438328</v>
       </c>
       <c r="O33">
-        <v>9944.04738221325</v>
+        <v>8667.750330113369</v>
       </c>
       <c r="P33">
-        <v>72.8071798845742</v>
+        <v>63.299351489758</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>673.315060611047</v>
+        <v>1343.80866573539</v>
       </c>
       <c r="C34">
-        <v>107.096203527564</v>
+        <v>91.82544317695459</v>
       </c>
       <c r="D34">
-        <v>274.221867553923</v>
+        <v>237.740439687151</v>
       </c>
       <c r="E34">
-        <v>68.698774409401</v>
+        <v>59.79093113887</v>
       </c>
       <c r="F34">
-        <v>6.94596676937622</v>
+        <v>5.9655036303807</v>
       </c>
       <c r="G34">
-        <v>84.8775261280839</v>
+        <v>74.11870544281931</v>
       </c>
       <c r="H34">
-        <v>60.2549508081519</v>
+        <v>52.096614648101</v>
       </c>
       <c r="I34">
-        <v>27.3855942107298</v>
+        <v>23.4811674254887</v>
       </c>
       <c r="J34">
-        <v>72.772283293437</v>
+        <v>62.3957389557105</v>
       </c>
       <c r="K34">
-        <v>100.515426921609</v>
+        <v>86.61973725618439</v>
       </c>
       <c r="L34">
-        <v>157.618427667054</v>
+        <v>136.026001603287</v>
       </c>
       <c r="M34">
-        <v>61.3525503035589</v>
+        <v>53.0620336217656</v>
       </c>
       <c r="N34">
-        <v>154.515466144703</v>
+        <v>133.813034634273</v>
       </c>
       <c r="O34">
-        <v>3714.89094211629</v>
+        <v>3213.95513562043</v>
       </c>
       <c r="P34">
-        <v>84.6231709951894</v>
+        <v>74.385061498204</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>39.1300326560588</v>
+        <v>75.0810578537896</v>
       </c>
       <c r="C35">
-        <v>5.63514842331697</v>
+        <v>5.09957349116968</v>
       </c>
       <c r="D35">
-        <v>0.871888145707472</v>
+        <v>0.788863249652717</v>
       </c>
       <c r="E35">
-        <v>3.54380547569342</v>
+        <v>3.28039688947869</v>
       </c>
       <c r="F35">
-        <v>5.81799578319735</v>
+        <v>5.33818202567532</v>
       </c>
       <c r="G35">
-        <v>0.338641573848681</v>
+        <v>0.305701362153362</v>
       </c>
       <c r="H35">
-        <v>0.714924304735109</v>
+        <v>0.64695390100721</v>
       </c>
       <c r="I35">
-        <v>1.6019780493122</v>
+        <v>1.44969050608027</v>
       </c>
       <c r="J35">
-        <v>2.10425734486149</v>
+        <v>1.90335043219543</v>
       </c>
       <c r="K35">
-        <v>7.79336398901595</v>
+        <v>7.05289093700113</v>
       </c>
       <c r="L35">
-        <v>3.57096062059269</v>
+        <v>3.23001177435794</v>
       </c>
       <c r="M35">
-        <v>2.24412395861162</v>
+        <v>2.10355178148345</v>
       </c>
       <c r="N35">
-        <v>2.55252508757015</v>
+        <v>2.30907274417022</v>
       </c>
       <c r="O35">
-        <v>332.015122549449</v>
+        <v>302.374437438253</v>
       </c>
       <c r="P35">
-        <v>44.3998242219168</v>
+        <v>41.3709092599202</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>1043.55232426328</v>
+        <v>1910.98322654044</v>
       </c>
       <c r="C36">
-        <v>73.83266919458271</v>
+        <v>64.05780678127481</v>
       </c>
       <c r="D36">
-        <v>20.8809327709613</v>
+        <v>18.1132211910107</v>
       </c>
       <c r="E36">
-        <v>66.00993108802071</v>
+        <v>57.2640079103326</v>
       </c>
       <c r="F36">
-        <v>45.6005239576015</v>
+        <v>40.4382452830454</v>
       </c>
       <c r="G36">
-        <v>130.192272528687</v>
+        <v>113.824697655218</v>
       </c>
       <c r="H36">
-        <v>134.719683773098</v>
+        <v>117.746885345474</v>
       </c>
       <c r="I36">
-        <v>55.6547244168473</v>
+        <v>49.1618716008763</v>
       </c>
       <c r="J36">
-        <v>266.267352257864</v>
+        <v>232.312535309779</v>
       </c>
       <c r="K36">
-        <v>220.819318981034</v>
+        <v>193.769702502</v>
       </c>
       <c r="L36">
-        <v>127.632292334456</v>
+        <v>111.177012857852</v>
       </c>
       <c r="M36">
-        <v>263.252241618276</v>
+        <v>231.466978710285</v>
       </c>
       <c r="N36">
-        <v>111.401223953514</v>
+        <v>97.0904896063285</v>
       </c>
       <c r="O36">
-        <v>5467.24012257937</v>
+        <v>4794.09412988476</v>
       </c>
       <c r="P36">
-        <v>57.1920530141142</v>
+        <v>52.7472214783964</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>338.259894594115</v>
+        <v>640.228005670884</v>
       </c>
       <c r="C37">
-        <v>27.7881745614097</v>
+        <v>23.3584446443436</v>
       </c>
       <c r="D37">
-        <v>14.5365151103413</v>
+        <v>12.5641457425433</v>
       </c>
       <c r="E37">
-        <v>22.0339664540475</v>
+        <v>18.5126765056977</v>
       </c>
       <c r="F37">
-        <v>52.4040337053188</v>
+        <v>44.3656884544782</v>
       </c>
       <c r="G37">
-        <v>10.0685306852724</v>
+        <v>8.477329867506009</v>
       </c>
       <c r="H37">
-        <v>29.5419473250205</v>
+        <v>24.8107937146845</v>
       </c>
       <c r="I37">
-        <v>20.8439253597144</v>
+        <v>18.1969818439729</v>
       </c>
       <c r="J37">
-        <v>42.860681801478</v>
+        <v>36.7011332470826</v>
       </c>
       <c r="K37">
-        <v>51.0079603333051</v>
+        <v>43.1981384023074</v>
       </c>
       <c r="L37">
-        <v>32.7909279945705</v>
+        <v>27.5718015125589</v>
       </c>
       <c r="M37">
-        <v>35.2340213177564</v>
+        <v>29.974160446074</v>
       </c>
       <c r="N37">
-        <v>20.9386745042299</v>
+        <v>17.9524243374332</v>
       </c>
       <c r="O37">
-        <v>1645.471370688</v>
+        <v>1406.67596430135</v>
       </c>
       <c r="P37">
-        <v>70.4548268769182</v>
+        <v>61.648024394015</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>356.944552424953</v>
+        <v>582.783797180606</v>
       </c>
       <c r="C38">
-        <v>34.4655759185308</v>
+        <v>30.3447069990682</v>
       </c>
       <c r="D38">
-        <v>16.3445235512585</v>
+        <v>14.3914550493542</v>
       </c>
       <c r="E38">
-        <v>58.6273558123822</v>
+        <v>52.4316612234898</v>
       </c>
       <c r="F38">
-        <v>3.74907084342327</v>
+        <v>3.30361880919433</v>
       </c>
       <c r="G38">
-        <v>10.1673841244682</v>
+        <v>8.951903209654461</v>
       </c>
       <c r="H38">
-        <v>8.13587659519682</v>
+        <v>7.16268623565163</v>
       </c>
       <c r="I38">
-        <v>6.32033808642046</v>
+        <v>5.56455550901413</v>
       </c>
       <c r="J38">
-        <v>38.2060228662198</v>
+        <v>34.0467182682238</v>
       </c>
       <c r="K38">
-        <v>22.4106034926355</v>
+        <v>20.1389153236241</v>
       </c>
       <c r="L38">
-        <v>75.39226143735949</v>
+        <v>67.59796890645811</v>
       </c>
       <c r="M38">
-        <v>30.7005873233136</v>
+        <v>27.0392077715371</v>
       </c>
       <c r="N38">
-        <v>31.4400254763595</v>
+        <v>28.0887162765522</v>
       </c>
       <c r="O38">
-        <v>1669.14984809148</v>
+        <v>1489.35715794936</v>
       </c>
       <c r="P38">
-        <v>80.1107850363677</v>
+        <v>70.96183901759839</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>1225.16804362219</v>
+        <v>2118.23576350468</v>
       </c>
       <c r="C39">
-        <v>153.319024982589</v>
+        <v>135.077353617664</v>
       </c>
       <c r="D39">
-        <v>80.9737449645975</v>
+        <v>71.74722775924771</v>
       </c>
       <c r="E39">
-        <v>96.7639011298661</v>
+        <v>85.1303393959777</v>
       </c>
       <c r="F39">
-        <v>32.7406926830881</v>
+        <v>28.6570966557027</v>
       </c>
       <c r="G39">
-        <v>147.177821686882</v>
+        <v>129.702644982354</v>
       </c>
       <c r="H39">
-        <v>58.7460722983748</v>
+        <v>51.4165596158853</v>
       </c>
       <c r="I39">
-        <v>64.0028168592365</v>
+        <v>56.9001380586492</v>
       </c>
       <c r="J39">
-        <v>203.521242181429</v>
+        <v>179.013893855958</v>
       </c>
       <c r="K39">
-        <v>165.23225266622</v>
+        <v>145.49620130467</v>
       </c>
       <c r="L39">
-        <v>161.883429284069</v>
+        <v>142.129786134327</v>
       </c>
       <c r="M39">
-        <v>86.6031834058975</v>
+        <v>76.2467093973016</v>
       </c>
       <c r="N39">
-        <v>132.819353824866</v>
+        <v>117.128905088655</v>
       </c>
       <c r="O39">
-        <v>6117.35403555371</v>
+        <v>5398.56561127953</v>
       </c>
       <c r="P39">
-        <v>73.52898567162551</v>
+        <v>64.38670808802139</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>84.232031280334</v>
+        <v>163.619982726026</v>
       </c>
       <c r="C40">
-        <v>4.02898763603224</v>
+        <v>3.51787258794429</v>
       </c>
       <c r="D40">
-        <v>13.0057528604635</v>
+        <v>11.3529089282471</v>
       </c>
       <c r="E40">
-        <v>2.16808492179988</v>
+        <v>2.04011549652263</v>
       </c>
       <c r="F40">
-        <v>0.718415195904144</v>
+        <v>0.627304411616469</v>
       </c>
       <c r="G40">
-        <v>6.37112089446287</v>
+        <v>5.56242449807679</v>
       </c>
       <c r="H40">
-        <v>11.3898709383029</v>
+        <v>9.942437230639699</v>
       </c>
       <c r="I40">
-        <v>1.7400439329765</v>
+        <v>1.51950938471458</v>
       </c>
       <c r="J40">
-        <v>14.341707090816</v>
+        <v>12.6679622541716</v>
       </c>
       <c r="K40">
-        <v>12.3350766628848</v>
+        <v>10.7690133510061</v>
       </c>
       <c r="L40">
-        <v>15.0303557149119</v>
+        <v>13.1232954689385</v>
       </c>
       <c r="M40">
-        <v>8.951637432608241</v>
+        <v>8.109255210076711</v>
       </c>
       <c r="N40">
-        <v>35.162880461467</v>
+        <v>30.8424185112813</v>
       </c>
       <c r="O40">
-        <v>530.251192160404</v>
+        <v>466.351676779845</v>
       </c>
       <c r="P40">
-        <v>2.53790088401293</v>
+        <v>2.21883344697563</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>338.250031888481</v>
+        <v>727.901030371285</v>
       </c>
       <c r="C41">
-        <v>15.0680351125245</v>
+        <v>13.0769915827248</v>
       </c>
       <c r="D41">
-        <v>134.469955302226</v>
+        <v>112.322484051204</v>
       </c>
       <c r="E41">
-        <v>55.9173615078051</v>
+        <v>46.5061299139704</v>
       </c>
       <c r="F41">
-        <v>4.6240761113406</v>
+        <v>3.85921686763177</v>
       </c>
       <c r="G41">
-        <v>53.3138285312459</v>
+        <v>44.8545441941218</v>
       </c>
       <c r="H41">
-        <v>48.7526456613782</v>
+        <v>40.5354434012361</v>
       </c>
       <c r="I41">
-        <v>15.1770076233872</v>
+        <v>13.1413387973547</v>
       </c>
       <c r="J41">
-        <v>61.5854693464107</v>
+        <v>51.7374033231302</v>
       </c>
       <c r="K41">
-        <v>70.2831635634215</v>
+        <v>58.4495965191083</v>
       </c>
       <c r="L41">
-        <v>37.0866494393686</v>
+        <v>30.8711541781039</v>
       </c>
       <c r="M41">
-        <v>45.1141089296711</v>
+        <v>37.5438611551915</v>
       </c>
       <c r="N41">
-        <v>28.8571738545155</v>
+        <v>25.0551929876</v>
       </c>
       <c r="O41">
-        <v>1846.17911218342</v>
+        <v>1554.03741955001</v>
       </c>
       <c r="P41">
-        <v>31.2190064758728</v>
+        <v>26.0056046178615</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>40.3130374728521</v>
+        <v>82.26280954947001</v>
       </c>
       <c r="C42">
-        <v>9.281676011718901</v>
+        <v>8.474048617299809</v>
       </c>
       <c r="D42">
-        <v>2.35724393251822</v>
+        <v>2.2129886301285</v>
       </c>
       <c r="E42">
-        <v>5.19048804543805</v>
+        <v>4.69117183239828</v>
       </c>
       <c r="F42">
-        <v>2.25939846097811</v>
+        <v>2.04197102768837</v>
       </c>
       <c r="G42">
-        <v>1.63309051256581</v>
+        <v>1.47532837315416</v>
       </c>
       <c r="H42">
-        <v>1.59728878008293</v>
+        <v>1.44379258558142</v>
       </c>
       <c r="I42">
-        <v>1.01003116995612</v>
+        <v>0.912552039046285</v>
       </c>
       <c r="J42">
-        <v>5.06419275769273</v>
+        <v>4.57681100019763</v>
       </c>
       <c r="K42">
-        <v>8.99163281219978</v>
+        <v>8.12844800533075</v>
       </c>
       <c r="L42">
-        <v>10.0125285482025</v>
+        <v>9.04987678076416</v>
       </c>
       <c r="M42">
-        <v>4.34179838648161</v>
+        <v>3.9211031548985</v>
       </c>
       <c r="N42">
-        <v>8.969495746132891</v>
+        <v>8.10634722117539</v>
       </c>
       <c r="O42">
-        <v>381.714991902052</v>
+        <v>348.909052346876</v>
       </c>
       <c r="P42">
-        <v>43.2005959338816</v>
+        <v>39.7312127146565</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>553.500031215416</v>
+        <v>1083.81275148896</v>
       </c>
       <c r="C43">
-        <v>38.1474466147739</v>
+        <v>32.0075195128264</v>
       </c>
       <c r="D43">
-        <v>71.87037077029621</v>
+        <v>62.0803609252899</v>
       </c>
       <c r="E43">
-        <v>50.9665838297546</v>
+        <v>43.3469305302994</v>
       </c>
       <c r="F43">
-        <v>15.1430410167783</v>
+        <v>12.7109147151942</v>
       </c>
       <c r="G43">
-        <v>34.8045263342259</v>
+        <v>29.2004179517161</v>
       </c>
       <c r="H43">
-        <v>32.4316949174173</v>
+        <v>27.1962800994397</v>
       </c>
       <c r="I43">
-        <v>31.4288727498414</v>
+        <v>26.3556389394601</v>
       </c>
       <c r="J43">
-        <v>64.15983915745559</v>
+        <v>55.0247792958626</v>
       </c>
       <c r="K43">
-        <v>82.0853559102613</v>
+        <v>68.83728334272151</v>
       </c>
       <c r="L43">
-        <v>62.871574138165</v>
+        <v>53.3496409508602</v>
       </c>
       <c r="M43">
-        <v>97.8479118820389</v>
+        <v>83.2780249537927</v>
       </c>
       <c r="N43">
-        <v>106.532898847447</v>
+        <v>89.9326485953742</v>
       </c>
       <c r="O43">
-        <v>2743.2390260605</v>
+        <v>2324.91247108155</v>
       </c>
       <c r="P43">
-        <v>69.956485868475</v>
+        <v>62.9401662117344</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>2219.51276478052</v>
+        <v>3391.51584148015</v>
       </c>
       <c r="C44">
-        <v>199.771788763191</v>
+        <v>178.929955535878</v>
       </c>
       <c r="D44">
-        <v>89.2724704407422</v>
+        <v>80.88308063604519</v>
       </c>
       <c r="E44">
-        <v>88.38916830686431</v>
+        <v>79.4757577229108</v>
       </c>
       <c r="F44">
-        <v>278.341650640914</v>
+        <v>252.786976208756</v>
       </c>
       <c r="G44">
-        <v>182.261395559693</v>
+        <v>163.934693093484</v>
       </c>
       <c r="H44">
-        <v>62.6850034195397</v>
+        <v>57.1635161458613</v>
       </c>
       <c r="I44">
-        <v>60.9337043109464</v>
+        <v>55.001150129409</v>
       </c>
       <c r="J44">
-        <v>166.270504191387</v>
+        <v>150.247455030791</v>
       </c>
       <c r="K44">
-        <v>179.26922845253</v>
+        <v>160.634312145015</v>
       </c>
       <c r="L44">
-        <v>298.455418596874</v>
+        <v>267.051659281453</v>
       </c>
       <c r="M44">
-        <v>143.569787443786</v>
+        <v>129.979733275143</v>
       </c>
       <c r="N44">
-        <v>110.647766935427</v>
+        <v>99.9742357358938</v>
       </c>
       <c r="O44">
-        <v>9816.44758559368</v>
+        <v>8850.126286410959</v>
       </c>
       <c r="P44">
-        <v>296.166700247956</v>
+        <v>274.29005815637</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>215.3807657862</v>
+        <v>324.303438701666</v>
       </c>
       <c r="C45">
-        <v>17.4104033908149</v>
+        <v>16.0598156988536</v>
       </c>
       <c r="D45">
-        <v>6.77713516114162</v>
+        <v>6.15302796439068</v>
       </c>
       <c r="E45">
-        <v>7.65971237680022</v>
+        <v>6.95335719300868</v>
       </c>
       <c r="F45">
-        <v>26.2961612165626</v>
+        <v>23.904906860991</v>
       </c>
       <c r="G45">
-        <v>10.2329467338816</v>
+        <v>9.29672793733204</v>
       </c>
       <c r="H45">
-        <v>5.0217380964775</v>
+        <v>4.56067426007231</v>
       </c>
       <c r="I45">
-        <v>6.858066176365</v>
+        <v>6.2313502432156</v>
       </c>
       <c r="J45">
-        <v>24.0289252475108</v>
+        <v>21.8372844468179</v>
       </c>
       <c r="K45">
-        <v>12.7521531756873</v>
+        <v>11.5854958458211</v>
       </c>
       <c r="L45">
-        <v>25.3224812530205</v>
+        <v>23.0055572636123</v>
       </c>
       <c r="M45">
-        <v>28.0154548032963</v>
+        <v>25.9406366689411</v>
       </c>
       <c r="N45">
-        <v>33.1044309665211</v>
+        <v>30.0927764160042</v>
       </c>
       <c r="O45">
-        <v>1052.86942928247</v>
+        <v>962.825877992651</v>
       </c>
       <c r="P45">
-        <v>19.1810663640853</v>
+        <v>18.1599211285649</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>41.5177806379953</v>
+        <v>81.04678755304251</v>
       </c>
       <c r="C46">
-        <v>5.22036818122693</v>
+        <v>4.73175767812593</v>
       </c>
       <c r="D46">
-        <v>2.45746111451603</v>
+        <v>2.18543813358117</v>
       </c>
       <c r="E46">
-        <v>6.88122070670275</v>
+        <v>6.20945817415713</v>
       </c>
       <c r="F46">
-        <v>1.8139395020682</v>
+        <v>1.61401948129061</v>
       </c>
       <c r="G46">
-        <v>1.94093328678454</v>
+        <v>1.726426867849</v>
       </c>
       <c r="H46">
-        <v>2.71173331178981</v>
+        <v>2.41229211371157</v>
       </c>
       <c r="I46">
-        <v>2.80170569300623</v>
+        <v>2.66788288716665</v>
       </c>
       <c r="J46">
-        <v>5.04192334423595</v>
+        <v>4.48553725346334</v>
       </c>
       <c r="K46">
-        <v>5.63896196231884</v>
+        <v>5.01584594291695</v>
       </c>
       <c r="L46">
-        <v>15.2183442155689</v>
+        <v>13.7137020489965</v>
       </c>
       <c r="M46">
-        <v>4.76519833010433</v>
+        <v>4.23831101750805</v>
       </c>
       <c r="N46">
-        <v>9.32990494061818</v>
+        <v>8.298980081483281</v>
       </c>
       <c r="O46">
-        <v>317.149984108607</v>
+        <v>285.0911031188</v>
       </c>
       <c r="P46">
-        <v>9.397222603633571</v>
+        <v>8.449171310527429</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>628.545776518394</v>
+        <v>1167.38081844342</v>
       </c>
       <c r="C47">
-        <v>78.95649829244159</v>
+        <v>71.1741268950651</v>
       </c>
       <c r="D47">
-        <v>48.4788229874024</v>
+        <v>42.7109700747957</v>
       </c>
       <c r="E47">
-        <v>50.0896695357006</v>
+        <v>43.4416589261726</v>
       </c>
       <c r="F47">
-        <v>11.5451406519851</v>
+        <v>10.6854308620966</v>
       </c>
       <c r="G47">
-        <v>41.7698453144015</v>
+        <v>37.5767799601221</v>
       </c>
       <c r="H47">
-        <v>21.8262140671538</v>
+        <v>18.929360103052</v>
       </c>
       <c r="I47">
-        <v>19.9844081509485</v>
+        <v>17.335394755409</v>
       </c>
       <c r="J47">
-        <v>64.60492750169389</v>
+        <v>56.7079552231042</v>
       </c>
       <c r="K47">
-        <v>38.2395873633083</v>
+        <v>33.8433577079509</v>
       </c>
       <c r="L47">
-        <v>65.8300275512495</v>
+        <v>57.1081230698061</v>
       </c>
       <c r="M47">
-        <v>88.73005037646711</v>
+        <v>76.96561755268149</v>
       </c>
       <c r="N47">
-        <v>46.1412507769817</v>
+        <v>40.0310776239392</v>
       </c>
       <c r="O47">
-        <v>3692.70954255294</v>
+        <v>3228.92731451192</v>
       </c>
       <c r="P47">
-        <v>45.8181363219341</v>
+        <v>40.4515191831308</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>597.443681112598</v>
+        <v>984.831727606628</v>
       </c>
       <c r="C48">
-        <v>20.988490940896</v>
+        <v>18.508694117012</v>
       </c>
       <c r="D48">
-        <v>19.806194599355</v>
+        <v>17.4588245406286</v>
       </c>
       <c r="E48">
-        <v>79.783578524234</v>
+        <v>71.657931593458</v>
       </c>
       <c r="F48">
-        <v>19.5333853391229</v>
+        <v>17.222853274386</v>
       </c>
       <c r="G48">
-        <v>18.1303682543484</v>
+        <v>15.9838033906098</v>
       </c>
       <c r="H48">
-        <v>8.77123407598044</v>
+        <v>7.73257175044885</v>
       </c>
       <c r="I48">
-        <v>22.3129849369228</v>
+        <v>19.6666621236342</v>
       </c>
       <c r="J48">
-        <v>35.323799705967</v>
+        <v>31.8078225513808</v>
       </c>
       <c r="K48">
-        <v>30.5556333605732</v>
+        <v>26.9407205093592</v>
       </c>
       <c r="L48">
-        <v>52.9974315034312</v>
+        <v>46.7296191311198</v>
       </c>
       <c r="M48">
-        <v>170.261018679365</v>
+        <v>152.06997470351</v>
       </c>
       <c r="N48">
-        <v>29.4459275058283</v>
+        <v>25.9626414830863</v>
       </c>
       <c r="O48">
-        <v>2935.12194152302</v>
+        <v>2614.28066656186</v>
       </c>
       <c r="P48">
-        <v>110.324324435799</v>
+        <v>99.9452725756852</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>270.950198914901</v>
+        <v>473.818765534795</v>
       </c>
       <c r="C49">
-        <v>6.65164206041345</v>
+        <v>5.33482031868133</v>
       </c>
       <c r="D49">
-        <v>8.68794725294522</v>
+        <v>6.95944318913841</v>
       </c>
       <c r="E49">
-        <v>18.4826598345902</v>
+        <v>14.7772432885319</v>
       </c>
       <c r="F49">
-        <v>48.3868980912953</v>
+        <v>38.8482210031684</v>
       </c>
       <c r="G49">
-        <v>25.8114766758742</v>
+        <v>21.2362661492527</v>
       </c>
       <c r="H49">
-        <v>4.51402606570359</v>
+        <v>3.61867699064871</v>
       </c>
       <c r="I49">
-        <v>13.0285371833878</v>
+        <v>10.6149591384418</v>
       </c>
       <c r="J49">
-        <v>28.5358125075324</v>
+        <v>22.819567512787</v>
       </c>
       <c r="K49">
-        <v>13.3217726213712</v>
+        <v>10.6677399141959</v>
       </c>
       <c r="L49">
-        <v>4.2267094719003</v>
+        <v>3.40640738961334</v>
       </c>
       <c r="M49">
-        <v>8.063129461700839</v>
+        <v>6.47334186830336</v>
       </c>
       <c r="N49">
-        <v>4.91158255592386</v>
+        <v>3.9484916459429</v>
       </c>
       <c r="O49">
-        <v>879.313259363626</v>
+        <v>713.523969821788</v>
       </c>
       <c r="P49">
-        <v>8.92737843918589</v>
+        <v>7.76518115694295</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>339.72357363116</v>
+        <v>684.818091584522</v>
       </c>
       <c r="C50">
-        <v>93.2399018057627</v>
+        <v>83.7709517124174</v>
       </c>
       <c r="D50">
-        <v>14.8658552207124</v>
+        <v>13.2553810434901</v>
       </c>
       <c r="E50">
-        <v>117.9016429343</v>
+        <v>105.225387088906</v>
       </c>
       <c r="F50">
-        <v>4.61464002591025</v>
+        <v>4.118260698562</v>
       </c>
       <c r="G50">
-        <v>38.3789793007334</v>
+        <v>34.8047005260523</v>
       </c>
       <c r="H50">
-        <v>36.3598959632509</v>
+        <v>32.4491628471332</v>
       </c>
       <c r="I50">
-        <v>21.3689740151756</v>
+        <v>19.6242607014402</v>
       </c>
       <c r="J50">
-        <v>112.574628734401</v>
+        <v>102.133443923903</v>
       </c>
       <c r="K50">
-        <v>145.545032007166</v>
+        <v>132.119501474016</v>
       </c>
       <c r="L50">
-        <v>102.291059895463</v>
+        <v>91.2905127057392</v>
       </c>
       <c r="M50">
-        <v>35.6716868768322</v>
+        <v>31.8288296893003</v>
       </c>
       <c r="N50">
-        <v>89.62774238207661</v>
+        <v>79.990945943154</v>
       </c>
       <c r="O50">
-        <v>2554.63190422886</v>
+        <v>2299.28478083488</v>
       </c>
       <c r="P50">
-        <v>84.1173381948114</v>
+        <v>76.19823984181321</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>43.3610690504556</v>
+        <v>74.309083787323</v>
       </c>
       <c r="C51">
-        <v>2.03350211629632</v>
+        <v>1.86300896810883</v>
       </c>
       <c r="D51">
-        <v>0.54106170247832</v>
+        <v>0.480412045546993</v>
       </c>
       <c r="E51">
-        <v>1.58965431271618</v>
+        <v>1.4108946854963</v>
       </c>
       <c r="F51">
-        <v>28.8713873540288</v>
+        <v>25.7389979173671</v>
       </c>
       <c r="G51">
-        <v>1.04870545828516</v>
+        <v>0.931173027094758</v>
       </c>
       <c r="H51">
-        <v>0.30862086907146</v>
+        <v>0.274192543882136</v>
       </c>
       <c r="I51">
-        <v>1.13301752638202</v>
+        <v>1.0058321348926</v>
       </c>
       <c r="J51">
-        <v>2.05935122080031</v>
+        <v>1.82819604556888</v>
       </c>
       <c r="K51">
-        <v>1.53080594306682</v>
+        <v>1.35974792324982</v>
       </c>
       <c r="L51">
-        <v>0.810647488319701</v>
+        <v>0.721499549588404</v>
       </c>
       <c r="M51">
-        <v>0.6910328228757761</v>
+        <v>0.614580297854044</v>
       </c>
       <c r="N51">
-        <v>1.51940857205975</v>
+        <v>1.34954456344495</v>
       </c>
       <c r="O51">
-        <v>242.196997889045</v>
+        <v>217.478081108056</v>
       </c>
       <c r="P51">
-        <v>18.4389374984634</v>
+        <v>16.7689905871227</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_1999.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_1999.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>880.626869372828</v>
+        <v>1169.80662325887</v>
       </c>
       <c r="C2">
-        <v>32.9909579140803</v>
+        <v>40.3885188932118</v>
       </c>
       <c r="D2">
-        <v>70.8827548295604</v>
+        <v>92.07100750786771</v>
       </c>
       <c r="E2">
-        <v>78.45011750803489</v>
+        <v>68.49600481491829</v>
       </c>
       <c r="F2">
-        <v>18.0610184063369</v>
+        <v>15.8527736626304</v>
       </c>
       <c r="G2">
-        <v>25.0685985958796</v>
+        <v>22.1616101595343</v>
       </c>
       <c r="H2">
-        <v>38.1171766202186</v>
+        <v>24.7955694748319</v>
       </c>
       <c r="I2">
-        <v>19.3528069798599</v>
+        <v>14.5473839856517</v>
       </c>
       <c r="J2">
-        <v>72.1265509522174</v>
+        <v>73.79667632284961</v>
       </c>
       <c r="K2">
-        <v>23.4458519567515</v>
+        <v>25.5405741857225</v>
       </c>
       <c r="L2">
-        <v>36.3640469687735</v>
+        <v>37.187294585555</v>
       </c>
       <c r="M2">
-        <v>49.1197621695025</v>
+        <v>38.8907652269414</v>
       </c>
       <c r="N2">
-        <v>29.416542064031</v>
+        <v>30.9597871246405</v>
       </c>
       <c r="O2">
-        <v>1729.41044535951</v>
+        <v>1445.40134261463</v>
       </c>
       <c r="P2">
-        <v>47.1555427693103</v>
+        <v>50.7103474436891</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>99.87958678024791</v>
+        <v>124.356542777432</v>
       </c>
       <c r="C3">
-        <v>3.1310697155839</v>
+        <v>5.84361325084831</v>
       </c>
       <c r="D3">
-        <v>0.481454533742216</v>
+        <v>0.532778615332813</v>
       </c>
       <c r="E3">
-        <v>1.54140807849281</v>
+        <v>1.67723919848077</v>
       </c>
       <c r="F3">
-        <v>10.2812471614954</v>
+        <v>9.651803808627349</v>
       </c>
       <c r="G3">
-        <v>0.989668329299163</v>
+        <v>0.496406046965805</v>
       </c>
       <c r="H3">
-        <v>0.237845091980672</v>
+        <v>0.185386558819401</v>
       </c>
       <c r="I3">
-        <v>0.691656023427396</v>
+        <v>0.185512128061022</v>
       </c>
       <c r="J3">
-        <v>0.608622775176926</v>
+        <v>0.541351773273659</v>
       </c>
       <c r="K3">
-        <v>0.6558604586874081</v>
+        <v>0.401563425613806</v>
       </c>
       <c r="L3">
-        <v>0.38345854974616</v>
+        <v>0.32683074279789</v>
       </c>
       <c r="M3">
-        <v>1.39754100682496</v>
+        <v>1.12981794609696</v>
       </c>
       <c r="N3">
-        <v>1.13378547992054</v>
+        <v>0.732003263256041</v>
       </c>
       <c r="O3">
-        <v>273.702657320687</v>
+        <v>249.321559707904</v>
       </c>
       <c r="P3">
-        <v>10.9782647915221</v>
+        <v>10.7076008331701</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>910.368958813005</v>
+        <v>1270.67108467159</v>
       </c>
       <c r="C4">
-        <v>16.768934296197</v>
+        <v>15.1623803792313</v>
       </c>
       <c r="D4">
-        <v>9.491005270082811</v>
+        <v>11.989135427276</v>
       </c>
       <c r="E4">
-        <v>13.4598550333781</v>
+        <v>17.3646601594878</v>
       </c>
       <c r="F4">
-        <v>9.819518341323819</v>
+        <v>20.7557037485372</v>
       </c>
       <c r="G4">
-        <v>14.4227631604536</v>
+        <v>13.9531453821672</v>
       </c>
       <c r="H4">
-        <v>5.56493731579996</v>
+        <v>8.18802786203536</v>
       </c>
       <c r="I4">
-        <v>8.98995925864066</v>
+        <v>6.96783600063118</v>
       </c>
       <c r="J4">
-        <v>28.0111262689024</v>
+        <v>26.028666516929</v>
       </c>
       <c r="K4">
-        <v>11.7945400585141</v>
+        <v>9.267967282567041</v>
       </c>
       <c r="L4">
-        <v>96.31585328265901</v>
+        <v>92.70368251624571</v>
       </c>
       <c r="M4">
-        <v>63.7780385587697</v>
+        <v>56.8223507638853</v>
       </c>
       <c r="N4">
-        <v>38.2667782115534</v>
+        <v>21.9870426240282</v>
       </c>
       <c r="O4">
-        <v>2273.94114297833</v>
+        <v>1930.94336823436</v>
       </c>
       <c r="P4">
-        <v>38.0231732392639</v>
+        <v>36.1800154365612</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>519.660985662407</v>
+        <v>687.250183822308</v>
       </c>
       <c r="C5">
-        <v>57.9454516682765</v>
+        <v>59.1193931481618</v>
       </c>
       <c r="D5">
-        <v>19.7978917932569</v>
+        <v>14.9047762775098</v>
       </c>
       <c r="E5">
-        <v>31.6548562224411</v>
+        <v>45.0638232850824</v>
       </c>
       <c r="F5">
-        <v>2.4270840885265</v>
+        <v>4.51217888027607</v>
       </c>
       <c r="G5">
-        <v>11.5423881087472</v>
+        <v>14.7894579942568</v>
       </c>
       <c r="H5">
-        <v>13.2824799246698</v>
+        <v>15.5915817889997</v>
       </c>
       <c r="I5">
-        <v>9.897171797936309</v>
+        <v>7.49840241540469</v>
       </c>
       <c r="J5">
-        <v>38.456006681837</v>
+        <v>39.1073451160403</v>
       </c>
       <c r="K5">
-        <v>28.1456104440175</v>
+        <v>26.1747653365326</v>
       </c>
       <c r="L5">
-        <v>27.9389976906553</v>
+        <v>23.354973572804</v>
       </c>
       <c r="M5">
-        <v>16.5911908315753</v>
+        <v>20.5526038927974</v>
       </c>
       <c r="N5">
-        <v>19.9125323455726</v>
+        <v>19.1841569925131</v>
       </c>
       <c r="O5">
-        <v>1027.50192034216</v>
+        <v>827.823423057903</v>
       </c>
       <c r="P5">
-        <v>44.7333825895591</v>
+        <v>64.5721197648826</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>5996.69404674058</v>
+        <v>8232.893646179609</v>
       </c>
       <c r="C6">
-        <v>192.70692038665</v>
+        <v>214.493971836629</v>
       </c>
       <c r="D6">
-        <v>313.74734107682</v>
+        <v>246.958047741748</v>
       </c>
       <c r="E6">
-        <v>116.296902150511</v>
+        <v>145.280928951152</v>
       </c>
       <c r="F6">
-        <v>59.4553704754713</v>
+        <v>49.6138360696182</v>
       </c>
       <c r="G6">
-        <v>128.407269089246</v>
+        <v>108.258902536894</v>
       </c>
       <c r="H6">
-        <v>80.02307233803489</v>
+        <v>69.1830961582674</v>
       </c>
       <c r="I6">
-        <v>61.6287385347997</v>
+        <v>55.0399989814105</v>
       </c>
       <c r="J6">
-        <v>211.447505772444</v>
+        <v>195.64598911656</v>
       </c>
       <c r="K6">
-        <v>175.205600103884</v>
+        <v>138.445616452083</v>
       </c>
       <c r="L6">
-        <v>565.772430070455</v>
+        <v>583.238311005987</v>
       </c>
       <c r="M6">
-        <v>377.959606451273</v>
+        <v>321.024784025261</v>
       </c>
       <c r="N6">
-        <v>370.188362569557</v>
+        <v>303.848233616888</v>
       </c>
       <c r="O6">
-        <v>14519.4691901651</v>
+        <v>12463.5662511451</v>
       </c>
       <c r="P6">
-        <v>281.655597878665</v>
+        <v>323.342677958546</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>595.546369672757</v>
+        <v>825.788159088176</v>
       </c>
       <c r="C7">
-        <v>34.933619092928</v>
+        <v>33.9039909785586</v>
       </c>
       <c r="D7">
-        <v>6.09708359714507</v>
+        <v>5.87593527686245</v>
       </c>
       <c r="E7">
-        <v>14.2989887756996</v>
+        <v>19.771828774842</v>
       </c>
       <c r="F7">
-        <v>18.2776185660558</v>
+        <v>18.6855331421006</v>
       </c>
       <c r="G7">
-        <v>10.8031727648949</v>
+        <v>10.149117160222</v>
       </c>
       <c r="H7">
-        <v>11.0136620590001</v>
+        <v>9.441492763744741</v>
       </c>
       <c r="I7">
-        <v>10.9418232246552</v>
+        <v>11.5870576714173</v>
       </c>
       <c r="J7">
-        <v>23.120520984079</v>
+        <v>18.0237835886683</v>
       </c>
       <c r="K7">
-        <v>26.4542131806825</v>
+        <v>17.2674850316021</v>
       </c>
       <c r="L7">
-        <v>70.63250611858121</v>
+        <v>68.2724845758132</v>
       </c>
       <c r="M7">
-        <v>24.721089358147</v>
+        <v>20.8757045276163</v>
       </c>
       <c r="N7">
-        <v>40.069820607378</v>
+        <v>28.1446336103064</v>
       </c>
       <c r="O7">
-        <v>2109.72088513858</v>
+        <v>1895.02697820488</v>
       </c>
       <c r="P7">
-        <v>26.1237166209137</v>
+        <v>39.8181561527282</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>480.541030086974</v>
+        <v>728.975487337692</v>
       </c>
       <c r="C8">
-        <v>17.1396514165494</v>
+        <v>16.5858908063122</v>
       </c>
       <c r="D8">
-        <v>9.316977391856771</v>
+        <v>9.31431656426737</v>
       </c>
       <c r="E8">
-        <v>13.3764806062381</v>
+        <v>23.5985356398191</v>
       </c>
       <c r="F8">
-        <v>2.8933745692754</v>
+        <v>0.944301494087143</v>
       </c>
       <c r="G8">
-        <v>34.288450969646</v>
+        <v>29.7623832409898</v>
       </c>
       <c r="H8">
-        <v>14.6607347854669</v>
+        <v>12.2100401574013</v>
       </c>
       <c r="I8">
-        <v>2.02864669497607</v>
+        <v>2.92599351877837</v>
       </c>
       <c r="J8">
-        <v>46.9909980511296</v>
+        <v>52.403815056161</v>
       </c>
       <c r="K8">
-        <v>46.9748460106991</v>
+        <v>36.6602005924526</v>
       </c>
       <c r="L8">
-        <v>45.0097607812675</v>
+        <v>41.6285519149974</v>
       </c>
       <c r="M8">
-        <v>70.75720444612981</v>
+        <v>66.0074481011247</v>
       </c>
       <c r="N8">
-        <v>46.2549817345791</v>
+        <v>30.5108465253586</v>
       </c>
       <c r="O8">
-        <v>1574.08598332351</v>
+        <v>1351.84285902865</v>
       </c>
       <c r="P8">
-        <v>6.50836525532381</v>
+        <v>7.46673951804276</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>120.323835799842</v>
+        <v>170.215475037224</v>
       </c>
       <c r="C9">
-        <v>7.77883512021922</v>
+        <v>10.0468659969272</v>
       </c>
       <c r="D9">
-        <v>1.71285511502378</v>
+        <v>2.02897381867205</v>
       </c>
       <c r="E9">
-        <v>4.19053516875917</v>
+        <v>5.28643778822353</v>
       </c>
       <c r="F9">
-        <v>2.43298438201349</v>
+        <v>2.37088365795269</v>
       </c>
       <c r="G9">
-        <v>24.6381490739067</v>
+        <v>22.8367023545677</v>
       </c>
       <c r="H9">
-        <v>3.82179671062446</v>
+        <v>4.2627974923656</v>
       </c>
       <c r="I9">
-        <v>0.742122702190297</v>
+        <v>0.281512285665513</v>
       </c>
       <c r="J9">
-        <v>3.34837820807518</v>
+        <v>3.08256530770771</v>
       </c>
       <c r="K9">
-        <v>4.01551225726424</v>
+        <v>3.66884025228682</v>
       </c>
       <c r="L9">
-        <v>3.29912678050639</v>
+        <v>2.00101870521672</v>
       </c>
       <c r="M9">
-        <v>9.053620318312159</v>
+        <v>7.97241323003273</v>
       </c>
       <c r="N9">
-        <v>5.07379343271493</v>
+        <v>4.53573255879267</v>
       </c>
       <c r="O9">
-        <v>354.289117816761</v>
+        <v>307.183411505851</v>
       </c>
       <c r="P9">
-        <v>6.04007008582979</v>
+        <v>4.97966487149367</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>2922.3197780863</v>
+        <v>4261.93824010483</v>
       </c>
       <c r="C10">
-        <v>63.7647807652841</v>
+        <v>54.3653554772369</v>
       </c>
       <c r="D10">
-        <v>49.4087402680209</v>
+        <v>44.2096746481746</v>
       </c>
       <c r="E10">
-        <v>49.0266326424347</v>
+        <v>66.28995457891909</v>
       </c>
       <c r="F10">
-        <v>10.2120844845851</v>
+        <v>11.9688277586096</v>
       </c>
       <c r="G10">
-        <v>46.3140031821666</v>
+        <v>47.2010752234275</v>
       </c>
       <c r="H10">
-        <v>26.7295613696293</v>
+        <v>21.2743674597964</v>
       </c>
       <c r="I10">
-        <v>43.3536493701569</v>
+        <v>29.1826005058623</v>
       </c>
       <c r="J10">
-        <v>54.240070660702</v>
+        <v>47.9640092637999</v>
       </c>
       <c r="K10">
-        <v>58.9052741638122</v>
+        <v>48.0134885652165</v>
       </c>
       <c r="L10">
-        <v>144.4464558569</v>
+        <v>117.008168082801</v>
       </c>
       <c r="M10">
-        <v>104.759874144099</v>
+        <v>90.7591761545398</v>
       </c>
       <c r="N10">
-        <v>114.869550370995</v>
+        <v>107.00386778567</v>
       </c>
       <c r="O10">
-        <v>7734.83247631022</v>
+        <v>6466.94096422243</v>
       </c>
       <c r="P10">
-        <v>93.4515373249847</v>
+        <v>102.010482868437</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1325.24094592297</v>
+        <v>1786.44400435144</v>
       </c>
       <c r="C11">
-        <v>73.882054419531</v>
+        <v>75.1973502665811</v>
       </c>
       <c r="D11">
-        <v>181.774724156334</v>
+        <v>164.983048661863</v>
       </c>
       <c r="E11">
-        <v>103.970154958801</v>
+        <v>110.445397485562</v>
       </c>
       <c r="F11">
-        <v>9.51769287565074</v>
+        <v>13.3020658495239</v>
       </c>
       <c r="G11">
-        <v>39.4989903842233</v>
+        <v>47.7107919203053</v>
       </c>
       <c r="H11">
-        <v>22.1371808142329</v>
+        <v>26.4190749999304</v>
       </c>
       <c r="I11">
-        <v>19.0776520893582</v>
+        <v>24.9867902087537</v>
       </c>
       <c r="J11">
-        <v>56.5430065568769</v>
+        <v>50.2675061415569</v>
       </c>
       <c r="K11">
-        <v>54.3841164828221</v>
+        <v>53.4375056168645</v>
       </c>
       <c r="L11">
-        <v>78.013596009998</v>
+        <v>67.67465031232329</v>
       </c>
       <c r="M11">
-        <v>58.2163600024796</v>
+        <v>70.5773106400581</v>
       </c>
       <c r="N11">
-        <v>64.7277122831393</v>
+        <v>59.4670079175509</v>
       </c>
       <c r="O11">
-        <v>3550.40769025899</v>
+        <v>3066.06255582342</v>
       </c>
       <c r="P11">
-        <v>38.0300389316832</v>
+        <v>58.3857026185594</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>196.659707752949</v>
+        <v>293.894801548589</v>
       </c>
       <c r="C12">
-        <v>11.9745800454517</v>
+        <v>8.24366152523246</v>
       </c>
       <c r="D12">
-        <v>4.04648422342273</v>
+        <v>4.95104782331318</v>
       </c>
       <c r="E12">
-        <v>0.816252806555824</v>
+        <v>1.03352752802699</v>
       </c>
       <c r="F12">
-        <v>1.26040316531491</v>
+        <v>0.720301243024804</v>
       </c>
       <c r="G12">
-        <v>1.00202072317796</v>
+        <v>1.16755512601945</v>
       </c>
       <c r="H12">
-        <v>0.324106183104064</v>
+        <v>0.93490403284755</v>
       </c>
       <c r="I12">
-        <v>1.69778358735847</v>
+        <v>1.45200553295133</v>
       </c>
       <c r="J12">
-        <v>1.11854014011125</v>
+        <v>0.82240239156423</v>
       </c>
       <c r="K12">
-        <v>0.679380169298104</v>
+        <v>0.635667646294615</v>
       </c>
       <c r="L12">
-        <v>1.00890013650881</v>
+        <v>1.98686900115808</v>
       </c>
       <c r="M12">
-        <v>5.18582426524184</v>
+        <v>3.7068392636537</v>
       </c>
       <c r="N12">
-        <v>3.80715123922989</v>
+        <v>2.77269146731101</v>
       </c>
       <c r="O12">
-        <v>603.607857297338</v>
+        <v>510.904485786853</v>
       </c>
       <c r="P12">
-        <v>20.4313030617076</v>
+        <v>20.3996871667631</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>198.121546975493</v>
+        <v>280.199002432048</v>
       </c>
       <c r="C13">
-        <v>27.3351568897384</v>
+        <v>26.6074225667637</v>
       </c>
       <c r="D13">
-        <v>2.12136120194854</v>
+        <v>2.47475266473497</v>
       </c>
       <c r="E13">
-        <v>15.8958667734533</v>
+        <v>20.4860833026574</v>
       </c>
       <c r="F13">
-        <v>5.16640168467483</v>
+        <v>6.53959069250594</v>
       </c>
       <c r="G13">
-        <v>5.51940527616049</v>
+        <v>5.32272345432399</v>
       </c>
       <c r="H13">
-        <v>2.26927567228706</v>
+        <v>2.27719514841413</v>
       </c>
       <c r="I13">
-        <v>2.14810757581839</v>
+        <v>1.8690311277285</v>
       </c>
       <c r="J13">
-        <v>5.94235979288646</v>
+        <v>4.97443516863315</v>
       </c>
       <c r="K13">
-        <v>4.96982278396638</v>
+        <v>2.9535304096612</v>
       </c>
       <c r="L13">
-        <v>28.0932669217353</v>
+        <v>21.1828602352311</v>
       </c>
       <c r="M13">
-        <v>4.67993563878822</v>
+        <v>4.88119723057878</v>
       </c>
       <c r="N13">
-        <v>6.87021538399899</v>
+        <v>7.27133118218478</v>
       </c>
       <c r="O13">
-        <v>533.4171594384191</v>
+        <v>462.372807287483</v>
       </c>
       <c r="P13">
-        <v>49.1817806350607</v>
+        <v>42.3427999496964</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>1927.56779707315</v>
+        <v>2685.94779577808</v>
       </c>
       <c r="C14">
-        <v>126.784990628812</v>
+        <v>114.826254044976</v>
       </c>
       <c r="D14">
-        <v>20.3755751182095</v>
+        <v>20.5048266270638</v>
       </c>
       <c r="E14">
-        <v>63.1830810756283</v>
+        <v>97.45622549265261</v>
       </c>
       <c r="F14">
-        <v>17.3357605370785</v>
+        <v>25.3537312202551</v>
       </c>
       <c r="G14">
-        <v>115.974981500317</v>
+        <v>99.69155326737869</v>
       </c>
       <c r="H14">
-        <v>62.046876173648</v>
+        <v>64.84960826139761</v>
       </c>
       <c r="I14">
-        <v>37.292601766527</v>
+        <v>32.0190517410773</v>
       </c>
       <c r="J14">
-        <v>150.999347704135</v>
+        <v>186.565006944813</v>
       </c>
       <c r="K14">
-        <v>208.468365585892</v>
+        <v>181.383615494039</v>
       </c>
       <c r="L14">
-        <v>179.815018050927</v>
+        <v>172.392244472769</v>
       </c>
       <c r="M14">
-        <v>99.5792257257807</v>
+        <v>100.50082668854</v>
       </c>
       <c r="N14">
-        <v>102.684668399769</v>
+        <v>103.009342009149</v>
       </c>
       <c r="O14">
-        <v>5609.05174601724</v>
+        <v>4791.53816655745</v>
       </c>
       <c r="P14">
-        <v>39.390970477924</v>
+        <v>84.4777120232045</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>947.433184502429</v>
+        <v>1298.89704470066</v>
       </c>
       <c r="C15">
-        <v>34.4086180631402</v>
+        <v>42.6477855809541</v>
       </c>
       <c r="D15">
-        <v>15.8690461158909</v>
+        <v>15.2714157564213</v>
       </c>
       <c r="E15">
-        <v>58.5162172267104</v>
+        <v>67.759472475587</v>
       </c>
       <c r="F15">
-        <v>14.2453903641304</v>
+        <v>13.3585069822928</v>
       </c>
       <c r="G15">
-        <v>47.3415112955349</v>
+        <v>47.3609754202629</v>
       </c>
       <c r="H15">
-        <v>51.661034487475</v>
+        <v>52.3487487127116</v>
       </c>
       <c r="I15">
-        <v>47.5687882969829</v>
+        <v>33.0650875775596</v>
       </c>
       <c r="J15">
-        <v>200.476069137659</v>
+        <v>177.830554140287</v>
       </c>
       <c r="K15">
-        <v>111.326648381254</v>
+        <v>89.6863503282009</v>
       </c>
       <c r="L15">
-        <v>71.66427387001799</v>
+        <v>83.8648197116266</v>
       </c>
       <c r="M15">
-        <v>162.379906831843</v>
+        <v>187.319596955542</v>
       </c>
       <c r="N15">
-        <v>100.720191404153</v>
+        <v>70.9075472774195</v>
       </c>
       <c r="O15">
-        <v>2383.96939774711</v>
+        <v>2076.37071068164</v>
       </c>
       <c r="P15">
-        <v>47.6428069096457</v>
+        <v>38.5766160613724</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>334.014791003096</v>
+        <v>534.497205250248</v>
       </c>
       <c r="C16">
-        <v>65.3586681723006</v>
+        <v>60.6773462589503</v>
       </c>
       <c r="D16">
-        <v>16.0645463924195</v>
+        <v>10.9382316983721</v>
       </c>
       <c r="E16">
-        <v>16.1575315359967</v>
+        <v>25.8928923153384</v>
       </c>
       <c r="F16">
-        <v>4.77262665244336</v>
+        <v>4.00502068017659</v>
       </c>
       <c r="G16">
-        <v>15.8039386015776</v>
+        <v>13.8419381235624</v>
       </c>
       <c r="H16">
-        <v>15.053460585439</v>
+        <v>14.9254099771511</v>
       </c>
       <c r="I16">
-        <v>11.0320240129759</v>
+        <v>14.8260033783125</v>
       </c>
       <c r="J16">
-        <v>45.0169460897291</v>
+        <v>48.111837122349</v>
       </c>
       <c r="K16">
-        <v>55.6367233620095</v>
+        <v>49.6377641966877</v>
       </c>
       <c r="L16">
-        <v>32.6855241761649</v>
+        <v>38.5470704649172</v>
       </c>
       <c r="M16">
-        <v>14.7788097336027</v>
+        <v>23.5437063863778</v>
       </c>
       <c r="N16">
-        <v>29.558460996696</v>
+        <v>23.3705302444889</v>
       </c>
       <c r="O16">
-        <v>1312.10370414818</v>
+        <v>1116.19289059643</v>
       </c>
       <c r="P16">
-        <v>95.2165300168148</v>
+        <v>84.27738009737411</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>354.118436693893</v>
+        <v>523.967681230208</v>
       </c>
       <c r="C17">
-        <v>27.4930425509592</v>
+        <v>31.607815069463</v>
       </c>
       <c r="D17">
-        <v>8.027592137719891</v>
+        <v>6.44760992918903</v>
       </c>
       <c r="E17">
-        <v>9.715500851299209</v>
+        <v>15.2421749228039</v>
       </c>
       <c r="F17">
-        <v>13.0143011403895</v>
+        <v>15.0705887854177</v>
       </c>
       <c r="G17">
-        <v>12.4711187378769</v>
+        <v>11.9034612897312</v>
       </c>
       <c r="H17">
-        <v>8.657249488025229</v>
+        <v>15.2932048022965</v>
       </c>
       <c r="I17">
-        <v>7.94405551882832</v>
+        <v>8.09642526085373</v>
       </c>
       <c r="J17">
-        <v>20.4849316858812</v>
+        <v>21.3341256343883</v>
       </c>
       <c r="K17">
-        <v>25.1178273075355</v>
+        <v>27.3375617235326</v>
       </c>
       <c r="L17">
-        <v>14.156652696269</v>
+        <v>16.5827482800561</v>
       </c>
       <c r="M17">
-        <v>79.08275177754589</v>
+        <v>74.9675946840127</v>
       </c>
       <c r="N17">
-        <v>16.3583470321655</v>
+        <v>17.1003783471084</v>
       </c>
       <c r="O17">
-        <v>1226.63042760495</v>
+        <v>1023.69025904723</v>
       </c>
       <c r="P17">
-        <v>58.7664870858442</v>
+        <v>73.4478891102937</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>839.14776350022</v>
+        <v>1046.90990988774</v>
       </c>
       <c r="C18">
-        <v>32.5520903361579</v>
+        <v>34.9148624220921</v>
       </c>
       <c r="D18">
-        <v>18.5103252527292</v>
+        <v>30.8559832949836</v>
       </c>
       <c r="E18">
-        <v>30.351636034262</v>
+        <v>42.2595389541995</v>
       </c>
       <c r="F18">
-        <v>40.6263072121668</v>
+        <v>35.5687823641702</v>
       </c>
       <c r="G18">
-        <v>32.9905227833032</v>
+        <v>29.0926827426063</v>
       </c>
       <c r="H18">
-        <v>21.0551609636316</v>
+        <v>24.6239537731645</v>
       </c>
       <c r="I18">
-        <v>9.541441526527009</v>
+        <v>8.997022308455311</v>
       </c>
       <c r="J18">
-        <v>32.246398546898</v>
+        <v>45.5368344809074</v>
       </c>
       <c r="K18">
-        <v>38.1872555986806</v>
+        <v>39.957087574057</v>
       </c>
       <c r="L18">
-        <v>46.4703593380309</v>
+        <v>48.7855416936223</v>
       </c>
       <c r="M18">
-        <v>58.7227117583695</v>
+        <v>65.5967754006965</v>
       </c>
       <c r="N18">
-        <v>22.3615843147832</v>
+        <v>29.152925071816</v>
       </c>
       <c r="O18">
-        <v>1623.34265454442</v>
+        <v>1369.58839121828</v>
       </c>
       <c r="P18">
-        <v>48.9067233638985</v>
+        <v>43.2015466589629</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>914.082123620849</v>
+        <v>1169.84266274599</v>
       </c>
       <c r="C19">
-        <v>29.2245753872958</v>
+        <v>24.9744061602189</v>
       </c>
       <c r="D19">
-        <v>17.1051421055931</v>
+        <v>18.1765026575804</v>
       </c>
       <c r="E19">
-        <v>24.023479670697</v>
+        <v>39.9590721268225</v>
       </c>
       <c r="F19">
-        <v>96.0301099301853</v>
+        <v>71.5988260307292</v>
       </c>
       <c r="G19">
-        <v>43.0037095628364</v>
+        <v>43.7801760216017</v>
       </c>
       <c r="H19">
-        <v>6.28146006319015</v>
+        <v>6.01933105047655</v>
       </c>
       <c r="I19">
-        <v>8.228509623541029</v>
+        <v>7.62535125961992</v>
       </c>
       <c r="J19">
-        <v>13.6429414149605</v>
+        <v>20.0429182978859</v>
       </c>
       <c r="K19">
-        <v>14.1589314015608</v>
+        <v>12.7177983016376</v>
       </c>
       <c r="L19">
-        <v>8.955013198010111</v>
+        <v>12.3117606581055</v>
       </c>
       <c r="M19">
-        <v>27.1378029127332</v>
+        <v>27.5400099857348</v>
       </c>
       <c r="N19">
-        <v>10.1461408753343</v>
+        <v>13.0955648263722</v>
       </c>
       <c r="O19">
-        <v>1827.93361602091</v>
+        <v>1571.13502608026</v>
       </c>
       <c r="P19">
-        <v>39.3786296577106</v>
+        <v>40.5124771485005</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>201.378971010919</v>
+        <v>293.462197631221</v>
       </c>
       <c r="C20">
-        <v>9.365039611076149</v>
+        <v>8.136679711711221</v>
       </c>
       <c r="D20">
-        <v>18.4177024306412</v>
+        <v>16.9008236423214</v>
       </c>
       <c r="E20">
-        <v>32.4280578632098</v>
+        <v>34.1762785272218</v>
       </c>
       <c r="F20">
-        <v>0.689078879378622</v>
+        <v>0.26273761668546</v>
       </c>
       <c r="G20">
-        <v>1.44366432813385</v>
+        <v>1.86580325640495</v>
       </c>
       <c r="H20">
-        <v>4.31386041274117</v>
+        <v>3.26319755949231</v>
       </c>
       <c r="I20">
-        <v>0.879587283620681</v>
+        <v>1.16652060187282</v>
       </c>
       <c r="J20">
-        <v>3.48698269628341</v>
+        <v>6.76898733938144</v>
       </c>
       <c r="K20">
-        <v>5.27104975375041</v>
+        <v>5.43412651206477</v>
       </c>
       <c r="L20">
-        <v>9.61149560809611</v>
+        <v>10.5816510901135</v>
       </c>
       <c r="M20">
-        <v>22.2088643137272</v>
+        <v>17.8295794977926</v>
       </c>
       <c r="N20">
-        <v>5.29291015138251</v>
+        <v>5.83772418192329</v>
       </c>
       <c r="O20">
-        <v>582.918692080631</v>
+        <v>490.126313486207</v>
       </c>
       <c r="P20">
-        <v>22.4401685282581</v>
+        <v>24.3481487440958</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>839.039684615126</v>
+        <v>1077.43123261643</v>
       </c>
       <c r="C21">
-        <v>32.0951581235593</v>
+        <v>30.9005935509151</v>
       </c>
       <c r="D21">
-        <v>10.7517649835086</v>
+        <v>13.9377193983874</v>
       </c>
       <c r="E21">
-        <v>19.3885786529658</v>
+        <v>33.9218456653992</v>
       </c>
       <c r="F21">
-        <v>3.37496289729722</v>
+        <v>5.08979301085637</v>
       </c>
       <c r="G21">
-        <v>22.4313915003937</v>
+        <v>13.7503518743044</v>
       </c>
       <c r="H21">
-        <v>10.8611507230871</v>
+        <v>21.2857910733231</v>
       </c>
       <c r="I21">
-        <v>9.26195844816591</v>
+        <v>9.45591801076932</v>
       </c>
       <c r="J21">
-        <v>21.1408438026066</v>
+        <v>16.358435554809</v>
       </c>
       <c r="K21">
-        <v>18.7921080515391</v>
+        <v>17.6468650963224</v>
       </c>
       <c r="L21">
-        <v>30.291323394083</v>
+        <v>39.1127468738507</v>
       </c>
       <c r="M21">
-        <v>38.3927753795673</v>
+        <v>38.1832674019375</v>
       </c>
       <c r="N21">
-        <v>18.9154100606515</v>
+        <v>19.4497761691559</v>
       </c>
       <c r="O21">
-        <v>2622.35987584634</v>
+        <v>2366.48378453545</v>
       </c>
       <c r="P21">
-        <v>25.4623555759288</v>
+        <v>19.5951588858586</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>948.118627037897</v>
+        <v>1339.50948416087</v>
       </c>
       <c r="C22">
-        <v>21.939177866103</v>
+        <v>25.884881657114</v>
       </c>
       <c r="D22">
-        <v>37.2519051181855</v>
+        <v>37.5185398334899</v>
       </c>
       <c r="E22">
-        <v>30.207788158726</v>
+        <v>38.3760695404797</v>
       </c>
       <c r="F22">
-        <v>3.42214774517</v>
+        <v>2.78280569100777</v>
       </c>
       <c r="G22">
-        <v>35.7757424184891</v>
+        <v>27.0865196777349</v>
       </c>
       <c r="H22">
-        <v>33.9109595802639</v>
+        <v>29.0190977433709</v>
       </c>
       <c r="I22">
-        <v>9.889006029960409</v>
+        <v>11.1006074005778</v>
       </c>
       <c r="J22">
-        <v>58.3793766255936</v>
+        <v>60.6488098177626</v>
       </c>
       <c r="K22">
-        <v>53.6604932339116</v>
+        <v>45.7345894122181</v>
       </c>
       <c r="L22">
-        <v>133.393081444068</v>
+        <v>133.78669221209</v>
       </c>
       <c r="M22">
-        <v>23.7895461993814</v>
+        <v>24.3231061998333</v>
       </c>
       <c r="N22">
-        <v>100.476721970467</v>
+        <v>81.65355891883471</v>
       </c>
       <c r="O22">
-        <v>3048.2067669042</v>
+        <v>2683.67750717556</v>
       </c>
       <c r="P22">
-        <v>21.6795842878557</v>
+        <v>19.0193947340342</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>1622.72451377556</v>
+        <v>2259.4187103394</v>
       </c>
       <c r="C23">
-        <v>52.569487289442</v>
+        <v>50.4928820684313</v>
       </c>
       <c r="D23">
-        <v>17.1916509474503</v>
+        <v>19.1705037749862</v>
       </c>
       <c r="E23">
-        <v>39.1011918870334</v>
+        <v>65.3385897979186</v>
       </c>
       <c r="F23">
-        <v>4.12544239150013</v>
+        <v>5.61844446975169</v>
       </c>
       <c r="G23">
-        <v>68.1829529701774</v>
+        <v>64.2356529154482</v>
       </c>
       <c r="H23">
-        <v>71.1903106234081</v>
+        <v>65.4416628562585</v>
       </c>
       <c r="I23">
-        <v>23.3059147059899</v>
+        <v>22.4878021545648</v>
       </c>
       <c r="J23">
-        <v>167.153667737721</v>
+        <v>178.171326552623</v>
       </c>
       <c r="K23">
-        <v>157.509112593937</v>
+        <v>132.560795779804</v>
       </c>
       <c r="L23">
-        <v>55.7499113106022</v>
+        <v>56.7832739681505</v>
       </c>
       <c r="M23">
-        <v>616.954736008991</v>
+        <v>532.296324073191</v>
       </c>
       <c r="N23">
-        <v>106.870679718288</v>
+        <v>94.629831641053</v>
       </c>
       <c r="O23">
-        <v>3964.49721238944</v>
+        <v>3393.20695985529</v>
       </c>
       <c r="P23">
-        <v>43.5650617302365</v>
+        <v>70.8389871020707</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>566.460542245841</v>
+        <v>865.2026153199651</v>
       </c>
       <c r="C24">
-        <v>45.7309228151562</v>
+        <v>71.8871081403139</v>
       </c>
       <c r="D24">
-        <v>13.7094547959318</v>
+        <v>8.205752972459569</v>
       </c>
       <c r="E24">
-        <v>42.7285289236648</v>
+        <v>67.044682932017</v>
       </c>
       <c r="F24">
-        <v>16.0536317488587</v>
+        <v>18.3692868684119</v>
       </c>
       <c r="G24">
-        <v>27.7314396215158</v>
+        <v>17.3923409446076</v>
       </c>
       <c r="H24">
-        <v>23.7819399801807</v>
+        <v>28.9470656174223</v>
       </c>
       <c r="I24">
-        <v>15.5573406721035</v>
+        <v>10.1293210780359</v>
       </c>
       <c r="J24">
-        <v>40.1267388495266</v>
+        <v>58.6709696318547</v>
       </c>
       <c r="K24">
-        <v>98.6633781603317</v>
+        <v>62.1990682577345</v>
       </c>
       <c r="L24">
-        <v>68.5445160233035</v>
+        <v>77.6702159068402</v>
       </c>
       <c r="M24">
-        <v>20.108825168259</v>
+        <v>22.1242136427015</v>
       </c>
       <c r="N24">
-        <v>88.94693247575481</v>
+        <v>63.5015693239902</v>
       </c>
       <c r="O24">
-        <v>2296.19188245015</v>
+        <v>1964.79003067697</v>
       </c>
       <c r="P24">
-        <v>92.7306544809347</v>
+        <v>120.954118002462</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>539.385026097631</v>
+        <v>735.618888391426</v>
       </c>
       <c r="C25">
-        <v>46.518841542389</v>
+        <v>35.2100861037667</v>
       </c>
       <c r="D25">
-        <v>19.4577660142224</v>
+        <v>28.6337109795753</v>
       </c>
       <c r="E25">
-        <v>39.9189883291451</v>
+        <v>34.4970565580722</v>
       </c>
       <c r="F25">
-        <v>27.4283450604598</v>
+        <v>17.9049016266198</v>
       </c>
       <c r="G25">
-        <v>10.3878071526179</v>
+        <v>12.4161701621486</v>
       </c>
       <c r="H25">
-        <v>16.5092530489047</v>
+        <v>16.7514013455531</v>
       </c>
       <c r="I25">
-        <v>5.35568890154511</v>
+        <v>4.978841556205</v>
       </c>
       <c r="J25">
-        <v>19.8640422235227</v>
+        <v>21.9051777990684</v>
       </c>
       <c r="K25">
-        <v>22.6051898374343</v>
+        <v>18.7810283289994</v>
       </c>
       <c r="L25">
-        <v>29.5678561473986</v>
+        <v>34.1510724440874</v>
       </c>
       <c r="M25">
-        <v>34.5020664362315</v>
+        <v>26.1757039218367</v>
       </c>
       <c r="N25">
-        <v>30.5434465793455</v>
+        <v>45.9962115087641</v>
       </c>
       <c r="O25">
-        <v>1055.01721036501</v>
+        <v>870.790118786016</v>
       </c>
       <c r="P25">
-        <v>46.2923913502756</v>
+        <v>39.5232937405508</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>808.305760752846</v>
+        <v>1216.78381990952</v>
       </c>
       <c r="C26">
-        <v>65.6489635658512</v>
+        <v>61.1430995333746</v>
       </c>
       <c r="D26">
-        <v>16.6689414873</v>
+        <v>17.8015068774224</v>
       </c>
       <c r="E26">
-        <v>38.5434779604663</v>
+        <v>50.7099100726775</v>
       </c>
       <c r="F26">
-        <v>7.38526672977478</v>
+        <v>4.19368662271761</v>
       </c>
       <c r="G26">
-        <v>46.9619887546387</v>
+        <v>35.9260711545228</v>
       </c>
       <c r="H26">
-        <v>20.8029442195974</v>
+        <v>25.5937636651417</v>
       </c>
       <c r="I26">
-        <v>16.4844045802342</v>
+        <v>17.8978675294592</v>
       </c>
       <c r="J26">
-        <v>60.0636141435348</v>
+        <v>63.1871191828055</v>
       </c>
       <c r="K26">
-        <v>59.4012337450077</v>
+        <v>51.9145295354277</v>
       </c>
       <c r="L26">
-        <v>34.9002288991616</v>
+        <v>42.8993913529518</v>
       </c>
       <c r="M26">
-        <v>75.8773583158338</v>
+        <v>88.91232691530131</v>
       </c>
       <c r="N26">
-        <v>40.977920812906</v>
+        <v>41.4211495719713</v>
       </c>
       <c r="O26">
-        <v>2600.31751223387</v>
+        <v>2151.28435922654</v>
       </c>
       <c r="P26">
-        <v>50.5532270552522</v>
+        <v>73.23356483204969</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>140.573751363302</v>
+        <v>199.076684209529</v>
       </c>
       <c r="C27">
-        <v>3.96124892551835</v>
+        <v>3.1370211119833</v>
       </c>
       <c r="D27">
-        <v>1.09112742918001</v>
+        <v>1.53794594244035</v>
       </c>
       <c r="E27">
-        <v>12.0415246270566</v>
+        <v>11.4907424452274</v>
       </c>
       <c r="F27">
-        <v>6.70618606602504</v>
+        <v>8.72397641430674</v>
       </c>
       <c r="G27">
-        <v>0.702513597448498</v>
+        <v>0.768433781165237</v>
       </c>
       <c r="H27">
-        <v>0.366534921712657</v>
+        <v>0.303443517505309</v>
       </c>
       <c r="I27">
-        <v>2.28920924558393</v>
+        <v>1.57305524261065</v>
       </c>
       <c r="J27">
-        <v>4.94638886359155</v>
+        <v>4.45888189705332</v>
       </c>
       <c r="K27">
-        <v>2.01042806832806</v>
+        <v>1.68845471479037</v>
       </c>
       <c r="L27">
-        <v>2.48192501502413</v>
+        <v>1.72482228053544</v>
       </c>
       <c r="M27">
-        <v>1.51664672801614</v>
+        <v>1.15521744790459</v>
       </c>
       <c r="N27">
-        <v>6.19796791347159</v>
+        <v>4.94520638208155</v>
       </c>
       <c r="O27">
-        <v>415.685674299533</v>
+        <v>355.530094040322</v>
       </c>
       <c r="P27">
-        <v>42.1487680913994</v>
+        <v>46.5993375546977</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>189.496183339868</v>
+        <v>308.062913142309</v>
       </c>
       <c r="C28">
-        <v>28.0044262889178</v>
+        <v>33.67085720315</v>
       </c>
       <c r="D28">
-        <v>2.99106869478376</v>
+        <v>1.9835425354511</v>
       </c>
       <c r="E28">
-        <v>5.65711782095564</v>
+        <v>8.46678932217529</v>
       </c>
       <c r="F28">
-        <v>2.61335902780851</v>
+        <v>1.9394799093711</v>
       </c>
       <c r="G28">
-        <v>7.5107813907564</v>
+        <v>5.30727530483647</v>
       </c>
       <c r="H28">
-        <v>8.581816203238869</v>
+        <v>7.55810185464167</v>
       </c>
       <c r="I28">
-        <v>4.43833831919274</v>
+        <v>4.8628231902685</v>
       </c>
       <c r="J28">
-        <v>15.5840992373442</v>
+        <v>17.8240752091484</v>
       </c>
       <c r="K28">
-        <v>16.7069225200633</v>
+        <v>16.5402209008487</v>
       </c>
       <c r="L28">
-        <v>13.7912766564364</v>
+        <v>10.5527934210211</v>
       </c>
       <c r="M28">
-        <v>6.98234176006313</v>
+        <v>8.07768973266921</v>
       </c>
       <c r="N28">
-        <v>12.172800429456</v>
+        <v>11.4057484576783</v>
       </c>
       <c r="O28">
-        <v>795.746234688734</v>
+        <v>668.959151628356</v>
       </c>
       <c r="P28">
-        <v>85.39655381116459</v>
+        <v>90.4753626937172</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>322.452310021209</v>
+        <v>452.45145814494</v>
       </c>
       <c r="C29">
-        <v>5.45250198631043</v>
+        <v>6.5501464481183</v>
       </c>
       <c r="D29">
-        <v>3.64742965904264</v>
+        <v>3.36258719392007</v>
       </c>
       <c r="E29">
-        <v>2.33507973463641</v>
+        <v>5.52023663330243</v>
       </c>
       <c r="F29">
-        <v>15.9938694462648</v>
+        <v>16.9309334014761</v>
       </c>
       <c r="G29">
-        <v>2.6773584003731</v>
+        <v>2.25777430336111</v>
       </c>
       <c r="H29">
-        <v>2.55391189689644</v>
+        <v>2.44346327199796</v>
       </c>
       <c r="I29">
-        <v>5.54833434169032</v>
+        <v>4.91278342435096</v>
       </c>
       <c r="J29">
-        <v>5.26161220750469</v>
+        <v>7.18960929293192</v>
       </c>
       <c r="K29">
-        <v>3.88885634670775</v>
+        <v>2.58489846547419</v>
       </c>
       <c r="L29">
-        <v>4.87254420530103</v>
+        <v>5.69715193394456</v>
       </c>
       <c r="M29">
-        <v>2.35725257758319</v>
+        <v>3.00477412406027</v>
       </c>
       <c r="N29">
-        <v>10.7795449654614</v>
+        <v>14.0174155156279</v>
       </c>
       <c r="O29">
-        <v>997.859455673869</v>
+        <v>857.813310589323</v>
       </c>
       <c r="P29">
-        <v>3.81360584686136</v>
+        <v>4.80766353206247</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>163.635815401152</v>
+        <v>235.381801910105</v>
       </c>
       <c r="C30">
-        <v>5.05843142382786</v>
+        <v>3.77494986993697</v>
       </c>
       <c r="D30">
-        <v>7.85311698486403</v>
+        <v>5.74920759548003</v>
       </c>
       <c r="E30">
-        <v>8.808196704673479</v>
+        <v>14.6070869924591</v>
       </c>
       <c r="F30">
-        <v>0.547602580794708</v>
+        <v>0.936210633301014</v>
       </c>
       <c r="G30">
-        <v>4.06966767228786</v>
+        <v>5.15705791744963</v>
       </c>
       <c r="H30">
-        <v>6.61025852295855</v>
+        <v>5.89778643073005</v>
       </c>
       <c r="I30">
-        <v>2.67554260452983</v>
+        <v>2.31906094395044</v>
       </c>
       <c r="J30">
-        <v>16.9502330637648</v>
+        <v>19.5892595370797</v>
       </c>
       <c r="K30">
-        <v>20.6531490947031</v>
+        <v>12.6864260054867</v>
       </c>
       <c r="L30">
-        <v>41.5119707616311</v>
+        <v>42.5973046068522</v>
       </c>
       <c r="M30">
-        <v>11.0298411502183</v>
+        <v>10.6227255859435</v>
       </c>
       <c r="N30">
-        <v>16.0981560180182</v>
+        <v>15.7836705456432</v>
       </c>
       <c r="O30">
-        <v>567.924599331462</v>
+        <v>497.848841105928</v>
       </c>
       <c r="P30">
-        <v>7.56807202568803</v>
+        <v>8.051487239930591</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1416.52253834526</v>
+        <v>1989.99311756414</v>
       </c>
       <c r="C31">
-        <v>50.6903825221046</v>
+        <v>47.5844604183837</v>
       </c>
       <c r="D31">
-        <v>59.1109237094523</v>
+        <v>49.6902589846837</v>
       </c>
       <c r="E31">
-        <v>25.6200413960435</v>
+        <v>31.9946487662315</v>
       </c>
       <c r="F31">
-        <v>9.547250059534409</v>
+        <v>13.1945067190421</v>
       </c>
       <c r="G31">
-        <v>155.192484499096</v>
+        <v>150.490754967827</v>
       </c>
       <c r="H31">
-        <v>29.5443233434808</v>
+        <v>30.7511337766412</v>
       </c>
       <c r="I31">
-        <v>31.1350409176447</v>
+        <v>26.2866947821393</v>
       </c>
       <c r="J31">
-        <v>44.9713719617553</v>
+        <v>40.7848700046967</v>
       </c>
       <c r="K31">
-        <v>47.4927040865106</v>
+        <v>42.2554412721478</v>
       </c>
       <c r="L31">
-        <v>65.25649948325059</v>
+        <v>60.3677917726294</v>
       </c>
       <c r="M31">
-        <v>30.0658377555024</v>
+        <v>30.3465238482269</v>
       </c>
       <c r="N31">
-        <v>72.5412472771939</v>
+        <v>71.0102554651713</v>
       </c>
       <c r="O31">
-        <v>3991.80434796961</v>
+        <v>3442.53778776368</v>
       </c>
       <c r="P31">
-        <v>9.07885158490814</v>
+        <v>11.2882497267854</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>347.501403045607</v>
+        <v>469.86017838227</v>
       </c>
       <c r="C32">
-        <v>4.6860197772975</v>
+        <v>4.68117043310382</v>
       </c>
       <c r="D32">
-        <v>3.30558955324121</v>
+        <v>4.12815043320869</v>
       </c>
       <c r="E32">
-        <v>3.12704404051275</v>
+        <v>2.71470113740485</v>
       </c>
       <c r="F32">
-        <v>32.8076865520459</v>
+        <v>22.4266553640703</v>
       </c>
       <c r="G32">
-        <v>2.13027889786302</v>
+        <v>2.28731990324421</v>
       </c>
       <c r="H32">
-        <v>2.58681103341938</v>
+        <v>1.2909772103003</v>
       </c>
       <c r="I32">
-        <v>2.97474291288707</v>
+        <v>3.47941489738063</v>
       </c>
       <c r="J32">
-        <v>3.27304325223402</v>
+        <v>1.82110608286975</v>
       </c>
       <c r="K32">
-        <v>5.8535414452795</v>
+        <v>4.64025007658797</v>
       </c>
       <c r="L32">
-        <v>15.4804687208459</v>
+        <v>14.2198435764762</v>
       </c>
       <c r="M32">
-        <v>4.17314556931131</v>
+        <v>5.39289236376901</v>
       </c>
       <c r="N32">
-        <v>12.9425327634238</v>
+        <v>10.7727623588742</v>
       </c>
       <c r="O32">
-        <v>795.356952009175</v>
+        <v>684.955237653412</v>
       </c>
       <c r="P32">
-        <v>26.972864503352</v>
+        <v>30.5132521017565</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>3716.97622638988</v>
+        <v>4966.1271442769</v>
       </c>
       <c r="C33">
-        <v>86.88151336220589</v>
+        <v>83.0467069988069</v>
       </c>
       <c r="D33">
-        <v>159.991669558534</v>
+        <v>140.958268069453</v>
       </c>
       <c r="E33">
-        <v>41.2998941733168</v>
+        <v>86.0021449413394</v>
       </c>
       <c r="F33">
-        <v>11.97613631183</v>
+        <v>11.4561960123759</v>
       </c>
       <c r="G33">
-        <v>77.6973147575719</v>
+        <v>81.6600824960163</v>
       </c>
       <c r="H33">
-        <v>44.0090200003215</v>
+        <v>49.3893159183442</v>
       </c>
       <c r="I33">
-        <v>39.463450934628</v>
+        <v>46.2394858751952</v>
       </c>
       <c r="J33">
-        <v>110.301896976244</v>
+        <v>120.308220225919</v>
       </c>
       <c r="K33">
-        <v>121.903605414272</v>
+        <v>123.473493111889</v>
       </c>
       <c r="L33">
-        <v>157.124847957109</v>
+        <v>150.139134577737</v>
       </c>
       <c r="M33">
-        <v>88.2586994545437</v>
+        <v>90.89892055836199</v>
       </c>
       <c r="N33">
-        <v>210.886080438328</v>
+        <v>154.902199151613</v>
       </c>
       <c r="O33">
-        <v>8667.750330113369</v>
+        <v>7407.27167725685</v>
       </c>
       <c r="P33">
-        <v>63.299351489758</v>
+        <v>86.08198844794561</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1343.80866573539</v>
+        <v>1761.14392675455</v>
       </c>
       <c r="C34">
-        <v>91.82544317695459</v>
+        <v>80.7591783470438</v>
       </c>
       <c r="D34">
-        <v>237.740439687151</v>
+        <v>227.347173200802</v>
       </c>
       <c r="E34">
-        <v>59.79093113887</v>
+        <v>83.5487411073368</v>
       </c>
       <c r="F34">
-        <v>5.9655036303807</v>
+        <v>6.82360527421301</v>
       </c>
       <c r="G34">
-        <v>74.11870544281931</v>
+        <v>71.1318921968619</v>
       </c>
       <c r="H34">
-        <v>52.096614648101</v>
+        <v>47.9370509255264</v>
       </c>
       <c r="I34">
-        <v>23.4811674254887</v>
+        <v>30.3982447634987</v>
       </c>
       <c r="J34">
-        <v>62.3957389557105</v>
+        <v>56.4343771572463</v>
       </c>
       <c r="K34">
-        <v>86.61973725618439</v>
+        <v>62.8953056525506</v>
       </c>
       <c r="L34">
-        <v>136.026001603287</v>
+        <v>115.07116548162</v>
       </c>
       <c r="M34">
-        <v>53.0620336217656</v>
+        <v>53.188200170489</v>
       </c>
       <c r="N34">
-        <v>133.813034634273</v>
+        <v>140.545603065836</v>
       </c>
       <c r="O34">
-        <v>3213.95513562043</v>
+        <v>2848.379446076</v>
       </c>
       <c r="P34">
-        <v>74.385061498204</v>
+        <v>63.4713812305307</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>75.0810578537896</v>
+        <v>126.248993981484</v>
       </c>
       <c r="C35">
-        <v>5.09957349116968</v>
+        <v>6.83545228747081</v>
       </c>
       <c r="D35">
-        <v>0.788863249652717</v>
+        <v>1.02706732601107</v>
       </c>
       <c r="E35">
-        <v>3.28039688947869</v>
+        <v>1.6917637399754</v>
       </c>
       <c r="F35">
-        <v>5.33818202567532</v>
+        <v>5.41393379689693</v>
       </c>
       <c r="G35">
-        <v>0.305701362153362</v>
+        <v>0.419551273257561</v>
       </c>
       <c r="H35">
-        <v>0.64695390100721</v>
+        <v>0.620314146396964</v>
       </c>
       <c r="I35">
-        <v>1.44969050608027</v>
+        <v>1.00716913073822</v>
       </c>
       <c r="J35">
-        <v>1.90335043219543</v>
+        <v>1.69625688801694</v>
       </c>
       <c r="K35">
-        <v>7.05289093700113</v>
+        <v>5.97414531729449</v>
       </c>
       <c r="L35">
-        <v>3.23001177435794</v>
+        <v>2.55375865361182</v>
       </c>
       <c r="M35">
-        <v>2.10355178148345</v>
+        <v>1.9249342837492</v>
       </c>
       <c r="N35">
-        <v>2.30907274417022</v>
+        <v>2.44161830713658</v>
       </c>
       <c r="O35">
-        <v>302.374437438253</v>
+        <v>250.085115709754</v>
       </c>
       <c r="P35">
-        <v>41.3709092599202</v>
+        <v>44.3921528241118</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>1910.98322654044</v>
+        <v>2556.36989788166</v>
       </c>
       <c r="C36">
-        <v>64.05780678127481</v>
+        <v>67.3397912445316</v>
       </c>
       <c r="D36">
-        <v>18.1132211910107</v>
+        <v>22.6421134567218</v>
       </c>
       <c r="E36">
-        <v>57.2640079103326</v>
+        <v>91.1689809903488</v>
       </c>
       <c r="F36">
-        <v>40.4382452830454</v>
+        <v>30.8144542688797</v>
       </c>
       <c r="G36">
-        <v>113.824697655218</v>
+        <v>96.1970697451881</v>
       </c>
       <c r="H36">
-        <v>117.746885345474</v>
+        <v>123.615883411363</v>
       </c>
       <c r="I36">
-        <v>49.1618716008763</v>
+        <v>48.682710999187</v>
       </c>
       <c r="J36">
-        <v>232.312535309779</v>
+        <v>275.467535752717</v>
       </c>
       <c r="K36">
-        <v>193.769702502</v>
+        <v>159.428627040276</v>
       </c>
       <c r="L36">
-        <v>111.177012857852</v>
+        <v>112.303335879875</v>
       </c>
       <c r="M36">
-        <v>231.466978710285</v>
+        <v>257.780608195348</v>
       </c>
       <c r="N36">
-        <v>97.0904896063285</v>
+        <v>88.47822101933301</v>
       </c>
       <c r="O36">
-        <v>4794.09412988476</v>
+        <v>4087.99412236794</v>
       </c>
       <c r="P36">
-        <v>52.7472214783964</v>
+        <v>66.01225008471761</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>640.228005670884</v>
+        <v>857.173304215656</v>
       </c>
       <c r="C37">
-        <v>23.3584446443436</v>
+        <v>21.864261819586</v>
       </c>
       <c r="D37">
-        <v>12.5641457425433</v>
+        <v>15.6050319428567</v>
       </c>
       <c r="E37">
-        <v>18.5126765056977</v>
+        <v>19.0027572503999</v>
       </c>
       <c r="F37">
-        <v>44.3656884544782</v>
+        <v>46.3688100268896</v>
       </c>
       <c r="G37">
-        <v>8.477329867506009</v>
+        <v>5.00217605919258</v>
       </c>
       <c r="H37">
-        <v>24.8107937146845</v>
+        <v>20.8565218848826</v>
       </c>
       <c r="I37">
-        <v>18.1969818439729</v>
+        <v>12.3023158302319</v>
       </c>
       <c r="J37">
-        <v>36.7011332470826</v>
+        <v>36.4113462311357</v>
       </c>
       <c r="K37">
-        <v>43.1981384023074</v>
+        <v>30.0598045278922</v>
       </c>
       <c r="L37">
-        <v>27.5718015125589</v>
+        <v>28.4562506235384</v>
       </c>
       <c r="M37">
-        <v>29.974160446074</v>
+        <v>32.7571952974448</v>
       </c>
       <c r="N37">
-        <v>17.9524243374332</v>
+        <v>21.0305742201052</v>
       </c>
       <c r="O37">
-        <v>1406.67596430135</v>
+        <v>1203.50311544067</v>
       </c>
       <c r="P37">
-        <v>61.648024394015</v>
+        <v>63.847164493231</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>582.783797180606</v>
+        <v>772.051898696871</v>
       </c>
       <c r="C38">
-        <v>30.3447069990682</v>
+        <v>29.7895043458816</v>
       </c>
       <c r="D38">
-        <v>14.3914550493542</v>
+        <v>11.2630383736204</v>
       </c>
       <c r="E38">
-        <v>52.4316612234898</v>
+        <v>62.7064910392325</v>
       </c>
       <c r="F38">
-        <v>3.30361880919433</v>
+        <v>1.98122358851233</v>
       </c>
       <c r="G38">
-        <v>8.951903209654461</v>
+        <v>7.95570993301583</v>
       </c>
       <c r="H38">
-        <v>7.16268623565163</v>
+        <v>8.162360276007311</v>
       </c>
       <c r="I38">
-        <v>5.56455550901413</v>
+        <v>6.56855464186928</v>
       </c>
       <c r="J38">
-        <v>34.0467182682238</v>
+        <v>31.695730764417</v>
       </c>
       <c r="K38">
-        <v>20.1389153236241</v>
+        <v>18.8193307196791</v>
       </c>
       <c r="L38">
-        <v>67.59796890645811</v>
+        <v>61.2526012438656</v>
       </c>
       <c r="M38">
-        <v>27.0392077715371</v>
+        <v>25.4785693873662</v>
       </c>
       <c r="N38">
-        <v>28.0887162765522</v>
+        <v>26.0827985009203</v>
       </c>
       <c r="O38">
-        <v>1489.35715794936</v>
+        <v>1308.66394515761</v>
       </c>
       <c r="P38">
-        <v>70.96183901759839</v>
+        <v>69.6609811677781</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2118.23576350468</v>
+        <v>3003.59457762485</v>
       </c>
       <c r="C39">
-        <v>135.077353617664</v>
+        <v>112.125730706106</v>
       </c>
       <c r="D39">
-        <v>71.74722775924771</v>
+        <v>69.2922911795751</v>
       </c>
       <c r="E39">
-        <v>85.1303393959777</v>
+        <v>112.328092143654</v>
       </c>
       <c r="F39">
-        <v>28.6570966557027</v>
+        <v>38.6774430463974</v>
       </c>
       <c r="G39">
-        <v>129.702644982354</v>
+        <v>114.109216841931</v>
       </c>
       <c r="H39">
-        <v>51.4165596158853</v>
+        <v>58.8858825349836</v>
       </c>
       <c r="I39">
-        <v>56.9001380586492</v>
+        <v>61.087783878804</v>
       </c>
       <c r="J39">
-        <v>179.013893855958</v>
+        <v>212.384242961497</v>
       </c>
       <c r="K39">
-        <v>145.49620130467</v>
+        <v>116.996053146758</v>
       </c>
       <c r="L39">
-        <v>142.129786134327</v>
+        <v>139.749485813656</v>
       </c>
       <c r="M39">
-        <v>76.2467093973016</v>
+        <v>88.8063106462789</v>
       </c>
       <c r="N39">
-        <v>117.128905088655</v>
+        <v>101.723030432901</v>
       </c>
       <c r="O39">
-        <v>5398.56561127953</v>
+        <v>4491.34313179065</v>
       </c>
       <c r="P39">
-        <v>64.38670808802139</v>
+        <v>78.7200045578399</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>163.619982726026</v>
+        <v>245.495981027687</v>
       </c>
       <c r="C40">
-        <v>3.51787258794429</v>
+        <v>3.74072210302383</v>
       </c>
       <c r="D40">
-        <v>11.3529089282471</v>
+        <v>10.5561603277532</v>
       </c>
       <c r="E40">
-        <v>2.04011549652263</v>
+        <v>3.77179343860779</v>
       </c>
       <c r="F40">
-        <v>0.627304411616469</v>
+        <v>1.4048433048906</v>
       </c>
       <c r="G40">
-        <v>5.56242449807679</v>
+        <v>3.40657360031914</v>
       </c>
       <c r="H40">
-        <v>9.942437230639699</v>
+        <v>7.0926202283456</v>
       </c>
       <c r="I40">
-        <v>1.51950938471458</v>
+        <v>2.2098457760382</v>
       </c>
       <c r="J40">
-        <v>12.6679622541716</v>
+        <v>12.5130350855538</v>
       </c>
       <c r="K40">
-        <v>10.7690133510061</v>
+        <v>5.95836671678774</v>
       </c>
       <c r="L40">
-        <v>13.1232954689385</v>
+        <v>16.3919512306929</v>
       </c>
       <c r="M40">
-        <v>8.109255210076711</v>
+        <v>9.50870817767016</v>
       </c>
       <c r="N40">
-        <v>30.8424185112813</v>
+        <v>26.364802432494</v>
       </c>
       <c r="O40">
-        <v>466.351676779845</v>
+        <v>391.571075803498</v>
       </c>
       <c r="P40">
-        <v>2.21883344697563</v>
+        <v>2.28694858923544</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>727.901030371285</v>
+        <v>939.7667967327631</v>
       </c>
       <c r="C41">
-        <v>13.0769915827248</v>
+        <v>17.3313582245488</v>
       </c>
       <c r="D41">
-        <v>112.322484051204</v>
+        <v>116.084142760799</v>
       </c>
       <c r="E41">
-        <v>46.5061299139704</v>
+        <v>53.8586876635712</v>
       </c>
       <c r="F41">
-        <v>3.85921686763177</v>
+        <v>2.93909401135507</v>
       </c>
       <c r="G41">
-        <v>44.8545441941218</v>
+        <v>37.6721481555986</v>
       </c>
       <c r="H41">
-        <v>40.5354434012361</v>
+        <v>35.1088510023125</v>
       </c>
       <c r="I41">
-        <v>13.1413387973547</v>
+        <v>8.42147693928667</v>
       </c>
       <c r="J41">
-        <v>51.7374033231302</v>
+        <v>46.0055991984422</v>
       </c>
       <c r="K41">
-        <v>58.4495965191083</v>
+        <v>48.826649820072</v>
       </c>
       <c r="L41">
-        <v>30.8711541781039</v>
+        <v>27.8634466313022</v>
       </c>
       <c r="M41">
-        <v>37.5438611551915</v>
+        <v>39.4500150948236</v>
       </c>
       <c r="N41">
-        <v>25.0551929876</v>
+        <v>25.2928677875102</v>
       </c>
       <c r="O41">
-        <v>1554.03741955001</v>
+        <v>1364.73013555117</v>
       </c>
       <c r="P41">
-        <v>26.0056046178615</v>
+        <v>22.5207791197253</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>82.26280954947001</v>
+        <v>141.031621902772</v>
       </c>
       <c r="C42">
-        <v>8.474048617299809</v>
+        <v>9.098506772978711</v>
       </c>
       <c r="D42">
-        <v>2.2129886301285</v>
+        <v>2.17649649712067</v>
       </c>
       <c r="E42">
-        <v>4.69117183239828</v>
+        <v>5.00081893082992</v>
       </c>
       <c r="F42">
-        <v>2.04197102768837</v>
+        <v>1.81926523156168</v>
       </c>
       <c r="G42">
-        <v>1.47532837315416</v>
+        <v>0.900229583978941</v>
       </c>
       <c r="H42">
-        <v>1.44379258558142</v>
+        <v>1.8005237010903</v>
       </c>
       <c r="I42">
-        <v>0.912552039046285</v>
+        <v>1.04567612352603</v>
       </c>
       <c r="J42">
-        <v>4.57681100019763</v>
+        <v>3.81370223720151</v>
       </c>
       <c r="K42">
-        <v>8.12844800533075</v>
+        <v>7.35970381725568</v>
       </c>
       <c r="L42">
-        <v>9.04987678076416</v>
+        <v>7.87673124160456</v>
       </c>
       <c r="M42">
-        <v>3.9211031548985</v>
+        <v>2.86874865354254</v>
       </c>
       <c r="N42">
-        <v>8.10634722117539</v>
+        <v>8.5183710723161</v>
       </c>
       <c r="O42">
-        <v>348.909052346876</v>
+        <v>286.755698356636</v>
       </c>
       <c r="P42">
-        <v>39.7312127146565</v>
+        <v>45.8666032569146</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1083.81275148896</v>
+        <v>1377.82733294947</v>
       </c>
       <c r="C43">
-        <v>32.0075195128264</v>
+        <v>41.7336042324832</v>
       </c>
       <c r="D43">
-        <v>62.0803609252899</v>
+        <v>56.2851595667943</v>
       </c>
       <c r="E43">
-        <v>43.3469305302994</v>
+        <v>74.35972086171211</v>
       </c>
       <c r="F43">
-        <v>12.7109147151942</v>
+        <v>10.1266489242354</v>
       </c>
       <c r="G43">
-        <v>29.2004179517161</v>
+        <v>32.9521459871658</v>
       </c>
       <c r="H43">
-        <v>27.1962800994397</v>
+        <v>40.6042069756287</v>
       </c>
       <c r="I43">
-        <v>26.3556389394601</v>
+        <v>22.6509438014535</v>
       </c>
       <c r="J43">
-        <v>55.0247792958626</v>
+        <v>73.9036199070098</v>
       </c>
       <c r="K43">
-        <v>68.83728334272151</v>
+        <v>51.4184251420576</v>
       </c>
       <c r="L43">
-        <v>53.3496409508602</v>
+        <v>57.897152278559</v>
       </c>
       <c r="M43">
-        <v>83.2780249537927</v>
+        <v>92.3323045625196</v>
       </c>
       <c r="N43">
-        <v>89.9326485953742</v>
+        <v>71.11780568039571</v>
       </c>
       <c r="O43">
-        <v>2324.91247108155</v>
+        <v>2005.4179010925</v>
       </c>
       <c r="P43">
-        <v>62.9401662117344</v>
+        <v>46.3729261344152</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>3391.51584148015</v>
+        <v>4722.79339179212</v>
       </c>
       <c r="C44">
-        <v>178.929955535878</v>
+        <v>162.911617801448</v>
       </c>
       <c r="D44">
-        <v>80.88308063604519</v>
+        <v>79.7387388731936</v>
       </c>
       <c r="E44">
-        <v>79.4757577229108</v>
+        <v>100.293349022177</v>
       </c>
       <c r="F44">
-        <v>252.786976208756</v>
+        <v>210.581819613956</v>
       </c>
       <c r="G44">
-        <v>163.934693093484</v>
+        <v>125.409498367957</v>
       </c>
       <c r="H44">
-        <v>57.1635161458613</v>
+        <v>65.1091948499738</v>
       </c>
       <c r="I44">
-        <v>55.001150129409</v>
+        <v>53.1067267053528</v>
       </c>
       <c r="J44">
-        <v>150.247455030791</v>
+        <v>159.041504096005</v>
       </c>
       <c r="K44">
-        <v>160.634312145015</v>
+        <v>140.093769860706</v>
       </c>
       <c r="L44">
-        <v>267.051659281453</v>
+        <v>255.251090947673</v>
       </c>
       <c r="M44">
-        <v>129.979733275143</v>
+        <v>147.967393277581</v>
       </c>
       <c r="N44">
-        <v>99.9742357358938</v>
+        <v>108.905810674888</v>
       </c>
       <c r="O44">
-        <v>8850.126286410959</v>
+        <v>7630.87843917498</v>
       </c>
       <c r="P44">
-        <v>274.29005815637</v>
+        <v>229.959046382133</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>324.303438701666</v>
+        <v>434.959883685712</v>
       </c>
       <c r="C45">
-        <v>16.0598156988536</v>
+        <v>18.4048877453908</v>
       </c>
       <c r="D45">
-        <v>6.15302796439068</v>
+        <v>5.0042076163227</v>
       </c>
       <c r="E45">
-        <v>6.95335719300868</v>
+        <v>11.260885352413</v>
       </c>
       <c r="F45">
-        <v>23.904906860991</v>
+        <v>19.1356262684842</v>
       </c>
       <c r="G45">
-        <v>9.29672793733204</v>
+        <v>9.58971188435679</v>
       </c>
       <c r="H45">
-        <v>4.56067426007231</v>
+        <v>4.08063967365446</v>
       </c>
       <c r="I45">
-        <v>6.2313502432156</v>
+        <v>6.2981583611143</v>
       </c>
       <c r="J45">
-        <v>21.8372844468179</v>
+        <v>19.3209694780232</v>
       </c>
       <c r="K45">
-        <v>11.5854958458211</v>
+        <v>13.5272425947446</v>
       </c>
       <c r="L45">
-        <v>23.0055572636123</v>
+        <v>23.8477485432449</v>
       </c>
       <c r="M45">
-        <v>25.9406366689411</v>
+        <v>27.7399605043389</v>
       </c>
       <c r="N45">
-        <v>30.0927764160042</v>
+        <v>26.5581288415731</v>
       </c>
       <c r="O45">
-        <v>962.825877992651</v>
+        <v>852.679782270642</v>
       </c>
       <c r="P45">
-        <v>18.1599211285649</v>
+        <v>18.5076768302115</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>81.04678755304251</v>
+        <v>114.821989745671</v>
       </c>
       <c r="C46">
-        <v>4.73175767812593</v>
+        <v>4.8488150280236</v>
       </c>
       <c r="D46">
-        <v>2.18543813358117</v>
+        <v>1.75718884655115</v>
       </c>
       <c r="E46">
-        <v>6.20945817415713</v>
+        <v>7.31927273371963</v>
       </c>
       <c r="F46">
-        <v>1.61401948129061</v>
+        <v>0.955492401926225</v>
       </c>
       <c r="G46">
-        <v>1.726426867849</v>
+        <v>1.06220919307587</v>
       </c>
       <c r="H46">
-        <v>2.41229211371157</v>
+        <v>1.2859992032592</v>
       </c>
       <c r="I46">
-        <v>2.66788288716665</v>
+        <v>2.39774473768199</v>
       </c>
       <c r="J46">
-        <v>4.48553725346334</v>
+        <v>5.22780221540604</v>
       </c>
       <c r="K46">
-        <v>5.01584594291695</v>
+        <v>4.28644350213336</v>
       </c>
       <c r="L46">
-        <v>13.7137020489965</v>
+        <v>10.9045066964943</v>
       </c>
       <c r="M46">
-        <v>4.23831101750805</v>
+        <v>4.89678710861229</v>
       </c>
       <c r="N46">
-        <v>8.298980081483281</v>
+        <v>7.07635941425569</v>
       </c>
       <c r="O46">
-        <v>285.0911031188</v>
+        <v>252.789776495531</v>
       </c>
       <c r="P46">
-        <v>8.449171310527429</v>
+        <v>12.2628126013651</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1167.38081844342</v>
+        <v>1532.38150772466</v>
       </c>
       <c r="C47">
-        <v>71.1741268950651</v>
+        <v>63.464454047052</v>
       </c>
       <c r="D47">
-        <v>42.7109700747957</v>
+        <v>49.9632781548595</v>
       </c>
       <c r="E47">
-        <v>43.4416589261726</v>
+        <v>67.0104995145181</v>
       </c>
       <c r="F47">
-        <v>10.6854308620966</v>
+        <v>14.2973087951848</v>
       </c>
       <c r="G47">
-        <v>37.5767799601221</v>
+        <v>34.1622729369113</v>
       </c>
       <c r="H47">
-        <v>18.929360103052</v>
+        <v>28.422448318368</v>
       </c>
       <c r="I47">
-        <v>17.335394755409</v>
+        <v>16.3460464268271</v>
       </c>
       <c r="J47">
-        <v>56.7079552231042</v>
+        <v>47.7820485415386</v>
       </c>
       <c r="K47">
-        <v>33.8433577079509</v>
+        <v>40.886781333909</v>
       </c>
       <c r="L47">
-        <v>57.1081230698061</v>
+        <v>53.3156407455881</v>
       </c>
       <c r="M47">
-        <v>76.96561755268149</v>
+        <v>80.8734047474404</v>
       </c>
       <c r="N47">
-        <v>40.0310776239392</v>
+        <v>51.5079642420247</v>
       </c>
       <c r="O47">
-        <v>3228.92731451192</v>
+        <v>2815.61505623256</v>
       </c>
       <c r="P47">
-        <v>40.4515191831308</v>
+        <v>47.1981070369037</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>984.831727606628</v>
+        <v>1307.21993647225</v>
       </c>
       <c r="C48">
-        <v>18.508694117012</v>
+        <v>26.117790758769</v>
       </c>
       <c r="D48">
-        <v>17.4588245406286</v>
+        <v>12.04665237474</v>
       </c>
       <c r="E48">
-        <v>71.657931593458</v>
+        <v>69.1863163624504</v>
       </c>
       <c r="F48">
-        <v>17.222853274386</v>
+        <v>12.8489034405886</v>
       </c>
       <c r="G48">
-        <v>15.9838033906098</v>
+        <v>18.2471818464743</v>
       </c>
       <c r="H48">
-        <v>7.73257175044885</v>
+        <v>8.30210124161502</v>
       </c>
       <c r="I48">
-        <v>19.6666621236342</v>
+        <v>11.9668864709299</v>
       </c>
       <c r="J48">
-        <v>31.8078225513808</v>
+        <v>34.8025225474609</v>
       </c>
       <c r="K48">
-        <v>26.9407205093592</v>
+        <v>19.9982607228663</v>
       </c>
       <c r="L48">
-        <v>46.7296191311198</v>
+        <v>47.1953848466505</v>
       </c>
       <c r="M48">
-        <v>152.06997470351</v>
+        <v>156.293903551672</v>
       </c>
       <c r="N48">
-        <v>25.9626414830863</v>
+        <v>23.7926111575796</v>
       </c>
       <c r="O48">
-        <v>2614.28066656186</v>
+        <v>2293.99886078354</v>
       </c>
       <c r="P48">
-        <v>99.9452725756852</v>
+        <v>108.848110595914</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>473.818765534795</v>
+        <v>585.259274081977</v>
       </c>
       <c r="C49">
-        <v>5.33482031868133</v>
+        <v>8.540797477153561</v>
       </c>
       <c r="D49">
-        <v>6.95944318913841</v>
+        <v>5.61192432315581</v>
       </c>
       <c r="E49">
-        <v>14.7772432885319</v>
+        <v>12.7040821977381</v>
       </c>
       <c r="F49">
-        <v>38.8482210031684</v>
+        <v>34.1051447048124</v>
       </c>
       <c r="G49">
-        <v>21.2362661492527</v>
+        <v>16.9463049900563</v>
       </c>
       <c r="H49">
-        <v>3.61867699064871</v>
+        <v>5.49081324206701</v>
       </c>
       <c r="I49">
-        <v>10.6149591384418</v>
+        <v>9.418270365996991</v>
       </c>
       <c r="J49">
-        <v>22.819567512787</v>
+        <v>22.0355957926245</v>
       </c>
       <c r="K49">
-        <v>10.6677399141959</v>
+        <v>9.5803685736361</v>
       </c>
       <c r="L49">
-        <v>3.40640738961334</v>
+        <v>4.79851313386701</v>
       </c>
       <c r="M49">
-        <v>6.47334186830336</v>
+        <v>7.80429339290863</v>
       </c>
       <c r="N49">
-        <v>3.9484916459429</v>
+        <v>4.83987037620063</v>
       </c>
       <c r="O49">
-        <v>713.523969821788</v>
+        <v>606.9964670481839</v>
       </c>
       <c r="P49">
-        <v>7.76518115694295</v>
+        <v>9.67825371795672</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>684.818091584522</v>
+        <v>1000.74087231162</v>
       </c>
       <c r="C50">
-        <v>83.7709517124174</v>
+        <v>90.0099542326325</v>
       </c>
       <c r="D50">
-        <v>13.2553810434901</v>
+        <v>10.1819293006756</v>
       </c>
       <c r="E50">
-        <v>105.225387088906</v>
+        <v>131.955374860309</v>
       </c>
       <c r="F50">
-        <v>4.118260698562</v>
+        <v>4.40731926194103</v>
       </c>
       <c r="G50">
-        <v>34.8047005260523</v>
+        <v>21.5660267411229</v>
       </c>
       <c r="H50">
-        <v>32.4491628471332</v>
+        <v>37.306516964585</v>
       </c>
       <c r="I50">
-        <v>19.6242607014402</v>
+        <v>21.9151027152787</v>
       </c>
       <c r="J50">
-        <v>102.133443923903</v>
+        <v>114.288247218406</v>
       </c>
       <c r="K50">
-        <v>132.119501474016</v>
+        <v>123.579494068705</v>
       </c>
       <c r="L50">
-        <v>91.2905127057392</v>
+        <v>84.49135429598211</v>
       </c>
       <c r="M50">
-        <v>31.8288296893003</v>
+        <v>48.9618372392033</v>
       </c>
       <c r="N50">
-        <v>79.990945943154</v>
+        <v>69.0166047636764</v>
       </c>
       <c r="O50">
-        <v>2299.28478083488</v>
+        <v>1895.54143665812</v>
       </c>
       <c r="P50">
-        <v>76.19823984181321</v>
+        <v>136.949326086744</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>74.309083787323</v>
+        <v>102.010940715634</v>
       </c>
       <c r="C51">
-        <v>1.86300896810883</v>
+        <v>1.48641324042074</v>
       </c>
       <c r="D51">
-        <v>0.480412045546993</v>
+        <v>0.549827253239673</v>
       </c>
       <c r="E51">
-        <v>1.4108946854963</v>
+        <v>1.82116021100414</v>
       </c>
       <c r="F51">
-        <v>25.7389979173671</v>
+        <v>24.2460878527584</v>
       </c>
       <c r="G51">
-        <v>0.931173027094758</v>
+        <v>2.27249589696597</v>
       </c>
       <c r="H51">
-        <v>0.274192543882136</v>
+        <v>0.320203584553521</v>
       </c>
       <c r="I51">
-        <v>1.0058321348926</v>
+        <v>0.814772441165003</v>
       </c>
       <c r="J51">
-        <v>1.82819604556888</v>
+        <v>1.78620790578585</v>
       </c>
       <c r="K51">
-        <v>1.35974792324982</v>
+        <v>0.996666601637859</v>
       </c>
       <c r="L51">
-        <v>0.721499549588404</v>
+        <v>0.501491320782666</v>
       </c>
       <c r="M51">
-        <v>0.614580297854044</v>
+        <v>0.940712656253801</v>
       </c>
       <c r="N51">
-        <v>1.34954456344495</v>
+        <v>1.6372004598346</v>
       </c>
       <c r="O51">
-        <v>217.478081108056</v>
+        <v>192.083819725898</v>
       </c>
       <c r="P51">
-        <v>16.7689905871227</v>
+        <v>14.6648526698888</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_1999.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_1999.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1169.80662325887</v>
+        <v>1169.80658334613</v>
       </c>
       <c r="C2">
-        <v>40.3885188932118</v>
+        <v>40.3885177371109</v>
       </c>
       <c r="D2">
-        <v>92.07100750786771</v>
+        <v>92.07100683174269</v>
       </c>
       <c r="E2">
-        <v>68.49600481491829</v>
+        <v>68.4961355440167</v>
       </c>
       <c r="F2">
-        <v>15.8527736626304</v>
+        <v>15.8527735903268</v>
       </c>
       <c r="G2">
-        <v>22.1616101595343</v>
+        <v>22.1616100282479</v>
       </c>
       <c r="H2">
-        <v>24.7955694748319</v>
+        <v>24.7956361518259</v>
       </c>
       <c r="I2">
-        <v>14.5473839856517</v>
+        <v>14.5473837908715</v>
       </c>
       <c r="J2">
-        <v>73.79667632284961</v>
+        <v>73.7966911823771</v>
       </c>
       <c r="K2">
-        <v>25.5405741857225</v>
+        <v>25.5405741319049</v>
       </c>
       <c r="L2">
-        <v>37.187294585555</v>
+        <v>37.187497507836</v>
       </c>
       <c r="M2">
-        <v>38.8907652269414</v>
+        <v>38.8907647569356</v>
       </c>
       <c r="N2">
-        <v>30.9597871246405</v>
+        <v>30.9597868075987</v>
       </c>
       <c r="O2">
-        <v>1445.40134261463</v>
+        <v>1445.40119399736</v>
       </c>
       <c r="P2">
-        <v>50.7103474436891</v>
+        <v>50.7103446417472</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>124.356542777432</v>
+        <v>124.357550472118</v>
       </c>
       <c r="C3">
-        <v>5.84361325084831</v>
+        <v>5.84370033476064</v>
       </c>
       <c r="D3">
-        <v>0.532778615332813</v>
+        <v>0.532784308889151</v>
       </c>
       <c r="E3">
-        <v>1.67723919848077</v>
+        <v>1.67726037209228</v>
       </c>
       <c r="F3">
-        <v>9.651803808627349</v>
+        <v>9.65195306873</v>
       </c>
       <c r="G3">
-        <v>0.496406046965805</v>
+        <v>0.49641180029835</v>
       </c>
       <c r="H3">
-        <v>0.185386558819401</v>
+        <v>0.182884941233513</v>
       </c>
       <c r="I3">
-        <v>0.185512128061022</v>
+        <v>0.185514054694753</v>
       </c>
       <c r="J3">
-        <v>0.541351773273659</v>
+        <v>0.541151839499823</v>
       </c>
       <c r="K3">
-        <v>0.401563425613806</v>
+        <v>0.4015671202925</v>
       </c>
       <c r="L3">
-        <v>0.32683074279789</v>
+        <v>0.326647535925599</v>
       </c>
       <c r="M3">
-        <v>1.12981794609696</v>
+        <v>1.12982931393969</v>
       </c>
       <c r="N3">
-        <v>0.732003263256041</v>
+        <v>0.731585279185888</v>
       </c>
       <c r="O3">
-        <v>249.321559707904</v>
+        <v>249.322956221572</v>
       </c>
       <c r="P3">
-        <v>10.7076008331701</v>
+        <v>10.7077622567879</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1270.67108467159</v>
+        <v>1270.67089668933</v>
       </c>
       <c r="C4">
-        <v>15.1623803792313</v>
+        <v>15.1623739767493</v>
       </c>
       <c r="D4">
-        <v>11.989135427276</v>
+        <v>11.9891329728222</v>
       </c>
       <c r="E4">
-        <v>17.3646601594878</v>
+        <v>17.3651171933868</v>
       </c>
       <c r="F4">
-        <v>20.7557037485372</v>
+        <v>20.7556994966667</v>
       </c>
       <c r="G4">
-        <v>13.9531453821672</v>
+        <v>13.9531447490499</v>
       </c>
       <c r="H4">
-        <v>8.18802786203536</v>
+        <v>8.18838299524197</v>
       </c>
       <c r="I4">
-        <v>6.96783600063118</v>
+        <v>6.96783528534483</v>
       </c>
       <c r="J4">
-        <v>26.028666516929</v>
+        <v>26.028780260979</v>
       </c>
       <c r="K4">
-        <v>9.267967282567041</v>
+        <v>9.26796696256198</v>
       </c>
       <c r="L4">
-        <v>92.70368251624571</v>
+        <v>92.7044380303486</v>
       </c>
       <c r="M4">
-        <v>56.8223507638853</v>
+        <v>56.822348883009</v>
       </c>
       <c r="N4">
-        <v>21.9870426240282</v>
+        <v>21.9870184580025</v>
       </c>
       <c r="O4">
-        <v>1930.94336823436</v>
+        <v>1930.94275110412</v>
       </c>
       <c r="P4">
-        <v>36.1800154365612</v>
+        <v>36.1800011856351</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>687.250183822308</v>
+        <v>687.25015946441</v>
       </c>
       <c r="C5">
-        <v>59.1193931481618</v>
+        <v>59.1193920169989</v>
       </c>
       <c r="D5">
-        <v>14.9047762775098</v>
+        <v>14.904776222328</v>
       </c>
       <c r="E5">
-        <v>45.0638232850824</v>
+        <v>45.0638230118399</v>
       </c>
       <c r="F5">
-        <v>4.51217888027607</v>
+        <v>4.51217689412204</v>
       </c>
       <c r="G5">
-        <v>14.7894579942568</v>
+        <v>14.7894579246355</v>
       </c>
       <c r="H5">
-        <v>15.5915817889997</v>
+        <v>15.591629581667</v>
       </c>
       <c r="I5">
-        <v>7.49840241540469</v>
+        <v>7.49840238964256</v>
       </c>
       <c r="J5">
-        <v>39.1073451160403</v>
+        <v>39.1073759720611</v>
       </c>
       <c r="K5">
-        <v>26.1747653365326</v>
+        <v>26.1747652953947</v>
       </c>
       <c r="L5">
-        <v>23.354973572804</v>
+        <v>23.3549962188541</v>
       </c>
       <c r="M5">
-        <v>20.5526038927974</v>
+        <v>20.552603737132</v>
       </c>
       <c r="N5">
-        <v>19.1841569925131</v>
+        <v>19.1841566450878</v>
       </c>
       <c r="O5">
-        <v>827.823423057903</v>
+        <v>827.823373580546</v>
       </c>
       <c r="P5">
-        <v>64.5721197648826</v>
+        <v>64.5721176168867</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>8232.893646179609</v>
+        <v>8232.892281271241</v>
       </c>
       <c r="C6">
-        <v>214.493971836629</v>
+        <v>214.493928974541</v>
       </c>
       <c r="D6">
-        <v>246.958047741748</v>
+        <v>246.958026561414</v>
       </c>
       <c r="E6">
-        <v>145.280928951152</v>
+        <v>145.285030028191</v>
       </c>
       <c r="F6">
-        <v>49.6138360696182</v>
+        <v>49.6138233646019</v>
       </c>
       <c r="G6">
-        <v>108.258902536894</v>
+        <v>108.258897788129</v>
       </c>
       <c r="H6">
-        <v>69.1830961582674</v>
+        <v>69.1853109948791</v>
       </c>
       <c r="I6">
-        <v>55.0399989814105</v>
+        <v>55.0399928723042</v>
       </c>
       <c r="J6">
-        <v>195.64598911656</v>
+        <v>195.646619743145</v>
       </c>
       <c r="K6">
-        <v>138.445616452083</v>
+        <v>138.445614457053</v>
       </c>
       <c r="L6">
-        <v>583.238311005987</v>
+        <v>583.244798520158</v>
       </c>
       <c r="M6">
-        <v>321.024784025261</v>
+        <v>321.024768538684</v>
       </c>
       <c r="N6">
-        <v>303.848233616888</v>
+        <v>303.848098744927</v>
       </c>
       <c r="O6">
-        <v>12463.5662511451</v>
+        <v>12463.5613454583</v>
       </c>
       <c r="P6">
-        <v>323.342677958546</v>
+        <v>323.342578320321</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>825.788159088176</v>
+        <v>825.7879441115369</v>
       </c>
       <c r="C7">
-        <v>33.9039909785586</v>
+        <v>33.9039818193791</v>
       </c>
       <c r="D7">
-        <v>5.87593527686245</v>
+        <v>5.87593414137867</v>
       </c>
       <c r="E7">
-        <v>19.771828774842</v>
+        <v>19.7719575551981</v>
       </c>
       <c r="F7">
-        <v>18.6855331421006</v>
+        <v>18.6855187512718</v>
       </c>
       <c r="G7">
-        <v>10.149117160222</v>
+        <v>10.1491164618991</v>
       </c>
       <c r="H7">
-        <v>9.441492763744741</v>
+        <v>9.442473396592479</v>
       </c>
       <c r="I7">
-        <v>11.5870576714173</v>
+        <v>11.5870572800848</v>
       </c>
       <c r="J7">
-        <v>18.0237835886683</v>
+        <v>18.0240144703635</v>
       </c>
       <c r="K7">
-        <v>17.2674850316021</v>
+        <v>17.2674845978249</v>
       </c>
       <c r="L7">
-        <v>68.2724845758132</v>
+        <v>68.27284611371731</v>
       </c>
       <c r="M7">
-        <v>20.8757045276163</v>
+        <v>20.8757030116514</v>
       </c>
       <c r="N7">
-        <v>28.1446336103064</v>
+        <v>28.1445470951437</v>
       </c>
       <c r="O7">
-        <v>1895.02697820488</v>
+        <v>1895.02647963785</v>
       </c>
       <c r="P7">
-        <v>39.8181561527282</v>
+        <v>39.8181376986202</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>728.975487337692</v>
+        <v>728.975428976144</v>
       </c>
       <c r="C8">
-        <v>16.5858908063122</v>
+        <v>16.5858890469144</v>
       </c>
       <c r="D8">
-        <v>9.31431656426737</v>
+        <v>9.3143155642025</v>
       </c>
       <c r="E8">
-        <v>23.5985356398191</v>
+        <v>23.5987317308589</v>
       </c>
       <c r="F8">
-        <v>0.944301494087143</v>
+        <v>0.944301387837727</v>
       </c>
       <c r="G8">
-        <v>29.7623832409898</v>
+        <v>29.7623830229073</v>
       </c>
       <c r="H8">
-        <v>12.2100401574013</v>
+        <v>12.2101443260948</v>
       </c>
       <c r="I8">
-        <v>2.92599351877837</v>
+        <v>2.92599322503371</v>
       </c>
       <c r="J8">
-        <v>52.403815056161</v>
+        <v>52.4038373563136</v>
       </c>
       <c r="K8">
-        <v>36.6602005924526</v>
+        <v>36.6602005077404</v>
       </c>
       <c r="L8">
-        <v>41.6285519149974</v>
+        <v>41.6288562191887</v>
       </c>
       <c r="M8">
-        <v>66.0074481011247</v>
+        <v>66.0074474003907</v>
       </c>
       <c r="N8">
-        <v>30.5108465253586</v>
+        <v>30.5108293012019</v>
       </c>
       <c r="O8">
-        <v>1351.84285902865</v>
+        <v>1351.8426376654</v>
       </c>
       <c r="P8">
-        <v>7.46673951804276</v>
+        <v>7.46673525326738</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>170.215475037224</v>
+        <v>170.215458422665</v>
       </c>
       <c r="C9">
-        <v>10.0468659969272</v>
+        <v>10.0468652364138</v>
       </c>
       <c r="D9">
-        <v>2.02897381867205</v>
+        <v>2.02897377985051</v>
       </c>
       <c r="E9">
-        <v>5.28643778822353</v>
+        <v>5.28643761112095</v>
       </c>
       <c r="F9">
-        <v>2.37088365795269</v>
+        <v>2.37088233168719</v>
       </c>
       <c r="G9">
-        <v>22.8367023545677</v>
+        <v>22.8367023051447</v>
       </c>
       <c r="H9">
-        <v>4.2627974923656</v>
+        <v>4.26282014598123</v>
       </c>
       <c r="I9">
-        <v>0.281512285665513</v>
+        <v>0.281512270681961</v>
       </c>
       <c r="J9">
-        <v>3.08256530770771</v>
+        <v>3.08258588222266</v>
       </c>
       <c r="K9">
-        <v>3.66884025228682</v>
+        <v>3.66884021751272</v>
       </c>
       <c r="L9">
-        <v>2.00101870521672</v>
+        <v>2.001033817619</v>
       </c>
       <c r="M9">
-        <v>7.97241323003273</v>
+        <v>7.97241312033409</v>
       </c>
       <c r="N9">
-        <v>4.53573255879267</v>
+        <v>4.53573231878199</v>
       </c>
       <c r="O9">
-        <v>307.183411505851</v>
+        <v>307.183378108415</v>
       </c>
       <c r="P9">
-        <v>4.97966487149367</v>
+        <v>4.97966343686703</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4261.93824010483</v>
+        <v>4261.93801809132</v>
       </c>
       <c r="C10">
-        <v>54.3653554772369</v>
+        <v>54.3653476820336</v>
       </c>
       <c r="D10">
-        <v>44.2096746481746</v>
+        <v>44.2096717488047</v>
       </c>
       <c r="E10">
-        <v>66.28995457891909</v>
+        <v>66.290476818692</v>
       </c>
       <c r="F10">
-        <v>11.9688277586096</v>
+        <v>11.9688221140249</v>
       </c>
       <c r="G10">
-        <v>47.2010752234275</v>
+        <v>47.2010744156521</v>
       </c>
       <c r="H10">
-        <v>21.2743674597964</v>
+        <v>21.2747578751097</v>
       </c>
       <c r="I10">
-        <v>29.1826005058623</v>
+        <v>29.1825996772191</v>
       </c>
       <c r="J10">
-        <v>47.9640092637999</v>
+        <v>47.9641509293239</v>
       </c>
       <c r="K10">
-        <v>48.0134885652165</v>
+        <v>48.0134881982321</v>
       </c>
       <c r="L10">
-        <v>117.008168082801</v>
+        <v>117.009040075187</v>
       </c>
       <c r="M10">
-        <v>90.7591761545398</v>
+        <v>90.75917372655751</v>
       </c>
       <c r="N10">
-        <v>107.00386778567</v>
+        <v>107.003843243042</v>
       </c>
       <c r="O10">
-        <v>6466.94096422243</v>
+        <v>6466.94024178293</v>
       </c>
       <c r="P10">
-        <v>102.010482868437</v>
+        <v>102.010465756654</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1786.44400435144</v>
+        <v>1786.44386673282</v>
       </c>
       <c r="C11">
-        <v>75.1973502665811</v>
+        <v>75.19734747968521</v>
       </c>
       <c r="D11">
-        <v>164.983048661863</v>
+        <v>164.98304509186</v>
       </c>
       <c r="E11">
-        <v>110.445397485562</v>
+        <v>110.445592208079</v>
       </c>
       <c r="F11">
-        <v>13.3020658495239</v>
+        <v>13.3020597424875</v>
       </c>
       <c r="G11">
-        <v>47.7107919203053</v>
+        <v>47.7107908711939</v>
       </c>
       <c r="H11">
-        <v>26.4190749999304</v>
+        <v>26.4193049630904</v>
       </c>
       <c r="I11">
-        <v>24.9867902087537</v>
+        <v>24.9867898050001</v>
       </c>
       <c r="J11">
-        <v>50.2675061415569</v>
+        <v>50.2676238852541</v>
       </c>
       <c r="K11">
-        <v>53.4375056168645</v>
+        <v>53.4375009592185</v>
       </c>
       <c r="L11">
-        <v>67.67465031232329</v>
+        <v>67.67502020982781</v>
       </c>
       <c r="M11">
-        <v>70.5773106400581</v>
+        <v>70.5773098622238</v>
       </c>
       <c r="N11">
-        <v>59.4670079175509</v>
+        <v>59.4669945000274</v>
       </c>
       <c r="O11">
-        <v>3066.06255582342</v>
+        <v>3066.06232890034</v>
       </c>
       <c r="P11">
-        <v>58.3857026185594</v>
+        <v>58.3856895226025</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>293.894801548589</v>
+        <v>293.898518031205</v>
       </c>
       <c r="C12">
-        <v>8.24366152523246</v>
+        <v>8.243548149700841</v>
       </c>
       <c r="D12">
-        <v>4.95104782331318</v>
+        <v>4.9511105629907</v>
       </c>
       <c r="E12">
-        <v>1.03352752802699</v>
+        <v>1.35025506932098</v>
       </c>
       <c r="F12">
-        <v>0.720301243024804</v>
+        <v>0.7203029963900101</v>
       </c>
       <c r="G12">
-        <v>1.16755512601945</v>
+        <v>1.16756830833161</v>
       </c>
       <c r="H12">
-        <v>0.93490403284755</v>
+        <v>0.9298496055566951</v>
       </c>
       <c r="I12">
-        <v>1.45200553295133</v>
+        <v>1.45202371101633</v>
       </c>
       <c r="J12">
-        <v>0.82240239156423</v>
+        <v>0.822372464066726</v>
       </c>
       <c r="K12">
-        <v>0.635667646294615</v>
+        <v>0.635673116210003</v>
       </c>
       <c r="L12">
-        <v>1.98686900115808</v>
+        <v>1.96716634747312</v>
       </c>
       <c r="M12">
-        <v>3.7068392636537</v>
+        <v>3.70688386938709</v>
       </c>
       <c r="N12">
-        <v>2.77269146731101</v>
+        <v>2.77272261386823</v>
       </c>
       <c r="O12">
-        <v>510.904485786853</v>
+        <v>510.58830439622</v>
       </c>
       <c r="P12">
-        <v>20.3996871667631</v>
+        <v>20.399954668965</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>280.199002432048</v>
+        <v>280.19895813844</v>
       </c>
       <c r="C13">
-        <v>26.6074225667637</v>
+        <v>26.6074252997116</v>
       </c>
       <c r="D13">
-        <v>2.47475266473497</v>
+        <v>2.47475253553602</v>
       </c>
       <c r="E13">
-        <v>20.4860833026574</v>
+        <v>20.4860825714956</v>
       </c>
       <c r="F13">
-        <v>6.53959069250594</v>
+        <v>6.53958762401606</v>
       </c>
       <c r="G13">
-        <v>5.32272345432399</v>
+        <v>5.32272344029195</v>
       </c>
       <c r="H13">
-        <v>2.27719514841413</v>
+        <v>2.27741464948492</v>
       </c>
       <c r="I13">
-        <v>1.8690311277285</v>
+        <v>1.86903099020986</v>
       </c>
       <c r="J13">
-        <v>4.97443516863315</v>
+        <v>4.97448619541873</v>
       </c>
       <c r="K13">
-        <v>2.9535304096612</v>
+        <v>2.95353009081102</v>
       </c>
       <c r="L13">
-        <v>21.1828602352311</v>
+        <v>21.1829026760906</v>
       </c>
       <c r="M13">
-        <v>4.88119723057878</v>
+        <v>4.88119655566553</v>
       </c>
       <c r="N13">
-        <v>7.27133118218478</v>
+        <v>7.27128597698296</v>
       </c>
       <c r="O13">
-        <v>462.372807287483</v>
+        <v>462.372722075598</v>
       </c>
       <c r="P13">
-        <v>42.3427999496964</v>
+        <v>42.3427940116002</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2685.94779577808</v>
+        <v>2685.94820263025</v>
       </c>
       <c r="C14">
-        <v>114.826254044976</v>
+        <v>114.826256380769</v>
       </c>
       <c r="D14">
-        <v>20.5048266270638</v>
+        <v>20.5048258399779</v>
       </c>
       <c r="E14">
-        <v>97.45622549265261</v>
+        <v>97.4564215711507</v>
       </c>
       <c r="F14">
-        <v>25.3537312202551</v>
+        <v>25.3537323210084</v>
       </c>
       <c r="G14">
-        <v>99.69155326737869</v>
+        <v>99.6915524478008</v>
       </c>
       <c r="H14">
-        <v>64.84960826139761</v>
+        <v>64.8498081155292</v>
       </c>
       <c r="I14">
-        <v>32.0190517410773</v>
+        <v>32.0190545531076</v>
       </c>
       <c r="J14">
-        <v>186.565006944813</v>
+        <v>186.56507540075</v>
       </c>
       <c r="K14">
-        <v>181.383615494039</v>
+        <v>181.383652675082</v>
       </c>
       <c r="L14">
-        <v>172.392244472769</v>
+        <v>172.392554929164</v>
       </c>
       <c r="M14">
-        <v>100.50082668854</v>
+        <v>100.500818683141</v>
       </c>
       <c r="N14">
-        <v>103.009342009149</v>
+        <v>103.009334712207</v>
       </c>
       <c r="O14">
-        <v>4791.53816655745</v>
+        <v>4791.53838045126</v>
       </c>
       <c r="P14">
-        <v>84.4777120232045</v>
+        <v>84.47770459145011</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1298.89704470066</v>
+        <v>1298.89712551691</v>
       </c>
       <c r="C15">
-        <v>42.6477855809541</v>
+        <v>42.6477853907428</v>
       </c>
       <c r="D15">
-        <v>15.2714157564213</v>
+        <v>15.2714163434774</v>
       </c>
       <c r="E15">
-        <v>67.759472475587</v>
+        <v>67.75959999207539</v>
       </c>
       <c r="F15">
-        <v>13.3585069822928</v>
+        <v>13.3585056344745</v>
       </c>
       <c r="G15">
-        <v>47.3609754202629</v>
+        <v>47.3609768903868</v>
       </c>
       <c r="H15">
-        <v>52.3487487127116</v>
+        <v>52.3488624316659</v>
       </c>
       <c r="I15">
-        <v>33.0650875775596</v>
+        <v>33.0650861540076</v>
       </c>
       <c r="J15">
-        <v>177.830554140287</v>
+        <v>177.830627087415</v>
       </c>
       <c r="K15">
-        <v>89.6863503282009</v>
+        <v>89.68634772104031</v>
       </c>
       <c r="L15">
-        <v>83.8648197116266</v>
+        <v>83.86504250720751</v>
       </c>
       <c r="M15">
-        <v>187.319596955542</v>
+        <v>187.31955532459</v>
       </c>
       <c r="N15">
-        <v>70.9075472774195</v>
+        <v>70.9075376341622</v>
       </c>
       <c r="O15">
-        <v>2076.37071068164</v>
+        <v>2076.37048450973</v>
       </c>
       <c r="P15">
-        <v>38.5766160613724</v>
+        <v>38.5766102652578</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>534.497205250248</v>
+        <v>534.497201078873</v>
       </c>
       <c r="C16">
-        <v>60.6773462589503</v>
+        <v>60.6773452999063</v>
       </c>
       <c r="D16">
-        <v>10.9382316983721</v>
+        <v>10.9382309349508</v>
       </c>
       <c r="E16">
-        <v>25.8928923153384</v>
+        <v>25.8928939480104</v>
       </c>
       <c r="F16">
-        <v>4.00502068017659</v>
+        <v>4.00502017666425</v>
       </c>
       <c r="G16">
-        <v>13.8419381235624</v>
+        <v>13.841937975177</v>
       </c>
       <c r="H16">
-        <v>14.9254099771511</v>
+        <v>14.9254448806247</v>
       </c>
       <c r="I16">
-        <v>14.8260033783125</v>
+        <v>14.8260023763905</v>
       </c>
       <c r="J16">
-        <v>48.111837122349</v>
+        <v>48.1118499969667</v>
       </c>
       <c r="K16">
-        <v>49.6377641966877</v>
+        <v>49.6377603292954</v>
       </c>
       <c r="L16">
-        <v>38.5470704649172</v>
+        <v>38.5470764804919</v>
       </c>
       <c r="M16">
-        <v>23.5437063863778</v>
+        <v>23.5437084187309</v>
       </c>
       <c r="N16">
-        <v>23.3705302444889</v>
+        <v>23.3705194515426</v>
       </c>
       <c r="O16">
-        <v>1116.19289059643</v>
+        <v>1116.19282014054</v>
       </c>
       <c r="P16">
-        <v>84.27738009737411</v>
+        <v>84.27738126017771</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>523.967681230208</v>
+        <v>523.9677234865291</v>
       </c>
       <c r="C17">
-        <v>31.607815069463</v>
+        <v>31.6078104836265</v>
       </c>
       <c r="D17">
-        <v>6.44760992918903</v>
+        <v>6.44760958203473</v>
       </c>
       <c r="E17">
-        <v>15.2421749228039</v>
+        <v>15.2421712026926</v>
       </c>
       <c r="F17">
-        <v>15.0705887854177</v>
+        <v>15.070586464942</v>
       </c>
       <c r="G17">
-        <v>11.9034612897312</v>
+        <v>11.9034617764983</v>
       </c>
       <c r="H17">
-        <v>15.2932048022965</v>
+        <v>15.2933140829635</v>
       </c>
       <c r="I17">
-        <v>8.09642526085373</v>
+        <v>8.09642484671244</v>
       </c>
       <c r="J17">
-        <v>21.3341256343883</v>
+        <v>21.3341280234123</v>
       </c>
       <c r="K17">
-        <v>27.3375617235326</v>
+        <v>27.3375583110808</v>
       </c>
       <c r="L17">
-        <v>16.5827482800561</v>
+        <v>16.5827479895797</v>
       </c>
       <c r="M17">
-        <v>74.9675946840127</v>
+        <v>74.96759397989371</v>
       </c>
       <c r="N17">
-        <v>17.1003783471084</v>
+        <v>17.1003450757004</v>
       </c>
       <c r="O17">
-        <v>1023.69025904723</v>
+        <v>1023.69026784869</v>
       </c>
       <c r="P17">
-        <v>73.4478891102937</v>
+        <v>73.447884377626</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1046.90990988774</v>
+        <v>1046.90985586985</v>
       </c>
       <c r="C18">
-        <v>34.9148624220921</v>
+        <v>34.9148626931801</v>
       </c>
       <c r="D18">
-        <v>30.8559832949836</v>
+        <v>30.8559831873363</v>
       </c>
       <c r="E18">
-        <v>42.2595389541995</v>
+        <v>42.2597339784343</v>
       </c>
       <c r="F18">
-        <v>35.5687823641702</v>
+        <v>35.5687835241003</v>
       </c>
       <c r="G18">
-        <v>29.0926827426063</v>
+        <v>29.0926859055207</v>
       </c>
       <c r="H18">
-        <v>24.6239537731645</v>
+        <v>24.6241004614492</v>
       </c>
       <c r="I18">
-        <v>8.997022308455311</v>
+        <v>8.99702151646361</v>
       </c>
       <c r="J18">
-        <v>45.5368344809074</v>
+        <v>45.5368778916199</v>
       </c>
       <c r="K18">
-        <v>39.957087574057</v>
+        <v>39.9570910203189</v>
       </c>
       <c r="L18">
-        <v>48.7855416936223</v>
+        <v>48.7858612671896</v>
       </c>
       <c r="M18">
-        <v>65.5967754006965</v>
+        <v>65.5967742773497</v>
       </c>
       <c r="N18">
-        <v>29.152925071816</v>
+        <v>29.1529256621694</v>
       </c>
       <c r="O18">
-        <v>1369.58839121828</v>
+        <v>1369.58836746886</v>
       </c>
       <c r="P18">
-        <v>43.2015466589629</v>
+        <v>43.2015391353503</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1169.84266274599</v>
+        <v>1169.84263248826</v>
       </c>
       <c r="C19">
-        <v>24.9744061602189</v>
+        <v>24.9744077020973</v>
       </c>
       <c r="D19">
-        <v>18.1765026575804</v>
+        <v>18.1765021441543</v>
       </c>
       <c r="E19">
-        <v>39.9590721268225</v>
+        <v>39.9592053458883</v>
       </c>
       <c r="F19">
-        <v>71.5988260307292</v>
+        <v>71.5988245375582</v>
       </c>
       <c r="G19">
-        <v>43.7801760216017</v>
+        <v>43.7801778395548</v>
       </c>
       <c r="H19">
-        <v>6.01933105047655</v>
+        <v>6.01946960267989</v>
       </c>
       <c r="I19">
-        <v>7.62535125961992</v>
+        <v>7.62535084935924</v>
       </c>
       <c r="J19">
-        <v>20.0429182978859</v>
+        <v>20.0429550791438</v>
       </c>
       <c r="K19">
-        <v>12.7177983016376</v>
+        <v>12.7177976615325</v>
       </c>
       <c r="L19">
-        <v>12.3117606581055</v>
+        <v>12.3119784690176</v>
       </c>
       <c r="M19">
-        <v>27.5400099857348</v>
+        <v>27.5400091411257</v>
       </c>
       <c r="N19">
-        <v>13.0955648263722</v>
+        <v>13.0955583296096</v>
       </c>
       <c r="O19">
-        <v>1571.13502608026</v>
+        <v>1571.13499494794</v>
       </c>
       <c r="P19">
-        <v>40.5124771485005</v>
+        <v>40.5124765910107</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>293.462197631221</v>
+        <v>293.462226718812</v>
       </c>
       <c r="C20">
-        <v>8.136679711711221</v>
+        <v>8.136679022963319</v>
       </c>
       <c r="D20">
-        <v>16.9008236423214</v>
+        <v>16.900823338119</v>
       </c>
       <c r="E20">
-        <v>34.1762785272218</v>
+        <v>34.1762832231737</v>
       </c>
       <c r="F20">
-        <v>0.26273761668546</v>
+        <v>0.262736919583967</v>
       </c>
       <c r="G20">
-        <v>1.86580325640495</v>
+        <v>1.86580323374386</v>
       </c>
       <c r="H20">
-        <v>3.26319755949231</v>
+        <v>3.26320887260769</v>
       </c>
       <c r="I20">
-        <v>1.16652060187282</v>
+        <v>1.16652059529631</v>
       </c>
       <c r="J20">
-        <v>6.76898733938144</v>
+        <v>6.76899755831113</v>
       </c>
       <c r="K20">
-        <v>5.43412651206477</v>
+        <v>5.43412612273316</v>
       </c>
       <c r="L20">
-        <v>10.5816510901135</v>
+        <v>10.5816586169763</v>
       </c>
       <c r="M20">
-        <v>17.8295794977926</v>
+        <v>17.8295781656015</v>
       </c>
       <c r="N20">
-        <v>5.83772418192329</v>
+        <v>5.83772438809814</v>
       </c>
       <c r="O20">
-        <v>490.126313486207</v>
+        <v>490.126263035197</v>
       </c>
       <c r="P20">
-        <v>24.3481487440958</v>
+        <v>24.3481526101184</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1077.43123261643</v>
+        <v>1077.43121718162</v>
       </c>
       <c r="C21">
-        <v>30.9005935509151</v>
+        <v>30.9005883930164</v>
       </c>
       <c r="D21">
-        <v>13.9377193983874</v>
+        <v>13.9377192521587</v>
       </c>
       <c r="E21">
-        <v>33.9218456653992</v>
+        <v>33.9219116552185</v>
       </c>
       <c r="F21">
-        <v>5.08979301085637</v>
+        <v>5.08979131604493</v>
       </c>
       <c r="G21">
-        <v>13.7503518743044</v>
+        <v>13.7503524687969</v>
       </c>
       <c r="H21">
-        <v>21.2857910733231</v>
+        <v>21.2858683879468</v>
       </c>
       <c r="I21">
-        <v>9.45591801076932</v>
+        <v>9.455918664646511</v>
       </c>
       <c r="J21">
-        <v>16.358435554809</v>
+        <v>16.3584745478528</v>
       </c>
       <c r="K21">
-        <v>17.6468650963224</v>
+        <v>17.6468651105093</v>
       </c>
       <c r="L21">
-        <v>39.1127468738507</v>
+        <v>39.1128742458654</v>
       </c>
       <c r="M21">
-        <v>38.1832674019375</v>
+        <v>38.1832719064899</v>
       </c>
       <c r="N21">
-        <v>19.4497761691559</v>
+        <v>19.4497638815289</v>
       </c>
       <c r="O21">
-        <v>2366.48378453545</v>
+        <v>2366.48313856001</v>
       </c>
       <c r="P21">
-        <v>19.5951588858586</v>
+        <v>19.5951567901529</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1339.50948416087</v>
+        <v>1339.50945838194</v>
       </c>
       <c r="C22">
-        <v>25.884881657114</v>
+        <v>25.8848726950015</v>
       </c>
       <c r="D22">
-        <v>37.5185398334899</v>
+        <v>37.5185377346484</v>
       </c>
       <c r="E22">
-        <v>38.3760695404797</v>
+        <v>38.3763942206816</v>
       </c>
       <c r="F22">
-        <v>2.78280569100777</v>
+        <v>2.78280244358686</v>
       </c>
       <c r="G22">
-        <v>27.0865196777349</v>
+        <v>27.0865203174987</v>
       </c>
       <c r="H22">
-        <v>29.0190977433709</v>
+        <v>29.0193001558003</v>
       </c>
       <c r="I22">
-        <v>11.1006074005778</v>
+        <v>11.1006072204702</v>
       </c>
       <c r="J22">
-        <v>60.6488098177626</v>
+        <v>60.6489028790574</v>
       </c>
       <c r="K22">
-        <v>45.7345894122181</v>
+        <v>45.734587033864</v>
       </c>
       <c r="L22">
-        <v>133.78669221209</v>
+        <v>133.787231584676</v>
       </c>
       <c r="M22">
-        <v>24.3231061998333</v>
+        <v>24.3231049624807</v>
       </c>
       <c r="N22">
-        <v>81.65355891883471</v>
+        <v>81.6535592598425</v>
       </c>
       <c r="O22">
-        <v>2683.67750717556</v>
+        <v>2683.67668177074</v>
       </c>
       <c r="P22">
-        <v>19.0193947340342</v>
+        <v>19.0193885455058</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2259.4187103394</v>
+        <v>2259.4182273964</v>
       </c>
       <c r="C23">
-        <v>50.4928820684313</v>
+        <v>50.4928841279873</v>
       </c>
       <c r="D23">
-        <v>19.1705037749862</v>
+        <v>19.1705032961356</v>
       </c>
       <c r="E23">
-        <v>65.3385897979186</v>
+        <v>65.3386562403839</v>
       </c>
       <c r="F23">
-        <v>5.61844446975169</v>
+        <v>5.61844202833703</v>
       </c>
       <c r="G23">
-        <v>64.2356529154482</v>
+        <v>64.235653828419</v>
       </c>
       <c r="H23">
-        <v>65.4416628562585</v>
+        <v>65.44181220038701</v>
       </c>
       <c r="I23">
-        <v>22.4878021545648</v>
+        <v>22.4878037213956</v>
       </c>
       <c r="J23">
-        <v>178.171326552623</v>
+        <v>178.171410036847</v>
       </c>
       <c r="K23">
-        <v>132.560795779804</v>
+        <v>132.560804201498</v>
       </c>
       <c r="L23">
-        <v>56.7832739681505</v>
+        <v>56.7834088177219</v>
       </c>
       <c r="M23">
-        <v>532.296324073191</v>
+        <v>532.296328122667</v>
       </c>
       <c r="N23">
-        <v>94.629831641053</v>
+        <v>94.6298170399366</v>
       </c>
       <c r="O23">
-        <v>3393.20695985529</v>
+        <v>3393.20684232216</v>
       </c>
       <c r="P23">
-        <v>70.8389871020707</v>
+        <v>70.8389875777158</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>865.2026153199651</v>
+        <v>865.2024700819441</v>
       </c>
       <c r="C24">
-        <v>71.8871081403139</v>
+        <v>71.8871030916098</v>
       </c>
       <c r="D24">
-        <v>8.205752972459569</v>
+        <v>8.20575131611972</v>
       </c>
       <c r="E24">
-        <v>67.044682932017</v>
+        <v>67.0449432139001</v>
       </c>
       <c r="F24">
-        <v>18.3692868684119</v>
+        <v>18.3692866559402</v>
       </c>
       <c r="G24">
-        <v>17.3923409446076</v>
+        <v>17.392340433467</v>
       </c>
       <c r="H24">
-        <v>28.9470656174223</v>
+        <v>28.9473462299088</v>
       </c>
       <c r="I24">
-        <v>10.1293210780359</v>
+        <v>10.1293207779831</v>
       </c>
       <c r="J24">
-        <v>58.6709696318547</v>
+        <v>58.6710696494283</v>
       </c>
       <c r="K24">
-        <v>62.1990682577345</v>
+        <v>62.1990680083238</v>
       </c>
       <c r="L24">
-        <v>77.6702159068402</v>
+        <v>77.6706726182008</v>
       </c>
       <c r="M24">
-        <v>22.1242136427015</v>
+        <v>22.1242155414529</v>
       </c>
       <c r="N24">
-        <v>63.5015693239902</v>
+        <v>63.5015296511757</v>
       </c>
       <c r="O24">
-        <v>1964.79003067697</v>
+        <v>1964.78982370835</v>
       </c>
       <c r="P24">
-        <v>120.954118002462</v>
+        <v>120.954113748132</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>735.618888391426</v>
+        <v>735.618794714958</v>
       </c>
       <c r="C25">
-        <v>35.2100861037667</v>
+        <v>35.2100873418215</v>
       </c>
       <c r="D25">
-        <v>28.6337109795753</v>
+        <v>28.6337095956052</v>
       </c>
       <c r="E25">
-        <v>34.4970565580722</v>
+        <v>34.4971917647894</v>
       </c>
       <c r="F25">
-        <v>17.9049016266198</v>
+        <v>17.9048983733968</v>
       </c>
       <c r="G25">
-        <v>12.4161701621486</v>
+        <v>12.4161708168332</v>
       </c>
       <c r="H25">
-        <v>16.7514013455531</v>
+        <v>16.7514794519602</v>
       </c>
       <c r="I25">
-        <v>4.978841556205</v>
+        <v>4.9788414886734</v>
       </c>
       <c r="J25">
-        <v>21.9051777990684</v>
+        <v>21.9052002225357</v>
       </c>
       <c r="K25">
-        <v>18.7810283289994</v>
+        <v>18.7810337257313</v>
       </c>
       <c r="L25">
-        <v>34.1510724440874</v>
+        <v>34.1512811485723</v>
       </c>
       <c r="M25">
-        <v>26.1757039218367</v>
+        <v>26.175698469465</v>
       </c>
       <c r="N25">
-        <v>45.9962115087641</v>
+        <v>45.9962122237637</v>
       </c>
       <c r="O25">
-        <v>870.790118786016</v>
+        <v>870.789994176729</v>
       </c>
       <c r="P25">
-        <v>39.5232937405508</v>
+        <v>39.5232954219409</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1216.78381990952</v>
+        <v>1216.78329997945</v>
       </c>
       <c r="C26">
-        <v>61.1430995333746</v>
+        <v>61.1430979027072</v>
       </c>
       <c r="D26">
-        <v>17.8015068774224</v>
+        <v>17.8015093079094</v>
       </c>
       <c r="E26">
-        <v>50.7099100726775</v>
+        <v>50.710042657853</v>
       </c>
       <c r="F26">
-        <v>4.19368662271761</v>
+        <v>4.19368549706325</v>
       </c>
       <c r="G26">
-        <v>35.9260711545228</v>
+        <v>35.9260730220993</v>
       </c>
       <c r="H26">
-        <v>25.5937636651417</v>
+        <v>25.5938571118155</v>
       </c>
       <c r="I26">
-        <v>17.8978675294592</v>
+        <v>17.8978653829385</v>
       </c>
       <c r="J26">
-        <v>63.1871191828055</v>
+        <v>63.1871596369294</v>
       </c>
       <c r="K26">
-        <v>51.9145295354277</v>
+        <v>51.9145264204457</v>
       </c>
       <c r="L26">
-        <v>42.8993913529518</v>
+        <v>42.8996152171226</v>
       </c>
       <c r="M26">
-        <v>88.91232691530131</v>
+        <v>88.9123262482079</v>
       </c>
       <c r="N26">
-        <v>41.4211495719713</v>
+        <v>41.4211467801769</v>
       </c>
       <c r="O26">
-        <v>2151.28435922654</v>
+        <v>2151.2842062865</v>
       </c>
       <c r="P26">
-        <v>73.23356483204969</v>
+        <v>73.2335653469229</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>199.076684209529</v>
+        <v>199.076625406625</v>
       </c>
       <c r="C27">
-        <v>3.1370211119833</v>
+        <v>3.13701937958451</v>
       </c>
       <c r="D27">
-        <v>1.53794594244035</v>
+        <v>1.53794593580651</v>
       </c>
       <c r="E27">
-        <v>11.4907424452274</v>
+        <v>11.490743191972</v>
       </c>
       <c r="F27">
-        <v>8.72397641430674</v>
+        <v>8.723973979424679</v>
       </c>
       <c r="G27">
-        <v>0.768433781165237</v>
+        <v>0.7684336286479601</v>
       </c>
       <c r="H27">
-        <v>0.303443517505309</v>
+        <v>0.341393470165284</v>
       </c>
       <c r="I27">
-        <v>1.57305524261065</v>
+        <v>1.57305522183479</v>
       </c>
       <c r="J27">
-        <v>4.45888189705332</v>
+        <v>4.45892372388156</v>
       </c>
       <c r="K27">
-        <v>1.68845471479037</v>
+        <v>1.6884546567951</v>
       </c>
       <c r="L27">
-        <v>1.72482228053544</v>
+        <v>1.72485299543346</v>
       </c>
       <c r="M27">
-        <v>1.15521744790459</v>
+        <v>1.1552172356787</v>
       </c>
       <c r="N27">
-        <v>4.94520638208155</v>
+        <v>4.91467001280897</v>
       </c>
       <c r="O27">
-        <v>355.530094040322</v>
+        <v>355.52241191255</v>
       </c>
       <c r="P27">
-        <v>46.5993375546977</v>
+        <v>46.5993348823864</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>308.062913142309</v>
+        <v>308.062891171096</v>
       </c>
       <c r="C28">
-        <v>33.67085720315</v>
+        <v>33.6708613087766</v>
       </c>
       <c r="D28">
-        <v>1.9835425354511</v>
+        <v>1.98354225040809</v>
       </c>
       <c r="E28">
-        <v>8.46678932217529</v>
+        <v>8.46685480342383</v>
       </c>
       <c r="F28">
-        <v>1.9394799093711</v>
+        <v>1.93947865946416</v>
       </c>
       <c r="G28">
-        <v>5.30727530483647</v>
+        <v>5.30727609246022</v>
       </c>
       <c r="H28">
-        <v>7.55810185464167</v>
+        <v>7.55830522203061</v>
       </c>
       <c r="I28">
-        <v>4.8628231902685</v>
+        <v>4.8628229756396</v>
       </c>
       <c r="J28">
-        <v>17.8240752091484</v>
+        <v>17.8240990062558</v>
       </c>
       <c r="K28">
-        <v>16.5402209008487</v>
+        <v>16.540223475719</v>
       </c>
       <c r="L28">
-        <v>10.5527934210211</v>
+        <v>10.5529105755307</v>
       </c>
       <c r="M28">
-        <v>8.07768973266921</v>
+        <v>8.077688906846319</v>
       </c>
       <c r="N28">
-        <v>11.4057484576783</v>
+        <v>11.4057369559657</v>
       </c>
       <c r="O28">
-        <v>668.959151628356</v>
+        <v>668.959088444833</v>
       </c>
       <c r="P28">
-        <v>90.4753626937172</v>
+        <v>90.47536309665129</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>452.45145814494</v>
+        <v>452.451317127841</v>
       </c>
       <c r="C29">
-        <v>6.5501464481183</v>
+        <v>6.55014149872212</v>
       </c>
       <c r="D29">
-        <v>3.36258719392007</v>
+        <v>3.36258543924484</v>
       </c>
       <c r="E29">
-        <v>5.52023663330243</v>
+        <v>5.52056263806955</v>
       </c>
       <c r="F29">
-        <v>16.9309334014761</v>
+        <v>16.930926585493</v>
       </c>
       <c r="G29">
-        <v>2.25777430336111</v>
+        <v>2.25777388659164</v>
       </c>
       <c r="H29">
-        <v>2.44346327199796</v>
+        <v>2.44374595354489</v>
       </c>
       <c r="I29">
-        <v>4.91278342435096</v>
+        <v>4.91278281857887</v>
       </c>
       <c r="J29">
-        <v>7.18960929293192</v>
+        <v>7.18969809029582</v>
       </c>
       <c r="K29">
-        <v>2.58489846547419</v>
+        <v>2.58489831285419</v>
       </c>
       <c r="L29">
-        <v>5.69715193394456</v>
+        <v>5.69769636080658</v>
       </c>
       <c r="M29">
-        <v>3.00477412406027</v>
+        <v>3.0047723755418</v>
       </c>
       <c r="N29">
-        <v>14.0174155156279</v>
+        <v>14.017397307573</v>
       </c>
       <c r="O29">
-        <v>857.813310589323</v>
+        <v>857.812904172844</v>
       </c>
       <c r="P29">
-        <v>4.80766353206247</v>
+        <v>4.80765274064585</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>235.381801910105</v>
+        <v>235.381821755915</v>
       </c>
       <c r="C30">
-        <v>3.77494986993697</v>
+        <v>3.77495016264634</v>
       </c>
       <c r="D30">
-        <v>5.74920759548003</v>
+        <v>5.74920755019004</v>
       </c>
       <c r="E30">
-        <v>14.6070869924591</v>
+        <v>14.6070840533885</v>
       </c>
       <c r="F30">
-        <v>0.936210633301014</v>
+        <v>0.936210644235205</v>
       </c>
       <c r="G30">
-        <v>5.15705791744963</v>
+        <v>5.15705782219808</v>
       </c>
       <c r="H30">
-        <v>5.89778643073005</v>
+        <v>5.89778663222827</v>
       </c>
       <c r="I30">
-        <v>2.31906094395044</v>
+        <v>2.31906107505363</v>
       </c>
       <c r="J30">
-        <v>19.5892595370797</v>
+        <v>19.5892592518846</v>
       </c>
       <c r="K30">
-        <v>12.6864260054867</v>
+        <v>12.6864255354231</v>
       </c>
       <c r="L30">
-        <v>42.5973046068522</v>
+        <v>42.5973040207252</v>
       </c>
       <c r="M30">
-        <v>10.6227255859435</v>
+        <v>10.6227254618775</v>
       </c>
       <c r="N30">
-        <v>15.7836705456432</v>
+        <v>15.7836712265567</v>
       </c>
       <c r="O30">
-        <v>497.848841105928</v>
+        <v>497.848806291683</v>
       </c>
       <c r="P30">
-        <v>8.051487239930591</v>
+        <v>8.05148675958935</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1989.99311756414</v>
+        <v>1989.9929992055</v>
       </c>
       <c r="C31">
-        <v>47.5844604183837</v>
+        <v>47.5844535142313</v>
       </c>
       <c r="D31">
-        <v>49.6902589846837</v>
+        <v>49.6902584348024</v>
       </c>
       <c r="E31">
-        <v>31.9946487662315</v>
+        <v>31.9947839431414</v>
       </c>
       <c r="F31">
-        <v>13.1945067190421</v>
+        <v>13.1945064151482</v>
       </c>
       <c r="G31">
-        <v>150.490754967827</v>
+        <v>150.490760848881</v>
       </c>
       <c r="H31">
-        <v>30.7511337766412</v>
+        <v>30.7511944789835</v>
       </c>
       <c r="I31">
-        <v>26.2866947821393</v>
+        <v>26.2866933976378</v>
       </c>
       <c r="J31">
-        <v>40.7848700046967</v>
+        <v>40.784890602391</v>
       </c>
       <c r="K31">
-        <v>42.2554412721478</v>
+        <v>42.2554416701562</v>
       </c>
       <c r="L31">
-        <v>60.3677917726294</v>
+        <v>60.3680068858599</v>
       </c>
       <c r="M31">
-        <v>30.3465238482269</v>
+        <v>30.3465226014686</v>
       </c>
       <c r="N31">
-        <v>71.0102554651713</v>
+        <v>71.01025696168919</v>
       </c>
       <c r="O31">
-        <v>3442.53778776368</v>
+        <v>3442.53778172323</v>
       </c>
       <c r="P31">
-        <v>11.2882497267854</v>
+        <v>11.288246325478</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>469.86017838227</v>
+        <v>469.860053461902</v>
       </c>
       <c r="C32">
-        <v>4.68117043310382</v>
+        <v>4.68116451580685</v>
       </c>
       <c r="D32">
-        <v>4.12815043320869</v>
+        <v>4.12814996802828</v>
       </c>
       <c r="E32">
-        <v>2.71470113740485</v>
+        <v>2.71483100237447</v>
       </c>
       <c r="F32">
-        <v>22.4266553640703</v>
+        <v>22.4266517801364</v>
       </c>
       <c r="G32">
-        <v>2.28731990324421</v>
+        <v>2.28731949694278</v>
       </c>
       <c r="H32">
-        <v>1.2909772103003</v>
+        <v>1.29126264058699</v>
       </c>
       <c r="I32">
-        <v>3.47941489738063</v>
+        <v>3.47941409502772</v>
       </c>
       <c r="J32">
-        <v>1.82110608286975</v>
+        <v>1.82124422496368</v>
       </c>
       <c r="K32">
-        <v>4.64025007658797</v>
+        <v>4.64024929139458</v>
       </c>
       <c r="L32">
-        <v>14.2198435764762</v>
+        <v>14.2201374074414</v>
       </c>
       <c r="M32">
-        <v>5.39289236376901</v>
+        <v>5.39289150215322</v>
       </c>
       <c r="N32">
-        <v>10.7727623588742</v>
+        <v>10.7727331514795</v>
       </c>
       <c r="O32">
-        <v>684.955237653412</v>
+        <v>684.954849562393</v>
       </c>
       <c r="P32">
-        <v>30.5132521017565</v>
+        <v>30.5132437499727</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4966.1271442769</v>
+        <v>4966.12706843955</v>
       </c>
       <c r="C33">
-        <v>83.0467069988069</v>
+        <v>83.0466988715572</v>
       </c>
       <c r="D33">
-        <v>140.958268069453</v>
+        <v>140.958264724002</v>
       </c>
       <c r="E33">
-        <v>86.0021449413394</v>
+        <v>86.0022763066679</v>
       </c>
       <c r="F33">
-        <v>11.4561960123759</v>
+        <v>11.4561924883977</v>
       </c>
       <c r="G33">
-        <v>81.6600824960163</v>
+        <v>81.66008833448841</v>
       </c>
       <c r="H33">
-        <v>49.3893159183442</v>
+        <v>49.3894481600266</v>
       </c>
       <c r="I33">
-        <v>46.2394858751952</v>
+        <v>46.2394889983433</v>
       </c>
       <c r="J33">
-        <v>120.308220225919</v>
+        <v>120.308284690323</v>
       </c>
       <c r="K33">
-        <v>123.473493111889</v>
+        <v>123.473495657889</v>
       </c>
       <c r="L33">
-        <v>150.139134577737</v>
+        <v>150.13937749966</v>
       </c>
       <c r="M33">
-        <v>90.89892055836199</v>
+        <v>90.89891279929481</v>
       </c>
       <c r="N33">
-        <v>154.902199151613</v>
+        <v>154.902200090536</v>
       </c>
       <c r="O33">
-        <v>7407.27167725685</v>
+        <v>7407.27067478601</v>
       </c>
       <c r="P33">
-        <v>86.08198844794561</v>
+        <v>86.0819794742979</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1761.14392675455</v>
+        <v>1761.1436883192</v>
       </c>
       <c r="C34">
-        <v>80.7591783470438</v>
+        <v>80.75918364119821</v>
       </c>
       <c r="D34">
-        <v>227.347173200802</v>
+        <v>227.347157387304</v>
       </c>
       <c r="E34">
-        <v>83.5487411073368</v>
+        <v>83.54926750786819</v>
       </c>
       <c r="F34">
-        <v>6.82360527421301</v>
+        <v>6.82360271882618</v>
       </c>
       <c r="G34">
-        <v>71.1318921968619</v>
+        <v>71.13189588183749</v>
       </c>
       <c r="H34">
-        <v>47.9370509255264</v>
+        <v>47.9373433131552</v>
       </c>
       <c r="I34">
-        <v>30.3982447634987</v>
+        <v>30.3982416083516</v>
       </c>
       <c r="J34">
-        <v>56.4343771572463</v>
+        <v>56.4344821663147</v>
       </c>
       <c r="K34">
-        <v>62.8953056525506</v>
+        <v>62.8953088522118</v>
       </c>
       <c r="L34">
-        <v>115.07116548162</v>
+        <v>115.072011144529</v>
       </c>
       <c r="M34">
-        <v>53.188200170489</v>
+        <v>53.1881966993836</v>
       </c>
       <c r="N34">
-        <v>140.545603065836</v>
+        <v>140.545584208165</v>
       </c>
       <c r="O34">
-        <v>2848.379446076</v>
+        <v>2848.37925970663</v>
       </c>
       <c r="P34">
-        <v>63.4713812305307</v>
+        <v>63.4713706178447</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>126.248993981484</v>
+        <v>126.248981436026</v>
       </c>
       <c r="C35">
-        <v>6.83545228747081</v>
+        <v>6.83545134691101</v>
       </c>
       <c r="D35">
-        <v>1.02706732601107</v>
+        <v>1.02706731725004</v>
       </c>
       <c r="E35">
-        <v>1.6917637399754</v>
+        <v>1.69176353089817</v>
       </c>
       <c r="F35">
-        <v>5.41393379689693</v>
+        <v>5.41393269503226</v>
       </c>
       <c r="G35">
-        <v>0.419551273257561</v>
+        <v>0.419551272299675</v>
       </c>
       <c r="H35">
-        <v>0.620314146396964</v>
+        <v>0.620389272577663</v>
       </c>
       <c r="I35">
-        <v>1.00716913073822</v>
+        <v>1.00716918226573</v>
       </c>
       <c r="J35">
-        <v>1.69625688801694</v>
+        <v>1.69627745947915</v>
       </c>
       <c r="K35">
-        <v>5.97414531729449</v>
+        <v>5.97414483270686</v>
       </c>
       <c r="L35">
-        <v>2.55375865361182</v>
+        <v>2.5537737555654</v>
       </c>
       <c r="M35">
-        <v>1.9249342837492</v>
+        <v>1.9249346562159</v>
       </c>
       <c r="N35">
-        <v>2.44161830713658</v>
+        <v>2.44160119565735</v>
       </c>
       <c r="O35">
-        <v>250.085115709754</v>
+        <v>250.085055302987</v>
       </c>
       <c r="P35">
-        <v>44.3921528241118</v>
+        <v>44.392154471283</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2556.36989788166</v>
+        <v>2556.36955858577</v>
       </c>
       <c r="C36">
-        <v>67.3397912445316</v>
+        <v>67.33978767951621</v>
       </c>
       <c r="D36">
-        <v>22.6421134567218</v>
+        <v>22.6421118746591</v>
       </c>
       <c r="E36">
-        <v>91.1689809903488</v>
+        <v>91.16910818157319</v>
       </c>
       <c r="F36">
-        <v>30.8144542688797</v>
+        <v>30.814448817189</v>
       </c>
       <c r="G36">
-        <v>96.1970697451881</v>
+        <v>96.19706738133689</v>
       </c>
       <c r="H36">
-        <v>123.615883411363</v>
+        <v>123.615992755821</v>
       </c>
       <c r="I36">
-        <v>48.682710999187</v>
+        <v>48.6827153111993</v>
       </c>
       <c r="J36">
-        <v>275.467535752717</v>
+        <v>275.467561606113</v>
       </c>
       <c r="K36">
-        <v>159.428627040276</v>
+        <v>159.428642897749</v>
       </c>
       <c r="L36">
-        <v>112.303335879875</v>
+        <v>112.30355109895</v>
       </c>
       <c r="M36">
-        <v>257.780608195348</v>
+        <v>257.780636915077</v>
       </c>
       <c r="N36">
-        <v>88.47822101933301</v>
+        <v>88.47820932703161</v>
       </c>
       <c r="O36">
-        <v>4087.99412236794</v>
+        <v>4087.99412296406</v>
       </c>
       <c r="P36">
-        <v>66.01225008471761</v>
+        <v>66.0122385611983</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>857.173304215656</v>
+        <v>857.173274561684</v>
       </c>
       <c r="C37">
-        <v>21.864261819586</v>
+        <v>21.864257396813</v>
       </c>
       <c r="D37">
-        <v>15.6050319428567</v>
+        <v>15.6050322982173</v>
       </c>
       <c r="E37">
-        <v>19.0027572503999</v>
+        <v>19.0028228938311</v>
       </c>
       <c r="F37">
-        <v>46.3688100268896</v>
+        <v>46.3688058505594</v>
       </c>
       <c r="G37">
-        <v>5.00217605919258</v>
+        <v>5.00217590527145</v>
       </c>
       <c r="H37">
-        <v>20.8565218848826</v>
+        <v>20.8566878109395</v>
       </c>
       <c r="I37">
-        <v>12.3023158302319</v>
+        <v>12.302315510137</v>
       </c>
       <c r="J37">
-        <v>36.4113462311357</v>
+        <v>36.411386763176</v>
       </c>
       <c r="K37">
-        <v>30.0598045278922</v>
+        <v>30.0598059165814</v>
       </c>
       <c r="L37">
-        <v>28.4562506235384</v>
+        <v>28.4563797118336</v>
       </c>
       <c r="M37">
-        <v>32.7571952974448</v>
+        <v>32.757199468739</v>
       </c>
       <c r="N37">
-        <v>21.0305742201052</v>
+        <v>21.0305572383274</v>
       </c>
       <c r="O37">
-        <v>1203.50311544067</v>
+        <v>1203.50298605801</v>
       </c>
       <c r="P37">
-        <v>63.847164493231</v>
+        <v>63.8471615875058</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>772.051898696871</v>
+        <v>772.051733006203</v>
       </c>
       <c r="C38">
-        <v>29.7895043458816</v>
+        <v>29.7894934966724</v>
       </c>
       <c r="D38">
-        <v>11.2630383736204</v>
+        <v>11.2630361477915</v>
       </c>
       <c r="E38">
-        <v>62.7064910392325</v>
+        <v>62.7067561079008</v>
       </c>
       <c r="F38">
-        <v>1.98122358851233</v>
+        <v>1.98121486244247</v>
       </c>
       <c r="G38">
-        <v>7.95570993301583</v>
+        <v>7.95570923827349</v>
       </c>
       <c r="H38">
-        <v>8.162360276007311</v>
+        <v>8.16280721499581</v>
       </c>
       <c r="I38">
-        <v>6.56855464186928</v>
+        <v>6.56855396966426</v>
       </c>
       <c r="J38">
-        <v>31.695730764417</v>
+        <v>31.6958997142784</v>
       </c>
       <c r="K38">
-        <v>18.8193307196791</v>
+        <v>18.8193307976107</v>
       </c>
       <c r="L38">
-        <v>61.2526012438656</v>
+        <v>61.2531052492542</v>
       </c>
       <c r="M38">
-        <v>25.4785693873662</v>
+        <v>25.4785690364833</v>
       </c>
       <c r="N38">
-        <v>26.0827985009203</v>
+        <v>26.0827407770678</v>
       </c>
       <c r="O38">
-        <v>1308.66394515761</v>
+        <v>1308.6630674891</v>
       </c>
       <c r="P38">
-        <v>69.6609811677781</v>
+        <v>69.6609598744877</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3003.59457762485</v>
+        <v>3003.59418024676</v>
       </c>
       <c r="C39">
-        <v>112.125730706106</v>
+        <v>112.12572982682</v>
       </c>
       <c r="D39">
-        <v>69.2922911795751</v>
+        <v>69.29228679229971</v>
       </c>
       <c r="E39">
-        <v>112.328092143654</v>
+        <v>112.328223834066</v>
       </c>
       <c r="F39">
-        <v>38.6774430463974</v>
+        <v>38.6774388762997</v>
       </c>
       <c r="G39">
-        <v>114.109216841931</v>
+        <v>114.109220416101</v>
       </c>
       <c r="H39">
-        <v>58.8858825349836</v>
+        <v>58.8859664249207</v>
       </c>
       <c r="I39">
-        <v>61.087783878804</v>
+        <v>61.0877817641274</v>
       </c>
       <c r="J39">
-        <v>212.384242961497</v>
+        <v>212.384269397333</v>
       </c>
       <c r="K39">
-        <v>116.996053146758</v>
+        <v>116.996055177214</v>
       </c>
       <c r="L39">
-        <v>139.749485813656</v>
+        <v>139.749702127907</v>
       </c>
       <c r="M39">
-        <v>88.8063106462789</v>
+        <v>88.80631368835721</v>
       </c>
       <c r="N39">
-        <v>101.723030432901</v>
+        <v>101.723018903966</v>
       </c>
       <c r="O39">
-        <v>4491.34313179065</v>
+        <v>4491.34264781785</v>
       </c>
       <c r="P39">
-        <v>78.7200045578399</v>
+        <v>78.7199989301718</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>245.495981027687</v>
+        <v>245.495914191527</v>
       </c>
       <c r="C40">
-        <v>3.74072210302383</v>
+        <v>3.74072180504489</v>
       </c>
       <c r="D40">
-        <v>10.5561603277532</v>
+        <v>10.5561601150241</v>
       </c>
       <c r="E40">
-        <v>3.77179343860779</v>
+        <v>3.77185826962841</v>
       </c>
       <c r="F40">
-        <v>1.4048433048906</v>
+        <v>1.40484320146478</v>
       </c>
       <c r="G40">
-        <v>3.40657360031914</v>
+        <v>3.4065734822127</v>
       </c>
       <c r="H40">
-        <v>7.0926202283456</v>
+        <v>7.0926461267981</v>
       </c>
       <c r="I40">
-        <v>2.2098457760382</v>
+        <v>2.20984576554684</v>
       </c>
       <c r="J40">
-        <v>12.5130350855538</v>
+        <v>12.5130426439611</v>
       </c>
       <c r="K40">
-        <v>5.95836671678774</v>
+        <v>5.95836646205664</v>
       </c>
       <c r="L40">
-        <v>16.3919512306929</v>
+        <v>16.3920548712676</v>
       </c>
       <c r="M40">
-        <v>9.50870817767016</v>
+        <v>9.508707017581161</v>
       </c>
       <c r="N40">
-        <v>26.364802432494</v>
+        <v>26.3648064385926</v>
       </c>
       <c r="O40">
-        <v>391.571075803498</v>
+        <v>391.570976435481</v>
       </c>
       <c r="P40">
-        <v>2.28694858923544</v>
+        <v>2.28694696244195</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>939.7667967327631</v>
+        <v>939.76666380018</v>
       </c>
       <c r="C41">
-        <v>17.3313582245488</v>
+        <v>17.3313531058462</v>
       </c>
       <c r="D41">
-        <v>116.084142760799</v>
+        <v>116.0841370828</v>
       </c>
       <c r="E41">
-        <v>53.8586876635712</v>
+        <v>53.8591449367659</v>
       </c>
       <c r="F41">
-        <v>2.93909401135507</v>
+        <v>2.93909208711169</v>
       </c>
       <c r="G41">
-        <v>37.6721481555986</v>
+        <v>37.6721474115891</v>
       </c>
       <c r="H41">
-        <v>35.1088510023125</v>
+        <v>35.1090704670667</v>
       </c>
       <c r="I41">
-        <v>8.42147693928667</v>
+        <v>8.42147683611703</v>
       </c>
       <c r="J41">
-        <v>46.0055991984422</v>
+        <v>46.0056716943536</v>
       </c>
       <c r="K41">
-        <v>48.826649820072</v>
+        <v>48.8266434183651</v>
       </c>
       <c r="L41">
-        <v>27.8634466313022</v>
+        <v>27.8641715868304</v>
       </c>
       <c r="M41">
-        <v>39.4500150948236</v>
+        <v>39.4500151898565</v>
       </c>
       <c r="N41">
-        <v>25.2928677875102</v>
+        <v>25.2928617645337</v>
       </c>
       <c r="O41">
-        <v>1364.73013555117</v>
+        <v>1364.72956090763</v>
       </c>
       <c r="P41">
-        <v>22.5207791197253</v>
+        <v>22.5207706495914</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>141.031621902772</v>
+        <v>141.031606631375</v>
       </c>
       <c r="C42">
-        <v>9.098506772978711</v>
+        <v>9.098506254681199</v>
       </c>
       <c r="D42">
-        <v>2.17649649712067</v>
+        <v>2.17649636379483</v>
       </c>
       <c r="E42">
-        <v>5.00081893082992</v>
+        <v>5.00081885489675</v>
       </c>
       <c r="F42">
-        <v>1.81926523156168</v>
+        <v>1.81926418147472</v>
       </c>
       <c r="G42">
-        <v>0.900229583978941</v>
+        <v>0.900229448681772</v>
       </c>
       <c r="H42">
-        <v>1.8005237010903</v>
+        <v>1.80064021807196</v>
       </c>
       <c r="I42">
-        <v>1.04567612352603</v>
+        <v>1.04567611169635</v>
       </c>
       <c r="J42">
-        <v>3.81370223720151</v>
+        <v>3.81372319937037</v>
       </c>
       <c r="K42">
-        <v>7.35970381725568</v>
+        <v>7.35970344438214</v>
       </c>
       <c r="L42">
-        <v>7.87673124160456</v>
+        <v>7.87674563964963</v>
       </c>
       <c r="M42">
-        <v>2.86874865354254</v>
+        <v>2.86874858180991</v>
       </c>
       <c r="N42">
-        <v>8.5183710723161</v>
+        <v>8.51835401981374</v>
       </c>
       <c r="O42">
-        <v>286.755698356636</v>
+        <v>286.755664088248</v>
       </c>
       <c r="P42">
-        <v>45.8666032569146</v>
+        <v>45.8665980646321</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1377.82733294947</v>
+        <v>1377.8269294258</v>
       </c>
       <c r="C43">
-        <v>41.7336042324832</v>
+        <v>41.7335984308369</v>
       </c>
       <c r="D43">
-        <v>56.2851595667943</v>
+        <v>56.2851539932729</v>
       </c>
       <c r="E43">
-        <v>74.35972086171211</v>
+        <v>74.35978630067839</v>
       </c>
       <c r="F43">
-        <v>10.1266489242354</v>
+        <v>10.1266450914262</v>
       </c>
       <c r="G43">
-        <v>32.9521459871658</v>
+        <v>32.9521454018165</v>
       </c>
       <c r="H43">
-        <v>40.6042069756287</v>
+        <v>40.6043016105551</v>
       </c>
       <c r="I43">
-        <v>22.6509438014535</v>
+        <v>22.6509486617368</v>
       </c>
       <c r="J43">
-        <v>73.9036199070098</v>
+        <v>73.90369067152891</v>
       </c>
       <c r="K43">
-        <v>51.4184251420576</v>
+        <v>51.4184267487581</v>
       </c>
       <c r="L43">
-        <v>57.897152278559</v>
+        <v>57.8972958795635</v>
       </c>
       <c r="M43">
-        <v>92.3323045625196</v>
+        <v>92.3323010020701</v>
       </c>
       <c r="N43">
-        <v>71.11780568039571</v>
+        <v>71.1178092688409</v>
       </c>
       <c r="O43">
-        <v>2005.4179010925</v>
+        <v>2005.41756155371</v>
       </c>
       <c r="P43">
-        <v>46.3729261344152</v>
+        <v>46.3729269425919</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4722.79339179212</v>
+        <v>4722.7931527464</v>
       </c>
       <c r="C44">
-        <v>162.911617801448</v>
+        <v>162.911604345394</v>
       </c>
       <c r="D44">
-        <v>79.7387388731936</v>
+        <v>79.7387384664794</v>
       </c>
       <c r="E44">
-        <v>100.293349022177</v>
+        <v>100.293944328126</v>
       </c>
       <c r="F44">
-        <v>210.581819613956</v>
+        <v>210.581827931959</v>
       </c>
       <c r="G44">
-        <v>125.409498367957</v>
+        <v>125.409501369499</v>
       </c>
       <c r="H44">
-        <v>65.1091948499738</v>
+        <v>65.1099174691096</v>
       </c>
       <c r="I44">
-        <v>53.1067267053528</v>
+        <v>53.1067256933746</v>
       </c>
       <c r="J44">
-        <v>159.041504096005</v>
+        <v>159.041709878801</v>
       </c>
       <c r="K44">
-        <v>140.093769860706</v>
+        <v>140.093764015411</v>
       </c>
       <c r="L44">
-        <v>255.251090947673</v>
+        <v>255.25206440322</v>
       </c>
       <c r="M44">
-        <v>147.967393277581</v>
+        <v>147.967387695134</v>
       </c>
       <c r="N44">
-        <v>108.905810674888</v>
+        <v>108.905767496086</v>
       </c>
       <c r="O44">
-        <v>7630.87843917498</v>
+        <v>7630.8771711608</v>
       </c>
       <c r="P44">
-        <v>229.959046382133</v>
+        <v>229.958978855737</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>434.959883685712</v>
+        <v>434.959827530795</v>
       </c>
       <c r="C45">
-        <v>18.4048877453908</v>
+        <v>18.4048789962158</v>
       </c>
       <c r="D45">
-        <v>5.0042076163227</v>
+        <v>5.00420678276139</v>
       </c>
       <c r="E45">
-        <v>11.260885352413</v>
+        <v>11.261014847555</v>
       </c>
       <c r="F45">
-        <v>19.1356262684842</v>
+        <v>19.1356188514603</v>
       </c>
       <c r="G45">
-        <v>9.58971188435679</v>
+        <v>9.589712376039371</v>
       </c>
       <c r="H45">
-        <v>4.08063967365446</v>
+        <v>4.08112497239236</v>
       </c>
       <c r="I45">
-        <v>6.2981583611143</v>
+        <v>6.2981579745765</v>
       </c>
       <c r="J45">
-        <v>19.3209694780232</v>
+        <v>19.321044460705</v>
       </c>
       <c r="K45">
-        <v>13.5272425947446</v>
+        <v>13.5272431646146</v>
       </c>
       <c r="L45">
-        <v>23.8477485432449</v>
+        <v>23.847994340557</v>
       </c>
       <c r="M45">
-        <v>27.7399605043389</v>
+        <v>27.73995782481</v>
       </c>
       <c r="N45">
-        <v>26.5581288415731</v>
+        <v>26.5581053755874</v>
       </c>
       <c r="O45">
-        <v>852.679782270642</v>
+        <v>852.679482167822</v>
       </c>
       <c r="P45">
-        <v>18.5076768302115</v>
+        <v>18.5076738892494</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>114.821989745671</v>
+        <v>114.821986318857</v>
       </c>
       <c r="C46">
-        <v>4.8488150280236</v>
+        <v>4.84881495976353</v>
       </c>
       <c r="D46">
-        <v>1.75718884655115</v>
+        <v>1.75718844160258</v>
       </c>
       <c r="E46">
-        <v>7.31927273371963</v>
+        <v>7.31927251911312</v>
       </c>
       <c r="F46">
-        <v>0.955492401926225</v>
+        <v>0.955492332184371</v>
       </c>
       <c r="G46">
-        <v>1.06220919307587</v>
+        <v>1.06220928286379</v>
       </c>
       <c r="H46">
-        <v>1.2859992032592</v>
+        <v>1.28599923802037</v>
       </c>
       <c r="I46">
-        <v>2.39774473768199</v>
+        <v>2.39774465990439</v>
       </c>
       <c r="J46">
-        <v>5.22780221540604</v>
+        <v>5.22780210793862</v>
       </c>
       <c r="K46">
-        <v>4.28644350213336</v>
+        <v>4.28644390597106</v>
       </c>
       <c r="L46">
-        <v>10.9045066964943</v>
+        <v>10.9045066969151</v>
       </c>
       <c r="M46">
-        <v>4.89678710861229</v>
+        <v>4.89678746102619</v>
       </c>
       <c r="N46">
-        <v>7.07635941425569</v>
+        <v>7.07636019439841</v>
       </c>
       <c r="O46">
-        <v>252.789776495531</v>
+        <v>252.789731981686</v>
       </c>
       <c r="P46">
-        <v>12.2628126013651</v>
+        <v>12.2628131517192</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1532.38150772466</v>
+        <v>1532.38134927773</v>
       </c>
       <c r="C47">
-        <v>63.464454047052</v>
+        <v>63.4644449940746</v>
       </c>
       <c r="D47">
-        <v>49.9632781548595</v>
+        <v>49.963279178611</v>
       </c>
       <c r="E47">
-        <v>67.0104995145181</v>
+        <v>67.0108959319623</v>
       </c>
       <c r="F47">
-        <v>14.2973087951848</v>
+        <v>14.2973011939436</v>
       </c>
       <c r="G47">
-        <v>34.1622729369113</v>
+        <v>34.1622764525952</v>
       </c>
       <c r="H47">
-        <v>28.422448318368</v>
+        <v>28.4227120233401</v>
       </c>
       <c r="I47">
-        <v>16.3460464268271</v>
+        <v>16.3460474920829</v>
       </c>
       <c r="J47">
-        <v>47.7820485415386</v>
+        <v>47.7821462616798</v>
       </c>
       <c r="K47">
-        <v>40.886781333909</v>
+        <v>40.8867778425807</v>
       </c>
       <c r="L47">
-        <v>53.3156407455881</v>
+        <v>53.3162845511088</v>
       </c>
       <c r="M47">
-        <v>80.8734047474404</v>
+        <v>80.8734000952698</v>
       </c>
       <c r="N47">
-        <v>51.5079642420247</v>
+        <v>51.5079433410541</v>
       </c>
       <c r="O47">
-        <v>2815.61505623256</v>
+        <v>2815.61420493311</v>
       </c>
       <c r="P47">
-        <v>47.1981070369037</v>
+        <v>47.1980962755977</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1307.21993647225</v>
+        <v>1307.21934979317</v>
       </c>
       <c r="C48">
-        <v>26.117790758769</v>
+        <v>26.1177712916949</v>
       </c>
       <c r="D48">
-        <v>12.04665237474</v>
+        <v>12.0466442846058</v>
       </c>
       <c r="E48">
-        <v>69.1863163624504</v>
+        <v>69.1876817370822</v>
       </c>
       <c r="F48">
-        <v>12.8489034405886</v>
+        <v>12.8488900634503</v>
       </c>
       <c r="G48">
-        <v>18.2471818464743</v>
+        <v>18.2471811910835</v>
       </c>
       <c r="H48">
-        <v>8.30210124161502</v>
+        <v>8.303071346775649</v>
       </c>
       <c r="I48">
-        <v>11.9668864709299</v>
+        <v>11.9668842267262</v>
       </c>
       <c r="J48">
-        <v>34.8025225474609</v>
+        <v>34.8028702627806</v>
       </c>
       <c r="K48">
-        <v>19.9982607228663</v>
+        <v>19.9982604516169</v>
       </c>
       <c r="L48">
-        <v>47.1953848466505</v>
+        <v>47.1976566237413</v>
       </c>
       <c r="M48">
-        <v>156.293903551672</v>
+        <v>156.293887624662</v>
       </c>
       <c r="N48">
-        <v>23.7926111575796</v>
+        <v>23.7925292978254</v>
       </c>
       <c r="O48">
-        <v>2293.99886078354</v>
+        <v>2293.9967923795</v>
       </c>
       <c r="P48">
-        <v>108.848110595914</v>
+        <v>108.848068308877</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>585.259274081977</v>
+        <v>585.259263835327</v>
       </c>
       <c r="C49">
-        <v>8.540797477153561</v>
+        <v>8.540797689200071</v>
       </c>
       <c r="D49">
-        <v>5.61192432315581</v>
+        <v>5.6119241975008</v>
       </c>
       <c r="E49">
-        <v>12.7040821977381</v>
+        <v>12.7040823071204</v>
       </c>
       <c r="F49">
-        <v>34.1051447048124</v>
+        <v>34.1051469813377</v>
       </c>
       <c r="G49">
-        <v>16.9463049900563</v>
+        <v>16.9463091887906</v>
       </c>
       <c r="H49">
-        <v>5.49081324206701</v>
+        <v>5.49081293544106</v>
       </c>
       <c r="I49">
-        <v>9.418270365996991</v>
+        <v>9.41827041119851</v>
       </c>
       <c r="J49">
-        <v>22.0355957926245</v>
+        <v>22.0355930069578</v>
       </c>
       <c r="K49">
-        <v>9.5803685736361</v>
+        <v>9.580368066356281</v>
       </c>
       <c r="L49">
-        <v>4.79851313386701</v>
+        <v>4.7985131683095</v>
       </c>
       <c r="M49">
-        <v>7.80429339290863</v>
+        <v>7.8042934434358</v>
       </c>
       <c r="N49">
-        <v>4.83987037620063</v>
+        <v>4.83987065896193</v>
       </c>
       <c r="O49">
-        <v>606.9964670481839</v>
+        <v>606.996487194141</v>
       </c>
       <c r="P49">
-        <v>9.67825371795672</v>
+        <v>9.678253993831371</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1000.74087231162</v>
+        <v>1000.74072684121</v>
       </c>
       <c r="C50">
-        <v>90.0099542326325</v>
+        <v>90.0099396714859</v>
       </c>
       <c r="D50">
-        <v>10.1819293006756</v>
+        <v>10.1819278346505</v>
       </c>
       <c r="E50">
-        <v>131.955374860309</v>
+        <v>131.955670766602</v>
       </c>
       <c r="F50">
-        <v>4.40731926194103</v>
+        <v>4.40731304292922</v>
       </c>
       <c r="G50">
-        <v>21.5660267411229</v>
+        <v>21.5660262314134</v>
       </c>
       <c r="H50">
-        <v>37.306516964585</v>
+        <v>37.306737501811</v>
       </c>
       <c r="I50">
-        <v>21.9151027152787</v>
+        <v>21.915105050253</v>
       </c>
       <c r="J50">
-        <v>114.288247218406</v>
+        <v>114.28837000573</v>
       </c>
       <c r="K50">
-        <v>123.579494068705</v>
+        <v>123.579499763213</v>
       </c>
       <c r="L50">
-        <v>84.49135429598211</v>
+        <v>84.49183142289471</v>
       </c>
       <c r="M50">
-        <v>48.9618372392033</v>
+        <v>48.9618354868699</v>
       </c>
       <c r="N50">
-        <v>69.0166047636764</v>
+        <v>69.0166043798193</v>
       </c>
       <c r="O50">
-        <v>1895.54143665812</v>
+        <v>1895.54148814618</v>
       </c>
       <c r="P50">
-        <v>136.949326086744</v>
+        <v>136.949307591834</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>102.010940715634</v>
+        <v>102.010884606508</v>
       </c>
       <c r="C51">
-        <v>1.48641324042074</v>
+        <v>1.4864110388683</v>
       </c>
       <c r="D51">
-        <v>0.549827253239673</v>
+        <v>0.549826567915813</v>
       </c>
       <c r="E51">
-        <v>1.82116021100414</v>
+        <v>1.82129102705149</v>
       </c>
       <c r="F51">
-        <v>24.2460878527584</v>
+        <v>24.2460844751734</v>
       </c>
       <c r="G51">
-        <v>2.27249589696597</v>
+        <v>2.27249631356316</v>
       </c>
       <c r="H51">
-        <v>0.320203584553521</v>
+        <v>0.317301054689828</v>
       </c>
       <c r="I51">
-        <v>0.814772441165003</v>
+        <v>0.814772243149075</v>
       </c>
       <c r="J51">
-        <v>1.78620790578585</v>
+        <v>1.78625370591146</v>
       </c>
       <c r="K51">
-        <v>0.996666601637859</v>
+        <v>0.99666657955296</v>
       </c>
       <c r="L51">
-        <v>0.501491320782666</v>
+        <v>0.501716868741798</v>
       </c>
       <c r="M51">
-        <v>0.940712656253801</v>
+        <v>0.940712053149664</v>
       </c>
       <c r="N51">
-        <v>1.6372004598346</v>
+        <v>1.63714966187816</v>
       </c>
       <c r="O51">
-        <v>192.083819725898</v>
+        <v>192.083618910183</v>
       </c>
       <c r="P51">
-        <v>14.6648526698888</v>
+        <v>14.6648514606004</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_1999.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_1999.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1169.80658334613</v>
+        <v>1155.90748771602</v>
       </c>
       <c r="C2">
-        <v>40.3885177371109</v>
+        <v>42.5518281165067</v>
       </c>
       <c r="D2">
-        <v>92.07100683174269</v>
+        <v>85.6491836812769</v>
       </c>
       <c r="E2">
-        <v>68.4961355440167</v>
+        <v>68.81797049805959</v>
       </c>
       <c r="F2">
-        <v>15.8527735903268</v>
+        <v>15.3292926268959</v>
       </c>
       <c r="G2">
-        <v>22.1616100282479</v>
+        <v>23.6467315157155</v>
       </c>
       <c r="H2">
-        <v>24.7956361518259</v>
+        <v>24.6424681408457</v>
       </c>
       <c r="I2">
-        <v>14.5473837908715</v>
+        <v>14.3040110169016</v>
       </c>
       <c r="J2">
-        <v>73.7966911823771</v>
+        <v>71.74352964427089</v>
       </c>
       <c r="K2">
-        <v>25.5405741319049</v>
+        <v>26.9991765463656</v>
       </c>
       <c r="L2">
-        <v>37.187497507836</v>
+        <v>33.5312994362337</v>
       </c>
       <c r="M2">
-        <v>38.8907647569356</v>
+        <v>42.7861239973732</v>
       </c>
       <c r="N2">
-        <v>30.9597868075987</v>
+        <v>32.3365875210218</v>
       </c>
       <c r="O2">
-        <v>1445.40119399736</v>
+        <v>1463.42846971546</v>
       </c>
       <c r="P2">
-        <v>50.7103446417472</v>
+        <v>49.9705833731624</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>124.357550472118</v>
+        <v>124.13982065645</v>
       </c>
       <c r="C3">
-        <v>5.84370033476064</v>
+        <v>5.93322455567343</v>
       </c>
       <c r="D3">
-        <v>0.532784308889151</v>
+        <v>0.465192664940686</v>
       </c>
       <c r="E3">
-        <v>1.67726037209228</v>
+        <v>1.58848431825929</v>
       </c>
       <c r="F3">
-        <v>9.65195306873</v>
+        <v>10.1068682646592</v>
       </c>
       <c r="G3">
-        <v>0.49641180029835</v>
+        <v>0.479474569053615</v>
       </c>
       <c r="H3">
-        <v>0.182884941233513</v>
+        <v>0.16336366977054</v>
       </c>
       <c r="I3">
-        <v>0.185514054694753</v>
+        <v>0.233525542226655</v>
       </c>
       <c r="J3">
-        <v>0.541151839499823</v>
+        <v>0.908501083371814</v>
       </c>
       <c r="K3">
-        <v>0.4015671202925</v>
+        <v>0.330939710350803</v>
       </c>
       <c r="L3">
-        <v>0.326647535925599</v>
+        <v>0.450050260865235</v>
       </c>
       <c r="M3">
-        <v>1.12982931393969</v>
+        <v>1.10903121344896</v>
       </c>
       <c r="N3">
-        <v>0.731585279185888</v>
+        <v>0.547480059528962</v>
       </c>
       <c r="O3">
-        <v>249.322956221572</v>
+        <v>250.057100875365</v>
       </c>
       <c r="P3">
-        <v>10.7077622567879</v>
+        <v>10.4167249204277</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1270.67089668933</v>
+        <v>1270.0299312172</v>
       </c>
       <c r="C4">
-        <v>15.1623739767493</v>
+        <v>16.5725577514139</v>
       </c>
       <c r="D4">
-        <v>11.9891329728222</v>
+        <v>11.1018116763272</v>
       </c>
       <c r="E4">
-        <v>17.3651171933868</v>
+        <v>21.6157539453895</v>
       </c>
       <c r="F4">
-        <v>20.7556994966667</v>
+        <v>21.0762153673323</v>
       </c>
       <c r="G4">
-        <v>13.9531447490499</v>
+        <v>14.3827241404247</v>
       </c>
       <c r="H4">
-        <v>8.18838299524197</v>
+        <v>6.27622190516132</v>
       </c>
       <c r="I4">
-        <v>6.96783528534483</v>
+        <v>7.39607496030093</v>
       </c>
       <c r="J4">
-        <v>26.028780260979</v>
+        <v>22.9605302662463</v>
       </c>
       <c r="K4">
-        <v>9.26796696256198</v>
+        <v>13.8667983485207</v>
       </c>
       <c r="L4">
-        <v>92.7044380303486</v>
+        <v>89.6453005757415</v>
       </c>
       <c r="M4">
-        <v>56.822348883009</v>
+        <v>60.7505952133282</v>
       </c>
       <c r="N4">
-        <v>21.9870184580025</v>
+        <v>23.2888172353501</v>
       </c>
       <c r="O4">
-        <v>1930.94275110412</v>
+        <v>1926.85990817774</v>
       </c>
       <c r="P4">
-        <v>36.1800011856351</v>
+        <v>36.1169318801539</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>687.25015946441</v>
+        <v>684.321206264305</v>
       </c>
       <c r="C5">
-        <v>59.1193920169989</v>
+        <v>60.7011239459622</v>
       </c>
       <c r="D5">
-        <v>14.904776222328</v>
+        <v>16.5602844728313</v>
       </c>
       <c r="E5">
-        <v>45.0638230118399</v>
+        <v>44.6121560833013</v>
       </c>
       <c r="F5">
-        <v>4.51217689412204</v>
+        <v>5.95437063899369</v>
       </c>
       <c r="G5">
-        <v>14.7894579246355</v>
+        <v>13.6308813801756</v>
       </c>
       <c r="H5">
-        <v>15.591629581667</v>
+        <v>16.0047669532262</v>
       </c>
       <c r="I5">
-        <v>7.49840238964256</v>
+        <v>6.77103546936564</v>
       </c>
       <c r="J5">
-        <v>39.1073759720611</v>
+        <v>36.6247396877504</v>
       </c>
       <c r="K5">
-        <v>26.1747652953947</v>
+        <v>25.8816468790771</v>
       </c>
       <c r="L5">
-        <v>23.3549962188541</v>
+        <v>23.7854879952975</v>
       </c>
       <c r="M5">
-        <v>20.552603737132</v>
+        <v>20.3284459132498</v>
       </c>
       <c r="N5">
-        <v>19.1841566450878</v>
+        <v>19.4943331631262</v>
       </c>
       <c r="O5">
-        <v>827.823373580546</v>
+        <v>834.239538551086</v>
       </c>
       <c r="P5">
-        <v>64.5721176168867</v>
+        <v>61.1178698596417</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>8232.892281271241</v>
+        <v>8180.58129993061</v>
       </c>
       <c r="C6">
-        <v>214.493928974541</v>
+        <v>226.021036302625</v>
       </c>
       <c r="D6">
-        <v>246.958026561414</v>
+        <v>243.202889156251</v>
       </c>
       <c r="E6">
-        <v>145.285030028191</v>
+        <v>135.008823461821</v>
       </c>
       <c r="F6">
-        <v>49.6138233646019</v>
+        <v>52.2351540978841</v>
       </c>
       <c r="G6">
-        <v>108.258897788129</v>
+        <v>112.10418623004</v>
       </c>
       <c r="H6">
-        <v>69.1853109948791</v>
+        <v>67.58721866810031</v>
       </c>
       <c r="I6">
-        <v>55.0399928723042</v>
+        <v>58.9928782932245</v>
       </c>
       <c r="J6">
-        <v>195.646619743145</v>
+        <v>197.494545138821</v>
       </c>
       <c r="K6">
-        <v>138.445614457053</v>
+        <v>138.215098993353</v>
       </c>
       <c r="L6">
-        <v>583.244798520158</v>
+        <v>592.309740581594</v>
       </c>
       <c r="M6">
-        <v>321.024768538684</v>
+        <v>309.145083396598</v>
       </c>
       <c r="N6">
-        <v>303.848098744927</v>
+        <v>312.718852331678</v>
       </c>
       <c r="O6">
-        <v>12463.5613454583</v>
+        <v>12536.1790878006</v>
       </c>
       <c r="P6">
-        <v>323.342578320321</v>
+        <v>316.14145987825</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>825.7879441115369</v>
+        <v>827.507782466098</v>
       </c>
       <c r="C7">
-        <v>33.9039818193791</v>
+        <v>36.8803412713503</v>
       </c>
       <c r="D7">
-        <v>5.87593414137867</v>
+        <v>6.35797216532079</v>
       </c>
       <c r="E7">
-        <v>19.7719575551981</v>
+        <v>18.3213172652257</v>
       </c>
       <c r="F7">
-        <v>18.6855187512718</v>
+        <v>21.8615979506178</v>
       </c>
       <c r="G7">
-        <v>10.1491164618991</v>
+        <v>10.1141884603223</v>
       </c>
       <c r="H7">
-        <v>9.442473396592479</v>
+        <v>8.114004771371761</v>
       </c>
       <c r="I7">
-        <v>11.5870572800848</v>
+        <v>10.9842281216013</v>
       </c>
       <c r="J7">
-        <v>18.0240144703635</v>
+        <v>19.5383027764453</v>
       </c>
       <c r="K7">
-        <v>17.2674845978249</v>
+        <v>20.9789828296881</v>
       </c>
       <c r="L7">
-        <v>68.27284611371731</v>
+        <v>73.39344844072861</v>
       </c>
       <c r="M7">
-        <v>20.8757030116514</v>
+        <v>19.3812768646707</v>
       </c>
       <c r="N7">
-        <v>28.1445470951437</v>
+        <v>29.0561443129126</v>
       </c>
       <c r="O7">
-        <v>1895.02647963785</v>
+        <v>1891.85264894205</v>
       </c>
       <c r="P7">
-        <v>39.8181376986202</v>
+        <v>43.5251795552418</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>728.975428976144</v>
+        <v>725.82448550622</v>
       </c>
       <c r="C8">
-        <v>16.5858890469144</v>
+        <v>13.045287811315</v>
       </c>
       <c r="D8">
-        <v>9.3143155642025</v>
+        <v>8.795138314000949</v>
       </c>
       <c r="E8">
-        <v>23.5987317308589</v>
+        <v>23.0422033518841</v>
       </c>
       <c r="F8">
-        <v>0.944301387837727</v>
+        <v>0.9502356434435481</v>
       </c>
       <c r="G8">
-        <v>29.7623830229073</v>
+        <v>27.6397749163253</v>
       </c>
       <c r="H8">
-        <v>12.2101443260948</v>
+        <v>11.7631671234572</v>
       </c>
       <c r="I8">
-        <v>2.92599322503371</v>
+        <v>3.16623457036267</v>
       </c>
       <c r="J8">
-        <v>52.4038373563136</v>
+        <v>50.0810363525876</v>
       </c>
       <c r="K8">
-        <v>36.6602005077404</v>
+        <v>35.3251571772438</v>
       </c>
       <c r="L8">
-        <v>41.6288562191887</v>
+        <v>39.7978433676137</v>
       </c>
       <c r="M8">
-        <v>66.0074474003907</v>
+        <v>64.194025196173</v>
       </c>
       <c r="N8">
-        <v>30.5108293012019</v>
+        <v>31.1942649949048</v>
       </c>
       <c r="O8">
-        <v>1351.8426376654</v>
+        <v>1369.39289312655</v>
       </c>
       <c r="P8">
-        <v>7.46673525326738</v>
+        <v>7.6748594833174</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>170.215458422665</v>
+        <v>168.076966978008</v>
       </c>
       <c r="C9">
-        <v>10.0468652364138</v>
+        <v>9.36316598759586</v>
       </c>
       <c r="D9">
-        <v>2.02897377985051</v>
+        <v>2.06681665294493</v>
       </c>
       <c r="E9">
-        <v>5.28643761112095</v>
+        <v>4.90027695703681</v>
       </c>
       <c r="F9">
-        <v>2.37088233168719</v>
+        <v>2.34309123893235</v>
       </c>
       <c r="G9">
-        <v>22.8367023051447</v>
+        <v>22.5041199675104</v>
       </c>
       <c r="H9">
-        <v>4.26282014598123</v>
+        <v>3.77829176627828</v>
       </c>
       <c r="I9">
-        <v>0.281512270681961</v>
+        <v>0.682018248730845</v>
       </c>
       <c r="J9">
-        <v>3.08258588222266</v>
+        <v>3.50930497284795</v>
       </c>
       <c r="K9">
-        <v>3.66884021751272</v>
+        <v>3.52046588950351</v>
       </c>
       <c r="L9">
-        <v>2.001033817619</v>
+        <v>1.99900134608019</v>
       </c>
       <c r="M9">
-        <v>7.97241312033409</v>
+        <v>7.45478995312183</v>
       </c>
       <c r="N9">
-        <v>4.53573231878199</v>
+        <v>4.5903437215371</v>
       </c>
       <c r="O9">
-        <v>307.183378108415</v>
+        <v>310.045584055496</v>
       </c>
       <c r="P9">
-        <v>4.97966343686703</v>
+        <v>4.96099009126937</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4261.93801809132</v>
+        <v>4247.01224733223</v>
       </c>
       <c r="C10">
-        <v>54.3653476820336</v>
+        <v>51.9189114423029</v>
       </c>
       <c r="D10">
-        <v>44.2096717488047</v>
+        <v>44.9749274584861</v>
       </c>
       <c r="E10">
-        <v>66.290476818692</v>
+        <v>61.1163055607174</v>
       </c>
       <c r="F10">
-        <v>11.9688221140249</v>
+        <v>12.376635699315</v>
       </c>
       <c r="G10">
-        <v>47.2010744156521</v>
+        <v>47.1561051150154</v>
       </c>
       <c r="H10">
-        <v>21.2747578751097</v>
+        <v>20.6366030988897</v>
       </c>
       <c r="I10">
-        <v>29.1825996772191</v>
+        <v>29.5552299488828</v>
       </c>
       <c r="J10">
-        <v>47.9641509293239</v>
+        <v>49.1327351469161</v>
       </c>
       <c r="K10">
-        <v>48.0134881982321</v>
+        <v>46.1581656339009</v>
       </c>
       <c r="L10">
-        <v>117.009040075187</v>
+        <v>119.246312724892</v>
       </c>
       <c r="M10">
-        <v>90.75917372655751</v>
+        <v>92.267547909103</v>
       </c>
       <c r="N10">
-        <v>107.003843243042</v>
+        <v>107.934834921247</v>
       </c>
       <c r="O10">
-        <v>6466.94024178293</v>
+        <v>6486.46873200435</v>
       </c>
       <c r="P10">
-        <v>102.010465756654</v>
+        <v>94.14922009304421</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1786.44386673282</v>
+        <v>1775.65065432996</v>
       </c>
       <c r="C11">
-        <v>75.19734747968521</v>
+        <v>75.99455717885439</v>
       </c>
       <c r="D11">
-        <v>164.98304509186</v>
+        <v>162.464172478673</v>
       </c>
       <c r="E11">
-        <v>110.445592208079</v>
+        <v>103.435282077454</v>
       </c>
       <c r="F11">
-        <v>13.3020597424875</v>
+        <v>12.8540001728789</v>
       </c>
       <c r="G11">
-        <v>47.7107908711939</v>
+        <v>44.5863949980092</v>
       </c>
       <c r="H11">
-        <v>26.4193049630904</v>
+        <v>32.2797898103184</v>
       </c>
       <c r="I11">
-        <v>24.9867898050001</v>
+        <v>24.7459036380201</v>
       </c>
       <c r="J11">
-        <v>50.2676238852541</v>
+        <v>52.4821322060096</v>
       </c>
       <c r="K11">
-        <v>53.4375009592185</v>
+        <v>53.6028549666202</v>
       </c>
       <c r="L11">
-        <v>67.67502020982781</v>
+        <v>70.6679819076315</v>
       </c>
       <c r="M11">
-        <v>70.5773098622238</v>
+        <v>75.8367011096253</v>
       </c>
       <c r="N11">
-        <v>59.4669945000274</v>
+        <v>58.9642840610286</v>
       </c>
       <c r="O11">
-        <v>3066.06232890034</v>
+        <v>3069.44433803004</v>
       </c>
       <c r="P11">
-        <v>58.3856895226025</v>
+        <v>54.293953164181</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>293.898518031205</v>
+        <v>290.01577744885</v>
       </c>
       <c r="C12">
-        <v>8.243548149700841</v>
+        <v>7.50266699596209</v>
       </c>
       <c r="D12">
-        <v>4.9511105629907</v>
+        <v>4.74590898940546</v>
       </c>
       <c r="E12">
-        <v>1.35025506932098</v>
+        <v>2.5631536257844</v>
       </c>
       <c r="F12">
-        <v>0.7203029963900101</v>
+        <v>0.667711605295335</v>
       </c>
       <c r="G12">
-        <v>1.16756830833161</v>
+        <v>1.04704191783243</v>
       </c>
       <c r="H12">
-        <v>0.9298496055566951</v>
+        <v>0.709561319468104</v>
       </c>
       <c r="I12">
-        <v>1.45202371101633</v>
+        <v>1.31144573207453</v>
       </c>
       <c r="J12">
-        <v>0.822372464066726</v>
+        <v>0.996819184412412</v>
       </c>
       <c r="K12">
-        <v>0.635673116210003</v>
+        <v>0.822923251893628</v>
       </c>
       <c r="L12">
-        <v>1.96716634747312</v>
+        <v>1.91893121096981</v>
       </c>
       <c r="M12">
-        <v>3.70688386938709</v>
+        <v>3.74388966137734</v>
       </c>
       <c r="N12">
-        <v>2.77272261386823</v>
+        <v>3.25864856466091</v>
       </c>
       <c r="O12">
-        <v>510.58830439622</v>
+        <v>511.773522861485</v>
       </c>
       <c r="P12">
-        <v>20.399954668965</v>
+        <v>18.5095317359322</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>280.19895813844</v>
+        <v>279.570245472812</v>
       </c>
       <c r="C13">
-        <v>26.6074252997116</v>
+        <v>26.4132144918427</v>
       </c>
       <c r="D13">
-        <v>2.47475253553602</v>
+        <v>2.11914084329854</v>
       </c>
       <c r="E13">
-        <v>20.4860825714956</v>
+        <v>18.9164006850812</v>
       </c>
       <c r="F13">
-        <v>6.53958762401606</v>
+        <v>5.59410636599248</v>
       </c>
       <c r="G13">
-        <v>5.32272344029195</v>
+        <v>5.67304104020605</v>
       </c>
       <c r="H13">
-        <v>2.27741464948492</v>
+        <v>2.12610525693736</v>
       </c>
       <c r="I13">
-        <v>1.86903099020986</v>
+        <v>2.12481324134198</v>
       </c>
       <c r="J13">
-        <v>4.97448619541873</v>
+        <v>4.97420107773667</v>
       </c>
       <c r="K13">
-        <v>2.95353009081102</v>
+        <v>2.95228575952579</v>
       </c>
       <c r="L13">
-        <v>21.1829026760906</v>
+        <v>22.7636983314187</v>
       </c>
       <c r="M13">
-        <v>4.88119655566553</v>
+        <v>4.5459166421022</v>
       </c>
       <c r="N13">
-        <v>7.27128597698296</v>
+        <v>7.13495957134708</v>
       </c>
       <c r="O13">
-        <v>462.372722075598</v>
+        <v>463.812475658323</v>
       </c>
       <c r="P13">
-        <v>42.3427940116002</v>
+        <v>42.8829915304118</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2685.94820263025</v>
+        <v>2674.67041221932</v>
       </c>
       <c r="C14">
-        <v>114.826256380769</v>
+        <v>112.25845241948</v>
       </c>
       <c r="D14">
-        <v>20.5048258399779</v>
+        <v>18.7421963458165</v>
       </c>
       <c r="E14">
-        <v>97.4564215711507</v>
+        <v>96.6663828654266</v>
       </c>
       <c r="F14">
-        <v>25.3537323210084</v>
+        <v>27.3293323880705</v>
       </c>
       <c r="G14">
-        <v>99.6915524478008</v>
+        <v>96.4354357077422</v>
       </c>
       <c r="H14">
-        <v>64.8498081155292</v>
+        <v>66.8895346612815</v>
       </c>
       <c r="I14">
-        <v>32.0190545531076</v>
+        <v>32.2328129267682</v>
       </c>
       <c r="J14">
-        <v>186.56507540075</v>
+        <v>186.333611126867</v>
       </c>
       <c r="K14">
-        <v>181.383652675082</v>
+        <v>185.343836838617</v>
       </c>
       <c r="L14">
-        <v>172.392554929164</v>
+        <v>172.513452603414</v>
       </c>
       <c r="M14">
-        <v>100.500818683141</v>
+        <v>103.305989564246</v>
       </c>
       <c r="N14">
-        <v>103.009334712207</v>
+        <v>109.96666181027</v>
       </c>
       <c r="O14">
-        <v>4791.53838045126</v>
+        <v>4797.67540343431</v>
       </c>
       <c r="P14">
-        <v>84.47770459145011</v>
+        <v>85.3333388854291</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1298.89712551691</v>
+        <v>1283.18538417007</v>
       </c>
       <c r="C15">
-        <v>42.6477853907428</v>
+        <v>38.3404509569308</v>
       </c>
       <c r="D15">
-        <v>15.2714163434774</v>
+        <v>15.7225984493849</v>
       </c>
       <c r="E15">
-        <v>67.75959999207539</v>
+        <v>67.9377693931132</v>
       </c>
       <c r="F15">
-        <v>13.3585056344745</v>
+        <v>12.5481245237197</v>
       </c>
       <c r="G15">
-        <v>47.3609768903868</v>
+        <v>47.6810000883377</v>
       </c>
       <c r="H15">
-        <v>52.3488624316659</v>
+        <v>53.5148624276557</v>
       </c>
       <c r="I15">
-        <v>33.0650861540076</v>
+        <v>30.8895076977699</v>
       </c>
       <c r="J15">
-        <v>177.830627087415</v>
+        <v>174.228119883896</v>
       </c>
       <c r="K15">
-        <v>89.68634772104031</v>
+        <v>93.7939005628178</v>
       </c>
       <c r="L15">
-        <v>83.86504250720751</v>
+        <v>75.54191973360329</v>
       </c>
       <c r="M15">
-        <v>187.31955532459</v>
+        <v>185.831631267017</v>
       </c>
       <c r="N15">
-        <v>70.9075376341622</v>
+        <v>80.3532005541135</v>
       </c>
       <c r="O15">
-        <v>2076.37048450973</v>
+        <v>2079.64940757015</v>
       </c>
       <c r="P15">
-        <v>38.5766102652578</v>
+        <v>44.2306992129769</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>534.497201078873</v>
+        <v>532.650307134125</v>
       </c>
       <c r="C16">
-        <v>60.6773452999063</v>
+        <v>65.529432065739</v>
       </c>
       <c r="D16">
-        <v>10.9382309349508</v>
+        <v>11.277008985418</v>
       </c>
       <c r="E16">
-        <v>25.8928939480104</v>
+        <v>21.77183171631</v>
       </c>
       <c r="F16">
-        <v>4.00502017666425</v>
+        <v>4.03774041708282</v>
       </c>
       <c r="G16">
-        <v>13.841937975177</v>
+        <v>12.7966339871533</v>
       </c>
       <c r="H16">
-        <v>14.9254448806247</v>
+        <v>17.3898679319101</v>
       </c>
       <c r="I16">
-        <v>14.8260023763905</v>
+        <v>12.6843219596077</v>
       </c>
       <c r="J16">
-        <v>48.1118499969667</v>
+        <v>50.7500046436628</v>
       </c>
       <c r="K16">
-        <v>49.6377603292954</v>
+        <v>48.9745822618077</v>
       </c>
       <c r="L16">
-        <v>38.5470764804919</v>
+        <v>40.8463720051137</v>
       </c>
       <c r="M16">
-        <v>23.5437084187309</v>
+        <v>24.2253761450492</v>
       </c>
       <c r="N16">
-        <v>23.3705194515426</v>
+        <v>24.3546264813168</v>
       </c>
       <c r="O16">
-        <v>1116.19282014054</v>
+        <v>1112.93134737563</v>
       </c>
       <c r="P16">
-        <v>84.27738126017771</v>
+        <v>84.60494637368061</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>523.9677234865291</v>
+        <v>527.985799706767</v>
       </c>
       <c r="C17">
-        <v>31.6078104836265</v>
+        <v>32.7162529751404</v>
       </c>
       <c r="D17">
-        <v>6.44760958203473</v>
+        <v>6.46080743344533</v>
       </c>
       <c r="E17">
-        <v>15.2421712026926</v>
+        <v>16.6856804913797</v>
       </c>
       <c r="F17">
-        <v>15.070586464942</v>
+        <v>15.8700208020937</v>
       </c>
       <c r="G17">
-        <v>11.9034617764983</v>
+        <v>13.5720929329116</v>
       </c>
       <c r="H17">
-        <v>15.2933140829635</v>
+        <v>15.2125953362325</v>
       </c>
       <c r="I17">
-        <v>8.09642484671244</v>
+        <v>6.72628819144011</v>
       </c>
       <c r="J17">
-        <v>21.3341280234123</v>
+        <v>22.3507499653717</v>
       </c>
       <c r="K17">
-        <v>27.3375583110808</v>
+        <v>25.8996013051531</v>
       </c>
       <c r="L17">
-        <v>16.5827479895797</v>
+        <v>18.810595380907</v>
       </c>
       <c r="M17">
-        <v>74.96759397989371</v>
+        <v>80.1030380307501</v>
       </c>
       <c r="N17">
-        <v>17.1003450757004</v>
+        <v>15.6292961282159</v>
       </c>
       <c r="O17">
-        <v>1023.69026784869</v>
+        <v>1007.38774074012</v>
       </c>
       <c r="P17">
-        <v>73.447884377626</v>
+        <v>71.97833817211151</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1046.90985586985</v>
+        <v>1050.0165630308</v>
       </c>
       <c r="C18">
-        <v>34.9148626931801</v>
+        <v>31.5279628539996</v>
       </c>
       <c r="D18">
-        <v>30.8559831873363</v>
+        <v>28.9226206607104</v>
       </c>
       <c r="E18">
-        <v>42.2597339784343</v>
+        <v>41.2881898675767</v>
       </c>
       <c r="F18">
-        <v>35.5687835241003</v>
+        <v>34.7258149545363</v>
       </c>
       <c r="G18">
-        <v>29.0926859055207</v>
+        <v>28.7029749361716</v>
       </c>
       <c r="H18">
-        <v>24.6241004614492</v>
+        <v>25.2723284921006</v>
       </c>
       <c r="I18">
-        <v>8.99702151646361</v>
+        <v>11.9579405738242</v>
       </c>
       <c r="J18">
-        <v>45.5368778916199</v>
+        <v>46.1004859018471</v>
       </c>
       <c r="K18">
-        <v>39.9570910203189</v>
+        <v>40.800079824706</v>
       </c>
       <c r="L18">
-        <v>48.7858612671896</v>
+        <v>43.8056233429995</v>
       </c>
       <c r="M18">
-        <v>65.5967742773497</v>
+        <v>65.6516084871913</v>
       </c>
       <c r="N18">
-        <v>29.1529256621694</v>
+        <v>27.9657142298688</v>
       </c>
       <c r="O18">
-        <v>1369.58836746886</v>
+        <v>1375.2617857225</v>
       </c>
       <c r="P18">
-        <v>43.2015391353503</v>
+        <v>40.7325136979494</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1169.84263248826</v>
+        <v>1182.62452100269</v>
       </c>
       <c r="C19">
-        <v>24.9744077020973</v>
+        <v>23.1994517142424</v>
       </c>
       <c r="D19">
-        <v>18.1765021441543</v>
+        <v>15.3738932396323</v>
       </c>
       <c r="E19">
-        <v>39.9592053458883</v>
+        <v>39.4282593653923</v>
       </c>
       <c r="F19">
-        <v>71.5988245375582</v>
+        <v>72.4370890081664</v>
       </c>
       <c r="G19">
-        <v>43.7801778395548</v>
+        <v>45.5863230874482</v>
       </c>
       <c r="H19">
-        <v>6.01946960267989</v>
+        <v>6.88043947943602</v>
       </c>
       <c r="I19">
-        <v>7.62535084935924</v>
+        <v>7.51411183803995</v>
       </c>
       <c r="J19">
-        <v>20.0429550791438</v>
+        <v>17.9785512561699</v>
       </c>
       <c r="K19">
-        <v>12.7177976615325</v>
+        <v>14.3752530249318</v>
       </c>
       <c r="L19">
-        <v>12.3119784690176</v>
+        <v>10.503556545512</v>
       </c>
       <c r="M19">
-        <v>27.5400091411257</v>
+        <v>32.5059139672898</v>
       </c>
       <c r="N19">
-        <v>13.0955583296096</v>
+        <v>12.2973050935925</v>
       </c>
       <c r="O19">
-        <v>1571.13499494794</v>
+        <v>1562.25549152341</v>
       </c>
       <c r="P19">
-        <v>40.5124765910107</v>
+        <v>40.2543151946458</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>293.462226718812</v>
+        <v>290.372216376173</v>
       </c>
       <c r="C20">
-        <v>8.136679022963319</v>
+        <v>7.77353841812932</v>
       </c>
       <c r="D20">
-        <v>16.900823338119</v>
+        <v>18.2185590551544</v>
       </c>
       <c r="E20">
-        <v>34.1762832231737</v>
+        <v>34.2369115160832</v>
       </c>
       <c r="F20">
-        <v>0.262736919583967</v>
+        <v>0.263208742621594</v>
       </c>
       <c r="G20">
-        <v>1.86580323374386</v>
+        <v>1.71712184102401</v>
       </c>
       <c r="H20">
-        <v>3.26320887260769</v>
+        <v>3.25832879562404</v>
       </c>
       <c r="I20">
-        <v>1.16652059529631</v>
+        <v>1.22596158637976</v>
       </c>
       <c r="J20">
-        <v>6.76899755831113</v>
+        <v>7.78140947962672</v>
       </c>
       <c r="K20">
-        <v>5.43412612273316</v>
+        <v>5.42819884800172</v>
       </c>
       <c r="L20">
-        <v>10.5816586169763</v>
+        <v>9.232300658611541</v>
       </c>
       <c r="M20">
-        <v>17.8295781656015</v>
+        <v>17.0902925193104</v>
       </c>
       <c r="N20">
-        <v>5.83772438809814</v>
+        <v>5.77512776688749</v>
       </c>
       <c r="O20">
-        <v>490.126263035197</v>
+        <v>492.797688231353</v>
       </c>
       <c r="P20">
-        <v>24.3481526101184</v>
+        <v>24.4687798919781</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1077.43121718162</v>
+        <v>1069.4705960726</v>
       </c>
       <c r="C21">
-        <v>30.9005883930164</v>
+        <v>26.9859812029134</v>
       </c>
       <c r="D21">
-        <v>13.9377192521587</v>
+        <v>15.1215551969442</v>
       </c>
       <c r="E21">
-        <v>33.9219116552185</v>
+        <v>33.3761609226067</v>
       </c>
       <c r="F21">
-        <v>5.08979131604493</v>
+        <v>4.74684894081636</v>
       </c>
       <c r="G21">
-        <v>13.7503524687969</v>
+        <v>18.596654982032</v>
       </c>
       <c r="H21">
-        <v>21.2858683879468</v>
+        <v>17.8342769480457</v>
       </c>
       <c r="I21">
-        <v>9.455918664646511</v>
+        <v>6.47747115155455</v>
       </c>
       <c r="J21">
-        <v>16.3584745478528</v>
+        <v>19.6641942758974</v>
       </c>
       <c r="K21">
-        <v>17.6468651105093</v>
+        <v>21.6885207166019</v>
       </c>
       <c r="L21">
-        <v>39.1128742458654</v>
+        <v>34.5154945870962</v>
       </c>
       <c r="M21">
-        <v>38.1832719064899</v>
+        <v>39.8162306766658</v>
       </c>
       <c r="N21">
-        <v>19.4497638815289</v>
+        <v>16.6702548685866</v>
       </c>
       <c r="O21">
-        <v>2366.48313856001</v>
+        <v>2381.27963246908</v>
       </c>
       <c r="P21">
-        <v>19.5951567901529</v>
+        <v>19.9326403241562</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1339.50945838194</v>
+        <v>1327.62299552956</v>
       </c>
       <c r="C22">
-        <v>25.8848726950015</v>
+        <v>24.0742650768671</v>
       </c>
       <c r="D22">
-        <v>37.5185377346484</v>
+        <v>36.5969490062855</v>
       </c>
       <c r="E22">
-        <v>38.3763942206816</v>
+        <v>39.3192683199679</v>
       </c>
       <c r="F22">
-        <v>2.78280244358686</v>
+        <v>2.89086647628153</v>
       </c>
       <c r="G22">
-        <v>27.0865203174987</v>
+        <v>26.4489974301897</v>
       </c>
       <c r="H22">
-        <v>29.0193001558003</v>
+        <v>28.7074338415236</v>
       </c>
       <c r="I22">
-        <v>11.1006072204702</v>
+        <v>12.0512635792135</v>
       </c>
       <c r="J22">
-        <v>60.6489028790574</v>
+        <v>59.916992700201</v>
       </c>
       <c r="K22">
-        <v>45.734587033864</v>
+        <v>45.4328206297474</v>
       </c>
       <c r="L22">
-        <v>133.787231584676</v>
+        <v>125.012269223179</v>
       </c>
       <c r="M22">
-        <v>24.3231049624807</v>
+        <v>23.2081417337602</v>
       </c>
       <c r="N22">
-        <v>81.6535592598425</v>
+        <v>86.22555629395529</v>
       </c>
       <c r="O22">
-        <v>2683.67668177074</v>
+        <v>2712.87568201259</v>
       </c>
       <c r="P22">
-        <v>19.0193885455058</v>
+        <v>18.9726144551501</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2259.4182273964</v>
+        <v>2237.24925665277</v>
       </c>
       <c r="C23">
-        <v>50.4928841279873</v>
+        <v>48.0057562139088</v>
       </c>
       <c r="D23">
-        <v>19.1705032961356</v>
+        <v>18.0687563656199</v>
       </c>
       <c r="E23">
-        <v>65.3386562403839</v>
+        <v>65.7179734221221</v>
       </c>
       <c r="F23">
-        <v>5.61844202833703</v>
+        <v>7.76412143659329</v>
       </c>
       <c r="G23">
-        <v>64.235653828419</v>
+        <v>62.7417299375564</v>
       </c>
       <c r="H23">
-        <v>65.44181220038701</v>
+        <v>64.5625253238551</v>
       </c>
       <c r="I23">
-        <v>22.4878037213956</v>
+        <v>23.9321212691051</v>
       </c>
       <c r="J23">
-        <v>178.171410036847</v>
+        <v>175.021685797056</v>
       </c>
       <c r="K23">
-        <v>132.560804201498</v>
+        <v>140.95006379164</v>
       </c>
       <c r="L23">
-        <v>56.7834088177219</v>
+        <v>57.6844774418885</v>
       </c>
       <c r="M23">
-        <v>532.296328122667</v>
+        <v>532.21408760421</v>
       </c>
       <c r="N23">
-        <v>94.6298170399366</v>
+        <v>91.9845047712969</v>
       </c>
       <c r="O23">
-        <v>3393.20684232216</v>
+        <v>3422.03453745256</v>
       </c>
       <c r="P23">
-        <v>70.8389875777158</v>
+        <v>70.11384841927379</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>865.2024700819441</v>
+        <v>842.796356524924</v>
       </c>
       <c r="C24">
-        <v>71.8871030916098</v>
+        <v>69.80455251447739</v>
       </c>
       <c r="D24">
-        <v>8.20575131611972</v>
+        <v>9.233668568180899</v>
       </c>
       <c r="E24">
-        <v>67.0449432139001</v>
+        <v>61.8610161047064</v>
       </c>
       <c r="F24">
-        <v>18.3692866559402</v>
+        <v>17.5837410080113</v>
       </c>
       <c r="G24">
-        <v>17.392340433467</v>
+        <v>18.7340850014634</v>
       </c>
       <c r="H24">
-        <v>28.9473462299088</v>
+        <v>30.4305732600902</v>
       </c>
       <c r="I24">
-        <v>10.1293207779831</v>
+        <v>11.8542299750312</v>
       </c>
       <c r="J24">
-        <v>58.6710696494283</v>
+        <v>59.3155249288565</v>
       </c>
       <c r="K24">
-        <v>62.1990680083238</v>
+        <v>64.51098366966291</v>
       </c>
       <c r="L24">
-        <v>77.6706726182008</v>
+        <v>78.2366466589957</v>
       </c>
       <c r="M24">
-        <v>22.1242155414529</v>
+        <v>22.8940765365901</v>
       </c>
       <c r="N24">
-        <v>63.5015296511757</v>
+        <v>65.1987582029855</v>
       </c>
       <c r="O24">
-        <v>1964.78982370835</v>
+        <v>1978.34963137788</v>
       </c>
       <c r="P24">
-        <v>120.954113748132</v>
+        <v>125.841533271921</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>735.618794714958</v>
+        <v>742.78519377955</v>
       </c>
       <c r="C25">
-        <v>35.2100873418215</v>
+        <v>35.5422583479333</v>
       </c>
       <c r="D25">
-        <v>28.6337095956052</v>
+        <v>26.7051826627291</v>
       </c>
       <c r="E25">
-        <v>34.4971917647894</v>
+        <v>34.9480514644058</v>
       </c>
       <c r="F25">
-        <v>17.9048983733968</v>
+        <v>16.5719782071363</v>
       </c>
       <c r="G25">
-        <v>12.4161708168332</v>
+        <v>11.239505382851</v>
       </c>
       <c r="H25">
-        <v>16.7514794519602</v>
+        <v>16.3706757696871</v>
       </c>
       <c r="I25">
-        <v>4.9788414886734</v>
+        <v>4.96403898259472</v>
       </c>
       <c r="J25">
-        <v>21.9052002225357</v>
+        <v>21.6206164454553</v>
       </c>
       <c r="K25">
-        <v>18.7810337257313</v>
+        <v>18.3562280955871</v>
       </c>
       <c r="L25">
-        <v>34.1512811485723</v>
+        <v>33.8162412174103</v>
       </c>
       <c r="M25">
-        <v>26.175698469465</v>
+        <v>27.166164726166</v>
       </c>
       <c r="N25">
-        <v>45.9962122237637</v>
+        <v>47.573600205351</v>
       </c>
       <c r="O25">
-        <v>870.789994176729</v>
+        <v>868.1345459641281</v>
       </c>
       <c r="P25">
-        <v>39.5232954219409</v>
+        <v>40.7076741781858</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1216.78329997945</v>
+        <v>1219.08443094606</v>
       </c>
       <c r="C26">
-        <v>61.1430979027072</v>
+        <v>58.7609157124583</v>
       </c>
       <c r="D26">
-        <v>17.8015093079094</v>
+        <v>17.4325328661624</v>
       </c>
       <c r="E26">
-        <v>50.710042657853</v>
+        <v>52.6522077567204</v>
       </c>
       <c r="F26">
-        <v>4.19368549706325</v>
+        <v>3.75041692666702</v>
       </c>
       <c r="G26">
-        <v>35.9260730220993</v>
+        <v>38.9617907698757</v>
       </c>
       <c r="H26">
-        <v>25.5938571118155</v>
+        <v>23.0660803251662</v>
       </c>
       <c r="I26">
-        <v>17.8978653829385</v>
+        <v>15.7648625263643</v>
       </c>
       <c r="J26">
-        <v>63.1871596369294</v>
+        <v>59.2549000039295</v>
       </c>
       <c r="K26">
-        <v>51.9145264204457</v>
+        <v>51.4579779100724</v>
       </c>
       <c r="L26">
-        <v>42.8996152171226</v>
+        <v>53.6992419317954</v>
       </c>
       <c r="M26">
-        <v>88.9123262482079</v>
+        <v>88.6635145067455</v>
       </c>
       <c r="N26">
-        <v>41.4211467801769</v>
+        <v>39.8236408485684</v>
       </c>
       <c r="O26">
-        <v>2151.2842062865</v>
+        <v>2148.98490791069</v>
       </c>
       <c r="P26">
-        <v>73.2335653469229</v>
+        <v>76.276919730773</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>199.076625406625</v>
+        <v>200.744600384505</v>
       </c>
       <c r="C27">
-        <v>3.13701937958451</v>
+        <v>2.90105441120513</v>
       </c>
       <c r="D27">
-        <v>1.53794593580651</v>
+        <v>1.25797615302641</v>
       </c>
       <c r="E27">
-        <v>11.490743191972</v>
+        <v>10.9809619679777</v>
       </c>
       <c r="F27">
-        <v>8.723973979424679</v>
+        <v>8.395725140833489</v>
       </c>
       <c r="G27">
-        <v>0.7684336286479601</v>
+        <v>0.772272084073371</v>
       </c>
       <c r="H27">
-        <v>0.341393470165284</v>
+        <v>0.519160826518464</v>
       </c>
       <c r="I27">
-        <v>1.57305522183479</v>
+        <v>1.32693871394504</v>
       </c>
       <c r="J27">
-        <v>4.45892372388156</v>
+        <v>4.6131384895411</v>
       </c>
       <c r="K27">
-        <v>1.6884546567951</v>
+        <v>1.67183680882689</v>
       </c>
       <c r="L27">
-        <v>1.72485299543346</v>
+        <v>2.04847923182377</v>
       </c>
       <c r="M27">
-        <v>1.1552172356787</v>
+        <v>1.06557326472868</v>
       </c>
       <c r="N27">
-        <v>4.91467001280897</v>
+        <v>4.5777710252635</v>
       </c>
       <c r="O27">
-        <v>355.52241191255</v>
+        <v>351.67174379185</v>
       </c>
       <c r="P27">
-        <v>46.5993348823864</v>
+        <v>45.6170748596869</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>308.062891171096</v>
+        <v>305.662838983048</v>
       </c>
       <c r="C28">
-        <v>33.6708613087766</v>
+        <v>33.9843362381911</v>
       </c>
       <c r="D28">
-        <v>1.98354225040809</v>
+        <v>1.79402013645833</v>
       </c>
       <c r="E28">
-        <v>8.46685480342383</v>
+        <v>7.55203394506621</v>
       </c>
       <c r="F28">
-        <v>1.93947865946416</v>
+        <v>2.10668470894927</v>
       </c>
       <c r="G28">
-        <v>5.30727609246022</v>
+        <v>4.9075560951749</v>
       </c>
       <c r="H28">
-        <v>7.55830522203061</v>
+        <v>7.61485547387417</v>
       </c>
       <c r="I28">
-        <v>4.8628229756396</v>
+        <v>4.78549771839121</v>
       </c>
       <c r="J28">
-        <v>17.8240990062558</v>
+        <v>17.7214099593195</v>
       </c>
       <c r="K28">
-        <v>16.540223475719</v>
+        <v>17.6473216547729</v>
       </c>
       <c r="L28">
-        <v>10.5529105755307</v>
+        <v>12.6243878743702</v>
       </c>
       <c r="M28">
-        <v>8.077688906846319</v>
+        <v>10.060045622811</v>
       </c>
       <c r="N28">
-        <v>11.4057369559657</v>
+        <v>11.2413401190931</v>
       </c>
       <c r="O28">
-        <v>668.959088444833</v>
+        <v>668.205126819076</v>
       </c>
       <c r="P28">
-        <v>90.47536309665129</v>
+        <v>90.7789474154014</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>452.451317127841</v>
+        <v>459.357809269112</v>
       </c>
       <c r="C29">
-        <v>6.55014149872212</v>
+        <v>6.18172200340556</v>
       </c>
       <c r="D29">
-        <v>3.36258543924484</v>
+        <v>2.46515567610891</v>
       </c>
       <c r="E29">
-        <v>5.52056263806955</v>
+        <v>6.38600959262967</v>
       </c>
       <c r="F29">
-        <v>16.930926585493</v>
+        <v>16.7306605890075</v>
       </c>
       <c r="G29">
-        <v>2.25777388659164</v>
+        <v>3.0052642782115</v>
       </c>
       <c r="H29">
-        <v>2.44374595354489</v>
+        <v>2.43045037199739</v>
       </c>
       <c r="I29">
-        <v>4.91278281857887</v>
+        <v>4.6018509258705</v>
       </c>
       <c r="J29">
-        <v>7.18969809029582</v>
+        <v>7.98550749469173</v>
       </c>
       <c r="K29">
-        <v>2.58489831285419</v>
+        <v>3.89262062171539</v>
       </c>
       <c r="L29">
-        <v>5.69769636080658</v>
+        <v>6.12621250839574</v>
       </c>
       <c r="M29">
-        <v>3.0047723755418</v>
+        <v>2.57741991724912</v>
       </c>
       <c r="N29">
-        <v>14.017397307573</v>
+        <v>11.8930636398841</v>
       </c>
       <c r="O29">
-        <v>857.812904172844</v>
+        <v>860.871863638923</v>
       </c>
       <c r="P29">
-        <v>4.80765274064585</v>
+        <v>5.04581011651747</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>235.381821755915</v>
+        <v>226.749084521377</v>
       </c>
       <c r="C30">
-        <v>3.77495016264634</v>
+        <v>4.20704992978002</v>
       </c>
       <c r="D30">
-        <v>5.74920755019004</v>
+        <v>5.41073495737029</v>
       </c>
       <c r="E30">
-        <v>14.6070840533885</v>
+        <v>13.4348310613761</v>
       </c>
       <c r="F30">
-        <v>0.936210644235205</v>
+        <v>0.700780284776182</v>
       </c>
       <c r="G30">
-        <v>5.15705782219808</v>
+        <v>5.03507264803216</v>
       </c>
       <c r="H30">
-        <v>5.89778663222827</v>
+        <v>6.16047089808915</v>
       </c>
       <c r="I30">
-        <v>2.31906107505363</v>
+        <v>2.0069412299088</v>
       </c>
       <c r="J30">
-        <v>19.5892592518846</v>
+        <v>19.5185284570598</v>
       </c>
       <c r="K30">
-        <v>12.6864255354231</v>
+        <v>14.784108808065</v>
       </c>
       <c r="L30">
-        <v>42.5973040207252</v>
+        <v>43.9108373632867</v>
       </c>
       <c r="M30">
-        <v>10.6227254618775</v>
+        <v>10.3104298577904</v>
       </c>
       <c r="N30">
-        <v>15.7836712265567</v>
+        <v>16.9445042432983</v>
       </c>
       <c r="O30">
-        <v>497.848806291683</v>
+        <v>502.663201672947</v>
       </c>
       <c r="P30">
-        <v>8.05148675958935</v>
+        <v>7.37955867475769</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1989.9929992055</v>
+        <v>1956.16438398493</v>
       </c>
       <c r="C31">
-        <v>47.5844535142313</v>
+        <v>50.0858832922281</v>
       </c>
       <c r="D31">
-        <v>49.6902584348024</v>
+        <v>48.1739442067156</v>
       </c>
       <c r="E31">
-        <v>31.9947839431414</v>
+        <v>35.2824860852174</v>
       </c>
       <c r="F31">
-        <v>13.1945064151482</v>
+        <v>11.5590782546921</v>
       </c>
       <c r="G31">
-        <v>150.490760848881</v>
+        <v>147.626672516345</v>
       </c>
       <c r="H31">
-        <v>30.7511944789835</v>
+        <v>29.8594577334319</v>
       </c>
       <c r="I31">
-        <v>26.2866933976378</v>
+        <v>24.3892079449946</v>
       </c>
       <c r="J31">
-        <v>40.784890602391</v>
+        <v>46.8894495380341</v>
       </c>
       <c r="K31">
-        <v>42.2554416701562</v>
+        <v>43.5858301129604</v>
       </c>
       <c r="L31">
-        <v>60.3680068858599</v>
+        <v>65.28688936774461</v>
       </c>
       <c r="M31">
-        <v>30.3465226014686</v>
+        <v>33.8418374056134</v>
       </c>
       <c r="N31">
-        <v>71.01025696168919</v>
+        <v>69.4188387279418</v>
       </c>
       <c r="O31">
-        <v>3442.53778172323</v>
+        <v>3461.28256597285</v>
       </c>
       <c r="P31">
-        <v>11.288246325478</v>
+        <v>12.9681354553658</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>469.860053461902</v>
+        <v>468.432170908557</v>
       </c>
       <c r="C32">
-        <v>4.68116451580685</v>
+        <v>4.57688787453954</v>
       </c>
       <c r="D32">
-        <v>4.12814996802828</v>
+        <v>3.91437702446431</v>
       </c>
       <c r="E32">
-        <v>2.71483100237447</v>
+        <v>4.76999180297106</v>
       </c>
       <c r="F32">
-        <v>22.4266517801364</v>
+        <v>23.0745777105139</v>
       </c>
       <c r="G32">
-        <v>2.28731949694278</v>
+        <v>2.0730050339173</v>
       </c>
       <c r="H32">
-        <v>1.29126264058699</v>
+        <v>1.07065109239605</v>
       </c>
       <c r="I32">
-        <v>3.47941409502772</v>
+        <v>3.68455550385468</v>
       </c>
       <c r="J32">
-        <v>1.82124422496368</v>
+        <v>2.39679606244615</v>
       </c>
       <c r="K32">
-        <v>4.64024929139458</v>
+        <v>4.63742217939964</v>
       </c>
       <c r="L32">
-        <v>14.2201374074414</v>
+        <v>14.6674711123281</v>
       </c>
       <c r="M32">
-        <v>5.39289150215322</v>
+        <v>5.12956032324501</v>
       </c>
       <c r="N32">
-        <v>10.7727331514795</v>
+        <v>12.3334973003257</v>
       </c>
       <c r="O32">
-        <v>684.954849562393</v>
+        <v>677.6319120557751</v>
       </c>
       <c r="P32">
-        <v>30.5132437499727</v>
+        <v>27.8215768209428</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4966.12706843955</v>
+        <v>4909.46079214075</v>
       </c>
       <c r="C33">
-        <v>83.0466988715572</v>
+        <v>86.39799978660341</v>
       </c>
       <c r="D33">
-        <v>140.958264724002</v>
+        <v>138.851852441689</v>
       </c>
       <c r="E33">
-        <v>86.0022763066679</v>
+        <v>86.8988213418385</v>
       </c>
       <c r="F33">
-        <v>11.4561924883977</v>
+        <v>13.6323107824493</v>
       </c>
       <c r="G33">
-        <v>81.66008833448841</v>
+        <v>87.72497671971939</v>
       </c>
       <c r="H33">
-        <v>49.3894481600266</v>
+        <v>47.3889098921297</v>
       </c>
       <c r="I33">
-        <v>46.2394889983433</v>
+        <v>46.0931589614087</v>
       </c>
       <c r="J33">
-        <v>120.308284690323</v>
+        <v>123.744042050845</v>
       </c>
       <c r="K33">
-        <v>123.473495657889</v>
+        <v>124.866963310515</v>
       </c>
       <c r="L33">
-        <v>150.13937749966</v>
+        <v>155.258556534165</v>
       </c>
       <c r="M33">
-        <v>90.89891279929481</v>
+        <v>90.8861169327616</v>
       </c>
       <c r="N33">
-        <v>154.902200090536</v>
+        <v>150.916458915792</v>
       </c>
       <c r="O33">
-        <v>7407.27067478601</v>
+        <v>7434.49586040378</v>
       </c>
       <c r="P33">
-        <v>86.0819794742979</v>
+        <v>84.3382895457051</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1761.1436883192</v>
+        <v>1745.54010811914</v>
       </c>
       <c r="C34">
-        <v>80.75918364119821</v>
+        <v>79.8208622284771</v>
       </c>
       <c r="D34">
-        <v>227.347157387304</v>
+        <v>226.410869331526</v>
       </c>
       <c r="E34">
-        <v>83.54926750786819</v>
+        <v>85.295711739422</v>
       </c>
       <c r="F34">
-        <v>6.82360271882618</v>
+        <v>7.08592233116567</v>
       </c>
       <c r="G34">
-        <v>71.13189588183749</v>
+        <v>68.3609079300528</v>
       </c>
       <c r="H34">
-        <v>47.9373433131552</v>
+        <v>47.722128337101</v>
       </c>
       <c r="I34">
-        <v>30.3982416083516</v>
+        <v>28.8301856955953</v>
       </c>
       <c r="J34">
-        <v>56.4344821663147</v>
+        <v>60.4076999995961</v>
       </c>
       <c r="K34">
-        <v>62.8953088522118</v>
+        <v>66.5983788423558</v>
       </c>
       <c r="L34">
-        <v>115.072011144529</v>
+        <v>113.936318792367</v>
       </c>
       <c r="M34">
-        <v>53.1881966993836</v>
+        <v>57.8528286268327</v>
       </c>
       <c r="N34">
-        <v>140.545584208165</v>
+        <v>138.459172489997</v>
       </c>
       <c r="O34">
-        <v>2848.37925970663</v>
+        <v>2855.4248606175</v>
       </c>
       <c r="P34">
-        <v>63.4713706178447</v>
+        <v>67.37569528476929</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>126.248981436026</v>
+        <v>125.210173401618</v>
       </c>
       <c r="C35">
-        <v>6.83545134691101</v>
+        <v>6.41747445000095</v>
       </c>
       <c r="D35">
-        <v>1.02706731725004</v>
+        <v>0.861492687093335</v>
       </c>
       <c r="E35">
-        <v>1.69176353089817</v>
+        <v>1.84335976509919</v>
       </c>
       <c r="F35">
-        <v>5.41393269503226</v>
+        <v>5.59281143308514</v>
       </c>
       <c r="G35">
-        <v>0.419551272299675</v>
+        <v>0.38774844238725</v>
       </c>
       <c r="H35">
-        <v>0.620389272577663</v>
+        <v>0.497780880018149</v>
       </c>
       <c r="I35">
-        <v>1.00716918226573</v>
+        <v>0.887563401892233</v>
       </c>
       <c r="J35">
-        <v>1.69627745947915</v>
+        <v>2.19712624555184</v>
       </c>
       <c r="K35">
-        <v>5.97414483270686</v>
+        <v>6.72756707053916</v>
       </c>
       <c r="L35">
-        <v>2.5537737555654</v>
+        <v>2.25939339803661</v>
       </c>
       <c r="M35">
-        <v>1.9249346562159</v>
+        <v>2.05722818474405</v>
       </c>
       <c r="N35">
-        <v>2.44160119565735</v>
+        <v>2.44002845719026</v>
       </c>
       <c r="O35">
-        <v>250.085055302987</v>
+        <v>248.127544435021</v>
       </c>
       <c r="P35">
-        <v>44.392154471283</v>
+        <v>43.8984898511149</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2556.36955858577</v>
+        <v>2547.81739382766</v>
       </c>
       <c r="C36">
-        <v>67.33978767951621</v>
+        <v>69.77037824684579</v>
       </c>
       <c r="D36">
-        <v>22.6421118746591</v>
+        <v>22.9881789001268</v>
       </c>
       <c r="E36">
-        <v>91.16910818157319</v>
+        <v>90.4897098843672</v>
       </c>
       <c r="F36">
-        <v>30.814448817189</v>
+        <v>30.0461354054688</v>
       </c>
       <c r="G36">
-        <v>96.19706738133689</v>
+        <v>92.2769492882077</v>
       </c>
       <c r="H36">
-        <v>123.615992755821</v>
+        <v>124.551216084465</v>
       </c>
       <c r="I36">
-        <v>48.6827153111993</v>
+        <v>49.784499007342</v>
       </c>
       <c r="J36">
-        <v>275.467561606113</v>
+        <v>274.126740222993</v>
       </c>
       <c r="K36">
-        <v>159.428642897749</v>
+        <v>164.306241669177</v>
       </c>
       <c r="L36">
-        <v>112.30355109895</v>
+        <v>112.476460511136</v>
       </c>
       <c r="M36">
-        <v>257.780636915077</v>
+        <v>256.853381349219</v>
       </c>
       <c r="N36">
-        <v>88.47820932703161</v>
+        <v>91.22100458763261</v>
       </c>
       <c r="O36">
-        <v>4087.99412296406</v>
+        <v>4088.48928181362</v>
       </c>
       <c r="P36">
-        <v>66.0122385611983</v>
+        <v>61.4695571909974</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>857.173274561684</v>
+        <v>847.969036354373</v>
       </c>
       <c r="C37">
-        <v>21.864257396813</v>
+        <v>22.1032862876502</v>
       </c>
       <c r="D37">
-        <v>15.6050322982173</v>
+        <v>14.6812918253888</v>
       </c>
       <c r="E37">
-        <v>19.0028228938311</v>
+        <v>19.1914266071534</v>
       </c>
       <c r="F37">
-        <v>46.3688058505594</v>
+        <v>50.5391907724864</v>
       </c>
       <c r="G37">
-        <v>5.00217590527145</v>
+        <v>4.58895192315646</v>
       </c>
       <c r="H37">
-        <v>20.8566878109395</v>
+        <v>19.6137345032366</v>
       </c>
       <c r="I37">
-        <v>12.302315510137</v>
+        <v>12.058123804024</v>
       </c>
       <c r="J37">
-        <v>36.411386763176</v>
+        <v>35.2351487609228</v>
       </c>
       <c r="K37">
-        <v>30.0598059165814</v>
+        <v>32.4279772836772</v>
       </c>
       <c r="L37">
-        <v>28.4563797118336</v>
+        <v>24.9432354874981</v>
       </c>
       <c r="M37">
-        <v>32.757199468739</v>
+        <v>29.7289772673683</v>
       </c>
       <c r="N37">
-        <v>21.0305572383274</v>
+        <v>21.0622687867798</v>
       </c>
       <c r="O37">
-        <v>1203.50298605801</v>
+        <v>1211.25384940429</v>
       </c>
       <c r="P37">
-        <v>63.8471615875058</v>
+        <v>60.8921315632603</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>772.051733006203</v>
+        <v>770.05049638699</v>
       </c>
       <c r="C38">
-        <v>29.7894934966724</v>
+        <v>31.436281515493</v>
       </c>
       <c r="D38">
-        <v>11.2630361477915</v>
+        <v>10.671931786589</v>
       </c>
       <c r="E38">
-        <v>62.7067561079008</v>
+        <v>61.3367426852909</v>
       </c>
       <c r="F38">
-        <v>1.98121486244247</v>
+        <v>2.23120618927668</v>
       </c>
       <c r="G38">
-        <v>7.95570923827349</v>
+        <v>9.39281920277803</v>
       </c>
       <c r="H38">
-        <v>8.16280721499581</v>
+        <v>7.45139931901234</v>
       </c>
       <c r="I38">
-        <v>6.56855396966426</v>
+        <v>7.55286665605764</v>
       </c>
       <c r="J38">
-        <v>31.6958997142784</v>
+        <v>30.8897329997375</v>
       </c>
       <c r="K38">
-        <v>18.8193307976107</v>
+        <v>20.2633612130203</v>
       </c>
       <c r="L38">
-        <v>61.2531052492542</v>
+        <v>63.3456599186116</v>
       </c>
       <c r="M38">
-        <v>25.4785690364833</v>
+        <v>24.8283770431573</v>
       </c>
       <c r="N38">
-        <v>26.0827407770678</v>
+        <v>26.1589960761185</v>
       </c>
       <c r="O38">
-        <v>1308.6630674891</v>
+        <v>1303.70231979793</v>
       </c>
       <c r="P38">
-        <v>69.6609598744877</v>
+        <v>68.7014644235657</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3003.59418024676</v>
+        <v>2974.16922277137</v>
       </c>
       <c r="C39">
-        <v>112.12572982682</v>
+        <v>110.13356615787</v>
       </c>
       <c r="D39">
-        <v>69.29228679229971</v>
+        <v>70.1158058730703</v>
       </c>
       <c r="E39">
-        <v>112.328223834066</v>
+        <v>117.325966911547</v>
       </c>
       <c r="F39">
-        <v>38.6774388762997</v>
+        <v>37.8573820034592</v>
       </c>
       <c r="G39">
-        <v>114.109220416101</v>
+        <v>109.65756578693</v>
       </c>
       <c r="H39">
-        <v>58.8859664249207</v>
+        <v>57.2883187039078</v>
       </c>
       <c r="I39">
-        <v>61.0877817641274</v>
+        <v>57.128835614034</v>
       </c>
       <c r="J39">
-        <v>212.384269397333</v>
+        <v>218.761716718808</v>
       </c>
       <c r="K39">
-        <v>116.996055177214</v>
+        <v>113.40241272497</v>
       </c>
       <c r="L39">
-        <v>139.749702127907</v>
+        <v>142.328284730144</v>
       </c>
       <c r="M39">
-        <v>88.80631368835721</v>
+        <v>85.7089786087208</v>
       </c>
       <c r="N39">
-        <v>101.723018903966</v>
+        <v>103.707655599721</v>
       </c>
       <c r="O39">
-        <v>4491.34264781785</v>
+        <v>4521.0868525875</v>
       </c>
       <c r="P39">
-        <v>78.7199989301718</v>
+        <v>83.16326434323391</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>245.495914191527</v>
+        <v>242.733939213068</v>
       </c>
       <c r="C40">
-        <v>3.74072180504489</v>
+        <v>4.09334170238452</v>
       </c>
       <c r="D40">
-        <v>10.5561601150241</v>
+        <v>9.89155552296925</v>
       </c>
       <c r="E40">
-        <v>3.77185826962841</v>
+        <v>4.17442040305565</v>
       </c>
       <c r="F40">
-        <v>1.40484320146478</v>
+        <v>1.10804974457362</v>
       </c>
       <c r="G40">
-        <v>3.4065734822127</v>
+        <v>4.05422684144253</v>
       </c>
       <c r="H40">
-        <v>7.0926461267981</v>
+        <v>7.73423070654445</v>
       </c>
       <c r="I40">
-        <v>2.20984576554684</v>
+        <v>2.2580693008857</v>
       </c>
       <c r="J40">
-        <v>12.5130426439611</v>
+        <v>13.4386896894955</v>
       </c>
       <c r="K40">
-        <v>5.95836646205664</v>
+        <v>6.9624292885848</v>
       </c>
       <c r="L40">
-        <v>16.3920548712676</v>
+        <v>15.272540446086</v>
       </c>
       <c r="M40">
-        <v>9.508707017581161</v>
+        <v>8.33194557041667</v>
       </c>
       <c r="N40">
-        <v>26.3648064385926</v>
+        <v>25.9559481954561</v>
       </c>
       <c r="O40">
-        <v>391.570976435481</v>
+        <v>392.722643608512</v>
       </c>
       <c r="P40">
-        <v>2.28694696244195</v>
+        <v>2.58457606330136</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>939.76666380018</v>
+        <v>942.344129461032</v>
       </c>
       <c r="C41">
-        <v>17.3313531058462</v>
+        <v>18.3366038835945</v>
       </c>
       <c r="D41">
-        <v>116.0841370828</v>
+        <v>112.478900164668</v>
       </c>
       <c r="E41">
-        <v>53.8591449367659</v>
+        <v>50.9428154063509</v>
       </c>
       <c r="F41">
-        <v>2.93909208711169</v>
+        <v>3.49810984593389</v>
       </c>
       <c r="G41">
-        <v>37.6721474115891</v>
+        <v>37.8538821871059</v>
       </c>
       <c r="H41">
-        <v>35.1090704670667</v>
+        <v>32.9253558618822</v>
       </c>
       <c r="I41">
-        <v>8.42147683611703</v>
+        <v>6.54263690254379</v>
       </c>
       <c r="J41">
-        <v>46.0056716943536</v>
+        <v>45.9725805405725</v>
       </c>
       <c r="K41">
-        <v>48.8266434183651</v>
+        <v>47.630689866631</v>
       </c>
       <c r="L41">
-        <v>27.8641715868304</v>
+        <v>31.4708940591114</v>
       </c>
       <c r="M41">
-        <v>39.4500151898565</v>
+        <v>42.3979999938718</v>
       </c>
       <c r="N41">
-        <v>25.2928617645337</v>
+        <v>23.7162542279589</v>
       </c>
       <c r="O41">
-        <v>1364.72956090763</v>
+        <v>1374.16524903778</v>
       </c>
       <c r="P41">
-        <v>22.5207706495914</v>
+        <v>19.4993580139839</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>141.031606631375</v>
+        <v>138.191033623413</v>
       </c>
       <c r="C42">
-        <v>9.098506254681199</v>
+        <v>9.40158954947163</v>
       </c>
       <c r="D42">
-        <v>2.17649636379483</v>
+        <v>1.81438913946594</v>
       </c>
       <c r="E42">
-        <v>5.00081885489675</v>
+        <v>5.44956179992106</v>
       </c>
       <c r="F42">
-        <v>1.81926418147472</v>
+        <v>1.67608283085396</v>
       </c>
       <c r="G42">
-        <v>0.900229448681772</v>
+        <v>0.739838574810427</v>
       </c>
       <c r="H42">
-        <v>1.80064021807196</v>
+        <v>1.72745081133819</v>
       </c>
       <c r="I42">
-        <v>1.04567611169635</v>
+        <v>1.17832918159157</v>
       </c>
       <c r="J42">
-        <v>3.81372319937037</v>
+        <v>3.95950126068993</v>
       </c>
       <c r="K42">
-        <v>7.35970344438214</v>
+        <v>7.45671325403486</v>
       </c>
       <c r="L42">
-        <v>7.87674563964963</v>
+        <v>8.20204010833065</v>
       </c>
       <c r="M42">
-        <v>2.86874858180991</v>
+        <v>3.05106481684603</v>
       </c>
       <c r="N42">
-        <v>8.51835401981374</v>
+        <v>7.94715830768643</v>
       </c>
       <c r="O42">
-        <v>286.755664088248</v>
+        <v>286.675713528194</v>
       </c>
       <c r="P42">
-        <v>45.8665980646321</v>
+        <v>46.9344964644011</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1377.8269294258</v>
+        <v>1387.74610230064</v>
       </c>
       <c r="C43">
-        <v>41.7335984308369</v>
+        <v>43.0817405069454</v>
       </c>
       <c r="D43">
-        <v>56.2851539932729</v>
+        <v>55.9097326006064</v>
       </c>
       <c r="E43">
-        <v>74.35978630067839</v>
+        <v>67.7172317114801</v>
       </c>
       <c r="F43">
-        <v>10.1266450914262</v>
+        <v>9.65620844245858</v>
       </c>
       <c r="G43">
-        <v>32.9521454018165</v>
+        <v>32.3831577083187</v>
       </c>
       <c r="H43">
-        <v>40.6043016105551</v>
+        <v>33.8067181871739</v>
       </c>
       <c r="I43">
-        <v>22.6509486617368</v>
+        <v>21.4220005406247</v>
       </c>
       <c r="J43">
-        <v>73.90369067152891</v>
+        <v>76.728935242516</v>
       </c>
       <c r="K43">
-        <v>51.4184267487581</v>
+        <v>51.4238792970346</v>
       </c>
       <c r="L43">
-        <v>57.8972958795635</v>
+        <v>62.4724718081677</v>
       </c>
       <c r="M43">
-        <v>92.3323010020701</v>
+        <v>87.9800442180789</v>
       </c>
       <c r="N43">
-        <v>71.1178092688409</v>
+        <v>71.72177448866501</v>
       </c>
       <c r="O43">
-        <v>2005.41756155371</v>
+        <v>2009.01525494741</v>
       </c>
       <c r="P43">
-        <v>46.3729269425919</v>
+        <v>42.5091216120379</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4722.7931527464</v>
+        <v>4699.29531790275</v>
       </c>
       <c r="C44">
-        <v>162.911604345394</v>
+        <v>156.159359376929</v>
       </c>
       <c r="D44">
-        <v>79.7387384664794</v>
+        <v>79.0512449464604</v>
       </c>
       <c r="E44">
-        <v>100.293944328126</v>
+        <v>96.92377283811641</v>
       </c>
       <c r="F44">
-        <v>210.581827931959</v>
+        <v>220.848113176794</v>
       </c>
       <c r="G44">
-        <v>125.409501369499</v>
+        <v>133.224817676539</v>
       </c>
       <c r="H44">
-        <v>65.1099174691096</v>
+        <v>63.8872486386454</v>
       </c>
       <c r="I44">
-        <v>53.1067256933746</v>
+        <v>49.6764185157905</v>
       </c>
       <c r="J44">
-        <v>159.041709878801</v>
+        <v>158.304579243439</v>
       </c>
       <c r="K44">
-        <v>140.093764015411</v>
+        <v>137.012693618743</v>
       </c>
       <c r="L44">
-        <v>255.25206440322</v>
+        <v>259.385830299696</v>
       </c>
       <c r="M44">
-        <v>147.967387695134</v>
+        <v>143.904210628502</v>
       </c>
       <c r="N44">
-        <v>108.905767496086</v>
+        <v>108.422060237925</v>
       </c>
       <c r="O44">
-        <v>7630.8771711608</v>
+        <v>7660.60241845309</v>
       </c>
       <c r="P44">
-        <v>229.958978855737</v>
+        <v>227.137922775815</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>434.959827530795</v>
+        <v>430.419728039053</v>
       </c>
       <c r="C45">
-        <v>18.4048789962158</v>
+        <v>17.2620159294939</v>
       </c>
       <c r="D45">
-        <v>5.00420678276139</v>
+        <v>4.39292862146293</v>
       </c>
       <c r="E45">
-        <v>11.261014847555</v>
+        <v>12.2768010426072</v>
       </c>
       <c r="F45">
-        <v>19.1356188514603</v>
+        <v>18.6631914734262</v>
       </c>
       <c r="G45">
-        <v>9.589712376039371</v>
+        <v>9.20344537469308</v>
       </c>
       <c r="H45">
-        <v>4.08112497239236</v>
+        <v>4.11434516173406</v>
       </c>
       <c r="I45">
-        <v>6.2981579745765</v>
+        <v>5.54045183962303</v>
       </c>
       <c r="J45">
-        <v>19.321044460705</v>
+        <v>19.1705654585232</v>
       </c>
       <c r="K45">
-        <v>13.5272431646146</v>
+        <v>12.1578495466486</v>
       </c>
       <c r="L45">
-        <v>23.847994340557</v>
+        <v>24.7193885882964</v>
       </c>
       <c r="M45">
-        <v>27.73995782481</v>
+        <v>28.3899709351547</v>
       </c>
       <c r="N45">
-        <v>26.5581053755874</v>
+        <v>26.7463633501647</v>
       </c>
       <c r="O45">
-        <v>852.679482167822</v>
+        <v>855.308635153836</v>
       </c>
       <c r="P45">
-        <v>18.5076738892494</v>
+        <v>19.3835513598183</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>114.821986318857</v>
+        <v>115.312491138017</v>
       </c>
       <c r="C46">
-        <v>4.84881495976353</v>
+        <v>5.34576945466236</v>
       </c>
       <c r="D46">
-        <v>1.75718844160258</v>
+        <v>2.03213740922185</v>
       </c>
       <c r="E46">
-        <v>7.31927251911312</v>
+        <v>6.94458967932234</v>
       </c>
       <c r="F46">
-        <v>0.955492332184371</v>
+        <v>1.13129495858115</v>
       </c>
       <c r="G46">
-        <v>1.06220928286379</v>
+        <v>1.17773390535898</v>
       </c>
       <c r="H46">
-        <v>1.28599923802037</v>
+        <v>1.60022089662419</v>
       </c>
       <c r="I46">
-        <v>2.39774465990439</v>
+        <v>2.47115386329216</v>
       </c>
       <c r="J46">
-        <v>5.22780210793862</v>
+        <v>5.00632278297979</v>
       </c>
       <c r="K46">
-        <v>4.28644390597106</v>
+        <v>5.31474013385246</v>
       </c>
       <c r="L46">
-        <v>10.9045066969151</v>
+        <v>11.4383431298233</v>
       </c>
       <c r="M46">
-        <v>4.89678746102619</v>
+        <v>5.06141734306248</v>
       </c>
       <c r="N46">
-        <v>7.07636019439841</v>
+        <v>7.60478252525847</v>
       </c>
       <c r="O46">
-        <v>252.789731981686</v>
+        <v>253.080123908438</v>
       </c>
       <c r="P46">
-        <v>12.2628131517192</v>
+        <v>12.0432616761335</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1532.38134927773</v>
+        <v>1512.13383079534</v>
       </c>
       <c r="C47">
-        <v>63.4644449940746</v>
+        <v>60.8636668598535</v>
       </c>
       <c r="D47">
-        <v>49.963279178611</v>
+        <v>59.9265705563423</v>
       </c>
       <c r="E47">
-        <v>67.0108959319623</v>
+        <v>61.3068231587631</v>
       </c>
       <c r="F47">
-        <v>14.2973011939436</v>
+        <v>13.6470767082469</v>
       </c>
       <c r="G47">
-        <v>34.1622764525952</v>
+        <v>37.3353833874435</v>
       </c>
       <c r="H47">
-        <v>28.4227120233401</v>
+        <v>25.845557118516</v>
       </c>
       <c r="I47">
-        <v>16.3460474920829</v>
+        <v>17.9586616272523</v>
       </c>
       <c r="J47">
-        <v>47.7821462616798</v>
+        <v>51.158139837711</v>
       </c>
       <c r="K47">
-        <v>40.8867778425807</v>
+        <v>39.5633238637389</v>
       </c>
       <c r="L47">
-        <v>53.3162845511088</v>
+        <v>55.1799758919431</v>
       </c>
       <c r="M47">
-        <v>80.8734000952698</v>
+        <v>78.66876094028</v>
       </c>
       <c r="N47">
-        <v>51.5079433410541</v>
+        <v>51.550764196329</v>
       </c>
       <c r="O47">
-        <v>2815.61420493311</v>
+        <v>2818.17269149788</v>
       </c>
       <c r="P47">
-        <v>47.1980962755977</v>
+        <v>49.2172990247577</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1307.21934979317</v>
+        <v>1304.95167643689</v>
       </c>
       <c r="C48">
-        <v>26.1177712916949</v>
+        <v>32.6333428796819</v>
       </c>
       <c r="D48">
-        <v>12.0466442846058</v>
+        <v>10.4611317898874</v>
       </c>
       <c r="E48">
-        <v>69.1876817370822</v>
+        <v>68.9864280242972</v>
       </c>
       <c r="F48">
-        <v>12.8488900634503</v>
+        <v>12.0318330583885</v>
       </c>
       <c r="G48">
-        <v>18.2471811910835</v>
+        <v>16.2782428725178</v>
       </c>
       <c r="H48">
-        <v>8.303071346775649</v>
+        <v>8.447906097050231</v>
       </c>
       <c r="I48">
-        <v>11.9668842267262</v>
+        <v>12.6978394391713</v>
       </c>
       <c r="J48">
-        <v>34.8028702627806</v>
+        <v>33.2345374676928</v>
       </c>
       <c r="K48">
-        <v>19.9982604516169</v>
+        <v>20.3736567291805</v>
       </c>
       <c r="L48">
-        <v>47.1976566237413</v>
+        <v>43.4723003556404</v>
       </c>
       <c r="M48">
-        <v>156.293887624662</v>
+        <v>156.23354740627</v>
       </c>
       <c r="N48">
-        <v>23.7925292978254</v>
+        <v>29.1453411293756</v>
       </c>
       <c r="O48">
-        <v>2293.9967923795</v>
+        <v>2307.23026256629</v>
       </c>
       <c r="P48">
-        <v>108.848068308877</v>
+        <v>102.563240503927</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>585.259263835327</v>
+        <v>579.612139209878</v>
       </c>
       <c r="C49">
-        <v>8.540797689200071</v>
+        <v>7.61171004614206</v>
       </c>
       <c r="D49">
-        <v>5.6119241975008</v>
+        <v>4.67055652389534</v>
       </c>
       <c r="E49">
-        <v>12.7040823071204</v>
+        <v>13.6496652525128</v>
       </c>
       <c r="F49">
-        <v>34.1051469813377</v>
+        <v>34.7906804084974</v>
       </c>
       <c r="G49">
-        <v>16.9463091887906</v>
+        <v>18.258861862978</v>
       </c>
       <c r="H49">
-        <v>5.49081293544106</v>
+        <v>5.1062681022837</v>
       </c>
       <c r="I49">
-        <v>9.41827041119851</v>
+        <v>10.3705840511869</v>
       </c>
       <c r="J49">
-        <v>22.0355930069578</v>
+        <v>21.2585343099507</v>
       </c>
       <c r="K49">
-        <v>9.580368066356281</v>
+        <v>8.430694966831529</v>
       </c>
       <c r="L49">
-        <v>4.7985131683095</v>
+        <v>4.44691827628946</v>
       </c>
       <c r="M49">
-        <v>7.8042934434358</v>
+        <v>7.78950829499113</v>
       </c>
       <c r="N49">
-        <v>4.83987065896193</v>
+        <v>4.38415639660243</v>
       </c>
       <c r="O49">
-        <v>606.996487194141</v>
+        <v>607.775351019022</v>
       </c>
       <c r="P49">
-        <v>9.678253993831371</v>
+        <v>10.1452466503585</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1000.74072684121</v>
+        <v>1003.55256317261</v>
       </c>
       <c r="C50">
-        <v>90.0099396714859</v>
+        <v>91.8574181440632</v>
       </c>
       <c r="D50">
-        <v>10.1819278346505</v>
+        <v>11.9557711775036</v>
       </c>
       <c r="E50">
-        <v>131.955670766602</v>
+        <v>127.060724483552</v>
       </c>
       <c r="F50">
-        <v>4.40731304292922</v>
+        <v>4.78370874972567</v>
       </c>
       <c r="G50">
-        <v>21.5660262314134</v>
+        <v>24.1285301318535</v>
       </c>
       <c r="H50">
-        <v>37.306737501811</v>
+        <v>38.6675910022056</v>
       </c>
       <c r="I50">
-        <v>21.915105050253</v>
+        <v>20.359620967135</v>
       </c>
       <c r="J50">
-        <v>114.28837000573</v>
+        <v>112.265511209106</v>
       </c>
       <c r="K50">
-        <v>123.579499763213</v>
+        <v>124.400413804633</v>
       </c>
       <c r="L50">
-        <v>84.49183142289471</v>
+        <v>85.29001484257731</v>
       </c>
       <c r="M50">
-        <v>48.9618354868699</v>
+        <v>50.1493075052888</v>
       </c>
       <c r="N50">
-        <v>69.0166043798193</v>
+        <v>69.9954063965839</v>
       </c>
       <c r="O50">
-        <v>1895.54148814618</v>
+        <v>1884.63985514212</v>
       </c>
       <c r="P50">
-        <v>136.949307591834</v>
+        <v>139.1538060251</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>102.010884606508</v>
+        <v>101.664467338447</v>
       </c>
       <c r="C51">
-        <v>1.4864110388683</v>
+        <v>1.44859338008465</v>
       </c>
       <c r="D51">
-        <v>0.549826567915813</v>
+        <v>0.511862148025355</v>
       </c>
       <c r="E51">
-        <v>1.82129102705149</v>
+        <v>1.7678141193593</v>
       </c>
       <c r="F51">
-        <v>24.2460844751734</v>
+        <v>23.3481329851183</v>
       </c>
       <c r="G51">
-        <v>2.27249631356316</v>
+        <v>2.63064845072944</v>
       </c>
       <c r="H51">
-        <v>0.317301054689828</v>
+        <v>0.330357180306387</v>
       </c>
       <c r="I51">
-        <v>0.814772243149075</v>
+        <v>1.44704169109411</v>
       </c>
       <c r="J51">
-        <v>1.78625370591146</v>
+        <v>1.90174647672779</v>
       </c>
       <c r="K51">
-        <v>0.99666657955296</v>
+        <v>1.07467487568067</v>
       </c>
       <c r="L51">
-        <v>0.501716868741798</v>
+        <v>0.650947948079337</v>
       </c>
       <c r="M51">
-        <v>0.940712053149664</v>
+        <v>0.840523596887066</v>
       </c>
       <c r="N51">
-        <v>1.63714966187816</v>
+        <v>1.37739379972823</v>
       </c>
       <c r="O51">
-        <v>192.083618910183</v>
+        <v>194.821654581873</v>
       </c>
       <c r="P51">
-        <v>14.6648514606004</v>
+        <v>14.6423760472302</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_1999.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_1999.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1155.90748771602</v>
+        <v>1184.18105309252</v>
       </c>
       <c r="C2">
-        <v>42.5518281165067</v>
+        <v>37.7312493768588</v>
       </c>
       <c r="D2">
-        <v>85.6491836812769</v>
+        <v>95.684480932073</v>
       </c>
       <c r="E2">
-        <v>68.81797049805959</v>
+        <v>68.71961130274531</v>
       </c>
       <c r="F2">
-        <v>15.3292926268959</v>
+        <v>15.913070153695</v>
       </c>
       <c r="G2">
-        <v>23.6467315157155</v>
+        <v>22.4703301943731</v>
       </c>
       <c r="H2">
-        <v>24.6424681408457</v>
+        <v>25.2261904083649</v>
       </c>
       <c r="I2">
-        <v>14.3040110169016</v>
+        <v>13.7107487640636</v>
       </c>
       <c r="J2">
-        <v>71.74352964427089</v>
+        <v>75.6051229570654</v>
       </c>
       <c r="K2">
-        <v>26.9991765463656</v>
+        <v>24.7943761422538</v>
       </c>
       <c r="L2">
-        <v>33.5312994362337</v>
+        <v>35.5903726407172</v>
       </c>
       <c r="M2">
-        <v>42.7861239973732</v>
+        <v>39.2993878131648</v>
       </c>
       <c r="N2">
-        <v>32.3365875210218</v>
+        <v>29.0830719332653</v>
       </c>
       <c r="O2">
-        <v>1463.42846971546</v>
+        <v>1433.82540854526</v>
       </c>
       <c r="P2">
-        <v>49.9705833731624</v>
+        <v>50.7071562968583</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>124.13982065645</v>
+        <v>126.28149479713</v>
       </c>
       <c r="C3">
-        <v>5.93322455567343</v>
+        <v>5.7566581932203</v>
       </c>
       <c r="D3">
-        <v>0.465192664940686</v>
+        <v>0.5181136109044811</v>
       </c>
       <c r="E3">
-        <v>1.58848431825929</v>
+        <v>1.8448985831021</v>
       </c>
       <c r="F3">
-        <v>10.1068682646592</v>
+        <v>9.55526719754943</v>
       </c>
       <c r="G3">
-        <v>0.479474569053615</v>
+        <v>0.499599156286716</v>
       </c>
       <c r="H3">
-        <v>0.16336366977054</v>
+        <v>0.151407685956579</v>
       </c>
       <c r="I3">
-        <v>0.233525542226655</v>
+        <v>0.151831436568474</v>
       </c>
       <c r="J3">
-        <v>0.908501083371814</v>
+        <v>0.6852537017514581</v>
       </c>
       <c r="K3">
-        <v>0.330939710350803</v>
+        <v>0.443147046849816</v>
       </c>
       <c r="L3">
-        <v>0.450050260865235</v>
+        <v>0.43018188877555</v>
       </c>
       <c r="M3">
-        <v>1.10903121344896</v>
+        <v>1.20472110363438</v>
       </c>
       <c r="N3">
-        <v>0.547480059528962</v>
+        <v>0.612818974206455</v>
       </c>
       <c r="O3">
-        <v>250.057100875365</v>
+        <v>246.210821479239</v>
       </c>
       <c r="P3">
-        <v>10.4167249204277</v>
+        <v>10.5104964627374</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1270.0299312172</v>
+        <v>1278.45756060157</v>
       </c>
       <c r="C4">
-        <v>16.5725577514139</v>
+        <v>16.4224269419738</v>
       </c>
       <c r="D4">
-        <v>11.1018116763272</v>
+        <v>13.5981601877411</v>
       </c>
       <c r="E4">
-        <v>21.6157539453895</v>
+        <v>18.7350177689622</v>
       </c>
       <c r="F4">
-        <v>21.0762153673323</v>
+        <v>19.9148361895876</v>
       </c>
       <c r="G4">
-        <v>14.3827241404247</v>
+        <v>13.0789728582458</v>
       </c>
       <c r="H4">
-        <v>6.27622190516132</v>
+        <v>9.19625772766309</v>
       </c>
       <c r="I4">
-        <v>7.39607496030093</v>
+        <v>8.040898527654299</v>
       </c>
       <c r="J4">
-        <v>22.9605302662463</v>
+        <v>27.9760627746798</v>
       </c>
       <c r="K4">
-        <v>13.8667983485207</v>
+        <v>7.28414019499799</v>
       </c>
       <c r="L4">
-        <v>89.6453005757415</v>
+        <v>95.1802763816155</v>
       </c>
       <c r="M4">
-        <v>60.7505952133282</v>
+        <v>56.7227470234972</v>
       </c>
       <c r="N4">
-        <v>23.2888172353501</v>
+        <v>22.1894418071616</v>
       </c>
       <c r="O4">
-        <v>1926.85990817774</v>
+        <v>1907.44700862473</v>
       </c>
       <c r="P4">
-        <v>36.1169318801539</v>
+        <v>38.2656259027017</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>684.321206264305</v>
+        <v>699.424859869128</v>
       </c>
       <c r="C5">
-        <v>60.7011239459622</v>
+        <v>60.5811114770767</v>
       </c>
       <c r="D5">
-        <v>16.5602844728313</v>
+        <v>15.3751359842759</v>
       </c>
       <c r="E5">
-        <v>44.6121560833013</v>
+        <v>45.1005358171892</v>
       </c>
       <c r="F5">
-        <v>5.95437063899369</v>
+        <v>3.36141414505046</v>
       </c>
       <c r="G5">
-        <v>13.6308813801756</v>
+        <v>14.9631666500504</v>
       </c>
       <c r="H5">
-        <v>16.0047669532262</v>
+        <v>15.4349219361766</v>
       </c>
       <c r="I5">
-        <v>6.77103546936564</v>
+        <v>8.11297049311071</v>
       </c>
       <c r="J5">
-        <v>36.6247396877504</v>
+        <v>39.390619372741</v>
       </c>
       <c r="K5">
-        <v>25.8816468790771</v>
+        <v>27.4736473452091</v>
       </c>
       <c r="L5">
-        <v>23.7854879952975</v>
+        <v>22.1859921426408</v>
       </c>
       <c r="M5">
-        <v>20.3284459132498</v>
+        <v>19.5041502420764</v>
       </c>
       <c r="N5">
-        <v>19.4943331631262</v>
+        <v>17.8303868742086</v>
       </c>
       <c r="O5">
-        <v>834.239538551086</v>
+        <v>819.230076398553</v>
       </c>
       <c r="P5">
-        <v>61.1178698596417</v>
+        <v>63.3993512762447</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>8180.58129993061</v>
+        <v>8319.875091511671</v>
       </c>
       <c r="C6">
-        <v>226.021036302625</v>
+        <v>215.473046677271</v>
       </c>
       <c r="D6">
-        <v>243.202889156251</v>
+        <v>227.510391780223</v>
       </c>
       <c r="E6">
-        <v>135.008823461821</v>
+        <v>154.25531952515</v>
       </c>
       <c r="F6">
-        <v>52.2351540978841</v>
+        <v>50.7806367664761</v>
       </c>
       <c r="G6">
-        <v>112.10418623004</v>
+        <v>104.736171195071</v>
       </c>
       <c r="H6">
-        <v>67.58721866810031</v>
+        <v>68.6783542504126</v>
       </c>
       <c r="I6">
-        <v>58.9928782932245</v>
+        <v>56.9395690620835</v>
       </c>
       <c r="J6">
-        <v>197.494545138821</v>
+        <v>203.594185932953</v>
       </c>
       <c r="K6">
-        <v>138.215098993353</v>
+        <v>140.553051426765</v>
       </c>
       <c r="L6">
-        <v>592.309740581594</v>
+        <v>611.74831678814</v>
       </c>
       <c r="M6">
-        <v>309.145083396598</v>
+        <v>308.395529207286</v>
       </c>
       <c r="N6">
-        <v>312.718852331678</v>
+        <v>314.540366100723</v>
       </c>
       <c r="O6">
-        <v>12536.1790878006</v>
+        <v>12402.1904571266</v>
       </c>
       <c r="P6">
-        <v>316.14145987825</v>
+        <v>349.339058302012</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>827.507782466098</v>
+        <v>835.146427823938</v>
       </c>
       <c r="C7">
-        <v>36.8803412713503</v>
+        <v>34.5520671661975</v>
       </c>
       <c r="D7">
-        <v>6.35797216532079</v>
+        <v>5.92304830389201</v>
       </c>
       <c r="E7">
-        <v>18.3213172652257</v>
+        <v>22.626285135918</v>
       </c>
       <c r="F7">
-        <v>21.8615979506178</v>
+        <v>18.1590262117981</v>
       </c>
       <c r="G7">
-        <v>10.1141884603223</v>
+        <v>9.173834685734709</v>
       </c>
       <c r="H7">
-        <v>8.114004771371761</v>
+        <v>9.54672257440418</v>
       </c>
       <c r="I7">
-        <v>10.9842281216013</v>
+        <v>11.8240049296039</v>
       </c>
       <c r="J7">
-        <v>19.5383027764453</v>
+        <v>18.2440314178694</v>
       </c>
       <c r="K7">
-        <v>20.9789828296881</v>
+        <v>15.7821903370926</v>
       </c>
       <c r="L7">
-        <v>73.39344844072861</v>
+        <v>67.69475044148039</v>
       </c>
       <c r="M7">
-        <v>19.3812768646707</v>
+        <v>20.8087777999332</v>
       </c>
       <c r="N7">
-        <v>29.0561443129126</v>
+        <v>26.6023500979878</v>
       </c>
       <c r="O7">
-        <v>1891.85264894205</v>
+        <v>1873.40063700653</v>
       </c>
       <c r="P7">
-        <v>43.5251795552418</v>
+        <v>39.7434680780375</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>725.82448550622</v>
+        <v>726.810619638754</v>
       </c>
       <c r="C8">
-        <v>13.045287811315</v>
+        <v>17.9745003905674</v>
       </c>
       <c r="D8">
-        <v>8.795138314000949</v>
+        <v>9.900862444121779</v>
       </c>
       <c r="E8">
-        <v>23.0422033518841</v>
+        <v>24.7224350036554</v>
       </c>
       <c r="F8">
-        <v>0.9502356434435481</v>
+        <v>0.963324739685245</v>
       </c>
       <c r="G8">
-        <v>27.6397749163253</v>
+        <v>31.1270861652849</v>
       </c>
       <c r="H8">
-        <v>11.7631671234572</v>
+        <v>11.0446985763124</v>
       </c>
       <c r="I8">
-        <v>3.16623457036267</v>
+        <v>3.00567713161428</v>
       </c>
       <c r="J8">
-        <v>50.0810363525876</v>
+        <v>50.995751767004</v>
       </c>
       <c r="K8">
-        <v>35.3251571772438</v>
+        <v>35.86149724132</v>
       </c>
       <c r="L8">
-        <v>39.7978433676137</v>
+        <v>42.4932893393781</v>
       </c>
       <c r="M8">
-        <v>64.194025196173</v>
+        <v>66.94372204842971</v>
       </c>
       <c r="N8">
-        <v>31.1942649949048</v>
+        <v>28.9644361662272</v>
       </c>
       <c r="O8">
-        <v>1369.39289312655</v>
+        <v>1347.65584633206</v>
       </c>
       <c r="P8">
-        <v>7.6748594833174</v>
+        <v>7.56075279808984</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>168.076966978008</v>
+        <v>170.198020434754</v>
       </c>
       <c r="C9">
-        <v>9.36316598759586</v>
+        <v>10.4751791158214</v>
       </c>
       <c r="D9">
-        <v>2.06681665294493</v>
+        <v>2.00555188373689</v>
       </c>
       <c r="E9">
-        <v>4.90027695703681</v>
+        <v>5.36715212701808</v>
       </c>
       <c r="F9">
-        <v>2.34309123893235</v>
+        <v>2.40943589723383</v>
       </c>
       <c r="G9">
-        <v>22.5041199675104</v>
+        <v>22.0016416613249</v>
       </c>
       <c r="H9">
-        <v>3.77829176627828</v>
+        <v>4.1935210289999</v>
       </c>
       <c r="I9">
-        <v>0.682018248730845</v>
+        <v>0.232237062165507</v>
       </c>
       <c r="J9">
-        <v>3.50930497284795</v>
+        <v>2.92250655329673</v>
       </c>
       <c r="K9">
-        <v>3.52046588950351</v>
+        <v>3.70688880540117</v>
       </c>
       <c r="L9">
-        <v>1.99900134608019</v>
+        <v>1.94827192393208</v>
       </c>
       <c r="M9">
-        <v>7.45478995312183</v>
+        <v>8.110327347207321</v>
       </c>
       <c r="N9">
-        <v>4.5903437215371</v>
+        <v>4.64247776099561</v>
       </c>
       <c r="O9">
-        <v>310.045584055496</v>
+        <v>310.530356802868</v>
       </c>
       <c r="P9">
-        <v>4.96099009126937</v>
+        <v>4.88466562700059</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4247.01224733223</v>
+        <v>4303.54971085694</v>
       </c>
       <c r="C10">
-        <v>51.9189114423029</v>
+        <v>57.2926923079952</v>
       </c>
       <c r="D10">
-        <v>44.9749274584861</v>
+        <v>45.6656371289964</v>
       </c>
       <c r="E10">
-        <v>61.1163055607174</v>
+        <v>71.284404808986</v>
       </c>
       <c r="F10">
-        <v>12.376635699315</v>
+        <v>12.0786863976306</v>
       </c>
       <c r="G10">
-        <v>47.1561051150154</v>
+        <v>48.446056989966</v>
       </c>
       <c r="H10">
-        <v>20.6366030988897</v>
+        <v>17.9751683735803</v>
       </c>
       <c r="I10">
-        <v>29.5552299488828</v>
+        <v>28.6057853835648</v>
       </c>
       <c r="J10">
-        <v>49.1327351469161</v>
+        <v>44.4499832990247</v>
       </c>
       <c r="K10">
-        <v>46.1581656339009</v>
+        <v>49.493456113864</v>
       </c>
       <c r="L10">
-        <v>119.246312724892</v>
+        <v>117.125707392211</v>
       </c>
       <c r="M10">
-        <v>92.267547909103</v>
+        <v>92.7426371155147</v>
       </c>
       <c r="N10">
-        <v>107.934834921247</v>
+        <v>107.644182914592</v>
       </c>
       <c r="O10">
-        <v>6486.46873200435</v>
+        <v>6433.05735360008</v>
       </c>
       <c r="P10">
-        <v>94.14922009304421</v>
+        <v>99.56892773239279</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1775.65065432996</v>
+        <v>1806.66146959282</v>
       </c>
       <c r="C11">
-        <v>75.99455717885439</v>
+        <v>74.86847203366349</v>
       </c>
       <c r="D11">
-        <v>162.464172478673</v>
+        <v>161.901978417888</v>
       </c>
       <c r="E11">
-        <v>103.435282077454</v>
+        <v>116.587414547519</v>
       </c>
       <c r="F11">
-        <v>12.8540001728789</v>
+        <v>12.6607236307885</v>
       </c>
       <c r="G11">
-        <v>44.5863949980092</v>
+        <v>45.964969646048</v>
       </c>
       <c r="H11">
-        <v>32.2797898103184</v>
+        <v>25.5949065546656</v>
       </c>
       <c r="I11">
-        <v>24.7459036380201</v>
+        <v>26.0808158234067</v>
       </c>
       <c r="J11">
-        <v>52.4821322060096</v>
+        <v>52.0288896707677</v>
       </c>
       <c r="K11">
-        <v>53.6028549666202</v>
+        <v>51.8553610836126</v>
       </c>
       <c r="L11">
-        <v>70.6679819076315</v>
+        <v>66.3326692606999</v>
       </c>
       <c r="M11">
-        <v>75.8367011096253</v>
+        <v>69.9795236871387</v>
       </c>
       <c r="N11">
-        <v>58.9642840610286</v>
+        <v>56.2842949219039</v>
       </c>
       <c r="O11">
-        <v>3069.44433803004</v>
+        <v>3067.41568544058</v>
       </c>
       <c r="P11">
-        <v>54.293953164181</v>
+        <v>57.3876082660749</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>290.01577744885</v>
+        <v>293.292790152106</v>
       </c>
       <c r="C12">
-        <v>7.50266699596209</v>
+        <v>8.020900953442769</v>
       </c>
       <c r="D12">
-        <v>4.74590898940546</v>
+        <v>5.10721515395889</v>
       </c>
       <c r="E12">
-        <v>2.5631536257844</v>
+        <v>2.58665841687248</v>
       </c>
       <c r="F12">
-        <v>0.667711605295335</v>
+        <v>0.67099344192676</v>
       </c>
       <c r="G12">
-        <v>1.04704191783243</v>
+        <v>1.41888314823133</v>
       </c>
       <c r="H12">
-        <v>0.709561319468104</v>
+        <v>1.07930506722659</v>
       </c>
       <c r="I12">
-        <v>1.31144573207453</v>
+        <v>1.38828447573773</v>
       </c>
       <c r="J12">
-        <v>0.996819184412412</v>
+        <v>0.923323536138674</v>
       </c>
       <c r="K12">
-        <v>0.822923251893628</v>
+        <v>0.616189733429155</v>
       </c>
       <c r="L12">
-        <v>1.91893121096981</v>
+        <v>2.01879863379377</v>
       </c>
       <c r="M12">
-        <v>3.74388966137734</v>
+        <v>3.49138835946389</v>
       </c>
       <c r="N12">
-        <v>3.25864856466091</v>
+        <v>2.60454205897327</v>
       </c>
       <c r="O12">
-        <v>511.773522861485</v>
+        <v>504.826667332035</v>
       </c>
       <c r="P12">
-        <v>18.5095317359322</v>
+        <v>20.4110303335531</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>279.570245472812</v>
+        <v>278.754168361165</v>
       </c>
       <c r="C13">
-        <v>26.4132144918427</v>
+        <v>27.5492821065653</v>
       </c>
       <c r="D13">
-        <v>2.11914084329854</v>
+        <v>2.79235639526811</v>
       </c>
       <c r="E13">
-        <v>18.9164006850812</v>
+        <v>20.4814447383575</v>
       </c>
       <c r="F13">
-        <v>5.59410636599248</v>
+        <v>6.53268330857801</v>
       </c>
       <c r="G13">
-        <v>5.67304104020605</v>
+        <v>5.86223349697389</v>
       </c>
       <c r="H13">
-        <v>2.12610525693736</v>
+        <v>2.17102539400205</v>
       </c>
       <c r="I13">
-        <v>2.12481324134198</v>
+        <v>1.9268627177019</v>
       </c>
       <c r="J13">
-        <v>4.97420107773667</v>
+        <v>4.81088506341407</v>
       </c>
       <c r="K13">
-        <v>2.95228575952579</v>
+        <v>2.93205481473468</v>
       </c>
       <c r="L13">
-        <v>22.7636983314187</v>
+        <v>21.1353731278499</v>
       </c>
       <c r="M13">
-        <v>4.5459166421022</v>
+        <v>4.76824148215963</v>
       </c>
       <c r="N13">
-        <v>7.13495957134708</v>
+        <v>7.11451187908753</v>
       </c>
       <c r="O13">
-        <v>463.812475658323</v>
+        <v>462.48667504132</v>
       </c>
       <c r="P13">
-        <v>42.8829915304118</v>
+        <v>41.5298970637903</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2674.67041221932</v>
+        <v>2724.34706800646</v>
       </c>
       <c r="C14">
-        <v>112.25845241948</v>
+        <v>117.179488719713</v>
       </c>
       <c r="D14">
-        <v>18.7421963458165</v>
+        <v>21.932210253791</v>
       </c>
       <c r="E14">
-        <v>96.6663828654266</v>
+        <v>100.714414893061</v>
       </c>
       <c r="F14">
-        <v>27.3293323880705</v>
+        <v>25.9220843183321</v>
       </c>
       <c r="G14">
-        <v>96.4354357077422</v>
+        <v>98.6326221962462</v>
       </c>
       <c r="H14">
-        <v>66.8895346612815</v>
+        <v>68.9328332326113</v>
       </c>
       <c r="I14">
-        <v>32.2328129267682</v>
+        <v>33.9843350970083</v>
       </c>
       <c r="J14">
-        <v>186.333611126867</v>
+        <v>190.320613263575</v>
       </c>
       <c r="K14">
-        <v>185.343836838617</v>
+        <v>183.339250969925</v>
       </c>
       <c r="L14">
-        <v>172.513452603414</v>
+        <v>178.920571348383</v>
       </c>
       <c r="M14">
-        <v>103.305989564246</v>
+        <v>99.4207224252134</v>
       </c>
       <c r="N14">
-        <v>109.96666181027</v>
+        <v>104.308915060136</v>
       </c>
       <c r="O14">
-        <v>4797.67540343431</v>
+        <v>4725.3999079652</v>
       </c>
       <c r="P14">
-        <v>85.3333388854291</v>
+        <v>88.5844903554415</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1283.18538417007</v>
+        <v>1307.0194381584</v>
       </c>
       <c r="C15">
-        <v>38.3404509569308</v>
+        <v>45.0513572699827</v>
       </c>
       <c r="D15">
-        <v>15.7225984493849</v>
+        <v>15.1087505603228</v>
       </c>
       <c r="E15">
-        <v>67.9377693931132</v>
+        <v>70.757891118147</v>
       </c>
       <c r="F15">
-        <v>12.5481245237197</v>
+        <v>13.1787946218496</v>
       </c>
       <c r="G15">
-        <v>47.6810000883377</v>
+        <v>47.5903981401002</v>
       </c>
       <c r="H15">
-        <v>53.5148624276557</v>
+        <v>50.0865531307603</v>
       </c>
       <c r="I15">
-        <v>30.8895076977699</v>
+        <v>33.7802221050491</v>
       </c>
       <c r="J15">
-        <v>174.228119883896</v>
+        <v>176.441518988672</v>
       </c>
       <c r="K15">
-        <v>93.7939005628178</v>
+        <v>89.0012509816595</v>
       </c>
       <c r="L15">
-        <v>75.54191973360329</v>
+        <v>80.8254229655881</v>
       </c>
       <c r="M15">
-        <v>185.831631267017</v>
+        <v>182.947077242327</v>
       </c>
       <c r="N15">
-        <v>80.3532005541135</v>
+        <v>69.9605835752884</v>
       </c>
       <c r="O15">
-        <v>2079.64940757015</v>
+        <v>2072.70396660811</v>
       </c>
       <c r="P15">
-        <v>44.2306992129769</v>
+        <v>39.5751410006412</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>532.650307134125</v>
+        <v>536.892608427248</v>
       </c>
       <c r="C16">
-        <v>65.529432065739</v>
+        <v>57.318005481793</v>
       </c>
       <c r="D16">
-        <v>11.277008985418</v>
+        <v>11.1139241504929</v>
       </c>
       <c r="E16">
-        <v>21.77183171631</v>
+        <v>28.4623485051637</v>
       </c>
       <c r="F16">
-        <v>4.03774041708282</v>
+        <v>4.00605243387668</v>
       </c>
       <c r="G16">
-        <v>12.7966339871533</v>
+        <v>13.4319281482711</v>
       </c>
       <c r="H16">
-        <v>17.3898679319101</v>
+        <v>14.2819073801684</v>
       </c>
       <c r="I16">
-        <v>12.6843219596077</v>
+        <v>14.9432816343442</v>
       </c>
       <c r="J16">
-        <v>50.7500046436628</v>
+        <v>48.209108593127</v>
       </c>
       <c r="K16">
-        <v>48.9745822618077</v>
+        <v>51.1854667888139</v>
       </c>
       <c r="L16">
-        <v>40.8463720051137</v>
+        <v>38.2499226771179</v>
       </c>
       <c r="M16">
-        <v>24.2253761450492</v>
+        <v>22.7641763639719</v>
       </c>
       <c r="N16">
-        <v>24.3546264813168</v>
+        <v>23.7020949440738</v>
       </c>
       <c r="O16">
-        <v>1112.93134737563</v>
+        <v>1098.08514682237</v>
       </c>
       <c r="P16">
-        <v>84.60494637368061</v>
+        <v>84.1669874929773</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>527.985799706767</v>
+        <v>524.0438538228081</v>
       </c>
       <c r="C17">
-        <v>32.7162529751404</v>
+        <v>31.4788495377213</v>
       </c>
       <c r="D17">
-        <v>6.46080743344533</v>
+        <v>6.13456830208344</v>
       </c>
       <c r="E17">
-        <v>16.6856804913797</v>
+        <v>14.6735762855872</v>
       </c>
       <c r="F17">
-        <v>15.8700208020937</v>
+        <v>14.5888586323115</v>
       </c>
       <c r="G17">
-        <v>13.5720929329116</v>
+        <v>12.0843042175136</v>
       </c>
       <c r="H17">
-        <v>15.2125953362325</v>
+        <v>14.651426647355</v>
       </c>
       <c r="I17">
-        <v>6.72628819144011</v>
+        <v>9.20770821295608</v>
       </c>
       <c r="J17">
-        <v>22.3507499653717</v>
+        <v>21.1554940811514</v>
       </c>
       <c r="K17">
-        <v>25.8996013051531</v>
+        <v>24.951562225466</v>
       </c>
       <c r="L17">
-        <v>18.810595380907</v>
+        <v>16.3970577951996</v>
       </c>
       <c r="M17">
-        <v>80.1030380307501</v>
+        <v>74.1274260360554</v>
       </c>
       <c r="N17">
-        <v>15.6292961282159</v>
+        <v>17.8698096031599</v>
       </c>
       <c r="O17">
-        <v>1007.38774074012</v>
+        <v>1004.22679356742</v>
       </c>
       <c r="P17">
-        <v>71.97833817211151</v>
+        <v>71.6497260695631</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1050.0165630308</v>
+        <v>1049.3121947003</v>
       </c>
       <c r="C18">
-        <v>31.5279628539996</v>
+        <v>34.8261732742588</v>
       </c>
       <c r="D18">
-        <v>28.9226206607104</v>
+        <v>31.1612618957766</v>
       </c>
       <c r="E18">
-        <v>41.2881898675767</v>
+        <v>44.8741806590517</v>
       </c>
       <c r="F18">
-        <v>34.7258149545363</v>
+        <v>37.1184103573107</v>
       </c>
       <c r="G18">
-        <v>28.7029749361716</v>
+        <v>29.2619520234073</v>
       </c>
       <c r="H18">
-        <v>25.2723284921006</v>
+        <v>26.3864958267487</v>
       </c>
       <c r="I18">
-        <v>11.9579405738242</v>
+        <v>9.908773832715481</v>
       </c>
       <c r="J18">
-        <v>46.1004859018471</v>
+        <v>44.482588663265</v>
       </c>
       <c r="K18">
-        <v>40.800079824706</v>
+        <v>40.0184809667658</v>
       </c>
       <c r="L18">
-        <v>43.8056233429995</v>
+        <v>49.546845059047</v>
       </c>
       <c r="M18">
-        <v>65.6516084871913</v>
+        <v>65.1261635090068</v>
       </c>
       <c r="N18">
-        <v>27.9657142298688</v>
+        <v>30.1103404579689</v>
       </c>
       <c r="O18">
-        <v>1375.2617857225</v>
+        <v>1363.04967465128</v>
       </c>
       <c r="P18">
-        <v>40.7325136979494</v>
+        <v>43.0898331762976</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1182.62452100269</v>
+        <v>1173.09621402333</v>
       </c>
       <c r="C19">
-        <v>23.1994517142424</v>
+        <v>24.5502101431982</v>
       </c>
       <c r="D19">
-        <v>15.3738932396323</v>
+        <v>19.4508908684875</v>
       </c>
       <c r="E19">
-        <v>39.4282593653923</v>
+        <v>41.5018461704074</v>
       </c>
       <c r="F19">
-        <v>72.4370890081664</v>
+        <v>71.64152335955571</v>
       </c>
       <c r="G19">
-        <v>45.5863230874482</v>
+        <v>43.6582313619455</v>
       </c>
       <c r="H19">
-        <v>6.88043947943602</v>
+        <v>5.16612443878362</v>
       </c>
       <c r="I19">
-        <v>7.51411183803995</v>
+        <v>7.11695428591609</v>
       </c>
       <c r="J19">
-        <v>17.9785512561699</v>
+        <v>19.5979640308635</v>
       </c>
       <c r="K19">
-        <v>14.3752530249318</v>
+        <v>13.539867414862</v>
       </c>
       <c r="L19">
-        <v>10.503556545512</v>
+        <v>12.1177500000471</v>
       </c>
       <c r="M19">
-        <v>32.5059139672898</v>
+        <v>26.5927131831128</v>
       </c>
       <c r="N19">
-        <v>12.2973050935925</v>
+        <v>12.5183343041293</v>
       </c>
       <c r="O19">
-        <v>1562.25549152341</v>
+        <v>1579.0697973635</v>
       </c>
       <c r="P19">
-        <v>40.2543151946458</v>
+        <v>38.793637442843</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>290.372216376173</v>
+        <v>293.534787309187</v>
       </c>
       <c r="C20">
-        <v>7.77353841812932</v>
+        <v>8.152964093843901</v>
       </c>
       <c r="D20">
-        <v>18.2185590551544</v>
+        <v>17.7792180872363</v>
       </c>
       <c r="E20">
-        <v>34.2369115160832</v>
+        <v>35.3131658005604</v>
       </c>
       <c r="F20">
-        <v>0.263208742621594</v>
+        <v>0.302784263462114</v>
       </c>
       <c r="G20">
-        <v>1.71712184102401</v>
+        <v>1.84460918210795</v>
       </c>
       <c r="H20">
-        <v>3.25832879562404</v>
+        <v>3.43285854081779</v>
       </c>
       <c r="I20">
-        <v>1.22596158637976</v>
+        <v>1.30941522769341</v>
       </c>
       <c r="J20">
-        <v>7.78140947962672</v>
+        <v>7.04030978028419</v>
       </c>
       <c r="K20">
-        <v>5.42819884800172</v>
+        <v>5.07874414013995</v>
       </c>
       <c r="L20">
-        <v>9.232300658611541</v>
+        <v>10.9011919235776</v>
       </c>
       <c r="M20">
-        <v>17.0902925193104</v>
+        <v>17.8445366061672</v>
       </c>
       <c r="N20">
-        <v>5.77512776688749</v>
+        <v>5.33705168926546</v>
       </c>
       <c r="O20">
-        <v>492.797688231353</v>
+        <v>484.043588599321</v>
       </c>
       <c r="P20">
-        <v>24.4687798919781</v>
+        <v>24.2822993112754</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1069.4705960726</v>
+        <v>1094.65210446061</v>
       </c>
       <c r="C21">
-        <v>26.9859812029134</v>
+        <v>28.1052874890065</v>
       </c>
       <c r="D21">
-        <v>15.1215551969442</v>
+        <v>12.4956887118496</v>
       </c>
       <c r="E21">
-        <v>33.3761609226067</v>
+        <v>34.926891357326</v>
       </c>
       <c r="F21">
-        <v>4.74684894081636</v>
+        <v>4.32560135321767</v>
       </c>
       <c r="G21">
-        <v>18.596654982032</v>
+        <v>13.7808034860173</v>
       </c>
       <c r="H21">
-        <v>17.8342769480457</v>
+        <v>26.2194519362703</v>
       </c>
       <c r="I21">
-        <v>6.47747115155455</v>
+        <v>7.32849961092694</v>
       </c>
       <c r="J21">
-        <v>19.6641942758974</v>
+        <v>15.7226559828981</v>
       </c>
       <c r="K21">
-        <v>21.6885207166019</v>
+        <v>16.4658619927032</v>
       </c>
       <c r="L21">
-        <v>34.5154945870962</v>
+        <v>41.6536474395373</v>
       </c>
       <c r="M21">
-        <v>39.8162306766658</v>
+        <v>39.411023176936</v>
       </c>
       <c r="N21">
-        <v>16.6702548685866</v>
+        <v>22.822258290942</v>
       </c>
       <c r="O21">
-        <v>2381.27963246908</v>
+        <v>2334.93016398716</v>
       </c>
       <c r="P21">
-        <v>19.9326403241562</v>
+        <v>20.3250890434975</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1327.62299552956</v>
+        <v>1341.76078837971</v>
       </c>
       <c r="C22">
-        <v>24.0742650768671</v>
+        <v>25.2125234498989</v>
       </c>
       <c r="D22">
-        <v>36.5969490062855</v>
+        <v>37.6970009444894</v>
       </c>
       <c r="E22">
-        <v>39.3192683199679</v>
+        <v>41.5545719882011</v>
       </c>
       <c r="F22">
-        <v>2.89086647628153</v>
+        <v>2.59713041378194</v>
       </c>
       <c r="G22">
-        <v>26.4489974301897</v>
+        <v>25.8039139756349</v>
       </c>
       <c r="H22">
-        <v>28.7074338415236</v>
+        <v>29.3130193860249</v>
       </c>
       <c r="I22">
-        <v>12.0512635792135</v>
+        <v>11.3637472497707</v>
       </c>
       <c r="J22">
-        <v>59.916992700201</v>
+        <v>60.5468092960385</v>
       </c>
       <c r="K22">
-        <v>45.4328206297474</v>
+        <v>45.8492393358763</v>
       </c>
       <c r="L22">
-        <v>125.012269223179</v>
+        <v>135.378276918533</v>
       </c>
       <c r="M22">
-        <v>23.2081417337602</v>
+        <v>24.3971760889289</v>
       </c>
       <c r="N22">
-        <v>86.22555629395529</v>
+        <v>82.9485141231166</v>
       </c>
       <c r="O22">
-        <v>2712.87568201259</v>
+        <v>2663.16705340831</v>
       </c>
       <c r="P22">
-        <v>18.9726144551501</v>
+        <v>18.9598302521315</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2237.24925665277</v>
+        <v>2285.7421778009</v>
       </c>
       <c r="C23">
-        <v>48.0057562139088</v>
+        <v>50.8224362729515</v>
       </c>
       <c r="D23">
-        <v>18.0687563656199</v>
+        <v>18.4288702884659</v>
       </c>
       <c r="E23">
-        <v>65.7179734221221</v>
+        <v>69.6314980433378</v>
       </c>
       <c r="F23">
-        <v>7.76412143659329</v>
+        <v>5.26596547216806</v>
       </c>
       <c r="G23">
-        <v>62.7417299375564</v>
+        <v>64.3822127117206</v>
       </c>
       <c r="H23">
-        <v>64.5625253238551</v>
+        <v>66.8490782116447</v>
       </c>
       <c r="I23">
-        <v>23.9321212691051</v>
+        <v>22.6710576738088</v>
       </c>
       <c r="J23">
-        <v>175.021685797056</v>
+        <v>179.90454291734</v>
       </c>
       <c r="K23">
-        <v>140.95006379164</v>
+        <v>133.179141250589</v>
       </c>
       <c r="L23">
-        <v>57.6844774418885</v>
+        <v>56.3031155439002</v>
       </c>
       <c r="M23">
-        <v>532.21408760421</v>
+        <v>529.271226219534</v>
       </c>
       <c r="N23">
-        <v>91.9845047712969</v>
+        <v>91.0792927917673</v>
       </c>
       <c r="O23">
-        <v>3422.03453745256</v>
+        <v>3356.87365562576</v>
       </c>
       <c r="P23">
-        <v>70.11384841927379</v>
+        <v>72.57216190144359</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>842.796356524924</v>
+        <v>869.3760073413951</v>
       </c>
       <c r="C24">
-        <v>69.80455251447739</v>
+        <v>72.1210779600722</v>
       </c>
       <c r="D24">
-        <v>9.233668568180899</v>
+        <v>7.19750735506032</v>
       </c>
       <c r="E24">
-        <v>61.8610161047064</v>
+        <v>70.31038796101061</v>
       </c>
       <c r="F24">
-        <v>17.5837410080113</v>
+        <v>17.7388564272555</v>
       </c>
       <c r="G24">
-        <v>18.7340850014634</v>
+        <v>17.116575788244</v>
       </c>
       <c r="H24">
-        <v>30.4305732600902</v>
+        <v>27.7684488715449</v>
       </c>
       <c r="I24">
-        <v>11.8542299750312</v>
+        <v>10.4620970280043</v>
       </c>
       <c r="J24">
-        <v>59.3155249288565</v>
+        <v>58.4757213470077</v>
       </c>
       <c r="K24">
-        <v>64.51098366966291</v>
+        <v>61.8563157234361</v>
       </c>
       <c r="L24">
-        <v>78.2366466589957</v>
+        <v>77.7015791220459</v>
       </c>
       <c r="M24">
-        <v>22.8940765365901</v>
+        <v>19.7032575208318</v>
       </c>
       <c r="N24">
-        <v>65.1987582029855</v>
+        <v>65.06397356733321</v>
       </c>
       <c r="O24">
-        <v>1978.34963137788</v>
+        <v>1962.79324302732</v>
       </c>
       <c r="P24">
-        <v>125.841533271921</v>
+        <v>118.056675314928</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>742.78519377955</v>
+        <v>735.1761180992351</v>
       </c>
       <c r="C25">
-        <v>35.5422583479333</v>
+        <v>36.3057083205777</v>
       </c>
       <c r="D25">
-        <v>26.7051826627291</v>
+        <v>28.422154172089</v>
       </c>
       <c r="E25">
-        <v>34.9480514644058</v>
+        <v>34.5293186788085</v>
       </c>
       <c r="F25">
-        <v>16.5719782071363</v>
+        <v>19.416939093047</v>
       </c>
       <c r="G25">
-        <v>11.239505382851</v>
+        <v>12.7517100492074</v>
       </c>
       <c r="H25">
-        <v>16.3706757696871</v>
+        <v>15.048793238515</v>
       </c>
       <c r="I25">
-        <v>4.96403898259472</v>
+        <v>5.30626022583599</v>
       </c>
       <c r="J25">
-        <v>21.6206164454553</v>
+        <v>21.1598263653002</v>
       </c>
       <c r="K25">
-        <v>18.3562280955871</v>
+        <v>18.9683857669807</v>
       </c>
       <c r="L25">
-        <v>33.8162412174103</v>
+        <v>35.5343928903264</v>
       </c>
       <c r="M25">
-        <v>27.166164726166</v>
+        <v>25.0265970817983</v>
       </c>
       <c r="N25">
-        <v>47.573600205351</v>
+        <v>47.1855593221854</v>
       </c>
       <c r="O25">
-        <v>868.1345459641281</v>
+        <v>872.14440591528</v>
       </c>
       <c r="P25">
-        <v>40.7076741781858</v>
+        <v>39.5687650331761</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1219.08443094606</v>
+        <v>1220.04448263885</v>
       </c>
       <c r="C26">
-        <v>58.7609157124583</v>
+        <v>60.9691341216883</v>
       </c>
       <c r="D26">
-        <v>17.4325328661624</v>
+        <v>17.8920931464034</v>
       </c>
       <c r="E26">
-        <v>52.6522077567204</v>
+        <v>50.1224477226552</v>
       </c>
       <c r="F26">
-        <v>3.75041692666702</v>
+        <v>4.57688180041449</v>
       </c>
       <c r="G26">
-        <v>38.9617907698757</v>
+        <v>38.1037960642479</v>
       </c>
       <c r="H26">
-        <v>23.0660803251662</v>
+        <v>25.6519390794479</v>
       </c>
       <c r="I26">
-        <v>15.7648625263643</v>
+        <v>18.4623143100801</v>
       </c>
       <c r="J26">
-        <v>59.2549000039295</v>
+        <v>65.0933861593996</v>
       </c>
       <c r="K26">
-        <v>51.4579779100724</v>
+        <v>52.2868180853586</v>
       </c>
       <c r="L26">
-        <v>53.6992419317954</v>
+        <v>39.3200384737351</v>
       </c>
       <c r="M26">
-        <v>88.6635145067455</v>
+        <v>87.58452959232901</v>
       </c>
       <c r="N26">
-        <v>39.8236408485684</v>
+        <v>45.8928568352622</v>
       </c>
       <c r="O26">
-        <v>2148.98490791069</v>
+        <v>2141.59088707405</v>
       </c>
       <c r="P26">
-        <v>76.276919730773</v>
+        <v>76.1884390300478</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>200.744600384505</v>
+        <v>197.609011875795</v>
       </c>
       <c r="C27">
-        <v>2.90105441120513</v>
+        <v>2.91805088037377</v>
       </c>
       <c r="D27">
-        <v>1.25797615302641</v>
+        <v>1.52044646221438</v>
       </c>
       <c r="E27">
-        <v>10.9809619679777</v>
+        <v>11.8647712409764</v>
       </c>
       <c r="F27">
-        <v>8.395725140833489</v>
+        <v>8.756025970076999</v>
       </c>
       <c r="G27">
-        <v>0.772272084073371</v>
+        <v>0.826465635825786</v>
       </c>
       <c r="H27">
-        <v>0.519160826518464</v>
+        <v>0.500224188739828</v>
       </c>
       <c r="I27">
-        <v>1.32693871394504</v>
+        <v>1.66265114860403</v>
       </c>
       <c r="J27">
-        <v>4.6131384895411</v>
+        <v>4.28509400092575</v>
       </c>
       <c r="K27">
-        <v>1.67183680882689</v>
+        <v>1.64437399696971</v>
       </c>
       <c r="L27">
-        <v>2.04847923182377</v>
+        <v>1.79629044664661</v>
       </c>
       <c r="M27">
-        <v>1.06557326472868</v>
+        <v>1.24513067556602</v>
       </c>
       <c r="N27">
-        <v>4.5777710252635</v>
+        <v>5.05567307279888</v>
       </c>
       <c r="O27">
-        <v>351.67174379185</v>
+        <v>355.322680888426</v>
       </c>
       <c r="P27">
-        <v>45.6170748596869</v>
+        <v>46.781823875411</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>305.662838983048</v>
+        <v>311.968234637495</v>
       </c>
       <c r="C28">
-        <v>33.9843362381911</v>
+        <v>32.7693163170842</v>
       </c>
       <c r="D28">
-        <v>1.79402013645833</v>
+        <v>1.7979529629042</v>
       </c>
       <c r="E28">
-        <v>7.55203394506621</v>
+        <v>9.147323714297651</v>
       </c>
       <c r="F28">
-        <v>2.10668470894927</v>
+        <v>1.82594242957091</v>
       </c>
       <c r="G28">
-        <v>4.9075560951749</v>
+        <v>5.04181927114217</v>
       </c>
       <c r="H28">
-        <v>7.61485547387417</v>
+        <v>7.44504378481012</v>
       </c>
       <c r="I28">
-        <v>4.78549771839121</v>
+        <v>4.84175769856777</v>
       </c>
       <c r="J28">
-        <v>17.7214099593195</v>
+        <v>16.7615627337135</v>
       </c>
       <c r="K28">
-        <v>17.6473216547729</v>
+        <v>16.3873782042885</v>
       </c>
       <c r="L28">
-        <v>12.6243878743702</v>
+        <v>10.952362441397</v>
       </c>
       <c r="M28">
-        <v>10.060045622811</v>
+        <v>7.94258597183249</v>
       </c>
       <c r="N28">
-        <v>11.2413401190931</v>
+        <v>11.9019680147365</v>
       </c>
       <c r="O28">
-        <v>668.205126819076</v>
+        <v>664.741948663834</v>
       </c>
       <c r="P28">
-        <v>90.7789474154014</v>
+        <v>91.04120735490101</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>459.357809269112</v>
+        <v>457.294268828525</v>
       </c>
       <c r="C29">
-        <v>6.18172200340556</v>
+        <v>6.61035567013287</v>
       </c>
       <c r="D29">
-        <v>2.46515567610891</v>
+        <v>3.21016249075664</v>
       </c>
       <c r="E29">
-        <v>6.38600959262967</v>
+        <v>5.84074648871514</v>
       </c>
       <c r="F29">
-        <v>16.7306605890075</v>
+        <v>17.3118890026863</v>
       </c>
       <c r="G29">
-        <v>3.0052642782115</v>
+        <v>2.52882669918717</v>
       </c>
       <c r="H29">
-        <v>2.43045037199739</v>
+        <v>2.30362022372098</v>
       </c>
       <c r="I29">
-        <v>4.6018509258705</v>
+        <v>4.79472980489876</v>
       </c>
       <c r="J29">
-        <v>7.98550749469173</v>
+        <v>6.92362241738773</v>
       </c>
       <c r="K29">
-        <v>3.89262062171539</v>
+        <v>2.66065371033113</v>
       </c>
       <c r="L29">
-        <v>6.12621250839574</v>
+        <v>5.15000117939599</v>
       </c>
       <c r="M29">
-        <v>2.57741991724912</v>
+        <v>3.00320063320998</v>
       </c>
       <c r="N29">
-        <v>11.8930636398841</v>
+        <v>12.6875108805939</v>
       </c>
       <c r="O29">
-        <v>860.871863638923</v>
+        <v>839.706397628284</v>
       </c>
       <c r="P29">
-        <v>5.04581011651747</v>
+        <v>4.88209619225627</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>226.749084521377</v>
+        <v>238.642880120907</v>
       </c>
       <c r="C30">
-        <v>4.20704992978002</v>
+        <v>3.63024180885036</v>
       </c>
       <c r="D30">
-        <v>5.41073495737029</v>
+        <v>5.71365778480317</v>
       </c>
       <c r="E30">
-        <v>13.4348310613761</v>
+        <v>15.2953955790166</v>
       </c>
       <c r="F30">
-        <v>0.700780284776182</v>
+        <v>1.27984135192145</v>
       </c>
       <c r="G30">
-        <v>5.03507264803216</v>
+        <v>5.12900959775889</v>
       </c>
       <c r="H30">
-        <v>6.16047089808915</v>
+        <v>6.04241999681927</v>
       </c>
       <c r="I30">
-        <v>2.0069412299088</v>
+        <v>2.44103531408558</v>
       </c>
       <c r="J30">
-        <v>19.5185284570598</v>
+        <v>19.1932765729743</v>
       </c>
       <c r="K30">
-        <v>14.784108808065</v>
+        <v>12.8792722391933</v>
       </c>
       <c r="L30">
-        <v>43.9108373632867</v>
+        <v>44.7975303424017</v>
       </c>
       <c r="M30">
-        <v>10.3104298577904</v>
+        <v>10.8774180927892</v>
       </c>
       <c r="N30">
-        <v>16.9445042432983</v>
+        <v>14.8333306273958</v>
       </c>
       <c r="O30">
-        <v>502.663201672947</v>
+        <v>494.844203654774</v>
       </c>
       <c r="P30">
-        <v>7.37955867475769</v>
+        <v>7.70994607465328</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1956.16438398493</v>
+        <v>2013.36118967104</v>
       </c>
       <c r="C31">
-        <v>50.0858832922281</v>
+        <v>48.4723641482807</v>
       </c>
       <c r="D31">
-        <v>48.1739442067156</v>
+        <v>50.1578796749282</v>
       </c>
       <c r="E31">
-        <v>35.2824860852174</v>
+        <v>31.0089629413327</v>
       </c>
       <c r="F31">
-        <v>11.5590782546921</v>
+        <v>12.6640924112532</v>
       </c>
       <c r="G31">
-        <v>147.626672516345</v>
+        <v>153.816452636988</v>
       </c>
       <c r="H31">
-        <v>29.8594577334319</v>
+        <v>30.2543692340789</v>
       </c>
       <c r="I31">
-        <v>24.3892079449946</v>
+        <v>27.2161656306248</v>
       </c>
       <c r="J31">
-        <v>46.8894495380341</v>
+        <v>41.2986907595629</v>
       </c>
       <c r="K31">
-        <v>43.5858301129604</v>
+        <v>42.1816858911589</v>
       </c>
       <c r="L31">
-        <v>65.28688936774461</v>
+        <v>62.0838949439208</v>
       </c>
       <c r="M31">
-        <v>33.8418374056134</v>
+        <v>32.8164917659235</v>
       </c>
       <c r="N31">
-        <v>69.4188387279418</v>
+        <v>73.4616643684699</v>
       </c>
       <c r="O31">
-        <v>3461.28256597285</v>
+        <v>3411.6557052288</v>
       </c>
       <c r="P31">
-        <v>12.9681354553658</v>
+        <v>11.9430345945625</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>468.432170908557</v>
+        <v>472.194927448305</v>
       </c>
       <c r="C32">
-        <v>4.57688787453954</v>
+        <v>5.1252299979585</v>
       </c>
       <c r="D32">
-        <v>3.91437702446431</v>
+        <v>4.16775111158591</v>
       </c>
       <c r="E32">
-        <v>4.76999180297106</v>
+        <v>2.56057320092988</v>
       </c>
       <c r="F32">
-        <v>23.0745777105139</v>
+        <v>22.1924050487563</v>
       </c>
       <c r="G32">
-        <v>2.0730050339173</v>
+        <v>2.46434981852006</v>
       </c>
       <c r="H32">
-        <v>1.07065109239605</v>
+        <v>1.39559491329261</v>
       </c>
       <c r="I32">
-        <v>3.68455550385468</v>
+        <v>3.54213638452072</v>
       </c>
       <c r="J32">
-        <v>2.39679606244615</v>
+        <v>1.72141153352432</v>
       </c>
       <c r="K32">
-        <v>4.63742217939964</v>
+        <v>4.76381227386727</v>
       </c>
       <c r="L32">
-        <v>14.6674711123281</v>
+        <v>13.7395844067481</v>
       </c>
       <c r="M32">
-        <v>5.12956032324501</v>
+        <v>6.10570904310519</v>
       </c>
       <c r="N32">
-        <v>12.3334973003257</v>
+        <v>11.4775860269267</v>
       </c>
       <c r="O32">
-        <v>677.6319120557751</v>
+        <v>681.3548783172801</v>
       </c>
       <c r="P32">
-        <v>27.8215768209428</v>
+        <v>37.0778649708015</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4909.46079214075</v>
+        <v>5012.597192907711</v>
       </c>
       <c r="C33">
-        <v>86.39799978660341</v>
+        <v>87.0874854488363</v>
       </c>
       <c r="D33">
-        <v>138.851852441689</v>
+        <v>142.029140519144</v>
       </c>
       <c r="E33">
-        <v>86.8988213418385</v>
+        <v>92.102533480625</v>
       </c>
       <c r="F33">
-        <v>13.6323107824493</v>
+        <v>12.2237180255138</v>
       </c>
       <c r="G33">
-        <v>87.72497671971939</v>
+        <v>80.5499878083095</v>
       </c>
       <c r="H33">
-        <v>47.3889098921297</v>
+        <v>49.0205923544595</v>
       </c>
       <c r="I33">
-        <v>46.0931589614087</v>
+        <v>46.5828010850323</v>
       </c>
       <c r="J33">
-        <v>123.744042050845</v>
+        <v>121.105592490636</v>
       </c>
       <c r="K33">
-        <v>124.866963310515</v>
+        <v>123.811795380308</v>
       </c>
       <c r="L33">
-        <v>155.258556534165</v>
+        <v>144.939428286565</v>
       </c>
       <c r="M33">
-        <v>90.8861169327616</v>
+        <v>94.68629204525401</v>
       </c>
       <c r="N33">
-        <v>150.916458915792</v>
+        <v>157.522707838628</v>
       </c>
       <c r="O33">
-        <v>7434.49586040378</v>
+        <v>7395.89272351457</v>
       </c>
       <c r="P33">
-        <v>84.3382895457051</v>
+        <v>87.1164208132151</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1745.54010811914</v>
+        <v>1768.56193966229</v>
       </c>
       <c r="C34">
-        <v>79.8208622284771</v>
+        <v>85.5114759413464</v>
       </c>
       <c r="D34">
-        <v>226.410869331526</v>
+        <v>233.999622069114</v>
       </c>
       <c r="E34">
-        <v>85.295711739422</v>
+        <v>85.18613866198601</v>
       </c>
       <c r="F34">
-        <v>7.08592233116567</v>
+        <v>7.43878045499278</v>
       </c>
       <c r="G34">
-        <v>68.3609079300528</v>
+        <v>72.6976509182274</v>
       </c>
       <c r="H34">
-        <v>47.722128337101</v>
+        <v>49.0396544623566</v>
       </c>
       <c r="I34">
-        <v>28.8301856955953</v>
+        <v>30.5982142492891</v>
       </c>
       <c r="J34">
-        <v>60.4076999995961</v>
+        <v>56.8148671955168</v>
       </c>
       <c r="K34">
-        <v>66.5983788423558</v>
+        <v>63.7284428777263</v>
       </c>
       <c r="L34">
-        <v>113.936318792367</v>
+        <v>113.199008458369</v>
       </c>
       <c r="M34">
-        <v>57.8528286268327</v>
+        <v>58.6890593117381</v>
       </c>
       <c r="N34">
-        <v>138.459172489997</v>
+        <v>137.697749634928</v>
       </c>
       <c r="O34">
-        <v>2855.4248606175</v>
+        <v>2834.00831389223</v>
       </c>
       <c r="P34">
-        <v>67.37569528476929</v>
+        <v>61.9639821519707</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>125.210173401618</v>
+        <v>128.95036142207</v>
       </c>
       <c r="C35">
-        <v>6.41747445000095</v>
+        <v>7.24089857981667</v>
       </c>
       <c r="D35">
-        <v>0.861492687093335</v>
+        <v>0.948363356050159</v>
       </c>
       <c r="E35">
-        <v>1.84335976509919</v>
+        <v>1.79271952655058</v>
       </c>
       <c r="F35">
-        <v>5.59281143308514</v>
+        <v>5.49379777274914</v>
       </c>
       <c r="G35">
-        <v>0.38774844238725</v>
+        <v>0.445167024330014</v>
       </c>
       <c r="H35">
-        <v>0.497780880018149</v>
+        <v>0.609225537433419</v>
       </c>
       <c r="I35">
-        <v>0.887563401892233</v>
+        <v>1.05551563281556</v>
       </c>
       <c r="J35">
-        <v>2.19712624555184</v>
+        <v>1.64199691493016</v>
       </c>
       <c r="K35">
-        <v>6.72756707053916</v>
+        <v>6.02984532830725</v>
       </c>
       <c r="L35">
-        <v>2.25939339803661</v>
+        <v>2.78871408361419</v>
       </c>
       <c r="M35">
-        <v>2.05722818474405</v>
+        <v>1.99302712460928</v>
       </c>
       <c r="N35">
-        <v>2.44002845719026</v>
+        <v>2.53345519220419</v>
       </c>
       <c r="O35">
-        <v>248.127544435021</v>
+        <v>250.855072089996</v>
       </c>
       <c r="P35">
-        <v>43.8984898511149</v>
+        <v>44.5336200295281</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2547.81739382766</v>
+        <v>2592.16636489649</v>
       </c>
       <c r="C36">
-        <v>69.77037824684579</v>
+        <v>68.7500258475195</v>
       </c>
       <c r="D36">
-        <v>22.9881789001268</v>
+        <v>24.1096645025117</v>
       </c>
       <c r="E36">
-        <v>90.4897098843672</v>
+        <v>88.0325203688637</v>
       </c>
       <c r="F36">
-        <v>30.0461354054688</v>
+        <v>32.4620866271299</v>
       </c>
       <c r="G36">
-        <v>92.2769492882077</v>
+        <v>94.67272886773201</v>
       </c>
       <c r="H36">
-        <v>124.551216084465</v>
+        <v>129.021598759137</v>
       </c>
       <c r="I36">
-        <v>49.784499007342</v>
+        <v>45.0833465656789</v>
       </c>
       <c r="J36">
-        <v>274.126740222993</v>
+        <v>282.556835214462</v>
       </c>
       <c r="K36">
-        <v>164.306241669177</v>
+        <v>157.655162840797</v>
       </c>
       <c r="L36">
-        <v>112.476460511136</v>
+        <v>114.680780981943</v>
       </c>
       <c r="M36">
-        <v>256.853381349219</v>
+        <v>257.896968103441</v>
       </c>
       <c r="N36">
-        <v>91.22100458763261</v>
+        <v>84.5396801114574</v>
       </c>
       <c r="O36">
-        <v>4088.48928181362</v>
+        <v>4042.84871809497</v>
       </c>
       <c r="P36">
-        <v>61.4695571909974</v>
+        <v>69.8511915585388</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>847.969036354373</v>
+        <v>862.241889316996</v>
       </c>
       <c r="C37">
-        <v>22.1032862876502</v>
+        <v>20.5238966222511</v>
       </c>
       <c r="D37">
-        <v>14.6812918253888</v>
+        <v>15.6792161710433</v>
       </c>
       <c r="E37">
-        <v>19.1914266071534</v>
+        <v>19.5299547786147</v>
       </c>
       <c r="F37">
-        <v>50.5391907724864</v>
+        <v>48.1304623070966</v>
       </c>
       <c r="G37">
-        <v>4.58895192315646</v>
+        <v>4.86334602265598</v>
       </c>
       <c r="H37">
-        <v>19.6137345032366</v>
+        <v>21.4920137988735</v>
       </c>
       <c r="I37">
-        <v>12.058123804024</v>
+        <v>11.3637257121944</v>
       </c>
       <c r="J37">
-        <v>35.2351487609228</v>
+        <v>36.5335155366321</v>
       </c>
       <c r="K37">
-        <v>32.4279772836772</v>
+        <v>30.2900651122861</v>
       </c>
       <c r="L37">
-        <v>24.9432354874981</v>
+        <v>27.2905807801095</v>
       </c>
       <c r="M37">
-        <v>29.7289772673683</v>
+        <v>33.7199334438467</v>
       </c>
       <c r="N37">
-        <v>21.0622687867798</v>
+        <v>21.9803556064496</v>
       </c>
       <c r="O37">
-        <v>1211.25384940429</v>
+        <v>1199.90408212405</v>
       </c>
       <c r="P37">
-        <v>60.8921315632603</v>
+        <v>62.8947404943607</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>770.05049638699</v>
+        <v>775.752414489335</v>
       </c>
       <c r="C38">
-        <v>31.436281515493</v>
+        <v>26.6608068959587</v>
       </c>
       <c r="D38">
-        <v>10.671931786589</v>
+        <v>11.6965369031343</v>
       </c>
       <c r="E38">
-        <v>61.3367426852909</v>
+        <v>61.9120136656863</v>
       </c>
       <c r="F38">
-        <v>2.23120618927668</v>
+        <v>2.19924846850928</v>
       </c>
       <c r="G38">
-        <v>9.39281920277803</v>
+        <v>7.87666980489302</v>
       </c>
       <c r="H38">
-        <v>7.45139931901234</v>
+        <v>7.81506918504638</v>
       </c>
       <c r="I38">
-        <v>7.55286665605764</v>
+        <v>6.83523200644018</v>
       </c>
       <c r="J38">
-        <v>30.8897329997375</v>
+        <v>32.267763928007</v>
       </c>
       <c r="K38">
-        <v>20.2633612130203</v>
+        <v>19.0786380258014</v>
       </c>
       <c r="L38">
-        <v>63.3456599186116</v>
+        <v>62.3717530688974</v>
       </c>
       <c r="M38">
-        <v>24.8283770431573</v>
+        <v>23.4510628894178</v>
       </c>
       <c r="N38">
-        <v>26.1589960761185</v>
+        <v>27.2439536505525</v>
       </c>
       <c r="O38">
-        <v>1303.70231979793</v>
+        <v>1299.65091663527</v>
       </c>
       <c r="P38">
-        <v>68.7014644235657</v>
+        <v>68.9722948409795</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2974.16922277137</v>
+        <v>3017.68341008883</v>
       </c>
       <c r="C39">
-        <v>110.13356615787</v>
+        <v>115.507425552668</v>
       </c>
       <c r="D39">
-        <v>70.1158058730703</v>
+        <v>68.4893789910511</v>
       </c>
       <c r="E39">
-        <v>117.325966911547</v>
+        <v>112.61142912166</v>
       </c>
       <c r="F39">
-        <v>37.8573820034592</v>
+        <v>40.0985451580171</v>
       </c>
       <c r="G39">
-        <v>109.65756578693</v>
+        <v>109.663376223636</v>
       </c>
       <c r="H39">
-        <v>57.2883187039078</v>
+        <v>60.7434806256127</v>
       </c>
       <c r="I39">
-        <v>57.128835614034</v>
+        <v>58.2055708633203</v>
       </c>
       <c r="J39">
-        <v>218.761716718808</v>
+        <v>206.636082779735</v>
       </c>
       <c r="K39">
-        <v>113.40241272497</v>
+        <v>118.371842411125</v>
       </c>
       <c r="L39">
-        <v>142.328284730144</v>
+        <v>138.332038063967</v>
       </c>
       <c r="M39">
-        <v>85.7089786087208</v>
+        <v>91.90802965119831</v>
       </c>
       <c r="N39">
-        <v>103.707655599721</v>
+        <v>103.823673367217</v>
       </c>
       <c r="O39">
-        <v>4521.0868525875</v>
+        <v>4466.77186111482</v>
       </c>
       <c r="P39">
-        <v>83.16326434323391</v>
+        <v>80.2398250479914</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>242.733939213068</v>
+        <v>246.453570694857</v>
       </c>
       <c r="C40">
-        <v>4.09334170238452</v>
+        <v>3.83207895878129</v>
       </c>
       <c r="D40">
-        <v>9.89155552296925</v>
+        <v>9.991406649741499</v>
       </c>
       <c r="E40">
-        <v>4.17442040305565</v>
+        <v>4.12281248377772</v>
       </c>
       <c r="F40">
-        <v>1.10804974457362</v>
+        <v>2.30991207275283</v>
       </c>
       <c r="G40">
-        <v>4.05422684144253</v>
+        <v>3.36834200987919</v>
       </c>
       <c r="H40">
-        <v>7.73423070654445</v>
+        <v>6.96154910914895</v>
       </c>
       <c r="I40">
-        <v>2.2580693008857</v>
+        <v>2.15192681265482</v>
       </c>
       <c r="J40">
-        <v>13.4386896894955</v>
+        <v>11.9718423153184</v>
       </c>
       <c r="K40">
-        <v>6.9624292885848</v>
+        <v>5.57480130304296</v>
       </c>
       <c r="L40">
-        <v>15.272540446086</v>
+        <v>16.8848787778411</v>
       </c>
       <c r="M40">
-        <v>8.33194557041667</v>
+        <v>9.697381165961099</v>
       </c>
       <c r="N40">
-        <v>25.9559481954561</v>
+        <v>25.9158665281709</v>
       </c>
       <c r="O40">
-        <v>392.722643608512</v>
+        <v>391.107306660411</v>
       </c>
       <c r="P40">
-        <v>2.58457606330136</v>
+        <v>2.40730232203336</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>942.344129461032</v>
+        <v>941.545663209249</v>
       </c>
       <c r="C41">
-        <v>18.3366038835945</v>
+        <v>16.6710212855087</v>
       </c>
       <c r="D41">
-        <v>112.478900164668</v>
+        <v>120.366395866644</v>
       </c>
       <c r="E41">
-        <v>50.9428154063509</v>
+        <v>56.0479954773348</v>
       </c>
       <c r="F41">
-        <v>3.49810984593389</v>
+        <v>3.07352732158895</v>
       </c>
       <c r="G41">
-        <v>37.8538821871059</v>
+        <v>36.7517187012578</v>
       </c>
       <c r="H41">
-        <v>32.9253558618822</v>
+        <v>35.8731018994364</v>
       </c>
       <c r="I41">
-        <v>6.54263690254379</v>
+        <v>7.6166600719733</v>
       </c>
       <c r="J41">
-        <v>45.9725805405725</v>
+        <v>45.6044967877285</v>
       </c>
       <c r="K41">
-        <v>47.630689866631</v>
+        <v>48.5300545167765</v>
       </c>
       <c r="L41">
-        <v>31.4708940591114</v>
+        <v>27.3257509481344</v>
       </c>
       <c r="M41">
-        <v>42.3979999938718</v>
+        <v>39.6050059609986</v>
       </c>
       <c r="N41">
-        <v>23.7162542279589</v>
+        <v>26.0981685025949</v>
       </c>
       <c r="O41">
-        <v>1374.16524903778</v>
+        <v>1353.85396544145</v>
       </c>
       <c r="P41">
-        <v>19.4993580139839</v>
+        <v>22.9481604402163</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>138.191033623413</v>
+        <v>142.174373342604</v>
       </c>
       <c r="C42">
-        <v>9.40158954947163</v>
+        <v>8.94398383448903</v>
       </c>
       <c r="D42">
-        <v>1.81438913946594</v>
+        <v>2.26857383962846</v>
       </c>
       <c r="E42">
-        <v>5.44956179992106</v>
+        <v>5.10711998428148</v>
       </c>
       <c r="F42">
-        <v>1.67608283085396</v>
+        <v>1.84084217035186</v>
       </c>
       <c r="G42">
-        <v>0.739838574810427</v>
+        <v>0.915857834595745</v>
       </c>
       <c r="H42">
-        <v>1.72745081133819</v>
+        <v>1.80750502089786</v>
       </c>
       <c r="I42">
-        <v>1.17832918159157</v>
+        <v>1.17427935272739</v>
       </c>
       <c r="J42">
-        <v>3.95950126068993</v>
+        <v>3.79007332648863</v>
       </c>
       <c r="K42">
-        <v>7.45671325403486</v>
+        <v>7.66134503267897</v>
       </c>
       <c r="L42">
-        <v>8.20204010833065</v>
+        <v>7.91306047040003</v>
       </c>
       <c r="M42">
-        <v>3.05106481684603</v>
+        <v>2.98940139059281</v>
       </c>
       <c r="N42">
-        <v>7.94715830768643</v>
+        <v>8.772860081021159</v>
       </c>
       <c r="O42">
-        <v>286.675713528194</v>
+        <v>285.658919911771</v>
       </c>
       <c r="P42">
-        <v>46.9344964644011</v>
+        <v>46.2927454328257</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1387.74610230064</v>
+        <v>1394.12413607078</v>
       </c>
       <c r="C43">
-        <v>43.0817405069454</v>
+        <v>43.1124173515606</v>
       </c>
       <c r="D43">
-        <v>55.9097326006064</v>
+        <v>55.6181972743879</v>
       </c>
       <c r="E43">
-        <v>67.7172317114801</v>
+        <v>69.4761510271366</v>
       </c>
       <c r="F43">
-        <v>9.65620844245858</v>
+        <v>10.8901866142274</v>
       </c>
       <c r="G43">
-        <v>32.3831577083187</v>
+        <v>31.9633529213219</v>
       </c>
       <c r="H43">
-        <v>33.8067181871739</v>
+        <v>40.8223781865671</v>
       </c>
       <c r="I43">
-        <v>21.4220005406247</v>
+        <v>21.8398942225212</v>
       </c>
       <c r="J43">
-        <v>76.728935242516</v>
+        <v>75.3947304274909</v>
       </c>
       <c r="K43">
-        <v>51.4238792970346</v>
+        <v>53.8148799763959</v>
       </c>
       <c r="L43">
-        <v>62.4724718081677</v>
+        <v>53.9077675569566</v>
       </c>
       <c r="M43">
-        <v>87.9800442180789</v>
+        <v>92.3181491053013</v>
       </c>
       <c r="N43">
-        <v>71.72177448866501</v>
+        <v>70.470933201416</v>
       </c>
       <c r="O43">
-        <v>2009.01525494741</v>
+        <v>1995.80707672749</v>
       </c>
       <c r="P43">
-        <v>42.5091216120379</v>
+        <v>45.1211480323551</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4699.29531790275</v>
+        <v>4782.09063368578</v>
       </c>
       <c r="C44">
-        <v>156.159359376929</v>
+        <v>159.300285216323</v>
       </c>
       <c r="D44">
-        <v>79.0512449464604</v>
+        <v>81.81779485295159</v>
       </c>
       <c r="E44">
-        <v>96.92377283811641</v>
+        <v>99.4906044392387</v>
       </c>
       <c r="F44">
-        <v>220.848113176794</v>
+        <v>202.323993409505</v>
       </c>
       <c r="G44">
-        <v>133.224817676539</v>
+        <v>125.991089739101</v>
       </c>
       <c r="H44">
-        <v>63.8872486386454</v>
+        <v>64.0872762977888</v>
       </c>
       <c r="I44">
-        <v>49.6764185157905</v>
+        <v>51.8257828679066</v>
       </c>
       <c r="J44">
-        <v>158.304579243439</v>
+        <v>162.564559741912</v>
       </c>
       <c r="K44">
-        <v>137.012693618743</v>
+        <v>143.374763501216</v>
       </c>
       <c r="L44">
-        <v>259.385830299696</v>
+        <v>253.075445203686</v>
       </c>
       <c r="M44">
-        <v>143.904210628502</v>
+        <v>153.234558802882</v>
       </c>
       <c r="N44">
-        <v>108.422060237925</v>
+        <v>110.239813425414</v>
       </c>
       <c r="O44">
-        <v>7660.60241845309</v>
+        <v>7564.76554620421</v>
       </c>
       <c r="P44">
-        <v>227.137922775815</v>
+        <v>224.085691239365</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>430.419728039053</v>
+        <v>439.784863720302</v>
       </c>
       <c r="C45">
-        <v>17.2620159294939</v>
+        <v>18.6620068904775</v>
       </c>
       <c r="D45">
-        <v>4.39292862146293</v>
+        <v>4.76075310141285</v>
       </c>
       <c r="E45">
-        <v>12.2768010426072</v>
+        <v>12.3782601392585</v>
       </c>
       <c r="F45">
-        <v>18.6631914734262</v>
+        <v>19.1414854281973</v>
       </c>
       <c r="G45">
-        <v>9.20344537469308</v>
+        <v>9.90205058241825</v>
       </c>
       <c r="H45">
-        <v>4.11434516173406</v>
+        <v>4.1397966446952</v>
       </c>
       <c r="I45">
-        <v>5.54045183962303</v>
+        <v>6.42384243730407</v>
       </c>
       <c r="J45">
-        <v>19.1705654585232</v>
+        <v>18.0611292229923</v>
       </c>
       <c r="K45">
-        <v>12.1578495466486</v>
+        <v>14.2185844746379</v>
       </c>
       <c r="L45">
-        <v>24.7193885882964</v>
+        <v>24.8809717657525</v>
       </c>
       <c r="M45">
-        <v>28.3899709351547</v>
+        <v>28.0709174675773</v>
       </c>
       <c r="N45">
-        <v>26.7463633501647</v>
+        <v>26.795173488612</v>
       </c>
       <c r="O45">
-        <v>855.308635153836</v>
+        <v>842.156717048613</v>
       </c>
       <c r="P45">
-        <v>19.3835513598183</v>
+        <v>17.9714332570821</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>115.312491138017</v>
+        <v>114.806539237672</v>
       </c>
       <c r="C46">
-        <v>5.34576945466236</v>
+        <v>5.25466518628602</v>
       </c>
       <c r="D46">
-        <v>2.03213740922185</v>
+        <v>1.66759606372999</v>
       </c>
       <c r="E46">
-        <v>6.94458967932234</v>
+        <v>7.32203121518098</v>
       </c>
       <c r="F46">
-        <v>1.13129495858115</v>
+        <v>1.06745581250564</v>
       </c>
       <c r="G46">
-        <v>1.17773390535898</v>
+        <v>1.02113908237002</v>
       </c>
       <c r="H46">
-        <v>1.60022089662419</v>
+        <v>1.25806418139033</v>
       </c>
       <c r="I46">
-        <v>2.47115386329216</v>
+        <v>2.29827933330863</v>
       </c>
       <c r="J46">
-        <v>5.00632278297979</v>
+        <v>5.24885105247168</v>
       </c>
       <c r="K46">
-        <v>5.31474013385246</v>
+        <v>4.48731621165011</v>
       </c>
       <c r="L46">
-        <v>11.4383431298233</v>
+        <v>10.6731662907813</v>
       </c>
       <c r="M46">
-        <v>5.06141734306248</v>
+        <v>5.14258387185157</v>
       </c>
       <c r="N46">
-        <v>7.60478252525847</v>
+        <v>6.841357978697</v>
       </c>
       <c r="O46">
-        <v>253.080123908438</v>
+        <v>248.953815352082</v>
       </c>
       <c r="P46">
-        <v>12.0432616761335</v>
+        <v>12.2233750747162</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1512.13383079534</v>
+        <v>1524.73538823644</v>
       </c>
       <c r="C47">
-        <v>60.8636668598535</v>
+        <v>63.6218307647423</v>
       </c>
       <c r="D47">
-        <v>59.9265705563423</v>
+        <v>49.1455174704506</v>
       </c>
       <c r="E47">
-        <v>61.3068231587631</v>
+        <v>71.9210169354009</v>
       </c>
       <c r="F47">
-        <v>13.6470767082469</v>
+        <v>16.9799380218521</v>
       </c>
       <c r="G47">
-        <v>37.3353833874435</v>
+        <v>31.5372174316409</v>
       </c>
       <c r="H47">
-        <v>25.845557118516</v>
+        <v>28.9361699943764</v>
       </c>
       <c r="I47">
-        <v>17.9586616272523</v>
+        <v>16.3579480452625</v>
       </c>
       <c r="J47">
-        <v>51.158139837711</v>
+        <v>46.6132307299132</v>
       </c>
       <c r="K47">
-        <v>39.5633238637389</v>
+        <v>39.7130545514734</v>
       </c>
       <c r="L47">
-        <v>55.1799758919431</v>
+        <v>52.1843704372965</v>
       </c>
       <c r="M47">
-        <v>78.66876094028</v>
+        <v>83.71199031921461</v>
       </c>
       <c r="N47">
-        <v>51.550764196329</v>
+        <v>51.2857922411359</v>
       </c>
       <c r="O47">
-        <v>2818.17269149788</v>
+        <v>2796.58205598791</v>
       </c>
       <c r="P47">
-        <v>49.2172990247577</v>
+        <v>46.0261940732223</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1304.95167643689</v>
+        <v>1309.6308579879</v>
       </c>
       <c r="C48">
-        <v>32.6333428796819</v>
+        <v>24.350390083078</v>
       </c>
       <c r="D48">
-        <v>10.4611317898874</v>
+        <v>12.1147980761831</v>
       </c>
       <c r="E48">
-        <v>68.9864280242972</v>
+        <v>66.81725802321419</v>
       </c>
       <c r="F48">
-        <v>12.0318330583885</v>
+        <v>13.3629247528586</v>
       </c>
       <c r="G48">
-        <v>16.2782428725178</v>
+        <v>17.5285624274745</v>
       </c>
       <c r="H48">
-        <v>8.447906097050231</v>
+        <v>13.3895719757332</v>
       </c>
       <c r="I48">
-        <v>12.6978394391713</v>
+        <v>10.0043587763068</v>
       </c>
       <c r="J48">
-        <v>33.2345374676928</v>
+        <v>34.7117572617223</v>
       </c>
       <c r="K48">
-        <v>20.3736567291805</v>
+        <v>17.8594889062592</v>
       </c>
       <c r="L48">
-        <v>43.4723003556404</v>
+        <v>46.3872792205469</v>
       </c>
       <c r="M48">
-        <v>156.23354740627</v>
+        <v>159.923858825688</v>
       </c>
       <c r="N48">
-        <v>29.1453411293756</v>
+        <v>21.6806168766802</v>
       </c>
       <c r="O48">
-        <v>2307.23026256629</v>
+        <v>2285.17816156041</v>
       </c>
       <c r="P48">
-        <v>102.563240503927</v>
+        <v>112.790780393233</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>579.612139209878</v>
+        <v>592.087640663053</v>
       </c>
       <c r="C49">
-        <v>7.61171004614206</v>
+        <v>9.242279699262999</v>
       </c>
       <c r="D49">
-        <v>4.67055652389534</v>
+        <v>5.71144252421068</v>
       </c>
       <c r="E49">
-        <v>13.6496652525128</v>
+        <v>11.6254551208439</v>
       </c>
       <c r="F49">
-        <v>34.7906804084974</v>
+        <v>33.7796890831646</v>
       </c>
       <c r="G49">
-        <v>18.258861862978</v>
+        <v>16.3911202187802</v>
       </c>
       <c r="H49">
-        <v>5.1062681022837</v>
+        <v>5.18991093936247</v>
       </c>
       <c r="I49">
-        <v>10.3705840511869</v>
+        <v>9.735957097699989</v>
       </c>
       <c r="J49">
-        <v>21.2585343099507</v>
+        <v>22.1289304416686</v>
       </c>
       <c r="K49">
-        <v>8.430694966831529</v>
+        <v>10.3758488864476</v>
       </c>
       <c r="L49">
-        <v>4.44691827628946</v>
+        <v>5.07938246208108</v>
       </c>
       <c r="M49">
-        <v>7.78950829499113</v>
+        <v>7.69252338334858</v>
       </c>
       <c r="N49">
-        <v>4.38415639660243</v>
+        <v>4.61519368093179</v>
       </c>
       <c r="O49">
-        <v>607.775351019022</v>
+        <v>600.512886118303</v>
       </c>
       <c r="P49">
-        <v>10.1452466503585</v>
+        <v>10.2864943254592</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1003.55256317261</v>
+        <v>999.666798395548</v>
       </c>
       <c r="C50">
-        <v>91.8574181440632</v>
+        <v>88.7908507091316</v>
       </c>
       <c r="D50">
-        <v>11.9557711775036</v>
+        <v>9.96199349843215</v>
       </c>
       <c r="E50">
-        <v>127.060724483552</v>
+        <v>135.290901496771</v>
       </c>
       <c r="F50">
-        <v>4.78370874972567</v>
+        <v>3.49536066593503</v>
       </c>
       <c r="G50">
-        <v>24.1285301318535</v>
+        <v>21.7485412827463</v>
       </c>
       <c r="H50">
-        <v>38.6675910022056</v>
+        <v>37.8606047746954</v>
       </c>
       <c r="I50">
-        <v>20.359620967135</v>
+        <v>21.0703890426082</v>
       </c>
       <c r="J50">
-        <v>112.265511209106</v>
+        <v>113.088907965751</v>
       </c>
       <c r="K50">
-        <v>124.400413804633</v>
+        <v>123.018001272053</v>
       </c>
       <c r="L50">
-        <v>85.29001484257731</v>
+        <v>86.0583966339043</v>
       </c>
       <c r="M50">
-        <v>50.1493075052888</v>
+        <v>49.1574175477836</v>
       </c>
       <c r="N50">
-        <v>69.9954063965839</v>
+        <v>69.7155264217011</v>
       </c>
       <c r="O50">
-        <v>1884.63985514212</v>
+        <v>1879.64147445941</v>
       </c>
       <c r="P50">
-        <v>139.1538060251</v>
+        <v>137.182113957133</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>101.664467338447</v>
+        <v>104.408110010767</v>
       </c>
       <c r="C51">
-        <v>1.44859338008465</v>
+        <v>1.52619094276783</v>
       </c>
       <c r="D51">
-        <v>0.511862148025355</v>
+        <v>0.52887984379797</v>
       </c>
       <c r="E51">
-        <v>1.7678141193593</v>
+        <v>1.94468388312922</v>
       </c>
       <c r="F51">
-        <v>23.3481329851183</v>
+        <v>24.0898484435674</v>
       </c>
       <c r="G51">
-        <v>2.63064845072944</v>
+        <v>2.33575871736937</v>
       </c>
       <c r="H51">
-        <v>0.330357180306387</v>
+        <v>0.329489494687851</v>
       </c>
       <c r="I51">
-        <v>1.44704169109411</v>
+        <v>0.816283024029805</v>
       </c>
       <c r="J51">
-        <v>1.90174647672779</v>
+        <v>1.8646715679801</v>
       </c>
       <c r="K51">
-        <v>1.07467487568067</v>
+        <v>0.949020601096269</v>
       </c>
       <c r="L51">
-        <v>0.650947948079337</v>
+        <v>0.719235805800686</v>
       </c>
       <c r="M51">
-        <v>0.840523596887066</v>
+        <v>0.910154415259588</v>
       </c>
       <c r="N51">
-        <v>1.37739379972823</v>
+        <v>1.65865336203325</v>
       </c>
       <c r="O51">
-        <v>194.821654581873</v>
+        <v>192.281130906559</v>
       </c>
       <c r="P51">
-        <v>14.6423760472302</v>
+        <v>14.6767052489716</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_1999.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_1999.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1184.18105309252</v>
+        <v>1331.49015420539</v>
       </c>
       <c r="C2">
-        <v>37.7312493768588</v>
+        <v>39.8338941871166</v>
       </c>
       <c r="D2">
-        <v>95.684480932073</v>
+        <v>76.874843794814</v>
       </c>
       <c r="E2">
-        <v>68.71961130274531</v>
+        <v>65.5638685097135</v>
       </c>
       <c r="F2">
-        <v>15.913070153695</v>
+        <v>13.4131309453317</v>
       </c>
       <c r="G2">
-        <v>22.4703301943731</v>
+        <v>18.6087733277311</v>
       </c>
       <c r="H2">
-        <v>25.2261904083649</v>
+        <v>19.6830948209711</v>
       </c>
       <c r="I2">
-        <v>13.7107487640636</v>
+        <v>13.8150233483087</v>
       </c>
       <c r="J2">
-        <v>75.6051229570654</v>
+        <v>66.4773975556646</v>
       </c>
       <c r="K2">
-        <v>24.7943761422538</v>
+        <v>24.3459696751203</v>
       </c>
       <c r="L2">
-        <v>35.5903726407172</v>
+        <v>39.6813922407968</v>
       </c>
       <c r="M2">
-        <v>39.2993878131648</v>
+        <v>40.5663186292598</v>
       </c>
       <c r="N2">
-        <v>29.0830719332653</v>
+        <v>30.7523850119298</v>
       </c>
       <c r="O2">
-        <v>1433.82540854526</v>
+        <v>1323.59471028054</v>
       </c>
       <c r="P2">
-        <v>50.7071562968583</v>
+        <v>50.4773752552674</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>126.28149479713</v>
+        <v>132.676454105894</v>
       </c>
       <c r="C3">
-        <v>5.7566581932203</v>
+        <v>4.19231087428372</v>
       </c>
       <c r="D3">
-        <v>0.5181136109044811</v>
+        <v>0.572653992140574</v>
       </c>
       <c r="E3">
-        <v>1.8448985831021</v>
+        <v>2.66458217664028</v>
       </c>
       <c r="F3">
-        <v>9.55526719754943</v>
+        <v>8.69465253149955</v>
       </c>
       <c r="G3">
-        <v>0.499599156286716</v>
+        <v>0.431560371886344</v>
       </c>
       <c r="H3">
-        <v>0.151407685956579</v>
+        <v>0.289093540698095</v>
       </c>
       <c r="I3">
-        <v>0.151831436568474</v>
+        <v>0.358197680432521</v>
       </c>
       <c r="J3">
-        <v>0.6852537017514581</v>
+        <v>0.8404319129088</v>
       </c>
       <c r="K3">
-        <v>0.443147046849816</v>
+        <v>0.241630189380403</v>
       </c>
       <c r="L3">
-        <v>0.43018188877555</v>
+        <v>0.444476342823298</v>
       </c>
       <c r="M3">
-        <v>1.20472110363438</v>
+        <v>0.882349075239046</v>
       </c>
       <c r="N3">
-        <v>0.612818974206455</v>
+        <v>0.737329370458944</v>
       </c>
       <c r="O3">
-        <v>246.210821479239</v>
+        <v>234.055327462255</v>
       </c>
       <c r="P3">
-        <v>10.5104964627374</v>
+        <v>10.5940926133311</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1278.45756060157</v>
+        <v>1442.52725724205</v>
       </c>
       <c r="C4">
-        <v>16.4224269419738</v>
+        <v>11.991860422245</v>
       </c>
       <c r="D4">
-        <v>13.5981601877411</v>
+        <v>10.968287042175</v>
       </c>
       <c r="E4">
-        <v>18.7350177689622</v>
+        <v>15.5715369854421</v>
       </c>
       <c r="F4">
-        <v>19.9148361895876</v>
+        <v>19.428197463429</v>
       </c>
       <c r="G4">
-        <v>13.0789728582458</v>
+        <v>10.7773733110144</v>
       </c>
       <c r="H4">
-        <v>9.19625772766309</v>
+        <v>9.48535151683671</v>
       </c>
       <c r="I4">
-        <v>8.040898527654299</v>
+        <v>8.37636914753786</v>
       </c>
       <c r="J4">
-        <v>27.9760627746798</v>
+        <v>25.4314453955506</v>
       </c>
       <c r="K4">
-        <v>7.28414019499799</v>
+        <v>12.0017098110685</v>
       </c>
       <c r="L4">
-        <v>95.1802763816155</v>
+        <v>88.301166201877</v>
       </c>
       <c r="M4">
-        <v>56.7227470234972</v>
+        <v>56.1879010880926</v>
       </c>
       <c r="N4">
-        <v>22.1894418071616</v>
+        <v>15.7399062376146</v>
       </c>
       <c r="O4">
-        <v>1907.44700862473</v>
+        <v>1773.90606410085</v>
       </c>
       <c r="P4">
-        <v>38.2656259027017</v>
+        <v>34.2244429255395</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>699.424859869128</v>
+        <v>780.305063171498</v>
       </c>
       <c r="C5">
-        <v>60.5811114770767</v>
+        <v>53.7320625547383</v>
       </c>
       <c r="D5">
-        <v>15.3751359842759</v>
+        <v>13.0641853743414</v>
       </c>
       <c r="E5">
-        <v>45.1005358171892</v>
+        <v>28.2983179468032</v>
       </c>
       <c r="F5">
-        <v>3.36141414505046</v>
+        <v>5.79783385316765</v>
       </c>
       <c r="G5">
-        <v>14.9631666500504</v>
+        <v>9.5906865443825</v>
       </c>
       <c r="H5">
-        <v>15.4349219361766</v>
+        <v>14.545019338243</v>
       </c>
       <c r="I5">
-        <v>8.11297049311071</v>
+        <v>10.3913068138562</v>
       </c>
       <c r="J5">
-        <v>39.390619372741</v>
+        <v>34.0746965588</v>
       </c>
       <c r="K5">
-        <v>27.4736473452091</v>
+        <v>27.1955340975446</v>
       </c>
       <c r="L5">
-        <v>22.1859921426408</v>
+        <v>22.7611423967049</v>
       </c>
       <c r="M5">
-        <v>19.5041502420764</v>
+        <v>20.0984386507713</v>
       </c>
       <c r="N5">
-        <v>17.8303868742086</v>
+        <v>16.9452102356054</v>
       </c>
       <c r="O5">
-        <v>819.230076398553</v>
+        <v>783.684488290127</v>
       </c>
       <c r="P5">
-        <v>63.3993512762447</v>
+        <v>56.8851330446934</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>8319.875091511671</v>
+        <v>9565.261274005319</v>
       </c>
       <c r="C6">
-        <v>215.473046677271</v>
+        <v>178.22946788664</v>
       </c>
       <c r="D6">
-        <v>227.510391780223</v>
+        <v>198.95154263944</v>
       </c>
       <c r="E6">
-        <v>154.25531952515</v>
+        <v>145.772275148913</v>
       </c>
       <c r="F6">
-        <v>50.7806367664761</v>
+        <v>66.6816659325747</v>
       </c>
       <c r="G6">
-        <v>104.736171195071</v>
+        <v>93.0814644150485</v>
       </c>
       <c r="H6">
-        <v>68.6783542504126</v>
+        <v>40.1625991130467</v>
       </c>
       <c r="I6">
-        <v>56.9395690620835</v>
+        <v>52.6054204296298</v>
       </c>
       <c r="J6">
-        <v>203.594185932953</v>
+        <v>209.939122810866</v>
       </c>
       <c r="K6">
-        <v>140.553051426765</v>
+        <v>116.074994277833</v>
       </c>
       <c r="L6">
-        <v>611.74831678814</v>
+        <v>530.457334240518</v>
       </c>
       <c r="M6">
-        <v>308.395529207286</v>
+        <v>267.745599118003</v>
       </c>
       <c r="N6">
-        <v>314.540366100723</v>
+        <v>274.42020601792</v>
       </c>
       <c r="O6">
-        <v>12402.1904571266</v>
+        <v>11432.4085953563</v>
       </c>
       <c r="P6">
-        <v>349.339058302012</v>
+        <v>334.013299536302</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>835.146427823938</v>
+        <v>952.019302862187</v>
       </c>
       <c r="C7">
-        <v>34.5520671661975</v>
+        <v>28.2489595754033</v>
       </c>
       <c r="D7">
-        <v>5.92304830389201</v>
+        <v>6.5189433458972</v>
       </c>
       <c r="E7">
-        <v>22.626285135918</v>
+        <v>23.4088386106682</v>
       </c>
       <c r="F7">
-        <v>18.1590262117981</v>
+        <v>24.0738556995617</v>
       </c>
       <c r="G7">
-        <v>9.173834685734709</v>
+        <v>17.8799505239627</v>
       </c>
       <c r="H7">
-        <v>9.54672257440418</v>
+        <v>5.31329824089102</v>
       </c>
       <c r="I7">
-        <v>11.8240049296039</v>
+        <v>11.0920306328974</v>
       </c>
       <c r="J7">
-        <v>18.2440314178694</v>
+        <v>24.0468656207423</v>
       </c>
       <c r="K7">
-        <v>15.7821903370926</v>
+        <v>16.3927961805511</v>
       </c>
       <c r="L7">
-        <v>67.69475044148039</v>
+        <v>61.1931615013352</v>
       </c>
       <c r="M7">
-        <v>20.8087777999332</v>
+        <v>23.1205507015726</v>
       </c>
       <c r="N7">
-        <v>26.6023500979878</v>
+        <v>15.4682510290836</v>
       </c>
       <c r="O7">
-        <v>1873.40063700653</v>
+        <v>1768.32789142905</v>
       </c>
       <c r="P7">
-        <v>39.7434680780375</v>
+        <v>26.1361151824489</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>726.810619638754</v>
+        <v>860.0301988676</v>
       </c>
       <c r="C8">
-        <v>17.9745003905674</v>
+        <v>12.1678509135935</v>
       </c>
       <c r="D8">
-        <v>9.900862444121779</v>
+        <v>4.77626484179474</v>
       </c>
       <c r="E8">
-        <v>24.7224350036554</v>
+        <v>21.235268046991</v>
       </c>
       <c r="F8">
-        <v>0.963324739685245</v>
+        <v>0.718872230848903</v>
       </c>
       <c r="G8">
-        <v>31.1270861652849</v>
+        <v>25.7610037148164</v>
       </c>
       <c r="H8">
-        <v>11.0446985763124</v>
+        <v>14.9799271622353</v>
       </c>
       <c r="I8">
-        <v>3.00567713161428</v>
+        <v>1.64554129339211</v>
       </c>
       <c r="J8">
-        <v>50.995751767004</v>
+        <v>49.0420051362412</v>
       </c>
       <c r="K8">
-        <v>35.86149724132</v>
+        <v>35.1762097756319</v>
       </c>
       <c r="L8">
-        <v>42.4932893393781</v>
+        <v>39.2756115359313</v>
       </c>
       <c r="M8">
-        <v>66.94372204842971</v>
+        <v>68.3758863660487</v>
       </c>
       <c r="N8">
-        <v>28.9644361662272</v>
+        <v>20.7728838599334</v>
       </c>
       <c r="O8">
-        <v>1347.65584633206</v>
+        <v>1250.38804544899</v>
       </c>
       <c r="P8">
-        <v>7.56075279808984</v>
+        <v>8.695561471100501</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>170.198020434754</v>
+        <v>205.21446043911</v>
       </c>
       <c r="C9">
-        <v>10.4751791158214</v>
+        <v>7.58350145145195</v>
       </c>
       <c r="D9">
-        <v>2.00555188373689</v>
+        <v>3.54482763934014</v>
       </c>
       <c r="E9">
-        <v>5.36715212701808</v>
+        <v>5.90895879974486</v>
       </c>
       <c r="F9">
-        <v>2.40943589723383</v>
+        <v>2.17028435818753</v>
       </c>
       <c r="G9">
-        <v>22.0016416613249</v>
+        <v>18.9045855600881</v>
       </c>
       <c r="H9">
-        <v>4.1935210289999</v>
+        <v>2.5596462648457</v>
       </c>
       <c r="I9">
-        <v>0.232237062165507</v>
+        <v>0.6070848503021</v>
       </c>
       <c r="J9">
-        <v>2.92250655329673</v>
+        <v>3.32008405361355</v>
       </c>
       <c r="K9">
-        <v>3.70688880540117</v>
+        <v>4.08447659763855</v>
       </c>
       <c r="L9">
-        <v>1.94827192393208</v>
+        <v>1.67940440332975</v>
       </c>
       <c r="M9">
-        <v>8.110327347207321</v>
+        <v>8.17243613391206</v>
       </c>
       <c r="N9">
-        <v>4.64247776099561</v>
+        <v>2.96405542842516</v>
       </c>
       <c r="O9">
-        <v>310.530356802868</v>
+        <v>284.29491488167</v>
       </c>
       <c r="P9">
-        <v>4.88466562700059</v>
+        <v>4.62184596992188</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4303.54971085694</v>
+        <v>4999.93989986026</v>
       </c>
       <c r="C10">
-        <v>57.2926923079952</v>
+        <v>44.7251422880344</v>
       </c>
       <c r="D10">
-        <v>45.6656371289964</v>
+        <v>33.4485923570905</v>
       </c>
       <c r="E10">
-        <v>71.284404808986</v>
+        <v>61.8097234389602</v>
       </c>
       <c r="F10">
-        <v>12.0786863976306</v>
+        <v>11.8415096640097</v>
       </c>
       <c r="G10">
-        <v>48.446056989966</v>
+        <v>44.0536968366579</v>
       </c>
       <c r="H10">
-        <v>17.9751683735803</v>
+        <v>22.3748791061129</v>
       </c>
       <c r="I10">
-        <v>28.6057853835648</v>
+        <v>32.1396599649676</v>
       </c>
       <c r="J10">
-        <v>44.4499832990247</v>
+        <v>46.9355197414036</v>
       </c>
       <c r="K10">
-        <v>49.493456113864</v>
+        <v>44.1674613343739</v>
       </c>
       <c r="L10">
-        <v>117.125707392211</v>
+        <v>79.4158462139298</v>
       </c>
       <c r="M10">
-        <v>92.7426371155147</v>
+        <v>80.110813987942</v>
       </c>
       <c r="N10">
-        <v>107.644182914592</v>
+        <v>83.39315410979</v>
       </c>
       <c r="O10">
-        <v>6433.05735360008</v>
+        <v>5852.88180821262</v>
       </c>
       <c r="P10">
-        <v>99.56892773239279</v>
+        <v>104.007621927199</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1806.66146959282</v>
+        <v>1997.74446950779</v>
       </c>
       <c r="C11">
-        <v>74.86847203366349</v>
+        <v>65.6167071976038</v>
       </c>
       <c r="D11">
-        <v>161.901978417888</v>
+        <v>120.296766421285</v>
       </c>
       <c r="E11">
-        <v>116.587414547519</v>
+        <v>106.551385540812</v>
       </c>
       <c r="F11">
-        <v>12.6607236307885</v>
+        <v>10.5622733043336</v>
       </c>
       <c r="G11">
-        <v>45.964969646048</v>
+        <v>37.1619958572508</v>
       </c>
       <c r="H11">
-        <v>25.5949065546656</v>
+        <v>25.6964606503791</v>
       </c>
       <c r="I11">
-        <v>26.0808158234067</v>
+        <v>14.9156241064528</v>
       </c>
       <c r="J11">
-        <v>52.0288896707677</v>
+        <v>51.7532951733682</v>
       </c>
       <c r="K11">
-        <v>51.8553610836126</v>
+        <v>41.2903494015771</v>
       </c>
       <c r="L11">
-        <v>66.3326692606999</v>
+        <v>46.4252073754524</v>
       </c>
       <c r="M11">
-        <v>69.9795236871387</v>
+        <v>78.4256155631858</v>
       </c>
       <c r="N11">
-        <v>56.2842949219039</v>
+        <v>48.8479876570234</v>
       </c>
       <c r="O11">
-        <v>3067.41568544058</v>
+        <v>2991.08227526564</v>
       </c>
       <c r="P11">
-        <v>57.3876082660749</v>
+        <v>58.6648453212775</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>293.292790152106</v>
+        <v>334.772225262336</v>
       </c>
       <c r="C12">
-        <v>8.020900953442769</v>
+        <v>5.55695795346657</v>
       </c>
       <c r="D12">
-        <v>5.10721515395889</v>
+        <v>8.68382856816692</v>
       </c>
       <c r="E12">
-        <v>2.58665841687248</v>
+        <v>1.89618782903499</v>
       </c>
       <c r="F12">
-        <v>0.67099344192676</v>
+        <v>0.874101089386443</v>
       </c>
       <c r="G12">
-        <v>1.41888314823133</v>
+        <v>0.83810217252513</v>
       </c>
       <c r="H12">
-        <v>1.07930506722659</v>
+        <v>0.557926584826131</v>
       </c>
       <c r="I12">
-        <v>1.38828447573773</v>
+        <v>1.54673063879279</v>
       </c>
       <c r="J12">
-        <v>0.923323536138674</v>
+        <v>0.866069344819379</v>
       </c>
       <c r="K12">
-        <v>0.616189733429155</v>
+        <v>0.332674499243272</v>
       </c>
       <c r="L12">
-        <v>2.01879863379377</v>
+        <v>2.22356967255915</v>
       </c>
       <c r="M12">
-        <v>3.49138835946389</v>
+        <v>4.16098746951938</v>
       </c>
       <c r="N12">
-        <v>2.60454205897327</v>
+        <v>2.88756110662517</v>
       </c>
       <c r="O12">
-        <v>504.826667332035</v>
+        <v>458.566598526136</v>
       </c>
       <c r="P12">
-        <v>20.4110303335531</v>
+        <v>24.8028120754519</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>278.754168361165</v>
+        <v>318.943303922679</v>
       </c>
       <c r="C13">
-        <v>27.5492821065653</v>
+        <v>23.988555950861</v>
       </c>
       <c r="D13">
-        <v>2.79235639526811</v>
+        <v>2.63764045382433</v>
       </c>
       <c r="E13">
-        <v>20.4814447383575</v>
+        <v>20.7099083998146</v>
       </c>
       <c r="F13">
-        <v>6.53268330857801</v>
+        <v>3.27514360493088</v>
       </c>
       <c r="G13">
-        <v>5.86223349697389</v>
+        <v>4.22738462911818</v>
       </c>
       <c r="H13">
-        <v>2.17102539400205</v>
+        <v>2.06064356798822</v>
       </c>
       <c r="I13">
-        <v>1.9268627177019</v>
+        <v>3.08622363973723</v>
       </c>
       <c r="J13">
-        <v>4.81088506341407</v>
+        <v>2.63164017543196</v>
       </c>
       <c r="K13">
-        <v>2.93205481473468</v>
+        <v>3.50375255122371</v>
       </c>
       <c r="L13">
-        <v>21.1353731278499</v>
+        <v>15.2241031838341</v>
       </c>
       <c r="M13">
-        <v>4.76824148215963</v>
+        <v>2.35367694921071</v>
       </c>
       <c r="N13">
-        <v>7.11451187908753</v>
+        <v>6.08595184245298</v>
       </c>
       <c r="O13">
-        <v>462.48667504132</v>
+        <v>429.26908343164</v>
       </c>
       <c r="P13">
-        <v>41.5298970637903</v>
+        <v>41.6950591672125</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2724.34706800646</v>
+        <v>3125.23734887412</v>
       </c>
       <c r="C14">
-        <v>117.179488719713</v>
+        <v>110.376057533739</v>
       </c>
       <c r="D14">
-        <v>21.932210253791</v>
+        <v>20.084308835452</v>
       </c>
       <c r="E14">
-        <v>100.714414893061</v>
+        <v>95.7052932461532</v>
       </c>
       <c r="F14">
-        <v>25.9220843183321</v>
+        <v>24.904166345985</v>
       </c>
       <c r="G14">
-        <v>98.6326221962462</v>
+        <v>61.6015522591</v>
       </c>
       <c r="H14">
-        <v>68.9328332326113</v>
+        <v>76.8656413348925</v>
       </c>
       <c r="I14">
-        <v>33.9843350970083</v>
+        <v>28.9190043460819</v>
       </c>
       <c r="J14">
-        <v>190.320613263575</v>
+        <v>162.146514085728</v>
       </c>
       <c r="K14">
-        <v>183.339250969925</v>
+        <v>151.583144773589</v>
       </c>
       <c r="L14">
-        <v>178.920571348383</v>
+        <v>158.752234415344</v>
       </c>
       <c r="M14">
-        <v>99.4207224252134</v>
+        <v>108.063052969163</v>
       </c>
       <c r="N14">
-        <v>104.308915060136</v>
+        <v>75.77375621310961</v>
       </c>
       <c r="O14">
-        <v>4725.3999079652</v>
+        <v>4462.90432976247</v>
       </c>
       <c r="P14">
-        <v>88.5844903554415</v>
+        <v>74.8698584053415</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1307.0194381584</v>
+        <v>1487.04034406289</v>
       </c>
       <c r="C15">
-        <v>45.0513572699827</v>
+        <v>32.7648014636365</v>
       </c>
       <c r="D15">
-        <v>15.1087505603228</v>
+        <v>10.5053443046768</v>
       </c>
       <c r="E15">
-        <v>70.757891118147</v>
+        <v>74.2279873572931</v>
       </c>
       <c r="F15">
-        <v>13.1787946218496</v>
+        <v>17.2895546467778</v>
       </c>
       <c r="G15">
-        <v>47.5903981401002</v>
+        <v>38.3794527496954</v>
       </c>
       <c r="H15">
-        <v>50.0865531307603</v>
+        <v>60.611268669778</v>
       </c>
       <c r="I15">
-        <v>33.7802221050491</v>
+        <v>23.3748324237274</v>
       </c>
       <c r="J15">
-        <v>176.441518988672</v>
+        <v>170.970598661421</v>
       </c>
       <c r="K15">
-        <v>89.0012509816595</v>
+        <v>79.215157664532</v>
       </c>
       <c r="L15">
-        <v>80.8254229655881</v>
+        <v>81.3534594539659</v>
       </c>
       <c r="M15">
-        <v>182.947077242327</v>
+        <v>185.269244321669</v>
       </c>
       <c r="N15">
-        <v>69.9605835752884</v>
+        <v>65.4510387640872</v>
       </c>
       <c r="O15">
-        <v>2072.70396660811</v>
+        <v>1947.03385702189</v>
       </c>
       <c r="P15">
-        <v>39.5751410006412</v>
+        <v>35.426609788896</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>536.892608427248</v>
+        <v>657.58120227397</v>
       </c>
       <c r="C16">
-        <v>57.318005481793</v>
+        <v>59.9443660980051</v>
       </c>
       <c r="D16">
-        <v>11.1139241504929</v>
+        <v>10.1572254849056</v>
       </c>
       <c r="E16">
-        <v>28.4623485051637</v>
+        <v>24.9728898534227</v>
       </c>
       <c r="F16">
-        <v>4.00605243387668</v>
+        <v>7.07339770930818</v>
       </c>
       <c r="G16">
-        <v>13.4319281482711</v>
+        <v>13.6381033825872</v>
       </c>
       <c r="H16">
-        <v>14.2819073801684</v>
+        <v>15.0514263951086</v>
       </c>
       <c r="I16">
-        <v>14.9432816343442</v>
+        <v>8.90717365939534</v>
       </c>
       <c r="J16">
-        <v>48.209108593127</v>
+        <v>62.7642523258889</v>
       </c>
       <c r="K16">
-        <v>51.1854667888139</v>
+        <v>38.3884514035511</v>
       </c>
       <c r="L16">
-        <v>38.2499226771179</v>
+        <v>40.0312440964271</v>
       </c>
       <c r="M16">
-        <v>22.7641763639719</v>
+        <v>18.9410828539227</v>
       </c>
       <c r="N16">
-        <v>23.7020949440738</v>
+        <v>17.832118226474</v>
       </c>
       <c r="O16">
-        <v>1098.08514682237</v>
+        <v>994.586181263091</v>
       </c>
       <c r="P16">
-        <v>84.1669874929773</v>
+        <v>76.2426384115458</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>524.0438538228081</v>
+        <v>613.0877370025401</v>
       </c>
       <c r="C17">
-        <v>31.4788495377213</v>
+        <v>29.4249261002647</v>
       </c>
       <c r="D17">
-        <v>6.13456830208344</v>
+        <v>8.7558314403732</v>
       </c>
       <c r="E17">
-        <v>14.6735762855872</v>
+        <v>11.5136791236643</v>
       </c>
       <c r="F17">
-        <v>14.5888586323115</v>
+        <v>13.3389278956407</v>
       </c>
       <c r="G17">
-        <v>12.0843042175136</v>
+        <v>13.9213115907467</v>
       </c>
       <c r="H17">
-        <v>14.651426647355</v>
+        <v>15.3959960738766</v>
       </c>
       <c r="I17">
-        <v>9.20770821295608</v>
+        <v>16.1361700790873</v>
       </c>
       <c r="J17">
-        <v>21.1554940811514</v>
+        <v>21.2884870629973</v>
       </c>
       <c r="K17">
-        <v>24.951562225466</v>
+        <v>28.1232560753277</v>
       </c>
       <c r="L17">
-        <v>16.3970577951996</v>
+        <v>8.86264134193042</v>
       </c>
       <c r="M17">
-        <v>74.1274260360554</v>
+        <v>72.1905393787705</v>
       </c>
       <c r="N17">
-        <v>17.8698096031599</v>
+        <v>5.53268600495756</v>
       </c>
       <c r="O17">
-        <v>1004.22679356742</v>
+        <v>935.702525078857</v>
       </c>
       <c r="P17">
-        <v>71.6497260695631</v>
+        <v>71.5014541301165</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1049.3121947003</v>
+        <v>1160.51847836368</v>
       </c>
       <c r="C18">
-        <v>34.8261732742588</v>
+        <v>35.5282035506526</v>
       </c>
       <c r="D18">
-        <v>31.1612618957766</v>
+        <v>29.3976309763685</v>
       </c>
       <c r="E18">
-        <v>44.8741806590517</v>
+        <v>46.5811087185976</v>
       </c>
       <c r="F18">
-        <v>37.1184103573107</v>
+        <v>38.5960757186734</v>
       </c>
       <c r="G18">
-        <v>29.2619520234073</v>
+        <v>27.3794644122176</v>
       </c>
       <c r="H18">
-        <v>26.3864958267487</v>
+        <v>14.7240606749598</v>
       </c>
       <c r="I18">
-        <v>9.908773832715481</v>
+        <v>10.1438686686076</v>
       </c>
       <c r="J18">
-        <v>44.482588663265</v>
+        <v>43.4626590066667</v>
       </c>
       <c r="K18">
-        <v>40.0184809667658</v>
+        <v>31.1868296127494</v>
       </c>
       <c r="L18">
-        <v>49.546845059047</v>
+        <v>49.2564270389272</v>
       </c>
       <c r="M18">
-        <v>65.1261635090068</v>
+        <v>62.1693948910064</v>
       </c>
       <c r="N18">
-        <v>30.1103404579689</v>
+        <v>23.6285620481528</v>
       </c>
       <c r="O18">
-        <v>1363.04967465128</v>
+        <v>1289.97602868549</v>
       </c>
       <c r="P18">
-        <v>43.0898331762976</v>
+        <v>42.1423671328424</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1173.09621402333</v>
+        <v>1339.14897653632</v>
       </c>
       <c r="C19">
-        <v>24.5502101431982</v>
+        <v>24.6739093553029</v>
       </c>
       <c r="D19">
-        <v>19.4508908684875</v>
+        <v>14.3327478860734</v>
       </c>
       <c r="E19">
-        <v>41.5018461704074</v>
+        <v>35.6065499696842</v>
       </c>
       <c r="F19">
-        <v>71.64152335955571</v>
+        <v>62.9321194092315</v>
       </c>
       <c r="G19">
-        <v>43.6582313619455</v>
+        <v>41.1496751040971</v>
       </c>
       <c r="H19">
-        <v>5.16612443878362</v>
+        <v>7.24295844686232</v>
       </c>
       <c r="I19">
-        <v>7.11695428591609</v>
+        <v>10.8082231126828</v>
       </c>
       <c r="J19">
-        <v>19.5979640308635</v>
+        <v>11.8371466593493</v>
       </c>
       <c r="K19">
-        <v>13.539867414862</v>
+        <v>12.2036968931862</v>
       </c>
       <c r="L19">
-        <v>12.1177500000471</v>
+        <v>11.6067717478273</v>
       </c>
       <c r="M19">
-        <v>26.5927131831128</v>
+        <v>25.5490553072897</v>
       </c>
       <c r="N19">
-        <v>12.5183343041293</v>
+        <v>15.2913801075718</v>
       </c>
       <c r="O19">
-        <v>1579.0697973635</v>
+        <v>1459.99363191564</v>
       </c>
       <c r="P19">
-        <v>38.793637442843</v>
+        <v>31.8246347669767</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>293.534787309187</v>
+        <v>336.84233508701</v>
       </c>
       <c r="C20">
-        <v>8.152964093843901</v>
+        <v>7.61931131812218</v>
       </c>
       <c r="D20">
-        <v>17.7792180872363</v>
+        <v>12.9308152665299</v>
       </c>
       <c r="E20">
-        <v>35.3131658005604</v>
+        <v>32.0827548579053</v>
       </c>
       <c r="F20">
-        <v>0.302784263462114</v>
+        <v>0.338985516325318</v>
       </c>
       <c r="G20">
-        <v>1.84460918210795</v>
+        <v>3.43206638367455</v>
       </c>
       <c r="H20">
-        <v>3.43285854081779</v>
+        <v>3.38795926480715</v>
       </c>
       <c r="I20">
-        <v>1.30941522769341</v>
+        <v>3.09953343216395</v>
       </c>
       <c r="J20">
-        <v>7.04030978028419</v>
+        <v>5.68423664219114</v>
       </c>
       <c r="K20">
-        <v>5.07874414013995</v>
+        <v>7.52541577662344</v>
       </c>
       <c r="L20">
-        <v>10.9011919235776</v>
+        <v>9.084994864035179</v>
       </c>
       <c r="M20">
-        <v>17.8445366061672</v>
+        <v>18.2468108226036</v>
       </c>
       <c r="N20">
-        <v>5.33705168926546</v>
+        <v>5.13358644809207</v>
       </c>
       <c r="O20">
-        <v>484.043588599321</v>
+        <v>447.346180502174</v>
       </c>
       <c r="P20">
-        <v>24.2822993112754</v>
+        <v>24.5154845855287</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1094.65210446061</v>
+        <v>1251.29207091918</v>
       </c>
       <c r="C21">
-        <v>28.1052874890065</v>
+        <v>18.7033491055115</v>
       </c>
       <c r="D21">
-        <v>12.4956887118496</v>
+        <v>9.45297893040912</v>
       </c>
       <c r="E21">
-        <v>34.926891357326</v>
+        <v>26.1466455058971</v>
       </c>
       <c r="F21">
-        <v>4.32560135321767</v>
+        <v>4.25532907750121</v>
       </c>
       <c r="G21">
-        <v>13.7808034860173</v>
+        <v>15.743284980857</v>
       </c>
       <c r="H21">
-        <v>26.2194519362703</v>
+        <v>36.4209865704847</v>
       </c>
       <c r="I21">
-        <v>7.32849961092694</v>
+        <v>2.93998846101901</v>
       </c>
       <c r="J21">
-        <v>15.7226559828981</v>
+        <v>8.028628465399979</v>
       </c>
       <c r="K21">
-        <v>16.4658619927032</v>
+        <v>22.9833221858658</v>
       </c>
       <c r="L21">
-        <v>41.6536474395373</v>
+        <v>40.92577574982</v>
       </c>
       <c r="M21">
-        <v>39.411023176936</v>
+        <v>27.7845674457453</v>
       </c>
       <c r="N21">
-        <v>22.822258290942</v>
+        <v>17.096831714545</v>
       </c>
       <c r="O21">
-        <v>2334.93016398716</v>
+        <v>2231.50195890593</v>
       </c>
       <c r="P21">
-        <v>20.3250890434975</v>
+        <v>12.5383851685258</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1341.76078837971</v>
+        <v>1588.43943064075</v>
       </c>
       <c r="C22">
-        <v>25.2125234498989</v>
+        <v>19.3047905170377</v>
       </c>
       <c r="D22">
-        <v>37.6970009444894</v>
+        <v>34.1555895549705</v>
       </c>
       <c r="E22">
-        <v>41.5545719882011</v>
+        <v>29.402270680601</v>
       </c>
       <c r="F22">
-        <v>2.59713041378194</v>
+        <v>1.94955241070233</v>
       </c>
       <c r="G22">
-        <v>25.8039139756349</v>
+        <v>26.2830466161559</v>
       </c>
       <c r="H22">
-        <v>29.3130193860249</v>
+        <v>25.296446664389</v>
       </c>
       <c r="I22">
-        <v>11.3637472497707</v>
+        <v>14.8448320260519</v>
       </c>
       <c r="J22">
-        <v>60.5468092960385</v>
+        <v>39.2691254704963</v>
       </c>
       <c r="K22">
-        <v>45.8492393358763</v>
+        <v>40.2854340296007</v>
       </c>
       <c r="L22">
-        <v>135.378276918533</v>
+        <v>127.333733040636</v>
       </c>
       <c r="M22">
-        <v>24.3971760889289</v>
+        <v>19.4606083865982</v>
       </c>
       <c r="N22">
-        <v>82.9485141231166</v>
+        <v>78.9964098347162</v>
       </c>
       <c r="O22">
-        <v>2663.16705340831</v>
+        <v>2468.08918002124</v>
       </c>
       <c r="P22">
-        <v>18.9598302521315</v>
+        <v>23.8476727958016</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2285.7421778009</v>
+        <v>2618.17423592269</v>
       </c>
       <c r="C23">
-        <v>50.8224362729515</v>
+        <v>48.9581244135994</v>
       </c>
       <c r="D23">
-        <v>18.4288702884659</v>
+        <v>22.0909633485785</v>
       </c>
       <c r="E23">
-        <v>69.6314980433378</v>
+        <v>47.0554283028954</v>
       </c>
       <c r="F23">
-        <v>5.26596547216806</v>
+        <v>12.3216766458989</v>
       </c>
       <c r="G23">
-        <v>64.3822127117206</v>
+        <v>61.5174507218948</v>
       </c>
       <c r="H23">
-        <v>66.8490782116447</v>
+        <v>47.6278583834241</v>
       </c>
       <c r="I23">
-        <v>22.6710576738088</v>
+        <v>20.6571614433929</v>
       </c>
       <c r="J23">
-        <v>179.90454291734</v>
+        <v>172.956505610297</v>
       </c>
       <c r="K23">
-        <v>133.179141250589</v>
+        <v>123.382642209071</v>
       </c>
       <c r="L23">
-        <v>56.3031155439002</v>
+        <v>59.7089621258531</v>
       </c>
       <c r="M23">
-        <v>529.271226219534</v>
+        <v>491.726020481133</v>
       </c>
       <c r="N23">
-        <v>91.0792927917673</v>
+        <v>78.41283056962649</v>
       </c>
       <c r="O23">
-        <v>3356.87365562576</v>
+        <v>3114.26302432769</v>
       </c>
       <c r="P23">
-        <v>72.57216190144359</v>
+        <v>70.13402363929571</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>869.3760073413951</v>
+        <v>1011.49159190342</v>
       </c>
       <c r="C24">
-        <v>72.1210779600722</v>
+        <v>65.6688881617546</v>
       </c>
       <c r="D24">
-        <v>7.19750735506032</v>
+        <v>6.26533032565399</v>
       </c>
       <c r="E24">
-        <v>70.31038796101061</v>
+        <v>73.43112613247691</v>
       </c>
       <c r="F24">
-        <v>17.7388564272555</v>
+        <v>16.3870936898719</v>
       </c>
       <c r="G24">
-        <v>17.116575788244</v>
+        <v>23.6654633357073</v>
       </c>
       <c r="H24">
-        <v>27.7684488715449</v>
+        <v>14.9875398490822</v>
       </c>
       <c r="I24">
-        <v>10.4620970280043</v>
+        <v>12.3170230060513</v>
       </c>
       <c r="J24">
-        <v>58.4757213470077</v>
+        <v>42.5518072698662</v>
       </c>
       <c r="K24">
-        <v>61.8563157234361</v>
+        <v>66.314554715138</v>
       </c>
       <c r="L24">
-        <v>77.7015791220459</v>
+        <v>67.957056498135</v>
       </c>
       <c r="M24">
-        <v>19.7032575208318</v>
+        <v>23.8558639083555</v>
       </c>
       <c r="N24">
-        <v>65.06397356733321</v>
+        <v>65.75067193666411</v>
       </c>
       <c r="O24">
-        <v>1962.79324302732</v>
+        <v>1851.24651715181</v>
       </c>
       <c r="P24">
-        <v>118.056675314928</v>
+        <v>120.995183372325</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>735.1761180992351</v>
+        <v>839.852955780598</v>
       </c>
       <c r="C25">
-        <v>36.3057083205777</v>
+        <v>36.0019073239008</v>
       </c>
       <c r="D25">
-        <v>28.422154172089</v>
+        <v>20.219953073501</v>
       </c>
       <c r="E25">
-        <v>34.5293186788085</v>
+        <v>35.1815184663562</v>
       </c>
       <c r="F25">
-        <v>19.416939093047</v>
+        <v>16.2973846048247</v>
       </c>
       <c r="G25">
-        <v>12.7517100492074</v>
+        <v>13.3312739752272</v>
       </c>
       <c r="H25">
-        <v>15.048793238515</v>
+        <v>12.6094744538236</v>
       </c>
       <c r="I25">
-        <v>5.30626022583599</v>
+        <v>1.81689339934049</v>
       </c>
       <c r="J25">
-        <v>21.1598263653002</v>
+        <v>20.4154446907903</v>
       </c>
       <c r="K25">
-        <v>18.9683857669807</v>
+        <v>18.0021115392169</v>
       </c>
       <c r="L25">
-        <v>35.5343928903264</v>
+        <v>31.8881059710896</v>
       </c>
       <c r="M25">
-        <v>25.0265970817983</v>
+        <v>25.34875583906</v>
       </c>
       <c r="N25">
-        <v>47.1855593221854</v>
+        <v>51.9674443025398</v>
       </c>
       <c r="O25">
-        <v>872.14440591528</v>
+        <v>781.939150368202</v>
       </c>
       <c r="P25">
-        <v>39.5687650331761</v>
+        <v>33.5706092497366</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1220.04448263885</v>
+        <v>1389.23965682524</v>
       </c>
       <c r="C26">
-        <v>60.9691341216883</v>
+        <v>51.1542216607211</v>
       </c>
       <c r="D26">
-        <v>17.8920931464034</v>
+        <v>13.7779333855641</v>
       </c>
       <c r="E26">
-        <v>50.1224477226552</v>
+        <v>50.911435714627</v>
       </c>
       <c r="F26">
-        <v>4.57688180041449</v>
+        <v>10.3981378927185</v>
       </c>
       <c r="G26">
-        <v>38.1037960642479</v>
+        <v>39.2497722284959</v>
       </c>
       <c r="H26">
-        <v>25.6519390794479</v>
+        <v>22.5432874416696</v>
       </c>
       <c r="I26">
-        <v>18.4623143100801</v>
+        <v>20.0172501085827</v>
       </c>
       <c r="J26">
-        <v>65.0933861593996</v>
+        <v>66.5168112159315</v>
       </c>
       <c r="K26">
-        <v>52.2868180853586</v>
+        <v>41.1344422174171</v>
       </c>
       <c r="L26">
-        <v>39.3200384737351</v>
+        <v>27.6246247235138</v>
       </c>
       <c r="M26">
-        <v>87.58452959232901</v>
+        <v>74.57972771866341</v>
       </c>
       <c r="N26">
-        <v>45.8928568352622</v>
+        <v>37.9608140642795</v>
       </c>
       <c r="O26">
-        <v>2141.59088707405</v>
+        <v>2030.4703023787</v>
       </c>
       <c r="P26">
-        <v>76.1884390300478</v>
+        <v>65.4121593233986</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>197.609011875795</v>
+        <v>235.919659084245</v>
       </c>
       <c r="C27">
-        <v>2.91805088037377</v>
+        <v>3.227921453644</v>
       </c>
       <c r="D27">
-        <v>1.52044646221438</v>
+        <v>1.69014637561541</v>
       </c>
       <c r="E27">
-        <v>11.8647712409764</v>
+        <v>10.6275066733532</v>
       </c>
       <c r="F27">
-        <v>8.756025970076999</v>
+        <v>7.55943787865488</v>
       </c>
       <c r="G27">
-        <v>0.826465635825786</v>
+        <v>0.479471350684927</v>
       </c>
       <c r="H27">
-        <v>0.500224188739828</v>
+        <v>0.830243579376054</v>
       </c>
       <c r="I27">
-        <v>1.66265114860403</v>
+        <v>1.05703418539769</v>
       </c>
       <c r="J27">
-        <v>4.28509400092575</v>
+        <v>5.06858062163096</v>
       </c>
       <c r="K27">
-        <v>1.64437399696971</v>
+        <v>0.336723273467707</v>
       </c>
       <c r="L27">
-        <v>1.79629044664661</v>
+        <v>1.80433166410322</v>
       </c>
       <c r="M27">
-        <v>1.24513067556602</v>
+        <v>1.08918310473335</v>
       </c>
       <c r="N27">
-        <v>5.05567307279888</v>
+        <v>4.52578620916391</v>
       </c>
       <c r="O27">
-        <v>355.322680888426</v>
+        <v>330.148332008112</v>
       </c>
       <c r="P27">
-        <v>46.781823875411</v>
+        <v>42.6711592651144</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>311.968234637495</v>
+        <v>375.788257335698</v>
       </c>
       <c r="C28">
-        <v>32.7693163170842</v>
+        <v>30.3891856970369</v>
       </c>
       <c r="D28">
-        <v>1.7979529629042</v>
+        <v>2.37023816986682</v>
       </c>
       <c r="E28">
-        <v>9.147323714297651</v>
+        <v>8.31132212649902</v>
       </c>
       <c r="F28">
-        <v>1.82594242957091</v>
+        <v>1.84703282610392</v>
       </c>
       <c r="G28">
-        <v>5.04181927114217</v>
+        <v>4.33348795342448</v>
       </c>
       <c r="H28">
-        <v>7.44504378481012</v>
+        <v>7.09255204347739</v>
       </c>
       <c r="I28">
-        <v>4.84175769856777</v>
+        <v>5.27980958215033</v>
       </c>
       <c r="J28">
-        <v>16.7615627337135</v>
+        <v>18.104669434223</v>
       </c>
       <c r="K28">
-        <v>16.3873782042885</v>
+        <v>12.5776375388867</v>
       </c>
       <c r="L28">
-        <v>10.952362441397</v>
+        <v>10.2886338999463</v>
       </c>
       <c r="M28">
-        <v>7.94258597183249</v>
+        <v>8.14008150411847</v>
       </c>
       <c r="N28">
-        <v>11.9019680147365</v>
+        <v>9.5831396315292</v>
       </c>
       <c r="O28">
-        <v>664.741948663834</v>
+        <v>617.53605554532</v>
       </c>
       <c r="P28">
-        <v>91.04120735490101</v>
+        <v>88.85852665672731</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>457.294268828525</v>
+        <v>509.25095103186</v>
       </c>
       <c r="C29">
-        <v>6.61035567013287</v>
+        <v>8.376528784073409</v>
       </c>
       <c r="D29">
-        <v>3.21016249075664</v>
+        <v>3.95163272195713</v>
       </c>
       <c r="E29">
-        <v>5.84074648871514</v>
+        <v>3.09407407323767</v>
       </c>
       <c r="F29">
-        <v>17.3118890026863</v>
+        <v>16.4395427563375</v>
       </c>
       <c r="G29">
-        <v>2.52882669918717</v>
+        <v>3.25679416852135</v>
       </c>
       <c r="H29">
-        <v>2.30362022372098</v>
+        <v>1.4761624355448</v>
       </c>
       <c r="I29">
-        <v>4.79472980489876</v>
+        <v>4.21868797002417</v>
       </c>
       <c r="J29">
-        <v>6.92362241738773</v>
+        <v>7.68300281649635</v>
       </c>
       <c r="K29">
-        <v>2.66065371033113</v>
+        <v>5.11822311806161</v>
       </c>
       <c r="L29">
-        <v>5.15000117939599</v>
+        <v>3.32935210764222</v>
       </c>
       <c r="M29">
-        <v>3.00320063320998</v>
+        <v>3.99757691293641</v>
       </c>
       <c r="N29">
-        <v>12.6875108805939</v>
+        <v>13.0694887494314</v>
       </c>
       <c r="O29">
-        <v>839.706397628284</v>
+        <v>772.685410877738</v>
       </c>
       <c r="P29">
-        <v>4.88209619225627</v>
+        <v>4.51975582533804</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>238.642880120907</v>
+        <v>273.715249449492</v>
       </c>
       <c r="C30">
-        <v>3.63024180885036</v>
+        <v>3.74114341086937</v>
       </c>
       <c r="D30">
-        <v>5.71365778480317</v>
+        <v>3.2824882602077</v>
       </c>
       <c r="E30">
-        <v>15.2953955790166</v>
+        <v>15.4835213881129</v>
       </c>
       <c r="F30">
-        <v>1.27984135192145</v>
+        <v>1.94884534501563</v>
       </c>
       <c r="G30">
-        <v>5.12900959775889</v>
+        <v>4.45774210385011</v>
       </c>
       <c r="H30">
-        <v>6.04241999681927</v>
+        <v>7.15485294631908</v>
       </c>
       <c r="I30">
-        <v>2.44103531408558</v>
+        <v>2.52323229399379</v>
       </c>
       <c r="J30">
-        <v>19.1932765729743</v>
+        <v>18.0929896691453</v>
       </c>
       <c r="K30">
-        <v>12.8792722391933</v>
+        <v>12.9735475879937</v>
       </c>
       <c r="L30">
-        <v>44.7975303424017</v>
+        <v>39.5479088750247</v>
       </c>
       <c r="M30">
-        <v>10.8774180927892</v>
+        <v>11.8435444513531</v>
       </c>
       <c r="N30">
-        <v>14.8333306273958</v>
+        <v>11.9360549608928</v>
       </c>
       <c r="O30">
-        <v>494.844203654774</v>
+        <v>468.322334026876</v>
       </c>
       <c r="P30">
-        <v>7.70994607465328</v>
+        <v>6.5759432368554</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2013.36118967104</v>
+        <v>2341.51190889262</v>
       </c>
       <c r="C31">
-        <v>48.4723641482807</v>
+        <v>34.3651913825845</v>
       </c>
       <c r="D31">
-        <v>50.1578796749282</v>
+        <v>48.929238392491</v>
       </c>
       <c r="E31">
-        <v>31.0089629413327</v>
+        <v>19.1506245318903</v>
       </c>
       <c r="F31">
-        <v>12.6640924112532</v>
+        <v>4.53928834467387</v>
       </c>
       <c r="G31">
-        <v>153.816452636988</v>
+        <v>144.681666153988</v>
       </c>
       <c r="H31">
-        <v>30.2543692340789</v>
+        <v>28.0983665174497</v>
       </c>
       <c r="I31">
-        <v>27.2161656306248</v>
+        <v>23.1033271028439</v>
       </c>
       <c r="J31">
-        <v>41.2986907595629</v>
+        <v>61.2047811257363</v>
       </c>
       <c r="K31">
-        <v>42.1816858911589</v>
+        <v>35.3203526417977</v>
       </c>
       <c r="L31">
-        <v>62.0838949439208</v>
+        <v>57.7077526746936</v>
       </c>
       <c r="M31">
-        <v>32.8164917659235</v>
+        <v>24.8784185798862</v>
       </c>
       <c r="N31">
-        <v>73.4616643684699</v>
+        <v>67.17885198655161</v>
       </c>
       <c r="O31">
-        <v>3411.6557052288</v>
+        <v>3114.13957551483</v>
       </c>
       <c r="P31">
-        <v>11.9430345945625</v>
+        <v>15.4356532253774</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>472.194927448305</v>
+        <v>544.806973147952</v>
       </c>
       <c r="C32">
-        <v>5.1252299979585</v>
+        <v>6.90463173478512</v>
       </c>
       <c r="D32">
-        <v>4.16775111158591</v>
+        <v>1.73115558616517</v>
       </c>
       <c r="E32">
-        <v>2.56057320092988</v>
+        <v>6.45495820009002</v>
       </c>
       <c r="F32">
-        <v>22.1924050487563</v>
+        <v>19.9456803481976</v>
       </c>
       <c r="G32">
-        <v>2.46434981852006</v>
+        <v>1.05049057098112</v>
       </c>
       <c r="H32">
-        <v>1.39559491329261</v>
+        <v>0.997706616178785</v>
       </c>
       <c r="I32">
-        <v>3.54213638452072</v>
+        <v>2.47960658258764</v>
       </c>
       <c r="J32">
-        <v>1.72141153352432</v>
+        <v>2.65398785559485</v>
       </c>
       <c r="K32">
-        <v>4.76381227386727</v>
+        <v>4.98411679389166</v>
       </c>
       <c r="L32">
-        <v>13.7395844067481</v>
+        <v>13.383781713661</v>
       </c>
       <c r="M32">
-        <v>6.10570904310519</v>
+        <v>5.95539061370651</v>
       </c>
       <c r="N32">
-        <v>11.4775860269267</v>
+        <v>13.048623315274</v>
       </c>
       <c r="O32">
-        <v>681.3548783172801</v>
+        <v>627.083856147735</v>
       </c>
       <c r="P32">
-        <v>37.0778649708015</v>
+        <v>23.5385791459215</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5012.597192907711</v>
+        <v>5752.49760211066</v>
       </c>
       <c r="C33">
-        <v>87.0874854488363</v>
+        <v>75.1201668443006</v>
       </c>
       <c r="D33">
-        <v>142.029140519144</v>
+        <v>94.7687900137968</v>
       </c>
       <c r="E33">
-        <v>92.102533480625</v>
+        <v>73.0417575410241</v>
       </c>
       <c r="F33">
-        <v>12.2237180255138</v>
+        <v>13.9961634337732</v>
       </c>
       <c r="G33">
-        <v>80.5499878083095</v>
+        <v>94.73252305010431</v>
       </c>
       <c r="H33">
-        <v>49.0205923544595</v>
+        <v>39.7906448363262</v>
       </c>
       <c r="I33">
-        <v>46.5828010850323</v>
+        <v>48.6299685872854</v>
       </c>
       <c r="J33">
-        <v>121.105592490636</v>
+        <v>128.191759830887</v>
       </c>
       <c r="K33">
-        <v>123.811795380308</v>
+        <v>110.717577743486</v>
       </c>
       <c r="L33">
-        <v>144.939428286565</v>
+        <v>137.514141846798</v>
       </c>
       <c r="M33">
-        <v>94.68629204525401</v>
+        <v>72.052211404349</v>
       </c>
       <c r="N33">
-        <v>157.522707838628</v>
+        <v>158.120060025903</v>
       </c>
       <c r="O33">
-        <v>7395.89272351457</v>
+        <v>6805.63174637968</v>
       </c>
       <c r="P33">
-        <v>87.1164208132151</v>
+        <v>74.05555179055639</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1768.56193966229</v>
+        <v>2035.94049069297</v>
       </c>
       <c r="C34">
-        <v>85.5114759413464</v>
+        <v>87.3232185615117</v>
       </c>
       <c r="D34">
-        <v>233.999622069114</v>
+        <v>204.675066073952</v>
       </c>
       <c r="E34">
-        <v>85.18613866198601</v>
+        <v>77.9248014381687</v>
       </c>
       <c r="F34">
-        <v>7.43878045499278</v>
+        <v>6.914745631755</v>
       </c>
       <c r="G34">
-        <v>72.6976509182274</v>
+        <v>45.8371381395963</v>
       </c>
       <c r="H34">
-        <v>49.0396544623566</v>
+        <v>51.0465912029942</v>
       </c>
       <c r="I34">
-        <v>30.5982142492891</v>
+        <v>36.3525372835738</v>
       </c>
       <c r="J34">
-        <v>56.8148671955168</v>
+        <v>46.3116834091425</v>
       </c>
       <c r="K34">
-        <v>63.7284428777263</v>
+        <v>49.3548237789891</v>
       </c>
       <c r="L34">
-        <v>113.199008458369</v>
+        <v>108.351905162913</v>
       </c>
       <c r="M34">
-        <v>58.6890593117381</v>
+        <v>53.4251862529864</v>
       </c>
       <c r="N34">
-        <v>137.697749634928</v>
+        <v>123.821438807033</v>
       </c>
       <c r="O34">
-        <v>2834.00831389223</v>
+        <v>2682.64404136704</v>
       </c>
       <c r="P34">
-        <v>61.9639821519707</v>
+        <v>57.2810088334396</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>128.95036142207</v>
+        <v>158.657494105908</v>
       </c>
       <c r="C35">
-        <v>7.24089857981667</v>
+        <v>5.62892603959335</v>
       </c>
       <c r="D35">
-        <v>0.948363356050159</v>
+        <v>1.06978385152138</v>
       </c>
       <c r="E35">
-        <v>1.79271952655058</v>
+        <v>0.7629365038348031</v>
       </c>
       <c r="F35">
-        <v>5.49379777274914</v>
+        <v>5.78047047483491</v>
       </c>
       <c r="G35">
-        <v>0.445167024330014</v>
+        <v>0.783968513319689</v>
       </c>
       <c r="H35">
-        <v>0.609225537433419</v>
+        <v>0.461877098689284</v>
       </c>
       <c r="I35">
-        <v>1.05551563281556</v>
+        <v>0.777710694111396</v>
       </c>
       <c r="J35">
-        <v>1.64199691493016</v>
+        <v>2.09408786957575</v>
       </c>
       <c r="K35">
-        <v>6.02984532830725</v>
+        <v>5.02883979914715</v>
       </c>
       <c r="L35">
-        <v>2.78871408361419</v>
+        <v>2.89103164060593</v>
       </c>
       <c r="M35">
-        <v>1.99302712460928</v>
+        <v>1.77715664005682</v>
       </c>
       <c r="N35">
-        <v>2.53345519220419</v>
+        <v>2.03586545664026</v>
       </c>
       <c r="O35">
-        <v>250.855072089996</v>
+        <v>237.30251595353</v>
       </c>
       <c r="P35">
-        <v>44.5336200295281</v>
+        <v>39.1992446185905</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2592.16636489649</v>
+        <v>2918.03235297784</v>
       </c>
       <c r="C36">
-        <v>68.7500258475195</v>
+        <v>68.626274389537</v>
       </c>
       <c r="D36">
-        <v>24.1096645025117</v>
+        <v>14.1943014370054</v>
       </c>
       <c r="E36">
-        <v>88.0325203688637</v>
+        <v>79.43678292205919</v>
       </c>
       <c r="F36">
-        <v>32.4620866271299</v>
+        <v>33.9029463101044</v>
       </c>
       <c r="G36">
-        <v>94.67272886773201</v>
+        <v>88.2353786934584</v>
       </c>
       <c r="H36">
-        <v>129.021598759137</v>
+        <v>138.986479091093</v>
       </c>
       <c r="I36">
-        <v>45.0833465656789</v>
+        <v>36.3819405086144</v>
       </c>
       <c r="J36">
-        <v>282.556835214462</v>
+        <v>259.4936071402</v>
       </c>
       <c r="K36">
-        <v>157.655162840797</v>
+        <v>163.943663472377</v>
       </c>
       <c r="L36">
-        <v>114.680780981943</v>
+        <v>102.572671077242</v>
       </c>
       <c r="M36">
-        <v>257.896968103441</v>
+        <v>222.368541812484</v>
       </c>
       <c r="N36">
-        <v>84.5396801114574</v>
+        <v>95.3806382193402</v>
       </c>
       <c r="O36">
-        <v>4042.84871809497</v>
+        <v>3793.52260972815</v>
       </c>
       <c r="P36">
-        <v>69.8511915585388</v>
+        <v>54.1656025343942</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>862.241889316996</v>
+        <v>960.415627128731</v>
       </c>
       <c r="C37">
-        <v>20.5238966222511</v>
+        <v>23.6401264565384</v>
       </c>
       <c r="D37">
-        <v>15.6792161710433</v>
+        <v>14.9278732964563</v>
       </c>
       <c r="E37">
-        <v>19.5299547786147</v>
+        <v>16.8873930618606</v>
       </c>
       <c r="F37">
-        <v>48.1304623070966</v>
+        <v>50.5617845833257</v>
       </c>
       <c r="G37">
-        <v>4.86334602265598</v>
+        <v>4.53051574682526</v>
       </c>
       <c r="H37">
-        <v>21.4920137988735</v>
+        <v>17.8650312677089</v>
       </c>
       <c r="I37">
-        <v>11.3637257121944</v>
+        <v>6.77913601764803</v>
       </c>
       <c r="J37">
-        <v>36.5335155366321</v>
+        <v>38.2477262152685</v>
       </c>
       <c r="K37">
-        <v>30.2900651122861</v>
+        <v>24.3872251806654</v>
       </c>
       <c r="L37">
-        <v>27.2905807801095</v>
+        <v>28.1745353351013</v>
       </c>
       <c r="M37">
-        <v>33.7199334438467</v>
+        <v>34.5889333756377</v>
       </c>
       <c r="N37">
-        <v>21.9803556064496</v>
+        <v>15.8286470937101</v>
       </c>
       <c r="O37">
-        <v>1199.90408212405</v>
+        <v>1116.18612869962</v>
       </c>
       <c r="P37">
-        <v>62.8947404943607</v>
+        <v>55.4410834312764</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>775.752414489335</v>
+        <v>940.560263206573</v>
       </c>
       <c r="C38">
-        <v>26.6608068959587</v>
+        <v>21.7622281669399</v>
       </c>
       <c r="D38">
-        <v>11.6965369031343</v>
+        <v>11.9603400017292</v>
       </c>
       <c r="E38">
-        <v>61.9120136656863</v>
+        <v>61.8447276935806</v>
       </c>
       <c r="F38">
-        <v>2.19924846850928</v>
+        <v>2.05510722232459</v>
       </c>
       <c r="G38">
-        <v>7.87666980489302</v>
+        <v>6.47340603227969</v>
       </c>
       <c r="H38">
-        <v>7.81506918504638</v>
+        <v>3.82556205795488</v>
       </c>
       <c r="I38">
-        <v>6.83523200644018</v>
+        <v>3.96146554782686</v>
       </c>
       <c r="J38">
-        <v>32.267763928007</v>
+        <v>34.1593137186668</v>
       </c>
       <c r="K38">
-        <v>19.0786380258014</v>
+        <v>13.9241376682707</v>
       </c>
       <c r="L38">
-        <v>62.3717530688974</v>
+        <v>49.2407852580723</v>
       </c>
       <c r="M38">
-        <v>23.4510628894178</v>
+        <v>22.927814894731</v>
       </c>
       <c r="N38">
-        <v>27.2439536505525</v>
+        <v>17.1731930494405</v>
       </c>
       <c r="O38">
-        <v>1299.65091663527</v>
+        <v>1218.6099247836</v>
       </c>
       <c r="P38">
-        <v>68.9722948409795</v>
+        <v>55.9146184946458</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3017.68341008883</v>
+        <v>3441.41079234574</v>
       </c>
       <c r="C39">
-        <v>115.507425552668</v>
+        <v>95.81622959711569</v>
       </c>
       <c r="D39">
-        <v>68.4893789910511</v>
+        <v>57.7974486171868</v>
       </c>
       <c r="E39">
-        <v>112.61142912166</v>
+        <v>103.691378273151</v>
       </c>
       <c r="F39">
-        <v>40.0985451580171</v>
+        <v>45.5802970234375</v>
       </c>
       <c r="G39">
-        <v>109.663376223636</v>
+        <v>106.066077142951</v>
       </c>
       <c r="H39">
-        <v>60.7434806256127</v>
+        <v>59.5629441689842</v>
       </c>
       <c r="I39">
-        <v>58.2055708633203</v>
+        <v>57.2116819570731</v>
       </c>
       <c r="J39">
-        <v>206.636082779735</v>
+        <v>179.940917446408</v>
       </c>
       <c r="K39">
-        <v>118.371842411125</v>
+        <v>89.9599713318653</v>
       </c>
       <c r="L39">
-        <v>138.332038063967</v>
+        <v>120.596074350165</v>
       </c>
       <c r="M39">
-        <v>91.90802965119831</v>
+        <v>68.2116911517973</v>
       </c>
       <c r="N39">
-        <v>103.823673367217</v>
+        <v>111.472944172054</v>
       </c>
       <c r="O39">
-        <v>4466.77186111482</v>
+        <v>4178.44352745185</v>
       </c>
       <c r="P39">
-        <v>80.2398250479914</v>
+        <v>71.0749525040427</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>246.453570694857</v>
+        <v>290.676799109307</v>
       </c>
       <c r="C40">
-        <v>3.83207895878129</v>
+        <v>5.27319902837602</v>
       </c>
       <c r="D40">
-        <v>9.991406649741499</v>
+        <v>9.317677739313441</v>
       </c>
       <c r="E40">
-        <v>4.12281248377772</v>
+        <v>2.58261593324653</v>
       </c>
       <c r="F40">
-        <v>2.30991207275283</v>
+        <v>2.69837368131965</v>
       </c>
       <c r="G40">
-        <v>3.36834200987919</v>
+        <v>4.19456209611584</v>
       </c>
       <c r="H40">
-        <v>6.96154910914895</v>
+        <v>5.19631489127464</v>
       </c>
       <c r="I40">
-        <v>2.15192681265482</v>
+        <v>1.91002058903826</v>
       </c>
       <c r="J40">
-        <v>11.9718423153184</v>
+        <v>12.1634570404107</v>
       </c>
       <c r="K40">
-        <v>5.57480130304296</v>
+        <v>5.66902336872352</v>
       </c>
       <c r="L40">
-        <v>16.8848787778411</v>
+        <v>13.6840745026048</v>
       </c>
       <c r="M40">
-        <v>9.697381165961099</v>
+        <v>6.11987841202484</v>
       </c>
       <c r="N40">
-        <v>25.9158665281709</v>
+        <v>23.1335831789624</v>
       </c>
       <c r="O40">
-        <v>391.107306660411</v>
+        <v>362.861595374907</v>
       </c>
       <c r="P40">
-        <v>2.40730232203336</v>
+        <v>2.97109892366523</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>941.545663209249</v>
+        <v>1095.74303480327</v>
       </c>
       <c r="C41">
-        <v>16.6710212855087</v>
+        <v>13.1752353241587</v>
       </c>
       <c r="D41">
-        <v>120.366395866644</v>
+        <v>101.606841911268</v>
       </c>
       <c r="E41">
-        <v>56.0479954773348</v>
+        <v>43.5833310210257</v>
       </c>
       <c r="F41">
-        <v>3.07352732158895</v>
+        <v>3.30070711632737</v>
       </c>
       <c r="G41">
-        <v>36.7517187012578</v>
+        <v>32.3732416622295</v>
       </c>
       <c r="H41">
-        <v>35.8731018994364</v>
+        <v>35.7540556431595</v>
       </c>
       <c r="I41">
-        <v>7.6166600719733</v>
+        <v>4.40228214445366</v>
       </c>
       <c r="J41">
-        <v>45.6044967877285</v>
+        <v>34.7932229864233</v>
       </c>
       <c r="K41">
-        <v>48.5300545167765</v>
+        <v>46.1893749672906</v>
       </c>
       <c r="L41">
-        <v>27.3257509481344</v>
+        <v>22.2613475018944</v>
       </c>
       <c r="M41">
-        <v>39.6050059609986</v>
+        <v>33.9403934392502</v>
       </c>
       <c r="N41">
-        <v>26.0981685025949</v>
+        <v>18.0194325651692</v>
       </c>
       <c r="O41">
-        <v>1353.85396544145</v>
+        <v>1294.64534841308</v>
       </c>
       <c r="P41">
-        <v>22.9481604402163</v>
+        <v>14.4244718702768</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>142.174373342604</v>
+        <v>169.132085500394</v>
       </c>
       <c r="C42">
-        <v>8.94398383448903</v>
+        <v>9.81939382279824</v>
       </c>
       <c r="D42">
-        <v>2.26857383962846</v>
+        <v>1.29846829366444</v>
       </c>
       <c r="E42">
-        <v>5.10711998428148</v>
+        <v>5.13546922740644</v>
       </c>
       <c r="F42">
-        <v>1.84084217035186</v>
+        <v>1.82678346118098</v>
       </c>
       <c r="G42">
-        <v>0.915857834595745</v>
+        <v>0.804072572456488</v>
       </c>
       <c r="H42">
-        <v>1.80750502089786</v>
+        <v>2.46748692171641</v>
       </c>
       <c r="I42">
-        <v>1.17427935272739</v>
+        <v>1.124811745453</v>
       </c>
       <c r="J42">
-        <v>3.79007332648863</v>
+        <v>3.89514715456642</v>
       </c>
       <c r="K42">
-        <v>7.66134503267897</v>
+        <v>7.46397629342492</v>
       </c>
       <c r="L42">
-        <v>7.91306047040003</v>
+        <v>5.94687498384549</v>
       </c>
       <c r="M42">
-        <v>2.98940139059281</v>
+        <v>3.17697536887735</v>
       </c>
       <c r="N42">
-        <v>8.772860081021159</v>
+        <v>5.84019768190719</v>
       </c>
       <c r="O42">
-        <v>285.658919911771</v>
+        <v>260.989941165335</v>
       </c>
       <c r="P42">
-        <v>46.2927454328257</v>
+        <v>46.4914820867376</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1394.12413607078</v>
+        <v>1563.04523722246</v>
       </c>
       <c r="C43">
-        <v>43.1124173515606</v>
+        <v>50.4639662881845</v>
       </c>
       <c r="D43">
-        <v>55.6181972743879</v>
+        <v>45.8230862648332</v>
       </c>
       <c r="E43">
-        <v>69.4761510271366</v>
+        <v>68.736558453195</v>
       </c>
       <c r="F43">
-        <v>10.8901866142274</v>
+        <v>11.9509376745373</v>
       </c>
       <c r="G43">
-        <v>31.9633529213219</v>
+        <v>22.9564016444186</v>
       </c>
       <c r="H43">
-        <v>40.8223781865671</v>
+        <v>46.6174230764291</v>
       </c>
       <c r="I43">
-        <v>21.8398942225212</v>
+        <v>9.838384236945631</v>
       </c>
       <c r="J43">
-        <v>75.3947304274909</v>
+        <v>69.7749992723483</v>
       </c>
       <c r="K43">
-        <v>53.8148799763959</v>
+        <v>46.5230107181627</v>
       </c>
       <c r="L43">
-        <v>53.9077675569566</v>
+        <v>51.4588269321692</v>
       </c>
       <c r="M43">
-        <v>92.3181491053013</v>
+        <v>80.8407974368612</v>
       </c>
       <c r="N43">
-        <v>70.470933201416</v>
+        <v>82.9091389291613</v>
       </c>
       <c r="O43">
-        <v>1995.80707672749</v>
+        <v>1868.88282934976</v>
       </c>
       <c r="P43">
-        <v>45.1211480323551</v>
+        <v>44.0335518316179</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4782.09063368578</v>
+        <v>5497.8744559585</v>
       </c>
       <c r="C44">
-        <v>159.300285216323</v>
+        <v>138.174368203564</v>
       </c>
       <c r="D44">
-        <v>81.81779485295159</v>
+        <v>52.1200025210173</v>
       </c>
       <c r="E44">
-        <v>99.4906044392387</v>
+        <v>115.219923461221</v>
       </c>
       <c r="F44">
-        <v>202.323993409505</v>
+        <v>211.298015692362</v>
       </c>
       <c r="G44">
-        <v>125.991089739101</v>
+        <v>114.055287156095</v>
       </c>
       <c r="H44">
-        <v>64.0872762977888</v>
+        <v>48.8067990086477</v>
       </c>
       <c r="I44">
-        <v>51.8257828679066</v>
+        <v>37.8976009488323</v>
       </c>
       <c r="J44">
-        <v>162.564559741912</v>
+        <v>158.932548700558</v>
       </c>
       <c r="K44">
-        <v>143.374763501216</v>
+        <v>120.271538027647</v>
       </c>
       <c r="L44">
-        <v>253.075445203686</v>
+        <v>227.366634409783</v>
       </c>
       <c r="M44">
-        <v>153.234558802882</v>
+        <v>126.617566009215</v>
       </c>
       <c r="N44">
-        <v>110.239813425414</v>
+        <v>106.043498407156</v>
       </c>
       <c r="O44">
-        <v>7564.76554620421</v>
+        <v>6995.952771741</v>
       </c>
       <c r="P44">
-        <v>224.085691239365</v>
+        <v>193.401932206129</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>439.784863720302</v>
+        <v>493.702696445238</v>
       </c>
       <c r="C45">
-        <v>18.6620068904775</v>
+        <v>16.6522044428837</v>
       </c>
       <c r="D45">
-        <v>4.76075310141285</v>
+        <v>3.7364137817531</v>
       </c>
       <c r="E45">
-        <v>12.3782601392585</v>
+        <v>16.9561427626475</v>
       </c>
       <c r="F45">
-        <v>19.1414854281973</v>
+        <v>18.8428465407066</v>
       </c>
       <c r="G45">
-        <v>9.90205058241825</v>
+        <v>6.62662771802735</v>
       </c>
       <c r="H45">
-        <v>4.1397966446952</v>
+        <v>3.41254768309029</v>
       </c>
       <c r="I45">
-        <v>6.42384243730407</v>
+        <v>8.62737936032741</v>
       </c>
       <c r="J45">
-        <v>18.0611292229923</v>
+        <v>18.7095751482215</v>
       </c>
       <c r="K45">
-        <v>14.2185844746379</v>
+        <v>15.2939113640989</v>
       </c>
       <c r="L45">
-        <v>24.8809717657525</v>
+        <v>20.224822312847</v>
       </c>
       <c r="M45">
-        <v>28.0709174675773</v>
+        <v>30.1248325376175</v>
       </c>
       <c r="N45">
-        <v>26.795173488612</v>
+        <v>17.4504354497761</v>
       </c>
       <c r="O45">
-        <v>842.156717048613</v>
+        <v>803.483828894045</v>
       </c>
       <c r="P45">
-        <v>17.9714332570821</v>
+        <v>12.6467807004119</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>114.806539237672</v>
+        <v>138.014144787009</v>
       </c>
       <c r="C46">
-        <v>5.25466518628602</v>
+        <v>4.17987549465483</v>
       </c>
       <c r="D46">
-        <v>1.66759606372999</v>
+        <v>1.3881744267284</v>
       </c>
       <c r="E46">
-        <v>7.32203121518098</v>
+        <v>6.74225274056354</v>
       </c>
       <c r="F46">
-        <v>1.06745581250564</v>
+        <v>1.50989647203372</v>
       </c>
       <c r="G46">
-        <v>1.02113908237002</v>
+        <v>0.776815404589873</v>
       </c>
       <c r="H46">
-        <v>1.25806418139033</v>
+        <v>1.21617859970584</v>
       </c>
       <c r="I46">
-        <v>2.29827933330863</v>
+        <v>1.67479682913084</v>
       </c>
       <c r="J46">
-        <v>5.24885105247168</v>
+        <v>4.56782559745289</v>
       </c>
       <c r="K46">
-        <v>4.48731621165011</v>
+        <v>4.97623531963489</v>
       </c>
       <c r="L46">
-        <v>10.6731662907813</v>
+        <v>9.791980831463</v>
       </c>
       <c r="M46">
-        <v>5.14258387185157</v>
+        <v>2.94979117571248</v>
       </c>
       <c r="N46">
-        <v>6.841357978697</v>
+        <v>7.40661482868365</v>
       </c>
       <c r="O46">
-        <v>248.953815352082</v>
+        <v>234.369133216757</v>
       </c>
       <c r="P46">
-        <v>12.2233750747162</v>
+        <v>11.0125207566563</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1524.73538823644</v>
+        <v>1772.55732260799</v>
       </c>
       <c r="C47">
-        <v>63.6218307647423</v>
+        <v>67.562707382413</v>
       </c>
       <c r="D47">
-        <v>49.1455174704506</v>
+        <v>44.7848270042756</v>
       </c>
       <c r="E47">
-        <v>71.9210169354009</v>
+        <v>63.7706118404315</v>
       </c>
       <c r="F47">
-        <v>16.9799380218521</v>
+        <v>11.0995113849858</v>
       </c>
       <c r="G47">
-        <v>31.5372174316409</v>
+        <v>21.7119257688613</v>
       </c>
       <c r="H47">
-        <v>28.9361699943764</v>
+        <v>27.4605807693532</v>
       </c>
       <c r="I47">
-        <v>16.3579480452625</v>
+        <v>13.3888512369548</v>
       </c>
       <c r="J47">
-        <v>46.6132307299132</v>
+        <v>32.1732153315328</v>
       </c>
       <c r="K47">
-        <v>39.7130545514734</v>
+        <v>26.294492784504</v>
       </c>
       <c r="L47">
-        <v>52.1843704372965</v>
+        <v>48.2965922624728</v>
       </c>
       <c r="M47">
-        <v>83.71199031921461</v>
+        <v>77.5818899472562</v>
       </c>
       <c r="N47">
-        <v>51.2857922411359</v>
+        <v>48.0861195999813</v>
       </c>
       <c r="O47">
-        <v>2796.58205598791</v>
+        <v>2599.19720365344</v>
       </c>
       <c r="P47">
-        <v>46.0261940732223</v>
+        <v>43.3225924305097</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1309.6308579879</v>
+        <v>1466.79654150542</v>
       </c>
       <c r="C48">
-        <v>24.350390083078</v>
+        <v>33.667170213155</v>
       </c>
       <c r="D48">
-        <v>12.1147980761831</v>
+        <v>13.6186750845519</v>
       </c>
       <c r="E48">
-        <v>66.81725802321419</v>
+        <v>56.7295433741466</v>
       </c>
       <c r="F48">
-        <v>13.3629247528586</v>
+        <v>10.674395666433</v>
       </c>
       <c r="G48">
-        <v>17.5285624274745</v>
+        <v>20.702667403395</v>
       </c>
       <c r="H48">
-        <v>13.3895719757332</v>
+        <v>14.985805675604</v>
       </c>
       <c r="I48">
-        <v>10.0043587763068</v>
+        <v>15.5856313120549</v>
       </c>
       <c r="J48">
-        <v>34.7117572617223</v>
+        <v>37.4242917135192</v>
       </c>
       <c r="K48">
-        <v>17.8594889062592</v>
+        <v>16.4462865216041</v>
       </c>
       <c r="L48">
-        <v>46.3872792205469</v>
+        <v>34.8344605563596</v>
       </c>
       <c r="M48">
-        <v>159.923858825688</v>
+        <v>158.771600068597</v>
       </c>
       <c r="N48">
-        <v>21.6806168766802</v>
+        <v>17.2547885298895</v>
       </c>
       <c r="O48">
-        <v>2285.17816156041</v>
+        <v>2124.0632517552</v>
       </c>
       <c r="P48">
-        <v>112.790780393233</v>
+        <v>111.575647788196</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>592.087640663053</v>
+        <v>660.3704075278</v>
       </c>
       <c r="C49">
-        <v>9.242279699262999</v>
+        <v>10.1939047203271</v>
       </c>
       <c r="D49">
-        <v>5.71144252421068</v>
+        <v>5.12469007586626</v>
       </c>
       <c r="E49">
-        <v>11.6254551208439</v>
+        <v>8.48103367432301</v>
       </c>
       <c r="F49">
-        <v>33.7796890831646</v>
+        <v>31.9790345062709</v>
       </c>
       <c r="G49">
-        <v>16.3911202187802</v>
+        <v>15.4988101337927</v>
       </c>
       <c r="H49">
-        <v>5.18991093936247</v>
+        <v>9.968470308973821</v>
       </c>
       <c r="I49">
-        <v>9.735957097699989</v>
+        <v>8.378026329302671</v>
       </c>
       <c r="J49">
-        <v>22.1289304416686</v>
+        <v>18.406125008158</v>
       </c>
       <c r="K49">
-        <v>10.3758488864476</v>
+        <v>8.89069432939754</v>
       </c>
       <c r="L49">
-        <v>5.07938246208108</v>
+        <v>4.47043019615571</v>
       </c>
       <c r="M49">
-        <v>7.69252338334858</v>
+        <v>5.14528020080295</v>
       </c>
       <c r="N49">
-        <v>4.61519368093179</v>
+        <v>4.3853642620461</v>
       </c>
       <c r="O49">
-        <v>600.512886118303</v>
+        <v>557.9889146123689</v>
       </c>
       <c r="P49">
-        <v>10.2864943254592</v>
+        <v>8.987026801889691</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>999.666798395548</v>
+        <v>1166.8487522818</v>
       </c>
       <c r="C50">
-        <v>88.7908507091316</v>
+        <v>96.68782084422089</v>
       </c>
       <c r="D50">
-        <v>9.96199349843215</v>
+        <v>13.0300152912046</v>
       </c>
       <c r="E50">
-        <v>135.290901496771</v>
+        <v>147.216880500021</v>
       </c>
       <c r="F50">
-        <v>3.49536066593503</v>
+        <v>2.06815025113376</v>
       </c>
       <c r="G50">
-        <v>21.7485412827463</v>
+        <v>12.8205409809565</v>
       </c>
       <c r="H50">
-        <v>37.8606047746954</v>
+        <v>44.8174807913493</v>
       </c>
       <c r="I50">
-        <v>21.0703890426082</v>
+        <v>17.1209807889117</v>
       </c>
       <c r="J50">
-        <v>113.088907965751</v>
+        <v>92.2434536833881</v>
       </c>
       <c r="K50">
-        <v>123.018001272053</v>
+        <v>91.9982054184246</v>
       </c>
       <c r="L50">
-        <v>86.0583966339043</v>
+        <v>81.1246123884743</v>
       </c>
       <c r="M50">
-        <v>49.1574175477836</v>
+        <v>38.6464364975839</v>
       </c>
       <c r="N50">
-        <v>69.7155264217011</v>
+        <v>53.7170557635057</v>
       </c>
       <c r="O50">
-        <v>1879.64147445941</v>
+        <v>1782.76966144858</v>
       </c>
       <c r="P50">
-        <v>137.182113957133</v>
+        <v>132.531394216704</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>104.408110010767</v>
+        <v>124.24089872544</v>
       </c>
       <c r="C51">
-        <v>1.52619094276783</v>
+        <v>1.14435038062557</v>
       </c>
       <c r="D51">
-        <v>0.52887984379797</v>
+        <v>0.652771059409504</v>
       </c>
       <c r="E51">
-        <v>1.94468388312922</v>
+        <v>2.49280810011417</v>
       </c>
       <c r="F51">
-        <v>24.0898484435674</v>
+        <v>22.649862344845</v>
       </c>
       <c r="G51">
-        <v>2.33575871736937</v>
+        <v>2.65266101720093</v>
       </c>
       <c r="H51">
-        <v>0.329489494687851</v>
+        <v>0.140857755365367</v>
       </c>
       <c r="I51">
-        <v>0.816283024029805</v>
+        <v>1.34919619300345</v>
       </c>
       <c r="J51">
-        <v>1.8646715679801</v>
+        <v>0.87644258012421</v>
       </c>
       <c r="K51">
-        <v>0.949020601096269</v>
+        <v>1.29874588795464</v>
       </c>
       <c r="L51">
-        <v>0.719235805800686</v>
+        <v>0.478579324339376</v>
       </c>
       <c r="M51">
-        <v>0.910154415259588</v>
+        <v>0.8330097349325341</v>
       </c>
       <c r="N51">
-        <v>1.65865336203325</v>
+        <v>1.32363552257461</v>
       </c>
       <c r="O51">
-        <v>192.281130906559</v>
+        <v>179.94009842276</v>
       </c>
       <c r="P51">
-        <v>14.6767052489716</v>
+        <v>14.1955590052385</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_1999.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_1999.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1331.49015420539</v>
+        <v>1324.89464570505</v>
       </c>
       <c r="C2">
-        <v>39.8338941871166</v>
+        <v>40.5631774000433</v>
       </c>
       <c r="D2">
-        <v>76.874843794814</v>
+        <v>78.3844661684315</v>
       </c>
       <c r="E2">
-        <v>65.5638685097135</v>
+        <v>66.7701574667018</v>
       </c>
       <c r="F2">
-        <v>13.4131309453317</v>
+        <v>15.7701319381235</v>
       </c>
       <c r="G2">
-        <v>18.6087733277311</v>
+        <v>20.3729622743891</v>
       </c>
       <c r="H2">
-        <v>19.6830948209711</v>
+        <v>22.8402962610782</v>
       </c>
       <c r="I2">
-        <v>13.8150233483087</v>
+        <v>11.2283275482225</v>
       </c>
       <c r="J2">
-        <v>66.4773975556646</v>
+        <v>65.402627199495</v>
       </c>
       <c r="K2">
-        <v>24.3459696751203</v>
+        <v>20.4264239915342</v>
       </c>
       <c r="L2">
-        <v>39.6813922407968</v>
+        <v>35.6959681913062</v>
       </c>
       <c r="M2">
-        <v>40.5663186292598</v>
+        <v>42.3004094547705</v>
       </c>
       <c r="N2">
-        <v>30.7523850119298</v>
+        <v>31.9897313835683</v>
       </c>
       <c r="O2">
-        <v>1323.59471028054</v>
+        <v>1343.83120014001</v>
       </c>
       <c r="P2">
-        <v>50.4773752552674</v>
+        <v>37.0917212098123</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>132.676454105894</v>
+        <v>145.470068065832</v>
       </c>
       <c r="C3">
-        <v>4.19231087428372</v>
+        <v>4.93551293937966</v>
       </c>
       <c r="D3">
-        <v>0.572653992140574</v>
+        <v>0.233316516372231</v>
       </c>
       <c r="E3">
-        <v>2.66458217664028</v>
+        <v>1.74987387279173</v>
       </c>
       <c r="F3">
-        <v>8.69465253149955</v>
+        <v>8.95353599411351</v>
       </c>
       <c r="G3">
-        <v>0.431560371886344</v>
+        <v>0.379139339104875</v>
       </c>
       <c r="H3">
-        <v>0.289093540698095</v>
+        <v>0.0583291290930578</v>
       </c>
       <c r="I3">
-        <v>0.358197680432521</v>
+        <v>0.320810210011817</v>
       </c>
       <c r="J3">
-        <v>0.8404319129088</v>
+        <v>0.583291290930578</v>
       </c>
       <c r="K3">
-        <v>0.241630189380403</v>
+        <v>0.145822822732644</v>
       </c>
       <c r="L3">
-        <v>0.444476342823298</v>
+        <v>0.349974774558347</v>
       </c>
       <c r="M3">
-        <v>0.882349075239046</v>
+        <v>0.641620420023636</v>
       </c>
       <c r="N3">
-        <v>0.737329370458944</v>
+        <v>0.641620420023636</v>
       </c>
       <c r="O3">
-        <v>234.055327462255</v>
+        <v>226.588201111557</v>
       </c>
       <c r="P3">
-        <v>10.5940926133311</v>
+        <v>10.5694821470393</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1442.52725724205</v>
+        <v>1448.24148253952</v>
       </c>
       <c r="C4">
-        <v>11.991860422245</v>
+        <v>13.4030496639299</v>
       </c>
       <c r="D4">
-        <v>10.968287042175</v>
+        <v>5.74195698075351</v>
       </c>
       <c r="E4">
-        <v>15.5715369854421</v>
+        <v>24.9964048584684</v>
       </c>
       <c r="F4">
-        <v>19.428197463429</v>
+        <v>21.9708219174547</v>
       </c>
       <c r="G4">
-        <v>10.7773733110144</v>
+        <v>9.30634958018566</v>
       </c>
       <c r="H4">
-        <v>9.48535151683671</v>
+        <v>7.80430739925032</v>
       </c>
       <c r="I4">
-        <v>8.37636914753786</v>
+        <v>9.41606653605202</v>
       </c>
       <c r="J4">
-        <v>25.4314453955506</v>
+        <v>28.1916466559876</v>
       </c>
       <c r="K4">
-        <v>12.0017098110685</v>
+        <v>10.4340196750847</v>
       </c>
       <c r="L4">
-        <v>88.301166201877</v>
+        <v>77.19143744034631</v>
       </c>
       <c r="M4">
-        <v>56.1879010880926</v>
+        <v>52.3950887617833</v>
       </c>
       <c r="N4">
-        <v>15.7399062376146</v>
+        <v>25.1609066584899</v>
       </c>
       <c r="O4">
-        <v>1773.90606410085</v>
+        <v>1771.00557526375</v>
       </c>
       <c r="P4">
-        <v>34.2244429255395</v>
+        <v>30.9710862100127</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>780.305063171498</v>
+        <v>775.966648348558</v>
       </c>
       <c r="C5">
-        <v>53.7320625547383</v>
+        <v>55.8644654872087</v>
       </c>
       <c r="D5">
-        <v>13.0641853743414</v>
+        <v>13.0502302373647</v>
       </c>
       <c r="E5">
-        <v>28.2983179468032</v>
+        <v>41.9233908926545</v>
       </c>
       <c r="F5">
-        <v>5.79783385316765</v>
+        <v>5.74282809205453</v>
       </c>
       <c r="G5">
-        <v>9.5906865443825</v>
+        <v>10.9049781681354</v>
       </c>
       <c r="H5">
-        <v>14.545019338243</v>
+        <v>13.0158187664384</v>
       </c>
       <c r="I5">
-        <v>10.3913068138562</v>
+        <v>6.58656112927581</v>
       </c>
       <c r="J5">
-        <v>34.0746965588</v>
+        <v>34.0400736240419</v>
       </c>
       <c r="K5">
-        <v>27.1955340975446</v>
+        <v>22.1046339378956</v>
       </c>
       <c r="L5">
-        <v>22.7611423967049</v>
+        <v>23.7865669870262</v>
       </c>
       <c r="M5">
-        <v>20.0984386507713</v>
+        <v>21.6324257803783</v>
       </c>
       <c r="N5">
-        <v>16.9452102356054</v>
+        <v>19.9890517651254</v>
       </c>
       <c r="O5">
-        <v>783.684488290127</v>
+        <v>772.686270338617</v>
       </c>
       <c r="P5">
-        <v>56.8851330446934</v>
+        <v>55.3808650858135</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>9565.261274005319</v>
+        <v>9528.230403322201</v>
       </c>
       <c r="C6">
-        <v>178.22946788664</v>
+        <v>201.174512541362</v>
       </c>
       <c r="D6">
-        <v>198.95154263944</v>
+        <v>196.942668466477</v>
       </c>
       <c r="E6">
-        <v>145.772275148913</v>
+        <v>168.096415373049</v>
       </c>
       <c r="F6">
-        <v>66.6816659325747</v>
+        <v>54.2177782862025</v>
       </c>
       <c r="G6">
-        <v>93.0814644150485</v>
+        <v>100.724483421954</v>
       </c>
       <c r="H6">
-        <v>40.1625991130467</v>
+        <v>69.7080335933217</v>
       </c>
       <c r="I6">
-        <v>52.6054204296298</v>
+        <v>48.090965141916</v>
       </c>
       <c r="J6">
-        <v>209.939122810866</v>
+        <v>186.573339536429</v>
       </c>
       <c r="K6">
-        <v>116.074994277833</v>
+        <v>101.776887982341</v>
       </c>
       <c r="L6">
-        <v>530.457334240518</v>
+        <v>587.6626659434251</v>
       </c>
       <c r="M6">
-        <v>267.745599118003</v>
+        <v>256.607188840088</v>
       </c>
       <c r="N6">
-        <v>274.42020601792</v>
+        <v>264.070690157645</v>
       </c>
       <c r="O6">
-        <v>11432.4085953563</v>
+        <v>11404.8681884021</v>
       </c>
       <c r="P6">
-        <v>334.013299536302</v>
+        <v>332.754455801813</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>952.019302862187</v>
+        <v>950.698612957169</v>
       </c>
       <c r="C7">
-        <v>28.2489595754033</v>
+        <v>29.5769229494794</v>
       </c>
       <c r="D7">
-        <v>6.5189433458972</v>
+        <v>4.98578420198625</v>
       </c>
       <c r="E7">
-        <v>23.4088386106682</v>
+        <v>22.6514699398534</v>
       </c>
       <c r="F7">
-        <v>24.0738556995617</v>
+        <v>20.4049395621362</v>
       </c>
       <c r="G7">
-        <v>17.8799505239627</v>
+        <v>9.718053953024031</v>
       </c>
       <c r="H7">
-        <v>5.31329824089102</v>
+        <v>6.36602954603895</v>
       </c>
       <c r="I7">
-        <v>11.0920306328974</v>
+        <v>10.7884483014731</v>
       </c>
       <c r="J7">
-        <v>24.0468656207423</v>
+        <v>21.177469295768</v>
       </c>
       <c r="K7">
-        <v>16.3927961805511</v>
+        <v>16.7940664056178</v>
       </c>
       <c r="L7">
-        <v>61.1931615013352</v>
+        <v>66.4478278392745</v>
       </c>
       <c r="M7">
-        <v>23.1205507015726</v>
+        <v>19.3724428498807</v>
       </c>
       <c r="N7">
-        <v>15.4682510290836</v>
+        <v>25.6210335119039</v>
       </c>
       <c r="O7">
-        <v>1768.32789142905</v>
+        <v>1762.27186828595</v>
       </c>
       <c r="P7">
-        <v>26.1361151824489</v>
+        <v>52.0670629690265</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>860.0301988676</v>
+        <v>841.440590269278</v>
       </c>
       <c r="C8">
-        <v>12.1678509135935</v>
+        <v>11.0447914395022</v>
       </c>
       <c r="D8">
-        <v>4.77626484179474</v>
+        <v>8.02061532585963</v>
       </c>
       <c r="E8">
-        <v>21.235268046991</v>
+        <v>23.4756216016025</v>
       </c>
       <c r="F8">
-        <v>0.718872230848903</v>
+        <v>2.26495781627265</v>
       </c>
       <c r="G8">
-        <v>25.7610037148164</v>
+        <v>27.6541281420145</v>
       </c>
       <c r="H8">
-        <v>14.9799271622353</v>
+        <v>9.09601963428938</v>
       </c>
       <c r="I8">
-        <v>1.64554129339211</v>
+        <v>3.38411344313678</v>
       </c>
       <c r="J8">
-        <v>49.0420051362412</v>
+        <v>46.7104838274379</v>
       </c>
       <c r="K8">
-        <v>35.1762097756319</v>
+        <v>29.3772003112349</v>
       </c>
       <c r="L8">
-        <v>39.2756115359313</v>
+        <v>41.7957910045159</v>
       </c>
       <c r="M8">
-        <v>68.3758863660487</v>
+        <v>51.5666652002477</v>
       </c>
       <c r="N8">
-        <v>20.7728838599334</v>
+        <v>25.7878359585869</v>
       </c>
       <c r="O8">
-        <v>1250.38804544899</v>
+        <v>1283.08889950762</v>
       </c>
       <c r="P8">
-        <v>8.695561471100501</v>
+        <v>6.7149337611848</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>205.21446043911</v>
+        <v>199.990492418585</v>
       </c>
       <c r="C9">
-        <v>7.58350145145195</v>
+        <v>8.355230805267089</v>
       </c>
       <c r="D9">
-        <v>3.54482763934014</v>
+        <v>2.05211143648243</v>
       </c>
       <c r="E9">
-        <v>5.90895879974486</v>
+        <v>5.76651446566441</v>
       </c>
       <c r="F9">
-        <v>2.17028435818753</v>
+        <v>1.82409905465105</v>
       </c>
       <c r="G9">
-        <v>18.9045855600881</v>
+        <v>18.8604326492652</v>
       </c>
       <c r="H9">
-        <v>2.5596462648457</v>
+        <v>3.19217334563933</v>
       </c>
       <c r="I9">
-        <v>0.6070848503021</v>
+        <v>0.912049527325523</v>
       </c>
       <c r="J9">
-        <v>3.32008405361355</v>
+        <v>3.47718882292856</v>
       </c>
       <c r="K9">
-        <v>4.08447659763855</v>
+        <v>2.33712691377165</v>
       </c>
       <c r="L9">
-        <v>1.67940440332975</v>
+        <v>2.47196007722493</v>
       </c>
       <c r="M9">
-        <v>8.17243613391206</v>
+        <v>7.58979259591301</v>
       </c>
       <c r="N9">
-        <v>2.96405542842516</v>
+        <v>4.39848491921811</v>
       </c>
       <c r="O9">
-        <v>284.29491488167</v>
+        <v>285.67012639414</v>
       </c>
       <c r="P9">
-        <v>4.62184596992188</v>
+        <v>5.08593085915444</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4999.93989986026</v>
+        <v>4952.60734250564</v>
       </c>
       <c r="C10">
-        <v>44.7251422880344</v>
+        <v>56.2905742685471</v>
       </c>
       <c r="D10">
-        <v>33.4485923570905</v>
+        <v>35.4647944531716</v>
       </c>
       <c r="E10">
-        <v>61.8097234389602</v>
+        <v>74.8799638014239</v>
       </c>
       <c r="F10">
-        <v>11.8415096640097</v>
+        <v>13.2074208487767</v>
       </c>
       <c r="G10">
-        <v>44.0536968366579</v>
+        <v>35.4171318561712</v>
       </c>
       <c r="H10">
-        <v>22.3748791061129</v>
+        <v>20.5170516452042</v>
       </c>
       <c r="I10">
-        <v>32.1396599649676</v>
+        <v>29.5495999954628</v>
       </c>
       <c r="J10">
-        <v>46.9355197414036</v>
+        <v>51.8227948591466</v>
       </c>
       <c r="K10">
-        <v>44.1674613343739</v>
+        <v>35.9160283635472</v>
       </c>
       <c r="L10">
-        <v>79.4158462139298</v>
+        <v>93.31131906878819</v>
       </c>
       <c r="M10">
-        <v>80.110813987942</v>
+        <v>93.66061521207391</v>
       </c>
       <c r="N10">
-        <v>83.39315410979</v>
+        <v>84.1483296906292</v>
       </c>
       <c r="O10">
-        <v>5852.88180821262</v>
+        <v>5857.7420797149</v>
       </c>
       <c r="P10">
-        <v>104.007621927199</v>
+        <v>97.3869012632276</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1997.74446950779</v>
+        <v>2029.94940028465</v>
       </c>
       <c r="C11">
-        <v>65.6167071976038</v>
+        <v>81.37003915470871</v>
       </c>
       <c r="D11">
-        <v>120.296766421285</v>
+        <v>150.147421544312</v>
       </c>
       <c r="E11">
-        <v>106.551385540812</v>
+        <v>101.364359768235</v>
       </c>
       <c r="F11">
-        <v>10.5622733043336</v>
+        <v>12.545726567884</v>
       </c>
       <c r="G11">
-        <v>37.1619958572508</v>
+        <v>34.5608522993464</v>
       </c>
       <c r="H11">
-        <v>25.6964606503791</v>
+        <v>30.289966297858</v>
       </c>
       <c r="I11">
-        <v>14.9156241064528</v>
+        <v>21.880628783098</v>
       </c>
       <c r="J11">
-        <v>51.7532951733682</v>
+        <v>54.7761538384878</v>
       </c>
       <c r="K11">
-        <v>41.2903494015771</v>
+        <v>41.3056194691924</v>
       </c>
       <c r="L11">
-        <v>46.4252073754524</v>
+        <v>67.5362325897048</v>
       </c>
       <c r="M11">
-        <v>78.4256155631858</v>
+        <v>67.08962399314029</v>
       </c>
       <c r="N11">
-        <v>48.8479876570234</v>
+        <v>54.0514031709369</v>
       </c>
       <c r="O11">
-        <v>2991.08227526564</v>
+        <v>2866.73062844307</v>
       </c>
       <c r="P11">
-        <v>58.6648453212775</v>
+        <v>60.7039413179603</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>334.772225262336</v>
+        <v>335.444117542168</v>
       </c>
       <c r="C12">
-        <v>5.55695795346657</v>
+        <v>7.43534444809324</v>
       </c>
       <c r="D12">
-        <v>8.68382856816692</v>
+        <v>2.07463949970693</v>
       </c>
       <c r="E12">
-        <v>1.89618782903499</v>
+        <v>2.49044298782501</v>
       </c>
       <c r="F12">
-        <v>0.874101089386443</v>
+        <v>0.719208359898402</v>
       </c>
       <c r="G12">
-        <v>0.83810217252513</v>
+        <v>0.442589759937478</v>
       </c>
       <c r="H12">
-        <v>0.557926584826131</v>
+        <v>0.165971159976554</v>
       </c>
       <c r="I12">
-        <v>1.54673063879279</v>
+        <v>0.995826959859322</v>
       </c>
       <c r="J12">
-        <v>0.866069344819379</v>
+        <v>0.6085609199140321</v>
       </c>
       <c r="K12">
-        <v>0.332674499243272</v>
+        <v>0.414927899941385</v>
       </c>
       <c r="L12">
-        <v>2.22356967255915</v>
+        <v>0.636222779910124</v>
       </c>
       <c r="M12">
-        <v>4.16098746951938</v>
+        <v>3.92798411944512</v>
       </c>
       <c r="N12">
-        <v>2.88756110662517</v>
+        <v>2.91903020079619</v>
       </c>
       <c r="O12">
-        <v>458.566598526136</v>
+        <v>472.157195720311</v>
       </c>
       <c r="P12">
-        <v>24.8028120754519</v>
+        <v>16.3995974508108</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>318.943303922679</v>
+        <v>317.911487057835</v>
       </c>
       <c r="C13">
-        <v>23.988555950861</v>
+        <v>20.6068125703759</v>
       </c>
       <c r="D13">
-        <v>2.63764045382433</v>
+        <v>1.21967752553177</v>
       </c>
       <c r="E13">
-        <v>20.7099083998146</v>
+        <v>18.8696412217188</v>
       </c>
       <c r="F13">
-        <v>3.27514360493088</v>
+        <v>4.25323974995466</v>
       </c>
       <c r="G13">
-        <v>4.22738462911818</v>
+        <v>5.00852361517133</v>
       </c>
       <c r="H13">
-        <v>2.06064356798822</v>
+        <v>1.84369858510617</v>
       </c>
       <c r="I13">
-        <v>3.08622363973723</v>
+        <v>1.70187561702108</v>
       </c>
       <c r="J13">
-        <v>2.63164017543196</v>
+        <v>5.98803543147642</v>
       </c>
       <c r="K13">
-        <v>3.50375255122371</v>
+        <v>2.55281342553161</v>
       </c>
       <c r="L13">
-        <v>15.2241031838341</v>
+        <v>21.6461911894294</v>
       </c>
       <c r="M13">
-        <v>2.35367694921071</v>
+        <v>3.12010529787197</v>
       </c>
       <c r="N13">
-        <v>6.08595184245298</v>
+        <v>6.81641448627959</v>
       </c>
       <c r="O13">
-        <v>429.26908343164</v>
+        <v>430.354716719535</v>
       </c>
       <c r="P13">
-        <v>41.6950591672125</v>
+        <v>42.0976135243834</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3125.23734887412</v>
+        <v>3216.3918961343</v>
       </c>
       <c r="C14">
-        <v>110.376057533739</v>
+        <v>112.366107149914</v>
       </c>
       <c r="D14">
-        <v>20.084308835452</v>
+        <v>19.0444498197891</v>
       </c>
       <c r="E14">
-        <v>95.7052932461532</v>
+        <v>115.990805258838</v>
       </c>
       <c r="F14">
-        <v>24.904166345985</v>
+        <v>31.8008711681557</v>
       </c>
       <c r="G14">
-        <v>61.6015522591</v>
+        <v>79.13733940538251</v>
       </c>
       <c r="H14">
-        <v>76.8656413348925</v>
+        <v>67.73227970931499</v>
       </c>
       <c r="I14">
-        <v>28.9190043460819</v>
+        <v>28.7336457190354</v>
       </c>
       <c r="J14">
-        <v>162.146514085728</v>
+        <v>186.402029169625</v>
       </c>
       <c r="K14">
-        <v>151.583144773589</v>
+        <v>157.380271116399</v>
       </c>
       <c r="L14">
-        <v>158.752234415344</v>
+        <v>146.174014853269</v>
       </c>
       <c r="M14">
-        <v>108.063052969163</v>
+        <v>100.146292626064</v>
       </c>
       <c r="N14">
-        <v>75.77375621310961</v>
+        <v>87.17259462523479</v>
       </c>
       <c r="O14">
-        <v>4462.90432976247</v>
+        <v>4313.07609241518</v>
       </c>
       <c r="P14">
-        <v>74.8698584053415</v>
+        <v>88.34641097775661</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1487.04034406289</v>
+        <v>1489.9396434313</v>
       </c>
       <c r="C15">
-        <v>32.7648014636365</v>
+        <v>37.2658543209364</v>
       </c>
       <c r="D15">
-        <v>10.5053443046768</v>
+        <v>10.9708618063053</v>
       </c>
       <c r="E15">
-        <v>74.2279873572931</v>
+        <v>65.7164369436681</v>
       </c>
       <c r="F15">
-        <v>17.2895546467778</v>
+        <v>12.4982786791338</v>
       </c>
       <c r="G15">
-        <v>38.3794527496954</v>
+        <v>42.3020166464287</v>
       </c>
       <c r="H15">
-        <v>60.611268669778</v>
+        <v>51.4450243765751</v>
       </c>
       <c r="I15">
-        <v>23.3748324237274</v>
+        <v>23.7178192255911</v>
       </c>
       <c r="J15">
-        <v>170.970598661421</v>
+        <v>160.693336644383</v>
       </c>
       <c r="K15">
-        <v>79.215157664532</v>
+        <v>67.06294190647711</v>
       </c>
       <c r="L15">
-        <v>81.3534594539659</v>
+        <v>68.94028781896171</v>
       </c>
       <c r="M15">
-        <v>185.269244321669</v>
+        <v>195.712960600025</v>
       </c>
       <c r="N15">
-        <v>65.4510387640872</v>
+        <v>73.69864717082029</v>
       </c>
       <c r="O15">
-        <v>1947.03385702189</v>
+        <v>1945.7213205673</v>
       </c>
       <c r="P15">
-        <v>35.426609788896</v>
+        <v>41.5016853981177</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>657.58120227397</v>
+        <v>664.504581142388</v>
       </c>
       <c r="C16">
-        <v>59.9443660980051</v>
+        <v>55.9905542134902</v>
       </c>
       <c r="D16">
-        <v>10.1572254849056</v>
+        <v>6.58048820740941</v>
       </c>
       <c r="E16">
-        <v>24.9728898534227</v>
+        <v>24.6150199021479</v>
       </c>
       <c r="F16">
-        <v>7.07339770930818</v>
+        <v>3.37219540502357</v>
       </c>
       <c r="G16">
-        <v>13.6381033825872</v>
+        <v>11.1838179825636</v>
       </c>
       <c r="H16">
-        <v>15.0514263951086</v>
+        <v>17.883692025002</v>
       </c>
       <c r="I16">
-        <v>8.90717365939534</v>
+        <v>9.84017675564257</v>
       </c>
       <c r="J16">
-        <v>62.7642523258889</v>
+        <v>44.7857585537509</v>
       </c>
       <c r="K16">
-        <v>38.3884514035511</v>
+        <v>47.8512561383504</v>
       </c>
       <c r="L16">
-        <v>40.0312440964271</v>
+        <v>37.9278505670859</v>
       </c>
       <c r="M16">
-        <v>18.9410828539227</v>
+        <v>28.6987147155094</v>
       </c>
       <c r="N16">
-        <v>17.832118226474</v>
+        <v>20.7865925355301</v>
       </c>
       <c r="O16">
-        <v>994.586181263091</v>
+        <v>1007.74400325264</v>
       </c>
       <c r="P16">
-        <v>76.2426384115458</v>
+        <v>83.4256475520537</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>613.0877370025401</v>
+        <v>625.961929015983</v>
       </c>
       <c r="C17">
-        <v>29.4249261002647</v>
+        <v>31.3052521990116</v>
       </c>
       <c r="D17">
-        <v>8.7558314403732</v>
+        <v>4.40078566430918</v>
       </c>
       <c r="E17">
-        <v>11.5136791236643</v>
+        <v>24.0042854416864</v>
       </c>
       <c r="F17">
-        <v>13.3389278956407</v>
+        <v>15.9828721620326</v>
       </c>
       <c r="G17">
-        <v>13.9213115907467</v>
+        <v>9.001607040632401</v>
       </c>
       <c r="H17">
-        <v>15.3959960738766</v>
+        <v>14.5623464473301</v>
       </c>
       <c r="I17">
-        <v>16.1361700790873</v>
+        <v>6.12139342709211</v>
       </c>
       <c r="J17">
-        <v>21.2884870629973</v>
+        <v>19.3314337808235</v>
       </c>
       <c r="K17">
-        <v>28.1232560753277</v>
+        <v>21.8330578100387</v>
       </c>
       <c r="L17">
-        <v>8.86264134193042</v>
+        <v>12.1475295849768</v>
       </c>
       <c r="M17">
-        <v>72.1905393787705</v>
+        <v>67.280036451998</v>
       </c>
       <c r="N17">
-        <v>5.53268600495756</v>
+        <v>15.03657293359</v>
       </c>
       <c r="O17">
-        <v>935.702525078857</v>
+        <v>933.284139323601</v>
       </c>
       <c r="P17">
-        <v>71.5014541301165</v>
+        <v>70.5992490380568</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1160.51847836368</v>
+        <v>1177.69827263375</v>
       </c>
       <c r="C18">
-        <v>35.5282035506526</v>
+        <v>34.1495656382865</v>
       </c>
       <c r="D18">
-        <v>29.3976309763685</v>
+        <v>22.9460113114052</v>
       </c>
       <c r="E18">
-        <v>46.5811087185976</v>
+        <v>44.6493433310285</v>
       </c>
       <c r="F18">
-        <v>38.5960757186734</v>
+        <v>30.4781042001143</v>
       </c>
       <c r="G18">
-        <v>27.3794644122176</v>
+        <v>23.7542412124874</v>
       </c>
       <c r="H18">
-        <v>14.7240606749598</v>
+        <v>22.0470802272322</v>
       </c>
       <c r="I18">
-        <v>10.1438686686076</v>
+        <v>10.5796809146111</v>
       </c>
       <c r="J18">
-        <v>43.4626590066667</v>
+        <v>49.3305071565793</v>
       </c>
       <c r="K18">
-        <v>31.1868296127494</v>
+        <v>32.1185229240689</v>
       </c>
       <c r="L18">
-        <v>49.2564270389272</v>
+        <v>35.4362665295196</v>
       </c>
       <c r="M18">
-        <v>62.1693948910064</v>
+        <v>68.9289932152401</v>
       </c>
       <c r="N18">
-        <v>23.6285620481528</v>
+        <v>24.7466575676418</v>
       </c>
       <c r="O18">
-        <v>1289.97602868549</v>
+        <v>1269.36884377322</v>
       </c>
       <c r="P18">
-        <v>42.1423671328424</v>
+        <v>42.1514171950543</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1339.14897653632</v>
+        <v>1339.33210687472</v>
       </c>
       <c r="C19">
-        <v>24.6739093553029</v>
+        <v>22.7212210257549</v>
       </c>
       <c r="D19">
-        <v>14.3327478860734</v>
+        <v>9.822512186369529</v>
       </c>
       <c r="E19">
-        <v>35.6065499696842</v>
+        <v>38.6228254130624</v>
       </c>
       <c r="F19">
-        <v>62.9321194092315</v>
+        <v>81.1823665013366</v>
       </c>
       <c r="G19">
-        <v>41.1496751040971</v>
+        <v>42.1101987475234</v>
       </c>
       <c r="H19">
-        <v>7.24295844686232</v>
+        <v>6.42672940193891</v>
       </c>
       <c r="I19">
-        <v>10.8082231126828</v>
+        <v>6.4035263969753</v>
       </c>
       <c r="J19">
-        <v>11.8371466593493</v>
+        <v>23.6301578883518</v>
       </c>
       <c r="K19">
-        <v>12.2036968931862</v>
+        <v>12.0957221495007</v>
       </c>
       <c r="L19">
-        <v>11.6067717478273</v>
+        <v>7.40898062057586</v>
       </c>
       <c r="M19">
-        <v>25.5490553072897</v>
+        <v>26.798226463251</v>
       </c>
       <c r="N19">
-        <v>15.2913801075718</v>
+        <v>10.6363774818116</v>
       </c>
       <c r="O19">
-        <v>1459.99363191564</v>
+        <v>1426.25023700178</v>
       </c>
       <c r="P19">
-        <v>31.8246347669767</v>
+        <v>37.6704158135586</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>336.84233508701</v>
+        <v>335.596838768687</v>
       </c>
       <c r="C20">
-        <v>7.61931131812218</v>
+        <v>7.97197015090354</v>
       </c>
       <c r="D20">
-        <v>12.9308152665299</v>
+        <v>16.5084931947233</v>
       </c>
       <c r="E20">
-        <v>32.0827548579053</v>
+        <v>33.9243911153467</v>
       </c>
       <c r="F20">
-        <v>0.338985516325318</v>
+        <v>0.494803072349817</v>
       </c>
       <c r="G20">
-        <v>3.43206638367455</v>
+        <v>1.61462055187835</v>
       </c>
       <c r="H20">
-        <v>3.38795926480715</v>
+        <v>1.82295868760459</v>
       </c>
       <c r="I20">
-        <v>3.09953343216395</v>
+        <v>1.66670508580991</v>
       </c>
       <c r="J20">
-        <v>5.68423664219114</v>
+        <v>6.53660900841074</v>
       </c>
       <c r="K20">
-        <v>7.52541577662344</v>
+        <v>4.0809603467807</v>
       </c>
       <c r="L20">
-        <v>9.084994864035179</v>
+        <v>7.61718203712126</v>
       </c>
       <c r="M20">
-        <v>18.2468108226036</v>
+        <v>16.5344309350582</v>
       </c>
       <c r="N20">
-        <v>5.13358644809207</v>
+        <v>6.82307394503431</v>
       </c>
       <c r="O20">
-        <v>447.346180502174</v>
+        <v>450.38030362589</v>
       </c>
       <c r="P20">
-        <v>24.5154845855287</v>
+        <v>25.8949286092588</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1251.29207091918</v>
+        <v>1266.14656600003</v>
       </c>
       <c r="C21">
-        <v>18.7033491055115</v>
+        <v>25.5066307126345</v>
       </c>
       <c r="D21">
-        <v>9.45297893040912</v>
+        <v>11.7145837888345</v>
       </c>
       <c r="E21">
-        <v>26.1466455058971</v>
+        <v>41.1528887789815</v>
       </c>
       <c r="F21">
-        <v>4.25532907750121</v>
+        <v>4.09721896062682</v>
       </c>
       <c r="G21">
-        <v>15.743284980857</v>
+        <v>19.4965026330539</v>
       </c>
       <c r="H21">
-        <v>36.4209865704847</v>
+        <v>7.87704772007832</v>
       </c>
       <c r="I21">
-        <v>2.93998846101901</v>
+        <v>6.83831615259546</v>
       </c>
       <c r="J21">
-        <v>8.028628465399979</v>
+        <v>27.0935817185112</v>
       </c>
       <c r="K21">
-        <v>22.9833221858658</v>
+        <v>11.5414618609207</v>
       </c>
       <c r="L21">
-        <v>40.92577574982</v>
+        <v>39.904604384133</v>
       </c>
       <c r="M21">
-        <v>27.7845674457453</v>
+        <v>29.8127987111599</v>
       </c>
       <c r="N21">
-        <v>17.096831714545</v>
+        <v>20.197558256611</v>
       </c>
       <c r="O21">
-        <v>2231.50195890593</v>
+        <v>2181.40773563426</v>
       </c>
       <c r="P21">
-        <v>12.5383851685258</v>
+        <v>16.6045688174675</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1588.43943064075</v>
+        <v>1598.90934079398</v>
       </c>
       <c r="C22">
-        <v>19.3047905170377</v>
+        <v>23.613685653974</v>
       </c>
       <c r="D22">
-        <v>34.1555895549705</v>
+        <v>30.6406441013071</v>
       </c>
       <c r="E22">
-        <v>29.402270680601</v>
+        <v>51.6188594073195</v>
       </c>
       <c r="F22">
-        <v>1.94955241070233</v>
+        <v>3.06994642756253</v>
       </c>
       <c r="G22">
-        <v>26.2830466161559</v>
+        <v>25.2691895979508</v>
       </c>
       <c r="H22">
-        <v>25.296446664389</v>
+        <v>25.1464191309352</v>
       </c>
       <c r="I22">
-        <v>14.8448320260519</v>
+        <v>9.94336630520259</v>
       </c>
       <c r="J22">
-        <v>39.2691254704963</v>
+        <v>56.7706752336219</v>
       </c>
       <c r="K22">
-        <v>40.2854340296007</v>
+        <v>32.6421681076872</v>
       </c>
       <c r="L22">
-        <v>127.333733040636</v>
+        <v>131.248265521211</v>
       </c>
       <c r="M22">
-        <v>19.4606083865982</v>
+        <v>20.7964948314281</v>
       </c>
       <c r="N22">
-        <v>78.9964098347162</v>
+        <v>60.4352831577742</v>
       </c>
       <c r="O22">
-        <v>2468.08918002124</v>
+        <v>2476.32000176396</v>
       </c>
       <c r="P22">
-        <v>23.8476727958016</v>
+        <v>14.6578542388388</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2618.17423592269</v>
+        <v>2623.79930060924</v>
       </c>
       <c r="C23">
-        <v>48.9581244135994</v>
+        <v>50.0085290471944</v>
       </c>
       <c r="D23">
-        <v>22.0909633485785</v>
+        <v>12.1353620520451</v>
       </c>
       <c r="E23">
-        <v>47.0554283028954</v>
+        <v>76.4369184085855</v>
       </c>
       <c r="F23">
-        <v>12.3216766458989</v>
+        <v>14.573150013935</v>
       </c>
       <c r="G23">
-        <v>61.5174507218948</v>
+        <v>53.0991452692465</v>
       </c>
       <c r="H23">
-        <v>47.6278583834241</v>
+        <v>65.5309908624133</v>
       </c>
       <c r="I23">
-        <v>20.6571614433929</v>
+        <v>21.8048476924816</v>
       </c>
       <c r="J23">
-        <v>172.956505610297</v>
+        <v>167.509585639194</v>
       </c>
       <c r="K23">
-        <v>123.382642209071</v>
+        <v>115.604514382468</v>
       </c>
       <c r="L23">
-        <v>59.7089621258531</v>
+        <v>44.9765660686425</v>
       </c>
       <c r="M23">
-        <v>491.726020481133</v>
+        <v>501.082583579269</v>
       </c>
       <c r="N23">
-        <v>78.41283056962649</v>
+        <v>76.3177107727182</v>
       </c>
       <c r="O23">
-        <v>3114.26302432769</v>
+        <v>3117.65672515406</v>
       </c>
       <c r="P23">
-        <v>70.13402363929571</v>
+        <v>68.9316301281216</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>1011.49159190342</v>
+        <v>1026.06816670661</v>
       </c>
       <c r="C24">
-        <v>65.6688881617546</v>
+        <v>70.35265585192011</v>
       </c>
       <c r="D24">
-        <v>6.26533032565399</v>
+        <v>9.16484323767407</v>
       </c>
       <c r="E24">
-        <v>73.43112613247691</v>
+        <v>71.2890224298627</v>
       </c>
       <c r="F24">
-        <v>16.3870936898719</v>
+        <v>13.5216366958922</v>
       </c>
       <c r="G24">
-        <v>23.6654633357073</v>
+        <v>14.5784379607014</v>
       </c>
       <c r="H24">
-        <v>14.9875398490822</v>
+        <v>21.4129464289962</v>
       </c>
       <c r="I24">
-        <v>12.3170230060513</v>
+        <v>15.7707265671528</v>
       </c>
       <c r="J24">
-        <v>42.5518072698662</v>
+        <v>61.6627314018898</v>
       </c>
       <c r="K24">
-        <v>66.314554715138</v>
+        <v>53.8774497630897</v>
       </c>
       <c r="L24">
-        <v>67.957056498135</v>
+        <v>75.5817424692742</v>
       </c>
       <c r="M24">
-        <v>23.8558639083555</v>
+        <v>31.4570397592399</v>
       </c>
       <c r="N24">
-        <v>65.75067193666411</v>
+        <v>56.2230279771898</v>
       </c>
       <c r="O24">
-        <v>1851.24651715181</v>
+        <v>1815.49633055956</v>
       </c>
       <c r="P24">
-        <v>120.995183372325</v>
+        <v>118.415393486934</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>839.852955780598</v>
+        <v>842.975472663542</v>
       </c>
       <c r="C25">
-        <v>36.0019073239008</v>
+        <v>30.8734003151642</v>
       </c>
       <c r="D25">
-        <v>20.219953073501</v>
+        <v>24.584831226367</v>
       </c>
       <c r="E25">
-        <v>35.1815184663562</v>
+        <v>35.9772636792182</v>
       </c>
       <c r="F25">
-        <v>16.2973846048247</v>
+        <v>14.2869146959309</v>
       </c>
       <c r="G25">
-        <v>13.3312739752272</v>
+        <v>8.855387983402821</v>
       </c>
       <c r="H25">
-        <v>12.6094744538236</v>
+        <v>14.9934543449578</v>
       </c>
       <c r="I25">
-        <v>1.81689339934049</v>
+        <v>5.69451646419467</v>
       </c>
       <c r="J25">
-        <v>20.4154446907903</v>
+        <v>19.1094160386765</v>
       </c>
       <c r="K25">
-        <v>18.0021115392169</v>
+        <v>16.2587897239671</v>
       </c>
       <c r="L25">
-        <v>31.8881059710896</v>
+        <v>25.6581238919429</v>
       </c>
       <c r="M25">
-        <v>25.34875583906</v>
+        <v>26.7831306258648</v>
       </c>
       <c r="N25">
-        <v>51.9674443025398</v>
+        <v>49.2038418882538</v>
       </c>
       <c r="O25">
-        <v>781.939150368202</v>
+        <v>797.038905509054</v>
       </c>
       <c r="P25">
-        <v>33.5706092497366</v>
+        <v>40.0694031425626</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1389.23965682524</v>
+        <v>1424.21425909605</v>
       </c>
       <c r="C26">
-        <v>51.1542216607211</v>
+        <v>63.7959058234835</v>
       </c>
       <c r="D26">
-        <v>13.7779333855641</v>
+        <v>23.4334310182687</v>
       </c>
       <c r="E26">
-        <v>50.911435714627</v>
+        <v>54.8140213126921</v>
       </c>
       <c r="F26">
-        <v>10.3981378927185</v>
+        <v>12.1412341870015</v>
       </c>
       <c r="G26">
-        <v>39.2497722284959</v>
+        <v>29.6239186749363</v>
       </c>
       <c r="H26">
-        <v>22.5432874416696</v>
+        <v>19.3957049862837</v>
       </c>
       <c r="I26">
-        <v>20.0172501085827</v>
+        <v>14.532718810143</v>
       </c>
       <c r="J26">
-        <v>66.5168112159315</v>
+        <v>64.49063855461129</v>
       </c>
       <c r="K26">
-        <v>41.1344422174171</v>
+        <v>40.5446780896939</v>
       </c>
       <c r="L26">
-        <v>27.6246247235138</v>
+        <v>47.8911281479987</v>
       </c>
       <c r="M26">
-        <v>74.57972771866341</v>
+        <v>82.4103991798448</v>
       </c>
       <c r="N26">
-        <v>37.9608140642795</v>
+        <v>42.1130587599138</v>
       </c>
       <c r="O26">
-        <v>2030.4703023787</v>
+        <v>1946.01632541839</v>
       </c>
       <c r="P26">
-        <v>65.4121593233986</v>
+        <v>78.2578219512565</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>235.919659084245</v>
+        <v>236.437277545121</v>
       </c>
       <c r="C27">
-        <v>3.227921453644</v>
+        <v>2.90735063878525</v>
       </c>
       <c r="D27">
-        <v>1.69014637561541</v>
+        <v>1.107301677398</v>
       </c>
       <c r="E27">
-        <v>10.6275066733532</v>
+        <v>9.48444525614859</v>
       </c>
       <c r="F27">
-        <v>7.55943787865488</v>
+        <v>7.50105228888861</v>
       </c>
       <c r="G27">
-        <v>0.479471350684927</v>
+        <v>0.810220739559513</v>
       </c>
       <c r="H27">
-        <v>0.830243579376054</v>
+        <v>0.324088295823806</v>
       </c>
       <c r="I27">
-        <v>1.05703418539769</v>
+        <v>1.29165544205191</v>
       </c>
       <c r="J27">
-        <v>5.06858062163096</v>
+        <v>4.07986548270225</v>
       </c>
       <c r="K27">
-        <v>0.336723273467707</v>
+        <v>1.107301677398</v>
       </c>
       <c r="L27">
-        <v>1.80433166410322</v>
+        <v>1.41758852919203</v>
       </c>
       <c r="M27">
-        <v>1.08918310473335</v>
+        <v>0.891242813515466</v>
       </c>
       <c r="N27">
-        <v>4.52578620916391</v>
+        <v>4.38650729104747</v>
       </c>
       <c r="O27">
-        <v>330.148332008112</v>
+        <v>323.64857252263</v>
       </c>
       <c r="P27">
-        <v>42.6711592651144</v>
+        <v>43.9378164068672</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>375.788257335698</v>
+        <v>373.379965977351</v>
       </c>
       <c r="C28">
-        <v>30.3891856970369</v>
+        <v>33.297236708507</v>
       </c>
       <c r="D28">
-        <v>2.37023816986682</v>
+        <v>1.98584174192318</v>
       </c>
       <c r="E28">
-        <v>8.31132212649902</v>
+        <v>9.229968659642919</v>
       </c>
       <c r="F28">
-        <v>1.84703282610392</v>
+        <v>2.1570555915145</v>
       </c>
       <c r="G28">
-        <v>4.33348795342448</v>
+        <v>4.5310755238247</v>
       </c>
       <c r="H28">
-        <v>7.09255204347739</v>
+        <v>6.60082607174464</v>
       </c>
       <c r="I28">
-        <v>5.27980958215033</v>
+        <v>4.42464446102308</v>
       </c>
       <c r="J28">
-        <v>18.104669434223</v>
+        <v>15.0188050099794</v>
       </c>
       <c r="K28">
-        <v>12.5776375388867</v>
+        <v>17.5232418512359</v>
       </c>
       <c r="L28">
-        <v>10.2886338999463</v>
+        <v>14.699993820716</v>
       </c>
       <c r="M28">
-        <v>8.14008150411847</v>
+        <v>9.70545189362455</v>
       </c>
       <c r="N28">
-        <v>9.5831396315292</v>
+        <v>10.9507899966617</v>
       </c>
       <c r="O28">
-        <v>617.53605554532</v>
+        <v>604.994606440221</v>
       </c>
       <c r="P28">
-        <v>88.85852665672731</v>
+        <v>88.4620099530306</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>509.25095103186</v>
+        <v>524.322587124133</v>
       </c>
       <c r="C29">
-        <v>8.376528784073409</v>
+        <v>4.71632501232807</v>
       </c>
       <c r="D29">
-        <v>3.95163272195713</v>
+        <v>1.58079138934806</v>
       </c>
       <c r="E29">
-        <v>3.09407407323767</v>
+        <v>7.1001647148684</v>
       </c>
       <c r="F29">
-        <v>16.4395427563375</v>
+        <v>17.0109432381782</v>
       </c>
       <c r="G29">
-        <v>3.25679416852135</v>
+        <v>2.08985980286692</v>
       </c>
       <c r="H29">
-        <v>1.4761624355448</v>
+        <v>2.89365203473882</v>
       </c>
       <c r="I29">
-        <v>4.21868797002417</v>
+        <v>3.72014995987059</v>
       </c>
       <c r="J29">
-        <v>7.68300281649635</v>
+        <v>6.91261319409829</v>
       </c>
       <c r="K29">
-        <v>5.11822311806161</v>
+        <v>3.2500513085797</v>
       </c>
       <c r="L29">
-        <v>3.32935210764222</v>
+        <v>5.78730406947764</v>
       </c>
       <c r="M29">
-        <v>3.99757691293641</v>
+        <v>3.50989274584061</v>
       </c>
       <c r="N29">
-        <v>13.0694887494314</v>
+        <v>10.958178792955</v>
       </c>
       <c r="O29">
-        <v>772.685410877738</v>
+        <v>794.017980777218</v>
       </c>
       <c r="P29">
-        <v>4.51975582533804</v>
+        <v>5.48019937270898</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>273.715249449492</v>
+        <v>268.659566186702</v>
       </c>
       <c r="C30">
-        <v>3.74114341086937</v>
+        <v>3.7151910518131</v>
       </c>
       <c r="D30">
-        <v>3.2824882602077</v>
+        <v>5.69267160593305</v>
       </c>
       <c r="E30">
-        <v>15.4835213881129</v>
+        <v>16.7404284692661</v>
       </c>
       <c r="F30">
-        <v>1.94884534501563</v>
+        <v>0.837226152521261</v>
       </c>
       <c r="G30">
-        <v>4.45774210385011</v>
+        <v>3.97682422447599</v>
       </c>
       <c r="H30">
-        <v>7.15485294631908</v>
+        <v>5.28499008779046</v>
       </c>
       <c r="I30">
-        <v>2.52323229399379</v>
+        <v>2.63741272155817</v>
       </c>
       <c r="J30">
-        <v>18.0929896691453</v>
+        <v>19.3637559252424</v>
       </c>
       <c r="K30">
-        <v>12.9735475879937</v>
+        <v>11.5077084652904</v>
       </c>
       <c r="L30">
-        <v>39.5479088750247</v>
+        <v>36.5217666262973</v>
       </c>
       <c r="M30">
-        <v>11.8435444513531</v>
+        <v>8.36641193523066</v>
       </c>
       <c r="N30">
-        <v>11.9360549608928</v>
+        <v>16.0486025969947</v>
       </c>
       <c r="O30">
-        <v>468.322334026876</v>
+        <v>470.558300485139</v>
       </c>
       <c r="P30">
-        <v>6.5759432368554</v>
+        <v>8.19582889557212</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2341.51190889262</v>
+        <v>2290.18567951863</v>
       </c>
       <c r="C31">
-        <v>34.3651913825845</v>
+        <v>45.7147469830405</v>
       </c>
       <c r="D31">
-        <v>48.929238392491</v>
+        <v>37.6834943549045</v>
       </c>
       <c r="E31">
-        <v>19.1506245318903</v>
+        <v>57.2654628999514</v>
       </c>
       <c r="F31">
-        <v>4.53928834467387</v>
+        <v>9.59071043699279</v>
       </c>
       <c r="G31">
-        <v>144.681666153988</v>
+        <v>132.635571217118</v>
       </c>
       <c r="H31">
-        <v>28.0983665174497</v>
+        <v>27.0322211829108</v>
       </c>
       <c r="I31">
-        <v>23.1033271028439</v>
+        <v>19.5776976371577</v>
       </c>
       <c r="J31">
-        <v>61.2047811257363</v>
+        <v>47.5220423150126</v>
       </c>
       <c r="K31">
-        <v>35.3203526417977</v>
+        <v>34.427112086582</v>
       </c>
       <c r="L31">
-        <v>57.7077526746936</v>
+        <v>77.05517949134899</v>
       </c>
       <c r="M31">
-        <v>24.8784185798862</v>
+        <v>24.3295162261738</v>
       </c>
       <c r="N31">
-        <v>67.17885198655161</v>
+        <v>55.1991335121423</v>
       </c>
       <c r="O31">
-        <v>3114.13957551483</v>
+        <v>3156.73695019912</v>
       </c>
       <c r="P31">
-        <v>15.4356532253774</v>
+        <v>13.9957460446814</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>544.806973147952</v>
+        <v>535.210881379107</v>
       </c>
       <c r="C32">
-        <v>6.90463173478512</v>
+        <v>5.2927536002623</v>
       </c>
       <c r="D32">
-        <v>1.73115558616517</v>
+        <v>1.40076442796494</v>
       </c>
       <c r="E32">
-        <v>6.45495820009002</v>
+        <v>5.66023177014404</v>
       </c>
       <c r="F32">
-        <v>19.9456803481976</v>
+        <v>20.3467031561649</v>
       </c>
       <c r="G32">
-        <v>1.05049057098112</v>
+        <v>1.88674392338135</v>
       </c>
       <c r="H32">
-        <v>0.997706616178785</v>
+        <v>0.524401467396158</v>
       </c>
       <c r="I32">
-        <v>2.47960658258764</v>
+        <v>3.40185646791486</v>
       </c>
       <c r="J32">
-        <v>2.65398785559485</v>
+        <v>4.28805437132124</v>
       </c>
       <c r="K32">
-        <v>4.98411679389166</v>
+        <v>2.02967906909206</v>
       </c>
       <c r="L32">
-        <v>13.383781713661</v>
+        <v>15.648943624817</v>
       </c>
       <c r="M32">
-        <v>5.95539061370651</v>
+        <v>5.04874890023626</v>
       </c>
       <c r="N32">
-        <v>13.048623315274</v>
+        <v>10.1761435127955</v>
       </c>
       <c r="O32">
-        <v>627.083856147735</v>
+        <v>628.553044307995</v>
       </c>
       <c r="P32">
-        <v>23.5385791459215</v>
+        <v>22.7833922191006</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5752.49760211066</v>
+        <v>5660.36608763579</v>
       </c>
       <c r="C33">
-        <v>75.1201668443006</v>
+        <v>84.0787525248851</v>
       </c>
       <c r="D33">
-        <v>94.7687900137968</v>
+        <v>105.19964834299</v>
       </c>
       <c r="E33">
-        <v>73.0417575410241</v>
+        <v>117.237889974072</v>
       </c>
       <c r="F33">
-        <v>13.9961634337732</v>
+        <v>11.4858114115414</v>
       </c>
       <c r="G33">
-        <v>94.73252305010431</v>
+        <v>85.7774045270972</v>
       </c>
       <c r="H33">
-        <v>39.7906448363262</v>
+        <v>39.3060262232361</v>
       </c>
       <c r="I33">
-        <v>48.6299685872854</v>
+        <v>38.2975515067468</v>
       </c>
       <c r="J33">
-        <v>128.191759830887</v>
+        <v>111.668097052595</v>
       </c>
       <c r="K33">
-        <v>110.717577743486</v>
+        <v>124.937545868831</v>
       </c>
       <c r="L33">
-        <v>137.514141846798</v>
+        <v>148.782127064519</v>
       </c>
       <c r="M33">
-        <v>72.052211404349</v>
+        <v>81.1445005413913</v>
       </c>
       <c r="N33">
-        <v>158.120060025903</v>
+        <v>119.998389112739</v>
       </c>
       <c r="O33">
-        <v>6805.63174637968</v>
+        <v>6811.22927251841</v>
       </c>
       <c r="P33">
-        <v>74.05555179055639</v>
+        <v>85.6346899810172</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2035.94049069297</v>
+        <v>2063.37630412633</v>
       </c>
       <c r="C34">
-        <v>87.3232185615117</v>
+        <v>71.3801109233319</v>
       </c>
       <c r="D34">
-        <v>204.675066073952</v>
+        <v>203.70506241507</v>
       </c>
       <c r="E34">
-        <v>77.9248014381687</v>
+        <v>84.5421024014012</v>
       </c>
       <c r="F34">
-        <v>6.914745631755</v>
+        <v>7.77652567832393</v>
       </c>
       <c r="G34">
-        <v>45.8371381395963</v>
+        <v>60.2681961629632</v>
       </c>
       <c r="H34">
-        <v>51.0465912029942</v>
+        <v>39.4095521352304</v>
       </c>
       <c r="I34">
-        <v>36.3525372835738</v>
+        <v>26.4254980116568</v>
       </c>
       <c r="J34">
-        <v>46.3116834091425</v>
+        <v>61.4494282921445</v>
       </c>
       <c r="K34">
-        <v>49.3548237789891</v>
+        <v>52.0051735256176</v>
       </c>
       <c r="L34">
-        <v>108.351905162913</v>
+        <v>101.983172217055</v>
       </c>
       <c r="M34">
-        <v>53.4251862529864</v>
+        <v>58.4007712940422</v>
       </c>
       <c r="N34">
-        <v>123.821438807033</v>
+        <v>119.550976327217</v>
       </c>
       <c r="O34">
-        <v>2682.64404136704</v>
+        <v>2637.74001908045</v>
       </c>
       <c r="P34">
-        <v>57.2810088334396</v>
+        <v>63.9996827682383</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>158.657494105908</v>
+        <v>153.122223561288</v>
       </c>
       <c r="C35">
-        <v>5.62892603959335</v>
+        <v>6.99960313538181</v>
       </c>
       <c r="D35">
-        <v>1.06978385152138</v>
+        <v>0.344662513262311</v>
       </c>
       <c r="E35">
-        <v>0.7629365038348031</v>
+        <v>2.00846651823076</v>
       </c>
       <c r="F35">
-        <v>5.78047047483491</v>
+        <v>6.33332351297563</v>
       </c>
       <c r="G35">
-        <v>0.783968513319689</v>
+        <v>0.545715645998659</v>
       </c>
       <c r="H35">
-        <v>0.461877098689284</v>
+        <v>0.373384389367503</v>
       </c>
       <c r="I35">
-        <v>0.777710694111396</v>
+        <v>0.9527878567183941</v>
       </c>
       <c r="J35">
-        <v>2.09408786957575</v>
+        <v>2.38391571673098</v>
       </c>
       <c r="K35">
-        <v>5.02883979914715</v>
+        <v>6.34509658827602</v>
       </c>
       <c r="L35">
-        <v>2.89103164060593</v>
+        <v>2.08555577689124</v>
       </c>
       <c r="M35">
-        <v>1.77715664005682</v>
+        <v>2.3264719645206</v>
       </c>
       <c r="N35">
-        <v>2.03586545664026</v>
+        <v>2.24030633620502</v>
       </c>
       <c r="O35">
-        <v>237.30251595353</v>
+        <v>227.020643055142</v>
       </c>
       <c r="P35">
-        <v>39.1992446185905</v>
+        <v>40.996281978606</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2918.03235297784</v>
+        <v>2957.12331595078</v>
       </c>
       <c r="C36">
-        <v>68.626274389537</v>
+        <v>73.893659569322</v>
       </c>
       <c r="D36">
-        <v>14.1943014370054</v>
+        <v>20.5817309012614</v>
       </c>
       <c r="E36">
-        <v>79.43678292205919</v>
+        <v>109.857681750138</v>
       </c>
       <c r="F36">
-        <v>33.9029463101044</v>
+        <v>26.6224944879871</v>
       </c>
       <c r="G36">
-        <v>88.2353786934584</v>
+        <v>82.1384895373514</v>
       </c>
       <c r="H36">
-        <v>138.986479091093</v>
+        <v>109.530257308771</v>
       </c>
       <c r="I36">
-        <v>36.3819405086144</v>
+        <v>56.002187339254</v>
       </c>
       <c r="J36">
-        <v>259.4936071402</v>
+        <v>257.718432783215</v>
       </c>
       <c r="K36">
-        <v>163.943663472377</v>
+        <v>136.291066407803</v>
       </c>
       <c r="L36">
-        <v>102.572671077242</v>
+        <v>107.939847877058</v>
       </c>
       <c r="M36">
-        <v>222.368541812484</v>
+        <v>246.56000976142</v>
       </c>
       <c r="N36">
-        <v>95.3806382193402</v>
+        <v>90.73517832638839</v>
       </c>
       <c r="O36">
-        <v>3793.52260972815</v>
+        <v>3743.06364061372</v>
       </c>
       <c r="P36">
-        <v>54.1656025343942</v>
+        <v>55.1402610062578</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>960.415627128731</v>
+        <v>956.304537268574</v>
       </c>
       <c r="C37">
-        <v>23.6401264565384</v>
+        <v>24.2393574989215</v>
       </c>
       <c r="D37">
-        <v>14.9278732964563</v>
+        <v>9.065075640448351</v>
       </c>
       <c r="E37">
-        <v>16.8873930618606</v>
+        <v>19.6767659991722</v>
       </c>
       <c r="F37">
-        <v>50.5617845833257</v>
+        <v>45.8936851179323</v>
       </c>
       <c r="G37">
-        <v>4.53051574682526</v>
+        <v>5.88082438699973</v>
       </c>
       <c r="H37">
-        <v>17.8650312677089</v>
+        <v>19.7156966004154</v>
       </c>
       <c r="I37">
-        <v>6.77913601764803</v>
+        <v>12.0557465190741</v>
       </c>
       <c r="J37">
-        <v>38.2477262152685</v>
+        <v>37.3440587990456</v>
       </c>
       <c r="K37">
-        <v>24.3872251806654</v>
+        <v>27.7107874725697</v>
       </c>
       <c r="L37">
-        <v>28.1745353351013</v>
+        <v>22.3038821434433</v>
       </c>
       <c r="M37">
-        <v>34.5889333756377</v>
+        <v>33.2852026406681</v>
       </c>
       <c r="N37">
-        <v>15.8286470937101</v>
+        <v>15.4048911991164</v>
       </c>
       <c r="O37">
-        <v>1116.18612869962</v>
+        <v>1122.15972288507</v>
       </c>
       <c r="P37">
-        <v>55.4410834312764</v>
+        <v>54.5249443066834</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>940.560263206573</v>
+        <v>921.776296338793</v>
       </c>
       <c r="C38">
-        <v>21.7622281669399</v>
+        <v>25.4527235060934</v>
       </c>
       <c r="D38">
-        <v>11.9603400017292</v>
+        <v>8.84399013701737</v>
       </c>
       <c r="E38">
-        <v>61.8447276935806</v>
+        <v>67.8227110839654</v>
       </c>
       <c r="F38">
-        <v>2.05510722232459</v>
+        <v>2.68417554463012</v>
       </c>
       <c r="G38">
-        <v>6.47340603227969</v>
+        <v>5.61236704786299</v>
       </c>
       <c r="H38">
-        <v>3.82556205795488</v>
+        <v>5.51661429503682</v>
       </c>
       <c r="I38">
-        <v>3.96146554782686</v>
+        <v>6.39864069224959</v>
       </c>
       <c r="J38">
-        <v>34.1593137186668</v>
+        <v>28.409290403745</v>
       </c>
       <c r="K38">
-        <v>13.9241376682707</v>
+        <v>12.9975548524108</v>
       </c>
       <c r="L38">
-        <v>49.2407852580723</v>
+        <v>55.3506118106698</v>
       </c>
       <c r="M38">
-        <v>22.927814894731</v>
+        <v>22.6462297647594</v>
       </c>
       <c r="N38">
-        <v>17.1731930494405</v>
+        <v>20.8105544883048</v>
       </c>
       <c r="O38">
-        <v>1218.6099247836</v>
+        <v>1188.11316097083</v>
       </c>
       <c r="P38">
-        <v>55.9146184946458</v>
+        <v>66.67265784912119</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3441.41079234574</v>
+        <v>3462.13158179946</v>
       </c>
       <c r="C39">
-        <v>95.81622959711569</v>
+        <v>100.099636656188</v>
       </c>
       <c r="D39">
-        <v>57.7974486171868</v>
+        <v>67.7723271894735</v>
       </c>
       <c r="E39">
-        <v>103.691378273151</v>
+        <v>139.508171761355</v>
       </c>
       <c r="F39">
-        <v>45.5802970234375</v>
+        <v>37.8324957712047</v>
       </c>
       <c r="G39">
-        <v>106.066077142951</v>
+        <v>95.6521944152553</v>
       </c>
       <c r="H39">
-        <v>59.5629441689842</v>
+        <v>55.6857336397191</v>
       </c>
       <c r="I39">
-        <v>57.2116819570731</v>
+        <v>53.2920955715078</v>
       </c>
       <c r="J39">
-        <v>179.940917446408</v>
+        <v>210.421103156878</v>
       </c>
       <c r="K39">
-        <v>89.9599713318653</v>
+        <v>98.3874314296141</v>
       </c>
       <c r="L39">
-        <v>120.596074350165</v>
+        <v>120.94745792293</v>
       </c>
       <c r="M39">
-        <v>68.2116911517973</v>
+        <v>71.28499813066129</v>
       </c>
       <c r="N39">
-        <v>111.472944172054</v>
+        <v>96.79494527988621</v>
       </c>
       <c r="O39">
-        <v>4178.44352745185</v>
+        <v>4101.38629775555</v>
       </c>
       <c r="P39">
-        <v>71.0749525040427</v>
+        <v>85.0703903417096</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>290.676799109307</v>
+        <v>278.988994631404</v>
       </c>
       <c r="C40">
-        <v>5.27319902837602</v>
+        <v>3.74572973444533</v>
       </c>
       <c r="D40">
-        <v>9.317677739313441</v>
+        <v>8.81388035243994</v>
       </c>
       <c r="E40">
-        <v>2.58261593324653</v>
+        <v>8.042874088246361</v>
       </c>
       <c r="F40">
-        <v>2.69837368131965</v>
+        <v>0.465064147959824</v>
       </c>
       <c r="G40">
-        <v>4.19456209611584</v>
+        <v>4.71851148576246</v>
       </c>
       <c r="H40">
-        <v>5.19631489127464</v>
+        <v>5.29586342632821</v>
       </c>
       <c r="I40">
-        <v>1.91002058903826</v>
+        <v>1.72347301890993</v>
       </c>
       <c r="J40">
-        <v>12.1634570404107</v>
+        <v>13.099459778982</v>
       </c>
       <c r="K40">
-        <v>5.66902336872352</v>
+        <v>4.60284665027197</v>
       </c>
       <c r="L40">
-        <v>13.6840745026048</v>
+        <v>15.6537294805319</v>
       </c>
       <c r="M40">
-        <v>6.11987841202484</v>
+        <v>5.21990146300228</v>
       </c>
       <c r="N40">
-        <v>23.1335831789624</v>
+        <v>21.2415719278303</v>
       </c>
       <c r="O40">
-        <v>362.861595374907</v>
+        <v>368.464872387554</v>
       </c>
       <c r="P40">
-        <v>2.97109892366523</v>
+        <v>2.54417445648609</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1095.74303480327</v>
+        <v>1079.712555771</v>
       </c>
       <c r="C41">
-        <v>13.1752353241587</v>
+        <v>21.5314790106959</v>
       </c>
       <c r="D41">
-        <v>101.606841911268</v>
+        <v>106.848479551528</v>
       </c>
       <c r="E41">
-        <v>43.5833310210257</v>
+        <v>45.8282125421545</v>
       </c>
       <c r="F41">
-        <v>3.30070711632737</v>
+        <v>3.27234483048891</v>
       </c>
       <c r="G41">
-        <v>32.3732416622295</v>
+        <v>26.4526687425988</v>
       </c>
       <c r="H41">
-        <v>35.7540556431595</v>
+        <v>33.1510982428715</v>
       </c>
       <c r="I41">
-        <v>4.40228214445366</v>
+        <v>11.7144445192292</v>
       </c>
       <c r="J41">
-        <v>34.7932229864233</v>
+        <v>46.9725450434722</v>
       </c>
       <c r="K41">
-        <v>46.1893749672906</v>
+        <v>34.9792513695936</v>
       </c>
       <c r="L41">
-        <v>22.2613475018944</v>
+        <v>30.9532980893289</v>
       </c>
       <c r="M41">
-        <v>33.9403934392502</v>
+        <v>36.6125204980666</v>
       </c>
       <c r="N41">
-        <v>18.0194325651692</v>
+        <v>20.9906498975394</v>
       </c>
       <c r="O41">
-        <v>1294.64534841308</v>
+        <v>1276.99053695048</v>
       </c>
       <c r="P41">
-        <v>14.4244718702768</v>
+        <v>22.7661585382787</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>169.132085500394</v>
+        <v>170.483941419382</v>
       </c>
       <c r="C42">
-        <v>9.81939382279824</v>
+        <v>7.92233202990796</v>
       </c>
       <c r="D42">
-        <v>1.29846829366444</v>
+        <v>1.26729677473488</v>
       </c>
       <c r="E42">
-        <v>5.13546922740644</v>
+        <v>4.90793203054646</v>
       </c>
       <c r="F42">
-        <v>1.82678346118098</v>
+        <v>1.90245904498435</v>
       </c>
       <c r="G42">
-        <v>0.804072572456488</v>
+        <v>0.937032066932591</v>
       </c>
       <c r="H42">
-        <v>2.46748692171641</v>
+        <v>1.44814046707764</v>
       </c>
       <c r="I42">
-        <v>1.124811745453</v>
+        <v>1.10740153364761</v>
       </c>
       <c r="J42">
-        <v>3.89514715456642</v>
+        <v>3.79930086748438</v>
       </c>
       <c r="K42">
-        <v>7.46397629342492</v>
+        <v>5.56982670515356</v>
       </c>
       <c r="L42">
-        <v>5.94687498384549</v>
+        <v>7.04149506606978</v>
       </c>
       <c r="M42">
-        <v>3.17697536887735</v>
+        <v>3.44459042158219</v>
       </c>
       <c r="N42">
-        <v>5.84019768190719</v>
+        <v>7.28953710846911</v>
       </c>
       <c r="O42">
-        <v>260.989941165335</v>
+        <v>263.449240976964</v>
       </c>
       <c r="P42">
-        <v>46.4914820867376</v>
+        <v>47.1370011830504</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1563.04523722246</v>
+        <v>1551.75011325723</v>
       </c>
       <c r="C43">
-        <v>50.4639662881845</v>
+        <v>42.7781315682988</v>
       </c>
       <c r="D43">
-        <v>45.8230862648332</v>
+        <v>54.4402247173622</v>
       </c>
       <c r="E43">
-        <v>68.736558453195</v>
+        <v>70.54461903058279</v>
       </c>
       <c r="F43">
-        <v>11.9509376745373</v>
+        <v>7.47146358200763</v>
       </c>
       <c r="G43">
-        <v>22.9564016444186</v>
+        <v>34.2121352024996</v>
       </c>
       <c r="H43">
-        <v>46.6174230764291</v>
+        <v>35.5112925367535</v>
       </c>
       <c r="I43">
-        <v>9.838384236945631</v>
+        <v>18.1556099415302</v>
       </c>
       <c r="J43">
-        <v>69.7749992723483</v>
+        <v>65.8419505736934</v>
       </c>
       <c r="K43">
-        <v>46.5230107181627</v>
+        <v>50.7868154019776</v>
       </c>
       <c r="L43">
-        <v>51.4588269321692</v>
+        <v>54.0777757112036</v>
       </c>
       <c r="M43">
-        <v>80.8407974368612</v>
+        <v>101.150963341848</v>
       </c>
       <c r="N43">
-        <v>82.9091389291613</v>
+        <v>65.15772655254609</v>
       </c>
       <c r="O43">
-        <v>1868.88282934976</v>
+        <v>1859.11487985734</v>
       </c>
       <c r="P43">
-        <v>44.0335518316179</v>
+        <v>37.2060609326077</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>5497.8744559585</v>
+        <v>5439.78606223552</v>
       </c>
       <c r="C44">
-        <v>138.174368203564</v>
+        <v>118.300693663591</v>
       </c>
       <c r="D44">
-        <v>52.1200025210173</v>
+        <v>59.3629408641523</v>
       </c>
       <c r="E44">
-        <v>115.219923461221</v>
+        <v>114.93574617293</v>
       </c>
       <c r="F44">
-        <v>211.298015692362</v>
+        <v>218.7852500086</v>
       </c>
       <c r="G44">
-        <v>114.055287156095</v>
+        <v>122.524156195361</v>
       </c>
       <c r="H44">
-        <v>48.8067990086477</v>
+        <v>60.5681041435466</v>
       </c>
       <c r="I44">
-        <v>37.8976009488323</v>
+        <v>47.4797051441366</v>
       </c>
       <c r="J44">
-        <v>158.932548700558</v>
+        <v>147.753864400582</v>
       </c>
       <c r="K44">
-        <v>120.271538027647</v>
+        <v>101.440704211175</v>
       </c>
       <c r="L44">
-        <v>227.366634409783</v>
+        <v>242.227815336318</v>
       </c>
       <c r="M44">
-        <v>126.617566009215</v>
+        <v>126.683163473018</v>
       </c>
       <c r="N44">
-        <v>106.043498407156</v>
+        <v>99.0474040557819</v>
       </c>
       <c r="O44">
-        <v>6995.952771741</v>
+        <v>7094.80532903331</v>
       </c>
       <c r="P44">
-        <v>193.401932206129</v>
+        <v>201.910275446523</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>493.702696445238</v>
+        <v>492.200222252935</v>
       </c>
       <c r="C45">
-        <v>16.6522044428837</v>
+        <v>16.8997062585842</v>
       </c>
       <c r="D45">
-        <v>3.7364137817531</v>
+        <v>3.82177919982492</v>
       </c>
       <c r="E45">
-        <v>16.9561427626475</v>
+        <v>15.4124210353595</v>
       </c>
       <c r="F45">
-        <v>18.8428465407066</v>
+        <v>20.092487843143</v>
       </c>
       <c r="G45">
-        <v>6.62662771802735</v>
+        <v>9.49179588153237</v>
       </c>
       <c r="H45">
-        <v>3.41254768309029</v>
+        <v>2.78801925233129</v>
       </c>
       <c r="I45">
-        <v>8.62737936032741</v>
+        <v>5.54471244564762</v>
       </c>
       <c r="J45">
-        <v>18.7095751482215</v>
+        <v>19.6579099013382</v>
       </c>
       <c r="K45">
-        <v>15.2939113640989</v>
+        <v>6.07725544890192</v>
       </c>
       <c r="L45">
-        <v>20.224822312847</v>
+        <v>20.7754264278003</v>
       </c>
       <c r="M45">
-        <v>30.1248325376175</v>
+        <v>26.208113604809</v>
       </c>
       <c r="N45">
-        <v>17.4504354497761</v>
+        <v>27.9719731713137</v>
       </c>
       <c r="O45">
-        <v>803.483828894045</v>
+        <v>799.950794220536</v>
       </c>
       <c r="P45">
-        <v>12.6467807004119</v>
+        <v>21.5078627923426</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>138.014144787009</v>
+        <v>138.168806551153</v>
       </c>
       <c r="C46">
-        <v>4.17987549465483</v>
+        <v>4.64466969981988</v>
       </c>
       <c r="D46">
-        <v>1.3881744267284</v>
+        <v>2.19731339623192</v>
       </c>
       <c r="E46">
-        <v>6.74225274056354</v>
+        <v>7.81143404997301</v>
       </c>
       <c r="F46">
-        <v>1.50989647203372</v>
+        <v>0.853074612654747</v>
       </c>
       <c r="G46">
-        <v>0.776815404589873</v>
+        <v>1.51326439560535</v>
       </c>
       <c r="H46">
-        <v>1.21617859970584</v>
+        <v>1.4318579579839</v>
       </c>
       <c r="I46">
-        <v>1.67479682913084</v>
+        <v>2.35538824205732</v>
       </c>
       <c r="J46">
-        <v>4.56782559745289</v>
+        <v>4.98241274242224</v>
       </c>
       <c r="K46">
-        <v>4.97623531963489</v>
+        <v>4.59951537493461</v>
       </c>
       <c r="L46">
-        <v>9.791980831463</v>
+        <v>10.1840139005095</v>
       </c>
       <c r="M46">
-        <v>2.94979117571248</v>
+        <v>4.19295340431404</v>
       </c>
       <c r="N46">
-        <v>7.40661482868365</v>
+        <v>7.02518847908352</v>
       </c>
       <c r="O46">
-        <v>234.369133216757</v>
+        <v>233.809656272681</v>
       </c>
       <c r="P46">
-        <v>11.0125207566563</v>
+        <v>12.5924255717026</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1772.55732260799</v>
+        <v>1720.05125229334</v>
       </c>
       <c r="C47">
-        <v>67.562707382413</v>
+        <v>58.8646094521258</v>
       </c>
       <c r="D47">
-        <v>44.7848270042756</v>
+        <v>51.8678077408394</v>
       </c>
       <c r="E47">
-        <v>63.7706118404315</v>
+        <v>66.96847707667619</v>
       </c>
       <c r="F47">
-        <v>11.0995113849858</v>
+        <v>17.798848340913</v>
       </c>
       <c r="G47">
-        <v>21.7119257688613</v>
+        <v>29.7702053881743</v>
       </c>
       <c r="H47">
-        <v>27.4605807693532</v>
+        <v>21.4506450622768</v>
       </c>
       <c r="I47">
-        <v>13.3888512369548</v>
+        <v>14.1368843281893</v>
       </c>
       <c r="J47">
-        <v>32.1732153315328</v>
+        <v>40.7774574367436</v>
       </c>
       <c r="K47">
-        <v>26.294492784504</v>
+        <v>26.9407403587867</v>
       </c>
       <c r="L47">
-        <v>48.2965922624728</v>
+        <v>49.9530670982867</v>
       </c>
       <c r="M47">
-        <v>77.5818899472562</v>
+        <v>72.49908053188921</v>
       </c>
       <c r="N47">
-        <v>48.0861195999813</v>
+        <v>50.683754334965</v>
       </c>
       <c r="O47">
-        <v>2599.19720365344</v>
+        <v>2659.94149707312</v>
       </c>
       <c r="P47">
-        <v>43.3225924305097</v>
+        <v>40.492300445182</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1466.79654150542</v>
+        <v>1507.67555520995</v>
       </c>
       <c r="C48">
-        <v>33.667170213155</v>
+        <v>39.0900001670685</v>
       </c>
       <c r="D48">
-        <v>13.6186750845519</v>
+        <v>9.027999972532861</v>
       </c>
       <c r="E48">
-        <v>56.7295433741466</v>
+        <v>66.4038994885339</v>
       </c>
       <c r="F48">
-        <v>10.674395666433</v>
+        <v>7.9344250836397</v>
       </c>
       <c r="G48">
-        <v>20.702667403395</v>
+        <v>9.03261540663482</v>
       </c>
       <c r="H48">
-        <v>14.985805675604</v>
+        <v>9.114979680859451</v>
       </c>
       <c r="I48">
-        <v>15.5856313120549</v>
+        <v>9.38952726160823</v>
       </c>
       <c r="J48">
-        <v>37.4242917135192</v>
+        <v>35.7700456081747</v>
       </c>
       <c r="K48">
-        <v>16.4462865216041</v>
+        <v>19.8099041538011</v>
       </c>
       <c r="L48">
-        <v>34.8344605563596</v>
+        <v>44.8994993792092</v>
       </c>
       <c r="M48">
-        <v>158.771600068597</v>
+        <v>132.962560811686</v>
       </c>
       <c r="N48">
-        <v>17.2547885298895</v>
+        <v>28.6085052497709</v>
       </c>
       <c r="O48">
-        <v>2124.0632517552</v>
+        <v>2128.69538625744</v>
       </c>
       <c r="P48">
-        <v>111.575647788196</v>
+        <v>100.839605378255</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>660.3704075278</v>
+        <v>646.527657162387</v>
       </c>
       <c r="C49">
-        <v>10.1939047203271</v>
+        <v>7.65384595861698</v>
       </c>
       <c r="D49">
-        <v>5.12469007586626</v>
+        <v>4.03956885638417</v>
       </c>
       <c r="E49">
-        <v>8.48103367432301</v>
+        <v>16.2351309049967</v>
       </c>
       <c r="F49">
-        <v>31.9790345062709</v>
+        <v>28.2304053600716</v>
       </c>
       <c r="G49">
-        <v>15.4988101337927</v>
+        <v>16.7174672491738</v>
       </c>
       <c r="H49">
-        <v>9.968470308973821</v>
+        <v>6.19479346842968</v>
       </c>
       <c r="I49">
-        <v>8.378026329302671</v>
+        <v>7.71034321820085</v>
       </c>
       <c r="J49">
-        <v>18.406125008158</v>
+        <v>19.9850678063484</v>
       </c>
       <c r="K49">
-        <v>8.89069432939754</v>
+        <v>6.65392073937615</v>
       </c>
       <c r="L49">
-        <v>4.47043019615571</v>
+        <v>3.02856569567673</v>
       </c>
       <c r="M49">
-        <v>5.14528020080295</v>
+        <v>6.98559330880532</v>
       </c>
       <c r="N49">
-        <v>4.3853642620461</v>
+        <v>5.25869134431141</v>
       </c>
       <c r="O49">
-        <v>557.9889146123689</v>
+        <v>562.537095169278</v>
       </c>
       <c r="P49">
-        <v>8.987026801889691</v>
+        <v>10.0436314232433</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1166.8487522818</v>
+        <v>1208.04393448389</v>
       </c>
       <c r="C50">
-        <v>96.68782084422089</v>
+        <v>82.4145229834501</v>
       </c>
       <c r="D50">
-        <v>13.0300152912046</v>
+        <v>15.3048805517573</v>
       </c>
       <c r="E50">
-        <v>147.216880500021</v>
+        <v>137.510898794431</v>
       </c>
       <c r="F50">
-        <v>2.06815025113376</v>
+        <v>4.20492452019271</v>
       </c>
       <c r="G50">
-        <v>12.8205409809565</v>
+        <v>19.7767605089751</v>
       </c>
       <c r="H50">
-        <v>44.8174807913493</v>
+        <v>39.0147979707435</v>
       </c>
       <c r="I50">
-        <v>17.1209807889117</v>
+        <v>18.2072192446207</v>
       </c>
       <c r="J50">
-        <v>92.2434536833881</v>
+        <v>114.060878258564</v>
       </c>
       <c r="K50">
-        <v>91.9982054184246</v>
+        <v>99.7664462239233</v>
       </c>
       <c r="L50">
-        <v>81.1246123884743</v>
+        <v>64.46849859183</v>
       </c>
       <c r="M50">
-        <v>38.6464364975839</v>
+        <v>56.8010367499417</v>
       </c>
       <c r="N50">
-        <v>53.7170557635057</v>
+        <v>56.0291641158173</v>
       </c>
       <c r="O50">
-        <v>1782.76966144858</v>
+        <v>1736.77432809496</v>
       </c>
       <c r="P50">
-        <v>132.531394216704</v>
+        <v>126.645597786215</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>124.24089872544</v>
+        <v>119.914605426074</v>
       </c>
       <c r="C51">
-        <v>1.14435038062557</v>
+        <v>1.29532319045313</v>
       </c>
       <c r="D51">
-        <v>0.652771059409504</v>
+        <v>0.553643447799919</v>
       </c>
       <c r="E51">
-        <v>2.49280810011417</v>
+        <v>2.41037351986131</v>
       </c>
       <c r="F51">
-        <v>22.649862344845</v>
+        <v>21.7416008304473</v>
       </c>
       <c r="G51">
-        <v>2.65266101720093</v>
+        <v>2.74053506660959</v>
       </c>
       <c r="H51">
-        <v>0.140857755365367</v>
+        <v>0.138410861949979</v>
       </c>
       <c r="I51">
-        <v>1.34919619300345</v>
+        <v>0.885829516479869</v>
       </c>
       <c r="J51">
-        <v>0.87644258012421</v>
+        <v>1.51525397276298</v>
       </c>
       <c r="K51">
-        <v>1.29874588795464</v>
+        <v>0.60900779257991</v>
       </c>
       <c r="L51">
-        <v>0.478579324339376</v>
+        <v>0.387550413459943</v>
       </c>
       <c r="M51">
-        <v>0.8330097349325341</v>
+        <v>0.60900779257991</v>
       </c>
       <c r="N51">
-        <v>1.32363552257461</v>
+        <v>0.968876033649859</v>
       </c>
       <c r="O51">
-        <v>179.94009842276</v>
+        <v>181.063175451439</v>
       </c>
       <c r="P51">
-        <v>14.1955590052385</v>
+        <v>13.9409384456659</v>
       </c>
     </row>
     <row r="52">
@@ -3046,49 +3046,49 @@
         </is>
       </c>
       <c r="B52">
-        <v>3046.58591313892</v>
+        <v>5008.95929240548</v>
       </c>
       <c r="C52">
-        <v>180.361848421245</v>
+        <v>179.308768224693</v>
       </c>
       <c r="D52">
-        <v>87.3671469622039</v>
+        <v>86.8570356881155</v>
       </c>
       <c r="E52">
-        <v>184.639808400741</v>
+        <v>183.561750444338</v>
       </c>
       <c r="F52">
-        <v>86.80693791727001</v>
+        <v>86.30009754030471</v>
       </c>
       <c r="G52">
-        <v>59.8914397129419</v>
+        <v>59.5417510750357</v>
       </c>
       <c r="H52">
-        <v>44.2819785972815</v>
+        <v>44.023429047401</v>
       </c>
       <c r="I52">
-        <v>49.5530364291603</v>
+        <v>49.2637107108927</v>
       </c>
       <c r="J52">
-        <v>185.632906253124</v>
+        <v>184.549049888185</v>
       </c>
       <c r="K52">
-        <v>77.5438688359846</v>
+        <v>77.0911128160726</v>
       </c>
       <c r="L52">
-        <v>62.4829283500136</v>
+        <v>62.1181087662495</v>
       </c>
       <c r="M52">
-        <v>94.59893645135171</v>
+        <v>94.04660086894459</v>
       </c>
       <c r="N52">
-        <v>84.59156578503099</v>
+        <v>84.0976603194169</v>
       </c>
       <c r="O52">
-        <v>6932.98926300846</v>
+        <v>6892.50956200913</v>
       </c>
       <c r="P52">
-        <v>448.11630785219</v>
+        <v>445.499887507857</v>
       </c>
     </row>
     <row r="53">
@@ -3098,49 +3098,49 @@
         </is>
       </c>
       <c r="B53">
-        <v>1500.18205342649</v>
+        <v>2571.23282906503</v>
       </c>
       <c r="C53">
-        <v>85.2640536304873</v>
+        <v>85.4389283733619</v>
       </c>
       <c r="D53">
-        <v>43.2090397376479</v>
+        <v>43.2976605501972</v>
       </c>
       <c r="E53">
-        <v>94.0105148883721</v>
+        <v>94.2033284354486</v>
       </c>
       <c r="F53">
-        <v>10.1550218013285</v>
+        <v>10.1758495329549</v>
       </c>
       <c r="G53">
-        <v>27.9085635105214</v>
+        <v>27.9658033749202</v>
       </c>
       <c r="H53">
-        <v>28.8972939135866</v>
+        <v>28.9565616428083</v>
       </c>
       <c r="I53">
-        <v>37.769501397092</v>
+        <v>37.8469658333238</v>
       </c>
       <c r="J53">
-        <v>104.480916336217</v>
+        <v>104.695204451802</v>
       </c>
       <c r="K53">
-        <v>82.17820069045909</v>
+        <v>82.3467464152252</v>
       </c>
       <c r="L53">
-        <v>81.17932946274701</v>
+        <v>81.3458265240767</v>
       </c>
       <c r="M53">
-        <v>39.1283718997663</v>
+        <v>39.2086233502161</v>
       </c>
       <c r="N53">
-        <v>55.1924522227985</v>
+        <v>55.3056507570005</v>
       </c>
       <c r="O53">
-        <v>2626.11257016971</v>
+        <v>2631.49867065303</v>
       </c>
       <c r="P53">
-        <v>321.034170339262</v>
+        <v>321.692604528133</v>
       </c>
     </row>
     <row r="54">
@@ -3150,49 +3150,49 @@
         </is>
       </c>
       <c r="B54">
-        <v>1978.12010287337</v>
+        <v>3407.18353279707</v>
       </c>
       <c r="C54">
-        <v>100.946642285394</v>
+        <v>100.269792564067</v>
       </c>
       <c r="D54">
-        <v>60.3872585651422</v>
+        <v>59.9823605100292</v>
       </c>
       <c r="E54">
-        <v>67.52749898897029</v>
+        <v>67.0747254460584</v>
       </c>
       <c r="F54">
-        <v>9.38452019668294</v>
+        <v>9.321596757764</v>
       </c>
       <c r="G54">
-        <v>72.47451241002661</v>
+        <v>71.9885690203557</v>
       </c>
       <c r="H54">
-        <v>25.8378069390775</v>
+        <v>25.6645638075528</v>
       </c>
       <c r="I54">
-        <v>35.3315800637384</v>
+        <v>35.0946809497234</v>
       </c>
       <c r="J54">
-        <v>106.798310792324</v>
+        <v>106.082225489618</v>
       </c>
       <c r="K54">
-        <v>43.3703492410297</v>
+        <v>43.0795499818065</v>
       </c>
       <c r="L54">
-        <v>56.2407525789895</v>
+        <v>55.86365694858</v>
       </c>
       <c r="M54">
-        <v>62.2976532216534</v>
+        <v>61.879945923344</v>
       </c>
       <c r="N54">
-        <v>32.6686675762018</v>
+        <v>32.4496233559634</v>
       </c>
       <c r="O54">
-        <v>2928.11222806591</v>
+        <v>2908.47916350118</v>
       </c>
       <c r="P54">
-        <v>92.3912190748615</v>
+        <v>91.7717336767526</v>
       </c>
     </row>
     <row r="55">
@@ -3202,49 +3202,49 @@
         </is>
       </c>
       <c r="B55">
-        <v>1893.52214829409</v>
+        <v>2878.99552765587</v>
       </c>
       <c r="C55">
-        <v>120.268733026004</v>
+        <v>122.969231209887</v>
       </c>
       <c r="D55">
-        <v>176.675357406064</v>
+        <v>180.642402454328</v>
       </c>
       <c r="E55">
-        <v>47.0872690477016</v>
+        <v>48.1445603431857</v>
       </c>
       <c r="F55">
-        <v>50.3912224405997</v>
+        <v>51.5227002674678</v>
       </c>
       <c r="G55">
-        <v>33.7458761508528</v>
+        <v>34.5036015792831</v>
       </c>
       <c r="H55">
-        <v>17.8539228472535</v>
+        <v>18.2548124634579</v>
       </c>
       <c r="I55">
-        <v>26.2903918849667</v>
+        <v>26.8807128582787</v>
       </c>
       <c r="J55">
-        <v>60.2324649901849</v>
+        <v>61.584916772325</v>
       </c>
       <c r="K55">
-        <v>79.263569563631</v>
+        <v>81.0433432443626</v>
       </c>
       <c r="L55">
-        <v>35.4135502629589</v>
+        <v>36.2087214247709</v>
       </c>
       <c r="M55">
-        <v>13.3413928968488</v>
+        <v>13.6409587639026</v>
       </c>
       <c r="N55">
-        <v>26.878982748063</v>
+        <v>27.4825198625685</v>
       </c>
       <c r="O55">
-        <v>1450.27076225207</v>
+        <v>1482.83494964359</v>
       </c>
       <c r="P55">
-        <v>792.9865044827971</v>
+        <v>810.792118305435</v>
       </c>
     </row>
     <row r="56">
@@ -3254,49 +3254,49 @@
         </is>
       </c>
       <c r="B56">
-        <v>30382.2437062893</v>
+        <v>42137.9627089033</v>
       </c>
       <c r="C56">
-        <v>1672.2631790161</v>
+        <v>1666.00203090533</v>
       </c>
       <c r="D56">
-        <v>2803.80665247738</v>
+        <v>2793.30887381108</v>
       </c>
       <c r="E56">
-        <v>950.336278854815</v>
+        <v>946.778109141094</v>
       </c>
       <c r="F56">
-        <v>299.091350405614</v>
+        <v>297.971517554519</v>
       </c>
       <c r="G56">
-        <v>434.853558546936</v>
+        <v>433.225416176332</v>
       </c>
       <c r="H56">
-        <v>291.299707184166</v>
+        <v>290.209047152785</v>
       </c>
       <c r="I56">
-        <v>478.743448987667</v>
+        <v>476.950977755396</v>
       </c>
       <c r="J56">
-        <v>732.3982872625739</v>
+        <v>729.656102772617</v>
       </c>
       <c r="K56">
-        <v>371.420000110295</v>
+        <v>370.029360370586</v>
       </c>
       <c r="L56">
-        <v>346.869583611026</v>
+        <v>345.570863490078</v>
       </c>
       <c r="M56">
-        <v>330.868515431661</v>
+        <v>329.629705173621</v>
       </c>
       <c r="N56">
-        <v>743.209357894561</v>
+        <v>740.426695496993</v>
       </c>
       <c r="O56">
-        <v>46150.8703099578</v>
+        <v>45978.0760763244</v>
       </c>
       <c r="P56">
-        <v>19132.3037702594</v>
+        <v>19060.6701966037</v>
       </c>
     </row>
     <row r="57">
@@ -3306,49 +3306,49 @@
         </is>
       </c>
       <c r="B57">
-        <v>4164.9111467659</v>
+        <v>7116.95180517498</v>
       </c>
       <c r="C57">
-        <v>275.728951210799</v>
+        <v>274.884076810498</v>
       </c>
       <c r="D57">
-        <v>151.99222006548</v>
+        <v>151.526493360996</v>
       </c>
       <c r="E57">
-        <v>435.959370857198</v>
+        <v>434.623526687077</v>
       </c>
       <c r="F57">
-        <v>155.036771959352</v>
+        <v>154.561716296323</v>
       </c>
       <c r="G57">
-        <v>94.3145905716018</v>
+        <v>94.0255966781464</v>
       </c>
       <c r="H57">
-        <v>111.655744484675</v>
+        <v>111.313614723736</v>
       </c>
       <c r="I57">
-        <v>53.8655433631753</v>
+        <v>53.7004913494277</v>
       </c>
       <c r="J57">
-        <v>260.398736905505</v>
+        <v>259.600836555484</v>
       </c>
       <c r="K57">
-        <v>141.159755434432</v>
+        <v>140.727221008158</v>
       </c>
       <c r="L57">
-        <v>134.042155826589</v>
+        <v>133.631430781135</v>
       </c>
       <c r="M57">
-        <v>248.409854101939</v>
+        <v>247.648689466918</v>
       </c>
       <c r="N57">
-        <v>160.128081586141</v>
+        <v>159.637425395316</v>
       </c>
       <c r="O57">
-        <v>10564.037507141</v>
+        <v>10531.6677294502</v>
       </c>
       <c r="P57">
-        <v>511.96571472338</v>
+        <v>510.396975843033</v>
       </c>
     </row>
     <row r="58">
@@ -3358,49 +3358,49 @@
         </is>
       </c>
       <c r="B58">
-        <v>151187.289604056</v>
+        <v>202710.757174253</v>
       </c>
       <c r="C58">
-        <v>13700.2234349548</v>
+        <v>13769.2822250877</v>
       </c>
       <c r="D58">
-        <v>19853.4169631025</v>
+        <v>19953.4921890276</v>
       </c>
       <c r="E58">
-        <v>11208.3556035562</v>
+        <v>11264.8536220766</v>
       </c>
       <c r="F58">
-        <v>10711.5077239021</v>
+        <v>10765.5012786367</v>
       </c>
       <c r="G58">
-        <v>6715.3890263592</v>
+        <v>6749.23932403019</v>
       </c>
       <c r="H58">
-        <v>7577.94855524766</v>
+        <v>7616.14676138638</v>
       </c>
       <c r="I58">
-        <v>9386.14214188782</v>
+        <v>9433.454919187539</v>
       </c>
       <c r="J58">
-        <v>8583.216719767221</v>
+        <v>8626.4821865627</v>
       </c>
       <c r="K58">
-        <v>7242.27213688328</v>
+        <v>7278.77829709016</v>
       </c>
       <c r="L58">
-        <v>8032.8171533463</v>
+        <v>8073.30821807987</v>
       </c>
       <c r="M58">
-        <v>4173.59800084981</v>
+        <v>4194.63587879452</v>
       </c>
       <c r="N58">
-        <v>10827.3990518204</v>
+        <v>10881.9767805965</v>
       </c>
       <c r="O58">
-        <v>225885.992712327</v>
+        <v>227024.61745365</v>
       </c>
       <c r="P58">
-        <v>361305.558418205</v>
+        <v>363126.793294492</v>
       </c>
     </row>
     <row r="59">
@@ -3410,49 +3410,49 @@
         </is>
       </c>
       <c r="B59">
-        <v>127.415670372384</v>
+        <v>183.08204631298</v>
       </c>
       <c r="C59">
-        <v>10.397801734368</v>
+        <v>10.3430945106153</v>
       </c>
       <c r="D59">
-        <v>6.6091235567245</v>
+        <v>6.57435016803487</v>
       </c>
       <c r="E59">
-        <v>5.88297370424146</v>
+        <v>5.85202089642774</v>
       </c>
       <c r="F59">
-        <v>0.728225968323271</v>
+        <v>0.72439446412562</v>
       </c>
       <c r="G59">
-        <v>1.32273357537694</v>
+        <v>1.31577411572172</v>
       </c>
       <c r="H59">
-        <v>1.48364366114849</v>
+        <v>1.47583758561318</v>
       </c>
       <c r="I59">
-        <v>2.46137469311446</v>
+        <v>2.4484243619276</v>
       </c>
       <c r="J59">
-        <v>3.97002632164447</v>
+        <v>3.94913833745023</v>
       </c>
       <c r="K59">
-        <v>1.29457921468701</v>
+        <v>1.2877678870071</v>
       </c>
       <c r="L59">
-        <v>0.680612242210893</v>
+        <v>0.677031253923688</v>
       </c>
       <c r="M59">
-        <v>0.540337868676892</v>
+        <v>0.53749492307753</v>
       </c>
       <c r="N59">
-        <v>4.11690019264888</v>
+        <v>4.09523944302502</v>
       </c>
       <c r="O59">
-        <v>223.327331652863</v>
+        <v>222.152312296373</v>
       </c>
       <c r="P59">
-        <v>19.0843356139719</v>
+        <v>18.9839248689628</v>
       </c>
     </row>
     <row r="60">
@@ -3462,49 +3462,49 @@
         </is>
       </c>
       <c r="B60">
-        <v>1821.13520242502</v>
+        <v>3002.65130883031</v>
       </c>
       <c r="C60">
-        <v>156.486444484447</v>
+        <v>157.683577682758</v>
       </c>
       <c r="D60">
-        <v>158.362754380051</v>
+        <v>159.574241491722</v>
       </c>
       <c r="E60">
-        <v>124.935049047621</v>
+        <v>125.890811671918</v>
       </c>
       <c r="F60">
-        <v>74.4956006126998</v>
+        <v>75.0654976214492</v>
       </c>
       <c r="G60">
-        <v>46.019074242935</v>
+        <v>46.3711236598236</v>
       </c>
       <c r="H60">
-        <v>53.363373019172</v>
+        <v>53.7716068801017</v>
       </c>
       <c r="I60">
-        <v>86.0283588788554</v>
+        <v>86.6864823652015</v>
       </c>
       <c r="J60">
-        <v>241.257265883991</v>
+        <v>243.102902311317</v>
       </c>
       <c r="K60">
-        <v>161.014778968775</v>
+        <v>162.246554270189</v>
       </c>
       <c r="L60">
-        <v>158.544687465293</v>
+        <v>159.757566378899</v>
       </c>
       <c r="M60">
-        <v>91.9541793696044</v>
+        <v>92.6576358332577</v>
       </c>
       <c r="N60">
-        <v>88.7743489072103</v>
+        <v>89.4534794260568</v>
       </c>
       <c r="O60">
-        <v>2883.66739079576</v>
+        <v>2905.72766558684</v>
       </c>
       <c r="P60">
-        <v>256.406693943589</v>
+        <v>258.368224647415</v>
       </c>
     </row>
     <row r="61">
@@ -3514,49 +3514,49 @@
         </is>
       </c>
       <c r="B61">
-        <v>14603.4787971994</v>
+        <v>25836.4308605062</v>
       </c>
       <c r="C61">
-        <v>958.9972160672691</v>
+        <v>963.291698657326</v>
       </c>
       <c r="D61">
-        <v>295.469291517527</v>
+        <v>296.792431675871</v>
       </c>
       <c r="E61">
-        <v>897.6541105619</v>
+        <v>901.673892773062</v>
       </c>
       <c r="F61">
-        <v>161.536844497472</v>
+        <v>162.260222161895</v>
       </c>
       <c r="G61">
-        <v>523.461166979149</v>
+        <v>525.805276879052</v>
       </c>
       <c r="H61">
-        <v>417.133117436509</v>
+        <v>419.001080012995</v>
       </c>
       <c r="I61">
-        <v>321.028918811431</v>
+        <v>322.466517460981</v>
       </c>
       <c r="J61">
-        <v>1185.96670643713</v>
+        <v>1191.2775804291</v>
       </c>
       <c r="K61">
-        <v>1135.86983694108</v>
+        <v>1140.95637229029</v>
       </c>
       <c r="L61">
-        <v>1095.99681836259</v>
+        <v>1100.90479846552</v>
       </c>
       <c r="M61">
-        <v>1006.02693028805</v>
+        <v>1010.53201650193</v>
       </c>
       <c r="N61">
-        <v>356.812397022896</v>
+        <v>358.410237560135</v>
       </c>
       <c r="O61">
-        <v>26666.8703482757</v>
+        <v>26786.2871813209</v>
       </c>
       <c r="P61">
-        <v>967.176296801318</v>
+        <v>971.507406108561</v>
       </c>
     </row>
     <row r="62">
@@ -3566,49 +3566,49 @@
         </is>
       </c>
       <c r="B62">
-        <v>634.863630347425</v>
+        <v>1302.2602103456</v>
       </c>
       <c r="C62">
-        <v>78.4311505484074</v>
+        <v>78.93201020803789</v>
       </c>
       <c r="D62">
-        <v>15.3971482222294</v>
+        <v>15.4954740833693</v>
       </c>
       <c r="E62">
-        <v>69.48477367484659</v>
+        <v>69.9285019619995</v>
       </c>
       <c r="F62">
-        <v>3.7560429852166</v>
+        <v>3.78002899585113</v>
       </c>
       <c r="G62">
-        <v>26.4044970136742</v>
+        <v>26.5731155701343</v>
       </c>
       <c r="H62">
-        <v>21.8549950017097</v>
+        <v>21.9945605350628</v>
       </c>
       <c r="I62">
-        <v>21.2919928642593</v>
+        <v>21.4279630779344</v>
       </c>
       <c r="J62">
-        <v>53.9683539046474</v>
+        <v>54.3129946650914</v>
       </c>
       <c r="K62">
-        <v>68.4871379303878</v>
+        <v>68.9244953368905</v>
       </c>
       <c r="L62">
-        <v>47.457946781994</v>
+        <v>47.761012220991</v>
       </c>
       <c r="M62">
-        <v>18.4688959703654</v>
+        <v>18.5868379473068</v>
       </c>
       <c r="N62">
-        <v>32.7167920735982</v>
+        <v>32.9257208120854</v>
       </c>
       <c r="O62">
-        <v>1977.53136232078</v>
+        <v>1990.15983555004</v>
       </c>
       <c r="P62">
-        <v>98.0129107078803</v>
+        <v>98.6388190714996</v>
       </c>
     </row>
     <row r="63">
@@ -3618,49 +3618,49 @@
         </is>
       </c>
       <c r="B63">
-        <v>7530.15116433989</v>
+        <v>13776.3165569763</v>
       </c>
       <c r="C63">
-        <v>444.256164137899</v>
+        <v>434.923752862549</v>
       </c>
       <c r="D63">
-        <v>379.695141885508</v>
+        <v>371.718952674483</v>
       </c>
       <c r="E63">
-        <v>329.992459707826</v>
+        <v>323.060366018741</v>
       </c>
       <c r="F63">
-        <v>54.5359534476884</v>
+        <v>53.390326244395</v>
       </c>
       <c r="G63">
-        <v>160.975162704854</v>
+        <v>157.593585712235</v>
       </c>
       <c r="H63">
-        <v>115.096410717533</v>
+        <v>112.678600616424</v>
       </c>
       <c r="I63">
-        <v>197.975919817311</v>
+        <v>193.817074413475</v>
       </c>
       <c r="J63">
-        <v>427.485333340828</v>
+        <v>418.505223964837</v>
       </c>
       <c r="K63">
-        <v>197.189475016656</v>
+        <v>193.04715032073</v>
       </c>
       <c r="L63">
-        <v>194.708178503517</v>
+        <v>190.617977967988</v>
       </c>
       <c r="M63">
-        <v>300.657436847092</v>
+        <v>294.341578835095</v>
       </c>
       <c r="N63">
-        <v>248.455584330504</v>
+        <v>243.236321473163</v>
       </c>
       <c r="O63">
-        <v>10915.3074730476</v>
+        <v>10686.0115245422</v>
       </c>
       <c r="P63">
-        <v>1114.26930649521</v>
+        <v>1090.86204672226</v>
       </c>
     </row>
     <row r="64">
@@ -3670,49 +3670,49 @@
         </is>
       </c>
       <c r="B64">
-        <v>212.527333279725</v>
+        <v>361.885580354271</v>
       </c>
       <c r="C64">
-        <v>22.2175757575758</v>
+        <v>22.3041864729005</v>
       </c>
       <c r="D64">
-        <v>24.4988446969697</v>
+        <v>24.5943484768143</v>
       </c>
       <c r="E64">
-        <v>22.8126893939394</v>
+        <v>22.9016200391389</v>
       </c>
       <c r="F64">
-        <v>8.97332178030303</v>
+        <v>9.008302456264749</v>
       </c>
       <c r="G64">
-        <v>3.12732215909091</v>
+        <v>3.13951339058282</v>
       </c>
       <c r="H64">
-        <v>3.273125</v>
+        <v>3.28588461431123</v>
       </c>
       <c r="I64">
-        <v>4.76090909090909</v>
+        <v>4.77946852990724</v>
       </c>
       <c r="J64">
-        <v>8.1332196969697</v>
+        <v>8.164925405258201</v>
       </c>
       <c r="K64">
-        <v>4.06660984848485</v>
+        <v>4.0824627026291</v>
       </c>
       <c r="L64">
-        <v>8.33159090909091</v>
+        <v>8.36406992733767</v>
       </c>
       <c r="M64">
-        <v>6.74462121212121</v>
+        <v>6.77091375070193</v>
       </c>
       <c r="N64">
-        <v>12.6957575757576</v>
+        <v>12.745249413086</v>
       </c>
       <c r="O64">
-        <v>347.447178030303</v>
+        <v>348.801630422189</v>
       </c>
       <c r="P64">
-        <v>46.6172348484849</v>
+        <v>46.7989626886751</v>
       </c>
     </row>
     <row r="65">
@@ -3722,49 +3722,49 @@
         </is>
       </c>
       <c r="B65">
-        <v>708.7869691964989</v>
+        <v>1355.50007802355</v>
       </c>
       <c r="C65">
-        <v>45.1540337801868</v>
+        <v>44.9912651306493</v>
       </c>
       <c r="D65">
-        <v>21.3511155204956</v>
+        <v>21.2741502540853</v>
       </c>
       <c r="E65">
-        <v>106.449102260078</v>
+        <v>106.065380692617</v>
       </c>
       <c r="F65">
-        <v>9.19426027198374</v>
+        <v>9.16111733429512</v>
       </c>
       <c r="G65">
-        <v>19.1036296762329</v>
+        <v>19.0347660168132</v>
       </c>
       <c r="H65">
-        <v>18.286362096501</v>
+        <v>18.220444475987</v>
       </c>
       <c r="I65">
-        <v>16.2431931471713</v>
+        <v>16.1846406239214</v>
       </c>
       <c r="J65">
-        <v>57.7195228185646</v>
+        <v>57.5114588208527</v>
       </c>
       <c r="K65">
-        <v>61.2950684798916</v>
+        <v>61.0741155619674</v>
       </c>
       <c r="L65">
-        <v>68.7526351449451</v>
+        <v>68.5047996220068</v>
       </c>
       <c r="M65">
-        <v>23.7007598122247</v>
+        <v>23.6153246839607</v>
       </c>
       <c r="N65">
-        <v>19.2057881236994</v>
+        <v>19.1365562094165</v>
       </c>
       <c r="O65">
-        <v>1502.23996999468</v>
+        <v>1496.82478223122</v>
       </c>
       <c r="P65">
-        <v>142.204558873348</v>
+        <v>141.691948103764</v>
       </c>
     </row>
     <row r="66">
@@ -3774,49 +3774,49 @@
         </is>
       </c>
       <c r="B66">
-        <v>10276.9178731681</v>
+        <v>17548.1475739789</v>
       </c>
       <c r="C66">
-        <v>578.407509834869</v>
+        <v>579.034071369271</v>
       </c>
       <c r="D66">
-        <v>286.890947209724</v>
+        <v>287.201722621581</v>
       </c>
       <c r="E66">
-        <v>407.259739464324</v>
+        <v>407.700904703226</v>
       </c>
       <c r="F66">
-        <v>65.9921132599939</v>
+        <v>66.0635993991598</v>
       </c>
       <c r="G66">
-        <v>152.336934347836</v>
+        <v>152.501953753201</v>
       </c>
       <c r="H66">
-        <v>204.657784268922</v>
+        <v>204.879480379637</v>
       </c>
       <c r="I66">
-        <v>147.916901839768</v>
+        <v>148.077133232696</v>
       </c>
       <c r="J66">
-        <v>599.1713834774211</v>
+        <v>599.820437535362</v>
       </c>
       <c r="K66">
-        <v>348.051862146946</v>
+        <v>348.428890289027</v>
       </c>
       <c r="L66">
-        <v>436.246929400956</v>
+        <v>436.719495093511</v>
       </c>
       <c r="M66">
-        <v>336.744802242586</v>
+        <v>337.109581980759</v>
       </c>
       <c r="N66">
-        <v>195.817719252786</v>
+        <v>196.029839338628</v>
       </c>
       <c r="O66">
-        <v>17049.6072554239</v>
+        <v>17068.0762896278</v>
       </c>
       <c r="P66">
-        <v>1008.89811782997</v>
+        <v>1009.99100950585</v>
       </c>
     </row>
     <row r="67">
@@ -3826,49 +3826,49 @@
         </is>
       </c>
       <c r="B67">
-        <v>8445.97005953695</v>
+        <v>17280.3486826295</v>
       </c>
       <c r="C67">
-        <v>515.857570687086</v>
+        <v>514.262319484431</v>
       </c>
       <c r="D67">
-        <v>235.959683438195</v>
+        <v>235.22999565193</v>
       </c>
       <c r="E67">
-        <v>603.990177747606</v>
+        <v>602.122383006975</v>
       </c>
       <c r="F67">
-        <v>160.104629220413</v>
+        <v>159.609517552333</v>
       </c>
       <c r="G67">
-        <v>385.195856731082</v>
+        <v>384.00466716903</v>
       </c>
       <c r="H67">
-        <v>230.195196057783</v>
+        <v>229.483334520368</v>
       </c>
       <c r="I67">
-        <v>144.15488441682</v>
+        <v>143.709096149279</v>
       </c>
       <c r="J67">
-        <v>558.0023784238761</v>
+        <v>556.276797535182</v>
       </c>
       <c r="K67">
-        <v>385.580155889776</v>
+        <v>384.387777911134</v>
       </c>
       <c r="L67">
-        <v>558.472077395613</v>
+        <v>556.745043997754</v>
       </c>
       <c r="M67">
-        <v>513.765275267529</v>
+        <v>512.176494332975</v>
       </c>
       <c r="N67">
-        <v>175.667415429739</v>
+        <v>175.124177001817</v>
       </c>
       <c r="O67">
-        <v>22403.1827485922</v>
+        <v>22333.90257078</v>
       </c>
       <c r="P67">
-        <v>528.700321971335</v>
+        <v>527.06535551471</v>
       </c>
     </row>
     <row r="68">
@@ -3878,49 +3878,49 @@
         </is>
       </c>
       <c r="B68">
-        <v>2185.40217312109</v>
+        <v>3369.2157953599</v>
       </c>
       <c r="C68">
-        <v>106.481441849653</v>
+        <v>106.521345875532</v>
       </c>
       <c r="D68">
-        <v>109.280412215034</v>
+        <v>109.321365157831</v>
       </c>
       <c r="E68">
-        <v>64.81574379753739</v>
+        <v>64.84003356177171</v>
       </c>
       <c r="F68">
-        <v>17.3079797958926</v>
+        <v>17.314465978477</v>
       </c>
       <c r="G68">
-        <v>23.0733206766661</v>
+        <v>23.0819674264602</v>
       </c>
       <c r="H68">
-        <v>14.4342772206851</v>
+        <v>14.439686480381</v>
       </c>
       <c r="I68">
-        <v>32.3132110996547</v>
+        <v>32.3253205075436</v>
       </c>
       <c r="J68">
-        <v>44.1129288165782</v>
+        <v>44.1294601803775</v>
       </c>
       <c r="K68">
-        <v>23.38520309901</v>
+        <v>23.3939667270511</v>
       </c>
       <c r="L68">
-        <v>14.6644524269518</v>
+        <v>14.6699479450343</v>
       </c>
       <c r="M68">
-        <v>20.6818899622077</v>
+        <v>20.6896405209712</v>
       </c>
       <c r="N68">
-        <v>43.1254672173998</v>
+        <v>43.141628528986</v>
       </c>
       <c r="O68">
-        <v>2592.20328009075</v>
+        <v>2593.17471083939</v>
       </c>
       <c r="P68">
-        <v>751.984391731978</v>
+        <v>752.266198628156</v>
       </c>
     </row>
     <row r="69">
@@ -3930,49 +3930,49 @@
         </is>
       </c>
       <c r="B69">
-        <v>2589.28750905016</v>
+        <v>4040.36302229414</v>
       </c>
       <c r="C69">
-        <v>167.676350183449</v>
+        <v>166.85490490155</v>
       </c>
       <c r="D69">
-        <v>180.667859431443</v>
+        <v>179.782768835432</v>
       </c>
       <c r="E69">
-        <v>89.32017069192651</v>
+        <v>88.8825917923793</v>
       </c>
       <c r="F69">
-        <v>29.8111994250028</v>
+        <v>29.6651545648383</v>
       </c>
       <c r="G69">
-        <v>62.838881027401</v>
+        <v>62.5310337830917</v>
       </c>
       <c r="H69">
-        <v>40.1320967391829</v>
+        <v>39.9354898743323</v>
       </c>
       <c r="I69">
-        <v>32.8636167054403</v>
+        <v>32.702618074093</v>
       </c>
       <c r="J69">
-        <v>102.88691982555</v>
+        <v>102.382877515663</v>
       </c>
       <c r="K69">
-        <v>85.396791612824</v>
+        <v>84.9784333202981</v>
       </c>
       <c r="L69">
-        <v>131.754239719907</v>
+        <v>131.108776609159</v>
       </c>
       <c r="M69">
-        <v>55.7699120103294</v>
+        <v>55.4966955964301</v>
       </c>
       <c r="N69">
-        <v>41.1033204193221</v>
+        <v>40.901955536368</v>
       </c>
       <c r="O69">
-        <v>2266.95557350566</v>
+        <v>2255.84977380227</v>
       </c>
       <c r="P69">
-        <v>575.016068702564</v>
+        <v>572.19906895194</v>
       </c>
     </row>
     <row r="70">
@@ -3982,49 +3982,49 @@
         </is>
       </c>
       <c r="B70">
-        <v>37353.5818570992</v>
+        <v>41763.5755586589</v>
       </c>
       <c r="C70">
-        <v>3220.32558960699</v>
+        <v>3201.16831459607</v>
       </c>
       <c r="D70">
-        <v>2445.5651837678</v>
+        <v>2431.01685209172</v>
       </c>
       <c r="E70">
-        <v>2755.1277134232</v>
+        <v>2738.73783673912</v>
       </c>
       <c r="F70">
-        <v>909.550442768569</v>
+        <v>904.139652001121</v>
       </c>
       <c r="G70">
-        <v>283.837278253758</v>
+        <v>282.148769236096</v>
       </c>
       <c r="H70">
-        <v>906.223794002109</v>
+        <v>900.83279301166</v>
       </c>
       <c r="I70">
-        <v>701.601301874255</v>
+        <v>697.4275720093621</v>
       </c>
       <c r="J70">
-        <v>364.655404928141</v>
+        <v>362.486119965474</v>
       </c>
       <c r="K70">
-        <v>120.82016994869</v>
+        <v>120.101427337681</v>
       </c>
       <c r="L70">
-        <v>137.999133710634</v>
+        <v>137.178195801655</v>
       </c>
       <c r="M70">
-        <v>481.501462368598</v>
+        <v>478.63707624487</v>
       </c>
       <c r="N70">
-        <v>572.40012910118</v>
+        <v>568.994999282982</v>
       </c>
       <c r="O70">
-        <v>32347.5641279074</v>
+        <v>32155.1329079303</v>
       </c>
       <c r="P70">
-        <v>39438.6672683386</v>
+        <v>39204.0520488832</v>
       </c>
     </row>
     <row r="71">
@@ -4034,49 +4034,49 @@
         </is>
       </c>
       <c r="B71">
-        <v>251786.763574201</v>
+        <v>288545.813475158</v>
       </c>
       <c r="C71">
-        <v>11676.576315534</v>
+        <v>11702.9566211677</v>
       </c>
       <c r="D71">
-        <v>9172.57476684436</v>
+        <v>9193.29790685208</v>
       </c>
       <c r="E71">
-        <v>6564.94256275585</v>
+        <v>6579.77440957408</v>
       </c>
       <c r="F71">
-        <v>2595.27755722131</v>
+        <v>2601.14093817424</v>
       </c>
       <c r="G71">
-        <v>2078.57876238984</v>
+        <v>2083.2747915643</v>
       </c>
       <c r="H71">
-        <v>1132.96735314693</v>
+        <v>1135.52700969706</v>
       </c>
       <c r="I71">
-        <v>3839.03987536895</v>
+        <v>3847.71322640229</v>
       </c>
       <c r="J71">
-        <v>3950.36490049527</v>
+        <v>3959.28976259729</v>
       </c>
       <c r="K71">
-        <v>1405.68016560384</v>
+        <v>1408.85594858936</v>
       </c>
       <c r="L71">
-        <v>1441.63739925119</v>
+        <v>1444.89441861865</v>
       </c>
       <c r="M71">
-        <v>695.21312101527</v>
+        <v>696.783781294222</v>
       </c>
       <c r="N71">
-        <v>3667.27683167233</v>
+        <v>3675.56212704049</v>
       </c>
       <c r="O71">
-        <v>92528.2098711017</v>
+        <v>92737.254233951</v>
       </c>
       <c r="P71">
-        <v>251477.638666647</v>
+        <v>252045.789534573</v>
       </c>
     </row>
     <row r="72">
@@ -4086,49 +4086,49 @@
         </is>
       </c>
       <c r="B72">
-        <v>639.229943901315</v>
+        <v>985.011215802262</v>
       </c>
       <c r="C72">
-        <v>56.1838376461697</v>
+        <v>55.3751805822464</v>
       </c>
       <c r="D72">
-        <v>15.9872708749263</v>
+        <v>15.7571652063303</v>
       </c>
       <c r="E72">
-        <v>37.553324017807</v>
+        <v>37.012816960741</v>
       </c>
       <c r="F72">
-        <v>15.72673494811</v>
+        <v>15.5003791874315</v>
       </c>
       <c r="G72">
-        <v>26.8064416695111</v>
+        <v>26.4206150808894</v>
       </c>
       <c r="H72">
-        <v>12.4241838339287</v>
+        <v>12.2453618729928</v>
       </c>
       <c r="I72">
-        <v>13.7788064578657</v>
+        <v>13.5804873390338</v>
       </c>
       <c r="J72">
-        <v>21.6048165126298</v>
+        <v>21.2938572008481</v>
       </c>
       <c r="K72">
-        <v>18.8337594048854</v>
+        <v>18.5626840703931</v>
       </c>
       <c r="L72">
-        <v>74.7043471171361</v>
+        <v>73.62912334224021</v>
       </c>
       <c r="M72">
-        <v>11.426812806869</v>
+        <v>11.2623460619557</v>
       </c>
       <c r="N72">
-        <v>7.30289731746209</v>
+        <v>7.19778631489826</v>
       </c>
       <c r="O72">
-        <v>1146.09560020076</v>
+        <v>1129.59978322096</v>
       </c>
       <c r="P72">
-        <v>146.803167191943</v>
+        <v>144.690221136109</v>
       </c>
     </row>
     <row r="73">
@@ -4138,49 +4138,49 @@
         </is>
       </c>
       <c r="B73">
-        <v>14045.5930401205</v>
+        <v>23352.070823285</v>
       </c>
       <c r="C73">
-        <v>489.923270229519</v>
+        <v>490.128607415579</v>
       </c>
       <c r="D73">
-        <v>910.746945887083</v>
+        <v>911.1286591602531</v>
       </c>
       <c r="E73">
-        <v>476.246245602278</v>
+        <v>476.445850458561</v>
       </c>
       <c r="F73">
-        <v>70.8347394873513</v>
+        <v>70.86442782216921</v>
       </c>
       <c r="G73">
-        <v>220.669606299213</v>
+        <v>220.7620935901</v>
       </c>
       <c r="H73">
-        <v>223.833694086112</v>
+        <v>223.927507512993</v>
       </c>
       <c r="I73">
-        <v>259.046929133858</v>
+        <v>259.155501170988</v>
       </c>
       <c r="J73">
-        <v>843.8928329703469</v>
+        <v>844.246526273335</v>
       </c>
       <c r="K73">
-        <v>590.663742670464</v>
+        <v>590.911302315408</v>
       </c>
       <c r="L73">
-        <v>458.0782576646</v>
+        <v>458.270247933567</v>
       </c>
       <c r="M73">
-        <v>299.771800971687</v>
+        <v>299.897441662408</v>
       </c>
       <c r="N73">
-        <v>336.924315630759</v>
+        <v>337.065527724755</v>
       </c>
       <c r="O73">
-        <v>15006.5539018261</v>
+        <v>15012.8434653923</v>
       </c>
       <c r="P73">
-        <v>1136.21371754063</v>
+        <v>1136.68992869796</v>
       </c>
     </row>
     <row r="74">
@@ -4190,49 +4190,49 @@
         </is>
       </c>
       <c r="B74">
-        <v>23414.50526073</v>
+        <v>36371.6901466763</v>
       </c>
       <c r="C74">
-        <v>1484.7578573018</v>
+        <v>1495.66994008806</v>
       </c>
       <c r="D74">
-        <v>1082.2850377937</v>
+        <v>1090.2391859214</v>
       </c>
       <c r="E74">
-        <v>1480.62286817845</v>
+        <v>1491.50456126621</v>
       </c>
       <c r="F74">
-        <v>105.077066474289</v>
+        <v>105.849320106533</v>
       </c>
       <c r="G74">
-        <v>478.051660216111</v>
+        <v>481.565054179131</v>
       </c>
       <c r="H74">
-        <v>729.267686827281</v>
+        <v>734.627368429821</v>
       </c>
       <c r="I74">
-        <v>454.553886735801</v>
+        <v>457.894586108757</v>
       </c>
       <c r="J74">
-        <v>1979.93444797724</v>
+        <v>1994.48578272954</v>
       </c>
       <c r="K74">
-        <v>1243.17536460127</v>
+        <v>1252.31196046413</v>
       </c>
       <c r="L74">
-        <v>2020.88160063698</v>
+        <v>2035.73387248653</v>
       </c>
       <c r="M74">
-        <v>1107.92529179881</v>
+        <v>1116.06788046783</v>
       </c>
       <c r="N74">
-        <v>345.770375865844</v>
+        <v>348.311581455652</v>
       </c>
       <c r="O74">
-        <v>45078.929870901</v>
+        <v>45410.2330610127</v>
       </c>
       <c r="P74">
-        <v>4019.16062237283</v>
+        <v>4048.69905062694</v>
       </c>
     </row>
     <row r="75">
@@ -4242,49 +4242,49 @@
         </is>
       </c>
       <c r="B75">
-        <v>10603.1768212441</v>
+        <v>12384.7923402271</v>
       </c>
       <c r="C75">
-        <v>303.912394198904</v>
+        <v>301.427419656018</v>
       </c>
       <c r="D75">
-        <v>653.5748257586411</v>
+        <v>648.230796245919</v>
       </c>
       <c r="E75">
-        <v>304.18263247113</v>
+        <v>301.695448294022</v>
       </c>
       <c r="F75">
-        <v>82.3443264124837</v>
+        <v>81.6710285845835</v>
       </c>
       <c r="G75">
-        <v>255.035625025044</v>
+        <v>252.950296990343</v>
       </c>
       <c r="H75">
-        <v>201.954699514126</v>
+        <v>200.303393754019</v>
       </c>
       <c r="I75">
-        <v>155.166006746606</v>
+        <v>153.897274098493</v>
       </c>
       <c r="J75">
-        <v>441.911431495699</v>
+        <v>438.29809199906</v>
       </c>
       <c r="K75">
-        <v>406.383949979621</v>
+        <v>403.061105009779</v>
       </c>
       <c r="L75">
-        <v>839.422870685454</v>
+        <v>832.559233320918</v>
       </c>
       <c r="M75">
-        <v>486.110774556374</v>
+        <v>482.136034062558</v>
       </c>
       <c r="N75">
-        <v>128.487140414509</v>
+        <v>127.436550576409</v>
       </c>
       <c r="O75">
-        <v>12564.6175414638</v>
+        <v>12461.8815052652</v>
       </c>
       <c r="P75">
-        <v>2422.89578127763</v>
+        <v>2403.08469607194</v>
       </c>
     </row>
     <row r="76">
@@ -4294,49 +4294,49 @@
         </is>
       </c>
       <c r="B76">
-        <v>537.31984196599</v>
+        <v>832.525450860483</v>
       </c>
       <c r="C76">
-        <v>54.6717522997532</v>
+        <v>55.5720371897832</v>
       </c>
       <c r="D76">
-        <v>69.3022212250393</v>
+        <v>70.44342742366889</v>
       </c>
       <c r="E76">
-        <v>38.789993269015</v>
+        <v>39.4287517385258</v>
       </c>
       <c r="F76">
-        <v>6.64146286739959</v>
+        <v>6.75082846143492</v>
       </c>
       <c r="G76">
-        <v>9.5290554184429</v>
+        <v>9.68597127075447</v>
       </c>
       <c r="H76">
-        <v>3.85012340139107</v>
+        <v>3.91352374575938</v>
       </c>
       <c r="I76">
-        <v>8.75903073816469</v>
+        <v>8.903266521602591</v>
       </c>
       <c r="J76">
-        <v>10.0103208436168</v>
+        <v>10.1751617389744</v>
       </c>
       <c r="K76">
-        <v>15.6892528606686</v>
+        <v>15.9476092639695</v>
       </c>
       <c r="L76">
-        <v>14.5342158402513</v>
+        <v>14.7735521402417</v>
       </c>
       <c r="M76">
-        <v>11.3578640341037</v>
+        <v>11.5448950499902</v>
       </c>
       <c r="N76">
-        <v>15.0154812654252</v>
+        <v>15.2627426084616</v>
       </c>
       <c r="O76">
-        <v>758.763069329145</v>
+        <v>771.25769219553</v>
       </c>
       <c r="P76">
-        <v>270.086156607584</v>
+        <v>274.533690765021</v>
       </c>
     </row>
     <row r="77">
@@ -4346,49 +4346,49 @@
         </is>
       </c>
       <c r="B77">
-        <v>22033.3490679268</v>
+        <v>23647.3853536166</v>
       </c>
       <c r="C77">
-        <v>1356.49879284936</v>
+        <v>1360.57440944549</v>
       </c>
       <c r="D77">
-        <v>1357.97005544696</v>
+        <v>1362.05009246889</v>
       </c>
       <c r="E77">
-        <v>468.484967494597</v>
+        <v>469.892536095927</v>
       </c>
       <c r="F77">
-        <v>266.291696540701</v>
+        <v>267.091773078588</v>
       </c>
       <c r="G77">
-        <v>324.735257131563</v>
+        <v>325.710928035429</v>
       </c>
       <c r="H77">
-        <v>359.487274922263</v>
+        <v>360.567358672792</v>
       </c>
       <c r="I77">
-        <v>303.932639890077</v>
+        <v>304.845809085486</v>
       </c>
       <c r="J77">
-        <v>472.32812954638</v>
+        <v>473.747244973348</v>
       </c>
       <c r="K77">
-        <v>325.041858553643</v>
+        <v>326.018450645092</v>
       </c>
       <c r="L77">
-        <v>1138.06557890869</v>
+        <v>1141.48491034145</v>
       </c>
       <c r="M77">
-        <v>890.287400239689</v>
+        <v>892.962279216998</v>
       </c>
       <c r="N77">
-        <v>461.294302228844</v>
+        <v>462.680266391711</v>
       </c>
       <c r="O77">
-        <v>20999.6230886938</v>
+        <v>21062.716703538</v>
       </c>
       <c r="P77">
-        <v>6773.70033346727</v>
+        <v>6794.05199588068</v>
       </c>
     </row>
     <row r="78">
@@ -4398,49 +4398,49 @@
         </is>
       </c>
       <c r="B78">
-        <v>2622.26180700955</v>
+        <v>4621.92662845302</v>
       </c>
       <c r="C78">
-        <v>163.079851583664</v>
+        <v>160.303031242746</v>
       </c>
       <c r="D78">
-        <v>33.7031147517666</v>
+        <v>33.1292394772545</v>
       </c>
       <c r="E78">
-        <v>161.28397575207</v>
+        <v>158.537734446457</v>
       </c>
       <c r="F78">
-        <v>16.8014161133488</v>
+        <v>16.515332249728</v>
       </c>
       <c r="G78">
-        <v>74.2899085457708</v>
+        <v>73.02494707339071</v>
       </c>
       <c r="H78">
-        <v>36.3166001499938</v>
+        <v>35.6982241027375</v>
       </c>
       <c r="I78">
-        <v>36.9715064361589</v>
+        <v>36.3419790597888</v>
       </c>
       <c r="J78">
-        <v>136.983882662132</v>
+        <v>134.651407938491</v>
       </c>
       <c r="K78">
-        <v>95.6807851176353</v>
+        <v>94.0515933580801</v>
       </c>
       <c r="L78">
-        <v>102.773215538588</v>
+        <v>101.023258369522</v>
       </c>
       <c r="M78">
-        <v>58.8075146244012</v>
+        <v>57.806177541849</v>
       </c>
       <c r="N78">
-        <v>152.83977782483</v>
+        <v>150.237318968976</v>
       </c>
       <c r="O78">
-        <v>6241.02973653449</v>
+        <v>6134.76143819852</v>
       </c>
       <c r="P78">
-        <v>286.662714365144</v>
+        <v>281.781603372575</v>
       </c>
     </row>
     <row r="79">
@@ -4450,49 +4450,49 @@
         </is>
       </c>
       <c r="B79">
-        <v>7420.72605826104</v>
+        <v>11225.2922756923</v>
       </c>
       <c r="C79">
-        <v>510.653514615116</v>
+        <v>505.209461059485</v>
       </c>
       <c r="D79">
-        <v>472.289304826578</v>
+        <v>467.254250341218</v>
       </c>
       <c r="E79">
-        <v>251.663506522364</v>
+        <v>248.980533492132</v>
       </c>
       <c r="F79">
-        <v>281.080809164719</v>
+        <v>278.084219628453</v>
       </c>
       <c r="G79">
-        <v>111.189154885195</v>
+        <v>110.003772435695</v>
       </c>
       <c r="H79">
-        <v>126.182363431935</v>
+        <v>124.837139077968</v>
       </c>
       <c r="I79">
-        <v>149.611459909869</v>
+        <v>148.016459039466</v>
       </c>
       <c r="J79">
-        <v>330.53793743723</v>
+        <v>327.014087738609</v>
       </c>
       <c r="K79">
-        <v>226.580166582264</v>
+        <v>224.164605881683</v>
       </c>
       <c r="L79">
-        <v>208.4843167359</v>
+        <v>206.261675055514</v>
       </c>
       <c r="M79">
-        <v>173.339113513056</v>
+        <v>171.491153222482</v>
       </c>
       <c r="N79">
-        <v>244.464259853937</v>
+        <v>241.858037660234</v>
       </c>
       <c r="O79">
-        <v>7321.77101528384</v>
+        <v>7243.71395234691</v>
       </c>
       <c r="P79">
-        <v>3846.65307723799</v>
+        <v>3805.64408628215</v>
       </c>
     </row>
     <row r="80">
@@ -4502,49 +4502,49 @@
         </is>
       </c>
       <c r="B80">
-        <v>1886.54090141022</v>
+        <v>3024.79085726836</v>
       </c>
       <c r="C80">
-        <v>124.390854058307</v>
+        <v>124.04298940281</v>
       </c>
       <c r="D80">
-        <v>363.580486472311</v>
+        <v>362.563717179828</v>
       </c>
       <c r="E80">
-        <v>122.758160321692</v>
+        <v>122.414861568154</v>
       </c>
       <c r="F80">
-        <v>17.959631102758</v>
+        <v>17.9094061812096</v>
       </c>
       <c r="G80">
-        <v>24.4904060492154</v>
+        <v>24.4219175198312</v>
       </c>
       <c r="H80">
-        <v>25.2047095589842</v>
+        <v>25.134223447493</v>
       </c>
       <c r="I80">
-        <v>76.53251890379821</v>
+        <v>76.3184922494726</v>
       </c>
       <c r="J80">
-        <v>104.390355784781</v>
+        <v>104.098423428281</v>
       </c>
       <c r="K80">
-        <v>48.1644652301237</v>
+        <v>48.0297711223348</v>
       </c>
       <c r="L80">
-        <v>61.6341885571922</v>
+        <v>61.461825758242</v>
       </c>
       <c r="M80">
-        <v>41.2255168495127</v>
+        <v>41.1102278250493</v>
       </c>
       <c r="N80">
-        <v>71.63443769395521</v>
+        <v>71.43410874550641</v>
       </c>
       <c r="O80">
-        <v>2958.74718082084</v>
+        <v>2950.47291036461</v>
       </c>
       <c r="P80">
-        <v>628.58708859653</v>
+        <v>626.829216342335</v>
       </c>
     </row>
     <row r="81">
@@ -4554,49 +4554,49 @@
         </is>
       </c>
       <c r="B81">
-        <v>4714.01807932376</v>
+        <v>5532.44322634201</v>
       </c>
       <c r="C81">
-        <v>228.179797821641</v>
+        <v>230.555186968976</v>
       </c>
       <c r="D81">
-        <v>527.204938984411</v>
+        <v>532.693228931376</v>
       </c>
       <c r="E81">
-        <v>248.606373609168</v>
+        <v>251.194406763142</v>
       </c>
       <c r="F81">
-        <v>239.240041296838</v>
+        <v>241.73056939411</v>
       </c>
       <c r="G81">
-        <v>70.1478505093603</v>
+        <v>70.87810114679429</v>
       </c>
       <c r="H81">
-        <v>33.0810885924824</v>
+        <v>33.4254681544541</v>
       </c>
       <c r="I81">
-        <v>98.84469844500769</v>
+        <v>99.8736879795738</v>
       </c>
       <c r="J81">
-        <v>244.421416618552</v>
+        <v>246.965883683361</v>
       </c>
       <c r="K81">
-        <v>276.506086879936</v>
+        <v>279.384560628344</v>
       </c>
       <c r="L81">
-        <v>87.0869621380411</v>
+        <v>87.99355170781</v>
       </c>
       <c r="M81">
-        <v>135.313609363226</v>
+        <v>136.722246246231</v>
       </c>
       <c r="N81">
-        <v>15.3448422989226</v>
+        <v>15.5045846258612</v>
       </c>
       <c r="O81">
-        <v>3076.54123910086</v>
+        <v>3108.56853836423</v>
       </c>
       <c r="P81">
-        <v>4901.58105434155</v>
+        <v>4952.60731763225</v>
       </c>
     </row>
     <row r="82">
@@ -4606,49 +4606,49 @@
         </is>
       </c>
       <c r="B82">
-        <v>41212.7981548335</v>
+        <v>69654.7836533887</v>
       </c>
       <c r="C82">
-        <v>3835.5296192656</v>
+        <v>3833.17947972627</v>
       </c>
       <c r="D82">
-        <v>2113.73511007936</v>
+        <v>2112.43996365866</v>
       </c>
       <c r="E82">
-        <v>1830.82385247322</v>
+        <v>1829.70205393368</v>
       </c>
       <c r="F82">
-        <v>1873.4162139712</v>
+        <v>1872.26831786424</v>
       </c>
       <c r="G82">
-        <v>764.3022094044341</v>
+        <v>763.833899413214</v>
       </c>
       <c r="H82">
-        <v>903.64489486167</v>
+        <v>903.091205591155</v>
       </c>
       <c r="I82">
-        <v>722.064155715144</v>
+        <v>721.621726196739</v>
       </c>
       <c r="J82">
-        <v>2410.49430267768</v>
+        <v>2409.01732334695</v>
       </c>
       <c r="K82">
-        <v>1013.35596709311</v>
+        <v>1012.73505468672</v>
       </c>
       <c r="L82">
-        <v>1889.74228030547</v>
+        <v>1888.58438074714</v>
       </c>
       <c r="M82">
-        <v>1063.03159035547</v>
+        <v>1062.38024026303</v>
       </c>
       <c r="N82">
-        <v>983.220845508854</v>
+        <v>982.618397759964</v>
       </c>
       <c r="O82">
-        <v>63666.0690498868</v>
+        <v>63627.0590144965</v>
       </c>
       <c r="P82">
-        <v>15560.3743119918</v>
+        <v>15550.8400221941</v>
       </c>
     </row>
     <row r="83">
@@ -4658,49 +4658,49 @@
         </is>
       </c>
       <c r="B83">
-        <v>26577.6659160076</v>
+        <v>41108.6877767373</v>
       </c>
       <c r="C83">
-        <v>1733.77696399369</v>
+        <v>1733.21018755382</v>
       </c>
       <c r="D83">
-        <v>1024.74291918153</v>
+        <v>1024.40792791359</v>
       </c>
       <c r="E83">
-        <v>866.402472369782</v>
+        <v>866.119243027729</v>
       </c>
       <c r="F83">
-        <v>1190.07662951289</v>
+        <v>1189.68759020204</v>
       </c>
       <c r="G83">
-        <v>650.262259948949</v>
+        <v>650.049687434533</v>
       </c>
       <c r="H83">
-        <v>196.134678212678</v>
+        <v>196.070561248986</v>
       </c>
       <c r="I83">
-        <v>780.630152669865</v>
+        <v>780.374962534127</v>
       </c>
       <c r="J83">
-        <v>1156.44687285041</v>
+        <v>1156.06882719915</v>
       </c>
       <c r="K83">
-        <v>2053.16701251854</v>
+        <v>2052.49582659672</v>
       </c>
       <c r="L83">
-        <v>945.638800533362</v>
+        <v>945.329668618534</v>
       </c>
       <c r="M83">
-        <v>1274.53045327355</v>
+        <v>1274.11380577632</v>
       </c>
       <c r="N83">
-        <v>321.603370440119</v>
+        <v>321.498237417168</v>
       </c>
       <c r="O83">
-        <v>33740.2814876525</v>
+        <v>33729.25169719</v>
       </c>
       <c r="P83">
-        <v>18792.6496875996</v>
+        <v>18786.5063189272</v>
       </c>
     </row>
     <row r="84">
@@ -4710,49 +4710,49 @@
         </is>
       </c>
       <c r="B84">
-        <v>798.646653351741</v>
+        <v>1260.43240685517</v>
       </c>
       <c r="C84">
-        <v>65.3855669875993</v>
+        <v>64.95878320115639</v>
       </c>
       <c r="D84">
-        <v>83.5331490196141</v>
+        <v>82.9879125817492</v>
       </c>
       <c r="E84">
-        <v>53.0210642443651</v>
+        <v>52.6749858726086</v>
       </c>
       <c r="F84">
-        <v>22.0714632699479</v>
+        <v>21.9273987141038</v>
       </c>
       <c r="G84">
-        <v>23.0516961925787</v>
+        <v>22.9012334736905</v>
       </c>
       <c r="H84">
-        <v>16.2244771206148</v>
+        <v>16.1185769335</v>
       </c>
       <c r="I84">
-        <v>29.6999760549952</v>
+        <v>29.5061187739163</v>
       </c>
       <c r="J84">
-        <v>78.0578058439564</v>
+        <v>77.5483079918412</v>
       </c>
       <c r="K84">
-        <v>66.1986588903231</v>
+        <v>65.76656790143539</v>
       </c>
       <c r="L84">
-        <v>54.4456956434543</v>
+        <v>54.0903184369427</v>
       </c>
       <c r="M84">
-        <v>25.7505320728409</v>
+        <v>25.5824535489818</v>
       </c>
       <c r="N84">
-        <v>24.8745164920345</v>
+        <v>24.7121558851987</v>
       </c>
       <c r="O84">
-        <v>1183.76840803122</v>
+        <v>1176.04173092606</v>
       </c>
       <c r="P84">
-        <v>127.037990136453</v>
+        <v>126.208789489423</v>
       </c>
     </row>
     <row r="85">
@@ -4762,49 +4762,49 @@
         </is>
       </c>
       <c r="B85">
-        <v>409.325353972837</v>
+        <v>620.092992954977</v>
       </c>
       <c r="C85">
-        <v>23.4540716679898</v>
+        <v>23.7483705579421</v>
       </c>
       <c r="D85">
-        <v>45.9374275822528</v>
+        <v>46.5138449368214</v>
       </c>
       <c r="E85">
-        <v>31.9799723912852</v>
+        <v>32.3812532651859</v>
       </c>
       <c r="F85">
-        <v>7.63008900061745</v>
+        <v>7.72583044606481</v>
       </c>
       <c r="G85">
-        <v>13.9250642586222</v>
+        <v>14.0997943017397</v>
       </c>
       <c r="H85">
-        <v>12.7873327599894</v>
+        <v>12.9477866841519</v>
       </c>
       <c r="I85">
-        <v>10.7659361383082</v>
+        <v>10.901025819096</v>
       </c>
       <c r="J85">
-        <v>39.3529583664109</v>
+        <v>39.8467545877033</v>
       </c>
       <c r="K85">
-        <v>24.3104069418717</v>
+        <v>24.6154510245607</v>
       </c>
       <c r="L85">
-        <v>28.8319786539649</v>
+        <v>29.1937588784439</v>
       </c>
       <c r="M85">
-        <v>10.063457793067</v>
+        <v>10.1897328594821</v>
       </c>
       <c r="N85">
-        <v>16.942482049925</v>
+        <v>17.1550742910895</v>
       </c>
       <c r="O85">
-        <v>471.873126841316</v>
+        <v>477.794134476732</v>
       </c>
       <c r="P85">
-        <v>111.332695554379</v>
+        <v>112.729684920698</v>
       </c>
     </row>
     <row r="86">
@@ -4814,49 +4814,49 @@
         </is>
       </c>
       <c r="B86">
-        <v>1064.84117216285</v>
+        <v>2372.74622128247</v>
       </c>
       <c r="C86">
-        <v>69.9742155980809</v>
+        <v>70.6698097434102</v>
       </c>
       <c r="D86">
-        <v>14.4880534498229</v>
+        <v>14.6320751451114</v>
       </c>
       <c r="E86">
-        <v>142.825491455701</v>
+        <v>144.245279799325</v>
       </c>
       <c r="F86">
-        <v>11.3027367339044</v>
+        <v>11.4150940848387</v>
       </c>
       <c r="G86">
-        <v>42.5393909803311</v>
+        <v>42.9622631920291</v>
       </c>
       <c r="H86">
-        <v>27.3320724656234</v>
+        <v>27.6037729687917</v>
       </c>
       <c r="I86">
-        <v>19.3174045997639</v>
+        <v>19.5094335268152</v>
       </c>
       <c r="J86">
-        <v>118.57598355387</v>
+        <v>119.754714308216</v>
       </c>
       <c r="K86">
-        <v>108.609024797609</v>
+        <v>109.688676797041</v>
       </c>
       <c r="L86">
-        <v>105.320955929564</v>
+        <v>106.367922154178</v>
       </c>
       <c r="M86">
-        <v>101.210869844508</v>
+        <v>102.216978850601</v>
       </c>
       <c r="N86">
-        <v>55.99992290889</v>
+        <v>56.5566025112461</v>
       </c>
       <c r="O86">
-        <v>3053.48570474666</v>
+        <v>3083.83955381684</v>
       </c>
       <c r="P86">
-        <v>127.618172940993</v>
+        <v>128.886789576087</v>
       </c>
     </row>
     <row r="87">
@@ -4866,49 +4866,49 @@
         </is>
       </c>
       <c r="B87">
-        <v>17449.7489302017</v>
+        <v>19008.8349237852</v>
       </c>
       <c r="C87">
-        <v>612.941875596772</v>
+        <v>649.617931298437</v>
       </c>
       <c r="D87">
-        <v>977.794322168185</v>
+        <v>1036.30172793108</v>
       </c>
       <c r="E87">
-        <v>271.824153844281</v>
+        <v>288.089053020479</v>
       </c>
       <c r="F87">
-        <v>152.478728345682</v>
+        <v>161.602461862307</v>
       </c>
       <c r="G87">
-        <v>124.004866516606</v>
+        <v>131.424834987862</v>
       </c>
       <c r="H87">
-        <v>119.535599167563</v>
+        <v>126.688144079155</v>
       </c>
       <c r="I87">
-        <v>204.120311253095</v>
+        <v>216.334076054319</v>
       </c>
       <c r="J87">
-        <v>422.504107837416</v>
+        <v>447.785108875469</v>
       </c>
       <c r="K87">
-        <v>196.966547326494</v>
+        <v>208.752258743384</v>
       </c>
       <c r="L87">
-        <v>171.377842058695</v>
+        <v>181.632424967159</v>
       </c>
       <c r="M87">
-        <v>168.412312245675</v>
+        <v>178.489449394699</v>
       </c>
       <c r="N87">
-        <v>188.336310282236</v>
+        <v>199.605621911226</v>
       </c>
       <c r="O87">
-        <v>6936.70068397628</v>
+        <v>7351.76584888054</v>
       </c>
       <c r="P87">
-        <v>8666.57220836526</v>
+        <v>9185.146151036481</v>
       </c>
     </row>
     <row r="88">

--- a/1-Data-Codes/2-Final_Data/L_1999.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_1999.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1324.89464570505</v>
+        <v>1313.11060605422</v>
       </c>
       <c r="C2">
-        <v>40.5631774000433</v>
+        <v>39.4270181332805</v>
       </c>
       <c r="D2">
-        <v>78.3844661684315</v>
+        <v>76.4609174627459</v>
       </c>
       <c r="E2">
-        <v>66.7701574667018</v>
+        <v>65.91476680600741</v>
       </c>
       <c r="F2">
-        <v>15.7701319381235</v>
+        <v>13.1920741883389</v>
       </c>
       <c r="G2">
-        <v>20.3729622743891</v>
+        <v>18.8132867244767</v>
       </c>
       <c r="H2">
-        <v>22.8402962610782</v>
+        <v>21.8496341744225</v>
       </c>
       <c r="I2">
-        <v>11.2283275482225</v>
+        <v>14.9051633877103</v>
       </c>
       <c r="J2">
-        <v>65.402627199495</v>
+        <v>64.29732294254789</v>
       </c>
       <c r="K2">
-        <v>20.4264239915342</v>
+        <v>24.5370380018656</v>
       </c>
       <c r="L2">
-        <v>35.6959681913062</v>
+        <v>32.6086326864028</v>
       </c>
       <c r="M2">
-        <v>42.3004094547705</v>
+        <v>37.2162975913911</v>
       </c>
       <c r="N2">
-        <v>31.9897313835683</v>
+        <v>30.5255122016497</v>
       </c>
       <c r="O2">
-        <v>1343.83120014001</v>
+        <v>1356.15438710423</v>
       </c>
       <c r="P2">
-        <v>37.0917212098123</v>
+        <v>43.9128564626531</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>145.470068065832</v>
+        <v>136.504875635609</v>
       </c>
       <c r="C3">
-        <v>4.93551293937966</v>
+        <v>5.09960414501255</v>
       </c>
       <c r="D3">
-        <v>0.233316516372231</v>
+        <v>0.352616891962199</v>
       </c>
       <c r="E3">
-        <v>1.74987387279173</v>
+        <v>1.59617899897382</v>
       </c>
       <c r="F3">
-        <v>8.95353599411351</v>
+        <v>9.72890882128503</v>
       </c>
       <c r="G3">
-        <v>0.379139339104875</v>
+        <v>0.463095348361129</v>
       </c>
       <c r="H3">
-        <v>0.0583291290930578</v>
+        <v>0.127421527624296</v>
       </c>
       <c r="I3">
-        <v>0.320810210011817</v>
+        <v>0.290373962866128</v>
       </c>
       <c r="J3">
-        <v>0.583291290930578</v>
+        <v>0.57556364326342</v>
       </c>
       <c r="K3">
-        <v>0.145822822732644</v>
+        <v>0.36726466456851</v>
       </c>
       <c r="L3">
-        <v>0.349974774558347</v>
+        <v>0.298951149170799</v>
       </c>
       <c r="M3">
-        <v>0.641620420023636</v>
+        <v>1.05751180825272</v>
       </c>
       <c r="N3">
-        <v>0.641620420023636</v>
+        <v>0.677263444888442</v>
       </c>
       <c r="O3">
-        <v>226.588201111557</v>
+        <v>232.560289853466</v>
       </c>
       <c r="P3">
-        <v>10.5694821470393</v>
+        <v>10.8732418114932</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1448.24148253952</v>
+        <v>1417.28220521455</v>
       </c>
       <c r="C4">
-        <v>13.4030496639299</v>
+        <v>13.1682969802041</v>
       </c>
       <c r="D4">
-        <v>5.74195698075351</v>
+        <v>7.80563978169384</v>
       </c>
       <c r="E4">
-        <v>24.9964048584684</v>
+        <v>18.1360637845733</v>
       </c>
       <c r="F4">
-        <v>21.9708219174547</v>
+        <v>17.2549462970244</v>
       </c>
       <c r="G4">
-        <v>9.30634958018566</v>
+        <v>13.3652326518636</v>
       </c>
       <c r="H4">
-        <v>7.80430739925032</v>
+        <v>6.49596620625274</v>
       </c>
       <c r="I4">
-        <v>9.41606653605202</v>
+        <v>7.34350835418377</v>
       </c>
       <c r="J4">
-        <v>28.1916466559876</v>
+        <v>21.0035883063082</v>
       </c>
       <c r="K4">
-        <v>10.4340196750847</v>
+        <v>11.9721609793614</v>
       </c>
       <c r="L4">
-        <v>77.19143744034631</v>
+        <v>78.42780544416171</v>
       </c>
       <c r="M4">
-        <v>52.3950887617833</v>
+        <v>53.0234376438421</v>
       </c>
       <c r="N4">
-        <v>25.1609066584899</v>
+        <v>22.3077940060138</v>
       </c>
       <c r="O4">
-        <v>1771.00557526375</v>
+        <v>1816.34194088742</v>
       </c>
       <c r="P4">
-        <v>30.9710862100127</v>
+        <v>29.6038723611587</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>775.966648348558</v>
+        <v>758.390684562801</v>
       </c>
       <c r="C5">
-        <v>55.8644654872087</v>
+        <v>54.2818086779729</v>
       </c>
       <c r="D5">
-        <v>13.0502302373647</v>
+        <v>13.041189595737</v>
       </c>
       <c r="E5">
-        <v>41.9233908926545</v>
+        <v>37.691752268946</v>
       </c>
       <c r="F5">
-        <v>5.74282809205453</v>
+        <v>4.49690117010129</v>
       </c>
       <c r="G5">
-        <v>10.9049781681354</v>
+        <v>15.2252713965874</v>
       </c>
       <c r="H5">
-        <v>13.0158187664384</v>
+        <v>12.3773312254211</v>
       </c>
       <c r="I5">
-        <v>6.58656112927581</v>
+        <v>6.86186590692145</v>
       </c>
       <c r="J5">
-        <v>34.0400736240419</v>
+        <v>35.852592351348</v>
       </c>
       <c r="K5">
-        <v>22.1046339378956</v>
+        <v>23.4844872117609</v>
       </c>
       <c r="L5">
-        <v>23.7865669870262</v>
+        <v>24.5850546691183</v>
       </c>
       <c r="M5">
-        <v>21.6324257803783</v>
+        <v>22.243968948182</v>
       </c>
       <c r="N5">
-        <v>19.9890517651254</v>
+        <v>15.9167654575837</v>
       </c>
       <c r="O5">
-        <v>772.686270338617</v>
+        <v>789.410091857221</v>
       </c>
       <c r="P5">
-        <v>55.3808650858135</v>
+        <v>62.4367415614033</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>9528.230403322201</v>
+        <v>9261.564587884561</v>
       </c>
       <c r="C6">
-        <v>201.174512541362</v>
+        <v>190.659820711025</v>
       </c>
       <c r="D6">
-        <v>196.942668466477</v>
+        <v>199.514898997308</v>
       </c>
       <c r="E6">
-        <v>168.096415373049</v>
+        <v>160.685715837539</v>
       </c>
       <c r="F6">
-        <v>54.2177782862025</v>
+        <v>47.6616834973274</v>
       </c>
       <c r="G6">
-        <v>100.724483421954</v>
+        <v>107.531218733766</v>
       </c>
       <c r="H6">
-        <v>69.7080335933217</v>
+        <v>60.7961459222807</v>
       </c>
       <c r="I6">
-        <v>48.090965141916</v>
+        <v>54.2133573112019</v>
       </c>
       <c r="J6">
-        <v>186.573339536429</v>
+        <v>194.54042901167</v>
       </c>
       <c r="K6">
-        <v>101.776887982341</v>
+        <v>131.811284988139</v>
       </c>
       <c r="L6">
-        <v>587.6626659434251</v>
+        <v>558.996509425167</v>
       </c>
       <c r="M6">
-        <v>256.607188840088</v>
+        <v>277.973271841181</v>
       </c>
       <c r="N6">
-        <v>264.070690157645</v>
+        <v>294.603894858442</v>
       </c>
       <c r="O6">
-        <v>11404.8681884021</v>
+        <v>11638.6803172348</v>
       </c>
       <c r="P6">
-        <v>332.754455801813</v>
+        <v>324.354922635299</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>950.698612957169</v>
+        <v>906.363751340833</v>
       </c>
       <c r="C7">
-        <v>29.5769229494794</v>
+        <v>28.348495041472</v>
       </c>
       <c r="D7">
-        <v>4.98578420198625</v>
+        <v>3.88580907896136</v>
       </c>
       <c r="E7">
-        <v>22.6514699398534</v>
+        <v>20.4014490507121</v>
       </c>
       <c r="F7">
-        <v>20.4049395621362</v>
+        <v>17.7695365494381</v>
       </c>
       <c r="G7">
-        <v>9.718053953024031</v>
+        <v>10.5081172260763</v>
       </c>
       <c r="H7">
-        <v>6.36602954603895</v>
+        <v>9.38399472834997</v>
       </c>
       <c r="I7">
-        <v>10.7884483014731</v>
+        <v>11.2052350795941</v>
       </c>
       <c r="J7">
-        <v>21.177469295768</v>
+        <v>15.7385684377085</v>
       </c>
       <c r="K7">
-        <v>16.7940664056178</v>
+        <v>21.1349553038525</v>
       </c>
       <c r="L7">
-        <v>66.4478278392745</v>
+        <v>62.710917659584</v>
       </c>
       <c r="M7">
-        <v>19.3724428498807</v>
+        <v>21.3169563918382</v>
       </c>
       <c r="N7">
-        <v>25.6210335119039</v>
+        <v>26.1933284148378</v>
       </c>
       <c r="O7">
-        <v>1762.27186828595</v>
+        <v>1805.38724960412</v>
       </c>
       <c r="P7">
-        <v>52.0670629690265</v>
+        <v>43.5525666271709</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>841.440590269278</v>
+        <v>844.145907350461</v>
       </c>
       <c r="C8">
-        <v>11.0447914395022</v>
+        <v>14.6020596652608</v>
       </c>
       <c r="D8">
-        <v>8.02061532585963</v>
+        <v>8.710437979561579</v>
       </c>
       <c r="E8">
-        <v>23.4756216016025</v>
+        <v>24.5105460563335</v>
       </c>
       <c r="F8">
-        <v>2.26495781627265</v>
+        <v>0.5398724883862051</v>
       </c>
       <c r="G8">
-        <v>27.6541281420145</v>
+        <v>24.9488423273559</v>
       </c>
       <c r="H8">
-        <v>9.09601963428938</v>
+        <v>14.9695167022916</v>
       </c>
       <c r="I8">
-        <v>3.38411344313678</v>
+        <v>2.56747981072503</v>
       </c>
       <c r="J8">
-        <v>46.7104838274379</v>
+        <v>51.5581920618501</v>
       </c>
       <c r="K8">
-        <v>29.3772003112349</v>
+        <v>34.8236186592039</v>
       </c>
       <c r="L8">
-        <v>41.7957910045159</v>
+        <v>40.5515100762693</v>
       </c>
       <c r="M8">
-        <v>51.5666652002477</v>
+        <v>57.4585076419209</v>
       </c>
       <c r="N8">
-        <v>25.7878359585869</v>
+        <v>27.3401634817003</v>
       </c>
       <c r="O8">
-        <v>1283.08889950762</v>
+        <v>1254.34008292052</v>
       </c>
       <c r="P8">
-        <v>6.7149337611848</v>
+        <v>9.97903259356748</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>199.990492418585</v>
+        <v>194.642111144732</v>
       </c>
       <c r="C9">
-        <v>8.355230805267089</v>
+        <v>8.62208671347325</v>
       </c>
       <c r="D9">
-        <v>2.05211143648243</v>
+        <v>1.42175548629163</v>
       </c>
       <c r="E9">
-        <v>5.76651446566441</v>
+        <v>5.77687369497391</v>
       </c>
       <c r="F9">
-        <v>1.82409905465105</v>
+        <v>1.88276124242734</v>
       </c>
       <c r="G9">
-        <v>18.8604326492652</v>
+        <v>21.5029031024304</v>
       </c>
       <c r="H9">
-        <v>3.19217334563933</v>
+        <v>3.74096824948324</v>
       </c>
       <c r="I9">
-        <v>0.912049527325523</v>
+        <v>0.173154345773211</v>
       </c>
       <c r="J9">
-        <v>3.47718882292856</v>
+        <v>4.01394176835502</v>
       </c>
       <c r="K9">
-        <v>2.33712691377165</v>
+        <v>3.54087356082421</v>
       </c>
       <c r="L9">
-        <v>2.47196007722493</v>
+        <v>2.53955923581878</v>
       </c>
       <c r="M9">
-        <v>7.58979259591301</v>
+        <v>7.88666706617819</v>
       </c>
       <c r="N9">
-        <v>4.39848491921811</v>
+        <v>4.87985434809069</v>
       </c>
       <c r="O9">
-        <v>285.67012639414</v>
+        <v>288.006741499127</v>
       </c>
       <c r="P9">
-        <v>5.08593085915444</v>
+        <v>5.01274753198666</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4952.60734250564</v>
+        <v>4814.44611739069</v>
       </c>
       <c r="C10">
-        <v>56.2905742685471</v>
+        <v>50.4047458522202</v>
       </c>
       <c r="D10">
-        <v>35.4647944531716</v>
+        <v>38.863890067301</v>
       </c>
       <c r="E10">
-        <v>74.8799638014239</v>
+        <v>58.8501224096784</v>
       </c>
       <c r="F10">
-        <v>13.2074208487767</v>
+        <v>13.332771446741</v>
       </c>
       <c r="G10">
-        <v>35.4171318561712</v>
+        <v>43.2348732220248</v>
       </c>
       <c r="H10">
-        <v>20.5170516452042</v>
+        <v>24.6822682621847</v>
       </c>
       <c r="I10">
-        <v>29.5495999954628</v>
+        <v>32.1537751713664</v>
       </c>
       <c r="J10">
-        <v>51.8227948591466</v>
+        <v>45.2824498252689</v>
       </c>
       <c r="K10">
-        <v>35.9160283635472</v>
+        <v>46.7162885695449</v>
       </c>
       <c r="L10">
-        <v>93.31131906878819</v>
+        <v>110.529924821172</v>
       </c>
       <c r="M10">
-        <v>93.66061521207391</v>
+        <v>78.3739871480024</v>
       </c>
       <c r="N10">
-        <v>84.1483296906292</v>
+        <v>91.1464389650651</v>
       </c>
       <c r="O10">
-        <v>5857.7420797149</v>
+        <v>5976.89251756054</v>
       </c>
       <c r="P10">
-        <v>97.3869012632276</v>
+        <v>104.429450503633</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2029.94940028465</v>
+        <v>1946.570766663</v>
       </c>
       <c r="C11">
-        <v>81.37003915470871</v>
+        <v>63.466847488781</v>
       </c>
       <c r="D11">
-        <v>150.147421544312</v>
+        <v>145.06592431094</v>
       </c>
       <c r="E11">
-        <v>101.364359768235</v>
+        <v>101.973781840884</v>
       </c>
       <c r="F11">
-        <v>12.545726567884</v>
+        <v>14.3508803603812</v>
       </c>
       <c r="G11">
-        <v>34.5608522993464</v>
+        <v>43.7324573677074</v>
       </c>
       <c r="H11">
-        <v>30.289966297858</v>
+        <v>28.871724809262</v>
       </c>
       <c r="I11">
-        <v>21.880628783098</v>
+        <v>20.1846897252579</v>
       </c>
       <c r="J11">
-        <v>54.7761538384878</v>
+        <v>45.5338053495943</v>
       </c>
       <c r="K11">
-        <v>41.3056194691924</v>
+        <v>52.870546704306</v>
       </c>
       <c r="L11">
-        <v>67.5362325897048</v>
+        <v>60.6423949741503</v>
       </c>
       <c r="M11">
-        <v>67.08962399314029</v>
+        <v>69.4318775850725</v>
       </c>
       <c r="N11">
-        <v>54.0514031709369</v>
+        <v>53.9835348867054</v>
       </c>
       <c r="O11">
-        <v>2866.73062844307</v>
+        <v>2969.30340344868</v>
       </c>
       <c r="P11">
-        <v>60.7039413179603</v>
+        <v>62.3691743681928</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>335.444117542168</v>
+        <v>338.645224357505</v>
       </c>
       <c r="C12">
-        <v>7.43534444809324</v>
+        <v>6.06652878092766</v>
       </c>
       <c r="D12">
-        <v>2.07463949970693</v>
+        <v>2.54915784971104</v>
       </c>
       <c r="E12">
-        <v>2.49044298782501</v>
+        <v>2.62183617928621</v>
       </c>
       <c r="F12">
-        <v>0.719208359898402</v>
+        <v>0.625392601043103</v>
       </c>
       <c r="G12">
-        <v>0.442589759937478</v>
+        <v>1.22452197593255</v>
       </c>
       <c r="H12">
-        <v>0.165971159976554</v>
+        <v>0.647977654858299</v>
       </c>
       <c r="I12">
-        <v>0.995826959859322</v>
+        <v>1.03298584483265</v>
       </c>
       <c r="J12">
-        <v>0.6085609199140321</v>
+        <v>0.648006938029419</v>
       </c>
       <c r="K12">
-        <v>0.414927899941385</v>
+        <v>0.424196661354172</v>
       </c>
       <c r="L12">
-        <v>0.636222779910124</v>
+        <v>1.94114629227213</v>
       </c>
       <c r="M12">
-        <v>3.92798411944512</v>
+        <v>3.80771238817434</v>
       </c>
       <c r="N12">
-        <v>2.91903020079619</v>
+        <v>2.18702330776892</v>
       </c>
       <c r="O12">
-        <v>472.157195720311</v>
+        <v>464.963066382818</v>
       </c>
       <c r="P12">
-        <v>16.3995974508108</v>
+        <v>21.4964671394039</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>317.911487057835</v>
+        <v>309.680690725588</v>
       </c>
       <c r="C13">
-        <v>20.6068125703759</v>
+        <v>23.9243693299778</v>
       </c>
       <c r="D13">
-        <v>1.21967752553177</v>
+        <v>1.79549222526901</v>
       </c>
       <c r="E13">
-        <v>18.8696412217188</v>
+        <v>19.0685797721657</v>
       </c>
       <c r="F13">
-        <v>4.25323974995466</v>
+        <v>5.43516999271644</v>
       </c>
       <c r="G13">
-        <v>5.00852361517133</v>
+        <v>4.39033464960846</v>
       </c>
       <c r="H13">
-        <v>1.84369858510617</v>
+        <v>2.57726748435244</v>
       </c>
       <c r="I13">
-        <v>1.70187561702108</v>
+        <v>1.68977106213193</v>
       </c>
       <c r="J13">
-        <v>5.98803543147642</v>
+        <v>4.62737210004104</v>
       </c>
       <c r="K13">
-        <v>2.55281342553161</v>
+        <v>3.30160810327696</v>
       </c>
       <c r="L13">
-        <v>21.6461911894294</v>
+        <v>20.4418764620766</v>
       </c>
       <c r="M13">
-        <v>3.12010529787197</v>
+        <v>5.31504151542783</v>
       </c>
       <c r="N13">
-        <v>6.81641448627959</v>
+        <v>7.19454419357326</v>
       </c>
       <c r="O13">
-        <v>430.354716719535</v>
+        <v>432.638020780199</v>
       </c>
       <c r="P13">
-        <v>42.0976135243834</v>
+        <v>41.7550580614475</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3216.3918961343</v>
+        <v>3082.44779321604</v>
       </c>
       <c r="C14">
-        <v>112.366107149914</v>
+        <v>108.71309399961</v>
       </c>
       <c r="D14">
-        <v>19.0444498197891</v>
+        <v>18.027985970166</v>
       </c>
       <c r="E14">
-        <v>115.990805258838</v>
+        <v>90.77471323810499</v>
       </c>
       <c r="F14">
-        <v>31.8008711681557</v>
+        <v>24.1402840638828</v>
       </c>
       <c r="G14">
-        <v>79.13733940538251</v>
+        <v>83.5125937664946</v>
       </c>
       <c r="H14">
-        <v>67.73227970931499</v>
+        <v>59.1209716271113</v>
       </c>
       <c r="I14">
-        <v>28.7336457190354</v>
+        <v>39.3311014689488</v>
       </c>
       <c r="J14">
-        <v>186.402029169625</v>
+        <v>168.922466622586</v>
       </c>
       <c r="K14">
-        <v>157.380271116399</v>
+        <v>171.917585902815</v>
       </c>
       <c r="L14">
-        <v>146.174014853269</v>
+        <v>147.843930635185</v>
       </c>
       <c r="M14">
-        <v>100.146292626064</v>
+        <v>95.6856680308866</v>
       </c>
       <c r="N14">
-        <v>87.17259462523479</v>
+        <v>96.4351734941108</v>
       </c>
       <c r="O14">
-        <v>4313.07609241518</v>
+        <v>4471.44140201536</v>
       </c>
       <c r="P14">
-        <v>88.34641097775661</v>
+        <v>88.1068527923638</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1489.9396434313</v>
+        <v>1440.09530764845</v>
       </c>
       <c r="C15">
-        <v>37.2658543209364</v>
+        <v>42.4045513721342</v>
       </c>
       <c r="D15">
-        <v>10.9708618063053</v>
+        <v>14.6966736567892</v>
       </c>
       <c r="E15">
-        <v>65.7164369436681</v>
+        <v>52.8865568604076</v>
       </c>
       <c r="F15">
-        <v>12.4982786791338</v>
+        <v>11.8976965271151</v>
       </c>
       <c r="G15">
-        <v>42.3020166464287</v>
+        <v>47.660452685632</v>
       </c>
       <c r="H15">
-        <v>51.4450243765751</v>
+        <v>50.174211003945</v>
       </c>
       <c r="I15">
-        <v>23.7178192255911</v>
+        <v>30.4610511330634</v>
       </c>
       <c r="J15">
-        <v>160.693336644383</v>
+        <v>174.025661986196</v>
       </c>
       <c r="K15">
-        <v>67.06294190647711</v>
+        <v>82.69624899011831</v>
       </c>
       <c r="L15">
-        <v>68.94028781896171</v>
+        <v>77.4187596234363</v>
       </c>
       <c r="M15">
-        <v>195.712960600025</v>
+        <v>176.149887515725</v>
       </c>
       <c r="N15">
-        <v>73.69864717082029</v>
+        <v>71.6180761746611</v>
       </c>
       <c r="O15">
-        <v>1945.7213205673</v>
+        <v>1981.96375175094</v>
       </c>
       <c r="P15">
-        <v>41.5016853981177</v>
+        <v>44.6634440353155</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>664.504581142388</v>
+        <v>648.5386417060261</v>
       </c>
       <c r="C16">
-        <v>55.9905542134902</v>
+        <v>53.9838440524865</v>
       </c>
       <c r="D16">
-        <v>6.58048820740941</v>
+        <v>9.771325434858889</v>
       </c>
       <c r="E16">
-        <v>24.6150199021479</v>
+        <v>23.4001123427791</v>
       </c>
       <c r="F16">
-        <v>3.37219540502357</v>
+        <v>3.38382969183029</v>
       </c>
       <c r="G16">
-        <v>11.1838179825636</v>
+        <v>14.6604575556659</v>
       </c>
       <c r="H16">
-        <v>17.883692025002</v>
+        <v>13.271323433568</v>
       </c>
       <c r="I16">
-        <v>9.84017675564257</v>
+        <v>13.3681653824455</v>
       </c>
       <c r="J16">
-        <v>44.7857585537509</v>
+        <v>46.8505717505278</v>
       </c>
       <c r="K16">
-        <v>47.8512561383504</v>
+        <v>40.8592475599707</v>
       </c>
       <c r="L16">
-        <v>37.9278505670859</v>
+        <v>37.6350865818868</v>
       </c>
       <c r="M16">
-        <v>28.6987147155094</v>
+        <v>18.7939124065837</v>
       </c>
       <c r="N16">
-        <v>20.7865925355301</v>
+        <v>21.768083214984</v>
       </c>
       <c r="O16">
-        <v>1007.74400325264</v>
+        <v>1025.06707844617</v>
       </c>
       <c r="P16">
-        <v>83.4256475520537</v>
+        <v>89.0550494151513</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>625.961929015983</v>
+        <v>601.569124388801</v>
       </c>
       <c r="C17">
-        <v>31.3052521990116</v>
+        <v>29.1825217918003</v>
       </c>
       <c r="D17">
-        <v>4.40078566430918</v>
+        <v>5.51994841691452</v>
       </c>
       <c r="E17">
-        <v>24.0042854416864</v>
+        <v>13.4582760087324</v>
       </c>
       <c r="F17">
-        <v>15.9828721620326</v>
+        <v>14.449706276692</v>
       </c>
       <c r="G17">
-        <v>9.001607040632401</v>
+        <v>11.3322535490301</v>
       </c>
       <c r="H17">
-        <v>14.5623464473301</v>
+        <v>16.299464325871</v>
       </c>
       <c r="I17">
-        <v>6.12139342709211</v>
+        <v>8.047258238197919</v>
       </c>
       <c r="J17">
-        <v>19.3314337808235</v>
+        <v>16.9007336610033</v>
       </c>
       <c r="K17">
-        <v>21.8330578100387</v>
+        <v>25.2570528314654</v>
       </c>
       <c r="L17">
-        <v>12.1475295849768</v>
+        <v>14.9279889580884</v>
       </c>
       <c r="M17">
-        <v>67.280036451998</v>
+        <v>66.4048562339881</v>
       </c>
       <c r="N17">
-        <v>15.03657293359</v>
+        <v>17.662798709792</v>
       </c>
       <c r="O17">
-        <v>933.284139323601</v>
+        <v>953.787072780648</v>
       </c>
       <c r="P17">
-        <v>70.5992490380568</v>
+        <v>75.64875790159471</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1177.69827263375</v>
+        <v>1151.42563452586</v>
       </c>
       <c r="C18">
-        <v>34.1495656382865</v>
+        <v>34.7398104381205</v>
       </c>
       <c r="D18">
-        <v>22.9460113114052</v>
+        <v>24.9698834727999</v>
       </c>
       <c r="E18">
-        <v>44.6493433310285</v>
+        <v>40.8776157335665</v>
       </c>
       <c r="F18">
-        <v>30.4781042001143</v>
+        <v>32.3223628034308</v>
       </c>
       <c r="G18">
-        <v>23.7542412124874</v>
+        <v>26.8877502822174</v>
       </c>
       <c r="H18">
-        <v>22.0470802272322</v>
+        <v>21.6657074447423</v>
       </c>
       <c r="I18">
-        <v>10.5796809146111</v>
+        <v>12.8197683414975</v>
       </c>
       <c r="J18">
-        <v>49.3305071565793</v>
+        <v>42.5993053579738</v>
       </c>
       <c r="K18">
-        <v>32.1185229240689</v>
+        <v>35.6835165291384</v>
       </c>
       <c r="L18">
-        <v>35.4362665295196</v>
+        <v>42.9791271999101</v>
       </c>
       <c r="M18">
-        <v>68.9289932152401</v>
+        <v>57.7155135872813</v>
       </c>
       <c r="N18">
-        <v>24.7466575676418</v>
+        <v>30.7399835717149</v>
       </c>
       <c r="O18">
-        <v>1269.36884377322</v>
+        <v>1298.06250072225</v>
       </c>
       <c r="P18">
-        <v>42.1514171950543</v>
+        <v>41.5057748511758</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1339.33210687472</v>
+        <v>1308.70496133721</v>
       </c>
       <c r="C19">
-        <v>22.7212210257549</v>
+        <v>29.907154060801</v>
       </c>
       <c r="D19">
-        <v>9.822512186369529</v>
+        <v>13.5137098977362</v>
       </c>
       <c r="E19">
-        <v>38.6228254130624</v>
+        <v>36.6194688520571</v>
       </c>
       <c r="F19">
-        <v>81.1823665013366</v>
+        <v>61.5751631803486</v>
       </c>
       <c r="G19">
-        <v>42.1101987475234</v>
+        <v>40.8238430403535</v>
       </c>
       <c r="H19">
-        <v>6.42672940193891</v>
+        <v>7.59856155142819</v>
       </c>
       <c r="I19">
-        <v>6.4035263969753</v>
+        <v>7.13620818133007</v>
       </c>
       <c r="J19">
-        <v>23.6301578883518</v>
+        <v>21.5811981734221</v>
       </c>
       <c r="K19">
-        <v>12.0957221495007</v>
+        <v>10.2670555685114</v>
       </c>
       <c r="L19">
-        <v>7.40898062057586</v>
+        <v>10.8109404388194</v>
       </c>
       <c r="M19">
-        <v>26.798226463251</v>
+        <v>26.3577456302841</v>
       </c>
       <c r="N19">
-        <v>10.6363774818116</v>
+        <v>10.9870054883191</v>
       </c>
       <c r="O19">
-        <v>1426.25023700178</v>
+        <v>1460.38941958501</v>
       </c>
       <c r="P19">
-        <v>37.6704158135586</v>
+        <v>42.0190386981109</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>335.596838768687</v>
+        <v>330.161013785395</v>
       </c>
       <c r="C20">
-        <v>7.97197015090354</v>
+        <v>6.9370546746563</v>
       </c>
       <c r="D20">
-        <v>16.5084931947233</v>
+        <v>16.4506919849855</v>
       </c>
       <c r="E20">
-        <v>33.9243911153467</v>
+        <v>32.0052802110801</v>
       </c>
       <c r="F20">
-        <v>0.494803072349817</v>
+        <v>0.387626617836363</v>
       </c>
       <c r="G20">
-        <v>1.61462055187835</v>
+        <v>1.79715634103831</v>
       </c>
       <c r="H20">
-        <v>1.82295868760459</v>
+        <v>3.53840573912024</v>
       </c>
       <c r="I20">
-        <v>1.66670508580991</v>
+        <v>0.540632865649418</v>
       </c>
       <c r="J20">
-        <v>6.53660900841074</v>
+        <v>6.67255533601498</v>
       </c>
       <c r="K20">
-        <v>4.0809603467807</v>
+        <v>5.76740908118677</v>
       </c>
       <c r="L20">
-        <v>7.61718203712126</v>
+        <v>8.098610477902129</v>
       </c>
       <c r="M20">
-        <v>16.5344309350582</v>
+        <v>16.6455011982103</v>
       </c>
       <c r="N20">
-        <v>6.82307394503431</v>
+        <v>5.18151399797838</v>
       </c>
       <c r="O20">
-        <v>450.38030362589</v>
+        <v>459.404966421265</v>
       </c>
       <c r="P20">
-        <v>25.8949286092588</v>
+        <v>25.4965304507527</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1266.14656600003</v>
+        <v>1206.3810350856</v>
       </c>
       <c r="C21">
-        <v>25.5066307126345</v>
+        <v>20.9432753514813</v>
       </c>
       <c r="D21">
-        <v>11.7145837888345</v>
+        <v>15.6858709255826</v>
       </c>
       <c r="E21">
-        <v>41.1528887789815</v>
+        <v>37.039659911899</v>
       </c>
       <c r="F21">
-        <v>4.09721896062682</v>
+        <v>4.78796758955674</v>
       </c>
       <c r="G21">
-        <v>19.4965026330539</v>
+        <v>10.2511087409619</v>
       </c>
       <c r="H21">
-        <v>7.87704772007832</v>
+        <v>20.6981252261992</v>
       </c>
       <c r="I21">
-        <v>6.83831615259546</v>
+        <v>4.8410125196397</v>
       </c>
       <c r="J21">
-        <v>27.0935817185112</v>
+        <v>13.1694351610934</v>
       </c>
       <c r="K21">
-        <v>11.5414618609207</v>
+        <v>23.1451086272403</v>
       </c>
       <c r="L21">
-        <v>39.904604384133</v>
+        <v>28.1916116089014</v>
       </c>
       <c r="M21">
-        <v>29.8127987111599</v>
+        <v>37.4146545813823</v>
       </c>
       <c r="N21">
-        <v>20.197558256611</v>
+        <v>10.784707560505</v>
       </c>
       <c r="O21">
-        <v>2181.40773563426</v>
+        <v>2254.70610201414</v>
       </c>
       <c r="P21">
-        <v>16.6045688174675</v>
+        <v>21.2807339629341</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1598.90934079398</v>
+        <v>1544.88218821478</v>
       </c>
       <c r="C22">
-        <v>23.613685653974</v>
+        <v>23.7514001964247</v>
       </c>
       <c r="D22">
-        <v>30.6406441013071</v>
+        <v>33.9873291713745</v>
       </c>
       <c r="E22">
-        <v>51.6188594073195</v>
+        <v>29.8825313451405</v>
       </c>
       <c r="F22">
-        <v>3.06994642756253</v>
+        <v>3.2036415010367</v>
       </c>
       <c r="G22">
-        <v>25.2691895979508</v>
+        <v>26.3008646013809</v>
       </c>
       <c r="H22">
-        <v>25.1464191309352</v>
+        <v>30.2721194269334</v>
       </c>
       <c r="I22">
-        <v>9.94336630520259</v>
+        <v>9.312302369420699</v>
       </c>
       <c r="J22">
-        <v>56.7706752336219</v>
+        <v>53.7163888254572</v>
       </c>
       <c r="K22">
-        <v>32.6421681076872</v>
+        <v>43.846641860369</v>
       </c>
       <c r="L22">
-        <v>131.248265521211</v>
+        <v>119.729691730595</v>
       </c>
       <c r="M22">
-        <v>20.7964948314281</v>
+        <v>17.1385471309188</v>
       </c>
       <c r="N22">
-        <v>60.4352831577742</v>
+        <v>68.5717960978008</v>
       </c>
       <c r="O22">
-        <v>2476.32000176396</v>
+        <v>2528.87270121905</v>
       </c>
       <c r="P22">
-        <v>14.6578542388388</v>
+        <v>17.914439721863</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2623.79930060924</v>
+        <v>2515.56015350326</v>
       </c>
       <c r="C23">
-        <v>50.0085290471944</v>
+        <v>53.8592042860976</v>
       </c>
       <c r="D23">
-        <v>12.1353620520451</v>
+        <v>17.1482812411538</v>
       </c>
       <c r="E23">
-        <v>76.4369184085855</v>
+        <v>69.19019194954571</v>
       </c>
       <c r="F23">
-        <v>14.573150013935</v>
+        <v>6.08522626346709</v>
       </c>
       <c r="G23">
-        <v>53.0991452692465</v>
+        <v>62.0857857198737</v>
       </c>
       <c r="H23">
-        <v>65.5309908624133</v>
+        <v>65.57182593360299</v>
       </c>
       <c r="I23">
-        <v>21.8048476924816</v>
+        <v>24.139420789026</v>
       </c>
       <c r="J23">
-        <v>167.509585639194</v>
+        <v>172.828264464385</v>
       </c>
       <c r="K23">
-        <v>115.604514382468</v>
+        <v>130.873906735246</v>
       </c>
       <c r="L23">
-        <v>44.9765660686425</v>
+        <v>49.431296901766</v>
       </c>
       <c r="M23">
-        <v>501.082583579269</v>
+        <v>499.101094996735</v>
       </c>
       <c r="N23">
-        <v>76.3177107727182</v>
+        <v>82.3354091115789</v>
       </c>
       <c r="O23">
-        <v>3117.65672515406</v>
+        <v>3194.58509326138</v>
       </c>
       <c r="P23">
-        <v>68.9316301281216</v>
+        <v>65.46668292658801</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>1026.06816670661</v>
+        <v>965.319374083876</v>
       </c>
       <c r="C24">
-        <v>70.35265585192011</v>
+        <v>64.13783315754149</v>
       </c>
       <c r="D24">
-        <v>9.16484323767407</v>
+        <v>9.46709845452407</v>
       </c>
       <c r="E24">
-        <v>71.2890224298627</v>
+        <v>65.5986582964659</v>
       </c>
       <c r="F24">
-        <v>13.5216366958922</v>
+        <v>18.876260992532</v>
       </c>
       <c r="G24">
-        <v>14.5784379607014</v>
+        <v>17.6342414245254</v>
       </c>
       <c r="H24">
-        <v>21.4129464289962</v>
+        <v>24.7423832924703</v>
       </c>
       <c r="I24">
-        <v>15.7707265671528</v>
+        <v>11.7303574225691</v>
       </c>
       <c r="J24">
-        <v>61.6627314018898</v>
+        <v>52.1192667941128</v>
       </c>
       <c r="K24">
-        <v>53.8774497630897</v>
+        <v>63.3030919576005</v>
       </c>
       <c r="L24">
-        <v>75.5817424692742</v>
+        <v>73.6137934527503</v>
       </c>
       <c r="M24">
-        <v>31.4570397592399</v>
+        <v>19.8060302638934</v>
       </c>
       <c r="N24">
-        <v>56.2230279771898</v>
+        <v>57.2296936788257</v>
       </c>
       <c r="O24">
-        <v>1815.49633055956</v>
+        <v>1893.85350084902</v>
       </c>
       <c r="P24">
-        <v>118.415393486934</v>
+        <v>121.464921930587</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>842.975472663542</v>
+        <v>819.361685568271</v>
       </c>
       <c r="C25">
-        <v>30.8734003151642</v>
+        <v>34.8802978921328</v>
       </c>
       <c r="D25">
-        <v>24.584831226367</v>
+        <v>22.1132293174167</v>
       </c>
       <c r="E25">
-        <v>35.9772636792182</v>
+        <v>34.1142444962859</v>
       </c>
       <c r="F25">
-        <v>14.2869146959309</v>
+        <v>15.9437106986648</v>
       </c>
       <c r="G25">
-        <v>8.855387983402821</v>
+        <v>10.5650485267734</v>
       </c>
       <c r="H25">
-        <v>14.9934543449578</v>
+        <v>15.8820400313231</v>
       </c>
       <c r="I25">
-        <v>5.69451646419467</v>
+        <v>6.2477904526324</v>
       </c>
       <c r="J25">
-        <v>19.1094160386765</v>
+        <v>22.3332076505974</v>
       </c>
       <c r="K25">
-        <v>16.2587897239671</v>
+        <v>18.1024381564146</v>
       </c>
       <c r="L25">
-        <v>25.6581238919429</v>
+        <v>30.4655493402476</v>
       </c>
       <c r="M25">
-        <v>26.7831306258648</v>
+        <v>28.1639096246551</v>
       </c>
       <c r="N25">
-        <v>49.2038418882538</v>
+        <v>40.2999623135807</v>
       </c>
       <c r="O25">
-        <v>797.038905509054</v>
+        <v>812.327901461012</v>
       </c>
       <c r="P25">
-        <v>40.0694031425626</v>
+        <v>37.1013942483739</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1424.21425909605</v>
+        <v>1404.30207539669</v>
       </c>
       <c r="C26">
-        <v>63.7959058234835</v>
+        <v>55.0129243625152</v>
       </c>
       <c r="D26">
-        <v>23.4334310182687</v>
+        <v>12.8124515860356</v>
       </c>
       <c r="E26">
-        <v>54.8140213126921</v>
+        <v>51.346093549854</v>
       </c>
       <c r="F26">
-        <v>12.1412341870015</v>
+        <v>4.57206706247266</v>
       </c>
       <c r="G26">
-        <v>29.6239186749363</v>
+        <v>34.6590182828126</v>
       </c>
       <c r="H26">
-        <v>19.3957049862837</v>
+        <v>22.2845711501479</v>
       </c>
       <c r="I26">
-        <v>14.532718810143</v>
+        <v>17.4975756934758</v>
       </c>
       <c r="J26">
-        <v>64.49063855461129</v>
+        <v>62.3918413472099</v>
       </c>
       <c r="K26">
-        <v>40.5446780896939</v>
+        <v>45.5976565012519</v>
       </c>
       <c r="L26">
-        <v>47.8911281479987</v>
+        <v>35.7439971625515</v>
       </c>
       <c r="M26">
-        <v>82.4103991798448</v>
+        <v>84.6766328464665</v>
       </c>
       <c r="N26">
-        <v>42.1130587599138</v>
+        <v>41.7826121098351</v>
       </c>
       <c r="O26">
-        <v>1946.01632541839</v>
+        <v>1990.21194105192</v>
       </c>
       <c r="P26">
-        <v>78.2578219512565</v>
+        <v>74.4942309179709</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>236.437277545121</v>
+        <v>232.319952042806</v>
       </c>
       <c r="C27">
-        <v>2.90735063878525</v>
+        <v>3.03794868689909</v>
       </c>
       <c r="D27">
-        <v>1.107301677398</v>
+        <v>1.42417668957685</v>
       </c>
       <c r="E27">
-        <v>9.48444525614859</v>
+        <v>9.666344511060791</v>
       </c>
       <c r="F27">
-        <v>7.50105228888861</v>
+        <v>7.48656715774846</v>
       </c>
       <c r="G27">
-        <v>0.810220739559513</v>
+        <v>0.793770340670269</v>
       </c>
       <c r="H27">
-        <v>0.324088295823806</v>
+        <v>0.374096136489961</v>
       </c>
       <c r="I27">
-        <v>1.29165544205191</v>
+        <v>0.7576415830414081</v>
       </c>
       <c r="J27">
-        <v>4.07986548270225</v>
+        <v>3.49903509834721</v>
       </c>
       <c r="K27">
-        <v>1.107301677398</v>
+        <v>1.27947257450495</v>
       </c>
       <c r="L27">
-        <v>1.41758852919203</v>
+        <v>1.72271802746984</v>
       </c>
       <c r="M27">
-        <v>0.891242813515466</v>
+        <v>1.12220530502504</v>
       </c>
       <c r="N27">
-        <v>4.38650729104747</v>
+        <v>4.50016035653601</v>
       </c>
       <c r="O27">
-        <v>323.64857252263</v>
+        <v>330.418203672029</v>
       </c>
       <c r="P27">
-        <v>43.9378164068672</v>
+        <v>46.0316098430683</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>373.379965977351</v>
+        <v>362.903073509788</v>
       </c>
       <c r="C28">
-        <v>33.297236708507</v>
+        <v>30.0794152979678</v>
       </c>
       <c r="D28">
-        <v>1.98584174192318</v>
+        <v>1.84673167033081</v>
       </c>
       <c r="E28">
-        <v>9.229968659642919</v>
+        <v>7.27399572347698</v>
       </c>
       <c r="F28">
-        <v>2.1570555915145</v>
+        <v>2.33737649393547</v>
       </c>
       <c r="G28">
-        <v>4.5310755238247</v>
+        <v>5.19674401633004</v>
       </c>
       <c r="H28">
-        <v>6.60082607174464</v>
+        <v>6.15340541480845</v>
       </c>
       <c r="I28">
-        <v>4.42464446102308</v>
+        <v>4.37758949059213</v>
       </c>
       <c r="J28">
-        <v>15.0188050099794</v>
+        <v>15.3802494064079</v>
       </c>
       <c r="K28">
-        <v>17.5232418512359</v>
+        <v>16.5621583911897</v>
       </c>
       <c r="L28">
-        <v>14.699993820716</v>
+        <v>8.96015222314875</v>
       </c>
       <c r="M28">
-        <v>9.70545189362455</v>
+        <v>9.84747354245614</v>
       </c>
       <c r="N28">
-        <v>10.9507899966617</v>
+        <v>11.7613216858026</v>
       </c>
       <c r="O28">
-        <v>604.994606440221</v>
+        <v>626.894984419775</v>
       </c>
       <c r="P28">
-        <v>88.4620099530306</v>
+        <v>89.14799345938999</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>524.322587124133</v>
+        <v>490.284516173207</v>
       </c>
       <c r="C29">
-        <v>4.71632501232807</v>
+        <v>8.710842867835041</v>
       </c>
       <c r="D29">
-        <v>1.58079138934806</v>
+        <v>3.93058842651958</v>
       </c>
       <c r="E29">
-        <v>7.1001647148684</v>
+        <v>4.51261895827047</v>
       </c>
       <c r="F29">
-        <v>17.0109432381782</v>
+        <v>15.6032515757755</v>
       </c>
       <c r="G29">
-        <v>2.08985980286692</v>
+        <v>1.59833902079804</v>
       </c>
       <c r="H29">
-        <v>2.89365203473882</v>
+        <v>2.45686616556934</v>
       </c>
       <c r="I29">
-        <v>3.72014995987059</v>
+        <v>5.63095601280168</v>
       </c>
       <c r="J29">
-        <v>6.91261319409829</v>
+        <v>6.37461084416991</v>
       </c>
       <c r="K29">
-        <v>3.2500513085797</v>
+        <v>4.01789743698615</v>
       </c>
       <c r="L29">
-        <v>5.78730406947764</v>
+        <v>6.0543392958547</v>
       </c>
       <c r="M29">
-        <v>3.50989274584061</v>
+        <v>3.45849842449226</v>
       </c>
       <c r="N29">
-        <v>10.958178792955</v>
+        <v>12.7916569129368</v>
       </c>
       <c r="O29">
-        <v>794.017980777218</v>
+        <v>808.617044931938</v>
       </c>
       <c r="P29">
-        <v>5.48019937270898</v>
+        <v>4.30258791199686</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>268.659566186702</v>
+        <v>275.058067088808</v>
       </c>
       <c r="C30">
-        <v>3.7151910518131</v>
+        <v>4.17334160365738</v>
       </c>
       <c r="D30">
-        <v>5.69267160593305</v>
+        <v>6.36149347321684</v>
       </c>
       <c r="E30">
-        <v>16.7404284692661</v>
+        <v>13.7269169459217</v>
       </c>
       <c r="F30">
-        <v>0.837226152521261</v>
+        <v>0.516583450400315</v>
       </c>
       <c r="G30">
-        <v>3.97682422447599</v>
+        <v>4.53155126978047</v>
       </c>
       <c r="H30">
-        <v>5.28499008779046</v>
+        <v>4.08844435492524</v>
       </c>
       <c r="I30">
-        <v>2.63741272155817</v>
+        <v>2.13167209506902</v>
       </c>
       <c r="J30">
-        <v>19.3637559252424</v>
+        <v>17.975286460295</v>
       </c>
       <c r="K30">
-        <v>11.5077084652904</v>
+        <v>12.934231085888</v>
       </c>
       <c r="L30">
-        <v>36.5217666262973</v>
+        <v>34.4738566323208</v>
       </c>
       <c r="M30">
-        <v>8.36641193523066</v>
+        <v>9.11630783162896</v>
       </c>
       <c r="N30">
-        <v>16.0486025969947</v>
+        <v>18.1593590985386</v>
       </c>
       <c r="O30">
-        <v>470.558300485139</v>
+        <v>466.386148200893</v>
       </c>
       <c r="P30">
-        <v>8.19582889557212</v>
+        <v>8.031163135043229</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2290.18567951863</v>
+        <v>2254.64291392115</v>
       </c>
       <c r="C31">
-        <v>45.7147469830405</v>
+        <v>39.6803313134312</v>
       </c>
       <c r="D31">
-        <v>37.6834943549045</v>
+        <v>44.8510784416309</v>
       </c>
       <c r="E31">
-        <v>57.2654628999514</v>
+        <v>28.4460045060653</v>
       </c>
       <c r="F31">
-        <v>9.59071043699279</v>
+        <v>10.2637544085576</v>
       </c>
       <c r="G31">
-        <v>132.635571217118</v>
+        <v>134.495792770639</v>
       </c>
       <c r="H31">
-        <v>27.0322211829108</v>
+        <v>28.4451881677566</v>
       </c>
       <c r="I31">
-        <v>19.5776976371577</v>
+        <v>19.0986811857357</v>
       </c>
       <c r="J31">
-        <v>47.5220423150126</v>
+        <v>44.3408281301882</v>
       </c>
       <c r="K31">
-        <v>34.427112086582</v>
+        <v>41.8671534895508</v>
       </c>
       <c r="L31">
-        <v>77.05517949134899</v>
+        <v>50.2835892633015</v>
       </c>
       <c r="M31">
-        <v>24.3295162261738</v>
+        <v>26.0319816177245</v>
       </c>
       <c r="N31">
-        <v>55.1991335121423</v>
+        <v>64.34757873119911</v>
       </c>
       <c r="O31">
-        <v>3156.73695019912</v>
+        <v>3233.30119393109</v>
       </c>
       <c r="P31">
-        <v>13.9957460446814</v>
+        <v>11.8850775330884</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>535.210881379107</v>
+        <v>534.337352502242</v>
       </c>
       <c r="C32">
-        <v>5.2927536002623</v>
+        <v>4.88788398168611</v>
       </c>
       <c r="D32">
-        <v>1.40076442796494</v>
+        <v>3.62903499804515</v>
       </c>
       <c r="E32">
-        <v>5.66023177014404</v>
+        <v>1.91223728358951</v>
       </c>
       <c r="F32">
-        <v>20.3467031561649</v>
+        <v>21.0375788081594</v>
       </c>
       <c r="G32">
-        <v>1.88674392338135</v>
+        <v>1.84519898347793</v>
       </c>
       <c r="H32">
-        <v>0.524401467396158</v>
+        <v>1.1198445284868</v>
       </c>
       <c r="I32">
-        <v>3.40185646791486</v>
+        <v>3.03404172897231</v>
       </c>
       <c r="J32">
-        <v>4.28805437132124</v>
+        <v>1.63022854257923</v>
       </c>
       <c r="K32">
-        <v>2.02967906909206</v>
+        <v>3.38646793235663</v>
       </c>
       <c r="L32">
-        <v>15.648943624817</v>
+        <v>15.0589961662721</v>
       </c>
       <c r="M32">
-        <v>5.04874890023626</v>
+        <v>4.67922792518392</v>
       </c>
       <c r="N32">
-        <v>10.1761435127955</v>
+        <v>8.98315906666461</v>
       </c>
       <c r="O32">
-        <v>628.553044307995</v>
+        <v>634.621169082619</v>
       </c>
       <c r="P32">
-        <v>22.7833922191006</v>
+        <v>28.8765651729043</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5660.36608763579</v>
+        <v>5589.97546901713</v>
       </c>
       <c r="C33">
-        <v>84.0787525248851</v>
+        <v>72.48736483543929</v>
       </c>
       <c r="D33">
-        <v>105.19964834299</v>
+        <v>125.041895153689</v>
       </c>
       <c r="E33">
-        <v>117.237889974072</v>
+        <v>98.2296512131627</v>
       </c>
       <c r="F33">
-        <v>11.4858114115414</v>
+        <v>9.928952017336581</v>
       </c>
       <c r="G33">
-        <v>85.7774045270972</v>
+        <v>78.12489309174561</v>
       </c>
       <c r="H33">
-        <v>39.3060262232361</v>
+        <v>46.6311758708005</v>
       </c>
       <c r="I33">
-        <v>38.2975515067468</v>
+        <v>37.8989733834845</v>
       </c>
       <c r="J33">
-        <v>111.668097052595</v>
+        <v>117.319635584273</v>
       </c>
       <c r="K33">
-        <v>124.937545868831</v>
+        <v>119.933848618635</v>
       </c>
       <c r="L33">
-        <v>148.782127064519</v>
+        <v>136.434352068232</v>
       </c>
       <c r="M33">
-        <v>81.1445005413913</v>
+        <v>78.2634518506473</v>
       </c>
       <c r="N33">
-        <v>119.998389112739</v>
+        <v>150.016065791081</v>
       </c>
       <c r="O33">
-        <v>6811.22927251841</v>
+        <v>6902.19278210872</v>
       </c>
       <c r="P33">
-        <v>85.6346899810172</v>
+        <v>82.8337049410402</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2063.37630412633</v>
+        <v>2024.45460975563</v>
       </c>
       <c r="C34">
-        <v>71.3801109233319</v>
+        <v>68.2446667848678</v>
       </c>
       <c r="D34">
-        <v>203.70506241507</v>
+        <v>209.643964764416</v>
       </c>
       <c r="E34">
-        <v>84.5421024014012</v>
+        <v>82.097277149229</v>
       </c>
       <c r="F34">
-        <v>7.77652567832393</v>
+        <v>6.82856211037978</v>
       </c>
       <c r="G34">
-        <v>60.2681961629632</v>
+        <v>65.21497773232311</v>
       </c>
       <c r="H34">
-        <v>39.4095521352304</v>
+        <v>44.286186782073</v>
       </c>
       <c r="I34">
-        <v>26.4254980116568</v>
+        <v>27.0347919838641</v>
       </c>
       <c r="J34">
-        <v>61.4494282921445</v>
+        <v>58.0867487546623</v>
       </c>
       <c r="K34">
-        <v>52.0051735256176</v>
+        <v>55.8585878131014</v>
       </c>
       <c r="L34">
-        <v>101.983172217055</v>
+        <v>103.335162235777</v>
       </c>
       <c r="M34">
-        <v>58.4007712940422</v>
+        <v>48.2335465533605</v>
       </c>
       <c r="N34">
-        <v>119.550976327217</v>
+        <v>128.615010161846</v>
       </c>
       <c r="O34">
-        <v>2637.74001908045</v>
+        <v>2661.68837635538</v>
       </c>
       <c r="P34">
-        <v>63.9996827682383</v>
+        <v>66.8225840894099</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>153.122223561288</v>
+        <v>152.742827368269</v>
       </c>
       <c r="C35">
-        <v>6.99960313538181</v>
+        <v>5.70249468994793</v>
       </c>
       <c r="D35">
-        <v>0.344662513262311</v>
+        <v>0.768043692831215</v>
       </c>
       <c r="E35">
-        <v>2.00846651823076</v>
+        <v>1.67385719988439</v>
       </c>
       <c r="F35">
-        <v>6.33332351297563</v>
+        <v>5.41718918643267</v>
       </c>
       <c r="G35">
-        <v>0.545715645998659</v>
+        <v>0.436237443925945</v>
       </c>
       <c r="H35">
-        <v>0.373384389367503</v>
+        <v>0.56939925888767</v>
       </c>
       <c r="I35">
-        <v>0.9527878567183941</v>
+        <v>0.754181638875788</v>
       </c>
       <c r="J35">
-        <v>2.38391571673098</v>
+        <v>1.75617336543737</v>
       </c>
       <c r="K35">
-        <v>6.34509658827602</v>
+        <v>6.14022902778686</v>
       </c>
       <c r="L35">
-        <v>2.08555577689124</v>
+        <v>2.36678415118449</v>
       </c>
       <c r="M35">
-        <v>2.3264719645206</v>
+        <v>1.64155817663478</v>
       </c>
       <c r="N35">
-        <v>2.24030633620502</v>
+        <v>2.20987912027402</v>
       </c>
       <c r="O35">
-        <v>227.020643055142</v>
+        <v>232.974025002394</v>
       </c>
       <c r="P35">
-        <v>40.996281978606</v>
+        <v>40.9532403923064</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2957.12331595078</v>
+        <v>2884.98678462002</v>
       </c>
       <c r="C36">
-        <v>73.893659569322</v>
+        <v>66.8292274862649</v>
       </c>
       <c r="D36">
-        <v>20.5817309012614</v>
+        <v>25.8194837289982</v>
       </c>
       <c r="E36">
-        <v>109.857681750138</v>
+        <v>98.2435447007644</v>
       </c>
       <c r="F36">
-        <v>26.6224944879871</v>
+        <v>32.5399724058957</v>
       </c>
       <c r="G36">
-        <v>82.1384895373514</v>
+        <v>80.74064480343409</v>
       </c>
       <c r="H36">
-        <v>109.530257308771</v>
+        <v>114.521134620563</v>
       </c>
       <c r="I36">
-        <v>56.002187339254</v>
+        <v>47.5360257729671</v>
       </c>
       <c r="J36">
-        <v>257.718432783215</v>
+        <v>259.294578043295</v>
       </c>
       <c r="K36">
-        <v>136.291066407803</v>
+        <v>138.104896658276</v>
       </c>
       <c r="L36">
-        <v>107.939847877058</v>
+        <v>105.180147867498</v>
       </c>
       <c r="M36">
-        <v>246.56000976142</v>
+        <v>241.920883333862</v>
       </c>
       <c r="N36">
-        <v>90.73517832638839</v>
+        <v>84.1095832380863</v>
       </c>
       <c r="O36">
-        <v>3743.06364061372</v>
+        <v>3831.03255752512</v>
       </c>
       <c r="P36">
-        <v>55.1402610062578</v>
+        <v>68.7116687396952</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>956.304537268574</v>
+        <v>943.126460653123</v>
       </c>
       <c r="C37">
-        <v>24.2393574989215</v>
+        <v>20.5143231778939</v>
       </c>
       <c r="D37">
-        <v>9.065075640448351</v>
+        <v>12.7145649920005</v>
       </c>
       <c r="E37">
-        <v>19.6767659991722</v>
+        <v>19.9965127533791</v>
       </c>
       <c r="F37">
-        <v>45.8936851179323</v>
+        <v>42.8663351273467</v>
       </c>
       <c r="G37">
-        <v>5.88082438699973</v>
+        <v>4.76959697563197</v>
       </c>
       <c r="H37">
-        <v>19.7156966004154</v>
+        <v>19.0339390574221</v>
       </c>
       <c r="I37">
-        <v>12.0557465190741</v>
+        <v>11.9389102778839</v>
       </c>
       <c r="J37">
-        <v>37.3440587990456</v>
+        <v>31.5713110427579</v>
       </c>
       <c r="K37">
-        <v>27.7107874725697</v>
+        <v>28.3163446965289</v>
       </c>
       <c r="L37">
-        <v>22.3038821434433</v>
+        <v>27.4465125119526</v>
       </c>
       <c r="M37">
-        <v>33.2852026406681</v>
+        <v>29.9170427727453</v>
       </c>
       <c r="N37">
-        <v>15.4048911991164</v>
+        <v>16.2890164650484</v>
       </c>
       <c r="O37">
-        <v>1122.15972288507</v>
+        <v>1135.38826044063</v>
       </c>
       <c r="P37">
-        <v>54.5249443066834</v>
+        <v>67.6782769488341</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>921.776296338793</v>
+        <v>890.557736915125</v>
       </c>
       <c r="C38">
-        <v>25.4527235060934</v>
+        <v>28.5018733898785</v>
       </c>
       <c r="D38">
-        <v>8.84399013701737</v>
+        <v>10.2654807441475</v>
       </c>
       <c r="E38">
-        <v>67.8227110839654</v>
+        <v>55.6393863624892</v>
       </c>
       <c r="F38">
-        <v>2.68417554463012</v>
+        <v>1.72744439461247</v>
       </c>
       <c r="G38">
-        <v>5.61236704786299</v>
+        <v>7.32480014255051</v>
       </c>
       <c r="H38">
-        <v>5.51661429503682</v>
+        <v>6.28449659363253</v>
       </c>
       <c r="I38">
-        <v>6.39864069224959</v>
+        <v>6.80497828083637</v>
       </c>
       <c r="J38">
-        <v>28.409290403745</v>
+        <v>27.3956329534381</v>
       </c>
       <c r="K38">
-        <v>12.9975548524108</v>
+        <v>16.7268763141591</v>
       </c>
       <c r="L38">
-        <v>55.3506118106698</v>
+        <v>53.127101026593</v>
       </c>
       <c r="M38">
-        <v>22.6462297647594</v>
+        <v>24.8215186181555</v>
       </c>
       <c r="N38">
-        <v>20.8105544883048</v>
+        <v>24.7431980433374</v>
       </c>
       <c r="O38">
-        <v>1188.11316097083</v>
+        <v>1219.75398395859</v>
       </c>
       <c r="P38">
-        <v>66.67265784912119</v>
+        <v>71.8173763317548</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3462.13158179946</v>
+        <v>3383.96484229163</v>
       </c>
       <c r="C39">
-        <v>100.099636656188</v>
+        <v>103.970984201973</v>
       </c>
       <c r="D39">
-        <v>67.7723271894735</v>
+        <v>60.0522126418312</v>
       </c>
       <c r="E39">
-        <v>139.508171761355</v>
+        <v>122.658698068802</v>
       </c>
       <c r="F39">
-        <v>37.8324957712047</v>
+        <v>33.5106784815058</v>
       </c>
       <c r="G39">
-        <v>95.6521944152553</v>
+        <v>99.3451907293109</v>
       </c>
       <c r="H39">
-        <v>55.6857336397191</v>
+        <v>54.8391140637295</v>
       </c>
       <c r="I39">
-        <v>53.2920955715078</v>
+        <v>59.173838094999</v>
       </c>
       <c r="J39">
-        <v>210.421103156878</v>
+        <v>202.306510171919</v>
       </c>
       <c r="K39">
-        <v>98.3874314296141</v>
+        <v>117.78919141528</v>
       </c>
       <c r="L39">
-        <v>120.94745792293</v>
+        <v>121.453283151023</v>
       </c>
       <c r="M39">
-        <v>71.28499813066129</v>
+        <v>75.37091670987</v>
       </c>
       <c r="N39">
-        <v>96.79494527988621</v>
+        <v>97.9490788793721</v>
       </c>
       <c r="O39">
-        <v>4101.38629775555</v>
+        <v>4186.54607025351</v>
       </c>
       <c r="P39">
-        <v>85.0703903417096</v>
+        <v>79.81928229436851</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>278.988994631404</v>
+        <v>281.40581312288</v>
       </c>
       <c r="C40">
-        <v>3.74572973444533</v>
+        <v>3.23395315816112</v>
       </c>
       <c r="D40">
-        <v>8.81388035243994</v>
+        <v>10.0167641000771</v>
       </c>
       <c r="E40">
-        <v>8.042874088246361</v>
+        <v>3.59944110415195</v>
       </c>
       <c r="F40">
-        <v>0.465064147959824</v>
+        <v>0.861714744400059</v>
       </c>
       <c r="G40">
-        <v>4.71851148576246</v>
+        <v>2.71834286408202</v>
       </c>
       <c r="H40">
-        <v>5.29586342632821</v>
+        <v>8.131273832844959</v>
       </c>
       <c r="I40">
-        <v>1.72347301890993</v>
+        <v>1.68977217104016</v>
       </c>
       <c r="J40">
-        <v>13.099459778982</v>
+        <v>10.4318105631293</v>
       </c>
       <c r="K40">
-        <v>4.60284665027197</v>
+        <v>6.02218758664491</v>
       </c>
       <c r="L40">
-        <v>15.6537294805319</v>
+        <v>14.083509601083</v>
       </c>
       <c r="M40">
-        <v>5.21990146300228</v>
+        <v>8.0156877695505</v>
       </c>
       <c r="N40">
-        <v>21.2415719278303</v>
+        <v>25.9507455887512</v>
       </c>
       <c r="O40">
-        <v>368.464872387554</v>
+        <v>366.223065962216</v>
       </c>
       <c r="P40">
-        <v>2.54417445648609</v>
+        <v>2.71327619903011</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1079.712555771</v>
+        <v>1056.66010506462</v>
       </c>
       <c r="C41">
-        <v>21.5314790106959</v>
+        <v>16.636928978128</v>
       </c>
       <c r="D41">
-        <v>106.848479551528</v>
+        <v>101.640950327688</v>
       </c>
       <c r="E41">
-        <v>45.8282125421545</v>
+        <v>47.336941190174</v>
       </c>
       <c r="F41">
-        <v>3.27234483048891</v>
+        <v>3.44686542399255</v>
       </c>
       <c r="G41">
-        <v>26.4526687425988</v>
+        <v>32.2882542452764</v>
       </c>
       <c r="H41">
-        <v>33.1510982428715</v>
+        <v>34.852457048676</v>
       </c>
       <c r="I41">
-        <v>11.7144445192292</v>
+        <v>8.290613588347361</v>
       </c>
       <c r="J41">
-        <v>46.9725450434722</v>
+        <v>45.0727526924698</v>
       </c>
       <c r="K41">
-        <v>34.9792513695936</v>
+        <v>45.1367603753907</v>
       </c>
       <c r="L41">
-        <v>30.9532980893289</v>
+        <v>25.4815060428755</v>
       </c>
       <c r="M41">
-        <v>36.6125204980666</v>
+        <v>33.1956237491058</v>
       </c>
       <c r="N41">
-        <v>20.9906498975394</v>
+        <v>20.0115826004126</v>
       </c>
       <c r="O41">
-        <v>1276.99053695048</v>
+        <v>1305.80048049842</v>
       </c>
       <c r="P41">
-        <v>22.7661585382787</v>
+        <v>19.5123362862165</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>170.483941419382</v>
+        <v>165.493877079849</v>
       </c>
       <c r="C42">
-        <v>7.92233202990796</v>
+        <v>8.39894565642096</v>
       </c>
       <c r="D42">
-        <v>1.26729677473488</v>
+        <v>1.48424168620316</v>
       </c>
       <c r="E42">
-        <v>4.90793203054646</v>
+        <v>4.48952452664406</v>
       </c>
       <c r="F42">
-        <v>1.90245904498435</v>
+        <v>1.56914587445537</v>
       </c>
       <c r="G42">
-        <v>0.937032066932591</v>
+        <v>1.33454837887046</v>
       </c>
       <c r="H42">
-        <v>1.44814046707764</v>
+        <v>1.66151791112374</v>
       </c>
       <c r="I42">
-        <v>1.10740153364761</v>
+        <v>1.27296846257845</v>
       </c>
       <c r="J42">
-        <v>3.79930086748438</v>
+        <v>4.07598957718823</v>
       </c>
       <c r="K42">
-        <v>5.56982670515356</v>
+        <v>7.38757687918445</v>
       </c>
       <c r="L42">
-        <v>7.04149506606978</v>
+        <v>6.76065520921003</v>
       </c>
       <c r="M42">
-        <v>3.44459042158219</v>
+        <v>2.96050100719039</v>
       </c>
       <c r="N42">
-        <v>7.28953710846911</v>
+        <v>7.11462718635901</v>
       </c>
       <c r="O42">
-        <v>263.449240976964</v>
+        <v>269.687967335961</v>
       </c>
       <c r="P42">
-        <v>47.1370011830504</v>
+        <v>42.9183599437931</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1551.75011325723</v>
+        <v>1495.47467444252</v>
       </c>
       <c r="C43">
-        <v>42.7781315682988</v>
+        <v>45.7118197925478</v>
       </c>
       <c r="D43">
-        <v>54.4402247173622</v>
+        <v>48.6185448235179</v>
       </c>
       <c r="E43">
-        <v>70.54461903058279</v>
+        <v>67.32295953739759</v>
       </c>
       <c r="F43">
-        <v>7.47146358200763</v>
+        <v>9.22425663018578</v>
       </c>
       <c r="G43">
-        <v>34.2121352024996</v>
+        <v>34.6000702615428</v>
       </c>
       <c r="H43">
-        <v>35.5112925367535</v>
+        <v>38.5900155169975</v>
       </c>
       <c r="I43">
-        <v>18.1556099415302</v>
+        <v>20.0519515055488</v>
       </c>
       <c r="J43">
-        <v>65.8419505736934</v>
+        <v>69.8627923894994</v>
       </c>
       <c r="K43">
-        <v>50.7868154019776</v>
+        <v>45.8165341242088</v>
       </c>
       <c r="L43">
-        <v>54.0777757112036</v>
+        <v>58.1695732448723</v>
       </c>
       <c r="M43">
-        <v>101.150963341848</v>
+        <v>94.4949730567195</v>
       </c>
       <c r="N43">
-        <v>65.15772655254609</v>
+        <v>79.0734387248735</v>
       </c>
       <c r="O43">
-        <v>1859.11487985734</v>
+        <v>1903.95525866702</v>
       </c>
       <c r="P43">
-        <v>37.2060609326077</v>
+        <v>42.7871862789049</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>5439.78606223552</v>
+        <v>5313.34162851414</v>
       </c>
       <c r="C44">
-        <v>118.300693663591</v>
+        <v>137.192885550953</v>
       </c>
       <c r="D44">
-        <v>59.3629408641523</v>
+        <v>65.9008014329693</v>
       </c>
       <c r="E44">
-        <v>114.93574617293</v>
+        <v>99.9980660822017</v>
       </c>
       <c r="F44">
-        <v>218.7852500086</v>
+        <v>205.071901431367</v>
       </c>
       <c r="G44">
-        <v>122.524156195361</v>
+        <v>112.552274157002</v>
       </c>
       <c r="H44">
-        <v>60.5681041435466</v>
+        <v>63.3048141000119</v>
       </c>
       <c r="I44">
-        <v>47.4797051441366</v>
+        <v>47.7100279953352</v>
       </c>
       <c r="J44">
-        <v>147.753864400582</v>
+        <v>144.186016903496</v>
       </c>
       <c r="K44">
-        <v>101.440704211175</v>
+        <v>123.375029253092</v>
       </c>
       <c r="L44">
-        <v>242.227815336318</v>
+        <v>250.031675642283</v>
       </c>
       <c r="M44">
-        <v>126.683163473018</v>
+        <v>129.783444391738</v>
       </c>
       <c r="N44">
-        <v>99.0474040557819</v>
+        <v>98.17616251179391</v>
       </c>
       <c r="O44">
-        <v>7094.80532903331</v>
+        <v>7160.53542400557</v>
       </c>
       <c r="P44">
-        <v>201.910275446523</v>
+        <v>230.131511874129</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>492.200222252935</v>
+        <v>483.545385660752</v>
       </c>
       <c r="C45">
-        <v>16.8997062585842</v>
+        <v>17.5352201782188</v>
       </c>
       <c r="D45">
-        <v>3.82177919982492</v>
+        <v>3.95306088952083</v>
       </c>
       <c r="E45">
-        <v>15.4124210353595</v>
+        <v>10.3277394982063</v>
       </c>
       <c r="F45">
-        <v>20.092487843143</v>
+        <v>18.7530737986743</v>
       </c>
       <c r="G45">
-        <v>9.49179588153237</v>
+        <v>7.90771243861635</v>
       </c>
       <c r="H45">
-        <v>2.78801925233129</v>
+        <v>3.70586786874662</v>
       </c>
       <c r="I45">
-        <v>5.54471244564762</v>
+        <v>6.88221900520305</v>
       </c>
       <c r="J45">
-        <v>19.6579099013382</v>
+        <v>15.4960638090014</v>
       </c>
       <c r="K45">
-        <v>6.07725544890192</v>
+        <v>10.8299030237316</v>
       </c>
       <c r="L45">
-        <v>20.7754264278003</v>
+        <v>22.0850320890232</v>
       </c>
       <c r="M45">
-        <v>26.208113604809</v>
+        <v>28.744517884914</v>
       </c>
       <c r="N45">
-        <v>27.9719731713137</v>
+        <v>23.9726436971605</v>
       </c>
       <c r="O45">
-        <v>799.950794220536</v>
+        <v>811.141860490286</v>
       </c>
       <c r="P45">
-        <v>21.5078627923426</v>
+        <v>21.2889869503787</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>138.168806551153</v>
+        <v>137.554121076413</v>
       </c>
       <c r="C46">
-        <v>4.64466969981988</v>
+        <v>4.38546304882534</v>
       </c>
       <c r="D46">
-        <v>2.19731339623192</v>
+        <v>1.88122082295005</v>
       </c>
       <c r="E46">
-        <v>7.81143404997301</v>
+        <v>7.85005468929837</v>
       </c>
       <c r="F46">
-        <v>0.853074612654747</v>
+        <v>0.76058762676277</v>
       </c>
       <c r="G46">
-        <v>1.51326439560535</v>
+        <v>1.1446971898765</v>
       </c>
       <c r="H46">
-        <v>1.4318579579839</v>
+        <v>1.08230051481613</v>
       </c>
       <c r="I46">
-        <v>2.35538824205732</v>
+        <v>2.0360852153874</v>
       </c>
       <c r="J46">
-        <v>4.98241274242224</v>
+        <v>5.07467642281615</v>
       </c>
       <c r="K46">
-        <v>4.59951537493461</v>
+        <v>3.99728241047106</v>
       </c>
       <c r="L46">
-        <v>10.1840139005095</v>
+        <v>10.5331117791567</v>
       </c>
       <c r="M46">
-        <v>4.19295340431404</v>
+        <v>4.20433721539266</v>
       </c>
       <c r="N46">
-        <v>7.02518847908352</v>
+        <v>7.72540679749167</v>
       </c>
       <c r="O46">
-        <v>233.809656272681</v>
+        <v>234.355092797188</v>
       </c>
       <c r="P46">
-        <v>12.5924255717026</v>
+        <v>10.399081981481</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1720.05125229334</v>
+        <v>1716.48064122486</v>
       </c>
       <c r="C47">
-        <v>58.8646094521258</v>
+        <v>56.674678976851</v>
       </c>
       <c r="D47">
-        <v>51.8678077408394</v>
+        <v>45.6018903288753</v>
       </c>
       <c r="E47">
-        <v>66.96847707667619</v>
+        <v>59.1068225055232</v>
       </c>
       <c r="F47">
-        <v>17.798848340913</v>
+        <v>12.0664319116918</v>
       </c>
       <c r="G47">
-        <v>29.7702053881743</v>
+        <v>34.9325851412501</v>
       </c>
       <c r="H47">
-        <v>21.4506450622768</v>
+        <v>25.0258380866805</v>
       </c>
       <c r="I47">
-        <v>14.1368843281893</v>
+        <v>16.612187319064</v>
       </c>
       <c r="J47">
-        <v>40.7774574367436</v>
+        <v>42.7519636491693</v>
       </c>
       <c r="K47">
-        <v>26.9407403587867</v>
+        <v>37.6403352246343</v>
       </c>
       <c r="L47">
-        <v>49.9530670982867</v>
+        <v>51.1700264418613</v>
       </c>
       <c r="M47">
-        <v>72.49908053188921</v>
+        <v>72.6852351315019</v>
       </c>
       <c r="N47">
-        <v>50.683754334965</v>
+        <v>45.6380271040437</v>
       </c>
       <c r="O47">
-        <v>2659.94149707312</v>
+        <v>2652.47716057548</v>
       </c>
       <c r="P47">
-        <v>40.492300445182</v>
+        <v>52.5078039859951</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1507.67555520995</v>
+        <v>1480.8003335895</v>
       </c>
       <c r="C48">
-        <v>39.0900001670685</v>
+        <v>32.1127759255763</v>
       </c>
       <c r="D48">
-        <v>9.027999972532861</v>
+        <v>9.228842322464891</v>
       </c>
       <c r="E48">
-        <v>66.4038994885339</v>
+        <v>65.57343552294169</v>
       </c>
       <c r="F48">
-        <v>7.9344250836397</v>
+        <v>13.6222531925244</v>
       </c>
       <c r="G48">
-        <v>9.03261540663482</v>
+        <v>14.9574817049643</v>
       </c>
       <c r="H48">
-        <v>9.114979680859451</v>
+        <v>10.6219284279612</v>
       </c>
       <c r="I48">
-        <v>9.38952726160823</v>
+        <v>14.6984768444798</v>
       </c>
       <c r="J48">
-        <v>35.7700456081747</v>
+        <v>29.9009252875521</v>
       </c>
       <c r="K48">
-        <v>19.8099041538011</v>
+        <v>18.6714805832445</v>
       </c>
       <c r="L48">
-        <v>44.8994993792092</v>
+        <v>38.265629905979</v>
       </c>
       <c r="M48">
-        <v>132.962560811686</v>
+        <v>143.508809679592</v>
       </c>
       <c r="N48">
-        <v>28.6085052497709</v>
+        <v>19.0480218901932</v>
       </c>
       <c r="O48">
-        <v>2128.69538625744</v>
+        <v>2143.24141908988</v>
       </c>
       <c r="P48">
-        <v>100.839605378255</v>
+        <v>107.673040223662</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>646.527657162387</v>
+        <v>637.047916235294</v>
       </c>
       <c r="C49">
-        <v>7.65384595861698</v>
+        <v>8.626502333274861</v>
       </c>
       <c r="D49">
-        <v>4.03956885638417</v>
+        <v>5.78001702084964</v>
       </c>
       <c r="E49">
-        <v>16.2351309049967</v>
+        <v>13.3112738417239</v>
       </c>
       <c r="F49">
-        <v>28.2304053600716</v>
+        <v>29.8912405867694</v>
       </c>
       <c r="G49">
-        <v>16.7174672491738</v>
+        <v>16.7249513898416</v>
       </c>
       <c r="H49">
-        <v>6.19479346842968</v>
+        <v>5.17089797548013</v>
       </c>
       <c r="I49">
-        <v>7.71034321820085</v>
+        <v>8.369128285472989</v>
       </c>
       <c r="J49">
-        <v>19.9850678063484</v>
+        <v>19.1730682844197</v>
       </c>
       <c r="K49">
-        <v>6.65392073937615</v>
+        <v>8.1367812931625</v>
       </c>
       <c r="L49">
-        <v>3.02856569567673</v>
+        <v>3.68728342018435</v>
       </c>
       <c r="M49">
-        <v>6.98559330880532</v>
+        <v>8.212655470964171</v>
       </c>
       <c r="N49">
-        <v>5.25869134431141</v>
+        <v>3.57717566228965</v>
       </c>
       <c r="O49">
-        <v>562.537095169278</v>
+        <v>573.7163032827179</v>
       </c>
       <c r="P49">
-        <v>10.0436314232433</v>
+        <v>8.121026655993051</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1208.04393448389</v>
+        <v>1173.04459675745</v>
       </c>
       <c r="C50">
-        <v>82.4145229834501</v>
+        <v>89.8052026448818</v>
       </c>
       <c r="D50">
-        <v>15.3048805517573</v>
+        <v>11.9924331563757</v>
       </c>
       <c r="E50">
-        <v>137.510898794431</v>
+        <v>130.325829284106</v>
       </c>
       <c r="F50">
-        <v>4.20492452019271</v>
+        <v>5.18071214178179</v>
       </c>
       <c r="G50">
-        <v>19.7767605089751</v>
+        <v>16.6445836594772</v>
       </c>
       <c r="H50">
-        <v>39.0147979707435</v>
+        <v>29.0148693006929</v>
       </c>
       <c r="I50">
-        <v>18.2072192446207</v>
+        <v>21.7215114697186</v>
       </c>
       <c r="J50">
-        <v>114.060878258564</v>
+        <v>99.0905497763882</v>
       </c>
       <c r="K50">
-        <v>99.7664462239233</v>
+        <v>110.138031835834</v>
       </c>
       <c r="L50">
-        <v>64.46849859183</v>
+        <v>75.0463555882274</v>
       </c>
       <c r="M50">
-        <v>56.8010367499417</v>
+        <v>44.2282443585831</v>
       </c>
       <c r="N50">
-        <v>56.0291641158173</v>
+        <v>63.7606909104822</v>
       </c>
       <c r="O50">
-        <v>1736.77432809496</v>
+        <v>1783.75238015657</v>
       </c>
       <c r="P50">
-        <v>126.645597786215</v>
+        <v>127.713477211518</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>119.914605426074</v>
+        <v>113.995968221338</v>
       </c>
       <c r="C51">
-        <v>1.29532319045313</v>
+        <v>1.16003225157465</v>
       </c>
       <c r="D51">
-        <v>0.553643447799919</v>
+        <v>0.712534878809815</v>
       </c>
       <c r="E51">
-        <v>2.41037351986131</v>
+        <v>1.54430663688646</v>
       </c>
       <c r="F51">
-        <v>21.7416008304473</v>
+        <v>23.3857226718224</v>
       </c>
       <c r="G51">
-        <v>2.74053506660959</v>
+        <v>1.92860814490162</v>
       </c>
       <c r="H51">
-        <v>0.138410861949979</v>
+        <v>0.341367283291077</v>
       </c>
       <c r="I51">
-        <v>0.885829516479869</v>
+        <v>0.725801845095129</v>
       </c>
       <c r="J51">
-        <v>1.51525397276298</v>
+        <v>1.54117433442232</v>
       </c>
       <c r="K51">
-        <v>0.60900779257991</v>
+        <v>0.96977210205058</v>
       </c>
       <c r="L51">
-        <v>0.387550413459943</v>
+        <v>0.527360782493036</v>
       </c>
       <c r="M51">
-        <v>0.60900779257991</v>
+        <v>0.981556129998807</v>
       </c>
       <c r="N51">
-        <v>0.968876033649859</v>
+        <v>1.49064320984278</v>
       </c>
       <c r="O51">
-        <v>181.063175451439</v>
+        <v>183.981459440153</v>
       </c>
       <c r="P51">
-        <v>13.9409384456659</v>
+        <v>15.1681448272669</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_1999.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_1999.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1313.11060605422</v>
+        <v>1293.44480120583</v>
       </c>
       <c r="C2">
-        <v>39.4270181332805</v>
+        <v>39.9735448644219</v>
       </c>
       <c r="D2">
-        <v>76.4609174627459</v>
+        <v>72.83621298861161</v>
       </c>
       <c r="E2">
-        <v>65.91476680600741</v>
+        <v>67.5861262633352</v>
       </c>
       <c r="F2">
-        <v>13.1920741883389</v>
+        <v>13.2777735190855</v>
       </c>
       <c r="G2">
-        <v>18.8132867244767</v>
+        <v>22.3841256845873</v>
       </c>
       <c r="H2">
-        <v>21.8496341744225</v>
+        <v>22.7703030609831</v>
       </c>
       <c r="I2">
-        <v>14.9051633877103</v>
+        <v>14.7623723151915</v>
       </c>
       <c r="J2">
-        <v>64.29732294254789</v>
+        <v>62.3391696576399</v>
       </c>
       <c r="K2">
-        <v>24.5370380018656</v>
+        <v>24.9937394627405</v>
       </c>
       <c r="L2">
-        <v>32.6086326864028</v>
+        <v>30.3758670611289</v>
       </c>
       <c r="M2">
-        <v>37.2162975913911</v>
+        <v>41.232647736972</v>
       </c>
       <c r="N2">
-        <v>30.5255122016497</v>
+        <v>28.4450416915979</v>
       </c>
       <c r="O2">
-        <v>1356.15438710423</v>
+        <v>1376.42067568176</v>
       </c>
       <c r="P2">
-        <v>43.9128564626531</v>
+        <v>44.4282348185034</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>136.504875635609</v>
+        <v>137.391739656025</v>
       </c>
       <c r="C3">
-        <v>5.09960414501255</v>
+        <v>5.04644998522983</v>
       </c>
       <c r="D3">
-        <v>0.352616891962199</v>
+        <v>0.311320091829345</v>
       </c>
       <c r="E3">
-        <v>1.59617899897382</v>
+        <v>1.6424752391614</v>
       </c>
       <c r="F3">
-        <v>9.72890882128503</v>
+        <v>10.1666586370196</v>
       </c>
       <c r="G3">
-        <v>0.463095348361129</v>
+        <v>0.457041931484642</v>
       </c>
       <c r="H3">
-        <v>0.127421527624296</v>
+        <v>0.125104230548149</v>
       </c>
       <c r="I3">
-        <v>0.290373962866128</v>
+        <v>0.304474467899087</v>
       </c>
       <c r="J3">
-        <v>0.57556364326342</v>
+        <v>0.561921821638309</v>
       </c>
       <c r="K3">
-        <v>0.36726466456851</v>
+        <v>0.334398370390769</v>
       </c>
       <c r="L3">
-        <v>0.298951149170799</v>
+        <v>0.323792153507937</v>
       </c>
       <c r="M3">
-        <v>1.05751180825272</v>
+        <v>1.02030548025654</v>
       </c>
       <c r="N3">
-        <v>0.677263444888442</v>
+        <v>0.56583970859796</v>
       </c>
       <c r="O3">
-        <v>232.560289853466</v>
+        <v>233.901550224545</v>
       </c>
       <c r="P3">
-        <v>10.8732418114932</v>
+        <v>10.1807187818439</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1417.28220521455</v>
+        <v>1404.06067321969</v>
       </c>
       <c r="C4">
-        <v>13.1682969802041</v>
+        <v>13.70244422906</v>
       </c>
       <c r="D4">
-        <v>7.80563978169384</v>
+        <v>8.92573202533268</v>
       </c>
       <c r="E4">
-        <v>18.1360637845733</v>
+        <v>23.8764607123778</v>
       </c>
       <c r="F4">
-        <v>17.2549462970244</v>
+        <v>17.9463936107262</v>
       </c>
       <c r="G4">
-        <v>13.3652326518636</v>
+        <v>12.581985426625</v>
       </c>
       <c r="H4">
-        <v>6.49596620625274</v>
+        <v>4.30505299250785</v>
       </c>
       <c r="I4">
-        <v>7.34350835418377</v>
+        <v>8.29806489836715</v>
       </c>
       <c r="J4">
-        <v>21.0035883063082</v>
+        <v>18.7695049953976</v>
       </c>
       <c r="K4">
-        <v>11.9721609793614</v>
+        <v>14.6430302338758</v>
       </c>
       <c r="L4">
-        <v>78.42780544416171</v>
+        <v>76.3932049222577</v>
       </c>
       <c r="M4">
-        <v>53.0234376438421</v>
+        <v>56.2973031000457</v>
       </c>
       <c r="N4">
-        <v>22.3077940060138</v>
+        <v>23.6323459055635</v>
       </c>
       <c r="O4">
-        <v>1816.34194088742</v>
+        <v>1821.70926487463</v>
       </c>
       <c r="P4">
-        <v>29.6038723611587</v>
+        <v>29.4911549921477</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>758.390684562801</v>
+        <v>753.6131866256731</v>
       </c>
       <c r="C5">
-        <v>54.2818086779729</v>
+        <v>54.6491637318061</v>
       </c>
       <c r="D5">
-        <v>13.041189595737</v>
+        <v>13.3681467163969</v>
       </c>
       <c r="E5">
-        <v>37.691752268946</v>
+        <v>39.9474781461832</v>
       </c>
       <c r="F5">
-        <v>4.49690117010129</v>
+        <v>6.31123564160961</v>
       </c>
       <c r="G5">
-        <v>15.2252713965874</v>
+        <v>13.9799837906703</v>
       </c>
       <c r="H5">
-        <v>12.3773312254211</v>
+        <v>12.8776878948974</v>
       </c>
       <c r="I5">
-        <v>6.86186590692145</v>
+        <v>6.11247283406823</v>
       </c>
       <c r="J5">
-        <v>35.852592351348</v>
+        <v>34.4695692344266</v>
       </c>
       <c r="K5">
-        <v>23.4844872117609</v>
+        <v>21.9279669525348</v>
       </c>
       <c r="L5">
-        <v>24.5850546691183</v>
+        <v>25.8364244261675</v>
       </c>
       <c r="M5">
-        <v>22.243968948182</v>
+        <v>21.9465628782489</v>
       </c>
       <c r="N5">
-        <v>15.9167654575837</v>
+        <v>17.7066373397137</v>
       </c>
       <c r="O5">
-        <v>789.410091857221</v>
+        <v>791.172344138119</v>
       </c>
       <c r="P5">
-        <v>62.4367415614033</v>
+        <v>59.8971708226626</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>9261.564587884561</v>
+        <v>9224.451036920909</v>
       </c>
       <c r="C6">
-        <v>190.659820711025</v>
+        <v>206.058468959356</v>
       </c>
       <c r="D6">
-        <v>199.514898997308</v>
+        <v>201.814251120036</v>
       </c>
       <c r="E6">
-        <v>160.685715837539</v>
+        <v>146.292337225532</v>
       </c>
       <c r="F6">
-        <v>47.6616834973274</v>
+        <v>50.5083877478174</v>
       </c>
       <c r="G6">
-        <v>107.531218733766</v>
+        <v>109.738161261421</v>
       </c>
       <c r="H6">
-        <v>60.7961459222807</v>
+        <v>59.9686881985101</v>
       </c>
       <c r="I6">
-        <v>54.2133573112019</v>
+        <v>53.9336845978543</v>
       </c>
       <c r="J6">
-        <v>194.54042901167</v>
+        <v>193.645445282028</v>
       </c>
       <c r="K6">
-        <v>131.811284988139</v>
+        <v>127.41465394199</v>
       </c>
       <c r="L6">
-        <v>558.996509425167</v>
+        <v>572.393688467371</v>
       </c>
       <c r="M6">
-        <v>277.973271841181</v>
+        <v>274.738453607319</v>
       </c>
       <c r="N6">
-        <v>294.603894858442</v>
+        <v>304.433014795038</v>
       </c>
       <c r="O6">
-        <v>11638.6803172348</v>
+        <v>11665.2821135518</v>
       </c>
       <c r="P6">
-        <v>324.354922635299</v>
+        <v>316.246436148717</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>906.363751340833</v>
+        <v>915.570368872779</v>
       </c>
       <c r="C7">
-        <v>28.348495041472</v>
+        <v>30.0379303169996</v>
       </c>
       <c r="D7">
-        <v>3.88580907896136</v>
+        <v>4.29041033981157</v>
       </c>
       <c r="E7">
-        <v>20.4014490507121</v>
+        <v>20.6793351578874</v>
       </c>
       <c r="F7">
-        <v>17.7695365494381</v>
+        <v>19.1219334302454</v>
       </c>
       <c r="G7">
-        <v>10.5081172260763</v>
+        <v>9.561343383322861</v>
       </c>
       <c r="H7">
-        <v>9.38399472834997</v>
+        <v>8.86406632565379</v>
       </c>
       <c r="I7">
-        <v>11.2052350795941</v>
+        <v>10.7175163761185</v>
       </c>
       <c r="J7">
-        <v>15.7385684377085</v>
+        <v>17.5655662915551</v>
       </c>
       <c r="K7">
-        <v>21.1349553038525</v>
+        <v>22.8812086332911</v>
       </c>
       <c r="L7">
-        <v>62.710917659584</v>
+        <v>66.3604628747068</v>
       </c>
       <c r="M7">
-        <v>21.3169563918382</v>
+        <v>20.2747475941113</v>
       </c>
       <c r="N7">
-        <v>26.1933284148378</v>
+        <v>26.6435381797905</v>
       </c>
       <c r="O7">
-        <v>1805.38724960412</v>
+        <v>1803.62600079755</v>
       </c>
       <c r="P7">
-        <v>43.5525666271709</v>
+        <v>42.0612335386338</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>844.145907350461</v>
+        <v>840.738226326331</v>
       </c>
       <c r="C8">
-        <v>14.6020596652608</v>
+        <v>12.4639458824116</v>
       </c>
       <c r="D8">
-        <v>8.710437979561579</v>
+        <v>8.83314372346047</v>
       </c>
       <c r="E8">
-        <v>24.5105460563335</v>
+        <v>24.6708092265768</v>
       </c>
       <c r="F8">
-        <v>0.5398724883862051</v>
+        <v>0.538301599135695</v>
       </c>
       <c r="G8">
-        <v>24.9488423273559</v>
+        <v>24.1917280308791</v>
       </c>
       <c r="H8">
-        <v>14.9695167022916</v>
+        <v>14.2567328609552</v>
       </c>
       <c r="I8">
-        <v>2.56747981072503</v>
+        <v>2.81200708057419</v>
       </c>
       <c r="J8">
-        <v>51.5581920618501</v>
+        <v>49.5657437031284</v>
       </c>
       <c r="K8">
-        <v>34.8236186592039</v>
+        <v>33.0995826338073</v>
       </c>
       <c r="L8">
-        <v>40.5515100762693</v>
+        <v>38.8442494370764</v>
       </c>
       <c r="M8">
-        <v>57.4585076419209</v>
+        <v>57.2543452276852</v>
       </c>
       <c r="N8">
-        <v>27.3401634817003</v>
+        <v>28.2319368088946</v>
       </c>
       <c r="O8">
-        <v>1254.34008292052</v>
+        <v>1266.03315627399</v>
       </c>
       <c r="P8">
-        <v>9.97903259356748</v>
+        <v>9.74717286225393</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>194.642111144732</v>
+        <v>193.004281872418</v>
       </c>
       <c r="C9">
-        <v>8.62208671347325</v>
+        <v>8.53855037095501</v>
       </c>
       <c r="D9">
-        <v>1.42175548629163</v>
+        <v>1.4693808581306</v>
       </c>
       <c r="E9">
-        <v>5.77687369497391</v>
+        <v>5.27860721148858</v>
       </c>
       <c r="F9">
-        <v>1.88276124242734</v>
+        <v>1.78767993548701</v>
       </c>
       <c r="G9">
-        <v>21.5029031024304</v>
+        <v>20.8945141221806</v>
       </c>
       <c r="H9">
-        <v>3.74096824948324</v>
+        <v>3.501668485674</v>
       </c>
       <c r="I9">
-        <v>0.173154345773211</v>
+        <v>0.457017255820441</v>
       </c>
       <c r="J9">
-        <v>4.01394176835502</v>
+        <v>4.0536117504727</v>
       </c>
       <c r="K9">
-        <v>3.54087356082421</v>
+        <v>3.256427854143</v>
       </c>
       <c r="L9">
-        <v>2.53955923581878</v>
+        <v>2.3154407646236</v>
       </c>
       <c r="M9">
-        <v>7.88666706617819</v>
+        <v>7.5427361735485</v>
       </c>
       <c r="N9">
-        <v>4.87985434809069</v>
+        <v>4.55536878129165</v>
       </c>
       <c r="O9">
-        <v>288.006741499127</v>
+        <v>289.874183181448</v>
       </c>
       <c r="P9">
-        <v>5.01274753198666</v>
+        <v>4.90234099166773</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4814.44611739069</v>
+        <v>4803.00674188951</v>
       </c>
       <c r="C10">
-        <v>50.4047458522202</v>
+        <v>47.0245753852133</v>
       </c>
       <c r="D10">
-        <v>38.863890067301</v>
+        <v>38.0802566401899</v>
       </c>
       <c r="E10">
-        <v>58.8501224096784</v>
+        <v>58.0718925690457</v>
       </c>
       <c r="F10">
-        <v>13.332771446741</v>
+        <v>13.8335149024568</v>
       </c>
       <c r="G10">
-        <v>43.2348732220248</v>
+        <v>40.6728760356458</v>
       </c>
       <c r="H10">
-        <v>24.6822682621847</v>
+        <v>22.205638650619</v>
       </c>
       <c r="I10">
-        <v>32.1537751713664</v>
+        <v>33.2817657056045</v>
       </c>
       <c r="J10">
-        <v>45.2824498252689</v>
+        <v>46.4983292346524</v>
       </c>
       <c r="K10">
-        <v>46.7162885695449</v>
+        <v>44.8154718981999</v>
       </c>
       <c r="L10">
-        <v>110.529924821172</v>
+        <v>109.634673218595</v>
       </c>
       <c r="M10">
-        <v>78.3739871480024</v>
+        <v>84.1683162380627</v>
       </c>
       <c r="N10">
-        <v>91.1464389650651</v>
+        <v>93.0384623284302</v>
       </c>
       <c r="O10">
-        <v>5976.89251756054</v>
+        <v>5999.36436185476</v>
       </c>
       <c r="P10">
-        <v>104.429450503633</v>
+        <v>100.008908930231</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1946.570766663</v>
+        <v>1927.01243865711</v>
       </c>
       <c r="C11">
-        <v>63.466847488781</v>
+        <v>67.61351702768199</v>
       </c>
       <c r="D11">
-        <v>145.06592431094</v>
+        <v>148.850381928564</v>
       </c>
       <c r="E11">
-        <v>101.973781840884</v>
+        <v>97.9463026960466</v>
       </c>
       <c r="F11">
-        <v>14.3508803603812</v>
+        <v>14.0817226562686</v>
       </c>
       <c r="G11">
-        <v>43.7324573677074</v>
+        <v>38.6802416895456</v>
       </c>
       <c r="H11">
-        <v>28.871724809262</v>
+        <v>34.2523603867465</v>
       </c>
       <c r="I11">
-        <v>20.1846897252579</v>
+        <v>20.601196704055</v>
       </c>
       <c r="J11">
-        <v>45.5338053495943</v>
+        <v>50.3939800722218</v>
       </c>
       <c r="K11">
-        <v>52.870546704306</v>
+        <v>50.7026937914695</v>
       </c>
       <c r="L11">
-        <v>60.6423949741503</v>
+        <v>61.9596270018125</v>
       </c>
       <c r="M11">
-        <v>69.4318775850725</v>
+        <v>71.02260569391019</v>
       </c>
       <c r="N11">
-        <v>53.9835348867054</v>
+        <v>57.2867251786018</v>
       </c>
       <c r="O11">
-        <v>2969.30340344868</v>
+        <v>2973.87986833957</v>
       </c>
       <c r="P11">
-        <v>62.3691743681928</v>
+        <v>58.7051577163019</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>338.645224357505</v>
+        <v>335.802554074261</v>
       </c>
       <c r="C12">
-        <v>6.06652878092766</v>
+        <v>5.71028246702638</v>
       </c>
       <c r="D12">
-        <v>2.54915784971104</v>
+        <v>4.13178061602702</v>
       </c>
       <c r="E12">
-        <v>2.62183617928621</v>
+        <v>1.39987771452468</v>
       </c>
       <c r="F12">
-        <v>0.625392601043103</v>
+        <v>0.609535564523183</v>
       </c>
       <c r="G12">
-        <v>1.22452197593255</v>
+        <v>1.27101577251288</v>
       </c>
       <c r="H12">
-        <v>0.647977654858299</v>
+        <v>0.554976953982693</v>
       </c>
       <c r="I12">
-        <v>1.03298584483265</v>
+        <v>1.26243591446494</v>
       </c>
       <c r="J12">
-        <v>0.648006938029419</v>
+        <v>0.662549771612598</v>
       </c>
       <c r="K12">
-        <v>0.424196661354172</v>
+        <v>0.660313895273951</v>
       </c>
       <c r="L12">
-        <v>1.94114629227213</v>
+        <v>1.731285823731</v>
       </c>
       <c r="M12">
-        <v>3.80771238817434</v>
+        <v>4.13495608251857</v>
       </c>
       <c r="N12">
-        <v>2.18702330776892</v>
+        <v>2.20412948569982</v>
       </c>
       <c r="O12">
-        <v>464.963066382818</v>
+        <v>467.247069711394</v>
       </c>
       <c r="P12">
-        <v>21.4964671394039</v>
+        <v>20.1567780878453</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>309.680690725588</v>
+        <v>308.21997153771</v>
       </c>
       <c r="C13">
-        <v>23.9243693299778</v>
+        <v>23.4269537922215</v>
       </c>
       <c r="D13">
-        <v>1.79549222526901</v>
+        <v>1.63187608182085</v>
       </c>
       <c r="E13">
-        <v>19.0685797721657</v>
+        <v>17.5892169487908</v>
       </c>
       <c r="F13">
-        <v>5.43516999271644</v>
+        <v>4.66050399800887</v>
       </c>
       <c r="G13">
-        <v>4.39033464960846</v>
+        <v>5.0636997286394</v>
       </c>
       <c r="H13">
-        <v>2.57726748435244</v>
+        <v>2.90818646549989</v>
       </c>
       <c r="I13">
-        <v>1.68977106213193</v>
+        <v>1.8563142827423</v>
       </c>
       <c r="J13">
-        <v>4.62737210004104</v>
+        <v>4.79913851482862</v>
       </c>
       <c r="K13">
-        <v>3.30160810327696</v>
+        <v>3.20901766838436</v>
       </c>
       <c r="L13">
-        <v>20.4418764620766</v>
+        <v>20.6845636295072</v>
       </c>
       <c r="M13">
-        <v>5.31504151542783</v>
+        <v>5.28382564671294</v>
       </c>
       <c r="N13">
-        <v>7.19454419357326</v>
+        <v>7.0166803976274</v>
       </c>
       <c r="O13">
-        <v>432.638020780199</v>
+        <v>434.762196919832</v>
       </c>
       <c r="P13">
-        <v>41.7550580614475</v>
+        <v>41.839394501116</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3082.44779321604</v>
+        <v>3050.56303530707</v>
       </c>
       <c r="C14">
-        <v>108.71309399961</v>
+        <v>107.36780304557</v>
       </c>
       <c r="D14">
-        <v>18.027985970166</v>
+        <v>16.0333918985196</v>
       </c>
       <c r="E14">
-        <v>90.77471323810499</v>
+        <v>88.9270343192853</v>
       </c>
       <c r="F14">
-        <v>24.1402840638828</v>
+        <v>25.7078949427787</v>
       </c>
       <c r="G14">
-        <v>83.5125937664946</v>
+        <v>82.2401204228518</v>
       </c>
       <c r="H14">
-        <v>59.1209716271113</v>
+        <v>62.1756411750187</v>
       </c>
       <c r="I14">
-        <v>39.3311014689488</v>
+        <v>39.2600732087375</v>
       </c>
       <c r="J14">
-        <v>168.922466622586</v>
+        <v>168.26954819613</v>
       </c>
       <c r="K14">
-        <v>171.917585902815</v>
+        <v>175.642423930001</v>
       </c>
       <c r="L14">
-        <v>147.843930635185</v>
+        <v>152.205020190095</v>
       </c>
       <c r="M14">
-        <v>95.6856680308866</v>
+        <v>103.78598238671</v>
       </c>
       <c r="N14">
-        <v>96.4351734941108</v>
+        <v>93.2592082720012</v>
       </c>
       <c r="O14">
-        <v>4471.44140201536</v>
+        <v>4498.93648692729</v>
       </c>
       <c r="P14">
-        <v>88.1068527923638</v>
+        <v>87.3628769438657</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1440.09530764845</v>
+        <v>1425.86959900392</v>
       </c>
       <c r="C15">
-        <v>42.4045513721342</v>
+        <v>40.6697432623623</v>
       </c>
       <c r="D15">
-        <v>14.6966736567892</v>
+        <v>14.7888206983488</v>
       </c>
       <c r="E15">
-        <v>52.8865568604076</v>
+        <v>56.727953226802</v>
       </c>
       <c r="F15">
-        <v>11.8976965271151</v>
+        <v>11.6950307174341</v>
       </c>
       <c r="G15">
-        <v>47.660452685632</v>
+        <v>46.4720405571824</v>
       </c>
       <c r="H15">
-        <v>50.174211003945</v>
+        <v>51.0766055256051</v>
       </c>
       <c r="I15">
-        <v>30.4610511330634</v>
+        <v>28.2859917084438</v>
       </c>
       <c r="J15">
-        <v>174.025661986196</v>
+        <v>170.435608720136</v>
       </c>
       <c r="K15">
-        <v>82.69624899011831</v>
+        <v>86.3478918935074</v>
       </c>
       <c r="L15">
-        <v>77.4187596234363</v>
+        <v>73.9308998771497</v>
       </c>
       <c r="M15">
-        <v>176.149887515725</v>
+        <v>174.149887444623</v>
       </c>
       <c r="N15">
-        <v>71.6180761746611</v>
+        <v>76.68335655950121</v>
       </c>
       <c r="O15">
-        <v>1981.96375175094</v>
+        <v>1982.92218355647</v>
       </c>
       <c r="P15">
-        <v>44.6634440353155</v>
+        <v>47.1020783745113</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>648.5386417060261</v>
+        <v>644.5838966081381</v>
       </c>
       <c r="C16">
-        <v>53.9838440524865</v>
+        <v>57.397350481866</v>
       </c>
       <c r="D16">
-        <v>9.771325434858889</v>
+        <v>9.41810552033008</v>
       </c>
       <c r="E16">
-        <v>23.4001123427791</v>
+        <v>22.8880534945713</v>
       </c>
       <c r="F16">
-        <v>3.38382969183029</v>
+        <v>3.55539108567215</v>
       </c>
       <c r="G16">
-        <v>14.6604575556659</v>
+        <v>13.9715181112449</v>
       </c>
       <c r="H16">
-        <v>13.271323433568</v>
+        <v>14.4240469733655</v>
       </c>
       <c r="I16">
-        <v>13.3681653824455</v>
+        <v>11.8304967344313</v>
       </c>
       <c r="J16">
-        <v>46.8505717505278</v>
+        <v>46.268098681103</v>
       </c>
       <c r="K16">
-        <v>40.8592475599707</v>
+        <v>41.141435988235</v>
       </c>
       <c r="L16">
-        <v>37.6350865818868</v>
+        <v>38.5441874679859</v>
       </c>
       <c r="M16">
-        <v>18.7939124065837</v>
+        <v>21.2342496719005</v>
       </c>
       <c r="N16">
-        <v>21.768083214984</v>
+        <v>22.2800844519378</v>
       </c>
       <c r="O16">
-        <v>1025.06707844617</v>
+        <v>1027.14542059239</v>
       </c>
       <c r="P16">
-        <v>89.0550494151513</v>
+        <v>89.55178221707359</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>601.569124388801</v>
+        <v>606.729658441782</v>
       </c>
       <c r="C17">
-        <v>29.1825217918003</v>
+        <v>28.7601326379826</v>
       </c>
       <c r="D17">
-        <v>5.51994841691452</v>
+        <v>5.51061593655402</v>
       </c>
       <c r="E17">
-        <v>13.4582760087324</v>
+        <v>15.271601572421</v>
       </c>
       <c r="F17">
-        <v>14.449706276692</v>
+        <v>14.3090678048448</v>
       </c>
       <c r="G17">
-        <v>11.3322535490301</v>
+        <v>12.1025836747889</v>
       </c>
       <c r="H17">
-        <v>16.299464325871</v>
+        <v>14.7850516530208</v>
       </c>
       <c r="I17">
-        <v>8.047258238197919</v>
+        <v>7.25083828229355</v>
       </c>
       <c r="J17">
-        <v>16.9007336610033</v>
+        <v>18.7835430517574</v>
       </c>
       <c r="K17">
-        <v>25.2570528314654</v>
+        <v>24.7360103942846</v>
       </c>
       <c r="L17">
-        <v>14.9279889580884</v>
+        <v>14.9722981713857</v>
       </c>
       <c r="M17">
-        <v>66.4048562339881</v>
+        <v>68.71990829616399</v>
       </c>
       <c r="N17">
-        <v>17.662798709792</v>
+        <v>16.5737871476677</v>
       </c>
       <c r="O17">
-        <v>953.787072780648</v>
+        <v>945.76889987102</v>
       </c>
       <c r="P17">
-        <v>75.64875790159471</v>
+        <v>75.5282248098422</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1151.42563452586</v>
+        <v>1154.98308860208</v>
       </c>
       <c r="C18">
-        <v>34.7398104381205</v>
+        <v>30.3799174226597</v>
       </c>
       <c r="D18">
-        <v>24.9698834727999</v>
+        <v>23.2636025076947</v>
       </c>
       <c r="E18">
-        <v>40.8776157335665</v>
+        <v>39.1198684087772</v>
       </c>
       <c r="F18">
-        <v>32.3223628034308</v>
+        <v>31.021220696794</v>
       </c>
       <c r="G18">
-        <v>26.8877502822174</v>
+        <v>25.5049352756241</v>
       </c>
       <c r="H18">
-        <v>21.6657074447423</v>
+        <v>22.7745648118913</v>
       </c>
       <c r="I18">
-        <v>12.8197683414975</v>
+        <v>13.7956955898546</v>
       </c>
       <c r="J18">
-        <v>42.5993053579738</v>
+        <v>45.1295101320355</v>
       </c>
       <c r="K18">
-        <v>35.6835165291384</v>
+        <v>35.3649203104909</v>
       </c>
       <c r="L18">
-        <v>42.9791271999101</v>
+        <v>40.7797487941733</v>
       </c>
       <c r="M18">
-        <v>57.7155135872813</v>
+        <v>59.4584386275461</v>
       </c>
       <c r="N18">
-        <v>30.7399835717149</v>
+        <v>29.4412907844297</v>
       </c>
       <c r="O18">
-        <v>1298.06250072225</v>
+        <v>1298.19916668422</v>
       </c>
       <c r="P18">
-        <v>41.5057748511758</v>
+        <v>39.4077572588486</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1308.70496133721</v>
+        <v>1306.27926961439</v>
       </c>
       <c r="C19">
-        <v>29.907154060801</v>
+        <v>25.9714465766007</v>
       </c>
       <c r="D19">
-        <v>13.5137098977362</v>
+        <v>10.9680543128664</v>
       </c>
       <c r="E19">
-        <v>36.6194688520571</v>
+        <v>36.1182514933114</v>
       </c>
       <c r="F19">
-        <v>61.5751631803486</v>
+        <v>66.4579295781183</v>
       </c>
       <c r="G19">
-        <v>40.8238430403535</v>
+        <v>42.2116991405323</v>
       </c>
       <c r="H19">
-        <v>7.59856155142819</v>
+        <v>7.67045989466069</v>
       </c>
       <c r="I19">
-        <v>7.13620818133007</v>
+        <v>7.14697470268214</v>
       </c>
       <c r="J19">
-        <v>21.5811981734221</v>
+        <v>20.160891840046</v>
       </c>
       <c r="K19">
-        <v>10.2670555685114</v>
+        <v>14.142311068712</v>
       </c>
       <c r="L19">
-        <v>10.8109404388194</v>
+        <v>10.1642469704163</v>
       </c>
       <c r="M19">
-        <v>26.3577456302841</v>
+        <v>29.0762391126139</v>
       </c>
       <c r="N19">
-        <v>10.9870054883191</v>
+        <v>12.9144084506297</v>
       </c>
       <c r="O19">
-        <v>1460.38941958501</v>
+        <v>1464.71911983132</v>
       </c>
       <c r="P19">
-        <v>42.0190386981109</v>
+        <v>37.8267208691728</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>330.161013785395</v>
+        <v>326.896024726539</v>
       </c>
       <c r="C20">
-        <v>6.9370546746563</v>
+        <v>6.8322735966861</v>
       </c>
       <c r="D20">
-        <v>16.4506919849855</v>
+        <v>16.5272597307664</v>
       </c>
       <c r="E20">
-        <v>32.0052802110801</v>
+        <v>32.1474246540702</v>
       </c>
       <c r="F20">
-        <v>0.387626617836363</v>
+        <v>0.497044336111026</v>
       </c>
       <c r="G20">
-        <v>1.79715634103831</v>
+        <v>1.74891303739621</v>
       </c>
       <c r="H20">
-        <v>3.53840573912024</v>
+        <v>3.02759309030956</v>
       </c>
       <c r="I20">
-        <v>0.540632865649418</v>
+        <v>0.830675139261793</v>
       </c>
       <c r="J20">
-        <v>6.67255533601498</v>
+        <v>6.95326560928642</v>
       </c>
       <c r="K20">
-        <v>5.76740908118677</v>
+        <v>5.78909941333219</v>
       </c>
       <c r="L20">
-        <v>8.098610477902129</v>
+        <v>7.71442302463223</v>
       </c>
       <c r="M20">
-        <v>16.6455011982103</v>
+        <v>16.4530239627745</v>
       </c>
       <c r="N20">
-        <v>5.18151399797838</v>
+        <v>5.51516667262269</v>
       </c>
       <c r="O20">
-        <v>459.404966421265</v>
+        <v>460.193802651144</v>
       </c>
       <c r="P20">
-        <v>25.4965304507527</v>
+        <v>26.1284154849605</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1206.3810350856</v>
+        <v>1217.15029275846</v>
       </c>
       <c r="C21">
-        <v>20.9432753514813</v>
+        <v>21.301291724828</v>
       </c>
       <c r="D21">
-        <v>15.6858709255826</v>
+        <v>15.2503479050837</v>
       </c>
       <c r="E21">
-        <v>37.039659911899</v>
+        <v>34.3265155239497</v>
       </c>
       <c r="F21">
-        <v>4.78796758955674</v>
+        <v>4.74723172311683</v>
       </c>
       <c r="G21">
-        <v>10.2511087409619</v>
+        <v>12.4439065308081</v>
       </c>
       <c r="H21">
-        <v>20.6981252261992</v>
+        <v>20.8678240174703</v>
       </c>
       <c r="I21">
-        <v>4.8410125196397</v>
+        <v>3.76873416127151</v>
       </c>
       <c r="J21">
-        <v>13.1694351610934</v>
+        <v>13.894624981278</v>
       </c>
       <c r="K21">
-        <v>23.1451086272403</v>
+        <v>22.4927921813306</v>
       </c>
       <c r="L21">
-        <v>28.1916116089014</v>
+        <v>26.0837884629819</v>
       </c>
       <c r="M21">
-        <v>37.4146545813823</v>
+        <v>37.893086649257</v>
       </c>
       <c r="N21">
-        <v>10.784707560505</v>
+        <v>12.6071434772942</v>
       </c>
       <c r="O21">
-        <v>2254.70610201414</v>
+        <v>2244.01274175695</v>
       </c>
       <c r="P21">
-        <v>21.2807339629341</v>
+        <v>20.6838387849504</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1544.88218821478</v>
+        <v>1538.51483965973</v>
       </c>
       <c r="C22">
-        <v>23.7514001964247</v>
+        <v>22.9270653954879</v>
       </c>
       <c r="D22">
-        <v>33.9873291713745</v>
+        <v>31.5643298145135</v>
       </c>
       <c r="E22">
-        <v>29.8825313451405</v>
+        <v>35.7482998088403</v>
       </c>
       <c r="F22">
-        <v>3.2036415010367</v>
+        <v>3.38603689836446</v>
       </c>
       <c r="G22">
-        <v>26.3008646013809</v>
+        <v>24.7510601355872</v>
       </c>
       <c r="H22">
-        <v>30.2721194269334</v>
+        <v>27.4859435222979</v>
       </c>
       <c r="I22">
-        <v>9.312302369420699</v>
+        <v>10.4368365242474</v>
       </c>
       <c r="J22">
-        <v>53.7163888254572</v>
+        <v>55.1628073781238</v>
       </c>
       <c r="K22">
-        <v>43.846641860369</v>
+        <v>43.9483240614176</v>
       </c>
       <c r="L22">
-        <v>119.729691730595</v>
+        <v>118.697362642385</v>
       </c>
       <c r="M22">
-        <v>17.1385471309188</v>
+        <v>17.1835416403612</v>
       </c>
       <c r="N22">
-        <v>68.5717960978008</v>
+        <v>73.1217125957496</v>
       </c>
       <c r="O22">
-        <v>2528.87270121905</v>
+        <v>2541.58779743497</v>
       </c>
       <c r="P22">
-        <v>17.914439721863</v>
+        <v>17.4542597359297</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2515.56015350326</v>
+        <v>2493.43377101605</v>
       </c>
       <c r="C23">
-        <v>53.8592042860976</v>
+        <v>49.7102975802231</v>
       </c>
       <c r="D23">
-        <v>17.1482812411538</v>
+        <v>15.6595316820569</v>
       </c>
       <c r="E23">
-        <v>69.19019194954571</v>
+        <v>68.0960539935017</v>
       </c>
       <c r="F23">
-        <v>6.08522626346709</v>
+        <v>8.21669971480295</v>
       </c>
       <c r="G23">
-        <v>62.0857857198737</v>
+        <v>56.8725260602317</v>
       </c>
       <c r="H23">
-        <v>65.57182593360299</v>
+        <v>65.0742825750873</v>
       </c>
       <c r="I23">
-        <v>24.139420789026</v>
+        <v>24.142274081075</v>
       </c>
       <c r="J23">
-        <v>172.828264464385</v>
+        <v>170.259382699024</v>
       </c>
       <c r="K23">
-        <v>130.873906735246</v>
+        <v>137.646171180911</v>
       </c>
       <c r="L23">
-        <v>49.431296901766</v>
+        <v>47.8042971893382</v>
       </c>
       <c r="M23">
-        <v>499.101094996735</v>
+        <v>502.192694161221</v>
       </c>
       <c r="N23">
-        <v>82.3354091115789</v>
+        <v>76.7062121926478</v>
       </c>
       <c r="O23">
-        <v>3194.58509326138</v>
+        <v>3224.19541323866</v>
       </c>
       <c r="P23">
-        <v>65.46668292658801</v>
+        <v>70.86566794004619</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>965.319374083876</v>
+        <v>949.117428002465</v>
       </c>
       <c r="C24">
-        <v>64.13783315754149</v>
+        <v>65.4674000199862</v>
       </c>
       <c r="D24">
-        <v>9.46709845452407</v>
+        <v>10.3292457467419</v>
       </c>
       <c r="E24">
-        <v>65.5986582964659</v>
+        <v>61.7385794257904</v>
       </c>
       <c r="F24">
-        <v>18.876260992532</v>
+        <v>17.4096030099196</v>
       </c>
       <c r="G24">
-        <v>17.6342414245254</v>
+        <v>17.5642301452809</v>
       </c>
       <c r="H24">
-        <v>24.7423832924703</v>
+        <v>25.7405906350123</v>
       </c>
       <c r="I24">
-        <v>11.7303574225691</v>
+        <v>12.7774600782986</v>
       </c>
       <c r="J24">
-        <v>52.1192667941128</v>
+        <v>51.4369843926914</v>
       </c>
       <c r="K24">
-        <v>63.3030919576005</v>
+        <v>64.342760877045</v>
       </c>
       <c r="L24">
-        <v>73.6137934527503</v>
+        <v>74.85301081639631</v>
       </c>
       <c r="M24">
-        <v>19.8060302638934</v>
+        <v>20.5819999424016</v>
       </c>
       <c r="N24">
-        <v>57.2296936788257</v>
+        <v>59.6839668416978</v>
       </c>
       <c r="O24">
-        <v>1893.85350084902</v>
+        <v>1900.32862439855</v>
       </c>
       <c r="P24">
-        <v>121.464921930587</v>
+        <v>123.084945623339</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>819.361685568271</v>
+        <v>827.351073432759</v>
       </c>
       <c r="C25">
-        <v>34.8802978921328</v>
+        <v>34.4063256123164</v>
       </c>
       <c r="D25">
-        <v>22.1132293174167</v>
+        <v>21.4268320578779</v>
       </c>
       <c r="E25">
-        <v>34.1142444962859</v>
+        <v>34.0708278132832</v>
       </c>
       <c r="F25">
-        <v>15.9437106986648</v>
+        <v>15.4841288593471</v>
       </c>
       <c r="G25">
-        <v>10.5650485267734</v>
+        <v>9.031534607566909</v>
       </c>
       <c r="H25">
-        <v>15.8820400313231</v>
+        <v>15.1082723668432</v>
       </c>
       <c r="I25">
-        <v>6.2477904526324</v>
+        <v>5.59427338563557</v>
       </c>
       <c r="J25">
-        <v>22.3332076505974</v>
+        <v>21.4887075303128</v>
       </c>
       <c r="K25">
-        <v>18.1024381564146</v>
+        <v>18.3306809995146</v>
       </c>
       <c r="L25">
-        <v>30.4655493402476</v>
+        <v>30.4270852374488</v>
       </c>
       <c r="M25">
-        <v>28.1639096246551</v>
+        <v>25.7348658443863</v>
       </c>
       <c r="N25">
-        <v>40.2999623135807</v>
+        <v>41.5613745691787</v>
       </c>
       <c r="O25">
-        <v>812.327901461012</v>
+        <v>812.918266877445</v>
       </c>
       <c r="P25">
-        <v>37.1013942483739</v>
+        <v>39.2047540364917</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1404.30207539669</v>
+        <v>1399.88783129769</v>
       </c>
       <c r="C26">
-        <v>55.0129243625152</v>
+        <v>53.4102712266337</v>
       </c>
       <c r="D26">
-        <v>12.8124515860356</v>
+        <v>15.7368660032853</v>
       </c>
       <c r="E26">
-        <v>51.346093549854</v>
+        <v>51.4693784121522</v>
       </c>
       <c r="F26">
-        <v>4.57206706247266</v>
+        <v>4.10091718707988</v>
       </c>
       <c r="G26">
-        <v>34.6590182828126</v>
+        <v>34.4518648835667</v>
       </c>
       <c r="H26">
-        <v>22.2845711501479</v>
+        <v>20.2615568463022</v>
       </c>
       <c r="I26">
-        <v>17.4975756934758</v>
+        <v>15.7822808908305</v>
       </c>
       <c r="J26">
-        <v>62.3918413472099</v>
+        <v>58.3810452341317</v>
       </c>
       <c r="K26">
-        <v>45.5976565012519</v>
+        <v>43.5905717215647</v>
       </c>
       <c r="L26">
-        <v>35.7439971625515</v>
+        <v>42.6305669441163</v>
       </c>
       <c r="M26">
-        <v>84.6766328464665</v>
+        <v>83.6586084826174</v>
       </c>
       <c r="N26">
-        <v>41.7826121098351</v>
+        <v>40.5745531682639</v>
       </c>
       <c r="O26">
-        <v>1990.21194105192</v>
+        <v>2000.23322048113</v>
       </c>
       <c r="P26">
-        <v>74.4942309179709</v>
+        <v>77.0724203552616</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>232.319952042806</v>
+        <v>229.34009590028</v>
       </c>
       <c r="C27">
-        <v>3.03794868689909</v>
+        <v>2.99573862473136</v>
       </c>
       <c r="D27">
-        <v>1.42417668957685</v>
+        <v>1.01592685369119</v>
       </c>
       <c r="E27">
-        <v>9.666344511060791</v>
+        <v>9.354290382717791</v>
       </c>
       <c r="F27">
-        <v>7.48656715774846</v>
+        <v>7.23403276799565</v>
       </c>
       <c r="G27">
-        <v>0.793770340670269</v>
+        <v>0.817038208161827</v>
       </c>
       <c r="H27">
-        <v>0.374096136489961</v>
+        <v>0.420299373002187</v>
       </c>
       <c r="I27">
-        <v>0.7576415830414081</v>
+        <v>0.71372502455715</v>
       </c>
       <c r="J27">
-        <v>3.49903509834721</v>
+        <v>3.98136550688702</v>
       </c>
       <c r="K27">
-        <v>1.27947257450495</v>
+        <v>1.18126899870905</v>
       </c>
       <c r="L27">
-        <v>1.72271802746984</v>
+        <v>2.02590467687688</v>
       </c>
       <c r="M27">
-        <v>1.12220530502504</v>
+        <v>1.10299931966475</v>
       </c>
       <c r="N27">
-        <v>4.50016035653601</v>
+        <v>4.35118833163984</v>
       </c>
       <c r="O27">
-        <v>330.418203672029</v>
+        <v>330.10292917851</v>
       </c>
       <c r="P27">
-        <v>46.0316098430683</v>
+        <v>44.8435991972135</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>362.903073509788</v>
+        <v>360.510001802101</v>
       </c>
       <c r="C28">
-        <v>30.0794152979678</v>
+        <v>31.2972711049155</v>
       </c>
       <c r="D28">
-        <v>1.84673167033081</v>
+        <v>1.56018905723778</v>
       </c>
       <c r="E28">
-        <v>7.27399572347698</v>
+        <v>6.82474129946198</v>
       </c>
       <c r="F28">
-        <v>2.33737649393547</v>
+        <v>2.3050154044626</v>
       </c>
       <c r="G28">
-        <v>5.19674401633004</v>
+        <v>5.09607024235491</v>
       </c>
       <c r="H28">
-        <v>6.15340541480845</v>
+        <v>6.19653169741549</v>
       </c>
       <c r="I28">
-        <v>4.37758949059213</v>
+        <v>4.17391178048156</v>
       </c>
       <c r="J28">
-        <v>15.3802494064079</v>
+        <v>14.7021873368379</v>
       </c>
       <c r="K28">
-        <v>16.5621583911897</v>
+        <v>17.5589467530723</v>
       </c>
       <c r="L28">
-        <v>8.96015222314875</v>
+        <v>10.401158608174</v>
       </c>
       <c r="M28">
-        <v>9.84747354245614</v>
+        <v>10.8497235017689</v>
       </c>
       <c r="N28">
-        <v>11.7613216858026</v>
+        <v>11.0577872533375</v>
       </c>
       <c r="O28">
-        <v>626.894984419775</v>
+        <v>625.6677578678761</v>
       </c>
       <c r="P28">
-        <v>89.14799345938999</v>
+        <v>88.28252195652711</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>490.284516173207</v>
+        <v>499.529904807351</v>
       </c>
       <c r="C29">
-        <v>8.710842867835041</v>
+        <v>7.49301260992616</v>
       </c>
       <c r="D29">
-        <v>3.93058842651958</v>
+        <v>2.84083978324342</v>
       </c>
       <c r="E29">
-        <v>4.51261895827047</v>
+        <v>5.7863100666599</v>
       </c>
       <c r="F29">
-        <v>15.6032515757755</v>
+        <v>15.7636255339563</v>
       </c>
       <c r="G29">
-        <v>1.59833902079804</v>
+        <v>2.16699399461978</v>
       </c>
       <c r="H29">
-        <v>2.45686616556934</v>
+        <v>2.62633602182443</v>
       </c>
       <c r="I29">
-        <v>5.63095601280168</v>
+        <v>5.01198625787952</v>
       </c>
       <c r="J29">
-        <v>6.37461084416991</v>
+        <v>6.89326787883862</v>
       </c>
       <c r="K29">
-        <v>4.01789743698615</v>
+        <v>4.28689930628057</v>
       </c>
       <c r="L29">
-        <v>6.0543392958547</v>
+        <v>6.23511366317689</v>
       </c>
       <c r="M29">
-        <v>3.45849842449226</v>
+        <v>3.18060632283767</v>
       </c>
       <c r="N29">
-        <v>12.7916569129368</v>
+        <v>11.6401594029312</v>
       </c>
       <c r="O29">
-        <v>808.617044931938</v>
+        <v>814.652051993436</v>
       </c>
       <c r="P29">
-        <v>4.30258791199686</v>
+        <v>4.84349590506624</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>275.058067088808</v>
+        <v>270.232188400714</v>
       </c>
       <c r="C30">
-        <v>4.17334160365738</v>
+        <v>4.2533333922946</v>
       </c>
       <c r="D30">
-        <v>6.36149347321684</v>
+        <v>5.73441010354042</v>
       </c>
       <c r="E30">
-        <v>13.7269169459217</v>
+        <v>12.6486543457047</v>
       </c>
       <c r="F30">
-        <v>0.516583450400315</v>
+        <v>0.710324425426095</v>
       </c>
       <c r="G30">
-        <v>4.53155126978047</v>
+        <v>4.45722433671957</v>
       </c>
       <c r="H30">
-        <v>4.08844435492524</v>
+        <v>4.90715370370485</v>
       </c>
       <c r="I30">
-        <v>2.13167209506902</v>
+        <v>2.0382883013562</v>
       </c>
       <c r="J30">
-        <v>17.975286460295</v>
+        <v>17.644446569307</v>
       </c>
       <c r="K30">
-        <v>12.934231085888</v>
+        <v>13.8511315788456</v>
       </c>
       <c r="L30">
-        <v>34.4738566323208</v>
+        <v>36.8684088693769</v>
       </c>
       <c r="M30">
-        <v>9.11630783162896</v>
+        <v>8.82310225828086</v>
       </c>
       <c r="N30">
-        <v>18.1593590985386</v>
+        <v>17.6280751561639</v>
       </c>
       <c r="O30">
-        <v>466.386148200893</v>
+        <v>470.22597436889</v>
       </c>
       <c r="P30">
-        <v>8.031163135043229</v>
+        <v>7.32755319198294</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2254.64291392115</v>
+        <v>2220.24958518194</v>
       </c>
       <c r="C31">
-        <v>39.6803313134312</v>
+        <v>40.6257490084919</v>
       </c>
       <c r="D31">
-        <v>44.8510784416309</v>
+        <v>41.5077567314846</v>
       </c>
       <c r="E31">
-        <v>28.4460045060653</v>
+        <v>31.5935724433821</v>
       </c>
       <c r="F31">
-        <v>10.2637544085576</v>
+        <v>9.539957108922991</v>
       </c>
       <c r="G31">
-        <v>134.495792770639</v>
+        <v>132.640037542964</v>
       </c>
       <c r="H31">
-        <v>28.4451881677566</v>
+        <v>28.1034950540866</v>
       </c>
       <c r="I31">
-        <v>19.0986811857357</v>
+        <v>20.8991675114729</v>
       </c>
       <c r="J31">
-        <v>44.3408281301882</v>
+        <v>49.3588286400166</v>
       </c>
       <c r="K31">
-        <v>41.8671534895508</v>
+        <v>43.5388919401279</v>
       </c>
       <c r="L31">
-        <v>50.2835892633015</v>
+        <v>57.311635660742</v>
       </c>
       <c r="M31">
-        <v>26.0319816177245</v>
+        <v>29.0412289626014</v>
       </c>
       <c r="N31">
-        <v>64.34757873119911</v>
+        <v>63.5475098629592</v>
       </c>
       <c r="O31">
-        <v>3233.30119393109</v>
+        <v>3247.93835451691</v>
       </c>
       <c r="P31">
-        <v>11.8850775330884</v>
+        <v>13.9128370380681</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>534.337352502242</v>
+        <v>533.003714906116</v>
       </c>
       <c r="C32">
-        <v>4.88788398168611</v>
+        <v>4.85526755551658</v>
       </c>
       <c r="D32">
-        <v>3.62903499804515</v>
+        <v>3.95002294677509</v>
       </c>
       <c r="E32">
-        <v>1.91223728358951</v>
+        <v>4.9736586979481</v>
       </c>
       <c r="F32">
-        <v>21.0375788081594</v>
+        <v>22.3910068326242</v>
       </c>
       <c r="G32">
-        <v>1.84519898347793</v>
+        <v>1.75875952100289</v>
       </c>
       <c r="H32">
-        <v>1.1198445284868</v>
+        <v>0.9493810910214</v>
       </c>
       <c r="I32">
-        <v>3.03404172897231</v>
+        <v>3.30430923537368</v>
       </c>
       <c r="J32">
-        <v>1.63022854257923</v>
+        <v>2.20631843919987</v>
       </c>
       <c r="K32">
-        <v>3.38646793235663</v>
+        <v>3.83439782897193</v>
       </c>
       <c r="L32">
-        <v>15.0589961662721</v>
+        <v>14.2045690248188</v>
       </c>
       <c r="M32">
-        <v>4.67922792518392</v>
+        <v>4.43041184453987</v>
       </c>
       <c r="N32">
-        <v>8.98315906666461</v>
+        <v>11.0702036033594</v>
       </c>
       <c r="O32">
-        <v>634.621169082619</v>
+        <v>625.940708347406</v>
       </c>
       <c r="P32">
-        <v>28.8765651729043</v>
+        <v>25.6218659240129</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5589.97546901713</v>
+        <v>5536.68789568065</v>
       </c>
       <c r="C33">
-        <v>72.48736483543929</v>
+        <v>77.2333628975903</v>
       </c>
       <c r="D33">
-        <v>125.041895153689</v>
+        <v>126.586791302823</v>
       </c>
       <c r="E33">
-        <v>98.2296512131627</v>
+        <v>95.6538450631528</v>
       </c>
       <c r="F33">
-        <v>9.928952017336581</v>
+        <v>13.1144421546112</v>
       </c>
       <c r="G33">
-        <v>78.12489309174561</v>
+        <v>84.40642529000471</v>
       </c>
       <c r="H33">
-        <v>46.6311758708005</v>
+        <v>44.1653457717217</v>
       </c>
       <c r="I33">
-        <v>37.8989733834845</v>
+        <v>39.5853733503074</v>
       </c>
       <c r="J33">
-        <v>117.319635584273</v>
+        <v>117.586737818189</v>
       </c>
       <c r="K33">
-        <v>119.933848618635</v>
+        <v>120.813710870764</v>
       </c>
       <c r="L33">
-        <v>136.434352068232</v>
+        <v>139.656951349785</v>
       </c>
       <c r="M33">
-        <v>78.2634518506473</v>
+        <v>82.1567883069947</v>
       </c>
       <c r="N33">
-        <v>150.016065791081</v>
+        <v>142.238370237672</v>
       </c>
       <c r="O33">
-        <v>6902.19278210872</v>
+        <v>6928.00135793622</v>
       </c>
       <c r="P33">
-        <v>82.8337049410402</v>
+        <v>82.7575700985667</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2024.45460975563</v>
+        <v>1995.03843696045</v>
       </c>
       <c r="C34">
-        <v>68.2446667848678</v>
+        <v>70.09397620572049</v>
       </c>
       <c r="D34">
-        <v>209.643964764416</v>
+        <v>212.354240260622</v>
       </c>
       <c r="E34">
-        <v>82.097277149229</v>
+        <v>86.1821198237357</v>
       </c>
       <c r="F34">
-        <v>6.82856211037978</v>
+        <v>7.0270175626647</v>
       </c>
       <c r="G34">
-        <v>65.21497773232311</v>
+        <v>66.23558482371099</v>
       </c>
       <c r="H34">
-        <v>44.286186782073</v>
+        <v>43.40836868067</v>
       </c>
       <c r="I34">
-        <v>27.0347919838641</v>
+        <v>28.3458215386902</v>
       </c>
       <c r="J34">
-        <v>58.0867487546623</v>
+        <v>59.7229415759131</v>
       </c>
       <c r="K34">
-        <v>55.8585878131014</v>
+        <v>59.6593473376792</v>
       </c>
       <c r="L34">
-        <v>103.335162235777</v>
+        <v>101.84015193302</v>
       </c>
       <c r="M34">
-        <v>48.2335465533605</v>
+        <v>52.2741786298992</v>
       </c>
       <c r="N34">
-        <v>128.615010161846</v>
+        <v>125.697333248262</v>
       </c>
       <c r="O34">
-        <v>2661.68837635538</v>
+        <v>2672.62167634386</v>
       </c>
       <c r="P34">
-        <v>66.8225840894099</v>
+        <v>70.92084540275771</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>152.742827368269</v>
+        <v>150.534639049851</v>
       </c>
       <c r="C35">
-        <v>5.70249468994793</v>
+        <v>5.68945074106059</v>
       </c>
       <c r="D35">
-        <v>0.768043692831215</v>
+        <v>0.666356472760251</v>
       </c>
       <c r="E35">
-        <v>1.67385719988439</v>
+        <v>1.84741051224757</v>
       </c>
       <c r="F35">
-        <v>5.41718918643267</v>
+        <v>5.49190876065406</v>
       </c>
       <c r="G35">
-        <v>0.436237443925945</v>
+        <v>0.360480308386437</v>
       </c>
       <c r="H35">
-        <v>0.56939925888767</v>
+        <v>0.4274585477401</v>
       </c>
       <c r="I35">
-        <v>0.754181638875788</v>
+        <v>0.7360256952544551</v>
       </c>
       <c r="J35">
-        <v>1.75617336543737</v>
+        <v>1.82285479823834</v>
       </c>
       <c r="K35">
-        <v>6.14022902778686</v>
+        <v>6.30830145875283</v>
       </c>
       <c r="L35">
-        <v>2.36678415118449</v>
+        <v>2.24291132385996</v>
       </c>
       <c r="M35">
-        <v>1.64155817663478</v>
+        <v>1.98153981090958</v>
       </c>
       <c r="N35">
-        <v>2.20987912027402</v>
+        <v>2.25831912703634</v>
       </c>
       <c r="O35">
-        <v>232.974025002394</v>
+        <v>231.391834232872</v>
       </c>
       <c r="P35">
-        <v>40.9532403923064</v>
+        <v>40.772522155891</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2884.98678462002</v>
+        <v>2857.02105780873</v>
       </c>
       <c r="C36">
-        <v>66.8292274862649</v>
+        <v>70.55194751120921</v>
       </c>
       <c r="D36">
-        <v>25.8194837289982</v>
+        <v>23.5426753643181</v>
       </c>
       <c r="E36">
-        <v>98.2435447007644</v>
+        <v>100.691246033341</v>
       </c>
       <c r="F36">
-        <v>32.5399724058957</v>
+        <v>31.3618370291972</v>
       </c>
       <c r="G36">
-        <v>80.74064480343409</v>
+        <v>80.3145974227544</v>
       </c>
       <c r="H36">
-        <v>114.521134620563</v>
+        <v>114.308130338919</v>
       </c>
       <c r="I36">
-        <v>47.5360257729671</v>
+        <v>50.5930630393891</v>
       </c>
       <c r="J36">
-        <v>259.294578043295</v>
+        <v>256.01061798621</v>
       </c>
       <c r="K36">
-        <v>138.104896658276</v>
+        <v>146.900338662038</v>
       </c>
       <c r="L36">
-        <v>105.180147867498</v>
+        <v>103.87841477343</v>
       </c>
       <c r="M36">
-        <v>241.920883333862</v>
+        <v>242.906613574767</v>
       </c>
       <c r="N36">
-        <v>84.1095832380863</v>
+        <v>88.83321571472889</v>
       </c>
       <c r="O36">
-        <v>3831.03255752512</v>
+        <v>3843.4814707355</v>
       </c>
       <c r="P36">
-        <v>68.7116687396952</v>
+        <v>62.3546871185833</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>943.126460653123</v>
+        <v>930.001045875709</v>
       </c>
       <c r="C37">
-        <v>20.5143231778939</v>
+        <v>21.2310108109067</v>
       </c>
       <c r="D37">
-        <v>12.7145649920005</v>
+        <v>11.721447129139</v>
       </c>
       <c r="E37">
-        <v>19.9965127533791</v>
+        <v>21.0562304784344</v>
       </c>
       <c r="F37">
-        <v>42.8663351273467</v>
+        <v>48.8896604611221</v>
       </c>
       <c r="G37">
-        <v>4.76959697563197</v>
+        <v>3.89515552015392</v>
       </c>
       <c r="H37">
-        <v>19.0339390574221</v>
+        <v>17.4239895375831</v>
       </c>
       <c r="I37">
-        <v>11.9389102778839</v>
+        <v>12.0432195279518</v>
       </c>
       <c r="J37">
-        <v>31.5713110427579</v>
+        <v>32.6891322332156</v>
       </c>
       <c r="K37">
-        <v>28.3163446965289</v>
+        <v>30.5589314212558</v>
       </c>
       <c r="L37">
-        <v>27.4465125119526</v>
+        <v>24.365778652334</v>
       </c>
       <c r="M37">
-        <v>29.9170427727453</v>
+        <v>28.6952850959359</v>
       </c>
       <c r="N37">
-        <v>16.2890164650484</v>
+        <v>16.7418084012893</v>
       </c>
       <c r="O37">
-        <v>1135.38826044063</v>
+        <v>1141.86418964203</v>
       </c>
       <c r="P37">
-        <v>67.6782769488341</v>
+        <v>66.4962697993233</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>890.557736915125</v>
+        <v>881.690165034418</v>
       </c>
       <c r="C38">
-        <v>28.5018733898785</v>
+        <v>27.9468702063401</v>
       </c>
       <c r="D38">
-        <v>10.2654807441475</v>
+        <v>9.671084504600371</v>
       </c>
       <c r="E38">
-        <v>55.6393863624892</v>
+        <v>57.8908379626833</v>
       </c>
       <c r="F38">
-        <v>1.72744439461247</v>
+        <v>1.76831429823664</v>
       </c>
       <c r="G38">
-        <v>7.32480014255051</v>
+        <v>7.52049710465122</v>
       </c>
       <c r="H38">
-        <v>6.28449659363253</v>
+        <v>6.45422458422247</v>
       </c>
       <c r="I38">
-        <v>6.80497828083637</v>
+        <v>8.15389801312238</v>
       </c>
       <c r="J38">
-        <v>27.3956329534381</v>
+        <v>27.072679320455</v>
       </c>
       <c r="K38">
-        <v>16.7268763141591</v>
+        <v>18.3356247919027</v>
       </c>
       <c r="L38">
-        <v>53.127101026593</v>
+        <v>54.525079077349</v>
       </c>
       <c r="M38">
-        <v>24.8215186181555</v>
+        <v>22.7928230120495</v>
       </c>
       <c r="N38">
-        <v>24.7431980433374</v>
+        <v>24.3088964829056</v>
       </c>
       <c r="O38">
-        <v>1219.75398395859</v>
+        <v>1220.95864497688</v>
       </c>
       <c r="P38">
-        <v>71.8173763317548</v>
+        <v>69.5497934300205</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3383.96484229163</v>
+        <v>3362.87045107909</v>
       </c>
       <c r="C39">
-        <v>103.970984201973</v>
+        <v>108.221232130348</v>
       </c>
       <c r="D39">
-        <v>60.0522126418312</v>
+        <v>58.7370603826621</v>
       </c>
       <c r="E39">
-        <v>122.658698068802</v>
+        <v>125.178018002265</v>
       </c>
       <c r="F39">
-        <v>33.5106784815058</v>
+        <v>31.2926892325889</v>
       </c>
       <c r="G39">
-        <v>99.3451907293109</v>
+        <v>97.08682106984981</v>
       </c>
       <c r="H39">
-        <v>54.8391140637295</v>
+        <v>55.6773248247047</v>
       </c>
       <c r="I39">
-        <v>59.173838094999</v>
+        <v>58.8025612258592</v>
       </c>
       <c r="J39">
-        <v>202.306510171919</v>
+        <v>202.162799797239</v>
       </c>
       <c r="K39">
-        <v>117.78919141528</v>
+        <v>115.355612864537</v>
       </c>
       <c r="L39">
-        <v>121.453283151023</v>
+        <v>124.969277465903</v>
       </c>
       <c r="M39">
-        <v>75.37091670987</v>
+        <v>74.451423574583</v>
       </c>
       <c r="N39">
-        <v>97.9490788793721</v>
+        <v>97.1936597816658</v>
       </c>
       <c r="O39">
-        <v>4186.54607025351</v>
+        <v>4199.75677851646</v>
       </c>
       <c r="P39">
-        <v>79.81928229436851</v>
+        <v>85.5526770716515</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>281.40581312288</v>
+        <v>277.483058828245</v>
       </c>
       <c r="C40">
-        <v>3.23395315816112</v>
+        <v>3.76235299001783</v>
       </c>
       <c r="D40">
-        <v>10.0167641000771</v>
+        <v>9.62186793398026</v>
       </c>
       <c r="E40">
-        <v>3.59944110415195</v>
+        <v>3.9326801962051</v>
       </c>
       <c r="F40">
-        <v>0.861714744400059</v>
+        <v>0.7842764450694421</v>
       </c>
       <c r="G40">
-        <v>2.71834286408202</v>
+        <v>3.07023929075569</v>
       </c>
       <c r="H40">
-        <v>8.131273832844959</v>
+        <v>8.21928848031399</v>
       </c>
       <c r="I40">
-        <v>1.68977217104016</v>
+        <v>1.68411113520841</v>
       </c>
       <c r="J40">
-        <v>10.4318105631293</v>
+        <v>11.2969019787892</v>
       </c>
       <c r="K40">
-        <v>6.02218758664491</v>
+        <v>6.49288154062289</v>
       </c>
       <c r="L40">
-        <v>14.083509601083</v>
+        <v>13.3543493573651</v>
       </c>
       <c r="M40">
-        <v>8.0156877695505</v>
+        <v>7.62885427609156</v>
       </c>
       <c r="N40">
-        <v>25.9507455887512</v>
+        <v>24.7938752681618</v>
       </c>
       <c r="O40">
-        <v>366.223065962216</v>
+        <v>367.596591213243</v>
       </c>
       <c r="P40">
-        <v>2.71327619903011</v>
+        <v>2.77606128322571</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1056.66010506462</v>
+        <v>1051.78653101195</v>
       </c>
       <c r="C41">
-        <v>16.636928978128</v>
+        <v>17.9207534267759</v>
       </c>
       <c r="D41">
-        <v>101.640950327688</v>
+        <v>104.253713129015</v>
       </c>
       <c r="E41">
-        <v>47.336941190174</v>
+        <v>45.6028801204465</v>
       </c>
       <c r="F41">
-        <v>3.44686542399255</v>
+        <v>3.7853052817962</v>
       </c>
       <c r="G41">
-        <v>32.2882542452764</v>
+        <v>32.6975577115126</v>
       </c>
       <c r="H41">
-        <v>34.852457048676</v>
+        <v>33.9408624081201</v>
       </c>
       <c r="I41">
-        <v>8.290613588347361</v>
+        <v>6.78910583742954</v>
       </c>
       <c r="J41">
-        <v>45.0727526924698</v>
+        <v>45.733155975916</v>
       </c>
       <c r="K41">
-        <v>45.1367603753907</v>
+        <v>43.4813684075864</v>
       </c>
       <c r="L41">
-        <v>25.4815060428755</v>
+        <v>28.3411610217572</v>
       </c>
       <c r="M41">
-        <v>33.1956237491058</v>
+        <v>37.2923514390881</v>
       </c>
       <c r="N41">
-        <v>20.0115826004126</v>
+        <v>18.9788004038368</v>
       </c>
       <c r="O41">
-        <v>1305.80048049842</v>
+        <v>1308.52835825647</v>
       </c>
       <c r="P41">
-        <v>19.5123362862165</v>
+        <v>17.3960871739977</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>165.493877079849</v>
+        <v>163.657967734008</v>
       </c>
       <c r="C42">
-        <v>8.39894565642096</v>
+        <v>8.987658502977901</v>
       </c>
       <c r="D42">
-        <v>1.48424168620316</v>
+        <v>1.31538306103054</v>
       </c>
       <c r="E42">
-        <v>4.48952452664406</v>
+        <v>5.03994962637455</v>
       </c>
       <c r="F42">
-        <v>1.56914587445537</v>
+        <v>1.5799186984879</v>
       </c>
       <c r="G42">
-        <v>1.33454837887046</v>
+        <v>1.17022753824832</v>
       </c>
       <c r="H42">
-        <v>1.66151791112374</v>
+        <v>1.79265497332168</v>
       </c>
       <c r="I42">
-        <v>1.27296846257845</v>
+        <v>1.30217866725134</v>
       </c>
       <c r="J42">
-        <v>4.07598957718823</v>
+        <v>3.95590326163573</v>
       </c>
       <c r="K42">
-        <v>7.38757687918445</v>
+        <v>7.42582952070893</v>
       </c>
       <c r="L42">
-        <v>6.76065520921003</v>
+        <v>6.90451239556921</v>
       </c>
       <c r="M42">
-        <v>2.96050100719039</v>
+        <v>3.09051630635749</v>
       </c>
       <c r="N42">
-        <v>7.11462718635901</v>
+        <v>6.77736796904204</v>
       </c>
       <c r="O42">
-        <v>269.687967335961</v>
+        <v>270.876287479001</v>
       </c>
       <c r="P42">
-        <v>42.9183599437931</v>
+        <v>43.4043071788156</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1495.47467444252</v>
+        <v>1500.88597023238</v>
       </c>
       <c r="C43">
-        <v>45.7118197925478</v>
+        <v>44.7319781144113</v>
       </c>
       <c r="D43">
-        <v>48.6185448235179</v>
+        <v>49.1169659335743</v>
       </c>
       <c r="E43">
-        <v>67.32295953739759</v>
+        <v>59.8167420157498</v>
       </c>
       <c r="F43">
-        <v>9.22425663018578</v>
+        <v>8.36174508711024</v>
       </c>
       <c r="G43">
-        <v>34.6000702615428</v>
+        <v>31.8849295480838</v>
       </c>
       <c r="H43">
-        <v>38.5900155169975</v>
+        <v>31.4794995638066</v>
       </c>
       <c r="I43">
-        <v>20.0519515055488</v>
+        <v>19.6437880474339</v>
       </c>
       <c r="J43">
-        <v>69.8627923894994</v>
+        <v>71.75288077866129</v>
       </c>
       <c r="K43">
-        <v>45.8165341242088</v>
+        <v>47.3165307843061</v>
       </c>
       <c r="L43">
-        <v>58.1695732448723</v>
+        <v>62.350004517555</v>
       </c>
       <c r="M43">
-        <v>94.4949730567195</v>
+        <v>87.3916643222333</v>
       </c>
       <c r="N43">
-        <v>79.0734387248735</v>
+        <v>77.5659562444062</v>
       </c>
       <c r="O43">
-        <v>1903.95525866702</v>
+        <v>1915.05440513279</v>
       </c>
       <c r="P43">
-        <v>42.7871862789049</v>
+        <v>40.6804802945564</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>5313.34162851414</v>
+        <v>5299.34049590839</v>
       </c>
       <c r="C44">
-        <v>137.192885550953</v>
+        <v>137.457535790518</v>
       </c>
       <c r="D44">
-        <v>65.9008014329693</v>
+        <v>66.2548453244048</v>
       </c>
       <c r="E44">
-        <v>99.9980660822017</v>
+        <v>99.8247167890584</v>
       </c>
       <c r="F44">
-        <v>205.071901431367</v>
+        <v>212.848178856855</v>
       </c>
       <c r="G44">
-        <v>112.552274157002</v>
+        <v>123.447021429804</v>
       </c>
       <c r="H44">
-        <v>63.3048141000119</v>
+        <v>62.6165281448646</v>
       </c>
       <c r="I44">
-        <v>47.7100279953352</v>
+        <v>46.877962643812</v>
       </c>
       <c r="J44">
-        <v>144.186016903496</v>
+        <v>143.12419545577</v>
       </c>
       <c r="K44">
-        <v>123.375029253092</v>
+        <v>124.283292860913</v>
       </c>
       <c r="L44">
-        <v>250.031675642283</v>
+        <v>245.372166805772</v>
       </c>
       <c r="M44">
-        <v>129.783444391738</v>
+        <v>129.644805849695</v>
       </c>
       <c r="N44">
-        <v>98.17616251179391</v>
+        <v>93.45442286031749</v>
       </c>
       <c r="O44">
-        <v>7160.53542400557</v>
+        <v>7188.057004863</v>
       </c>
       <c r="P44">
-        <v>230.131511874129</v>
+        <v>224.684619330183</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>483.545385660752</v>
+        <v>478.040739419884</v>
       </c>
       <c r="C45">
-        <v>17.5352201782188</v>
+        <v>17.4446929386836</v>
       </c>
       <c r="D45">
-        <v>3.95306088952083</v>
+        <v>3.72309320918355</v>
       </c>
       <c r="E45">
-        <v>10.3277394982063</v>
+        <v>12.0170955819423</v>
       </c>
       <c r="F45">
-        <v>18.7530737986743</v>
+        <v>18.2845630939613</v>
       </c>
       <c r="G45">
-        <v>7.90771243861635</v>
+        <v>7.90964431907416</v>
       </c>
       <c r="H45">
-        <v>3.70586786874662</v>
+        <v>3.90834290883182</v>
       </c>
       <c r="I45">
-        <v>6.88221900520305</v>
+        <v>5.81970927877387</v>
       </c>
       <c r="J45">
-        <v>15.4960638090014</v>
+        <v>15.792330096011</v>
       </c>
       <c r="K45">
-        <v>10.8299030237316</v>
+        <v>10.674602989804</v>
       </c>
       <c r="L45">
-        <v>22.0850320890232</v>
+        <v>21.4541067611239</v>
       </c>
       <c r="M45">
-        <v>28.744517884914</v>
+        <v>29.2805470143838</v>
       </c>
       <c r="N45">
-        <v>23.9726436971605</v>
+        <v>24.0300646090288</v>
       </c>
       <c r="O45">
-        <v>811.141860490286</v>
+        <v>817.318341590459</v>
       </c>
       <c r="P45">
-        <v>21.2889869503787</v>
+        <v>21.169942337204</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>137.554121076413</v>
+        <v>137.147267917354</v>
       </c>
       <c r="C46">
-        <v>4.38546304882534</v>
+        <v>4.78838910762495</v>
       </c>
       <c r="D46">
-        <v>1.88122082295005</v>
+        <v>2.08620487580693</v>
       </c>
       <c r="E46">
-        <v>7.85005468929837</v>
+        <v>7.48763518308966</v>
       </c>
       <c r="F46">
-        <v>0.76058762676277</v>
+        <v>0.793856202213132</v>
       </c>
       <c r="G46">
-        <v>1.1446971898765</v>
+        <v>1.19937425836728</v>
       </c>
       <c r="H46">
-        <v>1.08230051481613</v>
+        <v>1.35809578816765</v>
       </c>
       <c r="I46">
-        <v>2.0360852153874</v>
+        <v>2.24606235278974</v>
       </c>
       <c r="J46">
-        <v>5.07467642281615</v>
+        <v>5.01883265533808</v>
       </c>
       <c r="K46">
-        <v>3.99728241047106</v>
+        <v>4.19375206060755</v>
       </c>
       <c r="L46">
-        <v>10.5331117791567</v>
+        <v>10.8719023091227</v>
       </c>
       <c r="M46">
-        <v>4.20433721539266</v>
+        <v>4.27790396306728</v>
       </c>
       <c r="N46">
-        <v>7.72540679749167</v>
+        <v>7.91661678119466</v>
       </c>
       <c r="O46">
-        <v>234.355092797188</v>
+        <v>235.662526803539</v>
       </c>
       <c r="P46">
-        <v>10.399081981481</v>
+        <v>10.7741360867928</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1716.48064122486</v>
+        <v>1689.53056297069</v>
       </c>
       <c r="C47">
-        <v>56.674678976851</v>
+        <v>56.9508899303103</v>
       </c>
       <c r="D47">
-        <v>45.6018903288753</v>
+        <v>51.5436387211644</v>
       </c>
       <c r="E47">
-        <v>59.1068225055232</v>
+        <v>56.9802684977425</v>
       </c>
       <c r="F47">
-        <v>12.0664319116918</v>
+        <v>12.9211832672081</v>
       </c>
       <c r="G47">
-        <v>34.9325851412501</v>
+        <v>36.4416426440811</v>
       </c>
       <c r="H47">
-        <v>25.0258380866805</v>
+        <v>23.3542057096936</v>
       </c>
       <c r="I47">
-        <v>16.612187319064</v>
+        <v>17.6026908595966</v>
       </c>
       <c r="J47">
-        <v>42.7519636491693</v>
+        <v>44.9288476171157</v>
       </c>
       <c r="K47">
-        <v>37.6403352246343</v>
+        <v>39.5612560707111</v>
       </c>
       <c r="L47">
-        <v>51.1700264418613</v>
+        <v>52.697132075987</v>
       </c>
       <c r="M47">
-        <v>72.6852351315019</v>
+        <v>73.576040866311</v>
       </c>
       <c r="N47">
-        <v>45.6380271040437</v>
+        <v>43.7009061559595</v>
       </c>
       <c r="O47">
-        <v>2652.47716057548</v>
+        <v>2667.6725163081</v>
       </c>
       <c r="P47">
-        <v>52.5078039859951</v>
+        <v>55.7005520982795</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1480.8003335895</v>
+        <v>1466.29930870088</v>
       </c>
       <c r="C48">
-        <v>32.1127759255763</v>
+        <v>32.7411709172768</v>
       </c>
       <c r="D48">
-        <v>9.228842322464891</v>
+        <v>8.32593696521095</v>
       </c>
       <c r="E48">
-        <v>65.57343552294169</v>
+        <v>64.0450694137768</v>
       </c>
       <c r="F48">
-        <v>13.6222531925244</v>
+        <v>12.9646996597413</v>
       </c>
       <c r="G48">
-        <v>14.9574817049643</v>
+        <v>13.5479800012532</v>
       </c>
       <c r="H48">
-        <v>10.6219284279612</v>
+        <v>9.498408436139981</v>
       </c>
       <c r="I48">
-        <v>14.6984768444798</v>
+        <v>13.6481505676511</v>
       </c>
       <c r="J48">
-        <v>29.9009252875521</v>
+        <v>31.2135717729927</v>
       </c>
       <c r="K48">
-        <v>18.6714805832445</v>
+        <v>18.1746799730732</v>
       </c>
       <c r="L48">
-        <v>38.265629905979</v>
+        <v>35.9218013866585</v>
       </c>
       <c r="M48">
-        <v>143.508809679592</v>
+        <v>142.909850126943</v>
       </c>
       <c r="N48">
-        <v>19.0480218901932</v>
+        <v>23.2032354834744</v>
       </c>
       <c r="O48">
-        <v>2143.24141908988</v>
+        <v>2164.47152988243</v>
       </c>
       <c r="P48">
-        <v>107.673040223662</v>
+        <v>110.667112881389</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>637.047916235294</v>
+        <v>630.858781371817</v>
       </c>
       <c r="C49">
-        <v>8.626502333274861</v>
+        <v>7.57783584863722</v>
       </c>
       <c r="D49">
-        <v>5.78001702084964</v>
+        <v>5.00445900501627</v>
       </c>
       <c r="E49">
-        <v>13.3112738417239</v>
+        <v>13.7066610299934</v>
       </c>
       <c r="F49">
-        <v>29.8912405867694</v>
+        <v>29.9053394683153</v>
       </c>
       <c r="G49">
-        <v>16.7249513898416</v>
+        <v>17.1675965396371</v>
       </c>
       <c r="H49">
-        <v>5.17089797548013</v>
+        <v>5.05043546743553</v>
       </c>
       <c r="I49">
-        <v>8.369128285472989</v>
+        <v>8.406641671744589</v>
       </c>
       <c r="J49">
-        <v>19.1730682844197</v>
+        <v>19.264839597736</v>
       </c>
       <c r="K49">
-        <v>8.1367812931625</v>
+        <v>7.44233357312828</v>
       </c>
       <c r="L49">
-        <v>3.68728342018435</v>
+        <v>3.48137445238094</v>
       </c>
       <c r="M49">
-        <v>8.212655470964171</v>
+        <v>8.397800675652521</v>
       </c>
       <c r="N49">
-        <v>3.57717566228965</v>
+        <v>3.52004221854578</v>
       </c>
       <c r="O49">
-        <v>573.7163032827179</v>
+        <v>577.919396026811</v>
       </c>
       <c r="P49">
-        <v>8.121026655993051</v>
+        <v>9.283105071105981</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1173.04459675745</v>
+        <v>1156.42489091564</v>
       </c>
       <c r="C50">
-        <v>89.8052026448818</v>
+        <v>90.54342960757811</v>
       </c>
       <c r="D50">
-        <v>11.9924331563757</v>
+        <v>12.0479919247528</v>
       </c>
       <c r="E50">
-        <v>130.325829284106</v>
+        <v>122.898645068059</v>
       </c>
       <c r="F50">
-        <v>5.18071214178179</v>
+        <v>5.40477847260667</v>
       </c>
       <c r="G50">
-        <v>16.6445836594772</v>
+        <v>20.5046321751357</v>
       </c>
       <c r="H50">
-        <v>29.0148693006929</v>
+        <v>30.0321064699185</v>
       </c>
       <c r="I50">
-        <v>21.7215114697186</v>
+        <v>21.6184611314121</v>
       </c>
       <c r="J50">
-        <v>99.0905497763882</v>
+        <v>101.718107677581</v>
       </c>
       <c r="K50">
-        <v>110.138031835834</v>
+        <v>113.267538912072</v>
       </c>
       <c r="L50">
-        <v>75.0463555882274</v>
+        <v>73.5368486257026</v>
       </c>
       <c r="M50">
-        <v>44.2282443585831</v>
+        <v>45.591644718042</v>
       </c>
       <c r="N50">
-        <v>63.7606909104822</v>
+        <v>64.2068232436407</v>
       </c>
       <c r="O50">
-        <v>1783.75238015657</v>
+        <v>1784.04777306292</v>
       </c>
       <c r="P50">
-        <v>127.713477211518</v>
+        <v>135.909124595574</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>113.995968221338</v>
+        <v>115.336114067371</v>
       </c>
       <c r="C51">
-        <v>1.16003225157465</v>
+        <v>1.18553012731934</v>
       </c>
       <c r="D51">
-        <v>0.712534878809815</v>
+        <v>0.689417757732648</v>
       </c>
       <c r="E51">
-        <v>1.54430663688646</v>
+        <v>1.66791110325446</v>
       </c>
       <c r="F51">
-        <v>23.3857226718224</v>
+        <v>22.2332453772496</v>
       </c>
       <c r="G51">
-        <v>1.92860814490162</v>
+        <v>2.16576417039147</v>
       </c>
       <c r="H51">
-        <v>0.341367283291077</v>
+        <v>0.316178850804029</v>
       </c>
       <c r="I51">
-        <v>0.725801845095129</v>
+        <v>1.34925367118748</v>
       </c>
       <c r="J51">
-        <v>1.54117433442232</v>
+        <v>1.63913491702868</v>
       </c>
       <c r="K51">
-        <v>0.96977210205058</v>
+        <v>1.03176594221563</v>
       </c>
       <c r="L51">
-        <v>0.527360782493036</v>
+        <v>0.606152882473209</v>
       </c>
       <c r="M51">
-        <v>0.981556129998807</v>
+        <v>0.800721728461341</v>
       </c>
       <c r="N51">
-        <v>1.49064320984278</v>
+        <v>1.33210241890797</v>
       </c>
       <c r="O51">
-        <v>183.981459440153</v>
+        <v>184.738198138089</v>
       </c>
       <c r="P51">
-        <v>15.1681448272669</v>
+        <v>14.5264010465309</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_1999.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_1999.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1293.44480120583</v>
+        <v>1135.18881365623</v>
       </c>
       <c r="C2">
-        <v>39.9735448644219</v>
+        <v>42.3178011847934</v>
       </c>
       <c r="D2">
-        <v>72.83621298861161</v>
+        <v>74.7337735879002</v>
       </c>
       <c r="E2">
-        <v>67.5861262633352</v>
+        <v>63.6785457493553</v>
       </c>
       <c r="F2">
-        <v>13.2777735190855</v>
+        <v>13.4368607340841</v>
       </c>
       <c r="G2">
-        <v>22.3841256845873</v>
+        <v>23.5618526923543</v>
       </c>
       <c r="H2">
-        <v>22.7703030609831</v>
+        <v>23.9452243980703</v>
       </c>
       <c r="I2">
-        <v>14.7623723151915</v>
+        <v>15.7906203078371</v>
       </c>
       <c r="J2">
-        <v>62.3391696576399</v>
+        <v>74.3224654278584</v>
       </c>
       <c r="K2">
-        <v>24.9937394627405</v>
+        <v>29.0479281666022</v>
       </c>
       <c r="L2">
-        <v>30.3758670611289</v>
+        <v>32.3772136989468</v>
       </c>
       <c r="M2">
-        <v>41.232647736972</v>
+        <v>45.4878225041676</v>
       </c>
       <c r="N2">
-        <v>28.4450416915979</v>
+        <v>28.1876811426365</v>
       </c>
       <c r="O2">
-        <v>1376.42067568176</v>
+        <v>1509.9249166291</v>
       </c>
       <c r="P2">
-        <v>44.4282348185034</v>
+        <v>44.0392899361222</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>137.391739656025</v>
+        <v>122.134448120069</v>
       </c>
       <c r="C3">
-        <v>5.04644998522983</v>
+        <v>5.46097197331019</v>
       </c>
       <c r="D3">
-        <v>0.311320091829345</v>
+        <v>0.318881531563936</v>
       </c>
       <c r="E3">
-        <v>1.6424752391614</v>
+        <v>1.55336542989893</v>
       </c>
       <c r="F3">
-        <v>10.1666586370196</v>
+        <v>11.8313303429281</v>
       </c>
       <c r="G3">
-        <v>0.457041931484642</v>
+        <v>0.556343971429742</v>
       </c>
       <c r="H3">
-        <v>0.125104230548149</v>
+        <v>0.187225567982631</v>
       </c>
       <c r="I3">
-        <v>0.304474467899087</v>
+        <v>0.362835433982273</v>
       </c>
       <c r="J3">
-        <v>0.561921821638309</v>
+        <v>0.619021337140772</v>
       </c>
       <c r="K3">
-        <v>0.334398370390769</v>
+        <v>0.35169274726533</v>
       </c>
       <c r="L3">
-        <v>0.323792153507937</v>
+        <v>0.415467514806318</v>
       </c>
       <c r="M3">
-        <v>1.02030548025654</v>
+        <v>1.14907992877945</v>
       </c>
       <c r="N3">
-        <v>0.56583970859796</v>
+        <v>0.629363077926164</v>
       </c>
       <c r="O3">
-        <v>233.901550224545</v>
+        <v>250.681682284364</v>
       </c>
       <c r="P3">
-        <v>10.1807187818439</v>
+        <v>9.220222529631011</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1404.06067321969</v>
+        <v>1240.74579613221</v>
       </c>
       <c r="C4">
-        <v>13.70244422906</v>
+        <v>15.4807434792308</v>
       </c>
       <c r="D4">
-        <v>8.92573202533268</v>
+        <v>9.54452215961803</v>
       </c>
       <c r="E4">
-        <v>23.8764607123778</v>
+        <v>23.7243004098078</v>
       </c>
       <c r="F4">
-        <v>17.9463936107262</v>
+        <v>15.1119156731307</v>
       </c>
       <c r="G4">
-        <v>12.581985426625</v>
+        <v>16.009941678993</v>
       </c>
       <c r="H4">
-        <v>4.30505299250785</v>
+        <v>4.00461382176535</v>
       </c>
       <c r="I4">
-        <v>8.29806489836715</v>
+        <v>9.144620049732801</v>
       </c>
       <c r="J4">
-        <v>18.7695049953976</v>
+        <v>20.8963741975786</v>
       </c>
       <c r="K4">
-        <v>14.6430302338758</v>
+        <v>13.7755344362703</v>
       </c>
       <c r="L4">
-        <v>76.3932049222577</v>
+        <v>87.1820667855087</v>
       </c>
       <c r="M4">
-        <v>56.2973031000457</v>
+        <v>65.2106621659395</v>
       </c>
       <c r="N4">
-        <v>23.6323459055635</v>
+        <v>22.1108796294986</v>
       </c>
       <c r="O4">
-        <v>1821.70926487463</v>
+        <v>1966.50073116682</v>
       </c>
       <c r="P4">
-        <v>29.4911549921477</v>
+        <v>29.2227652318479</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>753.6131866256731</v>
+        <v>669.8988378240171</v>
       </c>
       <c r="C5">
-        <v>54.6491637318061</v>
+        <v>55.3278338426033</v>
       </c>
       <c r="D5">
-        <v>13.3681467163969</v>
+        <v>12.2060704389086</v>
       </c>
       <c r="E5">
-        <v>39.9474781461832</v>
+        <v>43.2462074099102</v>
       </c>
       <c r="F5">
-        <v>6.31123564160961</v>
+        <v>6.38872439093436</v>
       </c>
       <c r="G5">
-        <v>13.9799837906703</v>
+        <v>14.6090648443407</v>
       </c>
       <c r="H5">
-        <v>12.8776878948974</v>
+        <v>13.6936952692507</v>
       </c>
       <c r="I5">
-        <v>6.11247283406823</v>
+        <v>7.40122871161231</v>
       </c>
       <c r="J5">
-        <v>34.4695692344266</v>
+        <v>33.4631067057645</v>
       </c>
       <c r="K5">
-        <v>21.9279669525348</v>
+        <v>22.9433455830181</v>
       </c>
       <c r="L5">
-        <v>25.8364244261675</v>
+        <v>24.8167225994503</v>
       </c>
       <c r="M5">
-        <v>21.9465628782489</v>
+        <v>20.3486161406732</v>
       </c>
       <c r="N5">
-        <v>17.7066373397137</v>
+        <v>19.7826177469781</v>
       </c>
       <c r="O5">
-        <v>791.172344138119</v>
+        <v>872.020631984263</v>
       </c>
       <c r="P5">
-        <v>59.8971708226626</v>
+        <v>51.5637574261005</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>9224.451036920909</v>
+        <v>8065.62284421136</v>
       </c>
       <c r="C6">
-        <v>206.058468959356</v>
+        <v>215.613514576068</v>
       </c>
       <c r="D6">
-        <v>201.814251120036</v>
+        <v>220.652935752209</v>
       </c>
       <c r="E6">
-        <v>146.292337225532</v>
+        <v>149.821998287247</v>
       </c>
       <c r="F6">
-        <v>50.5083877478174</v>
+        <v>51.9933137971965</v>
       </c>
       <c r="G6">
-        <v>109.738161261421</v>
+        <v>121.938537732485</v>
       </c>
       <c r="H6">
-        <v>59.9686881985101</v>
+        <v>68.6198614406982</v>
       </c>
       <c r="I6">
-        <v>53.9336845978543</v>
+        <v>60.6252347650398</v>
       </c>
       <c r="J6">
-        <v>193.645445282028</v>
+        <v>214.08642788402</v>
       </c>
       <c r="K6">
-        <v>127.41465394199</v>
+        <v>143.223306672207</v>
       </c>
       <c r="L6">
-        <v>572.393688467371</v>
+        <v>647.130127512445</v>
       </c>
       <c r="M6">
-        <v>274.738453607319</v>
+        <v>292.732747742694</v>
       </c>
       <c r="N6">
-        <v>304.433014795038</v>
+        <v>329.920574943559</v>
       </c>
       <c r="O6">
-        <v>11665.2821135518</v>
+        <v>12647.635741177</v>
       </c>
       <c r="P6">
-        <v>316.246436148717</v>
+        <v>303.265256511425</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>915.570368872779</v>
+        <v>798.098059691086</v>
       </c>
       <c r="C7">
-        <v>30.0379303169996</v>
+        <v>32.1246437258313</v>
       </c>
       <c r="D7">
-        <v>4.29041033981157</v>
+        <v>4.50722082724485</v>
       </c>
       <c r="E7">
-        <v>20.6793351578874</v>
+        <v>21.3011049505876</v>
       </c>
       <c r="F7">
-        <v>19.1219334302454</v>
+        <v>19.2519386170862</v>
       </c>
       <c r="G7">
-        <v>9.561343383322861</v>
+        <v>9.558465812085849</v>
       </c>
       <c r="H7">
-        <v>8.86406632565379</v>
+        <v>9.23237651824849</v>
       </c>
       <c r="I7">
-        <v>10.7175163761185</v>
+        <v>12.310449351796</v>
       </c>
       <c r="J7">
-        <v>17.5655662915551</v>
+        <v>19.9668065372535</v>
       </c>
       <c r="K7">
-        <v>22.8812086332911</v>
+        <v>24.3798858133587</v>
       </c>
       <c r="L7">
-        <v>66.3604628747068</v>
+        <v>74.5585796072936</v>
       </c>
       <c r="M7">
-        <v>20.2747475941113</v>
+        <v>22.6955834424592</v>
       </c>
       <c r="N7">
-        <v>26.6435381797905</v>
+        <v>30.123482765796</v>
       </c>
       <c r="O7">
-        <v>1803.62600079755</v>
+        <v>1918.83034843363</v>
       </c>
       <c r="P7">
-        <v>42.0612335386338</v>
+        <v>30.986193017169</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>840.738226326331</v>
+        <v>732.271086936338</v>
       </c>
       <c r="C8">
-        <v>12.4639458824116</v>
+        <v>15.3157234784114</v>
       </c>
       <c r="D8">
-        <v>8.83314372346047</v>
+        <v>9.26917632727551</v>
       </c>
       <c r="E8">
-        <v>24.6708092265768</v>
+        <v>23.4498623096123</v>
       </c>
       <c r="F8">
-        <v>0.538301599135695</v>
+        <v>0.634649548590429</v>
       </c>
       <c r="G8">
-        <v>24.1917280308791</v>
+        <v>27.2579537970251</v>
       </c>
       <c r="H8">
-        <v>14.2567328609552</v>
+        <v>16.2179567484797</v>
       </c>
       <c r="I8">
-        <v>2.81200708057419</v>
+        <v>3.24328729958166</v>
       </c>
       <c r="J8">
-        <v>49.5657437031284</v>
+        <v>53.2781356550127</v>
       </c>
       <c r="K8">
-        <v>33.0995826338073</v>
+        <v>34.4905398936856</v>
       </c>
       <c r="L8">
-        <v>38.8442494370764</v>
+        <v>43.5594363413017</v>
       </c>
       <c r="M8">
-        <v>57.2543452276852</v>
+        <v>61.6894082520791</v>
       </c>
       <c r="N8">
-        <v>28.2319368088946</v>
+        <v>30.5135722554273</v>
       </c>
       <c r="O8">
-        <v>1266.03315627399</v>
+        <v>1348.38273043871</v>
       </c>
       <c r="P8">
-        <v>9.74717286225393</v>
+        <v>7.53204555197108</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>193.004281872418</v>
+        <v>169.581791390621</v>
       </c>
       <c r="C9">
-        <v>8.53855037095501</v>
+        <v>9.525491653512169</v>
       </c>
       <c r="D9">
-        <v>1.4693808581306</v>
+        <v>1.54667802329591</v>
       </c>
       <c r="E9">
-        <v>5.27860721148858</v>
+        <v>4.75823739594938</v>
       </c>
       <c r="F9">
-        <v>1.78767993548701</v>
+        <v>2.20140063814299</v>
       </c>
       <c r="G9">
-        <v>20.8945141221806</v>
+        <v>24.1164832192323</v>
       </c>
       <c r="H9">
-        <v>3.501668485674</v>
+        <v>4.38324285851102</v>
       </c>
       <c r="I9">
-        <v>0.457017255820441</v>
+        <v>0.475087274203607</v>
       </c>
       <c r="J9">
-        <v>4.0536117504727</v>
+        <v>4.02758079011299</v>
       </c>
       <c r="K9">
-        <v>3.256427854143</v>
+        <v>3.62932807034281</v>
       </c>
       <c r="L9">
-        <v>2.3154407646236</v>
+        <v>2.08374673738736</v>
       </c>
       <c r="M9">
-        <v>7.5427361735485</v>
+        <v>9.034288557334481</v>
       </c>
       <c r="N9">
-        <v>4.55536878129165</v>
+        <v>4.54567386877641</v>
       </c>
       <c r="O9">
-        <v>289.874183181448</v>
+        <v>306.068267698569</v>
       </c>
       <c r="P9">
-        <v>4.90234099166773</v>
+        <v>5.14379189574991</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4803.00674188951</v>
+        <v>4155.87378432247</v>
       </c>
       <c r="C10">
-        <v>47.0245753852133</v>
+        <v>51.3877483377485</v>
       </c>
       <c r="D10">
-        <v>38.0802566401899</v>
+        <v>40.9781641503937</v>
       </c>
       <c r="E10">
-        <v>58.0718925690457</v>
+        <v>63.4758417112558</v>
       </c>
       <c r="F10">
-        <v>13.8335149024568</v>
+        <v>15.1449788033135</v>
       </c>
       <c r="G10">
-        <v>40.6728760356458</v>
+        <v>44.946116035875</v>
       </c>
       <c r="H10">
-        <v>22.205638650619</v>
+        <v>22.6568496947612</v>
       </c>
       <c r="I10">
-        <v>33.2817657056045</v>
+        <v>33.7812473404631</v>
       </c>
       <c r="J10">
-        <v>46.4983292346524</v>
+        <v>48.1276450883185</v>
       </c>
       <c r="K10">
-        <v>44.8154718981999</v>
+        <v>50.9994162223429</v>
       </c>
       <c r="L10">
-        <v>109.634673218595</v>
+        <v>123.989118503279</v>
       </c>
       <c r="M10">
-        <v>84.1683162380627</v>
+        <v>91.1772070848089</v>
       </c>
       <c r="N10">
-        <v>93.0384623284302</v>
+        <v>108.538627869107</v>
       </c>
       <c r="O10">
-        <v>5999.36436185476</v>
+        <v>6578.13393913221</v>
       </c>
       <c r="P10">
-        <v>100.008908930231</v>
+        <v>97.62016727326051</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1927.01243865711</v>
+        <v>1741.91473615403</v>
       </c>
       <c r="C11">
-        <v>67.61351702768199</v>
+        <v>69.106250247151</v>
       </c>
       <c r="D11">
-        <v>148.850381928564</v>
+        <v>148.904973868985</v>
       </c>
       <c r="E11">
-        <v>97.9463026960466</v>
+        <v>100.322251582501</v>
       </c>
       <c r="F11">
-        <v>14.0817226562686</v>
+        <v>11.9711445599424</v>
       </c>
       <c r="G11">
-        <v>38.6802416895456</v>
+        <v>40.2194201411509</v>
       </c>
       <c r="H11">
-        <v>34.2523603867465</v>
+        <v>35.564230341198</v>
       </c>
       <c r="I11">
-        <v>20.601196704055</v>
+        <v>24.4181682369547</v>
       </c>
       <c r="J11">
-        <v>50.3939800722218</v>
+        <v>47.7170886523411</v>
       </c>
       <c r="K11">
-        <v>50.7026937914695</v>
+        <v>52.9670700772414</v>
       </c>
       <c r="L11">
-        <v>61.9596270018125</v>
+        <v>74.6668901865955</v>
       </c>
       <c r="M11">
-        <v>71.02260569391019</v>
+        <v>74.52131385193169</v>
       </c>
       <c r="N11">
-        <v>57.2867251786018</v>
+        <v>62.9107486166155</v>
       </c>
       <c r="O11">
-        <v>2973.87986833957</v>
+        <v>3147.35150141657</v>
       </c>
       <c r="P11">
-        <v>58.7051577163019</v>
+        <v>46.8155438812274</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>335.802554074261</v>
+        <v>285.34460254059</v>
       </c>
       <c r="C12">
-        <v>5.71028246702638</v>
+        <v>7.21712161617232</v>
       </c>
       <c r="D12">
-        <v>4.13178061602702</v>
+        <v>5.33393142569112</v>
       </c>
       <c r="E12">
-        <v>1.39987771452468</v>
+        <v>2.08798825269767</v>
       </c>
       <c r="F12">
-        <v>0.609535564523183</v>
+        <v>0.621285209626775</v>
       </c>
       <c r="G12">
-        <v>1.27101577251288</v>
+        <v>1.10861745293824</v>
       </c>
       <c r="H12">
-        <v>0.554976953982693</v>
+        <v>0.5771280253971161</v>
       </c>
       <c r="I12">
-        <v>1.26243591446494</v>
+        <v>1.86131082013011</v>
       </c>
       <c r="J12">
-        <v>0.662549771612598</v>
+        <v>0.737091569385229</v>
       </c>
       <c r="K12">
-        <v>0.660313895273951</v>
+        <v>1.10389332281509</v>
       </c>
       <c r="L12">
-        <v>1.731285823731</v>
+        <v>2.16686435475239</v>
       </c>
       <c r="M12">
-        <v>4.13495608251857</v>
+        <v>4.33865284747964</v>
       </c>
       <c r="N12">
-        <v>2.20412948569982</v>
+        <v>2.02212022391424</v>
       </c>
       <c r="O12">
-        <v>467.247069711394</v>
+        <v>515.869889931801</v>
       </c>
       <c r="P12">
-        <v>20.1567780878453</v>
+        <v>16.8217864902152</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>308.21997153771</v>
+        <v>279.521360754267</v>
       </c>
       <c r="C13">
-        <v>23.4269537922215</v>
+        <v>25.4739009221648</v>
       </c>
       <c r="D13">
-        <v>1.63187608182085</v>
+        <v>2.1972811231101</v>
       </c>
       <c r="E13">
-        <v>17.5892169487908</v>
+        <v>17.5667140103248</v>
       </c>
       <c r="F13">
-        <v>4.66050399800887</v>
+        <v>3.91629219595469</v>
       </c>
       <c r="G13">
-        <v>5.0636997286394</v>
+        <v>5.87240816893709</v>
       </c>
       <c r="H13">
-        <v>2.90818646549989</v>
+        <v>2.64971236145343</v>
       </c>
       <c r="I13">
-        <v>1.8563142827423</v>
+        <v>2.27957214542785</v>
       </c>
       <c r="J13">
-        <v>4.79913851482862</v>
+        <v>5.28179538502378</v>
       </c>
       <c r="K13">
-        <v>3.20901766838436</v>
+        <v>3.43476306961557</v>
       </c>
       <c r="L13">
-        <v>20.6845636295072</v>
+        <v>27.3950092828702</v>
       </c>
       <c r="M13">
-        <v>5.28382564671294</v>
+        <v>5.91497585900167</v>
       </c>
       <c r="N13">
-        <v>7.0166803976274</v>
+        <v>8.14122341494766</v>
       </c>
       <c r="O13">
-        <v>434.762196919832</v>
+        <v>465.761047080822</v>
       </c>
       <c r="P13">
-        <v>41.839394501116</v>
+        <v>33.1308122140711</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3050.56303530707</v>
+        <v>2607.80041876381</v>
       </c>
       <c r="C14">
-        <v>107.36780304557</v>
+        <v>109.728449517516</v>
       </c>
       <c r="D14">
-        <v>16.0333918985196</v>
+        <v>21.5214670851961</v>
       </c>
       <c r="E14">
-        <v>88.9270343192853</v>
+        <v>97.27234258239621</v>
       </c>
       <c r="F14">
-        <v>25.7078949427787</v>
+        <v>24.3398357894274</v>
       </c>
       <c r="G14">
-        <v>82.2401204228518</v>
+        <v>94.438851080296</v>
       </c>
       <c r="H14">
-        <v>62.1756411750187</v>
+        <v>60.1118137213668</v>
       </c>
       <c r="I14">
-        <v>39.2600732087375</v>
+        <v>40.3123367654725</v>
       </c>
       <c r="J14">
-        <v>168.26954819613</v>
+        <v>187.318120615459</v>
       </c>
       <c r="K14">
-        <v>175.642423930001</v>
+        <v>175.981185775079</v>
       </c>
       <c r="L14">
-        <v>152.205020190095</v>
+        <v>174.263149491053</v>
       </c>
       <c r="M14">
-        <v>103.78598238671</v>
+        <v>103.003521751381</v>
       </c>
       <c r="N14">
-        <v>93.2592082720012</v>
+        <v>103.018428530777</v>
       </c>
       <c r="O14">
-        <v>4498.93648692729</v>
+        <v>4893.94129456476</v>
       </c>
       <c r="P14">
-        <v>87.3628769438657</v>
+        <v>71.9838396832991</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1425.86959900392</v>
+        <v>1274.24852138504</v>
       </c>
       <c r="C15">
-        <v>40.6697432623623</v>
+        <v>40.7574350406332</v>
       </c>
       <c r="D15">
-        <v>14.7888206983488</v>
+        <v>15.5512419075726</v>
       </c>
       <c r="E15">
-        <v>56.727953226802</v>
+        <v>59.367444836932</v>
       </c>
       <c r="F15">
-        <v>11.6950307174341</v>
+        <v>13.322758924939</v>
       </c>
       <c r="G15">
-        <v>46.4720405571824</v>
+        <v>53.8255190851531</v>
       </c>
       <c r="H15">
-        <v>51.0766055256051</v>
+        <v>53.9579645421384</v>
       </c>
       <c r="I15">
-        <v>28.2859917084438</v>
+        <v>29.9093668991293</v>
       </c>
       <c r="J15">
-        <v>170.435608720136</v>
+        <v>172.340107180695</v>
       </c>
       <c r="K15">
-        <v>86.3478918935074</v>
+        <v>90.8628017601599</v>
       </c>
       <c r="L15">
-        <v>73.9308998771497</v>
+        <v>76.1578616888779</v>
       </c>
       <c r="M15">
-        <v>174.149887444623</v>
+        <v>180.008750701318</v>
       </c>
       <c r="N15">
-        <v>76.68335655950121</v>
+        <v>73.5195488732488</v>
       </c>
       <c r="O15">
-        <v>1982.92218355647</v>
+        <v>2105.99154879748</v>
       </c>
       <c r="P15">
-        <v>47.1020783745113</v>
+        <v>41.0454304332696</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>644.5838966081381</v>
+        <v>525.2840771028911</v>
       </c>
       <c r="C16">
-        <v>57.397350481866</v>
+        <v>62.2679375080077</v>
       </c>
       <c r="D16">
-        <v>9.41810552033008</v>
+        <v>10.8496908573793</v>
       </c>
       <c r="E16">
-        <v>22.8880534945713</v>
+        <v>23.4441395179479</v>
       </c>
       <c r="F16">
-        <v>3.55539108567215</v>
+        <v>4.01702625098515</v>
       </c>
       <c r="G16">
-        <v>13.9715181112449</v>
+        <v>13.1972585052821</v>
       </c>
       <c r="H16">
-        <v>14.4240469733655</v>
+        <v>15.7645511511325</v>
       </c>
       <c r="I16">
-        <v>11.8304967344313</v>
+        <v>12.9177066389516</v>
       </c>
       <c r="J16">
-        <v>46.268098681103</v>
+        <v>45.8848906347759</v>
       </c>
       <c r="K16">
-        <v>41.141435988235</v>
+        <v>41.5473272136403</v>
       </c>
       <c r="L16">
-        <v>38.5441874679859</v>
+        <v>41.4045464069817</v>
       </c>
       <c r="M16">
-        <v>21.2342496719005</v>
+        <v>21.3329315378442</v>
       </c>
       <c r="N16">
-        <v>22.2800844519378</v>
+        <v>21.9448710499765</v>
       </c>
       <c r="O16">
-        <v>1027.14542059239</v>
+        <v>1137.15163066966</v>
       </c>
       <c r="P16">
-        <v>89.55178221707359</v>
+        <v>75.67304190182971</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>606.729658441782</v>
+        <v>518.185838032459</v>
       </c>
       <c r="C17">
-        <v>28.7601326379826</v>
+        <v>33.1597948459845</v>
       </c>
       <c r="D17">
-        <v>5.51061593655402</v>
+        <v>6.48428416032837</v>
       </c>
       <c r="E17">
-        <v>15.271601572421</v>
+        <v>17.6345600749995</v>
       </c>
       <c r="F17">
-        <v>14.3090678048448</v>
+        <v>14.9241369453861</v>
       </c>
       <c r="G17">
-        <v>12.1025836747889</v>
+        <v>15.5409941393631</v>
       </c>
       <c r="H17">
-        <v>14.7850516530208</v>
+        <v>13.8574008756505</v>
       </c>
       <c r="I17">
-        <v>7.25083828229355</v>
+        <v>7.60017091442411</v>
       </c>
       <c r="J17">
-        <v>18.7835430517574</v>
+        <v>19.887156956852</v>
       </c>
       <c r="K17">
-        <v>24.7360103942846</v>
+        <v>26.4484406812223</v>
       </c>
       <c r="L17">
-        <v>14.9722981713857</v>
+        <v>17.2316001474305</v>
       </c>
       <c r="M17">
-        <v>68.71990829616399</v>
+        <v>82.6945607496279</v>
       </c>
       <c r="N17">
-        <v>16.5737871476677</v>
+        <v>15.78010282037</v>
       </c>
       <c r="O17">
-        <v>945.76889987102</v>
+        <v>1015.80052049418</v>
       </c>
       <c r="P17">
-        <v>75.5282248098422</v>
+        <v>54.9979053333502</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1154.98308860208</v>
+        <v>1073.55123297812</v>
       </c>
       <c r="C18">
-        <v>30.3799174226597</v>
+        <v>31.2892496787696</v>
       </c>
       <c r="D18">
-        <v>23.2636025076947</v>
+        <v>28.084265483299</v>
       </c>
       <c r="E18">
-        <v>39.1198684087772</v>
+        <v>41.3164909797841</v>
       </c>
       <c r="F18">
-        <v>31.021220696794</v>
+        <v>32.1991057698849</v>
       </c>
       <c r="G18">
-        <v>25.5049352756241</v>
+        <v>27.8634299467051</v>
       </c>
       <c r="H18">
-        <v>22.7745648118913</v>
+        <v>25.6568684128206</v>
       </c>
       <c r="I18">
-        <v>13.7956955898546</v>
+        <v>12.3638247460912</v>
       </c>
       <c r="J18">
-        <v>45.1295101320355</v>
+        <v>46.5266982949393</v>
       </c>
       <c r="K18">
-        <v>35.3649203104909</v>
+        <v>43.5919203837869</v>
       </c>
       <c r="L18">
-        <v>40.7797487941733</v>
+        <v>42.7681644954294</v>
       </c>
       <c r="M18">
-        <v>59.4584386275461</v>
+        <v>68.1798468733557</v>
       </c>
       <c r="N18">
-        <v>29.4412907844297</v>
+        <v>32.990380897135</v>
       </c>
       <c r="O18">
-        <v>1298.19916668422</v>
+        <v>1348.02735244854</v>
       </c>
       <c r="P18">
-        <v>39.4077572588486</v>
+        <v>39.8802438219429</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1306.27926961439</v>
+        <v>1157.33073806959</v>
       </c>
       <c r="C19">
-        <v>25.9714465766007</v>
+        <v>24.989464643417</v>
       </c>
       <c r="D19">
-        <v>10.9680543128664</v>
+        <v>10.1683425878407</v>
       </c>
       <c r="E19">
-        <v>36.1182514933114</v>
+        <v>33.6460221879987</v>
       </c>
       <c r="F19">
-        <v>66.4579295781183</v>
+        <v>71.81907477490741</v>
       </c>
       <c r="G19">
-        <v>42.2116991405323</v>
+        <v>45.4011911129627</v>
       </c>
       <c r="H19">
-        <v>7.67045989466069</v>
+        <v>7.44363293934931</v>
       </c>
       <c r="I19">
-        <v>7.14697470268214</v>
+        <v>9.1574901232744</v>
       </c>
       <c r="J19">
-        <v>20.160891840046</v>
+        <v>16.9079903623923</v>
       </c>
       <c r="K19">
-        <v>14.142311068712</v>
+        <v>15.5265661491249</v>
       </c>
       <c r="L19">
-        <v>10.1642469704163</v>
+        <v>10.457165044643</v>
       </c>
       <c r="M19">
-        <v>29.0762391126139</v>
+        <v>32.3990354332521</v>
       </c>
       <c r="N19">
-        <v>12.9144084506297</v>
+        <v>14.6951732807632</v>
       </c>
       <c r="O19">
-        <v>1464.71911983132</v>
+        <v>1605.84995198521</v>
       </c>
       <c r="P19">
-        <v>37.8267208691728</v>
+        <v>35.4680544609767</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>326.896024726539</v>
+        <v>290.191096273086</v>
       </c>
       <c r="C20">
-        <v>6.8322735966861</v>
+        <v>8.22058540720562</v>
       </c>
       <c r="D20">
-        <v>16.5272597307664</v>
+        <v>16.5079573194346</v>
       </c>
       <c r="E20">
-        <v>32.1474246540702</v>
+        <v>30.2823180145749</v>
       </c>
       <c r="F20">
-        <v>0.497044336111026</v>
+        <v>0.528264107045317</v>
       </c>
       <c r="G20">
-        <v>1.74891303739621</v>
+        <v>1.70292488845246</v>
       </c>
       <c r="H20">
-        <v>3.02759309030956</v>
+        <v>3.62152155228363</v>
       </c>
       <c r="I20">
-        <v>0.830675139261793</v>
+        <v>0.8733595331530341</v>
       </c>
       <c r="J20">
-        <v>6.95326560928642</v>
+        <v>7.02343753594825</v>
       </c>
       <c r="K20">
-        <v>5.78909941333219</v>
+        <v>6.32492810547335</v>
       </c>
       <c r="L20">
-        <v>7.71442302463223</v>
+        <v>9.853495875788781</v>
       </c>
       <c r="M20">
-        <v>16.4530239627745</v>
+        <v>18.6945198124802</v>
       </c>
       <c r="N20">
-        <v>5.51516667262269</v>
+        <v>5.83376155222658</v>
       </c>
       <c r="O20">
-        <v>460.193802651144</v>
+        <v>494.516155261351</v>
       </c>
       <c r="P20">
-        <v>26.1284154849605</v>
+        <v>20.5093596148315</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1217.15029275846</v>
+        <v>1022.25144180056</v>
       </c>
       <c r="C21">
-        <v>21.301291724828</v>
+        <v>24.7754130104498</v>
       </c>
       <c r="D21">
-        <v>15.2503479050837</v>
+        <v>14.9076613607593</v>
       </c>
       <c r="E21">
-        <v>34.3265155239497</v>
+        <v>35.452399710902</v>
       </c>
       <c r="F21">
-        <v>4.74723172311683</v>
+        <v>4.75415520058742</v>
       </c>
       <c r="G21">
-        <v>12.4439065308081</v>
+        <v>12.9635070015906</v>
       </c>
       <c r="H21">
-        <v>20.8678240174703</v>
+        <v>21.0617222280265</v>
       </c>
       <c r="I21">
-        <v>3.76873416127151</v>
+        <v>6.19710089281051</v>
       </c>
       <c r="J21">
-        <v>13.894624981278</v>
+        <v>15.9481377712949</v>
       </c>
       <c r="K21">
-        <v>22.4927921813306</v>
+        <v>23.3257475905414</v>
       </c>
       <c r="L21">
-        <v>26.0837884629819</v>
+        <v>30.7485236834812</v>
       </c>
       <c r="M21">
-        <v>37.893086649257</v>
+        <v>44.8885621802011</v>
       </c>
       <c r="N21">
-        <v>12.6071434772942</v>
+        <v>13.1019852879852</v>
       </c>
       <c r="O21">
-        <v>2244.01274175695</v>
+        <v>2431.00485286683</v>
       </c>
       <c r="P21">
-        <v>20.6838387849504</v>
+        <v>17.0383542471953</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1538.51483965973</v>
+        <v>1320.17250664152</v>
       </c>
       <c r="C22">
-        <v>22.9270653954879</v>
+        <v>27.5192842695545</v>
       </c>
       <c r="D22">
-        <v>31.5643298145135</v>
+        <v>35.7643241037472</v>
       </c>
       <c r="E22">
-        <v>35.7482998088403</v>
+        <v>35.6129558245425</v>
       </c>
       <c r="F22">
-        <v>3.38603689836446</v>
+        <v>3.23037736588833</v>
       </c>
       <c r="G22">
-        <v>24.7510601355872</v>
+        <v>26.5661269755522</v>
       </c>
       <c r="H22">
-        <v>27.4859435222979</v>
+        <v>28.0945421105138</v>
       </c>
       <c r="I22">
-        <v>10.4368365242474</v>
+        <v>9.033609103782149</v>
       </c>
       <c r="J22">
-        <v>55.1628073781238</v>
+        <v>57.9879605785338</v>
       </c>
       <c r="K22">
-        <v>43.9483240614176</v>
+        <v>46.50709913251</v>
       </c>
       <c r="L22">
-        <v>118.697362642385</v>
+        <v>137.221579260459</v>
       </c>
       <c r="M22">
-        <v>17.1835416403612</v>
+        <v>20.947042700381</v>
       </c>
       <c r="N22">
-        <v>73.1217125957496</v>
+        <v>87.1523252827007</v>
       </c>
       <c r="O22">
-        <v>2541.58779743497</v>
+        <v>2705.12239914191</v>
       </c>
       <c r="P22">
-        <v>17.4542597359297</v>
+        <v>16.4983194759445</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2493.43377101605</v>
+        <v>2211.85858535593</v>
       </c>
       <c r="C23">
-        <v>49.7102975802231</v>
+        <v>45.3131907473137</v>
       </c>
       <c r="D23">
-        <v>15.6595316820569</v>
+        <v>19.2189273418558</v>
       </c>
       <c r="E23">
-        <v>68.0960539935017</v>
+        <v>61.7279960072984</v>
       </c>
       <c r="F23">
-        <v>8.21669971480295</v>
+        <v>6.11397522267134</v>
       </c>
       <c r="G23">
-        <v>56.8725260602317</v>
+        <v>59.6108196610638</v>
       </c>
       <c r="H23">
-        <v>65.0742825750873</v>
+        <v>65.4819391719049</v>
       </c>
       <c r="I23">
-        <v>24.142274081075</v>
+        <v>23.460893019655</v>
       </c>
       <c r="J23">
-        <v>170.259382699024</v>
+        <v>170.553762841297</v>
       </c>
       <c r="K23">
-        <v>137.646171180911</v>
+        <v>142.011246841773</v>
       </c>
       <c r="L23">
-        <v>47.8042971893382</v>
+        <v>56.1864938367034</v>
       </c>
       <c r="M23">
-        <v>502.192694161221</v>
+        <v>560.7568177589191</v>
       </c>
       <c r="N23">
-        <v>76.7062121926478</v>
+        <v>89.3590173094302</v>
       </c>
       <c r="O23">
-        <v>3224.19541323866</v>
+        <v>3443.96273235335</v>
       </c>
       <c r="P23">
-        <v>70.86566794004619</v>
+        <v>50.9522158651002</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>949.117428002465</v>
+        <v>826.968409480562</v>
       </c>
       <c r="C24">
-        <v>65.4674000199862</v>
+        <v>63.2215421657409</v>
       </c>
       <c r="D24">
-        <v>10.3292457467419</v>
+        <v>8.63023605829834</v>
       </c>
       <c r="E24">
-        <v>61.7385794257904</v>
+        <v>64.6080153218809</v>
       </c>
       <c r="F24">
-        <v>17.4096030099196</v>
+        <v>19.7203335516002</v>
       </c>
       <c r="G24">
-        <v>17.5642301452809</v>
+        <v>20.3329298751263</v>
       </c>
       <c r="H24">
-        <v>25.7405906350123</v>
+        <v>29.4011629266768</v>
       </c>
       <c r="I24">
-        <v>12.7774600782986</v>
+        <v>11.2015567467349</v>
       </c>
       <c r="J24">
-        <v>51.4369843926914</v>
+        <v>51.867355660309</v>
       </c>
       <c r="K24">
-        <v>64.342760877045</v>
+        <v>70.1677364650437</v>
       </c>
       <c r="L24">
-        <v>74.85301081639631</v>
+        <v>82.15103254116301</v>
       </c>
       <c r="M24">
-        <v>20.5819999424016</v>
+        <v>19.0156761217904</v>
       </c>
       <c r="N24">
-        <v>59.6839668416978</v>
+        <v>63.2781894005934</v>
       </c>
       <c r="O24">
-        <v>1900.32862439855</v>
+        <v>2044.81638256349</v>
       </c>
       <c r="P24">
-        <v>123.084945623339</v>
+        <v>79.7475971086125</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>827.351073432759</v>
+        <v>753.451003050306</v>
       </c>
       <c r="C25">
-        <v>34.4063256123164</v>
+        <v>31.4365005544667</v>
       </c>
       <c r="D25">
-        <v>21.4268320578779</v>
+        <v>22.7240548498533</v>
       </c>
       <c r="E25">
-        <v>34.0708278132832</v>
+        <v>33.0566784968585</v>
       </c>
       <c r="F25">
-        <v>15.4841288593471</v>
+        <v>16.9936514551962</v>
       </c>
       <c r="G25">
-        <v>9.031534607566909</v>
+        <v>10.347623678432</v>
       </c>
       <c r="H25">
-        <v>15.1082723668432</v>
+        <v>15.515743967408</v>
       </c>
       <c r="I25">
-        <v>5.59427338563557</v>
+        <v>6.05589676693947</v>
       </c>
       <c r="J25">
-        <v>21.4887075303128</v>
+        <v>20.8664134716444</v>
       </c>
       <c r="K25">
-        <v>18.3306809995146</v>
+        <v>16.6267819157681</v>
       </c>
       <c r="L25">
-        <v>30.4270852374488</v>
+        <v>35.471172538024</v>
       </c>
       <c r="M25">
-        <v>25.7348658443863</v>
+        <v>25.1599883868036</v>
       </c>
       <c r="N25">
-        <v>41.5613745691787</v>
+        <v>41.5788191020324</v>
       </c>
       <c r="O25">
-        <v>812.918266877445</v>
+        <v>881.326022494683</v>
       </c>
       <c r="P25">
-        <v>39.2047540364917</v>
+        <v>38.2778688136127</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1399.88783129769</v>
+        <v>1211.36904122188</v>
       </c>
       <c r="C26">
-        <v>53.4102712266337</v>
+        <v>54.1857762392431</v>
       </c>
       <c r="D26">
-        <v>15.7368660032853</v>
+        <v>13.1341786474932</v>
       </c>
       <c r="E26">
-        <v>51.4693784121522</v>
+        <v>52.1528165010251</v>
       </c>
       <c r="F26">
-        <v>4.10091718707988</v>
+        <v>2.24049352725855</v>
       </c>
       <c r="G26">
-        <v>34.4518648835667</v>
+        <v>38.1168391713816</v>
       </c>
       <c r="H26">
-        <v>20.2615568463022</v>
+        <v>23.658405558306</v>
       </c>
       <c r="I26">
-        <v>15.7822808908305</v>
+        <v>14.5554631277053</v>
       </c>
       <c r="J26">
-        <v>58.3810452341317</v>
+        <v>55.7445455650377</v>
       </c>
       <c r="K26">
-        <v>43.5905717215647</v>
+        <v>49.8715729720607</v>
       </c>
       <c r="L26">
-        <v>42.6305669441163</v>
+        <v>41.3629025203206</v>
       </c>
       <c r="M26">
-        <v>83.6586084826174</v>
+        <v>89.318882498778</v>
       </c>
       <c r="N26">
-        <v>40.5745531682639</v>
+        <v>35.1583347174218</v>
       </c>
       <c r="O26">
-        <v>2000.23322048113</v>
+        <v>2206.51241757385</v>
       </c>
       <c r="P26">
-        <v>77.0724203552616</v>
+        <v>56.6682576907221</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>229.34009590028</v>
+        <v>198.068798798614</v>
       </c>
       <c r="C27">
-        <v>2.99573862473136</v>
+        <v>3.05341982531712</v>
       </c>
       <c r="D27">
-        <v>1.01592685369119</v>
+        <v>0.9955292415534</v>
       </c>
       <c r="E27">
-        <v>9.354290382717791</v>
+        <v>10.0375407479542</v>
       </c>
       <c r="F27">
-        <v>7.23403276799565</v>
+        <v>6.6586867052002</v>
       </c>
       <c r="G27">
-        <v>0.817038208161827</v>
+        <v>0.857149051581188</v>
       </c>
       <c r="H27">
-        <v>0.420299373002187</v>
+        <v>0.460709959498793</v>
       </c>
       <c r="I27">
-        <v>0.71372502455715</v>
+        <v>0.7348231716836811</v>
       </c>
       <c r="J27">
-        <v>3.98136550688702</v>
+        <v>4.572434639616</v>
       </c>
       <c r="K27">
-        <v>1.18126899870905</v>
+        <v>1.6795367509643</v>
       </c>
       <c r="L27">
-        <v>2.02590467687688</v>
+        <v>2.89898958982554</v>
       </c>
       <c r="M27">
-        <v>1.10299931966475</v>
+        <v>1.41107979620659</v>
       </c>
       <c r="N27">
-        <v>4.35118833163984</v>
+        <v>5.08083501583339</v>
       </c>
       <c r="O27">
-        <v>330.10292917851</v>
+        <v>366.908825594306</v>
       </c>
       <c r="P27">
-        <v>44.8435991972135</v>
+        <v>34.3119138363313</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>360.510001802101</v>
+        <v>297.186296023329</v>
       </c>
       <c r="C28">
-        <v>31.2972711049155</v>
+        <v>37.6163424162801</v>
       </c>
       <c r="D28">
-        <v>1.56018905723778</v>
+        <v>2.00125862506064</v>
       </c>
       <c r="E28">
-        <v>6.82474129946198</v>
+        <v>8.07735346157506</v>
       </c>
       <c r="F28">
-        <v>2.3050154044626</v>
+        <v>2.08424993651022</v>
       </c>
       <c r="G28">
-        <v>5.09607024235491</v>
+        <v>6.16984152208343</v>
       </c>
       <c r="H28">
-        <v>6.19653169741549</v>
+        <v>7.29213953463013</v>
       </c>
       <c r="I28">
-        <v>4.17391178048156</v>
+        <v>4.76217064389216</v>
       </c>
       <c r="J28">
-        <v>14.7021873368379</v>
+        <v>16.5601618902001</v>
       </c>
       <c r="K28">
-        <v>17.5589467530723</v>
+        <v>16.3599933176807</v>
       </c>
       <c r="L28">
-        <v>10.401158608174</v>
+        <v>12.5793660946819</v>
       </c>
       <c r="M28">
-        <v>10.8497235017689</v>
+        <v>9.77839028390285</v>
       </c>
       <c r="N28">
-        <v>11.0577872533375</v>
+        <v>11.8013051544899</v>
       </c>
       <c r="O28">
-        <v>625.6677578678761</v>
+        <v>706.014278764447</v>
       </c>
       <c r="P28">
-        <v>88.28252195652711</v>
+        <v>56.4644150966501</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>499.529904807351</v>
+        <v>445.33081265613</v>
       </c>
       <c r="C29">
-        <v>7.49301260992616</v>
+        <v>7.14862654569855</v>
       </c>
       <c r="D29">
-        <v>2.84083978324342</v>
+        <v>3.14278263143969</v>
       </c>
       <c r="E29">
-        <v>5.7863100666599</v>
+        <v>6.32623478197431</v>
       </c>
       <c r="F29">
-        <v>15.7636255339563</v>
+        <v>12.6470478851313</v>
       </c>
       <c r="G29">
-        <v>2.16699399461978</v>
+        <v>2.37292659297252</v>
       </c>
       <c r="H29">
-        <v>2.62633602182443</v>
+        <v>2.92419957438374</v>
       </c>
       <c r="I29">
-        <v>5.01198625787952</v>
+        <v>4.84428993797819</v>
       </c>
       <c r="J29">
-        <v>6.89326787883862</v>
+        <v>8.23447894337723</v>
       </c>
       <c r="K29">
-        <v>4.28689930628057</v>
+        <v>3.82770233306319</v>
       </c>
       <c r="L29">
-        <v>6.23511366317689</v>
+        <v>6.66450906289299</v>
       </c>
       <c r="M29">
-        <v>3.18060632283767</v>
+        <v>3.09801735231986</v>
       </c>
       <c r="N29">
-        <v>11.6401594029312</v>
+        <v>13.3344282905513</v>
       </c>
       <c r="O29">
-        <v>814.652051993436</v>
+        <v>868.027020948231</v>
       </c>
       <c r="P29">
-        <v>4.84349590506624</v>
+        <v>3.69074579587906</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>270.232188400714</v>
+        <v>228.917861171919</v>
       </c>
       <c r="C30">
-        <v>4.2533333922946</v>
+        <v>5.13533121304133</v>
       </c>
       <c r="D30">
-        <v>5.73441010354042</v>
+        <v>5.78257095882123</v>
       </c>
       <c r="E30">
-        <v>12.6486543457047</v>
+        <v>12.227021845569</v>
       </c>
       <c r="F30">
-        <v>0.710324425426095</v>
+        <v>0.795750401366961</v>
       </c>
       <c r="G30">
-        <v>4.45722433671957</v>
+        <v>5.10507702342012</v>
       </c>
       <c r="H30">
-        <v>4.90715370370485</v>
+        <v>4.86813100906616</v>
       </c>
       <c r="I30">
-        <v>2.0382883013562</v>
+        <v>2.37546792746762</v>
       </c>
       <c r="J30">
-        <v>17.644446569307</v>
+        <v>18.394866889611</v>
       </c>
       <c r="K30">
-        <v>13.8511315788456</v>
+        <v>14.6474583619366</v>
       </c>
       <c r="L30">
-        <v>36.8684088693769</v>
+        <v>45.1277718086934</v>
       </c>
       <c r="M30">
-        <v>8.82310225828086</v>
+        <v>10.0271168791002</v>
       </c>
       <c r="N30">
-        <v>17.6280751561639</v>
+        <v>18.0192276202355</v>
       </c>
       <c r="O30">
-        <v>470.22597436889</v>
+        <v>502.170396637849</v>
       </c>
       <c r="P30">
-        <v>7.32755319198294</v>
+        <v>6.78181116725589</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2220.24958518194</v>
+        <v>1889.91289291983</v>
       </c>
       <c r="C31">
-        <v>40.6257490084919</v>
+        <v>47.4407365205255</v>
       </c>
       <c r="D31">
-        <v>41.5077567314846</v>
+        <v>47.6445938420026</v>
       </c>
       <c r="E31">
-        <v>31.5935724433821</v>
+        <v>37.1627535361506</v>
       </c>
       <c r="F31">
-        <v>9.539957108922991</v>
+        <v>13.2075071040745</v>
       </c>
       <c r="G31">
-        <v>132.640037542964</v>
+        <v>144.680126536621</v>
       </c>
       <c r="H31">
-        <v>28.1034950540866</v>
+        <v>28.7593588736586</v>
       </c>
       <c r="I31">
-        <v>20.8991675114729</v>
+        <v>22.6506626814694</v>
       </c>
       <c r="J31">
-        <v>49.3588286400166</v>
+        <v>48.2771864481988</v>
       </c>
       <c r="K31">
-        <v>43.5388919401279</v>
+        <v>44.3587906591388</v>
       </c>
       <c r="L31">
-        <v>57.311635660742</v>
+        <v>62.9639970576173</v>
       </c>
       <c r="M31">
-        <v>29.0412289626014</v>
+        <v>33.3240782264315</v>
       </c>
       <c r="N31">
-        <v>63.5475098629592</v>
+        <v>75.13393628341031</v>
       </c>
       <c r="O31">
-        <v>3247.93835451691</v>
+        <v>3527.13618462325</v>
       </c>
       <c r="P31">
-        <v>13.9128370380681</v>
+        <v>11.3261286920993</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>533.003714906116</v>
+        <v>473.728210834676</v>
       </c>
       <c r="C32">
-        <v>4.85526755551658</v>
+        <v>4.03538823577729</v>
       </c>
       <c r="D32">
-        <v>3.95002294677509</v>
+        <v>5.13419106496751</v>
       </c>
       <c r="E32">
-        <v>4.9736586979481</v>
+        <v>5.08644962456041</v>
       </c>
       <c r="F32">
-        <v>22.3910068326242</v>
+        <v>22.8316361671845</v>
       </c>
       <c r="G32">
-        <v>1.75875952100289</v>
+        <v>2.08518628481926</v>
       </c>
       <c r="H32">
-        <v>0.9493810910214</v>
+        <v>1.17380811693295</v>
       </c>
       <c r="I32">
-        <v>3.30430923537368</v>
+        <v>3.68872469107949</v>
       </c>
       <c r="J32">
-        <v>2.20631843919987</v>
+        <v>2.24490439821536</v>
       </c>
       <c r="K32">
-        <v>3.83439782897193</v>
+        <v>4.79173071122071</v>
       </c>
       <c r="L32">
-        <v>14.2045690248188</v>
+        <v>18.0969261585994</v>
       </c>
       <c r="M32">
-        <v>4.43041184453987</v>
+        <v>5.00106982438256</v>
       </c>
       <c r="N32">
-        <v>11.0702036033594</v>
+        <v>12.770265458501</v>
       </c>
       <c r="O32">
-        <v>625.940708347406</v>
+        <v>677.645789820646</v>
       </c>
       <c r="P32">
-        <v>25.6218659240129</v>
+        <v>22.2324926540663</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5536.68789568065</v>
+        <v>4910.26219953421</v>
       </c>
       <c r="C33">
-        <v>77.2333628975903</v>
+        <v>83.3629347250874</v>
       </c>
       <c r="D33">
-        <v>126.586791302823</v>
+        <v>159.5269083539</v>
       </c>
       <c r="E33">
-        <v>95.6538450631528</v>
+        <v>86.9268650219052</v>
       </c>
       <c r="F33">
-        <v>13.1144421546112</v>
+        <v>12.3523376401576</v>
       </c>
       <c r="G33">
-        <v>84.40642529000471</v>
+        <v>88.58548615942691</v>
       </c>
       <c r="H33">
-        <v>44.1653457717217</v>
+        <v>45.9198042188132</v>
       </c>
       <c r="I33">
-        <v>39.5853733503074</v>
+        <v>39.2390775216367</v>
       </c>
       <c r="J33">
-        <v>117.586737818189</v>
+        <v>118.021424011456</v>
       </c>
       <c r="K33">
-        <v>120.813710870764</v>
+        <v>118.142175637293</v>
       </c>
       <c r="L33">
-        <v>139.656951349785</v>
+        <v>149.492032667454</v>
       </c>
       <c r="M33">
-        <v>82.1567883069947</v>
+        <v>85.6043758373565</v>
       </c>
       <c r="N33">
-        <v>142.238370237672</v>
+        <v>148.938098568321</v>
       </c>
       <c r="O33">
-        <v>6928.00135793622</v>
+        <v>7529.86911910634</v>
       </c>
       <c r="P33">
-        <v>82.7575700985667</v>
+        <v>54.5457616617931</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1995.03843696045</v>
+        <v>1743.23869632779</v>
       </c>
       <c r="C34">
-        <v>70.09397620572049</v>
+        <v>73.63820169104051</v>
       </c>
       <c r="D34">
-        <v>212.354240260622</v>
+        <v>218.22095122479</v>
       </c>
       <c r="E34">
-        <v>86.1821198237357</v>
+        <v>92.2373158471942</v>
       </c>
       <c r="F34">
-        <v>7.0270175626647</v>
+        <v>6.7343552519582</v>
       </c>
       <c r="G34">
-        <v>66.23558482371099</v>
+        <v>71.57869308107701</v>
       </c>
       <c r="H34">
-        <v>43.40836868067</v>
+        <v>47.605434876738</v>
       </c>
       <c r="I34">
-        <v>28.3458215386902</v>
+        <v>28.9863533986977</v>
       </c>
       <c r="J34">
-        <v>59.7229415759131</v>
+        <v>65.2617192110261</v>
       </c>
       <c r="K34">
-        <v>59.6593473376792</v>
+        <v>65.6024289609946</v>
       </c>
       <c r="L34">
-        <v>101.84015193302</v>
+        <v>113.59825380947</v>
       </c>
       <c r="M34">
-        <v>52.2741786298992</v>
+        <v>57.4201158965304</v>
       </c>
       <c r="N34">
-        <v>125.697333248262</v>
+        <v>135.579348354435</v>
       </c>
       <c r="O34">
-        <v>2672.62167634386</v>
+        <v>2859.94593626492</v>
       </c>
       <c r="P34">
-        <v>70.92084540275771</v>
+        <v>76.2972769015412</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>150.534639049851</v>
+        <v>124.482654159572</v>
       </c>
       <c r="C35">
-        <v>5.68945074106059</v>
+        <v>6.31492649095531</v>
       </c>
       <c r="D35">
-        <v>0.666356472760251</v>
+        <v>1.0905505991715</v>
       </c>
       <c r="E35">
-        <v>1.84741051224757</v>
+        <v>2.14895300180184</v>
       </c>
       <c r="F35">
-        <v>5.49190876065406</v>
+        <v>4.82644236115781</v>
       </c>
       <c r="G35">
-        <v>0.360480308386437</v>
+        <v>0.41477591579805</v>
       </c>
       <c r="H35">
-        <v>0.4274585477401</v>
+        <v>0.4903994124122</v>
       </c>
       <c r="I35">
-        <v>0.7360256952544551</v>
+        <v>0.7749413985279791</v>
       </c>
       <c r="J35">
-        <v>1.82285479823834</v>
+        <v>2.23263516292676</v>
       </c>
       <c r="K35">
-        <v>6.30830145875283</v>
+        <v>6.44351831715818</v>
       </c>
       <c r="L35">
-        <v>2.24291132385996</v>
+        <v>2.73199183000942</v>
       </c>
       <c r="M35">
-        <v>1.98153981090958</v>
+        <v>2.02374515767686</v>
       </c>
       <c r="N35">
-        <v>2.25831912703634</v>
+        <v>2.78261891471948</v>
       </c>
       <c r="O35">
-        <v>231.391834232872</v>
+        <v>262.588339384703</v>
       </c>
       <c r="P35">
-        <v>40.772522155891</v>
+        <v>31.4720609906055</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2857.02105780873</v>
+        <v>2534.87612366498</v>
       </c>
       <c r="C36">
-        <v>70.55194751120921</v>
+        <v>74.5565554855702</v>
       </c>
       <c r="D36">
-        <v>23.5426753643181</v>
+        <v>25.4903147450348</v>
       </c>
       <c r="E36">
-        <v>100.691246033341</v>
+        <v>97.9112366382801</v>
       </c>
       <c r="F36">
-        <v>31.3618370291972</v>
+        <v>29.3746466140433</v>
       </c>
       <c r="G36">
-        <v>80.3145974227544</v>
+        <v>93.442914530144</v>
       </c>
       <c r="H36">
-        <v>114.308130338919</v>
+        <v>115.584936737433</v>
       </c>
       <c r="I36">
-        <v>50.5930630393891</v>
+        <v>51.4525178283299</v>
       </c>
       <c r="J36">
-        <v>256.01061798621</v>
+        <v>270.358393695575</v>
       </c>
       <c r="K36">
-        <v>146.900338662038</v>
+        <v>156.693198042291</v>
       </c>
       <c r="L36">
-        <v>103.87841477343</v>
+        <v>110.632480620026</v>
       </c>
       <c r="M36">
-        <v>242.906613574767</v>
+        <v>254.461705270415</v>
       </c>
       <c r="N36">
-        <v>88.83321571472889</v>
+        <v>93.2689469550069</v>
       </c>
       <c r="O36">
-        <v>3843.4814707355</v>
+        <v>4107.84181632007</v>
       </c>
       <c r="P36">
-        <v>62.3546871185833</v>
+        <v>62.233418822489</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>930.001045875709</v>
+        <v>843.889914721594</v>
       </c>
       <c r="C37">
-        <v>21.2310108109067</v>
+        <v>21.0108112061508</v>
       </c>
       <c r="D37">
-        <v>11.721447129139</v>
+        <v>11.4655766747176</v>
       </c>
       <c r="E37">
-        <v>21.0562304784344</v>
+        <v>20.6827284507991</v>
       </c>
       <c r="F37">
-        <v>48.8896604611221</v>
+        <v>46.7955126093578</v>
       </c>
       <c r="G37">
-        <v>3.89515552015392</v>
+        <v>4.4846805903446</v>
       </c>
       <c r="H37">
-        <v>17.4239895375831</v>
+        <v>16.6634570748756</v>
       </c>
       <c r="I37">
-        <v>12.0432195279518</v>
+        <v>11.611919744276</v>
       </c>
       <c r="J37">
-        <v>32.6891322332156</v>
+        <v>32.9700560208477</v>
       </c>
       <c r="K37">
-        <v>30.5589314212558</v>
+        <v>34.2577706459505</v>
       </c>
       <c r="L37">
-        <v>24.365778652334</v>
+        <v>27.6294247947973</v>
       </c>
       <c r="M37">
-        <v>28.6952850959359</v>
+        <v>30.1530276306805</v>
       </c>
       <c r="N37">
-        <v>16.7418084012893</v>
+        <v>20.9352448674344</v>
       </c>
       <c r="O37">
-        <v>1141.86418964203</v>
+        <v>1235.42739141034</v>
       </c>
       <c r="P37">
-        <v>66.4962697993233</v>
+        <v>51.1492920158169</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>881.690165034418</v>
+        <v>755.442832787387</v>
       </c>
       <c r="C38">
-        <v>27.9468702063401</v>
+        <v>26.9563898691235</v>
       </c>
       <c r="D38">
-        <v>9.671084504600371</v>
+        <v>10.5541264483059</v>
       </c>
       <c r="E38">
-        <v>57.8908379626833</v>
+        <v>56.4729704666715</v>
       </c>
       <c r="F38">
-        <v>1.76831429823664</v>
+        <v>1.8212202189506</v>
       </c>
       <c r="G38">
-        <v>7.52049710465122</v>
+        <v>9.08120243508843</v>
       </c>
       <c r="H38">
-        <v>6.45422458422247</v>
+        <v>9.092233825407771</v>
       </c>
       <c r="I38">
-        <v>8.15389801312238</v>
+        <v>8.58579202615902</v>
       </c>
       <c r="J38">
-        <v>27.072679320455</v>
+        <v>29.8334475887961</v>
       </c>
       <c r="K38">
-        <v>18.3356247919027</v>
+        <v>22.019523226337</v>
       </c>
       <c r="L38">
-        <v>54.525079077349</v>
+        <v>64.64603611324181</v>
       </c>
       <c r="M38">
-        <v>22.7928230120495</v>
+        <v>25.9658704843271</v>
       </c>
       <c r="N38">
-        <v>24.3088964829056</v>
+        <v>27.0344459806272</v>
       </c>
       <c r="O38">
-        <v>1220.95864497688</v>
+        <v>1318.98941852266</v>
       </c>
       <c r="P38">
-        <v>69.5497934300205</v>
+        <v>61.9680196488585</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3362.87045107909</v>
+        <v>2965.97546810724</v>
       </c>
       <c r="C39">
-        <v>108.221232130348</v>
+        <v>108.238772550815</v>
       </c>
       <c r="D39">
-        <v>58.7370603826621</v>
+        <v>61.5400669314464</v>
       </c>
       <c r="E39">
-        <v>125.178018002265</v>
+        <v>111.987413311639</v>
       </c>
       <c r="F39">
-        <v>31.2926892325889</v>
+        <v>26.7059330498329</v>
       </c>
       <c r="G39">
-        <v>97.08682106984981</v>
+        <v>110.904450576837</v>
       </c>
       <c r="H39">
-        <v>55.6773248247047</v>
+        <v>54.5410397293744</v>
       </c>
       <c r="I39">
-        <v>58.8025612258592</v>
+        <v>57.0922535276983</v>
       </c>
       <c r="J39">
-        <v>202.162799797239</v>
+        <v>202.228167546389</v>
       </c>
       <c r="K39">
-        <v>115.355612864537</v>
+        <v>114.60954170096</v>
       </c>
       <c r="L39">
-        <v>124.969277465903</v>
+        <v>144.822083825932</v>
       </c>
       <c r="M39">
-        <v>74.451423574583</v>
+        <v>76.31889392033369</v>
       </c>
       <c r="N39">
-        <v>97.1936597816658</v>
+        <v>100.573325252903</v>
       </c>
       <c r="O39">
-        <v>4199.75677851646</v>
+        <v>4584.36178679153</v>
       </c>
       <c r="P39">
-        <v>85.5526770716515</v>
+        <v>68.5982479763196</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>277.483058828245</v>
+        <v>242.122506540541</v>
       </c>
       <c r="C40">
-        <v>3.76235299001783</v>
+        <v>4.54985601378076</v>
       </c>
       <c r="D40">
-        <v>9.62186793398026</v>
+        <v>10.5584302899445</v>
       </c>
       <c r="E40">
-        <v>3.9326801962051</v>
+        <v>4.14650179653692</v>
       </c>
       <c r="F40">
-        <v>0.7842764450694421</v>
+        <v>0.868851350062159</v>
       </c>
       <c r="G40">
-        <v>3.07023929075569</v>
+        <v>3.17294038524599</v>
       </c>
       <c r="H40">
-        <v>8.21928848031399</v>
+        <v>8.16807766803826</v>
       </c>
       <c r="I40">
-        <v>1.68411113520841</v>
+        <v>1.81977924419548</v>
       </c>
       <c r="J40">
-        <v>11.2969019787892</v>
+        <v>12.3365214809725</v>
       </c>
       <c r="K40">
-        <v>6.49288154062289</v>
+        <v>7.12171459917086</v>
       </c>
       <c r="L40">
-        <v>13.3543493573651</v>
+        <v>15.0228619588098</v>
       </c>
       <c r="M40">
-        <v>7.62885427609156</v>
+        <v>9.45280117721035</v>
       </c>
       <c r="N40">
-        <v>24.7938752681618</v>
+        <v>27.2979782488272</v>
       </c>
       <c r="O40">
-        <v>367.596591213243</v>
+        <v>391.988628898185</v>
       </c>
       <c r="P40">
-        <v>2.77606128322571</v>
+        <v>2.16051647725363</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1051.78653101195</v>
+        <v>910.281705966952</v>
       </c>
       <c r="C41">
-        <v>17.9207534267759</v>
+        <v>19.6122059954044</v>
       </c>
       <c r="D41">
-        <v>104.253713129015</v>
+        <v>105.944766375325</v>
       </c>
       <c r="E41">
-        <v>45.6028801204465</v>
+        <v>47.2333446015643</v>
       </c>
       <c r="F41">
-        <v>3.7853052817962</v>
+        <v>3.891646043372</v>
       </c>
       <c r="G41">
-        <v>32.6975577115126</v>
+        <v>38.2434311037615</v>
       </c>
       <c r="H41">
-        <v>33.9408624081201</v>
+        <v>36.4954706419519</v>
       </c>
       <c r="I41">
-        <v>6.78910583742954</v>
+        <v>8.0943084451613</v>
       </c>
       <c r="J41">
-        <v>45.733155975916</v>
+        <v>48.2038386559906</v>
       </c>
       <c r="K41">
-        <v>43.4813684075864</v>
+        <v>49.3110771002355</v>
       </c>
       <c r="L41">
-        <v>28.3411610217572</v>
+        <v>32.4816855272431</v>
       </c>
       <c r="M41">
-        <v>37.2923514390881</v>
+        <v>39.7423602918265</v>
       </c>
       <c r="N41">
-        <v>18.9788004038368</v>
+        <v>21.5328201126345</v>
       </c>
       <c r="O41">
-        <v>1308.52835825647</v>
+        <v>1405.64625975783</v>
       </c>
       <c r="P41">
-        <v>17.3960871739977</v>
+        <v>18.8017230436822</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>163.657967734008</v>
+        <v>133.519573673448</v>
       </c>
       <c r="C42">
-        <v>8.987658502977901</v>
+        <v>10.6726564449988</v>
       </c>
       <c r="D42">
-        <v>1.31538306103054</v>
+        <v>1.47627442397302</v>
       </c>
       <c r="E42">
-        <v>5.03994962637455</v>
+        <v>6.42171231173378</v>
       </c>
       <c r="F42">
-        <v>1.5799186984879</v>
+        <v>1.85532685531145</v>
       </c>
       <c r="G42">
-        <v>1.17022753824832</v>
+        <v>1.23005300050617</v>
       </c>
       <c r="H42">
-        <v>1.79265497332168</v>
+        <v>1.82839031388895</v>
       </c>
       <c r="I42">
-        <v>1.30217866725134</v>
+        <v>1.13607032195354</v>
       </c>
       <c r="J42">
-        <v>3.95590326163573</v>
+        <v>3.74322480623212</v>
       </c>
       <c r="K42">
-        <v>7.42582952070893</v>
+        <v>7.27892849885128</v>
       </c>
       <c r="L42">
-        <v>6.90451239556921</v>
+        <v>9.45412959924886</v>
       </c>
       <c r="M42">
-        <v>3.09051630635749</v>
+        <v>2.92975542202465</v>
       </c>
       <c r="N42">
-        <v>6.77736796904204</v>
+        <v>9.00213181379412</v>
       </c>
       <c r="O42">
-        <v>270.876287479001</v>
+        <v>304.273278188445</v>
       </c>
       <c r="P42">
-        <v>43.4043071788156</v>
+        <v>31.7350920364198</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1500.88597023238</v>
+        <v>1364.03210078119</v>
       </c>
       <c r="C43">
-        <v>44.7319781144113</v>
+        <v>43.0407040933021</v>
       </c>
       <c r="D43">
-        <v>49.1169659335743</v>
+        <v>48.0907841791125</v>
       </c>
       <c r="E43">
-        <v>59.8167420157498</v>
+        <v>67.7308974194178</v>
       </c>
       <c r="F43">
-        <v>8.36174508711024</v>
+        <v>8.50305095308874</v>
       </c>
       <c r="G43">
-        <v>31.8849295480838</v>
+        <v>33.1504440820608</v>
       </c>
       <c r="H43">
-        <v>31.4794995638066</v>
+        <v>30.7599024803664</v>
       </c>
       <c r="I43">
-        <v>19.6437880474339</v>
+        <v>18.1362324355662</v>
       </c>
       <c r="J43">
-        <v>71.75288077866129</v>
+        <v>70.5723326622401</v>
       </c>
       <c r="K43">
-        <v>47.3165307843061</v>
+        <v>47.6142554179271</v>
       </c>
       <c r="L43">
-        <v>62.350004517555</v>
+        <v>63.8737149654391</v>
       </c>
       <c r="M43">
-        <v>87.3916643222333</v>
+        <v>83.9895421571897</v>
       </c>
       <c r="N43">
-        <v>77.5659562444062</v>
+        <v>75.91714526186119</v>
       </c>
       <c r="O43">
-        <v>1915.05440513279</v>
+        <v>2060.84860952589</v>
       </c>
       <c r="P43">
-        <v>40.6804802945564</v>
+        <v>38.4689610276313</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>5299.34049590839</v>
+        <v>4625.41236074091</v>
       </c>
       <c r="C44">
-        <v>137.457535790518</v>
+        <v>155.241693904852</v>
       </c>
       <c r="D44">
-        <v>66.2548453244048</v>
+        <v>80.2928149608523</v>
       </c>
       <c r="E44">
-        <v>99.8247167890584</v>
+        <v>100.670683673247</v>
       </c>
       <c r="F44">
-        <v>212.848178856855</v>
+        <v>223.832672748314</v>
       </c>
       <c r="G44">
-        <v>123.447021429804</v>
+        <v>132.359902793031</v>
       </c>
       <c r="H44">
-        <v>62.6165281448646</v>
+        <v>63.1183898166902</v>
       </c>
       <c r="I44">
-        <v>46.877962643812</v>
+        <v>46.6469785174754</v>
       </c>
       <c r="J44">
-        <v>143.12419545577</v>
+        <v>148.221437120876</v>
       </c>
       <c r="K44">
-        <v>124.283292860913</v>
+        <v>138.188988516402</v>
       </c>
       <c r="L44">
-        <v>245.372166805772</v>
+        <v>273.656869880897</v>
       </c>
       <c r="M44">
-        <v>129.644805849695</v>
+        <v>143.399107420702</v>
       </c>
       <c r="N44">
-        <v>93.45442286031749</v>
+        <v>100.73658408358</v>
       </c>
       <c r="O44">
-        <v>7188.057004863</v>
+        <v>7783.886804106001</v>
       </c>
       <c r="P44">
-        <v>224.684619330183</v>
+        <v>180.146099366082</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>478.040739419884</v>
+        <v>431.024860541427</v>
       </c>
       <c r="C45">
-        <v>17.4446929386836</v>
+        <v>18.1827931859174</v>
       </c>
       <c r="D45">
-        <v>3.72309320918355</v>
+        <v>3.67159322193382</v>
       </c>
       <c r="E45">
-        <v>12.0170955819423</v>
+        <v>12.7120801232177</v>
       </c>
       <c r="F45">
-        <v>18.2845630939613</v>
+        <v>15.4242299482497</v>
       </c>
       <c r="G45">
-        <v>7.90964431907416</v>
+        <v>9.51934782527033</v>
       </c>
       <c r="H45">
-        <v>3.90834290883182</v>
+        <v>4.82884284460958</v>
       </c>
       <c r="I45">
-        <v>5.81970927877387</v>
+        <v>5.9976408343434</v>
       </c>
       <c r="J45">
-        <v>15.792330096011</v>
+        <v>17.2753928785169</v>
       </c>
       <c r="K45">
-        <v>10.674602989804</v>
+        <v>11.5847965495783</v>
       </c>
       <c r="L45">
-        <v>21.4541067611239</v>
+        <v>23.0714939506821</v>
       </c>
       <c r="M45">
-        <v>29.2805470143838</v>
+        <v>28.5736741137439</v>
       </c>
       <c r="N45">
-        <v>24.0300646090288</v>
+        <v>26.3368122985905</v>
       </c>
       <c r="O45">
-        <v>817.318341590459</v>
+        <v>866.544895975063</v>
       </c>
       <c r="P45">
-        <v>21.169942337204</v>
+        <v>15.2725570203976</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>137.147267917354</v>
+        <v>112.703907773908</v>
       </c>
       <c r="C46">
-        <v>4.78838910762495</v>
+        <v>4.91100205716425</v>
       </c>
       <c r="D46">
-        <v>2.08620487580693</v>
+        <v>2.04652301834727</v>
       </c>
       <c r="E46">
-        <v>7.48763518308966</v>
+        <v>6.8751333928917</v>
       </c>
       <c r="F46">
-        <v>0.793856202213132</v>
+        <v>0.9797199177955021</v>
       </c>
       <c r="G46">
-        <v>1.19937425836728</v>
+        <v>1.27528091718694</v>
       </c>
       <c r="H46">
-        <v>1.35809578816765</v>
+        <v>1.52488188747745</v>
       </c>
       <c r="I46">
-        <v>2.24606235278974</v>
+        <v>2.55375645448921</v>
       </c>
       <c r="J46">
-        <v>5.01883265533808</v>
+        <v>5.2587159862584</v>
       </c>
       <c r="K46">
-        <v>4.19375206060755</v>
+        <v>4.4820398904838</v>
       </c>
       <c r="L46">
-        <v>10.8719023091227</v>
+        <v>13.9453387810592</v>
       </c>
       <c r="M46">
-        <v>4.27790396306728</v>
+        <v>4.74505504247851</v>
       </c>
       <c r="N46">
-        <v>7.91661678119466</v>
+        <v>7.41267017137721</v>
       </c>
       <c r="O46">
-        <v>235.662526803539</v>
+        <v>254.334884531566</v>
       </c>
       <c r="P46">
-        <v>10.7741360867928</v>
+        <v>9.449059332671551</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1689.53056297069</v>
+        <v>1501.69098533247</v>
       </c>
       <c r="C47">
-        <v>56.9508899303103</v>
+        <v>55.3380076158805</v>
       </c>
       <c r="D47">
-        <v>51.5436387211644</v>
+        <v>60.9311679481634</v>
       </c>
       <c r="E47">
-        <v>56.9802684977425</v>
+        <v>58.1120773204635</v>
       </c>
       <c r="F47">
-        <v>12.9211832672081</v>
+        <v>12.7594852259309</v>
       </c>
       <c r="G47">
-        <v>36.4416426440811</v>
+        <v>38.9172064662768</v>
       </c>
       <c r="H47">
-        <v>23.3542057096936</v>
+        <v>23.256637756184</v>
       </c>
       <c r="I47">
-        <v>17.6026908595966</v>
+        <v>16.7623964633812</v>
       </c>
       <c r="J47">
-        <v>44.9288476171157</v>
+        <v>45.9736523952971</v>
       </c>
       <c r="K47">
-        <v>39.5612560707111</v>
+        <v>43.7577691456057</v>
       </c>
       <c r="L47">
-        <v>52.697132075987</v>
+        <v>60.6114495758357</v>
       </c>
       <c r="M47">
-        <v>73.576040866311</v>
+        <v>79.01058499142501</v>
       </c>
       <c r="N47">
-        <v>43.7009061559595</v>
+        <v>47.0624041824384</v>
       </c>
       <c r="O47">
-        <v>2667.6725163081</v>
+        <v>2818.87538469559</v>
       </c>
       <c r="P47">
-        <v>55.7005520982795</v>
+        <v>57.454618965874</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1466.29930870088</v>
+        <v>1276.11743924831</v>
       </c>
       <c r="C48">
-        <v>32.7411709172768</v>
+        <v>32.8803747593796</v>
       </c>
       <c r="D48">
-        <v>8.32593696521095</v>
+        <v>9.50085359651524</v>
       </c>
       <c r="E48">
-        <v>64.0450694137768</v>
+        <v>66.9371126225133</v>
       </c>
       <c r="F48">
-        <v>12.9646996597413</v>
+        <v>12.9508492920574</v>
       </c>
       <c r="G48">
-        <v>13.5479800012532</v>
+        <v>18.2161597547414</v>
       </c>
       <c r="H48">
-        <v>9.498408436139981</v>
+        <v>9.67512165253034</v>
       </c>
       <c r="I48">
-        <v>13.6481505676511</v>
+        <v>13.8604814579986</v>
       </c>
       <c r="J48">
-        <v>31.2135717729927</v>
+        <v>36.1546953215759</v>
       </c>
       <c r="K48">
-        <v>18.1746799730732</v>
+        <v>20.6935513100965</v>
       </c>
       <c r="L48">
-        <v>35.9218013866585</v>
+        <v>43.0001440760115</v>
       </c>
       <c r="M48">
-        <v>142.909850126943</v>
+        <v>167.978048968643</v>
       </c>
       <c r="N48">
-        <v>23.2032354834744</v>
+        <v>27.6328637366917</v>
       </c>
       <c r="O48">
-        <v>2164.47152988243</v>
+        <v>2324.00504667159</v>
       </c>
       <c r="P48">
-        <v>110.667112881389</v>
+        <v>90.3196212893301</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>630.858781371817</v>
+        <v>567.235852727996</v>
       </c>
       <c r="C49">
-        <v>7.57783584863722</v>
+        <v>7.88870648829224</v>
       </c>
       <c r="D49">
-        <v>5.00445900501627</v>
+        <v>5.23873318898563</v>
       </c>
       <c r="E49">
-        <v>13.7066610299934</v>
+        <v>14.9973920787983</v>
       </c>
       <c r="F49">
-        <v>29.9053394683153</v>
+        <v>33.1109671554213</v>
       </c>
       <c r="G49">
-        <v>17.1675965396371</v>
+        <v>18.9675875900509</v>
       </c>
       <c r="H49">
-        <v>5.05043546743553</v>
+        <v>5.30567549789398</v>
       </c>
       <c r="I49">
-        <v>8.406641671744589</v>
+        <v>9.62237788346067</v>
       </c>
       <c r="J49">
-        <v>19.264839597736</v>
+        <v>21.4648591414997</v>
       </c>
       <c r="K49">
-        <v>7.44233357312828</v>
+        <v>8.32928304134863</v>
       </c>
       <c r="L49">
-        <v>3.48137445238094</v>
+        <v>5.24877991182855</v>
       </c>
       <c r="M49">
-        <v>8.397800675652521</v>
+        <v>8.540541410680079</v>
       </c>
       <c r="N49">
-        <v>3.52004221854578</v>
+        <v>3.99759944238266</v>
       </c>
       <c r="O49">
-        <v>577.919396026811</v>
+        <v>622.922991337198</v>
       </c>
       <c r="P49">
-        <v>9.283105071105981</v>
+        <v>9.095453597964701</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1156.42489091564</v>
+        <v>1010.6152229456</v>
       </c>
       <c r="C50">
-        <v>90.54342960757811</v>
+        <v>88.97638353523691</v>
       </c>
       <c r="D50">
-        <v>12.0479919247528</v>
+        <v>9.654859302823951</v>
       </c>
       <c r="E50">
-        <v>122.898645068059</v>
+        <v>118.965083501013</v>
       </c>
       <c r="F50">
-        <v>5.40477847260667</v>
+        <v>6.50642255890701</v>
       </c>
       <c r="G50">
-        <v>20.5046321751357</v>
+        <v>24.3100529386284</v>
       </c>
       <c r="H50">
-        <v>30.0321064699185</v>
+        <v>30.5652954656772</v>
       </c>
       <c r="I50">
-        <v>21.6184611314121</v>
+        <v>21.8235514747898</v>
       </c>
       <c r="J50">
-        <v>101.718107677581</v>
+        <v>107.564012607243</v>
       </c>
       <c r="K50">
-        <v>113.267538912072</v>
+        <v>131.85705636918</v>
       </c>
       <c r="L50">
-        <v>73.5368486257026</v>
+        <v>89.1398518150835</v>
       </c>
       <c r="M50">
-        <v>45.591644718042</v>
+        <v>47.471096103778</v>
       </c>
       <c r="N50">
-        <v>64.2068232436407</v>
+        <v>68.0818582273141</v>
       </c>
       <c r="O50">
-        <v>1784.04777306292</v>
+        <v>1929.06740104032</v>
       </c>
       <c r="P50">
-        <v>135.909124595574</v>
+        <v>87.6270345467303</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>115.336114067371</v>
+        <v>101.561258405316</v>
       </c>
       <c r="C51">
-        <v>1.18553012731934</v>
+        <v>1.38896341700134</v>
       </c>
       <c r="D51">
-        <v>0.689417757732648</v>
+        <v>0.641677201833149</v>
       </c>
       <c r="E51">
-        <v>1.66791110325446</v>
+        <v>1.47235282992845</v>
       </c>
       <c r="F51">
-        <v>22.2332453772496</v>
+        <v>23.4242390350605</v>
       </c>
       <c r="G51">
-        <v>2.16576417039147</v>
+        <v>2.36619626030656</v>
       </c>
       <c r="H51">
-        <v>0.316178850804029</v>
+        <v>0.382915689093577</v>
       </c>
       <c r="I51">
-        <v>1.34925367118748</v>
+        <v>1.59142706699555</v>
       </c>
       <c r="J51">
-        <v>1.63913491702868</v>
+        <v>2.03312853144423</v>
       </c>
       <c r="K51">
-        <v>1.03176594221563</v>
+        <v>1.15232960645779</v>
       </c>
       <c r="L51">
-        <v>0.606152882473209</v>
+        <v>0.602023330668606</v>
       </c>
       <c r="M51">
-        <v>0.800721728461341</v>
+        <v>0.84766680784815</v>
       </c>
       <c r="N51">
-        <v>1.33210241890797</v>
+        <v>1.57661888224809</v>
       </c>
       <c r="O51">
-        <v>184.738198138089</v>
+        <v>198.449773382502</v>
       </c>
       <c r="P51">
-        <v>14.5264010465309</v>
+        <v>11.7247164766102</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_1999.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_1999.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1135.18881365623</v>
+        <v>1135.48729347885</v>
       </c>
       <c r="C2">
-        <v>42.3178011847934</v>
+        <v>44.5664218543703</v>
       </c>
       <c r="D2">
-        <v>74.7337735879002</v>
+        <v>81.93327631017161</v>
       </c>
       <c r="E2">
-        <v>63.6785457493553</v>
+        <v>69.5120376030609</v>
       </c>
       <c r="F2">
-        <v>13.4368607340841</v>
+        <v>14.045687576745</v>
       </c>
       <c r="G2">
-        <v>23.5618526923543</v>
+        <v>23.6439519269782</v>
       </c>
       <c r="H2">
-        <v>23.9452243980703</v>
+        <v>24.4617068445191</v>
       </c>
       <c r="I2">
-        <v>15.7906203078371</v>
+        <v>16.1338430068282</v>
       </c>
       <c r="J2">
-        <v>74.3224654278584</v>
+        <v>73.50005732099631</v>
       </c>
       <c r="K2">
-        <v>29.0479281666022</v>
+        <v>29.9780559205028</v>
       </c>
       <c r="L2">
-        <v>32.3772136989468</v>
+        <v>31.7303579987598</v>
       </c>
       <c r="M2">
-        <v>45.4878225041676</v>
+        <v>44.5894873297757</v>
       </c>
       <c r="N2">
-        <v>28.1876811426365</v>
+        <v>29.8762986623722</v>
       </c>
       <c r="O2">
-        <v>1509.9249166291</v>
+        <v>1488.43270487204</v>
       </c>
       <c r="P2">
-        <v>44.0392899361222</v>
+        <v>48.149629110105</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>122.134448120069</v>
+        <v>122.187768793274</v>
       </c>
       <c r="C3">
-        <v>5.46097197331019</v>
+        <v>5.60916263484923</v>
       </c>
       <c r="D3">
-        <v>0.318881531563936</v>
+        <v>0.342210936818704</v>
       </c>
       <c r="E3">
-        <v>1.55336542989893</v>
+        <v>1.6521454538564</v>
       </c>
       <c r="F3">
-        <v>11.8313303429281</v>
+        <v>10.882744882506</v>
       </c>
       <c r="G3">
-        <v>0.556343971429742</v>
+        <v>0.484879359510227</v>
       </c>
       <c r="H3">
-        <v>0.187225567982631</v>
+        <v>0.137807384573123</v>
       </c>
       <c r="I3">
-        <v>0.362835433982273</v>
+        <v>0.325649689434762</v>
       </c>
       <c r="J3">
-        <v>0.619021337140772</v>
+        <v>0.6169735126045221</v>
       </c>
       <c r="K3">
-        <v>0.35169274726533</v>
+        <v>0.375601687487167</v>
       </c>
       <c r="L3">
-        <v>0.415467514806318</v>
+        <v>0.373266400650578</v>
       </c>
       <c r="M3">
-        <v>1.14907992877945</v>
+        <v>1.17020342644666</v>
       </c>
       <c r="N3">
-        <v>0.629363077926164</v>
+        <v>0.62666945841026</v>
       </c>
       <c r="O3">
-        <v>250.681682284364</v>
+        <v>249.618269742767</v>
       </c>
       <c r="P3">
-        <v>9.220222529631011</v>
+        <v>11.0685784278885</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1240.74579613221</v>
+        <v>1241.33645830977</v>
       </c>
       <c r="C4">
-        <v>15.4807434792308</v>
+        <v>15.7574779092328</v>
       </c>
       <c r="D4">
-        <v>9.54452215961803</v>
+        <v>9.58051632840885</v>
       </c>
       <c r="E4">
-        <v>23.7243004098078</v>
+        <v>23.8073986645255</v>
       </c>
       <c r="F4">
-        <v>15.1119156731307</v>
+        <v>19.262472214183</v>
       </c>
       <c r="G4">
-        <v>16.009941678993</v>
+        <v>15.8744945923269</v>
       </c>
       <c r="H4">
-        <v>4.00461382176535</v>
+        <v>3.98665170290601</v>
       </c>
       <c r="I4">
-        <v>9.144620049732801</v>
+        <v>9.27081568944285</v>
       </c>
       <c r="J4">
-        <v>20.8963741975786</v>
+        <v>20.9719885228322</v>
       </c>
       <c r="K4">
-        <v>13.7755344362703</v>
+        <v>13.4136780751201</v>
       </c>
       <c r="L4">
-        <v>87.1820667855087</v>
+        <v>83.3226857150629</v>
       </c>
       <c r="M4">
-        <v>65.2106621659395</v>
+        <v>62.7235370263331</v>
       </c>
       <c r="N4">
-        <v>22.1108796294986</v>
+        <v>22.0154096319291</v>
       </c>
       <c r="O4">
-        <v>1966.50073116682</v>
+        <v>1962.27339776396</v>
       </c>
       <c r="P4">
-        <v>29.2227652318479</v>
+        <v>35.0684848719284</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>669.8988378240171</v>
+        <v>669.911010555118</v>
       </c>
       <c r="C5">
-        <v>55.3278338426033</v>
+        <v>57.6695753668606</v>
       </c>
       <c r="D5">
-        <v>12.2060704389086</v>
+        <v>13.7111778353737</v>
       </c>
       <c r="E5">
-        <v>43.2462074099102</v>
+        <v>45.9616833386279</v>
       </c>
       <c r="F5">
-        <v>6.38872439093436</v>
+        <v>6.92006781643665</v>
       </c>
       <c r="G5">
-        <v>14.6090648443407</v>
+        <v>15.5036345366593</v>
       </c>
       <c r="H5">
-        <v>13.6936952692507</v>
+        <v>14.446742206714</v>
       </c>
       <c r="I5">
-        <v>7.40122871161231</v>
+        <v>7.45204111681842</v>
       </c>
       <c r="J5">
-        <v>33.4631067057645</v>
+        <v>34.9976000678135</v>
       </c>
       <c r="K5">
-        <v>22.9433455830181</v>
+        <v>23.7279736159094</v>
       </c>
       <c r="L5">
-        <v>24.8167225994503</v>
+        <v>25.3638870307312</v>
       </c>
       <c r="M5">
-        <v>20.3486161406732</v>
+        <v>21.0745001139989</v>
       </c>
       <c r="N5">
-        <v>19.7826177469781</v>
+        <v>20.3440799225031</v>
       </c>
       <c r="O5">
-        <v>872.020631984263</v>
+        <v>848.31555700066</v>
       </c>
       <c r="P5">
-        <v>51.5637574261005</v>
+        <v>62.3109303936003</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>8065.62284421136</v>
+        <v>8068.01597138699</v>
       </c>
       <c r="C6">
-        <v>215.613514576068</v>
+        <v>219.153251192781</v>
       </c>
       <c r="D6">
-        <v>220.652935752209</v>
+        <v>221.316412579899</v>
       </c>
       <c r="E6">
-        <v>149.821998287247</v>
+        <v>151.021671220342</v>
       </c>
       <c r="F6">
-        <v>51.9933137971965</v>
+        <v>52.4787379943768</v>
       </c>
       <c r="G6">
-        <v>121.938537732485</v>
+        <v>121.233168936277</v>
       </c>
       <c r="H6">
-        <v>68.6198614406982</v>
+        <v>68.55116461304171</v>
       </c>
       <c r="I6">
-        <v>60.6252347650398</v>
+        <v>60.5702496170953</v>
       </c>
       <c r="J6">
-        <v>214.08642788402</v>
+        <v>213.299138856482</v>
       </c>
       <c r="K6">
-        <v>143.223306672207</v>
+        <v>141.983349781675</v>
       </c>
       <c r="L6">
-        <v>647.130127512445</v>
+        <v>641.317785063782</v>
       </c>
       <c r="M6">
-        <v>292.732747742694</v>
+        <v>290.988419770296</v>
       </c>
       <c r="N6">
-        <v>329.920574943559</v>
+        <v>328.573323559475</v>
       </c>
       <c r="O6">
-        <v>12647.635741177</v>
+        <v>12608.3110662438</v>
       </c>
       <c r="P6">
-        <v>303.265256511425</v>
+        <v>346.068712189263</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>798.098059691086</v>
+        <v>799.347927012172</v>
       </c>
       <c r="C7">
-        <v>32.1246437258313</v>
+        <v>33.7837601321617</v>
       </c>
       <c r="D7">
-        <v>4.50722082724485</v>
+        <v>4.42116549982983</v>
       </c>
       <c r="E7">
-        <v>21.3011049505876</v>
+        <v>20.6752326625443</v>
       </c>
       <c r="F7">
-        <v>19.2519386170862</v>
+        <v>21.4907876688862</v>
       </c>
       <c r="G7">
-        <v>9.558465812085849</v>
+        <v>9.169501692979059</v>
       </c>
       <c r="H7">
-        <v>9.23237651824849</v>
+        <v>8.809682261518359</v>
       </c>
       <c r="I7">
-        <v>12.310449351796</v>
+        <v>12.0706994823371</v>
       </c>
       <c r="J7">
-        <v>19.9668065372535</v>
+        <v>19.5315142372735</v>
       </c>
       <c r="K7">
-        <v>24.3798858133587</v>
+        <v>23.6701909897393</v>
       </c>
       <c r="L7">
-        <v>74.5585796072936</v>
+        <v>70.8473377864275</v>
       </c>
       <c r="M7">
-        <v>22.6955834424592</v>
+        <v>21.7385446072222</v>
       </c>
       <c r="N7">
-        <v>30.123482765796</v>
+        <v>28.9405315976424</v>
       </c>
       <c r="O7">
-        <v>1918.83034843363</v>
+        <v>1910.4511464325</v>
       </c>
       <c r="P7">
-        <v>30.986193017169</v>
+        <v>42.9771170477</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>732.271086936338</v>
+        <v>732.218840543785</v>
       </c>
       <c r="C8">
-        <v>15.3157234784114</v>
+        <v>15.347169893396</v>
       </c>
       <c r="D8">
-        <v>9.26917632727551</v>
+        <v>9.125014295784951</v>
       </c>
       <c r="E8">
-        <v>23.4498623096123</v>
+        <v>23.9003644591612</v>
       </c>
       <c r="F8">
-        <v>0.634649548590429</v>
+        <v>0.656695187514766</v>
       </c>
       <c r="G8">
-        <v>27.2579537970251</v>
+        <v>26.988771909823</v>
       </c>
       <c r="H8">
-        <v>16.2179567484797</v>
+        <v>16.1365607981953</v>
       </c>
       <c r="I8">
-        <v>3.24328729958166</v>
+        <v>3.33233112396467</v>
       </c>
       <c r="J8">
-        <v>53.2781356550127</v>
+        <v>52.9432643751739</v>
       </c>
       <c r="K8">
-        <v>34.4905398936856</v>
+        <v>34.4317200251243</v>
       </c>
       <c r="L8">
-        <v>43.5594363413017</v>
+        <v>43.1183023802237</v>
       </c>
       <c r="M8">
-        <v>61.6894082520791</v>
+        <v>61.8226971582118</v>
       </c>
       <c r="N8">
-        <v>30.5135722554273</v>
+        <v>30.4357448816717</v>
       </c>
       <c r="O8">
-        <v>1348.38273043871</v>
+        <v>1348.61668729633</v>
       </c>
       <c r="P8">
-        <v>7.53204555197108</v>
+        <v>8.03140050513387</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>169.581791390621</v>
+        <v>169.673860070052</v>
       </c>
       <c r="C9">
-        <v>9.525491653512169</v>
+        <v>9.91014311723748</v>
       </c>
       <c r="D9">
-        <v>1.54667802329591</v>
+        <v>1.49323723167674</v>
       </c>
       <c r="E9">
-        <v>4.75823739594938</v>
+        <v>4.98072742935074</v>
       </c>
       <c r="F9">
-        <v>2.20140063814299</v>
+        <v>2.24718923256507</v>
       </c>
       <c r="G9">
-        <v>24.1164832192323</v>
+        <v>23.1039126261056</v>
       </c>
       <c r="H9">
-        <v>4.38324285851102</v>
+        <v>4.40307269101314</v>
       </c>
       <c r="I9">
-        <v>0.475087274203607</v>
+        <v>0.490363954522155</v>
       </c>
       <c r="J9">
-        <v>4.02758079011299</v>
+        <v>3.90931176394084</v>
       </c>
       <c r="K9">
-        <v>3.62932807034281</v>
+        <v>3.49069271823525</v>
       </c>
       <c r="L9">
-        <v>2.08374673738736</v>
+        <v>2.02904884510876</v>
       </c>
       <c r="M9">
-        <v>9.034288557334481</v>
+        <v>8.170240879001749</v>
       </c>
       <c r="N9">
-        <v>4.54567386877641</v>
+        <v>4.64288414095906</v>
       </c>
       <c r="O9">
-        <v>306.068267698569</v>
+        <v>307.099412130316</v>
       </c>
       <c r="P9">
-        <v>5.14379189574991</v>
+        <v>5.4769932416575</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4155.87378432247</v>
+        <v>4156.16788916902</v>
       </c>
       <c r="C10">
-        <v>51.3877483377485</v>
+        <v>52.1304080613648</v>
       </c>
       <c r="D10">
-        <v>40.9781641503937</v>
+        <v>41.3972911230059</v>
       </c>
       <c r="E10">
-        <v>63.4758417112558</v>
+        <v>64.98169018464461</v>
       </c>
       <c r="F10">
-        <v>15.1449788033135</v>
+        <v>15.8252731370916</v>
       </c>
       <c r="G10">
-        <v>44.946116035875</v>
+        <v>45.0673535927581</v>
       </c>
       <c r="H10">
-        <v>22.6568496947612</v>
+        <v>22.9268610530952</v>
       </c>
       <c r="I10">
-        <v>33.7812473404631</v>
+        <v>34.1369317962428</v>
       </c>
       <c r="J10">
-        <v>48.1276450883185</v>
+        <v>48.5380022924371</v>
       </c>
       <c r="K10">
-        <v>50.9994162223429</v>
+        <v>51.7061432172712</v>
       </c>
       <c r="L10">
-        <v>123.989118503279</v>
+        <v>123.59463265336</v>
       </c>
       <c r="M10">
-        <v>91.1772070848089</v>
+        <v>91.9852563087468</v>
       </c>
       <c r="N10">
-        <v>108.538627869107</v>
+        <v>108.211422566353</v>
       </c>
       <c r="O10">
-        <v>6578.13393913221</v>
+        <v>6565.66050358734</v>
       </c>
       <c r="P10">
-        <v>97.62016727326051</v>
+        <v>104.501192826889</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1741.91473615403</v>
+        <v>1740.32681192068</v>
       </c>
       <c r="C11">
-        <v>69.106250247151</v>
+        <v>71.72167381058161</v>
       </c>
       <c r="D11">
-        <v>148.904973868985</v>
+        <v>161.281861663833</v>
       </c>
       <c r="E11">
-        <v>100.322251582501</v>
+        <v>103.482325077325</v>
       </c>
       <c r="F11">
-        <v>11.9711445599424</v>
+        <v>14.2935019641032</v>
       </c>
       <c r="G11">
-        <v>40.2194201411509</v>
+        <v>41.0201773893097</v>
       </c>
       <c r="H11">
-        <v>35.564230341198</v>
+        <v>36.8365010052706</v>
       </c>
       <c r="I11">
-        <v>24.4181682369547</v>
+        <v>24.7521998782634</v>
       </c>
       <c r="J11">
-        <v>47.7170886523411</v>
+        <v>49.5172201415401</v>
       </c>
       <c r="K11">
-        <v>52.9670700772414</v>
+        <v>55.1667165361065</v>
       </c>
       <c r="L11">
-        <v>74.6668901865955</v>
+        <v>73.3706537554673</v>
       </c>
       <c r="M11">
-        <v>74.52131385193169</v>
+        <v>76.68700016380809</v>
       </c>
       <c r="N11">
-        <v>62.9107486166155</v>
+        <v>62.7657141309602</v>
       </c>
       <c r="O11">
-        <v>3147.35150141657</v>
+        <v>3113.82175768112</v>
       </c>
       <c r="P11">
-        <v>46.8155438812274</v>
+        <v>54.3272166960543</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>285.34460254059</v>
+        <v>285.42539335805</v>
       </c>
       <c r="C12">
-        <v>7.21712161617232</v>
+        <v>7.49034351551562</v>
       </c>
       <c r="D12">
-        <v>5.33393142569112</v>
+        <v>5.14451592654142</v>
       </c>
       <c r="E12">
-        <v>2.08798825269767</v>
+        <v>2.06884101634215</v>
       </c>
       <c r="F12">
-        <v>0.621285209626775</v>
+        <v>0.6346459717024811</v>
       </c>
       <c r="G12">
-        <v>1.10861745293824</v>
+        <v>1.14811855318093</v>
       </c>
       <c r="H12">
-        <v>0.5771280253971161</v>
+        <v>0.618499445795885</v>
       </c>
       <c r="I12">
-        <v>1.86131082013011</v>
+        <v>1.83156781976234</v>
       </c>
       <c r="J12">
-        <v>0.737091569385229</v>
+        <v>0.736151875467848</v>
       </c>
       <c r="K12">
-        <v>1.10389332281509</v>
+        <v>1.0569870305054</v>
       </c>
       <c r="L12">
-        <v>2.16686435475239</v>
+        <v>2.12654162570377</v>
       </c>
       <c r="M12">
-        <v>4.33865284747964</v>
+        <v>4.20129709986389</v>
       </c>
       <c r="N12">
-        <v>2.02212022391424</v>
+        <v>2.04065245879417</v>
       </c>
       <c r="O12">
-        <v>515.869889931801</v>
+        <v>513.10589910788</v>
       </c>
       <c r="P12">
-        <v>16.8217864902152</v>
+        <v>19.5828292785009</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>279.521360754267</v>
+        <v>279.316947168336</v>
       </c>
       <c r="C13">
-        <v>25.4739009221648</v>
+        <v>26.4611089985023</v>
       </c>
       <c r="D13">
-        <v>2.1972811231101</v>
+        <v>2.23677356828865</v>
       </c>
       <c r="E13">
-        <v>17.5667140103248</v>
+        <v>18.3439929191514</v>
       </c>
       <c r="F13">
-        <v>3.91629219595469</v>
+        <v>5.34598067884514</v>
       </c>
       <c r="G13">
-        <v>5.87240816893709</v>
+        <v>6.19506229449579</v>
       </c>
       <c r="H13">
-        <v>2.64971236145343</v>
+        <v>2.58661213214654</v>
       </c>
       <c r="I13">
-        <v>2.27957214542785</v>
+        <v>2.24566950764871</v>
       </c>
       <c r="J13">
-        <v>5.28179538502378</v>
+        <v>5.24793327323585</v>
       </c>
       <c r="K13">
-        <v>3.43476306961557</v>
+        <v>3.27294042917227</v>
       </c>
       <c r="L13">
-        <v>27.3950092828702</v>
+        <v>22.7009167501858</v>
       </c>
       <c r="M13">
-        <v>5.91497585900167</v>
+        <v>5.96954665010173</v>
       </c>
       <c r="N13">
-        <v>8.14122341494766</v>
+        <v>7.78715761979447</v>
       </c>
       <c r="O13">
-        <v>465.761047080822</v>
+        <v>460.323475299125</v>
       </c>
       <c r="P13">
-        <v>33.1308122140711</v>
+        <v>40.5027506989631</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2607.80041876381</v>
+        <v>2607.66100352227</v>
       </c>
       <c r="C14">
-        <v>109.728449517516</v>
+        <v>111.442745575307</v>
       </c>
       <c r="D14">
-        <v>21.5214670851961</v>
+        <v>21.0089783305342</v>
       </c>
       <c r="E14">
-        <v>97.27234258239621</v>
+        <v>98.4948480897929</v>
       </c>
       <c r="F14">
-        <v>24.3398357894274</v>
+        <v>28.4834110363151</v>
       </c>
       <c r="G14">
-        <v>94.438851080296</v>
+        <v>94.78006208345209</v>
       </c>
       <c r="H14">
-        <v>60.1118137213668</v>
+        <v>63.2946831931367</v>
       </c>
       <c r="I14">
-        <v>40.3123367654725</v>
+        <v>43.0632645240671</v>
       </c>
       <c r="J14">
-        <v>187.318120615459</v>
+        <v>191.669662183732</v>
       </c>
       <c r="K14">
-        <v>175.981185775079</v>
+        <v>186.449804501076</v>
       </c>
       <c r="L14">
-        <v>174.263149491053</v>
+        <v>170.082482634257</v>
       </c>
       <c r="M14">
-        <v>103.003521751381</v>
+        <v>113.526163755925</v>
       </c>
       <c r="N14">
-        <v>103.018428530777</v>
+        <v>102.434491778485</v>
       </c>
       <c r="O14">
-        <v>4893.94129456476</v>
+        <v>4838.25853420331</v>
       </c>
       <c r="P14">
-        <v>71.9838396832991</v>
+        <v>94.38492030563199</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1274.24852138504</v>
+        <v>1273.61364549769</v>
       </c>
       <c r="C15">
-        <v>40.7574350406332</v>
+        <v>41.6315463890083</v>
       </c>
       <c r="D15">
-        <v>15.5512419075726</v>
+        <v>16.2038510987569</v>
       </c>
       <c r="E15">
-        <v>59.367444836932</v>
+        <v>62.4873591587808</v>
       </c>
       <c r="F15">
-        <v>13.322758924939</v>
+        <v>13.844326936655</v>
       </c>
       <c r="G15">
-        <v>53.8255190851531</v>
+        <v>51.3646757867811</v>
       </c>
       <c r="H15">
-        <v>53.9579645421384</v>
+        <v>57.3245583253174</v>
       </c>
       <c r="I15">
-        <v>29.9093668991293</v>
+        <v>32.1054084083315</v>
       </c>
       <c r="J15">
-        <v>172.340107180695</v>
+        <v>176.775084555979</v>
       </c>
       <c r="K15">
-        <v>90.8628017601599</v>
+        <v>92.8490908811999</v>
       </c>
       <c r="L15">
-        <v>76.1578616888779</v>
+        <v>79.28391730486641</v>
       </c>
       <c r="M15">
-        <v>180.008750701318</v>
+        <v>187.983756584865</v>
       </c>
       <c r="N15">
-        <v>73.5195488732488</v>
+        <v>79.1721171668276</v>
       </c>
       <c r="O15">
-        <v>2105.99154879748</v>
+        <v>2072.65721027932</v>
       </c>
       <c r="P15">
-        <v>41.0454304332696</v>
+        <v>43.5697536822203</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>525.2840771028911</v>
+        <v>525.329268196106</v>
       </c>
       <c r="C16">
-        <v>62.2679375080077</v>
+        <v>63.0171667327319</v>
       </c>
       <c r="D16">
-        <v>10.8496908573793</v>
+        <v>11.488939202495</v>
       </c>
       <c r="E16">
-        <v>23.4441395179479</v>
+        <v>23.5847350799749</v>
       </c>
       <c r="F16">
-        <v>4.01702625098515</v>
+        <v>4.75891008257289</v>
       </c>
       <c r="G16">
-        <v>13.1972585052821</v>
+        <v>13.2720732756752</v>
       </c>
       <c r="H16">
-        <v>15.7645511511325</v>
+        <v>16.5512131627371</v>
       </c>
       <c r="I16">
-        <v>12.9177066389516</v>
+        <v>14.0240998242554</v>
       </c>
       <c r="J16">
-        <v>45.8848906347759</v>
+        <v>48.6018234838021</v>
       </c>
       <c r="K16">
-        <v>41.5473272136403</v>
+        <v>43.838089698979</v>
       </c>
       <c r="L16">
-        <v>41.4045464069817</v>
+        <v>40.6937167728265</v>
       </c>
       <c r="M16">
-        <v>21.3329315378442</v>
+        <v>23.4108915605615</v>
       </c>
       <c r="N16">
-        <v>21.9448710499765</v>
+        <v>22.3918788775409</v>
       </c>
       <c r="O16">
-        <v>1137.15163066966</v>
+        <v>1112.9695398154</v>
       </c>
       <c r="P16">
-        <v>75.67304190182971</v>
+        <v>88.7492811816302</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>518.185838032459</v>
+        <v>517.412802846861</v>
       </c>
       <c r="C17">
-        <v>33.1597948459845</v>
+        <v>31.1941007634496</v>
       </c>
       <c r="D17">
-        <v>6.48428416032837</v>
+        <v>6.28021010183021</v>
       </c>
       <c r="E17">
-        <v>17.6345600749995</v>
+        <v>17.1876199146569</v>
       </c>
       <c r="F17">
-        <v>14.9241369453861</v>
+        <v>16.7923931547689</v>
       </c>
       <c r="G17">
-        <v>15.5409941393631</v>
+        <v>14.9405457214147</v>
       </c>
       <c r="H17">
-        <v>13.8574008756505</v>
+        <v>14.7334895854207</v>
       </c>
       <c r="I17">
-        <v>7.60017091442411</v>
+        <v>7.90698047484265</v>
       </c>
       <c r="J17">
-        <v>19.887156956852</v>
+        <v>21.4984060213313</v>
       </c>
       <c r="K17">
-        <v>26.4484406812223</v>
+        <v>27.5859862247131</v>
       </c>
       <c r="L17">
-        <v>17.2316001474305</v>
+        <v>16.8467274255398</v>
       </c>
       <c r="M17">
-        <v>82.6945607496279</v>
+        <v>78.36599954552629</v>
       </c>
       <c r="N17">
-        <v>15.78010282037</v>
+        <v>15.6929790419982</v>
       </c>
       <c r="O17">
-        <v>1015.80052049418</v>
+        <v>998.403854362566</v>
       </c>
       <c r="P17">
-        <v>54.9979053333502</v>
+        <v>75.38537198671381</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1073.55123297812</v>
+        <v>1073.37789210975</v>
       </c>
       <c r="C18">
-        <v>31.2892496787696</v>
+        <v>31.8601436031113</v>
       </c>
       <c r="D18">
-        <v>28.084265483299</v>
+        <v>29.2223734772783</v>
       </c>
       <c r="E18">
-        <v>41.3164909797841</v>
+        <v>41.4155279507991</v>
       </c>
       <c r="F18">
-        <v>32.1991057698849</v>
+        <v>33.5558134698057</v>
       </c>
       <c r="G18">
-        <v>27.8634299467051</v>
+        <v>27.7570779044703</v>
       </c>
       <c r="H18">
-        <v>25.6568684128206</v>
+        <v>25.612380815194</v>
       </c>
       <c r="I18">
-        <v>12.3638247460912</v>
+        <v>12.0258602785601</v>
       </c>
       <c r="J18">
-        <v>46.5266982949393</v>
+        <v>46.5734361699815</v>
       </c>
       <c r="K18">
-        <v>43.5919203837869</v>
+        <v>43.0943727078498</v>
       </c>
       <c r="L18">
-        <v>42.7681644954294</v>
+        <v>42.4744268472089</v>
       </c>
       <c r="M18">
-        <v>68.1798468733557</v>
+        <v>67.24302460349671</v>
       </c>
       <c r="N18">
-        <v>32.990380897135</v>
+        <v>32.789500836758</v>
       </c>
       <c r="O18">
-        <v>1348.02735244854</v>
+        <v>1346.80744490903</v>
       </c>
       <c r="P18">
-        <v>39.8802438219429</v>
+        <v>40.4797995273144</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1157.33073806959</v>
+        <v>1157.18700933011</v>
       </c>
       <c r="C19">
-        <v>24.989464643417</v>
+        <v>26.3277212640222</v>
       </c>
       <c r="D19">
-        <v>10.1683425878407</v>
+        <v>10.7678435849071</v>
       </c>
       <c r="E19">
-        <v>33.6460221879987</v>
+        <v>38.8244582465557</v>
       </c>
       <c r="F19">
-        <v>71.81907477490741</v>
+        <v>72.154611395777</v>
       </c>
       <c r="G19">
-        <v>45.4011911129627</v>
+        <v>45.4633679657433</v>
       </c>
       <c r="H19">
-        <v>7.44363293934931</v>
+        <v>7.78389092537919</v>
       </c>
       <c r="I19">
-        <v>9.1574901232744</v>
+        <v>9.340010140509721</v>
       </c>
       <c r="J19">
-        <v>16.9079903623923</v>
+        <v>17.3930253711594</v>
       </c>
       <c r="K19">
-        <v>15.5265661491249</v>
+        <v>15.6611115207748</v>
       </c>
       <c r="L19">
-        <v>10.457165044643</v>
+        <v>10.1075073587769</v>
       </c>
       <c r="M19">
-        <v>32.3990354332521</v>
+        <v>31.2028648999523</v>
       </c>
       <c r="N19">
-        <v>14.6951732807632</v>
+        <v>14.5821743082416</v>
       </c>
       <c r="O19">
-        <v>1605.84995198521</v>
+        <v>1593.99222655993</v>
       </c>
       <c r="P19">
-        <v>35.4680544609767</v>
+        <v>40.4720702838611</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>290.191096273086</v>
+        <v>290.093414153043</v>
       </c>
       <c r="C20">
-        <v>8.22058540720562</v>
+        <v>8.2928635672263</v>
       </c>
       <c r="D20">
-        <v>16.5079573194346</v>
+        <v>17.6751669020983</v>
       </c>
       <c r="E20">
-        <v>30.2823180145749</v>
+        <v>34.468347803596</v>
       </c>
       <c r="F20">
-        <v>0.528264107045317</v>
+        <v>0.524612423204785</v>
       </c>
       <c r="G20">
-        <v>1.70292488845246</v>
+        <v>1.74424743166042</v>
       </c>
       <c r="H20">
-        <v>3.62152155228363</v>
+        <v>3.45065163589507</v>
       </c>
       <c r="I20">
-        <v>0.8733595331530341</v>
+        <v>0.866444872660783</v>
       </c>
       <c r="J20">
-        <v>7.02343753594825</v>
+        <v>7.01689870947362</v>
       </c>
       <c r="K20">
-        <v>6.32492810547335</v>
+        <v>6.14927569347231</v>
       </c>
       <c r="L20">
-        <v>9.853495875788781</v>
+        <v>8.73906586278334</v>
       </c>
       <c r="M20">
-        <v>18.6945198124802</v>
+        <v>16.7152892699895</v>
       </c>
       <c r="N20">
-        <v>5.83376155222658</v>
+        <v>5.90405233248486</v>
       </c>
       <c r="O20">
-        <v>494.516155261351</v>
+        <v>486.713905261301</v>
       </c>
       <c r="P20">
-        <v>20.5093596148315</v>
+        <v>26.3294489344467</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1022.25144180056</v>
+        <v>1021.91760778442</v>
       </c>
       <c r="C21">
-        <v>24.7754130104498</v>
+        <v>25.5911807103292</v>
       </c>
       <c r="D21">
-        <v>14.9076613607593</v>
+        <v>15.9593237691319</v>
       </c>
       <c r="E21">
-        <v>35.452399710902</v>
+        <v>36.3364561863973</v>
       </c>
       <c r="F21">
-        <v>4.75415520058742</v>
+        <v>5.07975346229691</v>
       </c>
       <c r="G21">
-        <v>12.9635070015906</v>
+        <v>12.9271882601696</v>
       </c>
       <c r="H21">
-        <v>21.0617222280265</v>
+        <v>21.7069166797058</v>
       </c>
       <c r="I21">
-        <v>6.19710089281051</v>
+        <v>6.2172226340261</v>
       </c>
       <c r="J21">
-        <v>15.9481377712949</v>
+        <v>16.4454370129543</v>
       </c>
       <c r="K21">
-        <v>23.3257475905414</v>
+        <v>23.8383944731013</v>
       </c>
       <c r="L21">
-        <v>30.7485236834812</v>
+        <v>30.7560855393513</v>
       </c>
       <c r="M21">
-        <v>44.8885621802011</v>
+        <v>44.9105962175723</v>
       </c>
       <c r="N21">
-        <v>13.1019852879852</v>
+        <v>13.1755181815938</v>
       </c>
       <c r="O21">
-        <v>2431.00485286683</v>
+        <v>2424.02901932583</v>
       </c>
       <c r="P21">
-        <v>17.0383542471953</v>
+        <v>19.5288645963408</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1320.17250664152</v>
+        <v>1319.92090758344</v>
       </c>
       <c r="C22">
-        <v>27.5192842695545</v>
+        <v>27.4501730007263</v>
       </c>
       <c r="D22">
-        <v>35.7643241037472</v>
+        <v>36.5208529414012</v>
       </c>
       <c r="E22">
-        <v>35.6129558245425</v>
+        <v>37.3131765447563</v>
       </c>
       <c r="F22">
-        <v>3.23037736588833</v>
+        <v>3.57577047264755</v>
       </c>
       <c r="G22">
-        <v>26.5661269755522</v>
+        <v>26.5312134597614</v>
       </c>
       <c r="H22">
-        <v>28.0945421105138</v>
+        <v>28.9406734238767</v>
       </c>
       <c r="I22">
-        <v>9.033609103782149</v>
+        <v>9.59402350953906</v>
       </c>
       <c r="J22">
-        <v>57.9879605785338</v>
+        <v>58.9723466996799</v>
       </c>
       <c r="K22">
-        <v>46.50709913251</v>
+        <v>46.6851544368629</v>
       </c>
       <c r="L22">
-        <v>137.221579260459</v>
+        <v>135.137414371265</v>
       </c>
       <c r="M22">
-        <v>20.947042700381</v>
+        <v>20.8780838218686</v>
       </c>
       <c r="N22">
-        <v>87.1523252827007</v>
+        <v>87.7357789266074</v>
       </c>
       <c r="O22">
-        <v>2705.12239914191</v>
+        <v>2698.91750047281</v>
       </c>
       <c r="P22">
-        <v>16.4983194759445</v>
+        <v>19.2573823022897</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2211.85858535593</v>
+        <v>2213.7472250945</v>
       </c>
       <c r="C23">
-        <v>45.3131907473137</v>
+        <v>48.4738286385693</v>
       </c>
       <c r="D23">
-        <v>19.2189273418558</v>
+        <v>19.4706122521258</v>
       </c>
       <c r="E23">
-        <v>61.7279960072984</v>
+        <v>68.7093126695125</v>
       </c>
       <c r="F23">
-        <v>6.11397522267134</v>
+        <v>7.93279994645569</v>
       </c>
       <c r="G23">
-        <v>59.6108196610638</v>
+        <v>59.4560449657059</v>
       </c>
       <c r="H23">
-        <v>65.4819391719049</v>
+        <v>68.97751533295779</v>
       </c>
       <c r="I23">
-        <v>23.460893019655</v>
+        <v>25.4961726768083</v>
       </c>
       <c r="J23">
-        <v>170.553762841297</v>
+        <v>174.959384681964</v>
       </c>
       <c r="K23">
-        <v>142.011246841773</v>
+        <v>143.69207272903</v>
       </c>
       <c r="L23">
-        <v>56.1864938367034</v>
+        <v>56.3827353047278</v>
       </c>
       <c r="M23">
-        <v>560.7568177589191</v>
+        <v>535.288748883229</v>
       </c>
       <c r="N23">
-        <v>89.3590173094302</v>
+        <v>88.48205959323551</v>
       </c>
       <c r="O23">
-        <v>3443.96273235335</v>
+        <v>3423.56507098326</v>
       </c>
       <c r="P23">
-        <v>50.9522158651002</v>
+        <v>71.9350295821738</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>826.968409480562</v>
+        <v>825.265416313743</v>
       </c>
       <c r="C24">
-        <v>63.2215421657409</v>
+        <v>72.3932212434287</v>
       </c>
       <c r="D24">
-        <v>8.63023605829834</v>
+        <v>9.46269863360032</v>
       </c>
       <c r="E24">
-        <v>64.6080153218809</v>
+        <v>62.7108308944636</v>
       </c>
       <c r="F24">
-        <v>19.7203335516002</v>
+        <v>21.5042439801716</v>
       </c>
       <c r="G24">
-        <v>20.3329298751263</v>
+        <v>19.7569806360387</v>
       </c>
       <c r="H24">
-        <v>29.4011629266768</v>
+        <v>29.8713282979592</v>
       </c>
       <c r="I24">
-        <v>11.2015567467349</v>
+        <v>12.644189894175</v>
       </c>
       <c r="J24">
-        <v>51.867355660309</v>
+        <v>54.4799956332256</v>
       </c>
       <c r="K24">
-        <v>70.1677364650437</v>
+        <v>71.1798620939563</v>
       </c>
       <c r="L24">
-        <v>82.15103254116301</v>
+        <v>77.1282770770442</v>
       </c>
       <c r="M24">
-        <v>19.0156761217904</v>
+        <v>21.5761452933052</v>
       </c>
       <c r="N24">
-        <v>63.2781894005934</v>
+        <v>60.9836364006158</v>
       </c>
       <c r="O24">
-        <v>2044.81638256349</v>
+        <v>1988.7224188593</v>
       </c>
       <c r="P24">
-        <v>79.7475971086125</v>
+        <v>127.448910736586</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>753.451003050306</v>
+        <v>753.477027354863</v>
       </c>
       <c r="C25">
-        <v>31.4365005544667</v>
+        <v>33.7484208174312</v>
       </c>
       <c r="D25">
-        <v>22.7240548498533</v>
+        <v>25.0790488705348</v>
       </c>
       <c r="E25">
-        <v>33.0566784968585</v>
+        <v>35.3662920839638</v>
       </c>
       <c r="F25">
-        <v>16.9936514551962</v>
+        <v>16.871239300236</v>
       </c>
       <c r="G25">
-        <v>10.347623678432</v>
+        <v>9.932461031570339</v>
       </c>
       <c r="H25">
-        <v>15.515743967408</v>
+        <v>16.3129868896381</v>
       </c>
       <c r="I25">
-        <v>6.05589676693947</v>
+        <v>6.14852552937311</v>
       </c>
       <c r="J25">
-        <v>20.8664134716444</v>
+        <v>21.6586060267646</v>
       </c>
       <c r="K25">
-        <v>16.6267819157681</v>
+        <v>18.1133303591583</v>
       </c>
       <c r="L25">
-        <v>35.471172538024</v>
+        <v>36.286256811415</v>
       </c>
       <c r="M25">
-        <v>25.1599883868036</v>
+        <v>24.5108042019192</v>
       </c>
       <c r="N25">
-        <v>41.5788191020324</v>
+        <v>46.8538696032329</v>
       </c>
       <c r="O25">
-        <v>881.326022494683</v>
+        <v>861.8540700739781</v>
       </c>
       <c r="P25">
-        <v>38.2778688136127</v>
+        <v>42.6752805879508</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1211.36904122188</v>
+        <v>1211.59900725343</v>
       </c>
       <c r="C26">
-        <v>54.1857762392431</v>
+        <v>57.6244913248475</v>
       </c>
       <c r="D26">
-        <v>13.1341786474932</v>
+        <v>15.3640667749152</v>
       </c>
       <c r="E26">
-        <v>52.1528165010251</v>
+        <v>54.2946472587776</v>
       </c>
       <c r="F26">
-        <v>2.24049352725855</v>
+        <v>2.70606016862925</v>
       </c>
       <c r="G26">
-        <v>38.1168391713816</v>
+        <v>36.5475972916115</v>
       </c>
       <c r="H26">
-        <v>23.658405558306</v>
+        <v>24.1005012057104</v>
       </c>
       <c r="I26">
-        <v>14.5554631277053</v>
+        <v>16.5122926542018</v>
       </c>
       <c r="J26">
-        <v>55.7445455650377</v>
+        <v>58.2393140039036</v>
       </c>
       <c r="K26">
-        <v>49.8715729720607</v>
+        <v>51.2490175526671</v>
       </c>
       <c r="L26">
-        <v>41.3629025203206</v>
+        <v>43.0073410751875</v>
       </c>
       <c r="M26">
-        <v>89.318882498778</v>
+        <v>89.3543218076461</v>
       </c>
       <c r="N26">
-        <v>35.1583347174218</v>
+        <v>37.8305163229315</v>
       </c>
       <c r="O26">
-        <v>2206.51241757385</v>
+        <v>2170.54850253683</v>
       </c>
       <c r="P26">
-        <v>56.6682576907221</v>
+        <v>75.0722503011938</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>198.068798798614</v>
+        <v>197.781526133985</v>
       </c>
       <c r="C27">
-        <v>3.05341982531712</v>
+        <v>3.15457129467759</v>
       </c>
       <c r="D27">
-        <v>0.9955292415534</v>
+        <v>0.98338197200545</v>
       </c>
       <c r="E27">
-        <v>10.0375407479542</v>
+        <v>10.2516368788223</v>
       </c>
       <c r="F27">
-        <v>6.6586867052002</v>
+        <v>7.36691335827176</v>
       </c>
       <c r="G27">
-        <v>0.857149051581188</v>
+        <v>0.805255255191805</v>
       </c>
       <c r="H27">
-        <v>0.460709959498793</v>
+        <v>0.466151591229967</v>
       </c>
       <c r="I27">
-        <v>0.7348231716836811</v>
+        <v>0.7545981535591591</v>
       </c>
       <c r="J27">
-        <v>4.572434639616</v>
+        <v>4.42445147120486</v>
       </c>
       <c r="K27">
-        <v>1.6795367509643</v>
+        <v>1.65510006356165</v>
       </c>
       <c r="L27">
-        <v>2.89898958982554</v>
+        <v>2.49670817932606</v>
       </c>
       <c r="M27">
-        <v>1.41107979620659</v>
+        <v>1.39637818207779</v>
       </c>
       <c r="N27">
-        <v>5.08083501583339</v>
+        <v>5.03569717794889</v>
       </c>
       <c r="O27">
-        <v>366.908825594306</v>
+        <v>355.341735840045</v>
       </c>
       <c r="P27">
-        <v>34.3119138363313</v>
+        <v>45.8161671725802</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>297.186296023329</v>
+        <v>295.811536529527</v>
       </c>
       <c r="C28">
-        <v>37.6163424162801</v>
+        <v>36.0777271841448</v>
       </c>
       <c r="D28">
-        <v>2.00125862506064</v>
+        <v>1.91940253849662</v>
       </c>
       <c r="E28">
-        <v>8.07735346157506</v>
+        <v>7.36832457678458</v>
       </c>
       <c r="F28">
-        <v>2.08424993651022</v>
+        <v>2.4710641708044</v>
       </c>
       <c r="G28">
-        <v>6.16984152208343</v>
+        <v>5.82852915700548</v>
       </c>
       <c r="H28">
-        <v>7.29213953463013</v>
+        <v>7.18533945080842</v>
       </c>
       <c r="I28">
-        <v>4.76217064389216</v>
+        <v>4.58652228864949</v>
       </c>
       <c r="J28">
-        <v>16.5601618902001</v>
+        <v>17.5471293464473</v>
       </c>
       <c r="K28">
-        <v>16.3599933176807</v>
+        <v>18.2202040159315</v>
       </c>
       <c r="L28">
-        <v>12.5793660946819</v>
+        <v>11.46357773795</v>
       </c>
       <c r="M28">
-        <v>9.77839028390285</v>
+        <v>10.6223757119752</v>
       </c>
       <c r="N28">
-        <v>11.8013051544899</v>
+        <v>11.2779214917986</v>
       </c>
       <c r="O28">
-        <v>706.014278764447</v>
+        <v>675.795171719188</v>
       </c>
       <c r="P28">
-        <v>56.4644150966501</v>
+        <v>88.57273684590351</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>445.33081265613</v>
+        <v>445.521763084919</v>
       </c>
       <c r="C29">
-        <v>7.14862654569855</v>
+        <v>7.13485556077118</v>
       </c>
       <c r="D29">
-        <v>3.14278263143969</v>
+        <v>3.08537328796952</v>
       </c>
       <c r="E29">
-        <v>6.32623478197431</v>
+        <v>6.25233658620925</v>
       </c>
       <c r="F29">
-        <v>12.6470478851313</v>
+        <v>16.1843986410172</v>
       </c>
       <c r="G29">
-        <v>2.37292659297252</v>
+        <v>2.35487379939831</v>
       </c>
       <c r="H29">
-        <v>2.92419957438374</v>
+        <v>2.82044652319323</v>
       </c>
       <c r="I29">
-        <v>4.84428993797819</v>
+        <v>4.9867608104406</v>
       </c>
       <c r="J29">
-        <v>8.23447894337723</v>
+        <v>8.220953830634819</v>
       </c>
       <c r="K29">
-        <v>3.82770233306319</v>
+        <v>3.74546814538973</v>
       </c>
       <c r="L29">
-        <v>6.66450906289299</v>
+        <v>6.66196455347275</v>
       </c>
       <c r="M29">
-        <v>3.09801735231986</v>
+        <v>3.09631261033343</v>
       </c>
       <c r="N29">
-        <v>13.3344282905513</v>
+        <v>13.2078563870818</v>
       </c>
       <c r="O29">
-        <v>868.027020948231</v>
+        <v>863.720724622278</v>
       </c>
       <c r="P29">
-        <v>3.69074579587906</v>
+        <v>4.61973488891429</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>228.917861171919</v>
+        <v>228.860112025043</v>
       </c>
       <c r="C30">
-        <v>5.13533121304133</v>
+        <v>5.01714372651166</v>
       </c>
       <c r="D30">
-        <v>5.78257095882123</v>
+        <v>5.93015861792272</v>
       </c>
       <c r="E30">
-        <v>12.227021845569</v>
+        <v>13.8724367449755</v>
       </c>
       <c r="F30">
-        <v>0.795750401366961</v>
+        <v>0.810354574080822</v>
       </c>
       <c r="G30">
-        <v>5.10507702342012</v>
+        <v>4.81946061682052</v>
       </c>
       <c r="H30">
-        <v>4.86813100906616</v>
+        <v>4.8092285083036</v>
       </c>
       <c r="I30">
-        <v>2.37546792746762</v>
+        <v>2.37517930919883</v>
       </c>
       <c r="J30">
-        <v>18.394866889611</v>
+        <v>19.1222395669186</v>
       </c>
       <c r="K30">
-        <v>14.6474583619366</v>
+        <v>15.2440670009337</v>
       </c>
       <c r="L30">
-        <v>45.1277718086934</v>
+        <v>40.2824880956667</v>
       </c>
       <c r="M30">
-        <v>10.0271168791002</v>
+        <v>9.720983269745419</v>
       </c>
       <c r="N30">
-        <v>18.0192276202355</v>
+        <v>17.9639516194025</v>
       </c>
       <c r="O30">
-        <v>502.170396637849</v>
+        <v>502.923417183263</v>
       </c>
       <c r="P30">
-        <v>6.78181116725589</v>
+        <v>8.624640056566079</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1889.91289291983</v>
+        <v>1889.98310944363</v>
       </c>
       <c r="C31">
-        <v>47.4407365205255</v>
+        <v>47.5198041724566</v>
       </c>
       <c r="D31">
-        <v>47.6445938420026</v>
+        <v>47.2686920428081</v>
       </c>
       <c r="E31">
-        <v>37.1627535361506</v>
+        <v>36.9566747319437</v>
       </c>
       <c r="F31">
-        <v>13.2075071040745</v>
+        <v>13.5435243639425</v>
       </c>
       <c r="G31">
-        <v>144.680126536621</v>
+        <v>144.516339594529</v>
       </c>
       <c r="H31">
-        <v>28.7593588736586</v>
+        <v>29.7108955567559</v>
       </c>
       <c r="I31">
-        <v>22.6506626814694</v>
+        <v>23.6993029162458</v>
       </c>
       <c r="J31">
-        <v>48.2771864481988</v>
+        <v>48.7671679866381</v>
       </c>
       <c r="K31">
-        <v>44.3587906591388</v>
+        <v>44.4821139957357</v>
       </c>
       <c r="L31">
-        <v>62.9639970576173</v>
+        <v>62.5754077410979</v>
       </c>
       <c r="M31">
-        <v>33.3240782264315</v>
+        <v>33.2903054565144</v>
       </c>
       <c r="N31">
-        <v>75.13393628341031</v>
+        <v>74.9726353052904</v>
       </c>
       <c r="O31">
-        <v>3527.13618462325</v>
+        <v>3524.15288459541</v>
       </c>
       <c r="P31">
-        <v>11.3261286920993</v>
+        <v>12.5400761014738</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>473.728210834676</v>
+        <v>473.834772063755</v>
       </c>
       <c r="C32">
-        <v>4.03538823577729</v>
+        <v>4.01702775374432</v>
       </c>
       <c r="D32">
-        <v>5.13419106496751</v>
+        <v>5.12204121886709</v>
       </c>
       <c r="E32">
-        <v>5.08644962456041</v>
+        <v>5.06386682615973</v>
       </c>
       <c r="F32">
-        <v>22.8316361671845</v>
+        <v>23.9643313111575</v>
       </c>
       <c r="G32">
-        <v>2.08518628481926</v>
+        <v>2.02087841016015</v>
       </c>
       <c r="H32">
-        <v>1.17380811693295</v>
+        <v>1.03566516931919</v>
       </c>
       <c r="I32">
-        <v>3.68872469107949</v>
+        <v>3.9218456563082</v>
       </c>
       <c r="J32">
-        <v>2.24490439821536</v>
+        <v>2.2194215979696</v>
       </c>
       <c r="K32">
-        <v>4.79173071122071</v>
+        <v>4.6576548326151</v>
       </c>
       <c r="L32">
-        <v>18.0969261585994</v>
+        <v>16.7210038648063</v>
       </c>
       <c r="M32">
-        <v>5.00106982438256</v>
+        <v>4.69056307072334</v>
       </c>
       <c r="N32">
-        <v>12.770265458501</v>
+        <v>12.8838240798249</v>
       </c>
       <c r="O32">
-        <v>677.645789820646</v>
+        <v>672.886150540676</v>
       </c>
       <c r="P32">
-        <v>22.2324926540663</v>
+        <v>27.5077276495438</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4910.26219953421</v>
+        <v>4905.21127534394</v>
       </c>
       <c r="C33">
-        <v>83.3629347250874</v>
+        <v>86.00970890327871</v>
       </c>
       <c r="D33">
-        <v>159.5269083539</v>
+        <v>153.573466349566</v>
       </c>
       <c r="E33">
-        <v>86.9268650219052</v>
+        <v>96.016378124669</v>
       </c>
       <c r="F33">
-        <v>12.3523376401576</v>
+        <v>14.0697374241101</v>
       </c>
       <c r="G33">
-        <v>88.58548615942691</v>
+        <v>90.98820189909991</v>
       </c>
       <c r="H33">
-        <v>45.9198042188132</v>
+        <v>49.7796478115795</v>
       </c>
       <c r="I33">
-        <v>39.2390775216367</v>
+        <v>44.3535610010758</v>
       </c>
       <c r="J33">
-        <v>118.021424011456</v>
+        <v>130.699758607032</v>
       </c>
       <c r="K33">
-        <v>118.142175637293</v>
+        <v>128.381901953012</v>
       </c>
       <c r="L33">
-        <v>149.492032667454</v>
+        <v>155.277877539617</v>
       </c>
       <c r="M33">
-        <v>85.6043758373565</v>
+        <v>90.8539971637025</v>
       </c>
       <c r="N33">
-        <v>148.938098568321</v>
+        <v>155.366331552381</v>
       </c>
       <c r="O33">
-        <v>7529.86911910634</v>
+        <v>7448.50062031088</v>
       </c>
       <c r="P33">
-        <v>54.5457616617931</v>
+        <v>81.70613668120249</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1743.23869632779</v>
+        <v>1743.23732468222</v>
       </c>
       <c r="C34">
-        <v>73.63820169104051</v>
+        <v>75.0493786668296</v>
       </c>
       <c r="D34">
-        <v>218.22095122479</v>
+        <v>226.934728017481</v>
       </c>
       <c r="E34">
-        <v>92.2373158471942</v>
+        <v>94.210700651305</v>
       </c>
       <c r="F34">
-        <v>6.7343552519582</v>
+        <v>7.0859824903759</v>
       </c>
       <c r="G34">
-        <v>71.57869308107701</v>
+        <v>70.92318389284419</v>
       </c>
       <c r="H34">
-        <v>47.605434876738</v>
+        <v>47.0815213921329</v>
       </c>
       <c r="I34">
-        <v>28.9863533986977</v>
+        <v>29.075408758777</v>
       </c>
       <c r="J34">
-        <v>65.2617192110261</v>
+        <v>65.61556007195711</v>
       </c>
       <c r="K34">
-        <v>65.6024289609946</v>
+        <v>64.5810853654193</v>
       </c>
       <c r="L34">
-        <v>113.59825380947</v>
+        <v>113.010285547249</v>
       </c>
       <c r="M34">
-        <v>57.4201158965304</v>
+        <v>56.9887964376095</v>
       </c>
       <c r="N34">
-        <v>135.579348354435</v>
+        <v>138.567003575855</v>
       </c>
       <c r="O34">
-        <v>2859.94593626492</v>
+        <v>2844.30583854767</v>
       </c>
       <c r="P34">
-        <v>76.2972769015412</v>
+        <v>79.2782830004776</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>124.482654159572</v>
+        <v>124.429567641775</v>
       </c>
       <c r="C35">
-        <v>6.31492649095531</v>
+        <v>6.22084980780112</v>
       </c>
       <c r="D35">
-        <v>1.0905505991715</v>
+        <v>1.02551969991013</v>
       </c>
       <c r="E35">
-        <v>2.14895300180184</v>
+        <v>1.88862216293055</v>
       </c>
       <c r="F35">
-        <v>4.82644236115781</v>
+        <v>5.41110034238808</v>
       </c>
       <c r="G35">
-        <v>0.41477591579805</v>
+        <v>0.38898215305793</v>
       </c>
       <c r="H35">
-        <v>0.4903994124122</v>
+        <v>0.466161537601055</v>
       </c>
       <c r="I35">
-        <v>0.7749413985279791</v>
+        <v>0.752918814203203</v>
       </c>
       <c r="J35">
-        <v>2.23263516292676</v>
+        <v>2.18325630782508</v>
       </c>
       <c r="K35">
-        <v>6.44351831715818</v>
+        <v>6.61540174547108</v>
       </c>
       <c r="L35">
-        <v>2.73199183000942</v>
+        <v>2.52201963773618</v>
       </c>
       <c r="M35">
-        <v>2.02374515767686</v>
+        <v>2.19045293751281</v>
       </c>
       <c r="N35">
-        <v>2.78261891471948</v>
+        <v>2.61518027730733</v>
       </c>
       <c r="O35">
-        <v>262.588339384703</v>
+        <v>250.32998135967</v>
       </c>
       <c r="P35">
-        <v>31.4720609906055</v>
+        <v>43.7785386720057</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2534.87612366498</v>
+        <v>2533.64267914652</v>
       </c>
       <c r="C36">
-        <v>74.5565554855702</v>
+        <v>77.07802538453601</v>
       </c>
       <c r="D36">
-        <v>25.4903147450348</v>
+        <v>26.2352244048559</v>
       </c>
       <c r="E36">
-        <v>97.9112366382801</v>
+        <v>99.9590922081949</v>
       </c>
       <c r="F36">
-        <v>29.3746466140433</v>
+        <v>32.0029398622052</v>
       </c>
       <c r="G36">
-        <v>93.442914530144</v>
+        <v>91.901261925784</v>
       </c>
       <c r="H36">
-        <v>115.584936737433</v>
+        <v>122.674013567748</v>
       </c>
       <c r="I36">
-        <v>51.4525178283299</v>
+        <v>54.076361188286</v>
       </c>
       <c r="J36">
-        <v>270.358393695575</v>
+        <v>277.930200065621</v>
       </c>
       <c r="K36">
-        <v>156.693198042291</v>
+        <v>160.60699593305</v>
       </c>
       <c r="L36">
-        <v>110.632480620026</v>
+        <v>111.66037332014</v>
       </c>
       <c r="M36">
-        <v>254.461705270415</v>
+        <v>262.55135778575</v>
       </c>
       <c r="N36">
-        <v>93.2689469550069</v>
+        <v>96.1262034422238</v>
       </c>
       <c r="O36">
-        <v>4107.84181632007</v>
+        <v>4064.16320918155</v>
       </c>
       <c r="P36">
-        <v>62.233418822489</v>
+        <v>67.57126855321241</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>843.889914721594</v>
+        <v>843.709682661491</v>
       </c>
       <c r="C37">
-        <v>21.0108112061508</v>
+        <v>22.6409504398064</v>
       </c>
       <c r="D37">
-        <v>11.4655766747176</v>
+        <v>13.4781874627523</v>
       </c>
       <c r="E37">
-        <v>20.6827284507991</v>
+        <v>22.4133165509355</v>
       </c>
       <c r="F37">
-        <v>46.7955126093578</v>
+        <v>50.7806455510647</v>
       </c>
       <c r="G37">
-        <v>4.4846805903446</v>
+        <v>4.49803424587164</v>
       </c>
       <c r="H37">
-        <v>16.6634570748756</v>
+        <v>17.4512384346201</v>
       </c>
       <c r="I37">
-        <v>11.611919744276</v>
+        <v>12.3327014179516</v>
       </c>
       <c r="J37">
-        <v>32.9700560208477</v>
+        <v>34.2406464956178</v>
       </c>
       <c r="K37">
-        <v>34.2577706459505</v>
+        <v>34.0555997492766</v>
       </c>
       <c r="L37">
-        <v>27.6294247947973</v>
+        <v>26.9180653008603</v>
       </c>
       <c r="M37">
-        <v>30.1530276306805</v>
+        <v>29.5650214499214</v>
       </c>
       <c r="N37">
-        <v>20.9352448674344</v>
+        <v>20.8095502745057</v>
       </c>
       <c r="O37">
-        <v>1235.42739141034</v>
+        <v>1210.40153645868</v>
       </c>
       <c r="P37">
-        <v>51.1492920158169</v>
+        <v>65.831631964624</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>755.442832787387</v>
+        <v>755.271119625177</v>
       </c>
       <c r="C38">
-        <v>26.9563898691235</v>
+        <v>28.8617239462659</v>
       </c>
       <c r="D38">
-        <v>10.5541264483059</v>
+        <v>10.2558838790753</v>
       </c>
       <c r="E38">
-        <v>56.4729704666715</v>
+        <v>60.6294103055649</v>
       </c>
       <c r="F38">
-        <v>1.8212202189506</v>
+        <v>1.90563326379461</v>
       </c>
       <c r="G38">
-        <v>9.08120243508843</v>
+        <v>9.02847928288756</v>
       </c>
       <c r="H38">
-        <v>9.092233825407771</v>
+        <v>8.748336038686761</v>
       </c>
       <c r="I38">
-        <v>8.58579202615902</v>
+        <v>8.365776779694221</v>
       </c>
       <c r="J38">
-        <v>29.8334475887961</v>
+        <v>29.6968283290288</v>
       </c>
       <c r="K38">
-        <v>22.019523226337</v>
+        <v>21.0143469279747</v>
       </c>
       <c r="L38">
-        <v>64.64603611324181</v>
+        <v>60.3069833089966</v>
       </c>
       <c r="M38">
-        <v>25.9658704843271</v>
+        <v>25.3217602109315</v>
       </c>
       <c r="N38">
-        <v>27.0344459806272</v>
+        <v>26.4900458041164</v>
       </c>
       <c r="O38">
-        <v>1318.98941852266</v>
+        <v>1309.15415445002</v>
       </c>
       <c r="P38">
-        <v>61.9680196488585</v>
+        <v>73.4130474897174</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2965.97546810724</v>
+        <v>2964.12250532011</v>
       </c>
       <c r="C39">
-        <v>108.238772550815</v>
+        <v>109.894857307009</v>
       </c>
       <c r="D39">
-        <v>61.5400669314464</v>
+        <v>66.4939340138794</v>
       </c>
       <c r="E39">
-        <v>111.987413311639</v>
+        <v>126.309228263253</v>
       </c>
       <c r="F39">
-        <v>26.7059330498329</v>
+        <v>31.6483806280465</v>
       </c>
       <c r="G39">
-        <v>110.904450576837</v>
+        <v>105.233015866184</v>
       </c>
       <c r="H39">
-        <v>54.5410397293744</v>
+        <v>58.4031903184028</v>
       </c>
       <c r="I39">
-        <v>57.0922535276983</v>
+        <v>64.1568392470255</v>
       </c>
       <c r="J39">
-        <v>202.228167546389</v>
+        <v>217.37791197357</v>
       </c>
       <c r="K39">
-        <v>114.60954170096</v>
+        <v>122.493286921513</v>
       </c>
       <c r="L39">
-        <v>144.822083825932</v>
+        <v>145.53263825825</v>
       </c>
       <c r="M39">
-        <v>76.31889392033369</v>
+        <v>80.14024523365509</v>
       </c>
       <c r="N39">
-        <v>100.573325252903</v>
+        <v>104.499683707312</v>
       </c>
       <c r="O39">
-        <v>4584.36178679153</v>
+        <v>4500.82680304619</v>
       </c>
       <c r="P39">
-        <v>68.5982479763196</v>
+        <v>91.3649246948425</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>242.122506540541</v>
+        <v>242.111267661067</v>
       </c>
       <c r="C40">
-        <v>4.54985601378076</v>
+        <v>4.51807599682357</v>
       </c>
       <c r="D40">
-        <v>10.5584302899445</v>
+        <v>10.557535376253</v>
       </c>
       <c r="E40">
-        <v>4.14650179653692</v>
+        <v>4.15811888507987</v>
       </c>
       <c r="F40">
-        <v>0.868851350062159</v>
+        <v>0.853220654899253</v>
       </c>
       <c r="G40">
-        <v>3.17294038524599</v>
+        <v>3.31704847562119</v>
       </c>
       <c r="H40">
-        <v>8.16807766803826</v>
+        <v>8.28915444792356</v>
       </c>
       <c r="I40">
-        <v>1.81977924419548</v>
+        <v>1.83436565953236</v>
       </c>
       <c r="J40">
-        <v>12.3365214809725</v>
+        <v>12.2556521908219</v>
       </c>
       <c r="K40">
-        <v>7.12171459917086</v>
+        <v>7.06377969889926</v>
       </c>
       <c r="L40">
-        <v>15.0228619588098</v>
+        <v>15.0668376369324</v>
       </c>
       <c r="M40">
-        <v>9.45280117721035</v>
+        <v>9.410758262557639</v>
       </c>
       <c r="N40">
-        <v>27.2979782488272</v>
+        <v>27.0279132184732</v>
       </c>
       <c r="O40">
-        <v>391.988628898185</v>
+        <v>392.100262792304</v>
       </c>
       <c r="P40">
-        <v>2.16051647725363</v>
+        <v>2.22397517158537</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>910.281705966952</v>
+        <v>909.775989457335</v>
       </c>
       <c r="C41">
-        <v>19.6122059954044</v>
+        <v>20.8673042328778</v>
       </c>
       <c r="D41">
-        <v>105.944766375325</v>
+        <v>113.414450160661</v>
       </c>
       <c r="E41">
-        <v>47.2333446015643</v>
+        <v>49.2000545746391</v>
       </c>
       <c r="F41">
-        <v>3.891646043372</v>
+        <v>3.97008750869141</v>
       </c>
       <c r="G41">
-        <v>38.2434311037615</v>
+        <v>38.2727623201785</v>
       </c>
       <c r="H41">
-        <v>36.4954706419519</v>
+        <v>36.9406480075226</v>
       </c>
       <c r="I41">
-        <v>8.0943084451613</v>
+        <v>8.13271670514955</v>
       </c>
       <c r="J41">
-        <v>48.2038386559906</v>
+        <v>49.0758624845891</v>
       </c>
       <c r="K41">
-        <v>49.3110771002355</v>
+        <v>50.7512814090104</v>
       </c>
       <c r="L41">
-        <v>32.4816855272431</v>
+        <v>31.7941612555451</v>
       </c>
       <c r="M41">
-        <v>39.7423602918265</v>
+        <v>38.9547088931238</v>
       </c>
       <c r="N41">
-        <v>21.5328201126345</v>
+        <v>21.586150911319</v>
       </c>
       <c r="O41">
-        <v>1405.64625975783</v>
+        <v>1392.23822256069</v>
       </c>
       <c r="P41">
-        <v>18.8017230436822</v>
+        <v>20.5422431815977</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>133.519573673448</v>
+        <v>133.79708652343</v>
       </c>
       <c r="C42">
-        <v>10.6726564449988</v>
+        <v>10.4301325007805</v>
       </c>
       <c r="D42">
-        <v>1.47627442397302</v>
+        <v>1.47078380442001</v>
       </c>
       <c r="E42">
-        <v>6.42171231173378</v>
+        <v>5.95211814628219</v>
       </c>
       <c r="F42">
-        <v>1.85532685531145</v>
+        <v>1.72987865116983</v>
       </c>
       <c r="G42">
-        <v>1.23005300050617</v>
+        <v>1.12512243703385</v>
       </c>
       <c r="H42">
-        <v>1.82839031388895</v>
+        <v>1.59286528404367</v>
       </c>
       <c r="I42">
-        <v>1.13607032195354</v>
+        <v>1.07682164056634</v>
       </c>
       <c r="J42">
-        <v>3.74322480623212</v>
+        <v>3.51145351984565</v>
       </c>
       <c r="K42">
-        <v>7.27892849885128</v>
+        <v>7.39988212761826</v>
       </c>
       <c r="L42">
-        <v>9.45412959924886</v>
+        <v>8.08892430484299</v>
       </c>
       <c r="M42">
-        <v>2.92975542202465</v>
+        <v>3.01195675418452</v>
       </c>
       <c r="N42">
-        <v>9.00213181379412</v>
+        <v>8.436326649428601</v>
       </c>
       <c r="O42">
-        <v>304.273278188445</v>
+        <v>294.127065084046</v>
       </c>
       <c r="P42">
-        <v>31.7350920364198</v>
+        <v>44.8061802831379</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1364.03210078119</v>
+        <v>1363.49487527055</v>
       </c>
       <c r="C43">
-        <v>43.0407040933021</v>
+        <v>42.959304092964</v>
       </c>
       <c r="D43">
-        <v>48.0907841791125</v>
+        <v>52.7832965876934</v>
       </c>
       <c r="E43">
-        <v>67.7308974194178</v>
+        <v>68.3261041417081</v>
       </c>
       <c r="F43">
-        <v>8.50305095308874</v>
+        <v>9.232406113889491</v>
       </c>
       <c r="G43">
-        <v>33.1504440820608</v>
+        <v>33.4719897276316</v>
       </c>
       <c r="H43">
-        <v>30.7599024803664</v>
+        <v>32.5160224288339</v>
       </c>
       <c r="I43">
-        <v>18.1362324355662</v>
+        <v>19.1853906619937</v>
       </c>
       <c r="J43">
-        <v>70.5723326622401</v>
+        <v>74.794860624241</v>
       </c>
       <c r="K43">
-        <v>47.6142554179271</v>
+        <v>50.1520707824092</v>
       </c>
       <c r="L43">
-        <v>63.8737149654391</v>
+        <v>66.2109663292822</v>
       </c>
       <c r="M43">
-        <v>83.9895421571897</v>
+        <v>89.18946569754971</v>
       </c>
       <c r="N43">
-        <v>75.91714526186119</v>
+        <v>78.902152115173</v>
       </c>
       <c r="O43">
-        <v>2060.84860952589</v>
+        <v>2032.13353588383</v>
       </c>
       <c r="P43">
-        <v>38.4689610276313</v>
+        <v>41.376236984544</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4625.41236074091</v>
+        <v>4626.71281988018</v>
       </c>
       <c r="C44">
-        <v>155.241693904852</v>
+        <v>161.271434796998</v>
       </c>
       <c r="D44">
-        <v>80.2928149608523</v>
+        <v>80.6540235951824</v>
       </c>
       <c r="E44">
-        <v>100.670683673247</v>
+        <v>103.762992793462</v>
       </c>
       <c r="F44">
-        <v>223.832672748314</v>
+        <v>229.898527296229</v>
       </c>
       <c r="G44">
-        <v>132.359902793031</v>
+        <v>132.250577910355</v>
       </c>
       <c r="H44">
-        <v>63.1183898166902</v>
+        <v>65.0970591047699</v>
       </c>
       <c r="I44">
-        <v>46.6469785174754</v>
+        <v>49.693627224402</v>
       </c>
       <c r="J44">
-        <v>148.221437120876</v>
+        <v>153.736994161916</v>
       </c>
       <c r="K44">
-        <v>138.188988516402</v>
+        <v>138.498644150235</v>
       </c>
       <c r="L44">
-        <v>273.656869880897</v>
+        <v>257.368795253005</v>
       </c>
       <c r="M44">
-        <v>143.399107420702</v>
+        <v>146.324031544094</v>
       </c>
       <c r="N44">
-        <v>100.73658408358</v>
+        <v>99.5800964822793</v>
       </c>
       <c r="O44">
-        <v>7783.886804106001</v>
+        <v>7719.12915204494</v>
       </c>
       <c r="P44">
-        <v>180.146099366082</v>
+        <v>231.832611411872</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>431.024860541427</v>
+        <v>430.927526461313</v>
       </c>
       <c r="C45">
-        <v>18.1827931859174</v>
+        <v>18.5605896409447</v>
       </c>
       <c r="D45">
-        <v>3.67159322193382</v>
+        <v>3.57269518034541</v>
       </c>
       <c r="E45">
-        <v>12.7120801232177</v>
+        <v>12.7558886280491</v>
       </c>
       <c r="F45">
-        <v>15.4242299482497</v>
+        <v>19.5458975605057</v>
       </c>
       <c r="G45">
-        <v>9.51934782527033</v>
+        <v>9.23473361293871</v>
       </c>
       <c r="H45">
-        <v>4.82884284460958</v>
+        <v>4.74474571090822</v>
       </c>
       <c r="I45">
-        <v>5.9976408343434</v>
+        <v>5.98240610998342</v>
       </c>
       <c r="J45">
-        <v>17.2753928785169</v>
+        <v>17.3660402414428</v>
       </c>
       <c r="K45">
-        <v>11.5847965495783</v>
+        <v>11.4929330233406</v>
       </c>
       <c r="L45">
-        <v>23.0714939506821</v>
+        <v>22.234308934794</v>
       </c>
       <c r="M45">
-        <v>28.5736741137439</v>
+        <v>29.5655841186372</v>
       </c>
       <c r="N45">
-        <v>26.3368122985905</v>
+        <v>25.4728893031295</v>
       </c>
       <c r="O45">
-        <v>866.544895975063</v>
+        <v>857.146012352436</v>
       </c>
       <c r="P45">
-        <v>15.2725570203976</v>
+        <v>21.4187604327728</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>112.703907773908</v>
+        <v>112.758388081157</v>
       </c>
       <c r="C46">
-        <v>4.91100205716425</v>
+        <v>5.28309945080182</v>
       </c>
       <c r="D46">
-        <v>2.04652301834727</v>
+        <v>2.1416838128661</v>
       </c>
       <c r="E46">
-        <v>6.8751333928917</v>
+        <v>7.60693941581408</v>
       </c>
       <c r="F46">
-        <v>0.9797199177955021</v>
+        <v>0.9556463597686941</v>
       </c>
       <c r="G46">
-        <v>1.27528091718694</v>
+        <v>1.11359581671912</v>
       </c>
       <c r="H46">
-        <v>1.52488188747745</v>
+        <v>1.42430495919068</v>
       </c>
       <c r="I46">
-        <v>2.55375645448921</v>
+        <v>2.50683459886039</v>
       </c>
       <c r="J46">
-        <v>5.2587159862584</v>
+        <v>5.25545779475684</v>
       </c>
       <c r="K46">
-        <v>4.4820398904838</v>
+        <v>4.38581442280862</v>
       </c>
       <c r="L46">
-        <v>13.9453387810592</v>
+        <v>11.3451503213337</v>
       </c>
       <c r="M46">
-        <v>4.74505504247851</v>
+        <v>4.60769530799818</v>
       </c>
       <c r="N46">
-        <v>7.41267017137721</v>
+        <v>8.04959007858926</v>
       </c>
       <c r="O46">
-        <v>254.334884531566</v>
+        <v>252.968500183701</v>
       </c>
       <c r="P46">
-        <v>9.449059332671551</v>
+        <v>12.0952685507889</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1501.69098533247</v>
+        <v>1501.01741312715</v>
       </c>
       <c r="C47">
-        <v>55.3380076158805</v>
+        <v>58.7142476030089</v>
       </c>
       <c r="D47">
-        <v>60.9311679481634</v>
+        <v>65.7135855839356</v>
       </c>
       <c r="E47">
-        <v>58.1120773204635</v>
+        <v>60.433576318206</v>
       </c>
       <c r="F47">
-        <v>12.7594852259309</v>
+        <v>14.2012491566674</v>
       </c>
       <c r="G47">
-        <v>38.9172064662768</v>
+        <v>39.4866280427861</v>
       </c>
       <c r="H47">
-        <v>23.256637756184</v>
+        <v>24.1967950350023</v>
       </c>
       <c r="I47">
-        <v>16.7623964633812</v>
+        <v>17.5560441613017</v>
       </c>
       <c r="J47">
-        <v>45.9736523952971</v>
+        <v>46.969594171665</v>
       </c>
       <c r="K47">
-        <v>43.7577691456057</v>
+        <v>43.6901286721973</v>
       </c>
       <c r="L47">
-        <v>60.6114495758357</v>
+        <v>60.175210185934</v>
       </c>
       <c r="M47">
-        <v>79.01058499142501</v>
+        <v>76.5452640965753</v>
       </c>
       <c r="N47">
-        <v>47.0624041824384</v>
+        <v>48.4721261451484</v>
       </c>
       <c r="O47">
-        <v>2818.87538469559</v>
+        <v>2800.77679463433</v>
       </c>
       <c r="P47">
-        <v>57.454618965874</v>
+        <v>62.565171146894</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1276.11743924831</v>
+        <v>1276.59330180204</v>
       </c>
       <c r="C48">
-        <v>32.8803747593796</v>
+        <v>33.6854710557315</v>
       </c>
       <c r="D48">
-        <v>9.50085359651524</v>
+        <v>9.36566825724128</v>
       </c>
       <c r="E48">
-        <v>66.9371126225133</v>
+        <v>70.19842313873861</v>
       </c>
       <c r="F48">
-        <v>12.9508492920574</v>
+        <v>14.0562879703826</v>
       </c>
       <c r="G48">
-        <v>18.2161597547414</v>
+        <v>18.1656805607057</v>
       </c>
       <c r="H48">
-        <v>9.67512165253034</v>
+        <v>9.475147004194859</v>
       </c>
       <c r="I48">
-        <v>13.8604814579986</v>
+        <v>13.9867012189852</v>
       </c>
       <c r="J48">
-        <v>36.1546953215759</v>
+        <v>35.6279143264785</v>
       </c>
       <c r="K48">
-        <v>20.6935513100965</v>
+        <v>20.4310587260488</v>
       </c>
       <c r="L48">
-        <v>43.0001440760115</v>
+        <v>40.9755365096403</v>
       </c>
       <c r="M48">
-        <v>167.978048968643</v>
+        <v>159.443653489928</v>
       </c>
       <c r="N48">
-        <v>27.6328637366917</v>
+        <v>26.9975700310294</v>
       </c>
       <c r="O48">
-        <v>2324.00504667159</v>
+        <v>2312.86082003354</v>
       </c>
       <c r="P48">
-        <v>90.3196212893301</v>
+        <v>108.059129633321</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>567.235852727996</v>
+        <v>567.207804639821</v>
       </c>
       <c r="C49">
-        <v>7.88870648829224</v>
+        <v>8.10256714101781</v>
       </c>
       <c r="D49">
-        <v>5.23873318898563</v>
+        <v>5.39014425719142</v>
       </c>
       <c r="E49">
-        <v>14.9973920787983</v>
+        <v>15.2155247893951</v>
       </c>
       <c r="F49">
-        <v>33.1109671554213</v>
+        <v>34.4756523154218</v>
       </c>
       <c r="G49">
-        <v>18.9675875900509</v>
+        <v>18.3693983987949</v>
       </c>
       <c r="H49">
-        <v>5.30567549789398</v>
+        <v>5.24254966880989</v>
       </c>
       <c r="I49">
-        <v>9.62237788346067</v>
+        <v>9.21267290265541</v>
       </c>
       <c r="J49">
-        <v>21.4648591414997</v>
+        <v>21.1541552680865</v>
       </c>
       <c r="K49">
-        <v>8.32928304134863</v>
+        <v>7.92883477874916</v>
       </c>
       <c r="L49">
-        <v>5.24877991182855</v>
+        <v>5.21390641004226</v>
       </c>
       <c r="M49">
-        <v>8.540541410680079</v>
+        <v>8.67979751511966</v>
       </c>
       <c r="N49">
-        <v>3.99759944238266</v>
+        <v>4.16184073556886</v>
       </c>
       <c r="O49">
-        <v>622.922991337198</v>
+        <v>622.273851300224</v>
       </c>
       <c r="P49">
-        <v>9.095453597964701</v>
+        <v>9.33810037290448</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1010.6152229456</v>
+        <v>1009.20568555495</v>
       </c>
       <c r="C50">
-        <v>88.97638353523691</v>
+        <v>95.1642967441305</v>
       </c>
       <c r="D50">
-        <v>9.654859302823951</v>
+        <v>10.3685775467368</v>
       </c>
       <c r="E50">
-        <v>118.965083501013</v>
+        <v>124.435940791811</v>
       </c>
       <c r="F50">
-        <v>6.50642255890701</v>
+        <v>7.79743574398362</v>
       </c>
       <c r="G50">
-        <v>24.3100529386284</v>
+        <v>21.5759529152287</v>
       </c>
       <c r="H50">
-        <v>30.5652954656772</v>
+        <v>30.6799403835483</v>
       </c>
       <c r="I50">
-        <v>21.8235514747898</v>
+        <v>23.686568114812</v>
       </c>
       <c r="J50">
-        <v>107.564012607243</v>
+        <v>108.955328402193</v>
       </c>
       <c r="K50">
-        <v>131.85705636918</v>
+        <v>128.916839975351</v>
       </c>
       <c r="L50">
-        <v>89.1398518150835</v>
+        <v>83.2010845142045</v>
       </c>
       <c r="M50">
-        <v>47.471096103778</v>
+        <v>46.9185865231954</v>
       </c>
       <c r="N50">
-        <v>68.0818582273141</v>
+        <v>70.1348009864773</v>
       </c>
       <c r="O50">
-        <v>1929.06740104032</v>
+        <v>1875.0349651701</v>
       </c>
       <c r="P50">
-        <v>87.6270345467303</v>
+        <v>136.149179065612</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>101.561258405316</v>
+        <v>101.471351742184</v>
       </c>
       <c r="C51">
-        <v>1.38896341700134</v>
+        <v>1.33766741472365</v>
       </c>
       <c r="D51">
-        <v>0.641677201833149</v>
+        <v>0.718788196185491</v>
       </c>
       <c r="E51">
-        <v>1.47235282992845</v>
+        <v>1.53649243871845</v>
       </c>
       <c r="F51">
-        <v>23.4242390350605</v>
+        <v>24.6848201163378</v>
       </c>
       <c r="G51">
-        <v>2.36619626030656</v>
+        <v>2.27212783683166</v>
       </c>
       <c r="H51">
-        <v>0.382915689093577</v>
+        <v>0.328173450897239</v>
       </c>
       <c r="I51">
-        <v>1.59142706699555</v>
+        <v>1.66324335234095</v>
       </c>
       <c r="J51">
-        <v>2.03312853144423</v>
+        <v>1.80511509406996</v>
       </c>
       <c r="K51">
-        <v>1.15232960645779</v>
+        <v>1.09280351195799</v>
       </c>
       <c r="L51">
-        <v>0.602023330668606</v>
+        <v>0.602887557343727</v>
       </c>
       <c r="M51">
-        <v>0.84766680784815</v>
+        <v>0.794742846305704</v>
       </c>
       <c r="N51">
-        <v>1.57661888224809</v>
+        <v>1.55357044079648</v>
       </c>
       <c r="O51">
-        <v>198.449773382502</v>
+        <v>194.684532393126</v>
       </c>
       <c r="P51">
-        <v>11.7247164766102</v>
+        <v>14.6689705314946</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_1999.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_1999.xlsx
@@ -522,7 +522,7 @@
         <v>0.325649689434762</v>
       </c>
       <c r="J3">
-        <v>0.6169735126045221</v>
+        <v>0.616973512604522</v>
       </c>
       <c r="K3">
         <v>0.375601687487167</v>
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="B8">
-        <v>732.218840543785</v>
+        <v>732.2188405437849</v>
       </c>
       <c r="C8">
         <v>15.347169893396</v>
       </c>
       <c r="D8">
-        <v>9.125014295784951</v>
+        <v>9.12501429578495</v>
       </c>
       <c r="E8">
         <v>23.9003644591612</v>
@@ -978,7 +978,7 @@
         <v>2.06884101634215</v>
       </c>
       <c r="F12">
-        <v>0.6346459717024811</v>
+        <v>0.634645971702481</v>
       </c>
       <c r="G12">
         <v>1.14811855318093</v>
@@ -1574,7 +1574,7 @@
         <v>535.288748883229</v>
       </c>
       <c r="N23">
-        <v>88.48205959323551</v>
+        <v>88.4820595932355</v>
       </c>
       <c r="O23">
         <v>3423.56507098326</v>
@@ -1767,7 +1767,7 @@
         <v>0.466151591229967</v>
       </c>
       <c r="I27">
-        <v>0.7545981535591591</v>
+        <v>0.754598153559159</v>
       </c>
       <c r="J27">
         <v>4.42445147120486</v>
@@ -2183,7 +2183,7 @@
         <v>0.466161537601055</v>
       </c>
       <c r="I35">
-        <v>0.752918814203203</v>
+        <v>0.7529188142032029</v>
       </c>
       <c r="J35">
         <v>2.18325630782508</v>
@@ -2308,7 +2308,7 @@
         <v>1210.40153645868</v>
       </c>
       <c r="P37">
-        <v>65.831631964624</v>
+        <v>65.83163196462399</v>
       </c>
     </row>
     <row r="38">
@@ -2440,7 +2440,7 @@
         <v>3.31704847562119</v>
       </c>
       <c r="H40">
-        <v>8.28915444792356</v>
+        <v>8.289154447923559</v>
       </c>
       <c r="I40">
         <v>1.83436565953236</v>
@@ -2636,7 +2636,7 @@
         <v>161.271434796998</v>
       </c>
       <c r="D44">
-        <v>80.6540235951824</v>
+        <v>80.65402359518239</v>
       </c>
       <c r="E44">
         <v>103.762992793462</v>
@@ -2721,7 +2721,7 @@
         <v>25.4728893031295</v>
       </c>
       <c r="O45">
-        <v>857.146012352436</v>
+        <v>857.1460123524359</v>
       </c>
       <c r="P45">
         <v>21.4187604327728</v>
@@ -2819,7 +2819,7 @@
         <v>60.175210185934</v>
       </c>
       <c r="M47">
-        <v>76.5452640965753</v>
+        <v>76.54526409657529</v>
       </c>
       <c r="N47">
         <v>48.4721261451484</v>
@@ -2847,7 +2847,7 @@
         <v>9.36566825724128</v>
       </c>
       <c r="E48">
-        <v>70.19842313873861</v>
+        <v>70.1984231387386</v>
       </c>
       <c r="F48">
         <v>14.0562879703826</v>
@@ -3000,7 +3000,7 @@
         <v>1.33766741472365</v>
       </c>
       <c r="D51">
-        <v>0.718788196185491</v>
+        <v>0.7187881961854909</v>
       </c>
       <c r="E51">
         <v>1.53649243871845</v>
@@ -3159,7 +3159,7 @@
         <v>59.9823605100292</v>
       </c>
       <c r="E54">
-        <v>67.0747254460584</v>
+        <v>67.07472544605839</v>
       </c>
       <c r="F54">
         <v>9.321596757764</v>
@@ -3868,7 +3868,7 @@
         <v>22333.90257078</v>
       </c>
       <c r="P67">
-        <v>527.06535551471</v>
+        <v>527.0653555147099</v>
       </c>
     </row>
     <row r="68">
@@ -3887,7 +3887,7 @@
         <v>109.321365157831</v>
       </c>
       <c r="E68">
-        <v>64.84003356177171</v>
+        <v>64.8400335617717</v>
       </c>
       <c r="F68">
         <v>17.314465978477</v>
@@ -3957,7 +3957,7 @@
         <v>102.382877515663</v>
       </c>
       <c r="K69">
-        <v>84.9784333202981</v>
+        <v>84.97843332029809</v>
       </c>
       <c r="L69">
         <v>131.108776609159</v>
@@ -4150,7 +4150,7 @@
         <v>476.445850458561</v>
       </c>
       <c r="F73">
-        <v>70.86442782216921</v>
+        <v>70.8644278221692</v>
       </c>
       <c r="G73">
         <v>220.7620935901</v>
